--- a/price_for_emex.xlsx
+++ b/price_for_emex.xlsx
@@ -467,7 +467,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>243,6</t>
+          <t>144,0</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -3495,7 +3495,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F110" t="n">
         <v>1</v>
@@ -3519,7 +3519,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>308,4</t>
+          <t>144,0</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -14443,7 +14443,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F501" t="n">
         <v>1</v>
@@ -14551,7 +14551,7 @@
       </c>
       <c r="D505" t="inlineStr">
         <is>
-          <t>213,6</t>
+          <t>144,0</t>
         </is>
       </c>
       <c r="E505" t="n">

--- a/price_for_emex.xlsx
+++ b/price_for_emex.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F505"/>
+  <dimension ref="A1:F504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2375,7 +2375,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F70" t="n">
         <v>1</v>
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F227" t="n">
         <v>1</v>
@@ -12212,12 +12212,12 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>RD031AVT</t>
+          <t>RD032AVT</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Радиатор двигателя BMW 1 (10-) / 2 (13-) / 3 (-19) / 4 (13-) 1.5-3.0</t>
+          <t>Радиатор двигателя MB C (07-) / E (-16) / GLK (08-) 1.6-3.5</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -12227,11 +12227,11 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>3422,4</t>
+          <t>6668,4</t>
         </is>
       </c>
       <c r="E422" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F422" t="n">
         <v>1</v>
@@ -12240,12 +12240,12 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>RD032AVT</t>
+          <t>RD034AVT</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MB C (07-) / E (-16) / GLK (08-) 1.6-3.5</t>
+          <t>Радиатор двигателя BMW X5 (-13) 3.0-4.8</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -12255,7 +12255,7 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>6668,4</t>
+          <t>11433,6</t>
         </is>
       </c>
       <c r="E423" t="n">
@@ -12268,12 +12268,12 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>RD034AVT</t>
+          <t>RD036AVT</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Радиатор двигателя BMW X5 (-13) 3.0-4.8</t>
+          <t>Радиатор двигателя MB A (-14) / B (11-) / CLA (-19) / GLA (13-) 1.5-2.2</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -12283,11 +12283,11 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>11433,6</t>
+          <t>5425,2</t>
         </is>
       </c>
       <c r="E424" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F424" t="n">
         <v>1</v>
@@ -12296,12 +12296,12 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>RD036AVT</t>
+          <t>RD037AVT</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MB A (-14) / B (11-) / CLA (-19) / GLA (13-) 1.5-2.2</t>
+          <t>Радиатор двигателя MB C (14-) / E (16-) / GLC (15-) 1.6-3.0</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -12311,11 +12311,11 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>5425,2</t>
+          <t>4728,0</t>
         </is>
       </c>
       <c r="E425" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F425" t="n">
         <v>1</v>
@@ -12324,12 +12324,12 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>RD037AVT</t>
+          <t>RD038AVT</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MB C (14-) / E (16-) / GLC (15-) 1.6-3.0</t>
+          <t>Радиатор двигателя BMW 1 (12-) 2 (13-) 3 (11-) 4 (13-) 1.5-3.0</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -12339,11 +12339,11 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>4728,0</t>
+          <t>5251,2</t>
         </is>
       </c>
       <c r="E426" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F426" t="n">
         <v>1</v>
@@ -12352,12 +12352,12 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>RD038AVT</t>
+          <t>RD039AVT</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Радиатор двигателя BMW 1 (12-) 2 (13-) 3 (11-) 4 (13-) 1.5-3.0</t>
+          <t>Радиатор двигателя Audi A4 (-15) / A5 (-17) / Q5 (08-) / Porsche Macan (14-) 2.7-3.2</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -12367,7 +12367,7 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>5251,2</t>
+          <t>8958,0</t>
         </is>
       </c>
       <c r="E427" t="n">
@@ -12380,12 +12380,12 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>RD039AVT</t>
+          <t>RD040AVT</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Audi A4 (-15) / A5 (-17) / Q5 (08-) / Porsche Macan (14-) 2.7-3.2</t>
+          <t>Радиатор двигателя FORD FIESTA / FUSION (01-) 1.2-1.6i MT / AT</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -12395,7 +12395,7 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>8958,0</t>
+          <t>2821,2</t>
         </is>
       </c>
       <c r="E428" t="n">
@@ -12408,12 +12408,12 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>RD040AVT</t>
+          <t>RD044AVT</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Радиатор двигателя FORD FIESTA / FUSION (01-) 1.2-1.6i MT / AT</t>
+          <t>Радиатор двигателя Toyota LC200 4.7 (08-) / LEXUS LX 5.7 (08-)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -12423,7 +12423,7 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>2821,2</t>
+          <t>12666,0</t>
         </is>
       </c>
       <c r="E429" t="n">
@@ -12436,12 +12436,12 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>RD044AVT</t>
+          <t>RD046AVT</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota LC200 4.7 (08-) / LEXUS LX 5.7 (08-)</t>
+          <t>Радиатор двигателя Volvo XC90 II (15-) 2.0D</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -12451,11 +12451,11 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>12666,0</t>
+          <t>6498,0</t>
         </is>
       </c>
       <c r="E430" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F430" t="n">
         <v>1</v>
@@ -12464,12 +12464,12 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>RD046AVT</t>
+          <t>RD047AVT</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Volvo XC90 II (15-) 2.0D</t>
+          <t>Радиатор двигателя Land Rover Discovery (17-) / Range Rover (13-) 3.0-5.0</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -12479,11 +12479,11 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>6498,0</t>
+          <t>7119,6</t>
         </is>
       </c>
       <c r="E431" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F431" t="n">
         <v>1</v>
@@ -12492,12 +12492,12 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>RD047AVT</t>
+          <t>RD048AVT</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Land Rover Discovery (17-) / Range Rover (13-) 3.0-5.0</t>
+          <t>Радиатор двигателя FORD FOCUS III / C-MAX (11-) 1.6-2.0i MT / AT</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -12507,7 +12507,7 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>7119,6</t>
+          <t>6349,2</t>
         </is>
       </c>
       <c r="E432" t="n">
@@ -12520,12 +12520,12 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>RD048AVT</t>
+          <t>RD049AVT</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Радиатор двигателя FORD FOCUS III / C-MAX (11-) 1.6-2.0i MT / AT</t>
+          <t>Радиатор двигателя Toyota Camry (18-) / Rav 4 (19-) 2.0-3.5</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -12535,7 +12535,7 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>6349,2</t>
+          <t>4864,8</t>
         </is>
       </c>
       <c r="E433" t="n">
@@ -12548,12 +12548,12 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>RD049AVT</t>
+          <t>RD050AVT</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota Camry (18-) / Rav 4 (19-) 2.0-3.5</t>
+          <t>Радиатор двигателя Toyota LC200 (08-) 4.5D</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -12563,7 +12563,7 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>4864,8</t>
+          <t>12649,2</t>
         </is>
       </c>
       <c r="E434" t="n">
@@ -12576,12 +12576,12 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>RD050AVT</t>
+          <t>RD051AVT</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota LC200 (08-) 4.5D</t>
+          <t>Радиатор двигателя Toyota LC Prado (10-) 3.0D</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -12591,7 +12591,7 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>12649,2</t>
+          <t>11257,2</t>
         </is>
       </c>
       <c r="E435" t="n">
@@ -12604,12 +12604,12 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>RD051AVT</t>
+          <t>RD052AVT</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota LC Prado (10-) 3.0D</t>
+          <t>Радиатор двигателя Toyota LC150 Prado (10-) 2.8D</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -12619,7 +12619,7 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>11257,2</t>
+          <t>10562,4</t>
         </is>
       </c>
       <c r="E436" t="n">
@@ -12632,12 +12632,12 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>RD052AVT</t>
+          <t>RD053AVT</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota LC150 Prado (10-) 2.8D</t>
+          <t>Радиатор двигателя Toyota LC120 / 150 Prado 2.7-4.0 (00-)</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -12647,7 +12647,7 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>10562,4</t>
+          <t>6208,8</t>
         </is>
       </c>
       <c r="E437" t="n">
@@ -12660,12 +12660,12 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>RD053AVT</t>
+          <t>RD054AVT</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota LC120 / 150 Prado 2.7-4.0 (00-)</t>
+          <t>Радиатор двигателя Toyota LC J15 4.0</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -12675,7 +12675,7 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>6208,8</t>
+          <t>6870,0</t>
         </is>
       </c>
       <c r="E438" t="n">
@@ -12688,12 +12688,12 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>RD054AVT</t>
+          <t>RD055AVT</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota LC J15 4.0</t>
+          <t>Радиатор двигателя HYUNDAI SOLARIS (10-) / KIA RIO (10-) 1.4-1.6i 6AT</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -12703,7 +12703,7 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>6870,0</t>
+          <t>4195,2</t>
         </is>
       </c>
       <c r="E439" t="n">
@@ -12716,12 +12716,12 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>RD055AVT</t>
+          <t>RD056AVT</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Радиатор двигателя HYUNDAI SOLARIS (10-) / KIA RIO (10-) 1.4-1.6i 6AT</t>
+          <t>Радиатор двигателя KIA CEED / HYUNDAI i30 / ELANTRA IV (06-) 1.4-2.0i AT</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -12731,7 +12731,7 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>4195,2</t>
+          <t>6532,8</t>
         </is>
       </c>
       <c r="E440" t="n">
@@ -12744,12 +12744,12 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>RD056AVT</t>
+          <t>RD057AVT</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA CEED / HYUNDAI i30 / ELANTRA IV (06-) 1.4-2.0i AT</t>
+          <t>Радиатор двигателя HYUNDAI SOLARIS / KIA RIO (17-) 1.4-1.6i MT</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -12759,7 +12759,7 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>6532,8</t>
+          <t>3555,6</t>
         </is>
       </c>
       <c r="E441" t="n">
@@ -12772,12 +12772,12 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>RD057AVT</t>
+          <t>RD058AVT</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Радиатор двигателя HYUNDAI SOLARIS / KIA RIO (17-) 1.4-1.6i MT</t>
+          <t>Радиатор двигателя RENAULT LOGAN / SANDERO / SYMBOL (04-) 1.4-1.6i / Lada LARGUS K7M 1.6i (12-) MT /</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -12787,7 +12787,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>3555,6</t>
+          <t>2893,2</t>
         </is>
       </c>
       <c r="E442" t="n">
@@ -12800,12 +12800,12 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>RD058AVT</t>
+          <t>RD059AVT</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Радиатор двигателя RENAULT LOGAN / SANDERO / SYMBOL (04-) 1.4-1.6i / Lada LARGUS K7M 1.6i (12-) MT /</t>
+          <t>Радиатор двигателя паяный VW PASSAT B6 / B7 JETTA III /IV / TIGUAN / TOURAN / SKODA OCTAVIA II / SUP</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -12815,7 +12815,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>2893,2</t>
+          <t>6285,6</t>
         </is>
       </c>
       <c r="E443" t="n">
@@ -12828,12 +12828,12 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>RD059AVT</t>
+          <t>RD060AVT</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный VW PASSAT B6 / B7 JETTA III /IV / TIGUAN / TOURAN / SKODA OCTAVIA II / SUP</t>
+          <t>Радиатор двигателя MITSUBISHI OUTLANDER III (12-) 2.0-3.0i MT / AT</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -12843,7 +12843,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>6285,6</t>
+          <t>7209,6</t>
         </is>
       </c>
       <c r="E444" t="n">
@@ -12856,12 +12856,12 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>RD060AVT</t>
+          <t>RD062AVT</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MITSUBISHI OUTLANDER III (12-) 2.0-3.0i MT / AT</t>
+          <t>Радиатор двигателя Kia Spectra (96-) 1.5-1.8 AT</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -12871,7 +12871,7 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>7209,6</t>
+          <t>5772,0</t>
         </is>
       </c>
       <c r="E445" t="n">
@@ -12884,12 +12884,12 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>RD062AVT</t>
+          <t>RD063AVT</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia Spectra (96-) 1.5-1.8 AT</t>
+          <t>Радиатор двигателя Nissan X-Trail (14-) 2.0-2.5</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -12899,7 +12899,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>5772,0</t>
+          <t>5864,4</t>
         </is>
       </c>
       <c r="E446" t="n">
@@ -12912,12 +12912,12 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>RD063AVT</t>
+          <t>RD064AVT</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Nissan X-Trail (14-) 2.0-2.5</t>
+          <t>Радиатор двигателя VW Passat B5 (96-) / Audi A4 (94-) MT 1.6-1.9</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -12927,7 +12927,7 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>5864,4</t>
+          <t>3826,8</t>
         </is>
       </c>
       <c r="E447" t="n">
@@ -12940,12 +12940,12 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>RD064AVT</t>
+          <t>RD065AVT</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Радиатор двигателя VW Passat B5 (96-) / Audi A4 (94-) MT 1.6-1.9</t>
+          <t>Радиатор двигателя Kia Optima (15-) 2.0-2.4</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -12955,7 +12955,7 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>3826,8</t>
+          <t>5503,2</t>
         </is>
       </c>
       <c r="E448" t="n">
@@ -12968,12 +12968,12 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>RD065AVT</t>
+          <t>RD066AVT</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia Optima (15-) 2.0-2.4</t>
+          <t>Радиатор двигателя Mitsubishi Lancer IX (00-) MT 1.3-2.0</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -12983,7 +12983,7 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>5503,2</t>
+          <t>4772,4</t>
         </is>
       </c>
       <c r="E449" t="n">
@@ -12996,12 +12996,12 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>RD066AVT</t>
+          <t>RD067AVT</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Mitsubishi Lancer IX (00-) MT 1.3-2.0</t>
+          <t>Радиатор двигателя Nissan Almera Classic (05-)</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -13011,7 +13011,7 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>4772,4</t>
+          <t>6369,6</t>
         </is>
       </c>
       <c r="E450" t="n">
@@ -13024,12 +13024,12 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>RD067AVT</t>
+          <t>RD068AVT</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Nissan Almera Classic (05-)</t>
+          <t>Радиатор двигателя Nissan Almera / Primera (00-) MT 1.5-1.8</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -13039,7 +13039,7 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>6369,6</t>
+          <t>4579,2</t>
         </is>
       </c>
       <c r="E451" t="n">
@@ -13052,12 +13052,12 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>RD068AVT</t>
+          <t>RD069AVT</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Nissan Almera / Primera (00-) MT 1.5-1.8</t>
+          <t>Радиатор двигателя Nissan Micra (02-) / Note (06-) 1.0-1.6</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -13067,7 +13067,7 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>4579,2</t>
+          <t>4592,4</t>
         </is>
       </c>
       <c r="E452" t="n">
@@ -13080,12 +13080,12 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>RD069AVT</t>
+          <t>RD070AVT</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Nissan Micra (02-) / Note (06-) 1.0-1.6</t>
+          <t>Радиатор двигателя Opel Astra J (10-) / Сhevrolet Cruze (09-) 1.4-1.8</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -13095,11 +13095,11 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>4592,4</t>
+          <t>5115,6</t>
         </is>
       </c>
       <c r="E453" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F453" t="n">
         <v>1</v>
@@ -13108,12 +13108,12 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>RD070AVT</t>
+          <t>RD071AVT</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Opel Astra J (10-) / Сhevrolet Cruze (09-) 1.4-1.8</t>
+          <t>Радиатор двигателя Opel Corsa D (06-) 1.0-1.4</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -13123,7 +13123,7 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>5115,6</t>
+          <t>3201,6</t>
         </is>
       </c>
       <c r="E454" t="n">
@@ -13136,12 +13136,12 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>RD071AVT</t>
+          <t>RD072AVT</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Opel Corsa D (06-) 1.0-1.4</t>
+          <t>Радиатор двигателя Peugeot 308 / Citroen C4 (07-)</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -13151,7 +13151,7 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>3201,6</t>
+          <t>3568,8</t>
         </is>
       </c>
       <c r="E455" t="n">
@@ -13164,12 +13164,12 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>RD072AVT</t>
+          <t>RD073AVT</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Peugeot 308 / Citroen C4 (07-)</t>
+          <t>Радиатор двигателя Renault Megane / Scenic II (02-) 1.4-2.0</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -13179,7 +13179,7 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>3568,8</t>
+          <t>4400,4</t>
         </is>
       </c>
       <c r="E456" t="n">
@@ -13192,12 +13192,12 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>RD073AVT</t>
+          <t>RD074AVT</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Renault Megane / Scenic II (02-) 1.4-2.0</t>
+          <t>Радиатор двигателя Skoda Fabia (99-) 1.0-1.9</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -13207,7 +13207,7 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>4400,4</t>
+          <t>3278,4</t>
         </is>
       </c>
       <c r="E457" t="n">
@@ -13220,12 +13220,12 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>RD074AVT</t>
+          <t>RD075AVT</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Skoda Fabia (99-) 1.0-1.9</t>
+          <t>Радиатор двигателя Skoda Octavia (96-) / VW Golf IV (96-) 1.4-2.3</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -13235,7 +13235,7 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>3278,4</t>
+          <t>2725,2</t>
         </is>
       </c>
       <c r="E458" t="n">
@@ -13248,12 +13248,12 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>RD075AVT</t>
+          <t>RD076AVT</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Skoda Octavia (96-) / VW Golf IV (96-) 1.4-2.3</t>
+          <t>Радиатор двигателя Skoda Octavia A7 (13-) / VW Golf VII (12-) 1.6</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -13263,7 +13263,7 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>2725,2</t>
+          <t>3974,4</t>
         </is>
       </c>
       <c r="E459" t="n">
@@ -13276,12 +13276,12 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>RD076AVT</t>
+          <t>RD077AVT</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Skoda Octavia A7 (13-) / VW Golf VII (12-) 1.6</t>
+          <t>Радиатор двигателя Skoda Octavia A7 (13-) / VW Tiguan (16-) 1.8-2.0</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -13291,7 +13291,7 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>3974,4</t>
+          <t>4460,4</t>
         </is>
       </c>
       <c r="E460" t="n">
@@ -13304,12 +13304,12 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>RD077AVT</t>
+          <t>RD078AVT</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Skoda Octavia A7 (13-) / VW Tiguan (16-) 1.8-2.0</t>
+          <t>Радиатор двигателя Suzuki Grand Vitara (05-) AT 2.0-2.4</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -13319,7 +13319,7 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>4460,4</t>
+          <t>6490,8</t>
         </is>
       </c>
       <c r="E461" t="n">
@@ -13332,12 +13332,12 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>RD078AVT</t>
+          <t>RD079AVT</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Suzuki Grand Vitara (05-) AT 2.0-2.4</t>
+          <t>Радиатор двигателя Suzuki Grand Vitara (05-) MT 2.0-2.4</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -13347,7 +13347,7 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>6490,8</t>
+          <t>5467,2</t>
         </is>
       </c>
       <c r="E462" t="n">
@@ -13360,12 +13360,12 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>RD079AVT</t>
+          <t>RD080AVT</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Suzuki Grand Vitara (05-) MT 2.0-2.4</t>
+          <t>Радиатор двигателя Volvo XC90 (02-) 2.4-3.2</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -13375,7 +13375,7 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>5467,2</t>
+          <t>8196,0</t>
         </is>
       </c>
       <c r="E463" t="n">
@@ -13388,12 +13388,12 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>RD080AVT</t>
+          <t>RD081AVT</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Volvo XC90 (02-) 2.4-3.2</t>
+          <t>Радиатор двигателя VW Tiguan (08-) / Sharan (10-) 1.4-2.0</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -13403,7 +13403,7 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>8196,0</t>
+          <t>4518,0</t>
         </is>
       </c>
       <c r="E464" t="n">
@@ -13416,12 +13416,12 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>RD081AVT</t>
+          <t>RD082AVT</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Радиатор двигателя VW Tiguan (08-) / Sharan (10-) 1.4-2.0</t>
+          <t>Радиатор двигателя VW Touareg II (10-) / Porsche Cayenne II (10-) 3.0-3.6</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -13431,7 +13431,7 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>4518,0</t>
+          <t>7316,4</t>
         </is>
       </c>
       <c r="E465" t="n">
@@ -13444,12 +13444,12 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>RD082AVT</t>
+          <t>RD084AVT</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Радиатор двигателя VW Touareg II (10-) / Porsche Cayenne II (10-) 3.0-3.6</t>
+          <t>Радиатор двигателя BMW 5 (95-) 2.0-4.4</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -13459,7 +13459,7 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>7316,4</t>
+          <t>4744,8</t>
         </is>
       </c>
       <c r="E466" t="n">
@@ -13472,12 +13472,12 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>RD084AVT</t>
+          <t>RD085AVT</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Радиатор двигателя BMW 5 (95-) 2.0-4.4</t>
+          <t>Радиатор двигателя BMW X3 (10-) / X4 (14-) 2.0-3.0</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -13487,7 +13487,7 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>4744,8</t>
+          <t>4107,6</t>
         </is>
       </c>
       <c r="E467" t="n">
@@ -13500,12 +13500,12 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>RD085AVT</t>
+          <t>RD086AVT</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Радиатор двигателя BMW X3 (10-) / X4 (14-) 2.0-3.0</t>
+          <t>Радиатор двигателя Honda CR-V (06-) 2.4</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -13515,7 +13515,7 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>4107,6</t>
+          <t>5722,8</t>
         </is>
       </c>
       <c r="E468" t="n">
@@ -13528,12 +13528,12 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>RD086AVT</t>
+          <t>RD087AVT</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Honda CR-V (06-) 2.4</t>
+          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -13543,7 +13543,7 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>5722,8</t>
+          <t>7402,8</t>
         </is>
       </c>
       <c r="E469" t="n">
@@ -13556,12 +13556,12 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>RD087AVT</t>
+          <t>RD088AVT</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
+          <t>Радиатор двигателя Kia Rio (05-) 1.4-1.6</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -13571,7 +13571,7 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>7402,8</t>
+          <t>5900,4</t>
         </is>
       </c>
       <c r="E470" t="n">
@@ -13584,12 +13584,12 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>RD088AVT</t>
+          <t>RD089AVT</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia Rio (05-) 1.4-1.6</t>
+          <t>Радиатор двигателя Kia Soul III (19-) / Seltos (19-) 1.6-2.0</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -13599,7 +13599,7 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>5900,4</t>
+          <t>5623,2</t>
         </is>
       </c>
       <c r="E471" t="n">
@@ -13612,12 +13612,12 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>RD089AVT</t>
+          <t>RD090AVT</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia Soul III (19-) / Seltos (19-) 1.6-2.0</t>
+          <t>Радиатор двигателя Lexus RX 350 / 450h (09-) 3.5</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -13627,7 +13627,7 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>5623,2</t>
+          <t>6130,8</t>
         </is>
       </c>
       <c r="E472" t="n">
@@ -13640,12 +13640,12 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>RD090AVT</t>
+          <t>RD091AVT</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Lexus RX 350 / 450h (09-) 3.5</t>
+          <t>Радиатор двигателя Mazda CX-7 (07-) 2.2-2.5</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -13655,7 +13655,7 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>6130,8</t>
+          <t>7627,2</t>
         </is>
       </c>
       <c r="E473" t="n">
@@ -13668,12 +13668,12 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>RD091AVT</t>
+          <t>RD092AVT</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Mazda CX-7 (07-) 2.2-2.5</t>
+          <t>Радиатор двигателя Mitsubishi ASX (10-) 1.8</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -13683,7 +13683,7 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>7627,2</t>
+          <t>4736,4</t>
         </is>
       </c>
       <c r="E474" t="n">
@@ -13696,12 +13696,12 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>RD092AVT</t>
+          <t>RD093AVT</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Mitsubishi ASX (10-) 1.8</t>
+          <t>Радиатор двигателя Mitsubishi Pajero III (98-) / Pajero IV (06-) 3.0-3.8</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -13711,7 +13711,7 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>4736,4</t>
+          <t>6186,0</t>
         </is>
       </c>
       <c r="E475" t="n">
@@ -13724,12 +13724,12 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>RD093AVT</t>
+          <t>RD096AVT</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Mitsubishi Pajero III (98-) / Pajero IV (06-) 3.0-3.8</t>
+          <t>Радиатор двигателя Toyota Corolla E12 (01-)/Avensis T25 (03-) AT</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -13739,7 +13739,7 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>6186,0</t>
+          <t>4640,4</t>
         </is>
       </c>
       <c r="E476" t="n">
@@ -13752,12 +13752,12 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>RD096AVT</t>
+          <t>RD097AVT</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota Corolla E12 (01-)/Avensis T25 (03-) AT</t>
+          <t>Радиатор двигателя Toyota Corolla E12 (01-)/Avensis T25 (03-) MT</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -13767,7 +13767,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>4640,4</t>
+          <t>4425,6</t>
         </is>
       </c>
       <c r="E477" t="n">
@@ -13780,12 +13780,12 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>RD097AVT</t>
+          <t>RD098AVT</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota Corolla E12 (01-)/Avensis T25 (03-) MT</t>
+          <t>Радиатор двигателя Skoda Octavia (04-) / AUDI A3 (03-) 1.4Tsi</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -13795,7 +13795,7 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>4425,6</t>
+          <t>3607,2</t>
         </is>
       </c>
       <c r="E478" t="n">
@@ -13808,12 +13808,12 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>RD098AVT</t>
+          <t>RD099AVT</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Skoda Octavia (04-) / AUDI A3 (03-) 1.4Tsi</t>
+          <t>Радиатор двигателя VW Jetta (11-) 1.6i 2.0i 2.5i</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -13823,7 +13823,7 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>3607,2</t>
+          <t>3699,6</t>
         </is>
       </c>
       <c r="E479" t="n">
@@ -13836,12 +13836,12 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>RD099AVT</t>
+          <t>RD100AVT</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Радиатор двигателя VW Jetta (11-) 1.6i 2.0i 2.5i</t>
+          <t>Радиатор двигателя Skoda Octavia A5 (08-) / AUDI A3 (8P1) 1.4T-2.0Tsi</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -13851,7 +13851,7 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>3699,6</t>
+          <t>4448,4</t>
         </is>
       </c>
       <c r="E480" t="n">
@@ -13864,12 +13864,12 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>RD100AVT</t>
+          <t>RD101AVT</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Skoda Octavia A5 (08-) / AUDI A3 (8P1) 1.4T-2.0Tsi</t>
+          <t>Радиатор двигателя SsangYong New Actyon / Korando C (10-) 2.0 AT</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -13879,7 +13879,7 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>4448,4</t>
+          <t>7254,0</t>
         </is>
       </c>
       <c r="E481" t="n">
@@ -13892,12 +13892,12 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>RD101AVT</t>
+          <t>RD102AVT</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Радиатор двигателя SsangYong New Actyon / Korando C (10-) 2.0 AT</t>
+          <t>Радиатор двигателя Mitsubishi Carisma (95-) / Space Star (98-) 1.3-1.8 MT</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -13907,7 +13907,7 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>7254,0</t>
+          <t>5130,0</t>
         </is>
       </c>
       <c r="E482" t="n">
@@ -13920,12 +13920,12 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>RD102AVT</t>
+          <t>RD103AVT</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Mitsubishi Carisma (95-) / Space Star (98-) 1.3-1.8 MT</t>
+          <t>Радиатор двигателя Peugeot 206 (98-) 1.4-2.0 / Citroen C4 (04-) 1.6 / Xsara Picasso 2.0 AT</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -13935,7 +13935,7 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>5130,0</t>
+          <t>3456,0</t>
         </is>
       </c>
       <c r="E483" t="n">
@@ -13948,12 +13948,12 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>RD103AVT</t>
+          <t>RD104AVT</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Peugeot 206 (98-) 1.4-2.0 / Citroen C4 (04-) 1.6 / Xsara Picasso 2.0 AT</t>
+          <t>Радиатор двигателя BMW 1 (04-) 1.6-3.0 / 3 (05-) 1.8-3.0 / X1 (09-) 2.0-3.0</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -13963,7 +13963,7 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>3456,0</t>
+          <t>4924,8</t>
         </is>
       </c>
       <c r="E484" t="n">
@@ -13976,12 +13976,12 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>RD104AVT</t>
+          <t>RD105AVT</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Радиатор двигателя BMW 1 (04-) 1.6-3.0 / 3 (05-) 1.8-3.0 / X1 (09-) 2.0-3.0</t>
+          <t>Радиатор двигателя Chevrolet Aveo T300 (11-) 1.6 AT</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -13991,7 +13991,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>4924,8</t>
+          <t>6307,2</t>
         </is>
       </c>
       <c r="E485" t="n">
@@ -14004,12 +14004,12 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>RD105AVT</t>
+          <t>RD106AVT</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Chevrolet Aveo T300 (11-) 1.6 AT</t>
+          <t>Радиатор двигателя Chevrolet Aveo T300 (11-) 1.6 MT</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -14019,7 +14019,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>6307,2</t>
+          <t>5242,8</t>
         </is>
       </c>
       <c r="E486" t="n">
@@ -14032,12 +14032,12 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>RD106AVT</t>
+          <t>RD204AVT</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Chevrolet Aveo T300 (11-) 1.6 MT</t>
+          <t>Радиатор двигатель паяный Hyundai Solaris / KIA RIO II (17-) 1.4i / 1.6i</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -14047,7 +14047,7 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>5242,8</t>
+          <t>5584,8</t>
         </is>
       </c>
       <c r="E487" t="n">
@@ -14060,12 +14060,12 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>RD204AVT</t>
+          <t>RD205AVT</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Радиатор двигатель паяный Hyundai Solaris / KIA RIO II (17-) 1.4i / 1.6i</t>
+          <t>Радиатор двигателя паяный Skoda Octavia/Kodiaq A7 (13-) 1.2TSi 1.4TSi 1.6TDi 2.0TDi</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -14075,7 +14075,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>5584,8</t>
+          <t>5630,4</t>
         </is>
       </c>
       <c r="E488" t="n">
@@ -14088,12 +14088,12 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>RD205AVT</t>
+          <t>RD207AVT</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Skoda Octavia/Kodiaq A7 (13-) 1.2TSi 1.4TSi 1.6TDi 2.0TDi</t>
+          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i 2.0i MT</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -14103,7 +14103,7 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>5630,4</t>
+          <t>7972,8</t>
         </is>
       </c>
       <c r="E489" t="n">
@@ -14116,12 +14116,12 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>RD207AVT</t>
+          <t>RD211AVT</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i 2.0i MT</t>
+          <t>Радиатор двигателя паяный Nissan Almera Classic B10 (06-) 1.6i</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -14131,7 +14131,7 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>7972,8</t>
+          <t>5979,6</t>
         </is>
       </c>
       <c r="E490" t="n">
@@ -14144,12 +14144,12 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>RD211AVT</t>
+          <t>RD217AVT</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Nissan Almera Classic B10 (06-) 1.6i</t>
+          <t>Радиатор двигателя паяный Suzuki SX4 I (06-) 1.6i</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -14159,7 +14159,7 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>5979,6</t>
+          <t>7183,2</t>
         </is>
       </c>
       <c r="E491" t="n">
@@ -14172,12 +14172,12 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>RD217AVT</t>
+          <t>RD220AVT</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Suzuki SX4 I (06-) 1.6i</t>
+          <t>Радиатор двигателя паяный Honda CR-V III (06-) 2.0i</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -14187,7 +14187,7 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>7183,2</t>
+          <t>6842,4</t>
         </is>
       </c>
       <c r="E492" t="n">
@@ -14200,12 +14200,12 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>RD220AVT</t>
+          <t>RD221AVT</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Honda CR-V III (06-) 2.0i</t>
+          <t>Радиатор двигателя паяный Audi A4/А6 (94-) 1.6i 1.8i 1.9TDi 1.8T</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -14215,7 +14215,7 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>6842,4</t>
+          <t>6386,4</t>
         </is>
       </c>
       <c r="E493" t="n">
@@ -14228,12 +14228,12 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>RD221AVT</t>
+          <t>RD225AVT</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Audi A4/А6 (94-) 1.6i 1.8i 1.9TDi 1.8T</t>
+          <t>Радиатор двигателя паяный Hyundai Santa Fe II (06-) 2.2CRDi</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -14243,7 +14243,7 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>6386,4</t>
+          <t>8758,8</t>
         </is>
       </c>
       <c r="E494" t="n">
@@ -14256,12 +14256,12 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>RD225AVT</t>
+          <t>RD230AVT</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Hyundai Santa Fe II (06-) 2.2CRDi</t>
+          <t>Радиатор двигателя паяный Mitsubishi Outlander I (03-) 2.0i 2.4i</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -14271,7 +14271,7 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>8758,8</t>
+          <t>6592,8</t>
         </is>
       </c>
       <c r="E495" t="n">
@@ -14284,12 +14284,12 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>RD230AVT</t>
+          <t>RD250AVT</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Mitsubishi Outlander I (03-) 2.0i 2.4i</t>
+          <t>Радиатор двигателя сборный Chevrolet Rezzo (00-) 1.6i 1.8i</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -14299,7 +14299,7 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>6592,8</t>
+          <t>5548,8</t>
         </is>
       </c>
       <c r="E496" t="n">
@@ -14312,12 +14312,12 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>RD250AVT</t>
+          <t>RD264AVT</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Радиатор двигателя сборный Chevrolet Rezzo (00-) 1.6i 1.8i</t>
+          <t>Радиатор двигателя паяный Nissan X-Trail T30 (01-) 2.0i 2.5i</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -14327,7 +14327,7 @@
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>5548,8</t>
+          <t>5740,8</t>
         </is>
       </c>
       <c r="E497" t="n">
@@ -14340,12 +14340,12 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>RD264AVT</t>
+          <t>RD274AVT</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Nissan X-Trail T30 (01-) 2.0i 2.5i</t>
+          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i 2.0i AT</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -14355,7 +14355,7 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>5740,8</t>
+          <t>8366,4</t>
         </is>
       </c>
       <c r="E498" t="n">
@@ -14368,12 +14368,12 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>RD274AVT</t>
+          <t>RD302AVT</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i 2.0i AT</t>
+          <t>Радиатор двигателя паяный Ford Ranger (98-) 2.5TDi</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -14383,7 +14383,7 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>8366,4</t>
+          <t>6723,6</t>
         </is>
       </c>
       <c r="E499" t="n">
@@ -14396,12 +14396,12 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>RD302AVT</t>
+          <t>RF001AVT</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Ford Ranger (98-) 2.5TDi</t>
+          <t>Вентилятор системы охлаждения Vesta Xray</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -14411,11 +14411,11 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>6723,6</t>
+          <t>6000,0</t>
         </is>
       </c>
       <c r="E500" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F500" t="n">
         <v>1</v>
@@ -14424,12 +14424,12 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>RF001AVT</t>
+          <t>RF002AVT</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Вентилятор системы охлаждения Vesta Xray</t>
+          <t>Вентилятор системы охлаждения Vesta Xray Logan</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -14443,7 +14443,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F501" t="n">
         <v>1</v>
@@ -14452,12 +14452,12 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>RF002AVT</t>
+          <t>RF004AVT</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Вентилятор системы охлаждения Vesta Xray Logan</t>
+          <t>Вентилятор системы охлаждения Nissan Qashqai</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -14467,7 +14467,7 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>6000,0</t>
+          <t>6600,0</t>
         </is>
       </c>
       <c r="E502" t="n">
@@ -14480,12 +14480,12 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>RF004AVT</t>
+          <t>RF005AVT</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Вентилятор системы охлаждения Nissan Qashqai</t>
+          <t>Вентилятор системы охлаждения Nissan X-Trail Qashqai (Дизель)</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -14508,12 +14508,12 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>RF005AVT</t>
+          <t>СЛ136Е-5205900-01</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Вентилятор системы охлаждения Nissan X-Trail Qashqai (Дизель)</t>
+          <t>Щетка стеклоочистителя каркасная 410 мм тип крепления Hook (Крюк) и Bayonet (Штыковой замо</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -14523,41 +14523,13 @@
       </c>
       <c r="D504" t="inlineStr">
         <is>
-          <t>6600,0</t>
+          <t>144,0</t>
         </is>
       </c>
       <c r="E504" t="n">
         <v>10</v>
       </c>
       <c r="F504" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" t="inlineStr">
-        <is>
-          <t>СЛ136Е-5205900-01</t>
-        </is>
-      </c>
-      <c r="B505" t="inlineStr">
-        <is>
-          <t>Щетка стеклоочистителя каркасная 410 мм тип крепления Hook (Крюк) и Bayonet (Штыковой замо</t>
-        </is>
-      </c>
-      <c r="C505" t="inlineStr">
-        <is>
-          <t>AVTOPRIBOR</t>
-        </is>
-      </c>
-      <c r="D505" t="inlineStr">
-        <is>
-          <t>144,0</t>
-        </is>
-      </c>
-      <c r="E505" t="n">
-        <v>10</v>
-      </c>
-      <c r="F505" t="n">
         <v>1</v>
       </c>
     </row>

--- a/price_for_emex.xlsx
+++ b/price_for_emex.xlsx
@@ -2375,7 +2375,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F70" t="n">
         <v>1</v>
@@ -3383,7 +3383,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F106" t="n">
         <v>1</v>

--- a/price_for_emex.xlsx
+++ b/price_for_emex.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/price_for_emex.xlsx
+++ b/price_for_emex.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F490"/>
+  <dimension ref="A1:F489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1787,7 +1787,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
@@ -2851,7 +2851,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F87" t="n">
         <v>1</v>
@@ -3131,7 +3131,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F97" t="n">
         <v>1</v>
@@ -6444,12 +6444,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>BP015AVT</t>
+          <t>BP016AVT</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Lada 2121</t>
+          <t>Колодки тормозные задние без датчика Nissan Qashqai (07-) / X-trail (07-)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -6459,11 +6459,11 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>504,0</t>
+          <t>595,2</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F216" t="n">
         <v>1</v>
@@ -6472,12 +6472,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>BP016AVT</t>
+          <t>BP017AVT</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Nissan Qashqai (07-) / X-trail (07-)</t>
+          <t>Колодки тормозные передние без датчика Daewoo Matiz (98-)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -6487,7 +6487,7 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>595,2</t>
+          <t>516,0</t>
         </is>
       </c>
       <c r="E217" t="n">
@@ -6500,12 +6500,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>BP017AVT</t>
+          <t>BP018AVT</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Daewoo Matiz (98-)</t>
+          <t>Колодки тормозные передние без датчика Chevrolet Cruze (09-) / Opel Astra J (10-)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -6515,7 +6515,7 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>516,0</t>
+          <t>873,6</t>
         </is>
       </c>
       <c r="E218" t="n">
@@ -6528,12 +6528,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>BP018AVT</t>
+          <t>BP019AVT</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Chevrolet Cruze (09-) / Opel Astra J (10-)</t>
+          <t>Колодки тормозные передние без датчика Opel Astra J (10-) / Mokka (13-) / Chevrolet Cruze (09-)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -6543,7 +6543,7 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>873,6</t>
+          <t>795,6</t>
         </is>
       </c>
       <c r="E219" t="n">
@@ -6556,12 +6556,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>BP019AVT</t>
+          <t>BP021AVT</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Opel Astra J (10-) / Mokka (13-) / Chevrolet Cruze (09-)</t>
+          <t>Колодки тормозные передние без датчика Hyundai Accent (99-) / Getz (02-) (MANDO)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -6571,7 +6571,7 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>795,6</t>
+          <t>544,8</t>
         </is>
       </c>
       <c r="E220" t="n">
@@ -6584,12 +6584,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>BP021AVT</t>
+          <t>BP022AVT</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Hyundai Accent (99-) / Getz (02-) (MANDO)</t>
+          <t>Колодки тормозные передние без датчика GAZ 3302</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -6599,7 +6599,7 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>544,8</t>
+          <t>710,4</t>
         </is>
       </c>
       <c r="E221" t="n">
@@ -6612,12 +6612,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>BP022AVT</t>
+          <t>BP023AVT</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика GAZ 3302</t>
+          <t>Колодки тормозные передние без датчика Lada Vesta Sport (18-) / Renault Duster (10-) / Renault Arkan</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -6627,7 +6627,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>710,4</t>
+          <t>864,0</t>
         </is>
       </c>
       <c r="E222" t="n">
@@ -6640,12 +6640,12 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>BP023AVT</t>
+          <t>BP024AVT</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Lada Vesta Sport (18-) / Renault Duster (10-) / Renault Arkan</t>
+          <t>Колодки тормозные задние без датчика Toyota Camry / RAV 4 (06-) / Lexus ES (12-)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -6655,7 +6655,7 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>864,0</t>
+          <t>531,6</t>
         </is>
       </c>
       <c r="E223" t="n">
@@ -6668,12 +6668,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>BP024AVT</t>
+          <t>BP025AVT</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Toyota Camry / RAV 4 (06-) / Lexus ES (12-)</t>
+          <t>Колодки тормозные задние без датчика Opel Astra J (10-) / Mokka (13-) / Chevrolet Cruze (09-)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -6683,7 +6683,7 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>531,6</t>
+          <t>679,2</t>
         </is>
       </c>
       <c r="E224" t="n">
@@ -6696,12 +6696,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>BP025AVT</t>
+          <t>BP026AVT</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Opel Astra J (10-) / Mokka (13-) / Chevrolet Cruze (09-)</t>
+          <t>Колодки тормозные задние без датчика Skoda Yeti (09-) / Octavia A5 (04-) / Superb II (08-)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -6711,7 +6711,7 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>679,2</t>
+          <t>830,4</t>
         </is>
       </c>
       <c r="E225" t="n">
@@ -6724,12 +6724,12 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>BP026AVT</t>
+          <t>BP027AVT</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Skoda Yeti (09-) / Octavia A5 (04-) / Superb II (08-)</t>
+          <t>Колодки тормозные передние без датчика Nissan Qashqai (07-) / X-Trail (07-)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -6739,7 +6739,7 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>830,4</t>
+          <t>852,0</t>
         </is>
       </c>
       <c r="E226" t="n">
@@ -6752,12 +6752,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>BP027AVT</t>
+          <t>BP028AVT</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Nissan Qashqai (07-) / X-Trail (07-)</t>
+          <t>Колодки тормозные задние без датчика VW Tiguan (08-)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -6767,7 +6767,7 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>852,0</t>
+          <t>693,6</t>
         </is>
       </c>
       <c r="E227" t="n">
@@ -6780,12 +6780,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>BP028AVT</t>
+          <t>BP029AVT</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика VW Tiguan (08-)</t>
+          <t>Колодки тормозные передние без датчика Toyota Camry (06-)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -6795,7 +6795,7 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>693,6</t>
+          <t>888,0</t>
         </is>
       </c>
       <c r="E228" t="n">
@@ -6808,12 +6808,12 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>BP029AVT</t>
+          <t>BP030AVT</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Toyota Camry (06-)</t>
+          <t>Колодки тормозные передние без датчика Opel Astra H (04-) / Zafira B (05-)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -6823,7 +6823,7 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>888,0</t>
+          <t>991,2</t>
         </is>
       </c>
       <c r="E229" t="n">
@@ -6836,12 +6836,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>BP030AVT</t>
+          <t>BP031AVT</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Opel Astra H (04-) / Zafira B (05-)</t>
+          <t>Колодки тормозные передние без датчика Ford Focus III (11-) / Kuga (13-)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -6851,7 +6851,7 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>991,2</t>
+          <t>1371,6</t>
         </is>
       </c>
       <c r="E230" t="n">
@@ -6864,12 +6864,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>BP031AVT</t>
+          <t>BP032AVT</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Ford Focus III (11-) / Kuga (13-)</t>
+          <t>Колодки тормозные передние без датчика Toyota Corolla (06-)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -6879,7 +6879,7 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>1371,6</t>
+          <t>688,8</t>
         </is>
       </c>
       <c r="E231" t="n">
@@ -6892,12 +6892,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>BP032AVT</t>
+          <t>BP033AVT</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Toyota Corolla (06-)</t>
+          <t>Колодки тормозные передние без датчика Toyota Land Cruiser Prado (02-) / (09-)</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -6907,7 +6907,7 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>688,8</t>
+          <t>780,0</t>
         </is>
       </c>
       <c r="E232" t="n">
@@ -6920,12 +6920,12 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>BP033AVT</t>
+          <t>BP034AVT</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Toyota Land Cruiser Prado (02-) / (09-)</t>
+          <t>Колодки тормозные передние без датчика Kia Sportage II (04-) / Hyundai Tucson (04-)</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -6935,7 +6935,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>780,0</t>
+          <t>675,6</t>
         </is>
       </c>
       <c r="E233" t="n">
@@ -6948,12 +6948,12 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>BP034AVT</t>
+          <t>BP035AVT</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Kia Sportage II (04-) / Hyundai Tucson (04-)</t>
+          <t>Колодки тормозные передние без датчика Nissan Murano (08-) / Pathfinder (05-) / Navara (05-)</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -6963,7 +6963,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>675,6</t>
+          <t>852,0</t>
         </is>
       </c>
       <c r="E234" t="n">
@@ -6976,12 +6976,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>BP035AVT</t>
+          <t>BP036AVT</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Nissan Murano (08-) / Pathfinder (05-) / Navara (05-)</t>
+          <t>Колодки тормозные передние без датчика Opel Vectra C (02-) / Zafira B (06-) / SAAB 9-3 (02-)</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -6991,7 +6991,7 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>852,0</t>
+          <t>1065,6</t>
         </is>
       </c>
       <c r="E235" t="n">
@@ -7004,12 +7004,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>BP036AVT</t>
+          <t>BP037AVT</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Opel Vectra C (02-) / Zafira B (06-) / SAAB 9-3 (02-)</t>
+          <t>Колодки тормозные передние с датчиком Audi A6 (04-)</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -7019,7 +7019,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>1065,6</t>
+          <t>987,6</t>
         </is>
       </c>
       <c r="E236" t="n">
@@ -7032,12 +7032,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>BP037AVT</t>
+          <t>BP038AVT</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние с датчиком Audi A6 (04-)</t>
+          <t>Колодки тормозные передние с датчиком Skoda Rapid (12-) / Octavia A7 (13-) / A8 (20-)</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -7047,7 +7047,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>987,6</t>
+          <t>1140,0</t>
         </is>
       </c>
       <c r="E237" t="n">
@@ -7060,12 +7060,12 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>BP038AVT</t>
+          <t>BP039AVT</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние с датчиком Skoda Rapid (12-) / Octavia A7 (13-) / A8 (20-)</t>
+          <t>Колодки тормозные передние без датчика Toyota Land Cruiser 200 (07-)</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -7075,7 +7075,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>1140,0</t>
+          <t>1026,0</t>
         </is>
       </c>
       <c r="E238" t="n">
@@ -7088,12 +7088,12 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>BP039AVT</t>
+          <t>BP040AVT</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Toyota Land Cruiser 200 (07-)</t>
+          <t>Колодки тормозные передние без датчика Kia Sportage III (10-) / Hyundai ix35 (10-)</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -7103,7 +7103,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>1026,0</t>
+          <t>867,6</t>
         </is>
       </c>
       <c r="E239" t="n">
@@ -7116,12 +7116,12 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>BP040AVT</t>
+          <t>BP041AVT</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Kia Sportage III (10-) / Hyundai ix35 (10-)</t>
+          <t>Колодки тормозные передние без датчика Mitsubishi Outlander (2006-)</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -7131,7 +7131,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>867,6</t>
+          <t>818,4</t>
         </is>
       </c>
       <c r="E240" t="n">
@@ -7144,12 +7144,12 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>BP041AVT</t>
+          <t>BP042AVT</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Mitsubishi Outlander (2006-)</t>
+          <t>Колодки тормозные задние без датчика Ford Transit Connect (02-)</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -7159,7 +7159,7 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>818,4</t>
+          <t>632,4</t>
         </is>
       </c>
       <c r="E241" t="n">
@@ -7172,12 +7172,12 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>BP042AVT</t>
+          <t>BP043AVT</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Ford Transit Connect (02-)</t>
+          <t>Колодки тормозные передние без датчика Hyundai Santa Fe (00-)</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -7187,7 +7187,7 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>632,4</t>
+          <t>786,0</t>
         </is>
       </c>
       <c r="E242" t="n">
@@ -7200,12 +7200,12 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>BP043AVT</t>
+          <t>BP044AVT</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Hyundai Santa Fe (00-)</t>
+          <t>Колодки тормозные передние без датчика VW Golf III (91-) / Vento (91-)</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -7215,7 +7215,7 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>786,0</t>
+          <t>754,8</t>
         </is>
       </c>
       <c r="E243" t="n">
@@ -7228,12 +7228,12 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>BP044AVT</t>
+          <t>BP045AVT</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика VW Golf III (91-) / Vento (91-)</t>
+          <t>Колодки тормозные передние с датчиком VW Tiguan (08-)</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -7243,7 +7243,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>754,8</t>
+          <t>1162,8</t>
         </is>
       </c>
       <c r="E244" t="n">
@@ -7256,12 +7256,12 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>BP045AVT</t>
+          <t>BP046AVT</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние с датчиком VW Tiguan (08-)</t>
+          <t>Колодки тормозные передние без датчика Toyota RAV 4 (06-)</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -7271,7 +7271,7 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>1162,8</t>
+          <t>788,4</t>
         </is>
       </c>
       <c r="E245" t="n">
@@ -7284,12 +7284,12 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>BP046AVT</t>
+          <t>BP047AVT</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Toyota RAV 4 (06-)</t>
+          <t>Колодки тормозные передние с датчиком Skoda Octavia A7 (13-) / Volkswagen Golf VII (12-)</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -7299,7 +7299,7 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>788,4</t>
+          <t>992,4</t>
         </is>
       </c>
       <c r="E246" t="n">
@@ -7312,12 +7312,12 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>BP047AVT</t>
+          <t>BP048AVT</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние с датчиком Skoda Octavia A7 (13-) / Volkswagen Golf VII (12-)</t>
+          <t>Колодки тормозные передние без датчика Audi 80 (91-)</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -7327,7 +7327,7 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>992,4</t>
+          <t>628,8</t>
         </is>
       </c>
       <c r="E247" t="n">
@@ -7340,12 +7340,12 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>BP048AVT</t>
+          <t>BP049AVT</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Audi 80 (91-)</t>
+          <t>Колодки тормозные передние без датчика Hyundai Santa Fe (06-)</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -7355,7 +7355,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>628,8</t>
+          <t>874,8</t>
         </is>
       </c>
       <c r="E248" t="n">
@@ -7368,12 +7368,12 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>BP049AVT</t>
+          <t>BP050AVT</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Hyundai Santa Fe (06-)</t>
+          <t>Колодки тормозные передние без датчика Ford Fusion (02-) / Fiesta (02-)</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -7383,7 +7383,7 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>874,8</t>
+          <t>889,2</t>
         </is>
       </c>
       <c r="E249" t="n">
@@ -7396,12 +7396,12 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>BP050AVT</t>
+          <t>BP051AVT</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Ford Fusion (02-) / Fiesta (02-)</t>
+          <t>Колодки тормозные передние с датчиком Audi A6 (97-) / Allroad (00-)</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -7411,7 +7411,7 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>889,2</t>
+          <t>1305,6</t>
         </is>
       </c>
       <c r="E250" t="n">
@@ -7424,12 +7424,12 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>BP051AVT</t>
+          <t>BP052AVT</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние с датчиком Audi A6 (97-) / Allroad (00-)</t>
+          <t>Колодки тормозные передние без датчика Toyota Camry 2.4 / 3.5 (06-)</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -7439,7 +7439,7 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>1305,6</t>
+          <t>756,0</t>
         </is>
       </c>
       <c r="E251" t="n">
@@ -7452,12 +7452,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>BP052AVT</t>
+          <t>BP053AVT</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Toyota Camry 2.4 / 3.5 (06-)</t>
+          <t>Колодки тормозные передние без датчика Opel Astra J (10-) / Insignia (08-) / Zafira C (11-)</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -7467,7 +7467,7 @@
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>756,0</t>
+          <t>1005,6</t>
         </is>
       </c>
       <c r="E252" t="n">
@@ -7480,12 +7480,12 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>BP053AVT</t>
+          <t>BP054AVT</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Opel Astra J (10-) / Insignia (08-) / Zafira C (11-)</t>
+          <t>Колодки тормозные передние без датчика Mitsubishi Lancer X (07-) / ASX (10-)</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -7495,7 +7495,7 @@
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>1005,6</t>
+          <t>668,4</t>
         </is>
       </c>
       <c r="E253" t="n">
@@ -7508,12 +7508,12 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>BP054AVT</t>
+          <t>BP055AVT</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Mitsubishi Lancer X (07-) / ASX (10-)</t>
+          <t>Колодки тормозные задние без датчика Mitsubishi Lancer X (07-) / ASX (10-)</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -7523,7 +7523,7 @@
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>668,4</t>
+          <t>518,4</t>
         </is>
       </c>
       <c r="E254" t="n">
@@ -7536,12 +7536,12 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>BP055AVT</t>
+          <t>BP056AVT</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Mitsubishi Lancer X (07-) / ASX (10-)</t>
+          <t>Колодки тормозные задние без датчика Toyota Land Cruiser Prado (02-) / (09-)</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -7551,7 +7551,7 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>518,4</t>
+          <t>572,4</t>
         </is>
       </c>
       <c r="E255" t="n">
@@ -7564,12 +7564,12 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>BP056AVT</t>
+          <t>BP057AVT</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Toyota Land Cruiser Prado (02-) / (09-)</t>
+          <t>Колодки тормозные задние без датчика Toyota Corolla (06-) / Lifan Breez (07-) / Lifan X50 (15-)</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -7579,7 +7579,7 @@
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>572,4</t>
+          <t>565,2</t>
         </is>
       </c>
       <c r="E256" t="n">
@@ -7592,12 +7592,12 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>BP057AVT</t>
+          <t>BP058AVT</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Toyota Corolla (06-) / Lifan Breez (07-) / Lifan X50 (15-)</t>
+          <t>Колодки тормозные задние без датчика Mitsubishi Outlander III (12-) / ASX (10-)</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -7607,7 +7607,7 @@
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>565,2</t>
+          <t>668,4</t>
         </is>
       </c>
       <c r="E257" t="n">
@@ -7620,12 +7620,12 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>BP058AVT</t>
+          <t>BP059AVT</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Mitsubishi Outlander III (12-) / ASX (10-)</t>
+          <t>Колодки тормозные задние без датчика Audi 100 (86-) A4 (95-) A6 (94-)</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -7635,7 +7635,7 @@
       </c>
       <c r="D258" t="inlineStr">
         <is>
-          <t>668,4</t>
+          <t>692,4</t>
         </is>
       </c>
       <c r="E258" t="n">
@@ -7648,12 +7648,12 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>BP059AVT</t>
+          <t>BP060AVT</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Audi 100 (86-) A4 (95-) A6 (94-)</t>
+          <t>Колодки тормозные задние без датчика Honda Civic VIII (06-)</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -7663,7 +7663,7 @@
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>692,4</t>
+          <t>558,0</t>
         </is>
       </c>
       <c r="E259" t="n">
@@ -7676,12 +7676,12 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>BP060AVT</t>
+          <t>BP061AVT</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Honda Civic VIII (06-)</t>
+          <t>Колодки тормозные задние без датчика Ford Mondeo IV (07-)</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -7691,7 +7691,7 @@
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>558,0</t>
+          <t>685,2</t>
         </is>
       </c>
       <c r="E260" t="n">
@@ -7704,12 +7704,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>BP061AVT</t>
+          <t>BP062AVT</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Ford Mondeo IV (07-)</t>
+          <t>Колодки тормозные задние без датчика Nissan Qashqai (13-) / X-Trail T32 (14-)</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -7719,7 +7719,7 @@
       </c>
       <c r="D261" t="inlineStr">
         <is>
-          <t>685,2</t>
+          <t>798,0</t>
         </is>
       </c>
       <c r="E261" t="n">
@@ -7732,12 +7732,12 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>BP062AVT</t>
+          <t>BP063AVT</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Nissan Qashqai (13-) / X-Trail T32 (14-)</t>
+          <t>Колодки тормозные передние без датчика Nissan Teana (08-) / Tiida / Juke / Cube (10-)</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -7747,7 +7747,7 @@
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>798,0</t>
+          <t>770,4</t>
         </is>
       </c>
       <c r="E262" t="n">
@@ -7760,12 +7760,12 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>BP063AVT</t>
+          <t>BP064AVT</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Nissan Teana (08-) / Tiida / Juke / Cube (10-)</t>
+          <t>Колодки тормозные задние без датчика Toyota Camry (06-) / RAV 4 (06-) / Lexus ES (12-)</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -7775,7 +7775,7 @@
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>770,4</t>
+          <t>673,2</t>
         </is>
       </c>
       <c r="E263" t="n">
@@ -7788,12 +7788,12 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>BP064AVT</t>
+          <t>BP065AVT</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Toyota Camry (06-) / RAV 4 (06-) / Lexus ES (12-)</t>
+          <t>Колодки тормозные задние без датчика Honda Accord (02-) / CR-V (02-) / FR-V (04-)</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -7803,7 +7803,7 @@
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>673,2</t>
+          <t>609,6</t>
         </is>
       </c>
       <c r="E264" t="n">
@@ -7816,12 +7816,12 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>BP065AVT</t>
+          <t>BP066AVT</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Honda Accord (02-) / CR-V (02-) / FR-V (04-)</t>
+          <t>Колодки тормозные задние без датчика Mercedes E (W211) (02-) / E (W212) (09-)</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -7831,7 +7831,7 @@
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>609,6</t>
+          <t>829,2</t>
         </is>
       </c>
       <c r="E265" t="n">
@@ -7844,12 +7844,12 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>BP066AVT</t>
+          <t>BP067AVT</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Mercedes E (W211) (02-) / E (W212) (09-)</t>
+          <t>Колодки тормозные задние без датчика Toyota Land Cruiser 200 (07-)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -7859,7 +7859,7 @@
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>829,2</t>
+          <t>549,6</t>
         </is>
       </c>
       <c r="E266" t="n">
@@ -7872,12 +7872,12 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>BP067AVT</t>
+          <t>BP068AVT</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Toyota Land Cruiser 200 (07-)</t>
+          <t>Колодки тормозные задние без датчика Volvo XC 60 (08-)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>549,6</t>
+          <t>692,4</t>
         </is>
       </c>
       <c r="E267" t="n">
@@ -7900,12 +7900,12 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>BP068AVT</t>
+          <t>BP069AVT</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Volvo XC 60 (08-)</t>
+          <t>Колодки тормозные передние без датчика Chevrolet Aveo (02-)/Aveo T255 (08-)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -7915,7 +7915,7 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>692,4</t>
+          <t>580,8</t>
         </is>
       </c>
       <c r="E268" t="n">
@@ -7928,12 +7928,12 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>BP069AVT</t>
+          <t>BP070AVT</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Chevrolet Aveo (02-)/Aveo T255 (08-)</t>
+          <t>Колодки тормозные передние без датчика Peugeot 206 (98-)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -7943,7 +7943,7 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>580,8</t>
+          <t>679,2</t>
         </is>
       </c>
       <c r="E269" t="n">
@@ -7956,12 +7956,12 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>BP070AVT</t>
+          <t>BP071AVT</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Peugeot 206 (98-)</t>
+          <t>Колодки тормозные задние без датчика SsangYong Actyon (05-) / Kyron (05-)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -7971,7 +7971,7 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>679,2</t>
+          <t>553,2</t>
         </is>
       </c>
       <c r="E270" t="n">
@@ -7984,12 +7984,12 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>BP071AVT</t>
+          <t>BP072AVT</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика SsangYong Actyon (05-) / Kyron (05-)</t>
+          <t>Колодки тормозные передние без датчика Chevrolet Lacetti (04-)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -7999,7 +7999,7 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>553,2</t>
+          <t>601,2</t>
         </is>
       </c>
       <c r="E271" t="n">
@@ -8012,12 +8012,12 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>BP072AVT</t>
+          <t>BP073AVT</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Chevrolet Lacetti (04-)</t>
+          <t>Колодки тормозные задние с датчиком Skoda Octavia (97-) / Yeti (09-) / Audi A4 (01-) /A6 (97-)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -8027,7 +8027,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>601,2</t>
+          <t>584,4</t>
         </is>
       </c>
       <c r="E272" t="n">
@@ -8040,12 +8040,12 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>BP073AVT</t>
+          <t>BP074AVT</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние с датчиком Skoda Octavia (97-) / Yeti (09-) / Audi A4 (01-) /A6 (97-)</t>
+          <t>Колодки тормозные передние без датчика Honda CR-V (06-) / Element (03-)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -8055,7 +8055,7 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>584,4</t>
+          <t>926,4</t>
         </is>
       </c>
       <c r="E273" t="n">
@@ -8068,12 +8068,12 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>BP074AVT</t>
+          <t>BP075AVT</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Honda CR-V (06-) / Element (03-)</t>
+          <t>Колодки тормозные задние без датчика Chevrolet Lacetti (04-07)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -8083,7 +8083,7 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>926,4</t>
+          <t>524,4</t>
         </is>
       </c>
       <c r="E274" t="n">
@@ -8096,12 +8096,12 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>BP075AVT</t>
+          <t>BP076AVT</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Chevrolet Lacetti (04-07)</t>
+          <t>Колодки тормозные передние без датчика Suzuki Grand Vitara (98-) / Jimny (03-)</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -8111,7 +8111,7 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>524,4</t>
+          <t>601,2</t>
         </is>
       </c>
       <c r="E275" t="n">
@@ -8124,12 +8124,12 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>BP076AVT</t>
+          <t>BP077AVT</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Suzuki Grand Vitara (98-) / Jimny (03-)</t>
+          <t>Колодки тормозные передние без датчика Skoda Octavia (97-) / Yeti (09-) / Audi A4 (01-) /A6 (97-)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -8139,7 +8139,7 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>601,2</t>
+          <t>1065,6</t>
         </is>
       </c>
       <c r="E276" t="n">
@@ -8152,12 +8152,12 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>BP077AVT</t>
+          <t>BP078AVT</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Skoda Octavia (97-) / Yeti (09-) / Audi A4 (01-) /A6 (97-)</t>
+          <t>Колодки тормозные передние без датчика Ford Mondeo IV (07-)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -8167,7 +8167,7 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>1065,6</t>
+          <t>1123,2</t>
         </is>
       </c>
       <c r="E277" t="n">
@@ -8180,12 +8180,12 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>BP078AVT</t>
+          <t>BP079AVT</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Ford Mondeo IV (07-)</t>
+          <t>Колодки тормозные задние без датчика Subaru Forester (08-)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -8195,7 +8195,7 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>1123,2</t>
+          <t>612,0</t>
         </is>
       </c>
       <c r="E278" t="n">
@@ -8208,12 +8208,12 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>BP079AVT</t>
+          <t>BP080AVT</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Subaru Forester (08-)</t>
+          <t>Колодки тормозные задние без датчика Hyundai Santa Fe III (12-)</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -8223,7 +8223,7 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>612,0</t>
+          <t>705,6</t>
         </is>
       </c>
       <c r="E279" t="n">
@@ -8236,12 +8236,12 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>BP080AVT</t>
+          <t>BP081AVT</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Hyundai Santa Fe III (12-)</t>
+          <t>Колодки тормозные задние без датчика BMW 5 (10-) / X3 (10-)</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -8251,7 +8251,7 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>705,6</t>
+          <t>678,0</t>
         </is>
       </c>
       <c r="E280" t="n">
@@ -8264,12 +8264,12 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>BP081AVT</t>
+          <t>BP082AVT</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика BMW 5 (10-) / X3 (10-)</t>
+          <t>Колодки тормозные задние без датчика Chevrolet Lacetti (07-)</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -8279,7 +8279,7 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>678,0</t>
+          <t>484,8</t>
         </is>
       </c>
       <c r="E281" t="n">
@@ -8292,12 +8292,12 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>BP082AVT</t>
+          <t>BP083AVT</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Chevrolet Lacetti (07-)</t>
+          <t>Колодки тормозные задние без датчика Ford Mondeo (15-)</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -8307,7 +8307,7 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>484,8</t>
+          <t>794,4</t>
         </is>
       </c>
       <c r="E282" t="n">
@@ -8320,12 +8320,12 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>BP083AVT</t>
+          <t>BP084AVT</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Ford Mondeo (15-)</t>
+          <t>Колодки тормозные задние без датчика Geely Coolray (18-)</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -8335,7 +8335,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>794,4</t>
+          <t>1592,4</t>
         </is>
       </c>
       <c r="E283" t="n">
@@ -8348,12 +8348,12 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>BP084AVT</t>
+          <t>BP085AVT</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Geely Coolray (18-)</t>
+          <t>Колодки тормозные передние без датчика Geely Coolray (18-)</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -8363,7 +8363,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>1592,4</t>
+          <t>726,0</t>
         </is>
       </c>
       <c r="E284" t="n">
@@ -8376,12 +8376,12 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>BP085AVT</t>
+          <t>BP086AVT</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Geely Coolray (18-)</t>
+          <t>Колодки тормозные задние без датчика Hyundai Accent III (05-) / Tucson I (04-) / Kia Rio II (05-) /</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -8391,7 +8391,7 @@
       </c>
       <c r="D285" t="inlineStr">
         <is>
-          <t>726,0</t>
+          <t>612,0</t>
         </is>
       </c>
       <c r="E285" t="n">
@@ -8404,12 +8404,12 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>BP086AVT</t>
+          <t>BP087AVT</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Hyundai Accent III (05-) / Tucson I (04-) / Kia Rio II (05-) /</t>
+          <t>Колодки тормозные передние без датчика Kia Spectra Rio (00-) / Shuma (97-)</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -8419,7 +8419,7 @@
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>612,0</t>
+          <t>619,2</t>
         </is>
       </c>
       <c r="E286" t="n">
@@ -8432,12 +8432,12 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>BP087AVT</t>
+          <t>BP088AVT</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Kia Spectra Rio (00-) / Shuma (97-)</t>
+          <t>Колодки тормозные задние без датчика Lifan X60 Tiggo / Tiggo 5 / M11 / Fora GW M2 4 / 2 M4 VOLEE</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -8447,7 +8447,7 @@
       </c>
       <c r="D287" t="inlineStr">
         <is>
-          <t>619,2</t>
+          <t>717,6</t>
         </is>
       </c>
       <c r="E287" t="n">
@@ -8460,12 +8460,12 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>BP088AVT</t>
+          <t>BP089AVT</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Lifan X60 Tiggo / Tiggo 5 / M11 / Fora GW M2 4 / 2 M4 VOLEE</t>
+          <t>Колодки тормозные передние без датчика Chery Tiggo (06-) / A5 (06-)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -8475,7 +8475,7 @@
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>717,6</t>
+          <t>618,0</t>
         </is>
       </c>
       <c r="E288" t="n">
@@ -8488,12 +8488,12 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>BP089AVT</t>
+          <t>BP093AVT</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Chery Tiggo (06-) / A5 (06-)</t>
+          <t>Колодки тормозные задние без датчика Mitsubishi Outlander III (17-)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -8503,7 +8503,7 @@
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>618,0</t>
+          <t>750,0</t>
         </is>
       </c>
       <c r="E289" t="n">
@@ -8516,12 +8516,12 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>BP093AVT</t>
+          <t>BP094AVT</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Mitsubishi Outlander III (17-)</t>
+          <t>Колодки тормозные задние без датчика Chery Tiggo 7 (21-) / Chery Tiggo 7 Pro (21-)</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -8531,7 +8531,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>750,0</t>
+          <t>652,8</t>
         </is>
       </c>
       <c r="E290" t="n">
@@ -8544,12 +8544,12 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>BP094AVT</t>
+          <t>BP095AVT</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Chery Tiggo 7 (21-) / Chery Tiggo 7 Pro (21-)</t>
+          <t>Колодки тормозные передние без датчика Nissan Qashqai (13-) / X-Trail T32 (14-)</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -8559,7 +8559,7 @@
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>652,8</t>
+          <t>805,2</t>
         </is>
       </c>
       <c r="E291" t="n">
@@ -8572,12 +8572,12 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>BP095AVT</t>
+          <t>BP096AVT</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Nissan Qashqai (13-) / X-Trail T32 (14-)</t>
+          <t>Колодки тормозные передние без датчика Renault Logan II (2012-)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -8587,7 +8587,7 @@
       </c>
       <c r="D292" t="inlineStr">
         <is>
-          <t>805,2</t>
+          <t>680,4</t>
         </is>
       </c>
       <c r="E292" t="n">
@@ -8600,12 +8600,12 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>BP096AVT</t>
+          <t>BP097AVT</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Renault Logan II (2012-)</t>
+          <t>Колодки тормозные задние без датчика Skoda Rapid (12-) / VW Tiguan (15-)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -8615,7 +8615,7 @@
       </c>
       <c r="D293" t="inlineStr">
         <is>
-          <t>680,4</t>
+          <t>721,2</t>
         </is>
       </c>
       <c r="E293" t="n">
@@ -8628,12 +8628,12 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>BP097AVT</t>
+          <t>BP098AVT</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Skoda Rapid (12-) / VW Tiguan (15-)</t>
+          <t>Колодки тормозные задние без датчика Toyota C-HR (16-) / Camry (17-)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -8643,7 +8643,7 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>721,2</t>
+          <t>686,4</t>
         </is>
       </c>
       <c r="E294" t="n">
@@ -8656,12 +8656,12 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>BP098AVT</t>
+          <t>BP099AVT</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Toyota C-HR (16-) / Camry (17-)</t>
+          <t>Колодки тормозные передние без датчика VW Polo Sedan (10-)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -8671,7 +8671,7 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>686,4</t>
+          <t>824,4</t>
         </is>
       </c>
       <c r="E295" t="n">
@@ -8684,12 +8684,12 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>BP099AVT</t>
+          <t>BP101AVT</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика VW Polo Sedan (10-)</t>
+          <t>Колодки тормозные задние без датчика Lada Vesta / SW Cross / Lada 1119 Kalina / Lada Granta</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -8699,7 +8699,7 @@
       </c>
       <c r="D296" t="inlineStr">
         <is>
-          <t>824,4</t>
+          <t>561,6</t>
         </is>
       </c>
       <c r="E296" t="n">
@@ -8712,12 +8712,12 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>BP101AVT</t>
+          <t>BP102AVT</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Lada Vesta / SW Cross / Lada 1119 Kalina / Lada Granta</t>
+          <t>Колодки тормозные передние с датчиком Audi A4 (07-) / A6 (11-) / A7 (10-) / Porsche Macan (14-)</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -8727,7 +8727,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>561,6</t>
+          <t>838,8</t>
         </is>
       </c>
       <c r="E297" t="n">
@@ -8740,12 +8740,12 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>BP102AVT</t>
+          <t>BP103AVT</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние с датчиком Audi A4 (07-) / A6 (11-) / A7 (10-) / Porsche Macan (14-)</t>
+          <t>Колодки тормозные задние без датчика VW Touareg 3.0 TDI (02-) / Porshe Cayenne</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -8755,7 +8755,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>838,8</t>
+          <t>1158,0</t>
         </is>
       </c>
       <c r="E298" t="n">
@@ -8768,12 +8768,12 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>BP103AVT</t>
+          <t>BP104AVT</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика VW Touareg 3.0 TDI (02-) / Porshe Cayenne</t>
+          <t>Колодки тормозные задние без датчика BMW 1 (11-) / 3 (11-)</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -8783,7 +8783,7 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>1158,0</t>
+          <t>646,8</t>
         </is>
       </c>
       <c r="E299" t="n">
@@ -8796,12 +8796,12 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>BP104AVT</t>
+          <t>BP105AVT</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика BMW 1 (11-) / 3 (11-)</t>
+          <t>Колодки тормозные задние без датчика BMW 3 (18-) / 4 (20-)</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -8811,7 +8811,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>646,8</t>
+          <t>1018,8</t>
         </is>
       </c>
       <c r="E300" t="n">
@@ -8824,12 +8824,12 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>BP105AVT</t>
+          <t>BP106AVT</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика BMW 3 (18-) / 4 (20-)</t>
+          <t>Колодки тормозные задние без датчика BMW X1 (14-) / 2 (14-)</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -8839,7 +8839,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>1018,8</t>
+          <t>548,4</t>
         </is>
       </c>
       <c r="E301" t="n">
@@ -8852,12 +8852,12 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>BP106AVT</t>
+          <t>BP107AVT</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика BMW X1 (14-) / 2 (14-)</t>
+          <t>Колодки тормозные задние без датчика Haval Jolion (20-)</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -8867,7 +8867,7 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>548,4</t>
+          <t>1075,2</t>
         </is>
       </c>
       <c r="E302" t="n">
@@ -8880,12 +8880,12 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>BP107AVT</t>
+          <t>BP108AVT</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Haval Jolion (20-)</t>
+          <t>Колодки тормозные передние без датчика BMW 5 / 7 / X3 / X4 / X5</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -8895,7 +8895,7 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>1075,2</t>
+          <t>2112,0</t>
         </is>
       </c>
       <c r="E303" t="n">
@@ -8908,12 +8908,12 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>BP108AVT</t>
+          <t>BP110AVT</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика BMW 5 / 7 / X3 / X4 / X5</t>
+          <t>Колодки тормозные задние без датчика Toyota RAV4 (00-) / Chery Tiggo T11 (06-)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -8923,7 +8923,7 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>2112,0</t>
+          <t>586,8</t>
         </is>
       </c>
       <c r="E304" t="n">
@@ -8936,12 +8936,12 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>BP110AVT</t>
+          <t>BP111AVT</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Toyota RAV4 (00-) / Chery Tiggo T11 (06-)</t>
+          <t>Колодки тормозные передние без датчика Kia Ceed (12-)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -8951,7 +8951,7 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>586,8</t>
+          <t>726,0</t>
         </is>
       </c>
       <c r="E305" t="n">
@@ -8964,12 +8964,12 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>BP111AVT</t>
+          <t>BP113AVT</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Kia Ceed (12-)</t>
+          <t>Колодки тормозные задние без датчика Chevrolet Captiva (06-) / Opel Antara (06-)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -8979,7 +8979,7 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>726,0</t>
+          <t>652,8</t>
         </is>
       </c>
       <c r="E306" t="n">
@@ -8992,12 +8992,12 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>BP113AVT</t>
+          <t>BP114AVT</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Chevrolet Captiva (06-) / Opel Antara (06-)</t>
+          <t>Колодки тормозные задние без датчика Hyundai Santa Fe (18-) Mando</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -9007,7 +9007,7 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>652,8</t>
+          <t>1303,2</t>
         </is>
       </c>
       <c r="E307" t="n">
@@ -9020,12 +9020,12 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>BP114AVT</t>
+          <t>BP115AVT</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Hyundai Santa Fe (18-) Mando</t>
+          <t>Колодки тормозные задние без датчика Peugeot Boxer (06-)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -9035,7 +9035,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>1303,2</t>
+          <t>748,8</t>
         </is>
       </c>
       <c r="E308" t="n">
@@ -9048,12 +9048,12 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>BP115AVT</t>
+          <t>BP116AVT</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Peugeot Boxer (06-)</t>
+          <t>Колодки тормозные задние без датчика Ford Focus (98-)</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -9063,7 +9063,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>748,8</t>
+          <t>531,6</t>
         </is>
       </c>
       <c r="E309" t="n">
@@ -9076,12 +9076,12 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>BP116AVT</t>
+          <t>BP117AVT</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Ford Focus (98-)</t>
+          <t>Колодки тормозные задние без датчика Ford Mondeo (00-04)</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -9091,7 +9091,7 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>531,6</t>
+          <t>684,0</t>
         </is>
       </c>
       <c r="E310" t="n">
@@ -9104,12 +9104,12 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>BP117AVT</t>
+          <t>BP118AVT</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Ford Mondeo (00-04)</t>
+          <t>Колодки тормозные передние без датчика Kia Soul III (19-)</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -9119,7 +9119,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>684,0</t>
+          <t>938,4</t>
         </is>
       </c>
       <c r="E311" t="n">
@@ -9132,12 +9132,12 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>BP118AVT</t>
+          <t>BP119AVT</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Kia Soul III (19-)</t>
+          <t>Колодки тормозные задние без датчика Ford Mondeo (02-)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -9147,7 +9147,7 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>938,4</t>
+          <t>686,4</t>
         </is>
       </c>
       <c r="E312" t="n">
@@ -9160,12 +9160,12 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>BP119AVT</t>
+          <t>BP120AVT</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Ford Mondeo (02-)</t>
+          <t>Колодки тормозные задние с датчиком Ford Transit (06-)</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -9175,7 +9175,7 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>686,4</t>
+          <t>874,8</t>
         </is>
       </c>
       <c r="E313" t="n">
@@ -9188,12 +9188,12 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>BP120AVT</t>
+          <t>BP122AVT</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние с датчиком Ford Transit (06-)</t>
+          <t>Колодки тормозные передние без датчика Honda Civic VIII (06-)</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -9203,7 +9203,7 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>874,8</t>
+          <t>808,8</t>
         </is>
       </c>
       <c r="E314" t="n">
@@ -9216,12 +9216,12 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>BP122AVT</t>
+          <t>BP123AVT</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Honda Civic VIII (06-)</t>
+          <t>Колодки тормозные задние без датчика Mazda 6 (05-)</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -9231,7 +9231,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>808,8</t>
+          <t>570,0</t>
         </is>
       </c>
       <c r="E315" t="n">
@@ -9244,12 +9244,12 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>BP123AVT</t>
+          <t>BP124AVT</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Mazda 6 (05-)</t>
+          <t>Колодки тормозные передние без датчика Hyundai Accent III (05-) / Kia Rio II (05-)</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -9259,7 +9259,7 @@
       </c>
       <c r="D316" t="inlineStr">
         <is>
-          <t>570,0</t>
+          <t>674,4</t>
         </is>
       </c>
       <c r="E316" t="n">
@@ -9272,12 +9272,12 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>BP124AVT</t>
+          <t>BP125AVT</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Hyundai Accent III (05-) / Kia Rio II (05-)</t>
+          <t>Колодки тормозные задние без датчика Hyundai Santa Fe (00-) / Getz (02-) Tucson (04-) / Kia Sportage</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -9287,7 +9287,7 @@
       </c>
       <c r="D317" t="inlineStr">
         <is>
-          <t>674,4</t>
+          <t>501,6</t>
         </is>
       </c>
       <c r="E317" t="n">
@@ -9300,12 +9300,12 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>BP125AVT</t>
+          <t>BP126AVT</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Hyundai Santa Fe (00-) / Getz (02-) Tucson (04-) / Kia Sportage</t>
+          <t>Колодки тормозные задние без датчика Hyundai Santa Fe (18-)</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -9315,7 +9315,7 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>501,6</t>
+          <t>1201,2</t>
         </is>
       </c>
       <c r="E318" t="n">
@@ -9328,12 +9328,12 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>BP126AVT</t>
+          <t>BP127AVT</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Hyundai Santa Fe (18-)</t>
+          <t>Колодки тормозные передние без датчика Jac J7 (20-)</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -9343,7 +9343,7 @@
       </c>
       <c r="D319" t="inlineStr">
         <is>
-          <t>1201,2</t>
+          <t>1166,4</t>
         </is>
       </c>
       <c r="E319" t="n">
@@ -9356,12 +9356,12 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>BP127AVT</t>
+          <t>BP129AVT</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Jac J7 (20-)</t>
+          <t>Колодки тормозные передние без датчика Kia K5 (20-)/Hyundai Sonata VIII (20-)</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -9371,7 +9371,7 @@
       </c>
       <c r="D320" t="inlineStr">
         <is>
-          <t>1166,4</t>
+          <t>1131,6</t>
         </is>
       </c>
       <c r="E320" t="n">
@@ -9384,12 +9384,12 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>BP129AVT</t>
+          <t>BP130AVT</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Kia K5 (20-)/Hyundai Sonata VIII (20-)</t>
+          <t>Колодки тормозные задние без датчика Kia Sorento III (14-) / Hyundai H-1 (08-)</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -9399,7 +9399,7 @@
       </c>
       <c r="D321" t="inlineStr">
         <is>
-          <t>1131,6</t>
+          <t>714,0</t>
         </is>
       </c>
       <c r="E321" t="n">
@@ -9412,12 +9412,12 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>BP130AVT</t>
+          <t>BP131AVT</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Kia Sorento III (14-) / Hyundai H-1 (08-)</t>
+          <t>Колодки тормозные задние без датчика Land Rover Discovery 3 (04-)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -9427,7 +9427,7 @@
       </c>
       <c r="D322" t="inlineStr">
         <is>
-          <t>714,0</t>
+          <t>643,2</t>
         </is>
       </c>
       <c r="E322" t="n">
@@ -9440,12 +9440,12 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>BP131AVT</t>
+          <t>BP132AVT</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Land Rover Discovery 3 (04-)</t>
+          <t>Колодки тормозные передние без датчика Toyota Yaris (06-)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -9455,7 +9455,7 @@
       </c>
       <c r="D323" t="inlineStr">
         <is>
-          <t>643,2</t>
+          <t>704,4</t>
         </is>
       </c>
       <c r="E323" t="n">
@@ -9468,12 +9468,12 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>BP132AVT</t>
+          <t>BP134AVT</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Toyota Yaris (06-)</t>
+          <t>Колодки тормозные задние без датчика Mazda 6 (02-)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -9483,7 +9483,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>704,4</t>
+          <t>651,6</t>
         </is>
       </c>
       <c r="E324" t="n">
@@ -9496,12 +9496,12 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>BP134AVT</t>
+          <t>BP135AVT</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Mazda 6 (02-)</t>
+          <t>Колодки тормозные задние без датчика Mazda CX-5 (11-)</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -9511,7 +9511,7 @@
       </c>
       <c r="D325" t="inlineStr">
         <is>
-          <t>651,6</t>
+          <t>757,2</t>
         </is>
       </c>
       <c r="E325" t="n">
@@ -9524,12 +9524,12 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>BP135AVT</t>
+          <t>BP136AVT</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Mazda CX-5 (11-)</t>
+          <t>Колодки тормозные передние без датчика Mazda CX-5 (11-)</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -9539,7 +9539,7 @@
       </c>
       <c r="D326" t="inlineStr">
         <is>
-          <t>757,2</t>
+          <t>872,4</t>
         </is>
       </c>
       <c r="E326" t="n">
@@ -9552,12 +9552,12 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>BP136AVT</t>
+          <t>BP137AVT</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Mazda CX-5 (11-)</t>
+          <t>Колодки тормозные передние без датчика Mazda CX-7 (09-)/CX-9 (07-)</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -9567,7 +9567,7 @@
       </c>
       <c r="D327" t="inlineStr">
         <is>
-          <t>872,4</t>
+          <t>904,8</t>
         </is>
       </c>
       <c r="E327" t="n">
@@ -9580,12 +9580,12 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>BP137AVT</t>
+          <t>BP138AVT</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Mazda CX-7 (09-)/CX-9 (07-)</t>
+          <t>Колодки тормозные задние без датчика MB A (18-) / CLA (19-)</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -9595,7 +9595,7 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>904,8</t>
+          <t>1214,4</t>
         </is>
       </c>
       <c r="E328" t="n">
@@ -9608,12 +9608,12 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>BP138AVT</t>
+          <t>BP140AVT</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика MB A (18-) / CLA (19-)</t>
+          <t>Колодки тормозные задние без датчика Mercedes-Benz 190 (W201) (82-)</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -9623,7 +9623,7 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>1214,4</t>
+          <t>984,0</t>
         </is>
       </c>
       <c r="E329" t="n">
@@ -9636,12 +9636,12 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>BP140AVT</t>
+          <t>BP141AVT</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Mercedes-Benz 190 (W201) (82-)</t>
+          <t>Колодки тормозные задние без датчика Nissan Maxima (96-)/Suzuki Ignis (00-)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -9651,7 +9651,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>984,0</t>
+          <t>542,4</t>
         </is>
       </c>
       <c r="E330" t="n">
@@ -9664,12 +9664,12 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>BP141AVT</t>
+          <t>BP142AVT</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Nissan Maxima (96-)/Suzuki Ignis (00-)</t>
+          <t>Колодки тормозные задние без датчика MB GL / ML (11-)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -9679,7 +9679,7 @@
       </c>
       <c r="D331" t="inlineStr">
         <is>
-          <t>542,4</t>
+          <t>748,8</t>
         </is>
       </c>
       <c r="E331" t="n">
@@ -9692,12 +9692,12 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>BP142AVT</t>
+          <t>BP143AVT</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика MB GL / ML (11-)</t>
+          <t>Колодки тормозные задние без датчика Mercedes Vito/Viano (W638) (96-)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -9707,7 +9707,7 @@
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>748,8</t>
+          <t>564,0</t>
         </is>
       </c>
       <c r="E332" t="n">
@@ -9720,12 +9720,12 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>BP143AVT</t>
+          <t>BP144AVT</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Mercedes Vito/Viano (W638) (96-)</t>
+          <t>Колодки тормозные передние без датчика Mercedes-Benz Vito/Viano (W638) (96-)</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -9735,7 +9735,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>564,0</t>
+          <t>813,6</t>
         </is>
       </c>
       <c r="E333" t="n">
@@ -9748,12 +9748,12 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>BP144AVT</t>
+          <t>BP145AVT</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Mercedes-Benz Vito/Viano (W638) (96-)</t>
+          <t>Колодки тормозные задние без датчика Mini Cooper (06-) / Clubman (07-)</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -9763,7 +9763,7 @@
       </c>
       <c r="D334" t="inlineStr">
         <is>
-          <t>813,6</t>
+          <t>1072,8</t>
         </is>
       </c>
       <c r="E334" t="n">
@@ -9776,12 +9776,12 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>BP145AVT</t>
+          <t>BP146AVT</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Mini Cooper (06-) / Clubman (07-)</t>
+          <t>Колодки тормозные задние без датчика Mini Cooper (13-)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -9791,7 +9791,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>1072,8</t>
+          <t>897,6</t>
         </is>
       </c>
       <c r="E335" t="n">
@@ -9804,12 +9804,12 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>BP146AVT</t>
+          <t>BP147AVT</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Mini Cooper (13-)</t>
+          <t>Колодки тормозные передние без датчика Mitsubishi Outlander (06-)</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -9819,7 +9819,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>897,6</t>
+          <t>777,6</t>
         </is>
       </c>
       <c r="E336" t="n">
@@ -9832,12 +9832,12 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>BP147AVT</t>
+          <t>BP149AVT</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Mitsubishi Outlander (06-)</t>
+          <t>Колодки тормозные передние без датчика Mitsubishi Pajero (00-) / (06-)</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -9847,7 +9847,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>777,6</t>
+          <t>854,4</t>
         </is>
       </c>
       <c r="E337" t="n">
@@ -9860,12 +9860,12 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>BP149AVT</t>
+          <t>BP150AVT</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Mitsubishi Pajero (00-) / (06-)</t>
+          <t>Колодки тормозные задние без датчика Mitsubishi Pajero Sport (08-)</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -9875,7 +9875,7 @@
       </c>
       <c r="D338" t="inlineStr">
         <is>
-          <t>854,4</t>
+          <t>668,4</t>
         </is>
       </c>
       <c r="E338" t="n">
@@ -9888,12 +9888,12 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>BP150AVT</t>
+          <t>BP151AVT</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Mitsubishi Pajero Sport (08-)</t>
+          <t>Колодки тормозные передние без датчика Nissan Sunny (98-) /Almera Classic (06-)</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -9903,7 +9903,7 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>668,4</t>
+          <t>650,4</t>
         </is>
       </c>
       <c r="E339" t="n">
@@ -9916,12 +9916,12 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>BP151AVT</t>
+          <t>BP152AVT</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Nissan Sunny (98-) /Almera Classic (06-)</t>
+          <t>Колодки тормозные задние без датчика Nissan 100 NX / 100 SX / Almera (00-) / Primera (02-) / Sunny /</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -9931,7 +9931,7 @@
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>650,4</t>
+          <t>562,8</t>
         </is>
       </c>
       <c r="E340" t="n">
@@ -9944,12 +9944,12 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>BP152AVT</t>
+          <t>BP153AVT</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Nissan 100 NX / 100 SX / Almera (00-) / Primera (02-) / Sunny /</t>
+          <t>Колодки тормозные передние без датчика Nissan Almera (00-)</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -9959,7 +9959,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>562,8</t>
+          <t>778,8</t>
         </is>
       </c>
       <c r="E341" t="n">
@@ -9972,12 +9972,12 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>BP153AVT</t>
+          <t>BP154AVT</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Nissan Almera (00-)</t>
+          <t>Колодки тормозные передние без датчика Nissan Primera (96-)</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -9987,7 +9987,7 @@
       </c>
       <c r="D342" t="inlineStr">
         <is>
-          <t>778,8</t>
+          <t>654,0</t>
         </is>
       </c>
       <c r="E342" t="n">
@@ -10000,12 +10000,12 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>BP154AVT</t>
+          <t>BP155AVT</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Nissan Primera (96-)</t>
+          <t>Колодки тормозные передние без датчика Nissan Primera (02-)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -10015,7 +10015,7 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>654,0</t>
+          <t>742,8</t>
         </is>
       </c>
       <c r="E343" t="n">
@@ -10028,12 +10028,12 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>BP155AVT</t>
+          <t>BP157AVT</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Nissan Primera (02-)</t>
+          <t>Колодки тормозные передние без датчика Nissan Almera (05-) / Note (06-)</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -10043,7 +10043,7 @@
       </c>
       <c r="D344" t="inlineStr">
         <is>
-          <t>742,8</t>
+          <t>619,2</t>
         </is>
       </c>
       <c r="E344" t="n">
@@ -10056,12 +10056,12 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>BP157AVT</t>
+          <t>BP158AVT</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Nissan Almera (05-) / Note (06-)</t>
+          <t>Колодки тормозные передние без датчика Renault Megane II (02-)</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -10071,7 +10071,7 @@
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>619,2</t>
+          <t>597,6</t>
         </is>
       </c>
       <c r="E345" t="n">
@@ -10084,12 +10084,12 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>BP158AVT</t>
+          <t>BP159AVT</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Renault Megane II (02-)</t>
+          <t>Колодки тормозные задние без датчика Opel Astra (98-) / Zafira (99-)</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -10099,7 +10099,7 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>597,6</t>
+          <t>628,8</t>
         </is>
       </c>
       <c r="E346" t="n">
@@ -10112,12 +10112,12 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>BP159AVT</t>
+          <t>BP160AVT</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Opel Astra (98-) / Zafira (99-)</t>
+          <t>Колодки тормозные задние без датчика Opel Insignia (08-) / SAAB 9-5 (10-)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -10127,7 +10127,7 @@
       </c>
       <c r="D347" t="inlineStr">
         <is>
-          <t>628,8</t>
+          <t>627,6</t>
         </is>
       </c>
       <c r="E347" t="n">
@@ -10140,12 +10140,12 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>BP160AVT</t>
+          <t>BP161AVT</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Opel Insignia (08-) / SAAB 9-5 (10-)</t>
+          <t>Колодки тормозные задние без датчика Opel Vectra B (95-) / Omega A (86-)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -10155,7 +10155,7 @@
       </c>
       <c r="D348" t="inlineStr">
         <is>
-          <t>627,6</t>
+          <t>444,0</t>
         </is>
       </c>
       <c r="E348" t="n">
@@ -10168,12 +10168,12 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>BP161AVT</t>
+          <t>BP162AVT</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Opel Vectra B (95-) / Omega A (86-)</t>
+          <t>Колодки тормозные передние без датчика Peugeot 107 (05-) / Citroen C1 (05-)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -10183,7 +10183,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>444,0</t>
+          <t>598,8</t>
         </is>
       </c>
       <c r="E349" t="n">
@@ -10196,12 +10196,12 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>BP162AVT</t>
+          <t>BP163AVT</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Peugeot 107 (05-) / Citroen C1 (05-)</t>
+          <t>Колодки тормозные задние без датчика Skoda Octavia A8 (19-) / VW Golf VIII (19-)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -10211,7 +10211,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>598,8</t>
+          <t>721,2</t>
         </is>
       </c>
       <c r="E350" t="n">
@@ -10224,12 +10224,12 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>BP163AVT</t>
+          <t>BP164AVT</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Skoda Octavia A8 (19-) / VW Golf VIII (19-)</t>
+          <t>Колодки тормозные передние без датчика Peugeot 206 (98-) / 306 (97-)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -10239,7 +10239,7 @@
       </c>
       <c r="D351" t="inlineStr">
         <is>
-          <t>721,2</t>
+          <t>681,6</t>
         </is>
       </c>
       <c r="E351" t="n">
@@ -10252,12 +10252,12 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>BP164AVT</t>
+          <t>BP165AVT</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Peugeot 206 (98-) / 306 (97-)</t>
+          <t>Колодки тормозные задние без датчика Renault Fluence / Megane / Scenic III (08-)</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -10267,7 +10267,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>681,6</t>
+          <t>657,6</t>
         </is>
       </c>
       <c r="E352" t="n">
@@ -10280,12 +10280,12 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>BP165AVT</t>
+          <t>BP166AVT</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Renault Fluence / Megane / Scenic III (08-)</t>
+          <t>Колодки тормозные задние без датчика Renault Kangoo II (07-) / Mercedes-Benz Citan (12-)</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -10295,7 +10295,7 @@
       </c>
       <c r="D353" t="inlineStr">
         <is>
-          <t>657,6</t>
+          <t>612,0</t>
         </is>
       </c>
       <c r="E353" t="n">
@@ -10308,12 +10308,12 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>BP166AVT</t>
+          <t>BP168AVT</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Renault Kangoo II (07-) / Mercedes-Benz Citan (12-)</t>
+          <t>Колодки тормозные задние с датчиком Renault Master III (10-)</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -10323,7 +10323,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>612,0</t>
+          <t>783,6</t>
         </is>
       </c>
       <c r="E354" t="n">
@@ -10336,12 +10336,12 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>BP168AVT</t>
+          <t>BP169AVT</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние с датчиком Renault Master III (10-)</t>
+          <t>Колодки тормозные задние без датчика Renault Trafic II (01-) / III (14-) / OPEL Vivaro (01-)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -10351,7 +10351,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>783,6</t>
+          <t>610,8</t>
         </is>
       </c>
       <c r="E355" t="n">
@@ -10364,12 +10364,12 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>BP169AVT</t>
+          <t>BP170AVT</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Renault Trafic II (01-) / III (14-) / OPEL Vivaro (01-)</t>
+          <t>Колодки тормозные задние без датчика Skoda Octavia (13-) / VW Caddy (15-) / Audi A1 (14-)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -10379,7 +10379,7 @@
       </c>
       <c r="D356" t="inlineStr">
         <is>
-          <t>610,8</t>
+          <t>547,2</t>
         </is>
       </c>
       <c r="E356" t="n">
@@ -10392,12 +10392,12 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>BP170AVT</t>
+          <t>BP171AVT</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Skoda Octavia (13-) / VW Caddy (15-) / Audi A1 (14-)</t>
+          <t>Колодки тормозные передние без датчика Subaru Forester (10-) / (13-)</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -10407,7 +10407,7 @@
       </c>
       <c r="D357" t="inlineStr">
         <is>
-          <t>547,2</t>
+          <t>691,2</t>
         </is>
       </c>
       <c r="E357" t="n">
@@ -10420,12 +10420,12 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>BP171AVT</t>
+          <t>BP172AVT</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Subaru Forester (10-) / (13-)</t>
+          <t>Колодки тормозные передние без датчика Suzuki SX4 (13-) / Vitara (15-)</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -10435,7 +10435,7 @@
       </c>
       <c r="D358" t="inlineStr">
         <is>
-          <t>691,2</t>
+          <t>1068,0</t>
         </is>
       </c>
       <c r="E358" t="n">
@@ -10448,12 +10448,12 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>BP172AVT</t>
+          <t>BP173AVT</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Suzuki SX4 (13-) / Vitara (15-)</t>
+          <t>Колодки тормозные задние без датчика Toyota Camry (96-) / Lifan Solano (10-) / BYD F3 (05-)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -10463,7 +10463,7 @@
       </c>
       <c r="D359" t="inlineStr">
         <is>
-          <t>1068,0</t>
+          <t>470,4</t>
         </is>
       </c>
       <c r="E359" t="n">
@@ -10476,12 +10476,12 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>BP173AVT</t>
+          <t>BP174AVT</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Колодки тормозные задние без датчика Toyota Camry (96-) / Lifan Solano (10-) / BYD F3 (05-)</t>
+          <t>Колодки тормозные передние без датчика Toyota Corolla (01-)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -10491,7 +10491,7 @@
       </c>
       <c r="D360" t="inlineStr">
         <is>
-          <t>470,4</t>
+          <t>726,0</t>
         </is>
       </c>
       <c r="E360" t="n">
@@ -10504,12 +10504,12 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>BP174AVT</t>
+          <t>BP175AVT</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Toyota Corolla (01-)</t>
+          <t>Колодки тормозные передние без датчика Toyota Vitz (99-) / FunCargo (99-) / Platz (00-)</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -10519,7 +10519,7 @@
       </c>
       <c r="D361" t="inlineStr">
         <is>
-          <t>726,0</t>
+          <t>573,6</t>
         </is>
       </c>
       <c r="E361" t="n">
@@ -10532,12 +10532,12 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>BP175AVT</t>
+          <t>BP177AVT</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Toyota Vitz (99-) / FunCargo (99-) / Platz (00-)</t>
+          <t>Колодки тормозные передние без датчика Moskvich 3 (22-) / JAC JS4 (20-)</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -10547,11 +10547,11 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>573,6</t>
+          <t>1303,2</t>
         </is>
       </c>
       <c r="E362" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F362" t="n">
         <v>1</v>
@@ -10560,12 +10560,12 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>BP177AVT</t>
+          <t>CD033AVT</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Moskvich 3 (22-) / JAC JS4 (20-)</t>
+          <t>Конденсор Ford Focus II (05-) / Volvo S40 (04-) 1.4-2.0</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -10575,11 +10575,11 @@
       </c>
       <c r="D363" t="inlineStr">
         <is>
-          <t>1303,2</t>
+          <t>4044,0</t>
         </is>
       </c>
       <c r="E363" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F363" t="n">
         <v>1</v>
@@ -10588,12 +10588,12 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>CD033AVT</t>
+          <t>CD034AVT</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Конденсор Ford Focus II (05-) / Volvo S40 (04-) 1.4-2.0</t>
+          <t>Конденсор Skoda Kodiaq (16-) / Skoda Octavia A7 (13-) / VW Tiguan (16-) 1.2-2.0</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -10603,7 +10603,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>4044,0</t>
+          <t>5292,0</t>
         </is>
       </c>
       <c r="E364" t="n">
@@ -10616,12 +10616,12 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>CD034AVT</t>
+          <t>CD035AVT</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Конденсор Skoda Kodiaq (16-) / Skoda Octavia A7 (13-) / VW Tiguan (16-) 1.2-2.0</t>
+          <t>Конденсор Skoda Octavia A5 (04-) / VW Golf V (03-) 1.6-2.0</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -10631,7 +10631,7 @@
       </c>
       <c r="D365" t="inlineStr">
         <is>
-          <t>5292,0</t>
+          <t>5136,0</t>
         </is>
       </c>
       <c r="E365" t="n">
@@ -10644,12 +10644,12 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>CD035AVT</t>
+          <t>CD036AVT</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Конденсор Skoda Octavia A5 (04-) / VW Golf V (03-) 1.6-2.0</t>
+          <t>Конденсор Chevrolet Aveo T300 (11-) 1.2-1.6</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -10659,7 +10659,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>5136,0</t>
+          <t>4404,0</t>
         </is>
       </c>
       <c r="E366" t="n">
@@ -10672,12 +10672,12 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>CD036AVT</t>
+          <t>CD037AVT</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Конденсор Chevrolet Aveo T300 (11-) 1.2-1.6</t>
+          <t>Конденсор Ford Mondeo (07-) / Volvo XC60 (08-) / XC70 (07-) / S80 (06-) 1.6-2.5</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -10687,7 +10687,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>4404,0</t>
+          <t>5388,0</t>
         </is>
       </c>
       <c r="E367" t="n">
@@ -10700,12 +10700,12 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>CD037AVT</t>
+          <t>CD038AVT</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Конденсор Ford Mondeo (07-) / Volvo XC60 (08-) / XC70 (07-) / S80 (06-) 1.6-2.5</t>
+          <t>Конденсор Hyundai Accent II (99-) MT 1.3-1.6</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -10715,7 +10715,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>5388,0</t>
+          <t>3708,0</t>
         </is>
       </c>
       <c r="E368" t="n">
@@ -10728,12 +10728,12 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>CD038AVT</t>
+          <t>CD039AVT</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Конденсор Hyundai Accent II (99-) MT 1.3-1.6</t>
+          <t>Конденсор Hyundai Tucson (15-) / Kia Sportage (16-) 1.6-2.0</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -10743,7 +10743,7 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>3708,0</t>
+          <t>5856,0</t>
         </is>
       </c>
       <c r="E369" t="n">
@@ -10756,12 +10756,12 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>CD039AVT</t>
+          <t>CD041AVT</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Конденсор Hyundai Tucson (15-) / Kia Sportage (16-) 1.6-2.0</t>
+          <t>Конденсор Mitsubishi Outlander (12-) 2.0-2.4</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -10771,7 +10771,7 @@
       </c>
       <c r="D370" t="inlineStr">
         <is>
-          <t>5856,0</t>
+          <t>4428,0</t>
         </is>
       </c>
       <c r="E370" t="n">
@@ -10784,12 +10784,12 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>CD041AVT</t>
+          <t>CD042AVT</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Конденсор Mitsubishi Outlander (12-) 2.0-2.4</t>
+          <t>Конденсор Nissan Note (06-) / Tiida (04-) / Juke (10-) 1.2-1.6</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -10799,7 +10799,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>4428,0</t>
+          <t>4248,0</t>
         </is>
       </c>
       <c r="E371" t="n">
@@ -10812,12 +10812,12 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>CD042AVT</t>
+          <t>CD043AVT</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Конденсор Nissan Note (06-) / Tiida (04-) / Juke (10-) 1.2-1.6</t>
+          <t>Конденсор Opel Astra H (04-) 1.4-1.8</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -10827,7 +10827,7 @@
       </c>
       <c r="D372" t="inlineStr">
         <is>
-          <t>4248,0</t>
+          <t>4692,0</t>
         </is>
       </c>
       <c r="E372" t="n">
@@ -10840,12 +10840,12 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>CD043AVT</t>
+          <t>CD044AVT</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Конденсор Opel Astra H (04-) 1.4-1.8</t>
+          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.0</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -10855,7 +10855,7 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>4692,0</t>
+          <t>5124,0</t>
         </is>
       </c>
       <c r="E373" t="n">
@@ -10868,12 +10868,12 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>CD044AVT</t>
+          <t>CD045AVT</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.0</t>
+          <t>Конденсор Mazda 3 (09-) 1.6-2.5</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -10883,7 +10883,7 @@
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>5124,0</t>
+          <t>5220,0</t>
         </is>
       </c>
       <c r="E374" t="n">
@@ -10896,12 +10896,12 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>CD045AVT</t>
+          <t>CD046AVT</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Конденсор Mazda 3 (09-) 1.6-2.5</t>
+          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.2</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -10911,7 +10911,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>5220,0</t>
+          <t>5364,0</t>
         </is>
       </c>
       <c r="E375" t="n">
@@ -10924,12 +10924,12 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>CD046AVT</t>
+          <t>CD047AVT</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.2</t>
+          <t>Конденсор Chevrolet Captiva / Opel Antara (06-) 2.0-2.2D</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -10939,7 +10939,7 @@
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>5364,0</t>
+          <t>4788,0</t>
         </is>
       </c>
       <c r="E376" t="n">
@@ -10952,12 +10952,12 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>CD047AVT</t>
+          <t>CD048AVT</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Конденсор Chevrolet Captiva / Opel Antara (06-) 2.0-2.2D</t>
+          <t>Конденсор Chevrolet Cruze / Opel Astra J (09-) 1.4-1.8</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -10967,7 +10967,7 @@
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>4788,0</t>
+          <t>3900,0</t>
         </is>
       </c>
       <c r="E377" t="n">
@@ -10980,12 +10980,12 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>CD048AVT</t>
+          <t>CD049AVT</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Конденсор Chevrolet Cruze / Opel Astra J (09-) 1.4-1.8</t>
+          <t>Конденсор Lada Vesta</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -10995,7 +10995,7 @@
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>3900,0</t>
+          <t>5077,2</t>
         </is>
       </c>
       <c r="E378" t="n">
@@ -11008,12 +11008,12 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>CD049AVT</t>
+          <t>FC001AVT</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Конденсор Lada Vesta</t>
+          <t>Фильтр отопителя LADA VESTA</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -11023,7 +11023,7 @@
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>5077,2</t>
+          <t>420,0</t>
         </is>
       </c>
       <c r="E379" t="n">
@@ -11036,12 +11036,12 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>FC001AVT</t>
+          <t>FC002AVT</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Фильтр отопителя LADA VESTA</t>
+          <t>Фильтр отопителя LADA Largus</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -11064,12 +11064,12 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>FC002AVT</t>
+          <t>RD001AVT</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Фильтр отопителя LADA Largus</t>
+          <t>Радиатор двигателя HYUNDAI SOLARIS (RB) / KIA RIO III (UB) (11-) 1.4-1.6i MT</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -11079,7 +11079,7 @@
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>420,0</t>
+          <t>3139,2</t>
         </is>
       </c>
       <c r="E381" t="n">
@@ -11092,12 +11092,12 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>RD001AVT</t>
+          <t>RD002AVT</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Радиатор двигателя HYUNDAI SOLARIS (RB) / KIA RIO III (UB) (11-) 1.4-1.6i MT</t>
+          <t>Радиатор двигателя Hyundai Solaris / Kia Rio (10-&gt;) AT (сборный)</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -11107,7 +11107,7 @@
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>3139,2</t>
+          <t>3202,8</t>
         </is>
       </c>
       <c r="E382" t="n">
@@ -11120,12 +11120,12 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>RD002AVT</t>
+          <t>RD003AVT</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Hyundai Solaris / Kia Rio (10-&gt;) AT (сборный)</t>
+          <t>Радиатор двигателя Renault Logan (04-) 1.4i/1.6i А/С+ (сборный)</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -11135,7 +11135,7 @@
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>3202,8</t>
+          <t>2793,6</t>
         </is>
       </c>
       <c r="E383" t="n">
@@ -11148,12 +11148,12 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>RD003AVT</t>
+          <t>RD004AVT</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Renault Logan (04-) 1.4i/1.6i А/С+ (сборный)</t>
+          <t>Радиатор двигателя Ford Focus II (05-) A/C+ (сборный)</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -11163,7 +11163,7 @@
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>2793,6</t>
+          <t>4725,6</t>
         </is>
       </c>
       <c r="E384" t="n">
@@ -11176,12 +11176,12 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>RD004AVT</t>
+          <t>RD005AVT</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Ford Focus II (05-) A/C+ (сборный)</t>
+          <t>Радиатор двигателя MITSUBISHI ASX (10-) 1.6-1.8i / OUTLANDER (07-) 2.0-2.4i / LANCER (07-) 1.5-2.0i</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -11191,7 +11191,7 @@
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>4725,6</t>
+          <t>4110,0</t>
         </is>
       </c>
       <c r="E385" t="n">
@@ -11204,12 +11204,12 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>RD005AVT</t>
+          <t>RD006AVT</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MITSUBISHI ASX (10-) 1.6-1.8i / OUTLANDER (07-) 2.0-2.4i / LANCER (07-) 1.5-2.0i</t>
+          <t>Радиатор двигателя VW Polo Sedan (10-)/(20-)/Skoda Rapid (12-)/(20-) (сборный)</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -11219,7 +11219,7 @@
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>4110,0</t>
+          <t>3888,0</t>
         </is>
       </c>
       <c r="E386" t="n">
@@ -11232,12 +11232,12 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>RD006AVT</t>
+          <t>RD007AVT</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Радиатор двигателя VW Polo Sedan (10-)/(20-)/Skoda Rapid (12-)/(20-) (сборный)</t>
+          <t>Радиатор двигателя TOYOTA AURIS (E15) (07-) / (E18) (12-) 1.3-1.6i / AVENSIS (T27) (08-) 1.6-2.0i /</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -11247,7 +11247,7 @@
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>3888,0</t>
+          <t>5714,4</t>
         </is>
       </c>
       <c r="E387" t="n">
@@ -11260,12 +11260,12 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>RD007AVT</t>
+          <t>RD008AVT</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Радиатор двигателя TOYOTA AURIS (E15) (07-) / (E18) (12-) 1.3-1.6i / AVENSIS (T27) (08-) 1.6-2.0i /</t>
+          <t>Радиатор двигателя CHEVROLET CRUZE (09-) 1.6-1.8i / ORLANDO (10-) 1.8i MT</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -11275,7 +11275,7 @@
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>5714,4</t>
+          <t>5634,0</t>
         </is>
       </c>
       <c r="E388" t="n">
@@ -11288,12 +11288,12 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>RD008AVT</t>
+          <t>RD009AVT</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Радиатор двигателя CHEVROLET CRUZE (09-) 1.6-1.8i / ORLANDO (10-) 1.8i MT</t>
+          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i MT</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -11303,7 +11303,7 @@
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>5634,0</t>
+          <t>5554,8</t>
         </is>
       </c>
       <c r="E389" t="n">
@@ -11316,12 +11316,12 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>RD009AVT</t>
+          <t>RD010AVT</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i MT</t>
+          <t>Радиатор двигателя Toyota RAV 4 (06-&gt;)/RAV 4 (13-&gt;) 2.0i MT/AT (сборный)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -11331,7 +11331,7 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>5554,8</t>
+          <t>5428,8</t>
         </is>
       </c>
       <c r="E390" t="n">
@@ -11344,12 +11344,12 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>RD010AVT</t>
+          <t>RD011AVT</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota RAV 4 (06-&gt;)/RAV 4 (13-&gt;) 2.0i MT/AT (сборный)</t>
+          <t>Радиатор двигателя Chevrolet Lacetti (04-) 1.4i/1.6i/1.8i MT (сборный)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -11359,7 +11359,7 @@
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>5428,8</t>
+          <t>4972,8</t>
         </is>
       </c>
       <c r="E391" t="n">
@@ -11372,12 +11372,12 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>RD011AVT</t>
+          <t>RD012AVT</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Chevrolet Lacetti (04-) 1.4i/1.6i/1.8i MT (сборный)</t>
+          <t>Радиатор двигателя сборный VW Jetta (05)/(11-)/Skoda Octavia A5 (04-)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -11387,7 +11387,7 @@
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>4972,8</t>
+          <t>4106,4</t>
         </is>
       </c>
       <c r="E392" t="n">
@@ -11400,12 +11400,12 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>RD012AVT</t>
+          <t>RD013AVT</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Радиатор двигателя сборный VW Jetta (05)/(11-)/Skoda Octavia A5 (04-)</t>
+          <t>Радиатор двигателя Skoda Octavia A5 (04-)/VW Golf V (03-) (сборный)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -11415,7 +11415,7 @@
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>4106,4</t>
+          <t>4436,4</t>
         </is>
       </c>
       <c r="E393" t="n">
@@ -11428,12 +11428,12 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>RD013AVT</t>
+          <t>RD014AVT</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Skoda Octavia A5 (04-)/VW Golf V (03-) (сборный)</t>
+          <t>Радиатор двигателя OPEL ZAFIRA / ASTRA H (05-) 1.6-1.8i MT / AT</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -11443,7 +11443,7 @@
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>4436,4</t>
+          <t>5726,4</t>
         </is>
       </c>
       <c r="E394" t="n">
@@ -11456,12 +11456,12 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>RD014AVT</t>
+          <t>RD015AVT</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Радиатор двигателя OPEL ZAFIRA / ASTRA H (05-) 1.6-1.8i MT / AT</t>
+          <t>Радиатор двигателя Daewoo Nexia (94-) 1.5/1.8 MT (сборный)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -11471,7 +11471,7 @@
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>5726,4</t>
+          <t>3204,0</t>
         </is>
       </c>
       <c r="E395" t="n">
@@ -11484,12 +11484,12 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>RD015AVT</t>
+          <t>RD016AVT</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Daewoo Nexia (94-) 1.5/1.8 MT (сборный)</t>
+          <t>Радиатор двигателя Daewoo Matiz (01-) 0.8i/1.0i MT (сборный)</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -11499,7 +11499,7 @@
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>3204,0</t>
+          <t>2898,0</t>
         </is>
       </c>
       <c r="E396" t="n">
@@ -11512,12 +11512,12 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>RD016AVT</t>
+          <t>RD017AVT</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Daewoo Matiz (01-) 0.8i/1.0i MT (сборный)</t>
+          <t>Радиатор двигателя NISSAN QASHQAI (J10) (07-) 1.6-2.0i MT / AT</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -11527,7 +11527,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>2898,0</t>
+          <t>7288,8</t>
         </is>
       </c>
       <c r="E397" t="n">
@@ -11540,12 +11540,12 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>RD017AVT</t>
+          <t>RD018AVT</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Радиатор двигателя NISSAN QASHQAI (J10) (07-) 1.6-2.0i MT / AT</t>
+          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i AT</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -11555,7 +11555,7 @@
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>7288,8</t>
+          <t>6370,8</t>
         </is>
       </c>
       <c r="E398" t="n">
@@ -11568,12 +11568,12 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>RD018AVT</t>
+          <t>RD019AVT</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i AT</t>
+          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i MT</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -11583,7 +11583,7 @@
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>6370,8</t>
+          <t>4887,6</t>
         </is>
       </c>
       <c r="E399" t="n">
@@ -11596,12 +11596,12 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>RD019AVT</t>
+          <t>RD020AVT</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i MT</t>
+          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i AT</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -11611,7 +11611,7 @@
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>4887,6</t>
+          <t>6194,4</t>
         </is>
       </c>
       <c r="E400" t="n">
@@ -11624,12 +11624,12 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>RD020AVT</t>
+          <t>RD021AVT</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i AT</t>
+          <t>Радиатор двигателя KIA CEED (ED) (07-) 1.4-2.0i / HYUNDAI ELANTRA (HD) (06-) 1.6-2.0i / HYUNDAI i30</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -11639,7 +11639,7 @@
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>6194,4</t>
+          <t>4904,4</t>
         </is>
       </c>
       <c r="E401" t="n">
@@ -11652,12 +11652,12 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>RD021AVT</t>
+          <t>RD023AVT</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA CEED (ED) (07-) 1.4-2.0i / HYUNDAI ELANTRA (HD) (06-) 1.6-2.0i / HYUNDAI i30</t>
+          <t>Радиатор двигателя Daewoo Matiz (1998-) 0.8 MT (сборный)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -11667,7 +11667,7 @@
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>4904,4</t>
+          <t>3322,8</t>
         </is>
       </c>
       <c r="E402" t="n">
@@ -11680,12 +11680,12 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>RD023AVT</t>
+          <t>RD024AVT</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Daewoo Matiz (1998-) 0.8 MT (сборный)</t>
+          <t>Радиатор двигателя DAEWOO MATIZ (98-) 0.8i AT</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -11695,7 +11695,7 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>3322,8</t>
+          <t>4207,2</t>
         </is>
       </c>
       <c r="E403" t="n">
@@ -11708,12 +11708,12 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>RD024AVT</t>
+          <t>RD025AVT</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Радиатор двигателя DAEWOO MATIZ (98-) 0.8i AT</t>
+          <t>Радиатор двигателя TOYOTA CAMRY (11-16) 2.5-3.5i AT</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -11723,7 +11723,7 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>4207,2</t>
+          <t>7470,0</t>
         </is>
       </c>
       <c r="E404" t="n">
@@ -11736,12 +11736,12 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>RD025AVT</t>
+          <t>RD026AVT</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Радиатор двигателя TOYOTA CAMRY (11-16) 2.5-3.5i AT</t>
+          <t>Радиатор двигателя BMW X5 (E70) (07-) 30d/3.0t AT (паяный)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -11751,7 +11751,7 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>7470,0</t>
+          <t>12250,8</t>
         </is>
       </c>
       <c r="E405" t="n">
@@ -11764,12 +11764,12 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>RD026AVT</t>
+          <t>RD027AVT</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Радиатор двигателя BMW X5 (E70) (07-) 30d/3.0t AT (паяный)</t>
+          <t>Радиатор двигателя MB ML (12-) GL GLS GLE (-18) 2.2-5.5i AT</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -11779,7 +11779,7 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>12250,8</t>
+          <t>11959,2</t>
         </is>
       </c>
       <c r="E406" t="n">
@@ -11792,12 +11792,12 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>RD027AVT</t>
+          <t>RD028AVT</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MB ML (12-) GL GLS GLE (-18) 2.2-5.5i AT</t>
+          <t>Радиатор двигателя MB C (07-) E (-16) GLK (08-) 1.6-4.7i AT</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -11807,7 +11807,7 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>11959,2</t>
+          <t>10615,2</t>
         </is>
       </c>
       <c r="E407" t="n">
@@ -11820,12 +11820,12 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>RD028AVT</t>
+          <t>RD029AVT</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MB C (07-) E (-16) GLK (08-) 1.6-4.7i AT</t>
+          <t>Радиатор двигателя MB E (16-) GLC (15-) C (14-) S (13-) 2.0-4.0 MT / AT</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -11835,7 +11835,7 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>10615,2</t>
+          <t>12114,0</t>
         </is>
       </c>
       <c r="E408" t="n">
@@ -11848,12 +11848,12 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>RD029AVT</t>
+          <t>RD032AVT</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MB E (16-) GLC (15-) C (14-) S (13-) 2.0-4.0 MT / AT</t>
+          <t>Радиатор двигателя MB C (07-) / E (-16) / GLK (08-) 1.6-3.5</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -11863,7 +11863,7 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>12114,0</t>
+          <t>6668,4</t>
         </is>
       </c>
       <c r="E409" t="n">
@@ -11876,12 +11876,12 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>RD032AVT</t>
+          <t>RD034AVT</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MB C (07-) / E (-16) / GLK (08-) 1.6-3.5</t>
+          <t>Радиатор двигателя BMW X5 (-13) 3.0-4.8</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -11891,7 +11891,7 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>6668,4</t>
+          <t>11433,6</t>
         </is>
       </c>
       <c r="E410" t="n">
@@ -11904,12 +11904,12 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>RD034AVT</t>
+          <t>RD036AVT</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Радиатор двигателя BMW X5 (-13) 3.0-4.8</t>
+          <t>Радиатор двигателя MB A (-14) / B (11-) / CLA (-19) / GLA (13-) 1.5-2.2</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -11919,11 +11919,11 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>11433,6</t>
+          <t>5425,2</t>
         </is>
       </c>
       <c r="E411" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F411" t="n">
         <v>1</v>
@@ -11932,12 +11932,12 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>RD036AVT</t>
+          <t>RD037AVT</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MB A (-14) / B (11-) / CLA (-19) / GLA (13-) 1.5-2.2</t>
+          <t>Радиатор двигателя MB C (14-) / E (16-) / GLC (15-) 1.6-3.0</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -11947,11 +11947,11 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>5425,2</t>
+          <t>4728,0</t>
         </is>
       </c>
       <c r="E412" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F412" t="n">
         <v>1</v>
@@ -11960,12 +11960,12 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>RD037AVT</t>
+          <t>RD038AVT</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MB C (14-) / E (16-) / GLC (15-) 1.6-3.0</t>
+          <t>Радиатор двигателя BMW 1 (12-) 2 (13-) 3 (11-) 4 (13-) 1.5-3.0</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -11975,11 +11975,11 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>4728,0</t>
+          <t>5251,2</t>
         </is>
       </c>
       <c r="E413" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F413" t="n">
         <v>1</v>
@@ -11988,12 +11988,12 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>RD038AVT</t>
+          <t>RD039AVT</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Радиатор двигателя BMW 1 (12-) 2 (13-) 3 (11-) 4 (13-) 1.5-3.0</t>
+          <t>Радиатор двигателя Audi A4 (-15) / A5 (-17) / Q5 (08-) / Porsche Macan (14-) 2.7-3.2</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -12003,11 +12003,11 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>5251,2</t>
+          <t>8958,0</t>
         </is>
       </c>
       <c r="E414" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F414" t="n">
         <v>1</v>
@@ -12016,12 +12016,12 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>RD039AVT</t>
+          <t>RD040AVT</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Audi A4 (-15) / A5 (-17) / Q5 (08-) / Porsche Macan (14-) 2.7-3.2</t>
+          <t>Радиатор двигателя FORD FIESTA / FUSION (01-) 1.2-1.6i MT / AT</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -12031,7 +12031,7 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>8958,0</t>
+          <t>2821,2</t>
         </is>
       </c>
       <c r="E415" t="n">
@@ -12044,12 +12044,12 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>RD040AVT</t>
+          <t>RD044AVT</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Радиатор двигателя FORD FIESTA / FUSION (01-) 1.2-1.6i MT / AT</t>
+          <t>Радиатор двигателя Toyota LC200 4.7 (08-) / LEXUS LX 5.7 (08-)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -12059,7 +12059,7 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>2821,2</t>
+          <t>12666,0</t>
         </is>
       </c>
       <c r="E416" t="n">
@@ -12072,12 +12072,12 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>RD044AVT</t>
+          <t>RD046AVT</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota LC200 4.7 (08-) / LEXUS LX 5.7 (08-)</t>
+          <t>Радиатор двигателя Volvo XC90 II (15-) 2.0D</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -12087,11 +12087,11 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>12666,0</t>
+          <t>6498,0</t>
         </is>
       </c>
       <c r="E417" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F417" t="n">
         <v>1</v>
@@ -12100,12 +12100,12 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>RD046AVT</t>
+          <t>RD047AVT</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Volvo XC90 II (15-) 2.0D</t>
+          <t>Радиатор двигателя Land Rover Discovery (17-) / Range Rover (13-) 3.0-5.0</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -12115,11 +12115,11 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>6498,0</t>
+          <t>7119,6</t>
         </is>
       </c>
       <c r="E418" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F418" t="n">
         <v>1</v>
@@ -12128,12 +12128,12 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>RD047AVT</t>
+          <t>RD048AVT</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Land Rover Discovery (17-) / Range Rover (13-) 3.0-5.0</t>
+          <t>Радиатор двигателя FORD FOCUS III / C-MAX (11-) 1.6-2.0i MT / AT</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -12143,7 +12143,7 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>7119,6</t>
+          <t>6349,2</t>
         </is>
       </c>
       <c r="E419" t="n">
@@ -12156,12 +12156,12 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>RD048AVT</t>
+          <t>RD049AVT</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Радиатор двигателя FORD FOCUS III / C-MAX (11-) 1.6-2.0i MT / AT</t>
+          <t>Радиатор двигателя Toyota Camry (18-) / Rav 4 (19-) 2.0-3.5</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -12171,7 +12171,7 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>6349,2</t>
+          <t>4864,8</t>
         </is>
       </c>
       <c r="E420" t="n">
@@ -12184,12 +12184,12 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>RD049AVT</t>
+          <t>RD050AVT</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota Camry (18-) / Rav 4 (19-) 2.0-3.5</t>
+          <t>Радиатор двигателя Toyota LC200 (08-) 4.5D</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -12199,7 +12199,7 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>4864,8</t>
+          <t>12649,2</t>
         </is>
       </c>
       <c r="E421" t="n">
@@ -12212,12 +12212,12 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>RD050AVT</t>
+          <t>RD051AVT</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota LC200 (08-) 4.5D</t>
+          <t>Радиатор двигателя Toyota LC Prado (10-) 3.0D</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -12227,7 +12227,7 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>12649,2</t>
+          <t>11257,2</t>
         </is>
       </c>
       <c r="E422" t="n">
@@ -12240,12 +12240,12 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>RD051AVT</t>
+          <t>RD052AVT</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota LC Prado (10-) 3.0D</t>
+          <t>Радиатор двигателя Toyota LC150 Prado (10-) 2.8D</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -12255,7 +12255,7 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>11257,2</t>
+          <t>10562,4</t>
         </is>
       </c>
       <c r="E423" t="n">
@@ -12268,12 +12268,12 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>RD052AVT</t>
+          <t>RD053AVT</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota LC150 Prado (10-) 2.8D</t>
+          <t>Радиатор двигателя Toyota LC120 / 150 Prado 2.7-4.0 (00-)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -12283,7 +12283,7 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>10562,4</t>
+          <t>6208,8</t>
         </is>
       </c>
       <c r="E424" t="n">
@@ -12296,12 +12296,12 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>RD053AVT</t>
+          <t>RD054AVT</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota LC120 / 150 Prado 2.7-4.0 (00-)</t>
+          <t>Радиатор двигателя Toyota LC J15 4.0</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -12311,7 +12311,7 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>6208,8</t>
+          <t>6870,0</t>
         </is>
       </c>
       <c r="E425" t="n">
@@ -12324,12 +12324,12 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>RD054AVT</t>
+          <t>RD055AVT</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota LC J15 4.0</t>
+          <t>Радиатор двигателя HYUNDAI SOLARIS (10-) / KIA RIO (10-) 1.4-1.6i 6AT</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -12339,7 +12339,7 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>6870,0</t>
+          <t>4195,2</t>
         </is>
       </c>
       <c r="E426" t="n">
@@ -12352,12 +12352,12 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>RD055AVT</t>
+          <t>RD056AVT</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Радиатор двигателя HYUNDAI SOLARIS (10-) / KIA RIO (10-) 1.4-1.6i 6AT</t>
+          <t>Радиатор двигателя KIA CEED / HYUNDAI i30 / ELANTRA IV (06-) 1.4-2.0i AT</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -12367,7 +12367,7 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>4195,2</t>
+          <t>6532,8</t>
         </is>
       </c>
       <c r="E427" t="n">
@@ -12380,12 +12380,12 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>RD056AVT</t>
+          <t>RD057AVT</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA CEED / HYUNDAI i30 / ELANTRA IV (06-) 1.4-2.0i AT</t>
+          <t>Радиатор двигателя HYUNDAI SOLARIS / KIA RIO (17-) 1.4-1.6i MT</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -12395,7 +12395,7 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>6532,8</t>
+          <t>3555,6</t>
         </is>
       </c>
       <c r="E428" t="n">
@@ -12408,12 +12408,12 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>RD057AVT</t>
+          <t>RD058AVT</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Радиатор двигателя HYUNDAI SOLARIS / KIA RIO (17-) 1.4-1.6i MT</t>
+          <t>Радиатор двигателя RENAULT LOGAN / SANDERO / SYMBOL (04-) 1.4-1.6i / Lada LARGUS K7M 1.6i (12-) MT /</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -12423,7 +12423,7 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>3555,6</t>
+          <t>2893,2</t>
         </is>
       </c>
       <c r="E429" t="n">
@@ -12436,12 +12436,12 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>RD058AVT</t>
+          <t>RD059AVT</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Радиатор двигателя RENAULT LOGAN / SANDERO / SYMBOL (04-) 1.4-1.6i / Lada LARGUS K7M 1.6i (12-) MT /</t>
+          <t>Радиатор двигателя паяный VW PASSAT B6 / B7 JETTA III /IV / TIGUAN / TOURAN / SKODA OCTAVIA II / SUP</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -12451,7 +12451,7 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>2893,2</t>
+          <t>6285,6</t>
         </is>
       </c>
       <c r="E430" t="n">
@@ -12464,12 +12464,12 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>RD059AVT</t>
+          <t>RD060AVT</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный VW PASSAT B6 / B7 JETTA III /IV / TIGUAN / TOURAN / SKODA OCTAVIA II / SUP</t>
+          <t>Радиатор двигателя MITSUBISHI OUTLANDER III (12-) 2.0-3.0i MT / AT</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -12479,7 +12479,7 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>6285,6</t>
+          <t>7209,6</t>
         </is>
       </c>
       <c r="E431" t="n">
@@ -12492,12 +12492,12 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>RD060AVT</t>
+          <t>RD062AVT</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MITSUBISHI OUTLANDER III (12-) 2.0-3.0i MT / AT</t>
+          <t>Радиатор двигателя Kia Spectra (96-) 1.5-1.8 AT</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -12507,7 +12507,7 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>7209,6</t>
+          <t>5772,0</t>
         </is>
       </c>
       <c r="E432" t="n">
@@ -12520,12 +12520,12 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>RD062AVT</t>
+          <t>RD063AVT</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia Spectra (96-) 1.5-1.8 AT</t>
+          <t>Радиатор двигателя Nissan X-Trail (14-) 2.0-2.5</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -12535,7 +12535,7 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>5772,0</t>
+          <t>5864,4</t>
         </is>
       </c>
       <c r="E433" t="n">
@@ -12548,12 +12548,12 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>RD063AVT</t>
+          <t>RD064AVT</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Nissan X-Trail (14-) 2.0-2.5</t>
+          <t>Радиатор двигателя VW Passat B5 (96-) / Audi A4 (94-) MT 1.6-1.9</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -12563,7 +12563,7 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>5864,4</t>
+          <t>3826,8</t>
         </is>
       </c>
       <c r="E434" t="n">
@@ -12576,12 +12576,12 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>RD064AVT</t>
+          <t>RD065AVT</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Радиатор двигателя VW Passat B5 (96-) / Audi A4 (94-) MT 1.6-1.9</t>
+          <t>Радиатор двигателя Kia Optima (15-) 2.0-2.4</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -12591,7 +12591,7 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>3826,8</t>
+          <t>5503,2</t>
         </is>
       </c>
       <c r="E435" t="n">
@@ -12604,12 +12604,12 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>RD065AVT</t>
+          <t>RD066AVT</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia Optima (15-) 2.0-2.4</t>
+          <t>Радиатор двигателя Mitsubishi Lancer IX (00-) MT 1.3-2.0</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -12619,7 +12619,7 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>5503,2</t>
+          <t>4772,4</t>
         </is>
       </c>
       <c r="E436" t="n">
@@ -12632,12 +12632,12 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>RD066AVT</t>
+          <t>RD067AVT</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Mitsubishi Lancer IX (00-) MT 1.3-2.0</t>
+          <t>Радиатор двигателя Nissan Almera Classic (05-)</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -12647,7 +12647,7 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>4772,4</t>
+          <t>6369,6</t>
         </is>
       </c>
       <c r="E437" t="n">
@@ -12660,12 +12660,12 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>RD067AVT</t>
+          <t>RD068AVT</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Nissan Almera Classic (05-)</t>
+          <t>Радиатор двигателя Nissan Almera / Primera (00-) MT 1.5-1.8</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -12675,7 +12675,7 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>6369,6</t>
+          <t>4579,2</t>
         </is>
       </c>
       <c r="E438" t="n">
@@ -12688,12 +12688,12 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>RD068AVT</t>
+          <t>RD069AVT</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Nissan Almera / Primera (00-) MT 1.5-1.8</t>
+          <t>Радиатор двигателя Nissan Micra (02-) / Note (06-) 1.0-1.6</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -12703,7 +12703,7 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>4579,2</t>
+          <t>4592,4</t>
         </is>
       </c>
       <c r="E439" t="n">
@@ -12716,12 +12716,12 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>RD069AVT</t>
+          <t>RD070AVT</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Nissan Micra (02-) / Note (06-) 1.0-1.6</t>
+          <t>Радиатор двигателя Opel Astra J (10-) / Сhevrolet Cruze (09-) 1.4-1.8</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -12731,11 +12731,11 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>4592,4</t>
+          <t>5115,6</t>
         </is>
       </c>
       <c r="E440" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F440" t="n">
         <v>1</v>
@@ -12744,12 +12744,12 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>RD070AVT</t>
+          <t>RD071AVT</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Opel Astra J (10-) / Сhevrolet Cruze (09-) 1.4-1.8</t>
+          <t>Радиатор двигателя Opel Corsa D (06-) 1.0-1.4</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -12759,11 +12759,11 @@
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>5115,6</t>
+          <t>3201,6</t>
         </is>
       </c>
       <c r="E441" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F441" t="n">
         <v>1</v>
@@ -12772,12 +12772,12 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>RD071AVT</t>
+          <t>RD072AVT</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Opel Corsa D (06-) 1.0-1.4</t>
+          <t>Радиатор двигателя Peugeot 308 / Citroen C4 (07-)</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -12787,7 +12787,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>3201,6</t>
+          <t>3568,8</t>
         </is>
       </c>
       <c r="E442" t="n">
@@ -12800,12 +12800,12 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>RD072AVT</t>
+          <t>RD073AVT</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Peugeot 308 / Citroen C4 (07-)</t>
+          <t>Радиатор двигателя Renault Megane / Scenic II (02-) 1.4-2.0</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -12815,7 +12815,7 @@
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>3568,8</t>
+          <t>4400,4</t>
         </is>
       </c>
       <c r="E443" t="n">
@@ -12828,12 +12828,12 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>RD073AVT</t>
+          <t>RD074AVT</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Renault Megane / Scenic II (02-) 1.4-2.0</t>
+          <t>Радиатор двигателя Skoda Fabia (99-) 1.0-1.9</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -12843,7 +12843,7 @@
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>4400,4</t>
+          <t>3278,4</t>
         </is>
       </c>
       <c r="E444" t="n">
@@ -12856,12 +12856,12 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>RD074AVT</t>
+          <t>RD075AVT</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Skoda Fabia (99-) 1.0-1.9</t>
+          <t>Радиатор двигателя Skoda Octavia (96-) / VW Golf IV (96-) 1.4-2.3</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -12871,7 +12871,7 @@
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>3278,4</t>
+          <t>2725,2</t>
         </is>
       </c>
       <c r="E445" t="n">
@@ -12884,12 +12884,12 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>RD075AVT</t>
+          <t>RD076AVT</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Skoda Octavia (96-) / VW Golf IV (96-) 1.4-2.3</t>
+          <t>Радиатор двигателя Skoda Octavia A7 (13-) / VW Golf VII (12-) 1.6</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -12899,7 +12899,7 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>2725,2</t>
+          <t>3974,4</t>
         </is>
       </c>
       <c r="E446" t="n">
@@ -12912,12 +12912,12 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>RD076AVT</t>
+          <t>RD077AVT</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Skoda Octavia A7 (13-) / VW Golf VII (12-) 1.6</t>
+          <t>Радиатор двигателя Skoda Octavia A7 (13-) / VW Tiguan (16-) 1.8-2.0</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -12927,7 +12927,7 @@
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>3974,4</t>
+          <t>4460,4</t>
         </is>
       </c>
       <c r="E447" t="n">
@@ -12940,12 +12940,12 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>RD077AVT</t>
+          <t>RD078AVT</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Skoda Octavia A7 (13-) / VW Tiguan (16-) 1.8-2.0</t>
+          <t>Радиатор двигателя Suzuki Grand Vitara (05-) AT 2.0-2.4</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -12955,7 +12955,7 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>4460,4</t>
+          <t>6490,8</t>
         </is>
       </c>
       <c r="E448" t="n">
@@ -12968,12 +12968,12 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>RD078AVT</t>
+          <t>RD079AVT</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Suzuki Grand Vitara (05-) AT 2.0-2.4</t>
+          <t>Радиатор двигателя Suzuki Grand Vitara (05-) MT 2.0-2.4</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -12983,7 +12983,7 @@
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>6490,8</t>
+          <t>5467,2</t>
         </is>
       </c>
       <c r="E449" t="n">
@@ -12996,12 +12996,12 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>RD079AVT</t>
+          <t>RD080AVT</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Suzuki Grand Vitara (05-) MT 2.0-2.4</t>
+          <t>Радиатор двигателя Volvo XC90 (02-) 2.4-3.2</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -13011,7 +13011,7 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>5467,2</t>
+          <t>8196,0</t>
         </is>
       </c>
       <c r="E450" t="n">
@@ -13024,12 +13024,12 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>RD080AVT</t>
+          <t>RD081AVT</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Volvo XC90 (02-) 2.4-3.2</t>
+          <t>Радиатор двигателя VW Tiguan (08-) / Sharan (10-) 1.4-2.0</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -13039,7 +13039,7 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>8196,0</t>
+          <t>4518,0</t>
         </is>
       </c>
       <c r="E451" t="n">
@@ -13052,12 +13052,12 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>RD081AVT</t>
+          <t>RD082AVT</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Радиатор двигателя VW Tiguan (08-) / Sharan (10-) 1.4-2.0</t>
+          <t>Радиатор двигателя VW Touareg II (10-) / Porsche Cayenne II (10-) 3.0-3.6</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -13067,7 +13067,7 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>4518,0</t>
+          <t>7316,4</t>
         </is>
       </c>
       <c r="E452" t="n">
@@ -13080,12 +13080,12 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>RD082AVT</t>
+          <t>RD084AVT</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Радиатор двигателя VW Touareg II (10-) / Porsche Cayenne II (10-) 3.0-3.6</t>
+          <t>Радиатор двигателя BMW 5 (95-) 2.0-4.4</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -13095,7 +13095,7 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>7316,4</t>
+          <t>4744,8</t>
         </is>
       </c>
       <c r="E453" t="n">
@@ -13108,12 +13108,12 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>RD084AVT</t>
+          <t>RD085AVT</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Радиатор двигателя BMW 5 (95-) 2.0-4.4</t>
+          <t>Радиатор двигателя BMW X3 (10-) / X4 (14-) 2.0-3.0</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -13123,7 +13123,7 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>4744,8</t>
+          <t>4107,6</t>
         </is>
       </c>
       <c r="E454" t="n">
@@ -13136,12 +13136,12 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>RD085AVT</t>
+          <t>RD086AVT</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Радиатор двигателя BMW X3 (10-) / X4 (14-) 2.0-3.0</t>
+          <t>Радиатор двигателя Honda CR-V (06-) 2.4</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -13151,7 +13151,7 @@
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>4107,6</t>
+          <t>5722,8</t>
         </is>
       </c>
       <c r="E455" t="n">
@@ -13164,12 +13164,12 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>RD086AVT</t>
+          <t>RD087AVT</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Honda CR-V (06-) 2.4</t>
+          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -13179,7 +13179,7 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>5722,8</t>
+          <t>7402,8</t>
         </is>
       </c>
       <c r="E456" t="n">
@@ -13192,12 +13192,12 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>RD087AVT</t>
+          <t>RD088AVT</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
+          <t>Радиатор двигателя Kia Rio (05-) 1.4-1.6</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -13207,7 +13207,7 @@
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>7402,8</t>
+          <t>5900,4</t>
         </is>
       </c>
       <c r="E457" t="n">
@@ -13220,12 +13220,12 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>RD088AVT</t>
+          <t>RD089AVT</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia Rio (05-) 1.4-1.6</t>
+          <t>Радиатор двигателя Kia Soul III (19-) / Seltos (19-) 1.6-2.0</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -13235,7 +13235,7 @@
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>5900,4</t>
+          <t>5623,2</t>
         </is>
       </c>
       <c r="E458" t="n">
@@ -13248,12 +13248,12 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>RD089AVT</t>
+          <t>RD090AVT</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia Soul III (19-) / Seltos (19-) 1.6-2.0</t>
+          <t>Радиатор двигателя Lexus RX 350 / 450h (09-) 3.5</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -13263,7 +13263,7 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>5623,2</t>
+          <t>6130,8</t>
         </is>
       </c>
       <c r="E459" t="n">
@@ -13276,12 +13276,12 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>RD090AVT</t>
+          <t>RD091AVT</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Lexus RX 350 / 450h (09-) 3.5</t>
+          <t>Радиатор двигателя Mazda CX-7 (07-) 2.2-2.5</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -13291,7 +13291,7 @@
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>6130,8</t>
+          <t>7627,2</t>
         </is>
       </c>
       <c r="E460" t="n">
@@ -13304,12 +13304,12 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>RD091AVT</t>
+          <t>RD092AVT</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Mazda CX-7 (07-) 2.2-2.5</t>
+          <t>Радиатор двигателя Mitsubishi ASX (10-) 1.8</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -13319,7 +13319,7 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>7627,2</t>
+          <t>4736,4</t>
         </is>
       </c>
       <c r="E461" t="n">
@@ -13332,12 +13332,12 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>RD092AVT</t>
+          <t>RD093AVT</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Mitsubishi ASX (10-) 1.8</t>
+          <t>Радиатор двигателя Mitsubishi Pajero III (98-) / Pajero IV (06-) 3.0-3.8</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -13347,7 +13347,7 @@
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>4736,4</t>
+          <t>6186,0</t>
         </is>
       </c>
       <c r="E462" t="n">
@@ -13360,12 +13360,12 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>RD093AVT</t>
+          <t>RD096AVT</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Mitsubishi Pajero III (98-) / Pajero IV (06-) 3.0-3.8</t>
+          <t>Радиатор двигателя Toyota Corolla E12 (01-)/Avensis T25 (03-) AT</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -13375,7 +13375,7 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>6186,0</t>
+          <t>4640,4</t>
         </is>
       </c>
       <c r="E463" t="n">
@@ -13388,12 +13388,12 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>RD096AVT</t>
+          <t>RD097AVT</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota Corolla E12 (01-)/Avensis T25 (03-) AT</t>
+          <t>Радиатор двигателя Toyota Corolla E12 (01-)/Avensis T25 (03-) MT</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -13403,7 +13403,7 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>4640,4</t>
+          <t>4425,6</t>
         </is>
       </c>
       <c r="E464" t="n">
@@ -13416,12 +13416,12 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>RD097AVT</t>
+          <t>RD098AVT</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota Corolla E12 (01-)/Avensis T25 (03-) MT</t>
+          <t>Радиатор двигателя Skoda Octavia (04-) / AUDI A3 (03-) 1.4Tsi</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -13431,7 +13431,7 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>4425,6</t>
+          <t>3607,2</t>
         </is>
       </c>
       <c r="E465" t="n">
@@ -13444,12 +13444,12 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>RD098AVT</t>
+          <t>RD099AVT</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Skoda Octavia (04-) / AUDI A3 (03-) 1.4Tsi</t>
+          <t>Радиатор двигателя VW Jetta (11-) 1.6i 2.0i 2.5i</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -13459,7 +13459,7 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>3607,2</t>
+          <t>3699,6</t>
         </is>
       </c>
       <c r="E466" t="n">
@@ -13472,12 +13472,12 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>RD099AVT</t>
+          <t>RD100AVT</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Радиатор двигателя VW Jetta (11-) 1.6i 2.0i 2.5i</t>
+          <t>Радиатор двигателя Skoda Octavia A5 (08-) / AUDI A3 (8P1) 1.4T-2.0Tsi</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -13487,7 +13487,7 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>3699,6</t>
+          <t>4448,4</t>
         </is>
       </c>
       <c r="E467" t="n">
@@ -13500,12 +13500,12 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>RD100AVT</t>
+          <t>RD101AVT</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Skoda Octavia A5 (08-) / AUDI A3 (8P1) 1.4T-2.0Tsi</t>
+          <t>Радиатор двигателя SsangYong New Actyon / Korando C (10-) 2.0 AT</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -13515,7 +13515,7 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>4448,4</t>
+          <t>7254,0</t>
         </is>
       </c>
       <c r="E468" t="n">
@@ -13528,12 +13528,12 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>RD101AVT</t>
+          <t>RD102AVT</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Радиатор двигателя SsangYong New Actyon / Korando C (10-) 2.0 AT</t>
+          <t>Радиатор двигателя Mitsubishi Carisma (95-) / Space Star (98-) 1.3-1.8 MT</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -13543,7 +13543,7 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>7254,0</t>
+          <t>5130,0</t>
         </is>
       </c>
       <c r="E469" t="n">
@@ -13556,12 +13556,12 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>RD102AVT</t>
+          <t>RD103AVT</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Mitsubishi Carisma (95-) / Space Star (98-) 1.3-1.8 MT</t>
+          <t>Радиатор двигателя Peugeot 206 (98-) 1.4-2.0 / Citroen C4 (04-) 1.6 / Xsara Picasso 2.0 AT</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -13571,7 +13571,7 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>5130,0</t>
+          <t>3456,0</t>
         </is>
       </c>
       <c r="E470" t="n">
@@ -13584,12 +13584,12 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>RD103AVT</t>
+          <t>RD104AVT</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Peugeot 206 (98-) 1.4-2.0 / Citroen C4 (04-) 1.6 / Xsara Picasso 2.0 AT</t>
+          <t>Радиатор двигателя BMW 1 (04-) 1.6-3.0 / 3 (05-) 1.8-3.0 / X1 (09-) 2.0-3.0</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -13599,7 +13599,7 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>3456,0</t>
+          <t>4924,8</t>
         </is>
       </c>
       <c r="E471" t="n">
@@ -13612,12 +13612,12 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>RD104AVT</t>
+          <t>RD105AVT</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Радиатор двигателя BMW 1 (04-) 1.6-3.0 / 3 (05-) 1.8-3.0 / X1 (09-) 2.0-3.0</t>
+          <t>Радиатор двигателя Chevrolet Aveo T300 (11-) 1.6 AT</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -13627,7 +13627,7 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>4924,8</t>
+          <t>6307,2</t>
         </is>
       </c>
       <c r="E472" t="n">
@@ -13640,12 +13640,12 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>RD105AVT</t>
+          <t>RD106AVT</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Chevrolet Aveo T300 (11-) 1.6 AT</t>
+          <t>Радиатор двигателя Chevrolet Aveo T300 (11-) 1.6 MT</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -13655,7 +13655,7 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>6307,2</t>
+          <t>5242,8</t>
         </is>
       </c>
       <c r="E473" t="n">
@@ -13668,12 +13668,12 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>RD106AVT</t>
+          <t>RD204AVT</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Chevrolet Aveo T300 (11-) 1.6 MT</t>
+          <t>Радиатор двигатель паяный Hyundai Solaris / KIA RIO II (17-) 1.4i / 1.6i</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -13683,7 +13683,7 @@
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>5242,8</t>
+          <t>5584,8</t>
         </is>
       </c>
       <c r="E474" t="n">
@@ -13696,12 +13696,12 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>RD204AVT</t>
+          <t>RD205AVT</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Радиатор двигатель паяный Hyundai Solaris / KIA RIO II (17-) 1.4i / 1.6i</t>
+          <t>Радиатор двигателя паяный Skoda Octavia/Kodiaq A7 (13-) 1.2TSi 1.4TSi 1.6TDi 2.0TDi</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -13711,7 +13711,7 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>5584,8</t>
+          <t>5630,4</t>
         </is>
       </c>
       <c r="E475" t="n">
@@ -13724,12 +13724,12 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>RD205AVT</t>
+          <t>RD207AVT</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Skoda Octavia/Kodiaq A7 (13-) 1.2TSi 1.4TSi 1.6TDi 2.0TDi</t>
+          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i 2.0i MT</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -13739,7 +13739,7 @@
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>5630,4</t>
+          <t>7972,8</t>
         </is>
       </c>
       <c r="E476" t="n">
@@ -13752,12 +13752,12 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>RD207AVT</t>
+          <t>RD211AVT</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i 2.0i MT</t>
+          <t>Радиатор двигателя паяный Nissan Almera Classic B10 (06-) 1.6i</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -13767,7 +13767,7 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>7972,8</t>
+          <t>5979,6</t>
         </is>
       </c>
       <c r="E477" t="n">
@@ -13780,12 +13780,12 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>RD211AVT</t>
+          <t>RD217AVT</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Nissan Almera Classic B10 (06-) 1.6i</t>
+          <t>Радиатор двигателя паяный Suzuki SX4 I (06-) 1.6i</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -13795,7 +13795,7 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>5979,6</t>
+          <t>7183,2</t>
         </is>
       </c>
       <c r="E478" t="n">
@@ -13808,12 +13808,12 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>RD217AVT</t>
+          <t>RD220AVT</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Suzuki SX4 I (06-) 1.6i</t>
+          <t>Радиатор двигателя паяный Honda CR-V III (06-) 2.0i</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -13823,7 +13823,7 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>7183,2</t>
+          <t>6842,4</t>
         </is>
       </c>
       <c r="E479" t="n">
@@ -13836,12 +13836,12 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>RD220AVT</t>
+          <t>RD221AVT</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Honda CR-V III (06-) 2.0i</t>
+          <t>Радиатор двигателя паяный Audi A4/А6 (94-) 1.6i 1.8i 1.9TDi 1.8T</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -13851,7 +13851,7 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>6842,4</t>
+          <t>6386,4</t>
         </is>
       </c>
       <c r="E480" t="n">
@@ -13864,12 +13864,12 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>RD221AVT</t>
+          <t>RD225AVT</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Audi A4/А6 (94-) 1.6i 1.8i 1.9TDi 1.8T</t>
+          <t>Радиатор двигателя паяный Hyundai Santa Fe II (06-) 2.2CRDi</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -13879,7 +13879,7 @@
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>6386,4</t>
+          <t>8758,8</t>
         </is>
       </c>
       <c r="E481" t="n">
@@ -13892,12 +13892,12 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>RD225AVT</t>
+          <t>RD230AVT</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Hyundai Santa Fe II (06-) 2.2CRDi</t>
+          <t>Радиатор двигателя паяный Mitsubishi Outlander I (03-) 2.0i 2.4i</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -13907,7 +13907,7 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>8758,8</t>
+          <t>6592,8</t>
         </is>
       </c>
       <c r="E482" t="n">
@@ -13920,12 +13920,12 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>RD230AVT</t>
+          <t>RD250AVT</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Mitsubishi Outlander I (03-) 2.0i 2.4i</t>
+          <t>Радиатор двигателя сборный Chevrolet Rezzo (00-) 1.6i 1.8i</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -13935,7 +13935,7 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>6592,8</t>
+          <t>5548,8</t>
         </is>
       </c>
       <c r="E483" t="n">
@@ -13948,12 +13948,12 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>RD250AVT</t>
+          <t>RD264AVT</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Радиатор двигателя сборный Chevrolet Rezzo (00-) 1.6i 1.8i</t>
+          <t>Радиатор двигателя паяный Nissan X-Trail T30 (01-) 2.0i 2.5i</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -13963,7 +13963,7 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>5548,8</t>
+          <t>5740,8</t>
         </is>
       </c>
       <c r="E484" t="n">
@@ -13976,12 +13976,12 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>RD264AVT</t>
+          <t>RD274AVT</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Nissan X-Trail T30 (01-) 2.0i 2.5i</t>
+          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i 2.0i AT</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -13991,7 +13991,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>5740,8</t>
+          <t>8366,4</t>
         </is>
       </c>
       <c r="E485" t="n">
@@ -14004,12 +14004,12 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>RD274AVT</t>
+          <t>RD302AVT</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i 2.0i AT</t>
+          <t>Радиатор двигателя паяный Ford Ranger (98-) 2.5TDi</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -14019,7 +14019,7 @@
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>8366,4</t>
+          <t>6723,6</t>
         </is>
       </c>
       <c r="E486" t="n">
@@ -14032,12 +14032,12 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>RD302AVT</t>
+          <t>RF004AVT</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Ford Ranger (98-) 2.5TDi</t>
+          <t>Вентилятор системы охлаждения Nissan Qashqai</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -14047,7 +14047,7 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>6723,6</t>
+          <t>6600,0</t>
         </is>
       </c>
       <c r="E487" t="n">
@@ -14060,12 +14060,12 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>RF004AVT</t>
+          <t>RF005AVT</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Вентилятор системы охлаждения Nissan Qashqai</t>
+          <t>Вентилятор системы охлаждения Nissan X-Trail Qashqai (Дизель)</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -14088,12 +14088,12 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>RF005AVT</t>
+          <t>СЛ136Е-5205900-01</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Вентилятор системы охлаждения Nissan X-Trail Qashqai (Дизель)</t>
+          <t>Щетка стеклоочистителя каркасная 410 мм тип крепления Hook (Крюк) и Bayonet (Штыковой замо</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -14103,41 +14103,13 @@
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>6600,0</t>
+          <t>144,0</t>
         </is>
       </c>
       <c r="E489" t="n">
         <v>10</v>
       </c>
       <c r="F489" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="inlineStr">
-        <is>
-          <t>СЛ136Е-5205900-01</t>
-        </is>
-      </c>
-      <c r="B490" t="inlineStr">
-        <is>
-          <t>Щетка стеклоочистителя каркасная 410 мм тип крепления Hook (Крюк) и Bayonet (Штыковой замо</t>
-        </is>
-      </c>
-      <c r="C490" t="inlineStr">
-        <is>
-          <t>AVTOPRIBOR</t>
-        </is>
-      </c>
-      <c r="D490" t="inlineStr">
-        <is>
-          <t>144,0</t>
-        </is>
-      </c>
-      <c r="E490" t="n">
-        <v>10</v>
-      </c>
-      <c r="F490" t="n">
         <v>1</v>
       </c>
     </row>

--- a/price_for_emex.xlsx
+++ b/price_for_emex.xlsx
@@ -12959,7 +12959,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F448" t="n">
         <v>1</v>
@@ -13239,7 +13239,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F458" t="n">
         <v>1</v>
@@ -13323,7 +13323,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F461" t="n">
         <v>1</v>
@@ -13519,7 +13519,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F468" t="n">
         <v>1</v>
@@ -13659,7 +13659,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F473" t="n">
         <v>1</v>

--- a/price_for_emex.xlsx
+++ b/price_for_emex.xlsx
@@ -1560,12 +1560,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>700801AVT</t>
+          <t>701514AVT</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Радиатор Рено A/C</t>
+          <t>Радиатор Веста / Икс-Рэй</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1577,7 +1577,7 @@
         <v>5600</v>
       </c>
       <c r="E44" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F44" t="n">
         <v>1</v>
@@ -1586,12 +1586,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>701514AVT</t>
+          <t>731.5205900-01</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Радиатор Веста / Икс-Рэй</t>
+          <t>Щетка стеклоочистителя каркасная 525 мм тип крепления Hook (Крюк)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1600,7 +1600,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>5600</v>
+        <v>382</v>
       </c>
       <c r="E45" t="n">
         <v>10</v>
@@ -1612,12 +1612,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>731.5205900-01</t>
+          <t>735634AVT</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя каркасная 525 мм тип крепления Hook (Крюк)</t>
+          <t>Радиатор Рено Логан II</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1626,7 +1626,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>382</v>
+        <v>5100</v>
       </c>
       <c r="E46" t="n">
         <v>10</v>
@@ -1638,12 +1638,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>735634AVT</t>
+          <t>801122AVT</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Радиатор Рено Логан II</t>
+          <t>Комплект сцепления с подшипником 2109</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>5100</v>
+        <v>5028</v>
       </c>
       <c r="E47" t="n">
         <v>10</v>
@@ -1664,12 +1664,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>801122AVT</t>
+          <t>801358AVT</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником 2109</t>
+          <t>Комплект сцепления с подшипником VW Transporter T4 (90-) 1.9</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1678,10 +1678,10 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>5028</v>
+        <v>6897</v>
       </c>
       <c r="E48" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F48" t="n">
         <v>1</v>
@@ -1690,12 +1690,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>801358AVT</t>
+          <t>801502AVT</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником VW Transporter T4 (90-) 1.9</t>
+          <t>Комплект сцепления с подшипником Toyota Carina / Corolla (87-) 1.3-1.8</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1704,10 +1704,10 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>6897</v>
+        <v>5912</v>
       </c>
       <c r="E49" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
@@ -1716,12 +1716,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>801502AVT</t>
+          <t>801515AVT</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Toyota Carina / Corolla (87-) 1.3-1.8</t>
+          <t>Комплект сцепления с подшипником Nissan Almera N16 (00-04) 1.5</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1730,7 +1730,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>5912</v>
+        <v>5962</v>
       </c>
       <c r="E50" t="n">
         <v>10</v>
@@ -1742,12 +1742,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>801515AVT</t>
+          <t>801930AVT</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Nissan Almera N16 (00-04) 1.5</t>
+          <t>Комплект сцепления с подшипником Mazda 323 / 626 / MPV II (91-) 1.8-2.0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>5962</v>
+        <v>6897</v>
       </c>
       <c r="E51" t="n">
         <v>10</v>
@@ -1768,12 +1768,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>801930AVT</t>
+          <t>804036AVT</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Mazda 323 / 626 / MPV II (91-) 1.8-2.0</t>
+          <t>Подшипник выжимной CITROEN/PEUGEOT</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>6897</v>
+        <v>926</v>
       </c>
       <c r="E52" t="n">
         <v>10</v>
@@ -1794,12 +1794,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>804036AVT</t>
+          <t>804295AVT</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Подшипник выжимной CITROEN/PEUGEOT</t>
+          <t>Подшипник выжимной 2101-2107</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1808,7 +1808,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>926</v>
+        <v>1156</v>
       </c>
       <c r="E53" t="n">
         <v>10</v>
@@ -1820,12 +1820,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>804295AVT</t>
+          <t>804296AVT</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Подшипник выжимной 2101-2107</t>
+          <t>Подшипник выжимной 2108-2112</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1834,7 +1834,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1156</v>
+        <v>876</v>
       </c>
       <c r="E54" t="n">
         <v>10</v>
@@ -1846,12 +1846,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>804296AVT</t>
+          <t>804299AVT</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Подшипник выжимной 2108-2112</t>
+          <t>Подшипник выжимной PSA</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1860,7 +1860,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>876</v>
+        <v>958</v>
       </c>
       <c r="E55" t="n">
         <v>10</v>
@@ -1872,12 +1872,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>804299AVT</t>
+          <t>804544AVT</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Подшипник выжимной PSA</t>
+          <t>Подшипник гидравлический RENAULT/NISSAN</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1886,7 +1886,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>958</v>
+        <v>7502</v>
       </c>
       <c r="E56" t="n">
         <v>10</v>
@@ -1898,12 +1898,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>804544AVT</t>
+          <t>804587AVT</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Подшипник гидравлический RENAULT/NISSAN</t>
+          <t>Подшипник гидравлический RENAULT DUSTER 1.6</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>7502</v>
+        <v>9576</v>
       </c>
       <c r="E57" t="n">
         <v>10</v>
@@ -1924,12 +1924,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>804587AVT</t>
+          <t>821098AVT</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Подшипник гидравлический RENAULT DUSTER 1.6</t>
+          <t>Комплект сцепления с подшипником Daewoo Nexia (95-)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1938,7 +1938,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>9576</v>
+        <v>4878</v>
       </c>
       <c r="E58" t="n">
         <v>10</v>
@@ -1950,12 +1950,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>821098AVT</t>
+          <t>821099AVT</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Daewoo Nexia (95-)</t>
+          <t>Комплект сцепления с подшипником Daewoo Nexia (95-) 1.5</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>4878</v>
+        <v>6108</v>
       </c>
       <c r="E59" t="n">
         <v>10</v>
@@ -1976,12 +1976,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>821099AVT</t>
+          <t>821183AVT</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Daewoo Nexia (95-) 1.5</t>
+          <t>Комплект сцепления с подшипником Renault Logan (04-)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1990,7 +1990,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>6108</v>
+        <v>5095</v>
       </c>
       <c r="E60" t="n">
         <v>10</v>
@@ -2002,12 +2002,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>821183AVT</t>
+          <t>821340AVT</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Renault Logan (04-)</t>
+          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 307 (00-) 1.1-1.4</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2016,7 +2016,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>5095</v>
+        <v>5203</v>
       </c>
       <c r="E61" t="n">
         <v>10</v>
@@ -2028,12 +2028,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>821340AVT</t>
+          <t>821412AVT</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 307 (00-) 1.1-1.4</t>
+          <t>Комплект сцепления с подшипником Daewoo Matiz (98-) 0.8</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>5203</v>
+        <v>4040</v>
       </c>
       <c r="E62" t="n">
         <v>10</v>
@@ -2054,12 +2054,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>821412AVT</t>
+          <t>826211AVT</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Daewoo Matiz (98-) 0.8</t>
+          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 306 (97-) / Partner (96-) 1.4-1.6</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2068,10 +2068,10 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>4040</v>
+        <v>5095</v>
       </c>
       <c r="E63" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
         <v>1</v>
@@ -2080,12 +2080,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>826211AVT</t>
+          <t>826213AVT</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 306 (97-) / Partner (96-) 1.4-1.6</t>
+          <t>Комплект сцепления с подшипником Peugeot 307 (00-)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2094,10 +2094,10 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>5095</v>
+        <v>4986</v>
       </c>
       <c r="E64" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F64" t="n">
         <v>1</v>
@@ -2106,12 +2106,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>826213AVT</t>
+          <t>826245AVT</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Peugeot 307 (00-)</t>
+          <t>Комплект сцепления с подшипником Citroen C3 (03-) 1.1-1.4 (05-)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2120,10 +2120,10 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>4986</v>
+        <v>4139</v>
       </c>
       <c r="E65" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F65" t="n">
         <v>1</v>
@@ -2132,12 +2132,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>826245AVT</t>
+          <t>826299AVT</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Citroen C3 (03-) 1.1-1.4 (05-)</t>
+          <t>Комплект сцепления с подшипником Hyundai Sonata IV (98-) 2.0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2146,10 +2146,10 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>4139</v>
+        <v>11331</v>
       </c>
       <c r="E66" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F66" t="n">
         <v>1</v>
@@ -2158,12 +2158,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>826299AVT</t>
+          <t>826326AVT</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Hyundai Sonata IV (98-) 2.0</t>
+          <t>Комплект сцепления с подшипником VW Polo Sedan (10-)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2172,10 +2172,10 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>11331</v>
+        <v>7045</v>
       </c>
       <c r="E67" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F67" t="n">
         <v>1</v>
@@ -2184,12 +2184,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>826326AVT</t>
+          <t>826339AVT</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником VW Polo Sedan (10-)</t>
+          <t>Комплект сцепления с подшипником Skoda Fabia (07-) 1.4</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2198,10 +2198,10 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>7045</v>
+        <v>6207</v>
       </c>
       <c r="E68" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F68" t="n">
         <v>1</v>
@@ -2210,12 +2210,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>826339AVT</t>
+          <t>826417AVT</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Skoda Fabia (07-) 1.4</t>
+          <t>Комплект сцепления с подшипником Hyundai Accent / Getz (02-) 1.6</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2224,7 +2224,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>6207</v>
+        <v>6404</v>
       </c>
       <c r="E69" t="n">
         <v>10</v>
@@ -2236,12 +2236,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>826417AVT</t>
+          <t>826418AVT</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Hyundai Accent / Getz (02-) 1.6</t>
+          <t>Комплект сцепления с подшипником Hyundai Elantra (00-) 1.6</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2250,7 +2250,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>6404</v>
+        <v>5912</v>
       </c>
       <c r="E70" t="n">
         <v>10</v>
@@ -2262,12 +2262,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>826418AVT</t>
+          <t>826426AVT</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Hyundai Elantra (00-) 1.6</t>
+          <t>Комплект сцепления с подшипником Mitsubishi L200 / Pajero Sport (96-) 2.5D</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>5912</v>
+        <v>9359</v>
       </c>
       <c r="E71" t="n">
         <v>10</v>
@@ -2288,12 +2288,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>826426AVT</t>
+          <t>826474AVT</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Mitsubishi L200 / Pajero Sport (96-) 2.5D</t>
+          <t>Комплект сцепления с подшипником Нива</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>9359</v>
+        <v>7854</v>
       </c>
       <c r="E72" t="n">
         <v>10</v>
@@ -2314,12 +2314,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>826474AVT</t>
+          <t>826568AVT</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Нива</t>
+          <t>Комплект сцепления с подшипником Daewoo Matiz (01-)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2328,7 +2328,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>7854</v>
+        <v>4335</v>
       </c>
       <c r="E73" t="n">
         <v>10</v>
@@ -2340,12 +2340,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>826568AVT</t>
+          <t>826577AVT</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Daewoo Matiz (01-)</t>
+          <t>Комплект сцепления с подшипником Renault Logan I 1.4 (04-)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2354,7 +2354,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>4335</v>
+        <v>6200</v>
       </c>
       <c r="E74" t="n">
         <v>10</v>
@@ -2366,12 +2366,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>826577AVT</t>
+          <t>826696AVT</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Renault Logan I 1.4 (04-)</t>
+          <t>Комплект сцепления с подшипником Fiat Punto / Albeo / Doblo (05-) 1.4</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2380,7 +2380,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>6200</v>
+        <v>5912</v>
       </c>
       <c r="E75" t="n">
         <v>10</v>
@@ -2392,12 +2392,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>826696AVT</t>
+          <t>826729AVT</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Fiat Punto / Albeo / Doblo (05-) 1.4</t>
+          <t>Комплект сцепления с подшипником VW Transporter T5 (03-) 1.9</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2406,7 +2406,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>5912</v>
+        <v>11822</v>
       </c>
       <c r="E76" t="n">
         <v>10</v>
@@ -2418,12 +2418,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>826729AVT</t>
+          <t>826742AVT</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником VW Transporter T5 (03-) 1.9</t>
+          <t>Комплект сцепления с подшипником Hyundai Accent ТаГАЗ / Getz (05-) 1.4-1.5</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>11822</v>
+        <v>7390</v>
       </c>
       <c r="E77" t="n">
         <v>10</v>
@@ -2444,12 +2444,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>826742AVT</t>
+          <t>826743AVT</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Hyundai Accent ТаГАЗ / Getz (05-) 1.4-1.5</t>
+          <t>Комплект сцепления без подшипника Ford Focus II / C-Max (05-) 1.8</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2458,7 +2458,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7390</v>
+        <v>6897</v>
       </c>
       <c r="E78" t="n">
         <v>10</v>
@@ -2470,12 +2470,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>826743AVT</t>
+          <t>826787AVT</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Комплект сцепления без подшипника Ford Focus II / C-Max (05-) 1.8</t>
+          <t>Комплект сцепления без подшипника Chevrolet Lacetti (04-)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2484,7 +2484,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>6897</v>
+        <v>6798</v>
       </c>
       <c r="E79" t="n">
         <v>10</v>
@@ -2496,12 +2496,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>826787AVT</t>
+          <t>826816AVT</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Комплект сцепления без подшипника Chevrolet Lacetti (04-)</t>
+          <t>Комплект сцепления без подшипника Renault Trafic II (98-) 2.5</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2510,7 +2510,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>6798</v>
+        <v>7882</v>
       </c>
       <c r="E80" t="n">
         <v>10</v>
@@ -2522,12 +2522,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>826816AVT</t>
+          <t>826853AVT</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Комплект сцепления без подшипника Renault Trafic II (98-) 2.5</t>
+          <t>Комплект сцепления без подшипника Renault Logan (08-)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>7882</v>
+        <v>4926</v>
       </c>
       <c r="E81" t="n">
         <v>10</v>
@@ -2548,12 +2548,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>826853AVT</t>
+          <t>826995AVT</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Комплект сцепления без подшипника Renault Logan (08-)</t>
+          <t>Комплект сцепления с подшипником Hyundai Solaris I (10-)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>4926</v>
+        <v>5617</v>
       </c>
       <c r="E82" t="n">
         <v>10</v>
@@ -2574,12 +2574,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>826995AVT</t>
+          <t>828005AVT</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Hyundai Solaris I (10-)</t>
+          <t>Комплект сцепления с подшипником Hyundai Porter H-100 (96-) 2.5D</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2588,7 +2588,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>5617</v>
+        <v>7882</v>
       </c>
       <c r="E83" t="n">
         <v>10</v>
@@ -2600,12 +2600,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>828005AVT</t>
+          <t>828600AVT</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Hyundai Porter H-100 (96-) 2.5D</t>
+          <t>Комплект сцепления с подшипником Mitsubishi Lancer (03-) 1.3-1.6</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2614,7 +2614,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>7882</v>
+        <v>5912</v>
       </c>
       <c r="E84" t="n">
         <v>10</v>
@@ -2626,12 +2626,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>828600AVT</t>
+          <t>828807AVT</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Mitsubishi Lancer (03-) 1.3-1.6</t>
+          <t>Комплект сцепления с подшипником Mitsubishi L200 / Pajero Sport (06-) 2.5</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2640,7 +2640,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>5912</v>
+        <v>9853</v>
       </c>
       <c r="E85" t="n">
         <v>10</v>
@@ -2652,12 +2652,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>828807AVT</t>
+          <t>832198AVT</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Mitsubishi L200 / Pajero Sport (06-) 2.5</t>
+          <t>Комплект сцепления LADA Largus (корзина+диск) для 21809</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2666,7 +2666,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>9853</v>
+        <v>15960</v>
       </c>
       <c r="E86" t="n">
         <v>10</v>
@@ -2678,12 +2678,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>832198AVT</t>
+          <t>836365AVT</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Комплект сцепления LADA Largus (корзина+диск) для 21809</t>
+          <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>15960</v>
+        <v>4389</v>
       </c>
       <c r="E87" t="n">
         <v>10</v>
@@ -2704,12 +2704,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>836365AVT</t>
+          <t>836383AVT</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
+          <t>Одномассовый маховик HYUNDAI SOLARIS 17-</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2718,10 +2718,10 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>4389</v>
+        <v>7980</v>
       </c>
       <c r="E88" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F88" t="n">
         <v>1</v>
@@ -2730,12 +2730,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>836383AVT</t>
+          <t>93.5205900-01</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Одномассовый маховик HYUNDAI SOLARIS 17-</t>
+          <t>Щетка стеклоочистителя каркасная 600 мм тип крепления Hook (Крюк)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2744,10 +2744,10 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>7980</v>
+        <v>192</v>
       </c>
       <c r="E89" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F89" t="n">
         <v>1</v>
@@ -2756,12 +2756,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>93.5205900-01</t>
+          <t>AL200AVT</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя каркасная 600 мм тип крепления Hook (Крюк)</t>
+          <t>Генератор LADA GRANTA 110А</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2770,10 +2770,10 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>192</v>
+        <v>10796</v>
       </c>
       <c r="E90" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F90" t="n">
         <v>1</v>
@@ -2782,12 +2782,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>AL200AVT</t>
+          <t>B0500LAVT</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Генератор LADA GRANTA 110А</t>
+          <t>АКБ 12V  50 (0) LB Ah 500 SAE</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2796,10 +2796,10 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>10796</v>
+        <v>5979</v>
       </c>
       <c r="E91" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F91" t="n">
         <v>1</v>
@@ -2808,12 +2808,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>B0500LAVT</t>
+          <t>B0501LAVT</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>АКБ 12V  50 (0) LB Ah 500 SAE</t>
+          <t>АКБ 12V  50 (1) LB Ah 500 SAE</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2834,12 +2834,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>B0501LAVT</t>
+          <t>B05502AVT</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>АКБ 12V  50 (1) LB Ah 500 SAE</t>
+          <t>АКБ 12V  55 (0) Ah 430 SAE Asia</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2848,7 +2848,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>5979</v>
+        <v>5858</v>
       </c>
       <c r="E93" t="n">
         <v>10</v>
@@ -2860,12 +2860,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>B05502AVT</t>
+          <t>B0600AVT</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>АКБ 12V  55 (0) Ah 430 SAE Asia</t>
+          <t>АКБ 12V  60 (0) Ah 650 SAE</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2874,7 +2874,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>5858</v>
+        <v>6087</v>
       </c>
       <c r="E94" t="n">
         <v>10</v>
@@ -2886,12 +2886,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>B0600AVT</t>
+          <t>B0600LAVT</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>АКБ 12V  60 (0) Ah 650 SAE</t>
+          <t>АКБ 12V  60 (0) LB Ah 650 SAE</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -2900,7 +2900,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>6087</v>
+        <v>6435</v>
       </c>
       <c r="E95" t="n">
         <v>10</v>
@@ -2912,12 +2912,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>B0600LAVT</t>
+          <t>B0601AVT</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>АКБ 12V  60 (0) LB Ah 650 SAE</t>
+          <t>АКБ 12V  60 (1) Ah 650 SAE</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -2926,7 +2926,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>6435</v>
+        <v>6087</v>
       </c>
       <c r="E96" t="n">
         <v>10</v>
@@ -2938,12 +2938,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>B0601AVT</t>
+          <t>B0650AVT</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>АКБ 12V  60 (1) Ah 650 SAE</t>
+          <t>АКБ 12V  65 (0) Ah 680 SAE</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>6087</v>
+        <v>6451</v>
       </c>
       <c r="E97" t="n">
         <v>10</v>
@@ -2964,12 +2964,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>B0650AVT</t>
+          <t>B0651AVT</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>АКБ 12V  65 (0) Ah 680 SAE</t>
+          <t>АКБ 12V  65 (1) Ah 680 SAE</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2990,12 +2990,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>B0651AVT</t>
+          <t>B07002AVT</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>АКБ 12V  65 (1) Ah 680 SAE</t>
+          <t>АКБ 12V  70 (0) Ah 630 SAE Asia</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3004,7 +3004,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>6451</v>
+        <v>7063</v>
       </c>
       <c r="E99" t="n">
         <v>10</v>
@@ -3016,12 +3016,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>B07002AVT</t>
+          <t>B0700AVT</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>АКБ 12V  70 (0) Ah 630 SAE Asia</t>
+          <t>АКБ 12V  70 (0) Ah 720 SAE</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3030,7 +3030,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>7063</v>
+        <v>7408</v>
       </c>
       <c r="E100" t="n">
         <v>10</v>
@@ -3042,12 +3042,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>B0700AVT</t>
+          <t>B0700GAVT</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>АКБ 12V  70 (0) Ah 720 SAE</t>
+          <t>АКБ 12V 70.0 L3 AGM</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3056,7 +3056,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>7408</v>
+        <v>13697</v>
       </c>
       <c r="E101" t="n">
         <v>10</v>
@@ -3068,12 +3068,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>B0700GAVT</t>
+          <t>B0720LAVT</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>АКБ 12V 70.0 L3 AGM</t>
+          <t>АКБ 12V  72 (0) LB Ah 720 SAE</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>13697</v>
+        <v>7868</v>
       </c>
       <c r="E102" t="n">
         <v>10</v>
@@ -3094,12 +3094,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>B0720LAVT</t>
+          <t>B07502AVT</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>АКБ 12V  72 (0) LB Ah 720 SAE</t>
+          <t>АКБ 12V  75 (0) Ah 700 SAE Asia</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3108,7 +3108,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>7868</v>
+        <v>8235</v>
       </c>
       <c r="E103" t="n">
         <v>10</v>
@@ -3120,12 +3120,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>B07502AVT</t>
+          <t>B0750AVT</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>АКБ 12V  75 (0) Ah 700 SAE Asia</t>
+          <t>АКБ 12V  75 (0) Ah 770 SAE</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3134,7 +3134,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>8235</v>
+        <v>7530</v>
       </c>
       <c r="E104" t="n">
         <v>10</v>
@@ -3146,12 +3146,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>B0750AVT</t>
+          <t>B07512AVT</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>АКБ 12V  75 (0) Ah 770 SAE</t>
+          <t>АКБ 12V  75 (1) Ah 700 SAE Asia</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>7530</v>
+        <v>8235</v>
       </c>
       <c r="E105" t="n">
         <v>10</v>
@@ -3172,12 +3172,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>B07512AVT</t>
+          <t>B0751AVT</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>АКБ 12V  75 (1) Ah 700 SAE Asia</t>
+          <t>АКБ 12V  75 (1) Ah 770 SAE</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>8235</v>
+        <v>7530</v>
       </c>
       <c r="E106" t="n">
         <v>10</v>
@@ -3198,12 +3198,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>B0751AVT</t>
+          <t>B0800GAVT</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>АКБ 12V  75 (1) Ah 770 SAE</t>
+          <t>АКБ 12V 80.0 L4 AGM</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>7530</v>
+        <v>15056</v>
       </c>
       <c r="E107" t="n">
         <v>10</v>
@@ -3224,12 +3224,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>B0800GAVT</t>
+          <t>B0850LAVT</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>АКБ 12V 80.0 L4 AGM</t>
+          <t>АКБ 12V  85 (0) LB Ah 790 SAE</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3238,7 +3238,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>15056</v>
+        <v>9404</v>
       </c>
       <c r="E108" t="n">
         <v>10</v>
@@ -3250,12 +3250,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>B0850LAVT</t>
+          <t>B1000AVT</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>АКБ 12V  85 (0) LB Ah 790 SAE</t>
+          <t>АКБ 12V  100 (0) Ah 920 SAE</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3264,7 +3264,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>9404</v>
+        <v>10150</v>
       </c>
       <c r="E109" t="n">
         <v>10</v>
@@ -3276,12 +3276,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>B1000AVT</t>
+          <t>B10502AVT</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>АКБ 12V  100 (0) Ah 920 SAE</t>
+          <t>АКБ 12V  105 (0) Ah 850 SAE Asia</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3290,7 +3290,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>10150</v>
+        <v>9906</v>
       </c>
       <c r="E110" t="n">
         <v>10</v>
@@ -3302,12 +3302,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>B10502AVT</t>
+          <t>B1050GAVT</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>АКБ 12V  105 (0) Ah 850 SAE Asia</t>
+          <t>АКБ 12V 105.0 L6 AGM</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3316,7 +3316,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>9906</v>
+        <v>18312</v>
       </c>
       <c r="E111" t="n">
         <v>10</v>
@@ -3328,12 +3328,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>B1050GAVT</t>
+          <t>B10512AVT</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>АКБ 12V 105.0 L6 AGM</t>
+          <t>АКБ 12V  105 (1) Ah 850 SAE Asia</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>18312</v>
+        <v>9906</v>
       </c>
       <c r="E112" t="n">
         <v>10</v>
@@ -3354,12 +3354,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>B10512AVT</t>
+          <t>B1100AVT</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>АКБ 12V  105 (1) Ah 850 SAE Asia</t>
+          <t>АКБ 12V  110 (0) Ah 950 SAE</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3368,7 +3368,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>9906</v>
+        <v>10150</v>
       </c>
       <c r="E113" t="n">
         <v>10</v>
@@ -3380,12 +3380,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>B1100AVT</t>
+          <t>B1903AVT</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>АКБ 12V  110 (0) Ah 950 SAE</t>
+          <t>АКБ 12V  190 (3) Ah 1350 SAE</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3394,7 +3394,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>10150</v>
+        <v>18638</v>
       </c>
       <c r="E114" t="n">
         <v>10</v>
@@ -3406,12 +3406,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>B1903AVT</t>
+          <t>B1904AVT</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>АКБ 12V  190 (3) Ah 1350 SAE</t>
+          <t>АКБ 12V  190 (4) Ah 1350 SAE</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3432,12 +3432,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>B1904AVT</t>
+          <t>B2253AVT</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>АКБ 12V  190 (4) Ah 1350 SAE</t>
+          <t>АКБ 12V  225 (3) Ah 1500 SAE</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>18638</v>
+        <v>23954</v>
       </c>
       <c r="E116" t="n">
         <v>10</v>
@@ -3458,12 +3458,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>B2253AVT</t>
+          <t>BD001AVT</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>АКБ 12V  225 (3) Ah 1500 SAE</t>
+          <t>Диск тормозной Hyundai Solaris (10-) (17-) передний</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3472,13 +3472,13 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>23954</v>
+        <v>1887</v>
       </c>
       <c r="E117" t="n">
         <v>10</v>
       </c>
       <c r="F117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118">

--- a/price_for_emex.xlsx
+++ b/price_for_emex.xlsx
@@ -1317,7 +1317,7 @@
         <v>6389</v>
       </c>
       <c r="E34" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>1</v>
@@ -1499,7 +1499,7 @@
         <v>1357</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F41" t="n">
         <v>1</v>
@@ -1525,7 +1525,7 @@
         <v>1437</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F42" t="n">
         <v>1</v>
@@ -1551,7 +1551,7 @@
         <v>1916</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F43" t="n">
         <v>1</v>
@@ -1655,7 +1655,7 @@
         <v>1437</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F47" t="n">
         <v>1</v>
@@ -1681,7 +1681,7 @@
         <v>958</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F48" t="n">
         <v>1</v>
@@ -1707,7 +1707,7 @@
         <v>958</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
@@ -2019,7 +2019,7 @@
         <v>876</v>
       </c>
       <c r="E61" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
         <v>1</v>
@@ -2305,7 +2305,7 @@
         <v>5586</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F72" t="n">
         <v>1</v>
@@ -2357,7 +2357,7 @@
         <v>4877</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F74" t="n">
         <v>1</v>
@@ -2825,7 +2825,7 @@
         <v>5988</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F92" t="n">
         <v>1</v>
@@ -2877,7 +2877,7 @@
         <v>5521</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F94" t="n">
         <v>1</v>
@@ -2981,7 +2981,7 @@
         <v>8140</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F98" t="n">
         <v>1</v>
@@ -3007,7 +3007,7 @@
         <v>21546</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F99" t="n">
         <v>1</v>
@@ -3111,7 +3111,7 @@
         <v>10796</v>
       </c>
       <c r="E103" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F103" t="n">
         <v>1</v>
@@ -3839,7 +3839,7 @@
         <v>1636</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F131" t="n">
         <v>2</v>
@@ -3865,7 +3865,7 @@
         <v>3317</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F132" t="n">
         <v>2</v>
@@ -3943,7 +3943,7 @@
         <v>2904</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F135" t="n">
         <v>2</v>
@@ -3995,7 +3995,7 @@
         <v>2872</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F137" t="n">
         <v>2</v>
@@ -4047,7 +4047,7 @@
         <v>1930</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F139" t="n">
         <v>2</v>
@@ -4255,7 +4255,7 @@
         <v>3058</v>
       </c>
       <c r="E147" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F147" t="n">
         <v>2</v>
@@ -6257,7 +6257,7 @@
         <v>1150</v>
       </c>
       <c r="E224" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F224" t="n">
         <v>1</v>
@@ -8077,7 +8077,7 @@
         <v>905</v>
       </c>
       <c r="E294" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F294" t="n">
         <v>1</v>
@@ -11431,7 +11431,7 @@
         <v>16824</v>
       </c>
       <c r="E423" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F423" t="n">
         <v>1</v>
@@ -12341,7 +12341,7 @@
         <v>9846</v>
       </c>
       <c r="E458" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F458" t="n">
         <v>1</v>

--- a/price_for_emex.xlsx
+++ b/price_for_emex.xlsx
@@ -1317,7 +1317,7 @@
         <v>6389</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F34" t="n">
         <v>1</v>
@@ -1499,7 +1499,7 @@
         <v>1357</v>
       </c>
       <c r="E41" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>1</v>
@@ -1525,7 +1525,7 @@
         <v>1437</v>
       </c>
       <c r="E42" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>1</v>
@@ -1551,7 +1551,7 @@
         <v>1916</v>
       </c>
       <c r="E43" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>1</v>
@@ -1655,7 +1655,7 @@
         <v>1437</v>
       </c>
       <c r="E47" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
         <v>1</v>
@@ -1681,7 +1681,7 @@
         <v>958</v>
       </c>
       <c r="E48" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
         <v>1</v>
@@ -1707,7 +1707,7 @@
         <v>958</v>
       </c>
       <c r="E49" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
@@ -2019,7 +2019,7 @@
         <v>876</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F61" t="n">
         <v>1</v>
@@ -2305,7 +2305,7 @@
         <v>5586</v>
       </c>
       <c r="E72" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
         <v>1</v>
@@ -2357,7 +2357,7 @@
         <v>4877</v>
       </c>
       <c r="E74" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
         <v>1</v>
@@ -2825,7 +2825,7 @@
         <v>5988</v>
       </c>
       <c r="E92" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
         <v>1</v>
@@ -2877,7 +2877,7 @@
         <v>5521</v>
       </c>
       <c r="E94" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
         <v>1</v>
@@ -2981,7 +2981,7 @@
         <v>8140</v>
       </c>
       <c r="E98" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
         <v>1</v>
@@ -3007,7 +3007,7 @@
         <v>21546</v>
       </c>
       <c r="E99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
         <v>1</v>
@@ -3111,7 +3111,7 @@
         <v>10796</v>
       </c>
       <c r="E103" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F103" t="n">
         <v>1</v>
@@ -4255,7 +4255,7 @@
         <v>3058</v>
       </c>
       <c r="E147" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F147" t="n">
         <v>2</v>
@@ -6257,7 +6257,7 @@
         <v>1150</v>
       </c>
       <c r="E224" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F224" t="n">
         <v>1</v>
@@ -8077,7 +8077,7 @@
         <v>905</v>
       </c>
       <c r="E294" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F294" t="n">
         <v>1</v>
@@ -11431,7 +11431,7 @@
         <v>16824</v>
       </c>
       <c r="E423" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F423" t="n">
         <v>1</v>
@@ -12341,7 +12341,7 @@
         <v>9846</v>
       </c>
       <c r="E458" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F458" t="n">
         <v>1</v>

--- a/price_for_emex.xlsx
+++ b/price_for_emex.xlsx
@@ -1317,7 +1317,7 @@
         <v>6389</v>
       </c>
       <c r="E34" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>1</v>
@@ -1499,7 +1499,7 @@
         <v>1357</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F41" t="n">
         <v>1</v>
@@ -1525,7 +1525,7 @@
         <v>1437</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F42" t="n">
         <v>1</v>
@@ -1551,7 +1551,7 @@
         <v>1916</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F43" t="n">
         <v>1</v>
@@ -1655,7 +1655,7 @@
         <v>1437</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F47" t="n">
         <v>1</v>
@@ -1681,7 +1681,7 @@
         <v>958</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F48" t="n">
         <v>1</v>
@@ -1707,7 +1707,7 @@
         <v>958</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
@@ -2019,7 +2019,7 @@
         <v>876</v>
       </c>
       <c r="E61" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
         <v>1</v>
@@ -2305,7 +2305,7 @@
         <v>5586</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F72" t="n">
         <v>1</v>
@@ -2357,7 +2357,7 @@
         <v>4877</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F74" t="n">
         <v>1</v>
@@ -2825,7 +2825,7 @@
         <v>5988</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F92" t="n">
         <v>1</v>
@@ -2877,7 +2877,7 @@
         <v>5521</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F94" t="n">
         <v>1</v>
@@ -2981,7 +2981,7 @@
         <v>8140</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F98" t="n">
         <v>1</v>
@@ -3007,7 +3007,7 @@
         <v>21546</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F99" t="n">
         <v>1</v>
@@ -3111,7 +3111,7 @@
         <v>10796</v>
       </c>
       <c r="E103" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F103" t="n">
         <v>1</v>
@@ -4255,7 +4255,7 @@
         <v>3058</v>
       </c>
       <c r="E147" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F147" t="n">
         <v>2</v>
@@ -6257,7 +6257,7 @@
         <v>1150</v>
       </c>
       <c r="E224" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F224" t="n">
         <v>1</v>
@@ -8077,7 +8077,7 @@
         <v>905</v>
       </c>
       <c r="E294" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F294" t="n">
         <v>1</v>
@@ -11431,7 +11431,7 @@
         <v>16824</v>
       </c>
       <c r="E423" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F423" t="n">
         <v>1</v>
@@ -12341,7 +12341,7 @@
         <v>9846</v>
       </c>
       <c r="E458" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F458" t="n">
         <v>1</v>
@@ -13213,12 +13213,12 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Новый товар</t>
+          <t>RU01_Аутсорс_АКБ</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>AVTOPRIBOR</t>
         </is>
       </c>
       <c r="D492" t="n">
@@ -13239,16 +13239,16 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Новый товар</t>
+          <t>RF003</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>AVTOPRIBOR</t>
         </is>
       </c>
       <c r="D493" t="n">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="E493" t="n">
         <v>0</v>
@@ -13265,16 +13265,16 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Новый товар</t>
+          <t>RF001AVT</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>AVTOPRIBOR</t>
         </is>
       </c>
       <c r="D494" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="E494" t="n">
         <v>0</v>
@@ -13291,16 +13291,16 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Новый товар</t>
+          <t>BD030AVT</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>AVTOPRIBOR</t>
         </is>
       </c>
       <c r="D495" t="n">
-        <v>0</v>
+        <v>1294</v>
       </c>
       <c r="E495" t="n">
         <v>0</v>
@@ -13317,16 +13317,16 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Новый товар</t>
+          <t>BD046AVT</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>AVTOPRIBOR</t>
         </is>
       </c>
       <c r="D496" t="n">
-        <v>0</v>
+        <v>1379</v>
       </c>
       <c r="E496" t="n">
         <v>0</v>
@@ -13343,16 +13343,16 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Новый товар</t>
+          <t>BP112AVT</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>AVTOPRIBOR</t>
         </is>
       </c>
       <c r="D497" t="n">
-        <v>0</v>
+        <v>577</v>
       </c>
       <c r="E497" t="n">
         <v>0</v>
@@ -13369,16 +13369,16 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Новый товар</t>
+          <t>826842AVT</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>AVTOPRIBOR</t>
         </is>
       </c>
       <c r="D498" t="n">
-        <v>0</v>
+        <v>5556</v>
       </c>
       <c r="E498" t="n">
         <v>0</v>
@@ -13395,16 +13395,16 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Новый товар</t>
+          <t>832460AVT</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>AVTOPRIBOR</t>
         </is>
       </c>
       <c r="D499" t="n">
-        <v>0</v>
+        <v>4620</v>
       </c>
       <c r="E499" t="n">
         <v>0</v>
@@ -13421,16 +13421,16 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Новый товар</t>
+          <t>804297AVT</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>AVTOPRIBOR</t>
         </is>
       </c>
       <c r="D500" t="n">
-        <v>0</v>
+        <v>906</v>
       </c>
       <c r="E500" t="n">
         <v>0</v>
@@ -13447,16 +13447,16 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Новый товар</t>
+          <t>804102AVT</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>AVTOPRIBOR</t>
         </is>
       </c>
       <c r="D501" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E501" t="n">
         <v>0</v>
@@ -13473,16 +13473,16 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Новый товар</t>
+          <t>735635AVT</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>AVTOPRIBOR</t>
         </is>
       </c>
       <c r="D502" t="n">
-        <v>0</v>
+        <v>3260</v>
       </c>
       <c r="E502" t="n">
         <v>0</v>
@@ -13499,12 +13499,12 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Новый товар</t>
+          <t>RU01_Аутсорс_склад</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>AVTOPRIBOR</t>
         </is>
       </c>
       <c r="D503" t="n">
@@ -13525,16 +13525,16 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Новый товар</t>
+          <t>RF003</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>AVTOPRIBOR</t>
         </is>
       </c>
       <c r="D504" t="n">
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="E504" t="n">
         <v>0</v>
@@ -13551,16 +13551,16 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Новый товар</t>
+          <t>RF001AVT</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>AVTOPRIBOR</t>
         </is>
       </c>
       <c r="D505" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="E505" t="n">
         <v>0</v>
@@ -13577,16 +13577,16 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Новый товар</t>
+          <t>RF002AVT</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>AVTOPRIBOR</t>
         </is>
       </c>
       <c r="D506" t="n">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="E506" t="n">
         <v>0</v>
@@ -13603,16 +13603,16 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Новый товар</t>
+          <t>RF006AVT</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>AVTOPRIBOR</t>
         </is>
       </c>
       <c r="D507" t="n">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="E507" t="n">
         <v>0</v>
@@ -13629,16 +13629,16 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Новый товар</t>
+          <t>RF007</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>AVTOPRIBOR</t>
         </is>
       </c>
       <c r="D508" t="n">
-        <v>0</v>
+        <v>7000</v>
       </c>
       <c r="E508" t="n">
         <v>0</v>
@@ -13655,16 +13655,16 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Новый товар</t>
+          <t>BD030AVT</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>AVTOPRIBOR</t>
         </is>
       </c>
       <c r="D509" t="n">
-        <v>0</v>
+        <v>1294</v>
       </c>
       <c r="E509" t="n">
         <v>0</v>
@@ -13681,16 +13681,16 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Новый товар</t>
+          <t>BD062AVT</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>AVTOPRIBOR</t>
         </is>
       </c>
       <c r="D510" t="n">
-        <v>0</v>
+        <v>1378</v>
       </c>
       <c r="E510" t="n">
         <v>0</v>
@@ -13707,16 +13707,16 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Новый товар</t>
+          <t>BD046AVT</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>AVTOPRIBOR</t>
         </is>
       </c>
       <c r="D511" t="n">
-        <v>0</v>
+        <v>1379</v>
       </c>
       <c r="E511" t="n">
         <v>0</v>
@@ -13733,16 +13733,16 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Новый товар</t>
+          <t>BD005AVT</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>AVTOPRIBOR</t>
         </is>
       </c>
       <c r="D512" t="n">
-        <v>0</v>
+        <v>1176</v>
       </c>
       <c r="E512" t="n">
         <v>0</v>
@@ -13759,16 +13759,16 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Новый товар</t>
+          <t>BP112AVT</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>AVTOPRIBOR</t>
         </is>
       </c>
       <c r="D513" t="n">
-        <v>0</v>
+        <v>577</v>
       </c>
       <c r="E513" t="n">
         <v>0</v>
@@ -13785,16 +13785,16 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Новый товар</t>
+          <t>BP015AVT</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>AVTOPRIBOR</t>
         </is>
       </c>
       <c r="D514" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="E514" t="n">
         <v>0</v>
@@ -13811,16 +13811,16 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Новый товар</t>
+          <t>BP167AVT</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>AVTOPRIBOR</t>
         </is>
       </c>
       <c r="D515" t="n">
-        <v>0</v>
+        <v>536</v>
       </c>
       <c r="E515" t="n">
         <v>0</v>
@@ -13837,16 +13837,16 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Новый товар</t>
+          <t>821494AVT</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>AVTOPRIBOR</t>
         </is>
       </c>
       <c r="D516" t="n">
-        <v>0</v>
+        <v>4630</v>
       </c>
       <c r="E516" t="n">
         <v>0</v>
@@ -13863,16 +13863,16 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Новый товар</t>
+          <t>826935AVT</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>AVTOPRIBOR</t>
         </is>
       </c>
       <c r="D517" t="n">
-        <v>0</v>
+        <v>3735</v>
       </c>
       <c r="E517" t="n">
         <v>0</v>
@@ -13889,16 +13889,16 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Новый товар</t>
+          <t>828019AVT</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>AVTOPRIBOR</t>
         </is>
       </c>
       <c r="D518" t="n">
-        <v>0</v>
+        <v>4630</v>
       </c>
       <c r="E518" t="n">
         <v>0</v>
@@ -13915,16 +13915,16 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Новый товар</t>
+          <t>826358AVT</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>AVTOPRIBOR</t>
         </is>
       </c>
       <c r="D519" t="n">
-        <v>0</v>
+        <v>3735</v>
       </c>
       <c r="E519" t="n">
         <v>0</v>
@@ -13941,16 +13941,16 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Новый товар</t>
+          <t>832561AVT</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>AVTOPRIBOR</t>
         </is>
       </c>
       <c r="D520" t="n">
-        <v>0</v>
+        <v>7100</v>
       </c>
       <c r="E520" t="n">
         <v>0</v>
@@ -13967,16 +13967,16 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Новый товар</t>
+          <t>826760AVT</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>AVTOPRIBOR</t>
         </is>
       </c>
       <c r="D521" t="n">
-        <v>0</v>
+        <v>5247</v>
       </c>
       <c r="E521" t="n">
         <v>0</v>
@@ -13993,16 +13993,16 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Новый товар</t>
+          <t>821071AVT</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>AVTOPRIBOR</t>
         </is>
       </c>
       <c r="D522" t="n">
-        <v>0</v>
+        <v>4511</v>
       </c>
       <c r="E522" t="n">
         <v>0</v>
@@ -14019,16 +14019,16 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Новый товар</t>
+          <t>832460AVT</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>AVTOPRIBOR</t>
         </is>
       </c>
       <c r="D523" t="n">
-        <v>0</v>
+        <v>4620</v>
       </c>
       <c r="E523" t="n">
         <v>0</v>
@@ -14045,16 +14045,16 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Новый товар</t>
+          <t>804298AVT</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>AVTOPRIBOR</t>
         </is>
       </c>
       <c r="D524" t="n">
-        <v>0</v>
+        <v>811</v>
       </c>
       <c r="E524" t="n">
         <v>0</v>
@@ -14071,16 +14071,16 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Новый товар</t>
+          <t>804297AVT</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>AVTOPRIBOR</t>
         </is>
       </c>
       <c r="D525" t="n">
-        <v>0</v>
+        <v>906</v>
       </c>
       <c r="E525" t="n">
         <v>0</v>
@@ -14097,16 +14097,16 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Новый товар</t>
+          <t>804102AVT</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>AVTOPRIBOR</t>
         </is>
       </c>
       <c r="D526" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E526" t="n">
         <v>0</v>
@@ -14123,16 +14123,16 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Новый товар</t>
+          <t>804527AVT</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>AVTOPRIBOR</t>
         </is>
       </c>
       <c r="D527" t="n">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="E527" t="n">
         <v>0</v>
@@ -14149,16 +14149,16 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Новый товар</t>
+          <t>735635AVT</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>AVTOPRIBOR</t>
         </is>
       </c>
       <c r="D528" t="n">
-        <v>0</v>
+        <v>3260</v>
       </c>
       <c r="E528" t="n">
         <v>0</v>
@@ -14175,16 +14175,16 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Новый товар</t>
+          <t>700802AVT</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>AVTOPRIBOR</t>
         </is>
       </c>
       <c r="D529" t="n">
-        <v>0</v>
+        <v>2820</v>
       </c>
       <c r="E529" t="n">
         <v>0</v>
@@ -14201,16 +14201,16 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Новый товар</t>
+          <t>494.5205900-41</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>AVTOPRIBOR</t>
         </is>
       </c>
       <c r="D530" t="n">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="E530" t="n">
         <v>0</v>
@@ -14227,16 +14227,16 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Новый товар</t>
+          <t>251.5215900-22</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>AVTOPRIBOR</t>
         </is>
       </c>
       <c r="D531" t="n">
-        <v>0</v>
+        <v>373</v>
       </c>
       <c r="E531" t="n">
         <v>0</v>
@@ -14253,12 +14253,12 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Новый товар</t>
+          <t>Итого</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>AVTOPRIBOR</t>
         </is>
       </c>
       <c r="D532" t="n">

--- a/price_for_emex.xlsx
+++ b/price_for_emex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F532"/>
+  <dimension ref="A1:F545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1317,7 +1317,7 @@
         <v>6389</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F34" t="n">
         <v>1</v>
@@ -1499,7 +1499,7 @@
         <v>1357</v>
       </c>
       <c r="E41" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>1</v>
@@ -1525,7 +1525,7 @@
         <v>1437</v>
       </c>
       <c r="E42" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>1</v>
@@ -1551,7 +1551,7 @@
         <v>1916</v>
       </c>
       <c r="E43" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>1</v>
@@ -1655,7 +1655,7 @@
         <v>1437</v>
       </c>
       <c r="E47" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
         <v>1</v>
@@ -1681,7 +1681,7 @@
         <v>958</v>
       </c>
       <c r="E48" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
         <v>1</v>
@@ -1707,7 +1707,7 @@
         <v>958</v>
       </c>
       <c r="E49" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
@@ -2019,7 +2019,7 @@
         <v>876</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F61" t="n">
         <v>1</v>
@@ -2305,7 +2305,7 @@
         <v>5586</v>
       </c>
       <c r="E72" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
         <v>1</v>
@@ -2331,7 +2331,7 @@
         <v>4139</v>
       </c>
       <c r="E73" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F73" t="n">
         <v>1</v>
@@ -2357,7 +2357,7 @@
         <v>4877</v>
       </c>
       <c r="E74" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
         <v>1</v>
@@ -2825,7 +2825,7 @@
         <v>5988</v>
       </c>
       <c r="E92" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
         <v>1</v>
@@ -2877,7 +2877,7 @@
         <v>5521</v>
       </c>
       <c r="E94" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
         <v>1</v>
@@ -2981,7 +2981,7 @@
         <v>8140</v>
       </c>
       <c r="E98" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
         <v>1</v>
@@ -3007,7 +3007,7 @@
         <v>21546</v>
       </c>
       <c r="E99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
         <v>1</v>
@@ -3033,7 +3033,7 @@
         <v>4389</v>
       </c>
       <c r="E100" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F100" t="n">
         <v>1</v>
@@ -3111,7 +3111,7 @@
         <v>10796</v>
       </c>
       <c r="E103" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F103" t="n">
         <v>1</v>
@@ -4255,7 +4255,7 @@
         <v>3058</v>
       </c>
       <c r="E147" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F147" t="n">
         <v>2</v>
@@ -6257,7 +6257,7 @@
         <v>1150</v>
       </c>
       <c r="E224" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F224" t="n">
         <v>1</v>
@@ -8077,7 +8077,7 @@
         <v>905</v>
       </c>
       <c r="E294" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F294" t="n">
         <v>1</v>
@@ -11431,7 +11431,7 @@
         <v>16824</v>
       </c>
       <c r="E423" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F423" t="n">
         <v>1</v>
@@ -12341,7 +12341,7 @@
         <v>9846</v>
       </c>
       <c r="E458" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F458" t="n">
         <v>1</v>
@@ -13364,12 +13364,12 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>826842AVT</t>
+          <t>832460AVT</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>826842AVT</t>
+          <t>832460AVT</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -13378,7 +13378,7 @@
         </is>
       </c>
       <c r="D498" t="n">
-        <v>5556</v>
+        <v>4620</v>
       </c>
       <c r="E498" t="n">
         <v>0</v>
@@ -13390,12 +13390,12 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>832460AVT</t>
+          <t>804297AVT</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>832460AVT</t>
+          <t>804297AVT</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -13404,7 +13404,7 @@
         </is>
       </c>
       <c r="D499" t="n">
-        <v>4620</v>
+        <v>906</v>
       </c>
       <c r="E499" t="n">
         <v>0</v>
@@ -13416,12 +13416,12 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>804297AVT</t>
+          <t>804102AVT</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>804297AVT</t>
+          <t>804102AVT</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -13430,7 +13430,7 @@
         </is>
       </c>
       <c r="D500" t="n">
-        <v>906</v>
+        <v>500</v>
       </c>
       <c r="E500" t="n">
         <v>0</v>
@@ -13442,12 +13442,12 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>804102AVT</t>
+          <t>735635AVT</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>804102AVT</t>
+          <t>735635AVT</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -13456,7 +13456,7 @@
         </is>
       </c>
       <c r="D501" t="n">
-        <v>500</v>
+        <v>3260</v>
       </c>
       <c r="E501" t="n">
         <v>0</v>
@@ -13468,12 +13468,12 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>735635AVT</t>
+          <t>RU01_Аутсорс_склад</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>735635AVT</t>
+          <t>RU01_Аутсорс_склад</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -13482,10 +13482,10 @@
         </is>
       </c>
       <c r="D502" t="n">
-        <v>3260</v>
+        <v>0</v>
       </c>
       <c r="E502" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F502" t="n">
         <v>1</v>
@@ -13494,12 +13494,12 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>RU01_Аутсорс_склад</t>
+          <t>1117-5205065</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>RU01_Аутсорс_склад</t>
+          <t>1117-5205065</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -13508,10 +13508,10 @@
         </is>
       </c>
       <c r="D503" t="n">
+        <v>60208</v>
+      </c>
+      <c r="E503" t="n">
         <v>0</v>
-      </c>
-      <c r="E503" t="n">
-        <v>10</v>
       </c>
       <c r="F503" t="n">
         <v>1</v>
@@ -13520,12 +13520,12 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>RF003</t>
+          <t>1118-5205066</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>RF003</t>
+          <t>1118-5205066</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -13534,7 +13534,7 @@
         </is>
       </c>
       <c r="D504" t="n">
-        <v>5500</v>
+        <v>56042</v>
       </c>
       <c r="E504" t="n">
         <v>0</v>
@@ -13546,12 +13546,12 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>RF001AVT</t>
+          <t>2108-1311065-01</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>RF001AVT</t>
+          <t>2108-1311065-01</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -13560,7 +13560,7 @@
         </is>
       </c>
       <c r="D505" t="n">
-        <v>5000</v>
+        <v>19167</v>
       </c>
       <c r="E505" t="n">
         <v>0</v>
@@ -13572,12 +13572,12 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>RF002AVT</t>
+          <t>2170-5205065</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>RF002AVT</t>
+          <t>2170-5205065</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="D506" t="n">
-        <v>5000</v>
+        <v>54479</v>
       </c>
       <c r="E506" t="n">
         <v>0</v>
@@ -13598,12 +13598,12 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>RF006AVT</t>
+          <t>2170-5205066</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>RF006AVT</t>
+          <t>2170-5205066</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -13612,7 +13612,7 @@
         </is>
       </c>
       <c r="D507" t="n">
-        <v>7000</v>
+        <v>54271</v>
       </c>
       <c r="E507" t="n">
         <v>0</v>
@@ -13624,12 +13624,12 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>RF007</t>
+          <t>2172-5205065</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>RF007</t>
+          <t>2172-5205065</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -13638,7 +13638,7 @@
         </is>
       </c>
       <c r="D508" t="n">
-        <v>7000</v>
+        <v>50104</v>
       </c>
       <c r="E508" t="n">
         <v>0</v>
@@ -13650,12 +13650,12 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>BD030AVT</t>
+          <t>2172-5205066</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>BD030AVT</t>
+          <t>2172-5205066</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -13664,7 +13664,7 @@
         </is>
       </c>
       <c r="D509" t="n">
-        <v>1294</v>
+        <v>45938</v>
       </c>
       <c r="E509" t="n">
         <v>0</v>
@@ -13676,13 +13676,11 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>BD062AVT</t>
-        </is>
-      </c>
-      <c r="B510" t="inlineStr">
-        <is>
-          <t>BD062AVT</t>
-        </is>
+          <t>23.382901</t>
+        </is>
+      </c>
+      <c r="B510" t="n">
+        <v>23.382901</v>
       </c>
       <c r="C510" t="inlineStr">
         <is>
@@ -13690,7 +13688,7 @@
         </is>
       </c>
       <c r="D510" t="n">
-        <v>1378</v>
+        <v>71875</v>
       </c>
       <c r="E510" t="n">
         <v>0</v>
@@ -13702,12 +13700,12 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>BD046AVT</t>
+          <t>261.5205800-01</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>BD046AVT</t>
+          <t>261.5205800-01</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -13716,7 +13714,7 @@
         </is>
       </c>
       <c r="D511" t="n">
-        <v>1379</v>
+        <v>36042</v>
       </c>
       <c r="E511" t="n">
         <v>0</v>
@@ -13728,13 +13726,11 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>BD005AVT</t>
-        </is>
-      </c>
-      <c r="B512" t="inlineStr">
-        <is>
-          <t>BD005AVT</t>
-        </is>
+          <t>493.52058</t>
+        </is>
+      </c>
+      <c r="B512" t="n">
+        <v>493.52058</v>
       </c>
       <c r="C512" t="inlineStr">
         <is>
@@ -13742,7 +13738,7 @@
         </is>
       </c>
       <c r="D512" t="n">
-        <v>1176</v>
+        <v>32917</v>
       </c>
       <c r="E512" t="n">
         <v>0</v>
@@ -13754,13 +13750,11 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>BP112AVT</t>
-        </is>
-      </c>
-      <c r="B513" t="inlineStr">
-        <is>
-          <t>BP112AVT</t>
-        </is>
+          <t>494.52058</t>
+        </is>
+      </c>
+      <c r="B513" t="n">
+        <v>494.52058</v>
       </c>
       <c r="C513" t="inlineStr">
         <is>
@@ -13768,7 +13762,7 @@
         </is>
       </c>
       <c r="D513" t="n">
-        <v>577</v>
+        <v>30208</v>
       </c>
       <c r="E513" t="n">
         <v>0</v>
@@ -13780,13 +13774,11 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>BP015AVT</t>
-        </is>
-      </c>
-      <c r="B514" t="inlineStr">
-        <is>
-          <t>BP015AVT</t>
-        </is>
+          <t>51.382701</t>
+        </is>
+      </c>
+      <c r="B514" t="n">
+        <v>51.382701</v>
       </c>
       <c r="C514" t="inlineStr">
         <is>
@@ -13794,7 +13786,7 @@
         </is>
       </c>
       <c r="D514" t="n">
-        <v>420</v>
+        <v>40208</v>
       </c>
       <c r="E514" t="n">
         <v>0</v>
@@ -13806,12 +13798,12 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>BP167AVT</t>
+          <t>60.5205400-20</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>BP167AVT</t>
+          <t>60.5205400-20</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -13820,7 +13812,7 @@
         </is>
       </c>
       <c r="D515" t="n">
-        <v>536</v>
+        <v>1275</v>
       </c>
       <c r="E515" t="n">
         <v>0</v>
@@ -13832,13 +13824,11 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>821494AVT</t>
-        </is>
-      </c>
-      <c r="B516" t="inlineStr">
-        <is>
-          <t>821494AVT</t>
-        </is>
+          <t>60.52058</t>
+        </is>
+      </c>
+      <c r="B516" t="n">
+        <v>60.52058</v>
       </c>
       <c r="C516" t="inlineStr">
         <is>
@@ -13846,7 +13836,7 @@
         </is>
       </c>
       <c r="D516" t="n">
-        <v>4630</v>
+        <v>38333</v>
       </c>
       <c r="E516" t="n">
         <v>0</v>
@@ -13858,12 +13848,12 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>826935AVT</t>
+          <t>RF003</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>826935AVT</t>
+          <t>RF003</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -13872,7 +13862,7 @@
         </is>
       </c>
       <c r="D517" t="n">
-        <v>3735</v>
+        <v>5500</v>
       </c>
       <c r="E517" t="n">
         <v>0</v>
@@ -13884,12 +13874,12 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>828019AVT</t>
+          <t>RF001AVT</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>828019AVT</t>
+          <t>RF001AVT</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -13898,7 +13888,7 @@
         </is>
       </c>
       <c r="D518" t="n">
-        <v>4630</v>
+        <v>5000</v>
       </c>
       <c r="E518" t="n">
         <v>0</v>
@@ -13910,12 +13900,12 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>826358AVT</t>
+          <t>RF002AVT</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>826358AVT</t>
+          <t>RF002AVT</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -13924,7 +13914,7 @@
         </is>
       </c>
       <c r="D519" t="n">
-        <v>3735</v>
+        <v>5000</v>
       </c>
       <c r="E519" t="n">
         <v>0</v>
@@ -13936,12 +13926,12 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>832561AVT</t>
+          <t>RF006AVT</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>832561AVT</t>
+          <t>RF006AVT</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -13950,7 +13940,7 @@
         </is>
       </c>
       <c r="D520" t="n">
-        <v>7100</v>
+        <v>7000</v>
       </c>
       <c r="E520" t="n">
         <v>0</v>
@@ -13962,12 +13952,12 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>826760AVT</t>
+          <t>RF007</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>826760AVT</t>
+          <t>RF007</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -13976,7 +13966,7 @@
         </is>
       </c>
       <c r="D521" t="n">
-        <v>5247</v>
+        <v>7000</v>
       </c>
       <c r="E521" t="n">
         <v>0</v>
@@ -13988,12 +13978,12 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>821071AVT</t>
+          <t>BD030AVT</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>821071AVT</t>
+          <t>BD030AVT</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -14002,7 +13992,7 @@
         </is>
       </c>
       <c r="D522" t="n">
-        <v>4511</v>
+        <v>1294</v>
       </c>
       <c r="E522" t="n">
         <v>0</v>
@@ -14014,12 +14004,12 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>832460AVT</t>
+          <t>BD062AVT</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>832460AVT</t>
+          <t>BD062AVT</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -14028,7 +14018,7 @@
         </is>
       </c>
       <c r="D523" t="n">
-        <v>4620</v>
+        <v>1378</v>
       </c>
       <c r="E523" t="n">
         <v>0</v>
@@ -14040,12 +14030,12 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>804298AVT</t>
+          <t>BD046AVT</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>804298AVT</t>
+          <t>BD046AVT</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -14054,7 +14044,7 @@
         </is>
       </c>
       <c r="D524" t="n">
-        <v>811</v>
+        <v>1379</v>
       </c>
       <c r="E524" t="n">
         <v>0</v>
@@ -14066,12 +14056,12 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>804297AVT</t>
+          <t>BD005AVT</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>804297AVT</t>
+          <t>BD005AVT</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -14080,7 +14070,7 @@
         </is>
       </c>
       <c r="D525" t="n">
-        <v>906</v>
+        <v>1176</v>
       </c>
       <c r="E525" t="n">
         <v>0</v>
@@ -14092,12 +14082,12 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>804102AVT</t>
+          <t>BP112AVT</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>804102AVT</t>
+          <t>BP112AVT</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -14106,7 +14096,7 @@
         </is>
       </c>
       <c r="D526" t="n">
-        <v>500</v>
+        <v>577</v>
       </c>
       <c r="E526" t="n">
         <v>0</v>
@@ -14118,12 +14108,12 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>804527AVT</t>
+          <t>BP015AVT</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>804527AVT</t>
+          <t>BP015AVT</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -14132,7 +14122,7 @@
         </is>
       </c>
       <c r="D527" t="n">
-        <v>3500</v>
+        <v>420</v>
       </c>
       <c r="E527" t="n">
         <v>0</v>
@@ -14144,12 +14134,12 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>735635AVT</t>
+          <t>BP167AVT</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>735635AVT</t>
+          <t>BP167AVT</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -14158,7 +14148,7 @@
         </is>
       </c>
       <c r="D528" t="n">
-        <v>3260</v>
+        <v>536</v>
       </c>
       <c r="E528" t="n">
         <v>0</v>
@@ -14170,12 +14160,12 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>700802AVT</t>
+          <t>821494AVT</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>700802AVT</t>
+          <t>821494AVT</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -14184,7 +14174,7 @@
         </is>
       </c>
       <c r="D529" t="n">
-        <v>2820</v>
+        <v>4630</v>
       </c>
       <c r="E529" t="n">
         <v>0</v>
@@ -14196,12 +14186,12 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>494.5205900-41</t>
+          <t>826935AVT</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>494.5205900-41</t>
+          <t>826935AVT</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -14210,7 +14200,7 @@
         </is>
       </c>
       <c r="D530" t="n">
-        <v>226</v>
+        <v>3735</v>
       </c>
       <c r="E530" t="n">
         <v>0</v>
@@ -14222,12 +14212,12 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>251.5215900-22</t>
+          <t>828019AVT</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>251.5215900-22</t>
+          <t>828019AVT</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -14236,7 +14226,7 @@
         </is>
       </c>
       <c r="D531" t="n">
-        <v>373</v>
+        <v>4630</v>
       </c>
       <c r="E531" t="n">
         <v>0</v>
@@ -14248,26 +14238,364 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
+          <t>826358AVT</t>
+        </is>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>826358AVT</t>
+        </is>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D532" t="n">
+        <v>3735</v>
+      </c>
+      <c r="E532" t="n">
+        <v>0</v>
+      </c>
+      <c r="F532" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>832561AVT</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>832561AVT</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D533" t="n">
+        <v>7100</v>
+      </c>
+      <c r="E533" t="n">
+        <v>0</v>
+      </c>
+      <c r="F533" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>826760AVT</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>826760AVT</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D534" t="n">
+        <v>5247</v>
+      </c>
+      <c r="E534" t="n">
+        <v>0</v>
+      </c>
+      <c r="F534" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>821071AVT</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>821071AVT</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D535" t="n">
+        <v>4511</v>
+      </c>
+      <c r="E535" t="n">
+        <v>0</v>
+      </c>
+      <c r="F535" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>832460AVT</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>832460AVT</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D536" t="n">
+        <v>4620</v>
+      </c>
+      <c r="E536" t="n">
+        <v>0</v>
+      </c>
+      <c r="F536" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>804298AVT</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>804298AVT</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D537" t="n">
+        <v>811</v>
+      </c>
+      <c r="E537" t="n">
+        <v>0</v>
+      </c>
+      <c r="F537" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>804297AVT</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>804297AVT</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D538" t="n">
+        <v>906</v>
+      </c>
+      <c r="E538" t="n">
+        <v>0</v>
+      </c>
+      <c r="F538" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>804102AVT</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>804102AVT</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D539" t="n">
+        <v>500</v>
+      </c>
+      <c r="E539" t="n">
+        <v>0</v>
+      </c>
+      <c r="F539" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>804527AVT</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>804527AVT</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D540" t="n">
+        <v>3500</v>
+      </c>
+      <c r="E540" t="n">
+        <v>0</v>
+      </c>
+      <c r="F540" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>735635AVT</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>735635AVT</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D541" t="n">
+        <v>3260</v>
+      </c>
+      <c r="E541" t="n">
+        <v>0</v>
+      </c>
+      <c r="F541" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>700802AVT</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>700802AVT</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D542" t="n">
+        <v>2820</v>
+      </c>
+      <c r="E542" t="n">
+        <v>0</v>
+      </c>
+      <c r="F542" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>494.5205900-41</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>494.5205900-41</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D543" t="n">
+        <v>226</v>
+      </c>
+      <c r="E543" t="n">
+        <v>0</v>
+      </c>
+      <c r="F543" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>251.5215900-22</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>251.5215900-22</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D544" t="n">
+        <v>373</v>
+      </c>
+      <c r="E544" t="n">
+        <v>0</v>
+      </c>
+      <c r="F544" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
           <t>Итого</t>
         </is>
       </c>
-      <c r="B532" t="inlineStr">
+      <c r="B545" t="inlineStr">
         <is>
           <t>Итого</t>
         </is>
       </c>
-      <c r="C532" t="inlineStr">
-        <is>
-          <t>AVTOPRIBOR</t>
-        </is>
-      </c>
-      <c r="D532" t="n">
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D545" t="n">
         <v>0</v>
       </c>
-      <c r="E532" t="n">
-        <v>10</v>
-      </c>
-      <c r="F532" t="n">
+      <c r="E545" t="n">
+        <v>10</v>
+      </c>
+      <c r="F545" t="n">
         <v>1</v>
       </c>
     </row>

--- a/price_for_emex.xlsx
+++ b/price_for_emex.xlsx
@@ -13222,7 +13222,7 @@
         </is>
       </c>
       <c r="D492" t="n">
-        <v>393</v>
+        <v>0</v>
       </c>
       <c r="E492" t="n">
         <v>10</v>

--- a/price_for_emex.xlsx
+++ b/price_for_emex.xlsx
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10150</v>
+        <v>8826</v>
       </c>
       <c r="E2" t="n">
         <v>10</v>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9906</v>
+        <v>8616</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>9906</v>
+        <v>8616</v>
       </c>
       <c r="E4" t="n">
         <v>10</v>
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>10150</v>
+        <v>8826</v>
       </c>
       <c r="E5" t="n">
         <v>10</v>
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>18638</v>
+        <v>16212</v>
       </c>
       <c r="E6" t="n">
         <v>10</v>
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>18638</v>
+        <v>16212</v>
       </c>
       <c r="E7" t="n">
         <v>10</v>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>23954</v>
+        <v>20832</v>
       </c>
       <c r="E8" t="n">
         <v>10</v>
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>5979</v>
+        <v>4902</v>
       </c>
       <c r="E9" t="n">
         <v>10</v>
@@ -690,7 +690,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>5979</v>
+        <v>4902</v>
       </c>
       <c r="E10" t="n">
         <v>10</v>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>5858</v>
+        <v>4800</v>
       </c>
       <c r="E11" t="n">
         <v>10</v>
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6087</v>
+        <v>5292</v>
       </c>
       <c r="E12" t="n">
         <v>10</v>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>6435</v>
+        <v>5280</v>
       </c>
       <c r="E13" t="n">
         <v>10</v>
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6087</v>
+        <v>5292</v>
       </c>
       <c r="E14" t="n">
         <v>10</v>
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>6451</v>
+        <v>5610</v>
       </c>
       <c r="E15" t="n">
         <v>10</v>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6451</v>
+        <v>5610</v>
       </c>
       <c r="E16" t="n">
         <v>10</v>
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>7063</v>
+        <v>6144</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
@@ -898,7 +898,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>7408</v>
+        <v>6444</v>
       </c>
       <c r="E18" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>7868</v>
+        <v>6450</v>
       </c>
       <c r="E19" t="n">
         <v>10</v>
@@ -950,7 +950,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>8235</v>
+        <v>7164</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>7530</v>
+        <v>6552</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>8235</v>
+        <v>7164</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>7530</v>
+        <v>6552</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
@@ -1054,7 +1054,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>9404</v>
+        <v>77076</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -1080,7 +1080,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>18312</v>
+        <v>15012</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>13697</v>
+        <v>11226</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>15056</v>
+        <v>123408</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
@@ -1158,7 +1158,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>10796</v>
+        <v>9996</v>
       </c>
       <c r="E28" t="n">
         <v>7</v>
@@ -1184,7 +1184,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1534</v>
+        <v>11532</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3234</v>
+        <v>24312</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3058</v>
+        <v>22992</v>
       </c>
       <c r="E31" t="n">
         <v>2</v>
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2955</v>
+        <v>22212</v>
       </c>
       <c r="E32" t="n">
         <v>10</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1823</v>
+        <v>13704</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
@@ -1314,7 +1314,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>5100</v>
+        <v>3834</v>
       </c>
       <c r="E34" t="n">
         <v>10</v>
@@ -1340,7 +1340,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3105</v>
+        <v>2334</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
@@ -1366,7 +1366,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>921</v>
+        <v>6924</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>861</v>
+        <v>6468</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -1418,7 +1418,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1356</v>
+        <v>10188</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
@@ -1444,7 +1444,7 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>902</v>
+        <v>678</v>
       </c>
       <c r="E39" t="n">
         <v>10</v>
@@ -1470,7 +1470,7 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>730</v>
+        <v>5484</v>
       </c>
       <c r="E40" t="n">
         <v>10</v>
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>869</v>
+        <v>6528</v>
       </c>
       <c r="E41" t="n">
         <v>10</v>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>869</v>
+        <v>6528</v>
       </c>
       <c r="E42" t="n">
         <v>10</v>
@@ -1548,7 +1548,7 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>698</v>
+        <v>5244</v>
       </c>
       <c r="E43" t="n">
         <v>10</v>
@@ -1574,7 +1574,7 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>645</v>
+        <v>4848</v>
       </c>
       <c r="E44" t="n">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>708</v>
+        <v>5316</v>
       </c>
       <c r="E45" t="n">
         <v>10</v>
@@ -1626,7 +1626,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>779</v>
+        <v>5856</v>
       </c>
       <c r="E46" t="n">
         <v>10</v>
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>910</v>
+        <v>684</v>
       </c>
       <c r="E47" t="n">
         <v>10</v>
@@ -1678,7 +1678,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>913</v>
+        <v>6864</v>
       </c>
       <c r="E48" t="n">
         <v>10</v>
@@ -1704,7 +1704,7 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1057</v>
+        <v>7944</v>
       </c>
       <c r="E49" t="n">
         <v>10</v>
@@ -1730,7 +1730,7 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>912</v>
+        <v>6852</v>
       </c>
       <c r="E50" t="n">
         <v>10</v>
@@ -1756,7 +1756,7 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>842</v>
+        <v>6324</v>
       </c>
       <c r="E51" t="n">
         <v>10</v>
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2118</v>
+        <v>15924</v>
       </c>
       <c r="E52" t="n">
         <v>10</v>
@@ -1808,7 +1808,7 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>1431</v>
+        <v>10752</v>
       </c>
       <c r="E53" t="n">
         <v>10</v>
@@ -1834,7 +1834,7 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>811</v>
+        <v>6096</v>
       </c>
       <c r="E54" t="n">
         <v>10</v>
@@ -1860,7 +1860,7 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>743</v>
+        <v>558</v>
       </c>
       <c r="E55" t="n">
         <v>10</v>
@@ -1886,7 +1886,7 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>814</v>
+        <v>612</v>
       </c>
       <c r="E56" t="n">
         <v>10</v>
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>668</v>
+        <v>5016</v>
       </c>
       <c r="E57" t="n">
         <v>10</v>
@@ -1938,7 +1938,7 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>1598</v>
+        <v>12012</v>
       </c>
       <c r="E58" t="n">
         <v>10</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>1734</v>
+        <v>13032</v>
       </c>
       <c r="E59" t="n">
         <v>10</v>
@@ -1990,7 +1990,7 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>939</v>
+        <v>7056</v>
       </c>
       <c r="E60" t="n">
         <v>10</v>
@@ -2016,7 +2016,7 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>776</v>
+        <v>5832</v>
       </c>
       <c r="E61" t="n">
         <v>10</v>
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>783</v>
+        <v>588</v>
       </c>
       <c r="E62" t="n">
         <v>10</v>
@@ -2068,7 +2068,7 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>950</v>
+        <v>714</v>
       </c>
       <c r="E63" t="n">
         <v>10</v>
@@ -2094,7 +2094,7 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>747</v>
+        <v>5616</v>
       </c>
       <c r="E64" t="n">
         <v>10</v>
@@ -2120,7 +2120,7 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>856</v>
+        <v>6432</v>
       </c>
       <c r="E65" t="n">
         <v>10</v>
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>955</v>
+        <v>7176</v>
       </c>
       <c r="E66" t="n">
         <v>10</v>
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>867</v>
+        <v>6516</v>
       </c>
       <c r="E67" t="n">
         <v>10</v>
@@ -2198,7 +2198,7 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>759</v>
+        <v>570</v>
       </c>
       <c r="E68" t="n">
         <v>10</v>
@@ -2224,7 +2224,7 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>1008</v>
+        <v>7572</v>
       </c>
       <c r="E69" t="n">
         <v>10</v>
@@ -2250,7 +2250,7 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1616</v>
+        <v>12144</v>
       </c>
       <c r="E70" t="n">
         <v>10</v>
@@ -2276,7 +2276,7 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>996</v>
+        <v>7488</v>
       </c>
       <c r="E71" t="n">
         <v>10</v>
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>1103</v>
+        <v>8292</v>
       </c>
       <c r="E72" t="n">
         <v>10</v>
@@ -2328,7 +2328,7 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>751</v>
+        <v>564</v>
       </c>
       <c r="E73" t="n">
         <v>10</v>
@@ -2354,7 +2354,7 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>1309</v>
+        <v>984</v>
       </c>
       <c r="E74" t="n">
         <v>10</v>
@@ -2380,7 +2380,7 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>1427</v>
+        <v>10728</v>
       </c>
       <c r="E75" t="n">
         <v>10</v>
@@ -2406,7 +2406,7 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>1194</v>
+        <v>8976</v>
       </c>
       <c r="E76" t="n">
         <v>10</v>
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>690</v>
+        <v>5184</v>
       </c>
       <c r="E77" t="n">
         <v>10</v>
@@ -2458,7 +2458,7 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>889</v>
+        <v>6684</v>
       </c>
       <c r="E78" t="n">
         <v>10</v>
@@ -2484,7 +2484,7 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>998</v>
+        <v>750</v>
       </c>
       <c r="E79" t="n">
         <v>10</v>
@@ -2510,7 +2510,7 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>889</v>
+        <v>6684</v>
       </c>
       <c r="E80" t="n">
         <v>10</v>
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>749</v>
+        <v>5628</v>
       </c>
       <c r="E81" t="n">
         <v>10</v>
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>722</v>
+        <v>5424</v>
       </c>
       <c r="E82" t="n">
         <v>10</v>
@@ -2588,7 +2588,7 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>792</v>
+        <v>5952</v>
       </c>
       <c r="E83" t="n">
         <v>10</v>
@@ -2614,7 +2614,7 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1062</v>
+        <v>798</v>
       </c>
       <c r="E84" t="n">
         <v>10</v>
@@ -2640,7 +2640,7 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>837</v>
+        <v>6288</v>
       </c>
       <c r="E85" t="n">
         <v>10</v>
@@ -2666,7 +2666,7 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>904</v>
+        <v>6792</v>
       </c>
       <c r="E86" t="n">
         <v>10</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>835</v>
+        <v>6276</v>
       </c>
       <c r="E87" t="n">
         <v>10</v>
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>591</v>
+        <v>444</v>
       </c>
       <c r="E88" t="n">
         <v>10</v>
@@ -2744,7 +2744,7 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>996</v>
+        <v>7488</v>
       </c>
       <c r="E89" t="n">
         <v>10</v>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>875</v>
+        <v>6576</v>
       </c>
       <c r="E90" t="n">
         <v>10</v>
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>814</v>
+        <v>612</v>
       </c>
       <c r="E91" t="n">
         <v>10</v>
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>813</v>
+        <v>6108</v>
       </c>
       <c r="E92" t="n">
         <v>10</v>
@@ -2848,7 +2848,7 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>728</v>
+        <v>5472</v>
       </c>
       <c r="E93" t="n">
         <v>10</v>
@@ -2874,7 +2874,7 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>811</v>
+        <v>6096</v>
       </c>
       <c r="E94" t="n">
         <v>10</v>
@@ -2900,7 +2900,7 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>960</v>
+        <v>7212</v>
       </c>
       <c r="E95" t="n">
         <v>10</v>
@@ -2926,7 +2926,7 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>960</v>
+        <v>7212</v>
       </c>
       <c r="E96" t="n">
         <v>10</v>
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1105</v>
+        <v>8304</v>
       </c>
       <c r="E97" t="n">
         <v>10</v>
@@ -2978,7 +2978,7 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>736</v>
+        <v>5532</v>
       </c>
       <c r="E98" t="n">
         <v>10</v>
@@ -3004,7 +3004,7 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>814</v>
+        <v>612</v>
       </c>
       <c r="E99" t="n">
         <v>10</v>
@@ -3030,7 +3030,7 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>913</v>
+        <v>6864</v>
       </c>
       <c r="E100" t="n">
         <v>10</v>
@@ -3056,7 +3056,7 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>896</v>
+        <v>6732</v>
       </c>
       <c r="E101" t="n">
         <v>10</v>
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>626</v>
+        <v>4704</v>
       </c>
       <c r="E102" t="n">
         <v>10</v>
@@ -3108,7 +3108,7 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>708</v>
+        <v>5316</v>
       </c>
       <c r="E103" t="n">
         <v>10</v>
@@ -3134,7 +3134,7 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>752</v>
+        <v>5652</v>
       </c>
       <c r="E104" t="n">
         <v>10</v>
@@ -3160,7 +3160,7 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>731</v>
+        <v>5496</v>
       </c>
       <c r="E105" t="n">
         <v>10</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>762</v>
+        <v>5724</v>
       </c>
       <c r="E106" t="n">
         <v>10</v>
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>781</v>
+        <v>5868</v>
       </c>
       <c r="E107" t="n">
         <v>10</v>
@@ -3238,7 +3238,7 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>921</v>
+        <v>6924</v>
       </c>
       <c r="E108" t="n">
         <v>10</v>
@@ -3264,7 +3264,7 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>845</v>
+        <v>6348</v>
       </c>
       <c r="E109" t="n">
         <v>10</v>
@@ -3290,7 +3290,7 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>923</v>
+        <v>6936</v>
       </c>
       <c r="E110" t="n">
         <v>10</v>
@@ -3316,7 +3316,7 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1541</v>
+        <v>1158</v>
       </c>
       <c r="E111" t="n">
         <v>10</v>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1164</v>
+        <v>8748</v>
       </c>
       <c r="E112" t="n">
         <v>10</v>
@@ -3368,7 +3368,7 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1043</v>
+        <v>7836</v>
       </c>
       <c r="E113" t="n">
         <v>10</v>
@@ -3394,7 +3394,7 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>778</v>
+        <v>5844</v>
       </c>
       <c r="E114" t="n">
         <v>10</v>
@@ -3420,7 +3420,7 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>837</v>
+        <v>6288</v>
       </c>
       <c r="E115" t="n">
         <v>10</v>
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>2809</v>
+        <v>2112</v>
       </c>
       <c r="E116" t="n">
         <v>10</v>
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>822</v>
+        <v>618</v>
       </c>
       <c r="E117" t="n">
         <v>10</v>
@@ -3498,7 +3498,7 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>773</v>
+        <v>5808</v>
       </c>
       <c r="E118" t="n">
         <v>10</v>
@@ -3524,7 +3524,7 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1162</v>
+        <v>8736</v>
       </c>
       <c r="E119" t="n">
         <v>10</v>
@@ -3550,7 +3550,7 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>800</v>
+        <v>6012</v>
       </c>
       <c r="E120" t="n">
         <v>10</v>
@@ -3576,7 +3576,7 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>687</v>
+        <v>516</v>
       </c>
       <c r="E121" t="n">
         <v>10</v>
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>802</v>
+        <v>6024</v>
       </c>
       <c r="E122" t="n">
         <v>10</v>
@@ -3628,7 +3628,7 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>856</v>
+        <v>6432</v>
       </c>
       <c r="E123" t="n">
         <v>10</v>
@@ -3654,7 +3654,7 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1166</v>
+        <v>876</v>
       </c>
       <c r="E124" t="n">
         <v>10</v>
@@ -3680,7 +3680,7 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1825</v>
+        <v>13716</v>
       </c>
       <c r="E125" t="n">
         <v>10</v>
@@ -3706,7 +3706,7 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1183</v>
+        <v>8892</v>
       </c>
       <c r="E126" t="n">
         <v>10</v>
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>1494</v>
+        <v>11232</v>
       </c>
       <c r="E127" t="n">
         <v>10</v>
@@ -3758,7 +3758,7 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>945</v>
+        <v>7104</v>
       </c>
       <c r="E128" t="n">
         <v>10</v>
@@ -3784,7 +3784,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>966</v>
+        <v>726</v>
       </c>
       <c r="E129" t="n">
         <v>10</v>
@@ -3810,7 +3810,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>1076</v>
+        <v>8088</v>
       </c>
       <c r="E130" t="n">
         <v>10</v>
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1233</v>
+        <v>9264</v>
       </c>
       <c r="E131" t="n">
         <v>10</v>
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>725</v>
+        <v>5448</v>
       </c>
       <c r="E132" t="n">
         <v>10</v>
@@ -3888,7 +3888,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>897</v>
+        <v>6744</v>
       </c>
       <c r="E133" t="n">
         <v>10</v>
@@ -3914,7 +3914,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1046</v>
+        <v>786</v>
       </c>
       <c r="E134" t="n">
         <v>10</v>
@@ -3940,7 +3940,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>1164</v>
+        <v>8748</v>
       </c>
       <c r="E135" t="n">
         <v>10</v>
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>921</v>
+        <v>6924</v>
       </c>
       <c r="E136" t="n">
         <v>10</v>
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1552</v>
+        <v>11664</v>
       </c>
       <c r="E137" t="n">
         <v>10</v>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>966</v>
+        <v>726</v>
       </c>
       <c r="E138" t="n">
         <v>10</v>
@@ -4044,7 +4044,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1506</v>
+        <v>11316</v>
       </c>
       <c r="E139" t="n">
         <v>10</v>
@@ -4070,7 +4070,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1249</v>
+        <v>9384</v>
       </c>
       <c r="E140" t="n">
         <v>10</v>
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>824</v>
+        <v>6192</v>
       </c>
       <c r="E141" t="n">
         <v>10</v>
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>899</v>
+        <v>6756</v>
       </c>
       <c r="E142" t="n">
         <v>10</v>
@@ -4148,7 +4148,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1154</v>
+        <v>8676</v>
       </c>
       <c r="E143" t="n">
         <v>10</v>
@@ -4174,7 +4174,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>875</v>
+        <v>6576</v>
       </c>
       <c r="E144" t="n">
         <v>10</v>
@@ -4200,7 +4200,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1150</v>
+        <v>864</v>
       </c>
       <c r="E145" t="n">
         <v>10</v>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>1161</v>
+        <v>8724</v>
       </c>
       <c r="E146" t="n">
         <v>10</v>
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>1204</v>
+        <v>9048</v>
       </c>
       <c r="E147" t="n">
         <v>10</v>
@@ -4278,7 +4278,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>1083</v>
+        <v>8136</v>
       </c>
       <c r="E148" t="n">
         <v>10</v>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>889</v>
+        <v>6684</v>
       </c>
       <c r="E149" t="n">
         <v>10</v>
@@ -4330,7 +4330,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1035</v>
+        <v>7776</v>
       </c>
       <c r="E150" t="n">
         <v>10</v>
@@ -4356,7 +4356,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1089</v>
+        <v>8184</v>
       </c>
       <c r="E151" t="n">
         <v>10</v>
@@ -4382,7 +4382,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1137</v>
+        <v>8544</v>
       </c>
       <c r="E152" t="n">
         <v>10</v>
@@ -4408,7 +4408,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1734</v>
+        <v>13032</v>
       </c>
       <c r="E153" t="n">
         <v>4</v>
@@ -4434,7 +4434,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1036</v>
+        <v>7788</v>
       </c>
       <c r="E154" t="n">
         <v>10</v>
@@ -4460,7 +4460,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>824</v>
+        <v>6192</v>
       </c>
       <c r="E155" t="n">
         <v>10</v>
@@ -4486,7 +4486,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>1134</v>
+        <v>852</v>
       </c>
       <c r="E156" t="n">
         <v>10</v>
@@ -4512,7 +4512,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>988</v>
+        <v>7428</v>
       </c>
       <c r="E157" t="n">
         <v>10</v>
@@ -4538,7 +4538,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>870</v>
+        <v>654</v>
       </c>
       <c r="E158" t="n">
         <v>10</v>
@@ -4564,7 +4564,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1134</v>
+        <v>852</v>
       </c>
       <c r="E159" t="n">
         <v>10</v>
@@ -4590,7 +4590,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1071</v>
+        <v>8052</v>
       </c>
       <c r="E160" t="n">
         <v>10</v>
@@ -4616,7 +4616,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>866</v>
+        <v>6504</v>
       </c>
       <c r="E161" t="n">
         <v>10</v>
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>1025</v>
+        <v>7704</v>
       </c>
       <c r="E162" t="n">
         <v>10</v>
@@ -4668,7 +4668,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1319</v>
+        <v>9912</v>
       </c>
       <c r="E163" t="n">
         <v>10</v>
@@ -4694,7 +4694,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>1338</v>
+        <v>10056</v>
       </c>
       <c r="E164" t="n">
         <v>10</v>
@@ -4720,7 +4720,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>1059</v>
+        <v>7956</v>
       </c>
       <c r="E165" t="n">
         <v>10</v>
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>1418</v>
+        <v>10656</v>
       </c>
       <c r="E166" t="n">
         <v>10</v>
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>797</v>
+        <v>5988</v>
       </c>
       <c r="E167" t="n">
         <v>10</v>
@@ -4798,7 +4798,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>904</v>
+        <v>6792</v>
       </c>
       <c r="E168" t="n">
         <v>10</v>
@@ -4824,7 +4824,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>907</v>
+        <v>6816</v>
       </c>
       <c r="E169" t="n">
         <v>10</v>
@@ -4850,7 +4850,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>905</v>
+        <v>6804</v>
       </c>
       <c r="E170" t="n">
         <v>10</v>
@@ -4876,7 +4876,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>795</v>
+        <v>5976</v>
       </c>
       <c r="E171" t="n">
         <v>10</v>
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1418</v>
+        <v>10656</v>
       </c>
       <c r="E172" t="n">
         <v>10</v>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>920</v>
+        <v>6912</v>
       </c>
       <c r="E173" t="n">
         <v>10</v>
@@ -4954,7 +4954,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>800</v>
+        <v>6012</v>
       </c>
       <c r="E174" t="n">
         <v>10</v>
@@ -4980,7 +4980,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>1421</v>
+        <v>1068</v>
       </c>
       <c r="E175" t="n">
         <v>10</v>
@@ -5006,7 +5006,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>1182</v>
+        <v>888</v>
       </c>
       <c r="E176" t="n">
         <v>10</v>
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>1006</v>
+        <v>756</v>
       </c>
       <c r="E177" t="n">
         <v>10</v>
@@ -5058,7 +5058,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>966</v>
+        <v>726</v>
       </c>
       <c r="E178" t="n">
         <v>10</v>
@@ -5084,7 +5084,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>917</v>
+        <v>6888</v>
       </c>
       <c r="E179" t="n">
         <v>10</v>
@@ -5110,7 +5110,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>1365</v>
+        <v>1026</v>
       </c>
       <c r="E180" t="n">
         <v>10</v>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>1038</v>
+        <v>780</v>
       </c>
       <c r="E181" t="n">
         <v>10</v>
@@ -5162,7 +5162,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>1049</v>
+        <v>7884</v>
       </c>
       <c r="E182" t="n">
         <v>10</v>
@@ -5188,7 +5188,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>763</v>
+        <v>5736</v>
       </c>
       <c r="E183" t="n">
         <v>10</v>
@@ -5214,7 +5214,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>937</v>
+        <v>7044</v>
       </c>
       <c r="E184" t="n">
         <v>10</v>
@@ -5240,7 +5240,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>1004</v>
+        <v>7548</v>
       </c>
       <c r="E185" t="n">
         <v>10</v>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1097</v>
+        <v>8244</v>
       </c>
       <c r="E186" t="n">
         <v>10</v>
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>1091</v>
+        <v>8196</v>
       </c>
       <c r="E187" t="n">
         <v>10</v>
@@ -5318,7 +5318,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>1253</v>
+        <v>942</v>
       </c>
       <c r="E188" t="n">
         <v>10</v>
@@ -5344,7 +5344,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>1116</v>
+        <v>8388</v>
       </c>
       <c r="E189" t="n">
         <v>10</v>
@@ -5370,7 +5370,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>1314</v>
+        <v>9876</v>
       </c>
       <c r="E190" t="n">
         <v>10</v>
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>1737</v>
+        <v>13056</v>
       </c>
       <c r="E191" t="n">
         <v>10</v>
@@ -5422,7 +5422,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>805</v>
+        <v>6048</v>
       </c>
       <c r="E192" t="n">
         <v>10</v>
@@ -5448,7 +5448,7 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>1336</v>
+        <v>10044</v>
       </c>
       <c r="E193" t="n">
         <v>10</v>
@@ -5474,7 +5474,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>1320</v>
+        <v>9924</v>
       </c>
       <c r="E194" t="n">
         <v>10</v>
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>1517</v>
+        <v>1140</v>
       </c>
       <c r="E195" t="n">
         <v>10</v>
@@ -5526,7 +5526,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>1547</v>
+        <v>11628</v>
       </c>
       <c r="E196" t="n">
         <v>10</v>
@@ -5552,7 +5552,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>15960</v>
+        <v>12000</v>
       </c>
       <c r="E197" t="n">
         <v>10</v>
@@ -5578,7 +5578,7 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>6897</v>
+        <v>51852</v>
       </c>
       <c r="E198" t="n">
         <v>10</v>
@@ -5604,7 +5604,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>7882</v>
+        <v>59256</v>
       </c>
       <c r="E199" t="n">
         <v>10</v>
@@ -5630,7 +5630,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>4040</v>
+        <v>30372</v>
       </c>
       <c r="E200" t="n">
         <v>10</v>
@@ -5656,7 +5656,7 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>6108</v>
+        <v>45924</v>
       </c>
       <c r="E201" t="n">
         <v>10</v>
@@ -5682,7 +5682,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>5912</v>
+        <v>44448</v>
       </c>
       <c r="E202" t="n">
         <v>10</v>
@@ -5708,7 +5708,7 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>6404</v>
+        <v>48144</v>
       </c>
       <c r="E203" t="n">
         <v>10</v>
@@ -5734,7 +5734,7 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>7390</v>
+        <v>5556</v>
       </c>
       <c r="E204" t="n">
         <v>10</v>
@@ -5760,7 +5760,7 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>5912</v>
+        <v>44448</v>
       </c>
       <c r="E205" t="n">
         <v>10</v>
@@ -5786,7 +5786,7 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>7882</v>
+        <v>59256</v>
       </c>
       <c r="E206" t="n">
         <v>10</v>
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>5617</v>
+        <v>42228</v>
       </c>
       <c r="E207" t="n">
         <v>10</v>
@@ -5838,7 +5838,7 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>6897</v>
+        <v>51852</v>
       </c>
       <c r="E208" t="n">
         <v>10</v>
@@ -5864,7 +5864,7 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>9853</v>
+        <v>74076</v>
       </c>
       <c r="E209" t="n">
         <v>10</v>
@@ -5890,7 +5890,7 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>9359</v>
+        <v>70368</v>
       </c>
       <c r="E210" t="n">
         <v>10</v>
@@ -5916,7 +5916,7 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>5912</v>
+        <v>44448</v>
       </c>
       <c r="E211" t="n">
         <v>10</v>
@@ -5942,7 +5942,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>6207</v>
+        <v>46668</v>
       </c>
       <c r="E212" t="n">
         <v>5</v>
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>5912</v>
+        <v>44448</v>
       </c>
       <c r="E213" t="n">
         <v>10</v>
@@ -5994,7 +5994,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>6897</v>
+        <v>51852</v>
       </c>
       <c r="E214" t="n">
         <v>6</v>
@@ -6020,7 +6020,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>11822</v>
+        <v>88884</v>
       </c>
       <c r="E215" t="n">
         <v>10</v>
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>6753</v>
+        <v>50772</v>
       </c>
       <c r="E216" t="n">
         <v>10</v>
@@ -6072,7 +6072,7 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>4389</v>
+        <v>3300</v>
       </c>
       <c r="E217" t="n">
         <v>5</v>
@@ -6098,7 +6098,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>876</v>
+        <v>8112</v>
       </c>
       <c r="E218" t="n">
         <v>10</v>
@@ -6124,7 +6124,7 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>7502</v>
+        <v>5640</v>
       </c>
       <c r="E219" t="n">
         <v>10</v>
@@ -6150,7 +6150,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>11915</v>
+        <v>8958</v>
       </c>
       <c r="E220" t="n">
         <v>10</v>
@@ -6176,7 +6176,7 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>6550</v>
+        <v>49248</v>
       </c>
       <c r="E221" t="n">
         <v>10</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>6985</v>
+        <v>52512</v>
       </c>
       <c r="E222" t="n">
         <v>2</v>
@@ -6228,7 +6228,7 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>6311</v>
+        <v>47448</v>
       </c>
       <c r="E223" t="n">
         <v>10</v>
@@ -6254,7 +6254,7 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>5464</v>
+        <v>41076</v>
       </c>
       <c r="E224" t="n">
         <v>10</v>
@@ -6280,7 +6280,7 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>15207</v>
+        <v>114336</v>
       </c>
       <c r="E225" t="n">
         <v>10</v>
@@ -6306,7 +6306,7 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>8389</v>
+        <v>63072</v>
       </c>
       <c r="E226" t="n">
         <v>10</v>
@@ -6332,7 +6332,7 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>6973</v>
+        <v>52428</v>
       </c>
       <c r="E227" t="n">
         <v>3</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>7612</v>
+        <v>57228</v>
       </c>
       <c r="E228" t="n">
         <v>10</v>
@@ -6384,7 +6384,7 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>8689</v>
+        <v>65328</v>
       </c>
       <c r="E229" t="n">
         <v>10</v>
@@ -6410,7 +6410,7 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>9846</v>
+        <v>74028</v>
       </c>
       <c r="E230" t="n">
         <v>2</v>
@@ -6436,7 +6436,7 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>7320</v>
+        <v>55032</v>
       </c>
       <c r="E231" t="n">
         <v>10</v>
@@ -6462,7 +6462,7 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>7848</v>
+        <v>59004</v>
       </c>
       <c r="E232" t="n">
         <v>10</v>
@@ -6488,7 +6488,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>7479</v>
+        <v>56232</v>
       </c>
       <c r="E233" t="n">
         <v>2</v>
@@ -6514,7 +6514,7 @@
         </is>
       </c>
       <c r="D234" t="n">
-        <v>9470</v>
+        <v>71196</v>
       </c>
       <c r="E234" t="n">
         <v>10</v>
@@ -6540,7 +6540,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>8154</v>
+        <v>61308</v>
       </c>
       <c r="E235" t="n">
         <v>10</v>
@@ -6566,7 +6566,7 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>10145</v>
+        <v>76272</v>
       </c>
       <c r="E236" t="n">
         <v>10</v>
@@ -6592,7 +6592,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>7216</v>
+        <v>54252</v>
       </c>
       <c r="E237" t="n">
         <v>5</v>
@@ -6618,7 +6618,7 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>8869</v>
+        <v>66684</v>
       </c>
       <c r="E238" t="n">
         <v>10</v>
@@ -6644,7 +6644,7 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>6289</v>
+        <v>4728</v>
       </c>
       <c r="E239" t="n">
         <v>10</v>
@@ -6670,7 +6670,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>6300</v>
+        <v>47364</v>
       </c>
       <c r="E240" t="n">
         <v>2</v>
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>6823</v>
+        <v>5130</v>
       </c>
       <c r="E241" t="n">
         <v>10</v>
@@ -6722,7 +6722,7 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>6348</v>
+        <v>47724</v>
       </c>
       <c r="E242" t="n">
         <v>10</v>
@@ -6748,7 +6748,7 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>8228</v>
+        <v>6186</v>
       </c>
       <c r="E243" t="n">
         <v>10</v>
@@ -6774,7 +6774,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>6091</v>
+        <v>45792</v>
       </c>
       <c r="E244" t="n">
         <v>10</v>
@@ -6800,7 +6800,7 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>8472</v>
+        <v>63696</v>
       </c>
       <c r="E245" t="n">
         <v>10</v>
@@ -6826,7 +6826,7 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>6108</v>
+        <v>45924</v>
       </c>
       <c r="E246" t="n">
         <v>10</v>
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>6804</v>
+        <v>51156</v>
       </c>
       <c r="E247" t="n">
         <v>3</v>
@@ -6878,7 +6878,7 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>4259</v>
+        <v>32016</v>
       </c>
       <c r="E248" t="n">
         <v>10</v>
@@ -6904,7 +6904,7 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>4597</v>
+        <v>3456</v>
       </c>
       <c r="E249" t="n">
         <v>10</v>
@@ -6930,7 +6930,7 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>4747</v>
+        <v>35688</v>
       </c>
       <c r="E250" t="n">
         <v>10</v>
@@ -6956,7 +6956,7 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>5853</v>
+        <v>44004</v>
       </c>
       <c r="E251" t="n">
         <v>10</v>
@@ -6982,7 +6982,7 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>4361</v>
+        <v>32784</v>
       </c>
       <c r="E252" t="n">
         <v>10</v>
@@ -7008,7 +7008,7 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>4798</v>
+        <v>36072</v>
       </c>
       <c r="E253" t="n">
         <v>10</v>
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>3625</v>
+        <v>27252</v>
       </c>
       <c r="E254" t="n">
         <v>10</v>
@@ -7060,7 +7060,7 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>5917</v>
+        <v>44484</v>
       </c>
       <c r="E255" t="n">
         <v>10</v>
@@ -7086,7 +7086,7 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>5286</v>
+        <v>39744</v>
       </c>
       <c r="E256" t="n">
         <v>10</v>
@@ -7112,7 +7112,7 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>5933</v>
+        <v>44604</v>
       </c>
       <c r="E257" t="n">
         <v>10</v>
@@ -7138,7 +7138,7 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>9648</v>
+        <v>7254</v>
       </c>
       <c r="E258" t="n">
         <v>6</v>
@@ -7164,7 +7164,7 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>8633</v>
+        <v>64908</v>
       </c>
       <c r="E259" t="n">
         <v>4</v>
@@ -7190,7 +7190,7 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>7272</v>
+        <v>54672</v>
       </c>
       <c r="E260" t="n">
         <v>10</v>
@@ -7216,7 +7216,7 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>6471</v>
+        <v>48648</v>
       </c>
       <c r="E261" t="n">
         <v>10</v>
@@ -7242,7 +7242,7 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>6172</v>
+        <v>46404</v>
       </c>
       <c r="E262" t="n">
         <v>10</v>
@@ -7268,7 +7268,7 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>5887</v>
+        <v>44256</v>
       </c>
       <c r="E263" t="n">
         <v>10</v>
@@ -7294,7 +7294,7 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>9138</v>
+        <v>6870</v>
       </c>
       <c r="E264" t="n">
         <v>10</v>
@@ -7320,7 +7320,7 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>14973</v>
+        <v>112572</v>
       </c>
       <c r="E265" t="n">
         <v>10</v>
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>8258</v>
+        <v>62088</v>
       </c>
       <c r="E266" t="n">
         <v>10</v>
@@ -7372,7 +7372,7 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>14048</v>
+        <v>105624</v>
       </c>
       <c r="E267" t="n">
         <v>10</v>
@@ -7398,7 +7398,7 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>16824</v>
+        <v>126492</v>
       </c>
       <c r="E268" t="n">
         <v>2</v>
@@ -7424,7 +7424,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>16846</v>
+        <v>12666</v>
       </c>
       <c r="E269" t="n">
         <v>10</v>
@@ -7450,7 +7450,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>10901</v>
+        <v>8196</v>
       </c>
       <c r="E270" t="n">
         <v>10</v>
@@ -7476,7 +7476,7 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>8643</v>
+        <v>6498</v>
       </c>
       <c r="E271" t="n">
         <v>1</v>
@@ -7502,7 +7502,7 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>4921</v>
+        <v>36996</v>
       </c>
       <c r="E272" t="n">
         <v>10</v>
@@ -7528,7 +7528,7 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>5090</v>
+        <v>38268</v>
       </c>
       <c r="E273" t="n">
         <v>10</v>
@@ -7554,7 +7554,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>6009</v>
+        <v>4518</v>
       </c>
       <c r="E274" t="n">
         <v>10</v>
@@ -7580,7 +7580,7 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>9731</v>
+        <v>73164</v>
       </c>
       <c r="E275" t="n">
         <v>10</v>
@@ -7606,7 +7606,7 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>6389</v>
+        <v>5916</v>
       </c>
       <c r="E276" t="n">
         <v>10</v>
@@ -7632,7 +7632,7 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>9576</v>
+        <v>7200</v>
       </c>
       <c r="E277" t="n">
         <v>10</v>
@@ -7658,7 +7658,7 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>559</v>
+        <v>420</v>
       </c>
       <c r="E278" t="n">
         <v>10</v>
@@ -7684,7 +7684,7 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>1357</v>
+        <v>1020</v>
       </c>
       <c r="E279" t="n">
         <v>10</v>
@@ -7710,7 +7710,7 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>1197</v>
+        <v>900</v>
       </c>
       <c r="E280" t="n">
         <v>10</v>
@@ -7736,7 +7736,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>1437</v>
+        <v>1080</v>
       </c>
       <c r="E281" t="n">
         <v>10</v>
@@ -7762,7 +7762,7 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>8778</v>
+        <v>6600</v>
       </c>
       <c r="E282" t="n">
         <v>10</v>
@@ -7788,7 +7788,7 @@
         </is>
       </c>
       <c r="D283" t="n">
-        <v>8778</v>
+        <v>6600</v>
       </c>
       <c r="E283" t="n">
         <v>10</v>
@@ -7814,7 +7814,7 @@
         </is>
       </c>
       <c r="D284" t="n">
-        <v>1437</v>
+        <v>1080</v>
       </c>
       <c r="E284" t="n">
         <v>10</v>
@@ -7840,7 +7840,7 @@
         </is>
       </c>
       <c r="D285" t="n">
-        <v>2394</v>
+        <v>1800</v>
       </c>
       <c r="E285" t="n">
         <v>10</v>
@@ -7866,7 +7866,7 @@
         </is>
       </c>
       <c r="D286" t="n">
-        <v>1916</v>
+        <v>1440</v>
       </c>
       <c r="E286" t="n">
         <v>10</v>
@@ -7892,7 +7892,7 @@
         </is>
       </c>
       <c r="D287" t="n">
-        <v>10796</v>
+        <v>9996</v>
       </c>
       <c r="E287" t="n">
         <v>10</v>
@@ -7918,7 +7918,7 @@
         </is>
       </c>
       <c r="D288" t="n">
-        <v>2687</v>
+        <v>20196</v>
       </c>
       <c r="E288" t="n">
         <v>10</v>
@@ -7944,7 +7944,7 @@
         </is>
       </c>
       <c r="D289" t="n">
-        <v>2286</v>
+        <v>17184</v>
       </c>
       <c r="E289" t="n">
         <v>10</v>
@@ -7970,7 +7970,7 @@
         </is>
       </c>
       <c r="D290" t="n">
-        <v>3617</v>
+        <v>27192</v>
       </c>
       <c r="E290" t="n">
         <v>10</v>
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="D291" t="n">
-        <v>1450</v>
+        <v>10896</v>
       </c>
       <c r="E291" t="n">
         <v>10</v>
@@ -8022,7 +8022,7 @@
         </is>
       </c>
       <c r="D292" t="n">
-        <v>2063</v>
+        <v>15504</v>
       </c>
       <c r="E292" t="n">
         <v>10</v>
@@ -8048,7 +8048,7 @@
         </is>
       </c>
       <c r="D293" t="n">
-        <v>2923</v>
+        <v>21972</v>
       </c>
       <c r="E293" t="n">
         <v>10</v>
@@ -8074,7 +8074,7 @@
         </is>
       </c>
       <c r="D294" t="n">
-        <v>1863</v>
+        <v>14004</v>
       </c>
       <c r="E294" t="n">
         <v>10</v>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="D295" t="n">
-        <v>1387</v>
+        <v>10428</v>
       </c>
       <c r="E295" t="n">
         <v>10</v>
@@ -8126,7 +8126,7 @@
         </is>
       </c>
       <c r="D296" t="n">
-        <v>1970</v>
+        <v>14808</v>
       </c>
       <c r="E296" t="n">
         <v>10</v>
@@ -8152,7 +8152,7 @@
         </is>
       </c>
       <c r="D297" t="n">
-        <v>1826</v>
+        <v>13728</v>
       </c>
       <c r="E297" t="n">
         <v>8</v>
@@ -8178,7 +8178,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>1689</v>
+        <v>12696</v>
       </c>
       <c r="E298" t="n">
         <v>10</v>
@@ -8204,7 +8204,7 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>3073</v>
+        <v>2310</v>
       </c>
       <c r="E299" t="n">
         <v>10</v>
@@ -8230,7 +8230,7 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>2613</v>
+        <v>19644</v>
       </c>
       <c r="E300" t="n">
         <v>10</v>
@@ -8256,7 +8256,7 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>1988</v>
+        <v>1494</v>
       </c>
       <c r="E301" t="n">
         <v>10</v>
@@ -8282,7 +8282,7 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>2316</v>
+        <v>17412</v>
       </c>
       <c r="E302" t="n">
         <v>10</v>
@@ -8308,7 +8308,7 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>1774</v>
+        <v>13332</v>
       </c>
       <c r="E303" t="n">
         <v>10</v>
@@ -8334,7 +8334,7 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>1689</v>
+        <v>12696</v>
       </c>
       <c r="E304" t="n">
         <v>10</v>
@@ -8360,7 +8360,7 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1667</v>
+        <v>12528</v>
       </c>
       <c r="E305" t="n">
         <v>10</v>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>1786</v>
+        <v>13428</v>
       </c>
       <c r="E306" t="n">
         <v>10</v>
@@ -8412,7 +8412,7 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>1742</v>
+        <v>13092</v>
       </c>
       <c r="E307" t="n">
         <v>10</v>
@@ -8438,7 +8438,7 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>1636</v>
+        <v>1230</v>
       </c>
       <c r="E308" t="n">
         <v>10</v>
@@ -8464,7 +8464,7 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>1887</v>
+        <v>14184</v>
       </c>
       <c r="E309" t="n">
         <v>10</v>
@@ -8490,7 +8490,7 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>2592</v>
+        <v>19488</v>
       </c>
       <c r="E310" t="n">
         <v>10</v>
@@ -8516,7 +8516,7 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>2540</v>
+        <v>19092</v>
       </c>
       <c r="E311" t="n">
         <v>10</v>
@@ -8542,7 +8542,7 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>1761</v>
+        <v>13236</v>
       </c>
       <c r="E312" t="n">
         <v>10</v>
@@ -8568,7 +8568,7 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>1941</v>
+        <v>14592</v>
       </c>
       <c r="E313" t="n">
         <v>10</v>
@@ -8594,7 +8594,7 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>3234</v>
+        <v>24312</v>
       </c>
       <c r="E314" t="n">
         <v>10</v>
@@ -8620,7 +8620,7 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>1930</v>
+        <v>14508</v>
       </c>
       <c r="E315" t="n">
         <v>10</v>
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>1638</v>
+        <v>12312</v>
       </c>
       <c r="E316" t="n">
         <v>10</v>
@@ -8672,7 +8672,7 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>2715</v>
+        <v>20412</v>
       </c>
       <c r="E317" t="n">
         <v>10</v>
@@ -8698,7 +8698,7 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>2337</v>
+        <v>17568</v>
       </c>
       <c r="E318" t="n">
         <v>10</v>
@@ -8724,7 +8724,7 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>1679</v>
+        <v>12624</v>
       </c>
       <c r="E319" t="n">
         <v>10</v>
@@ -8750,7 +8750,7 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>2474</v>
+        <v>1860</v>
       </c>
       <c r="E320" t="n">
         <v>10</v>
@@ -8776,7 +8776,7 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>1853</v>
+        <v>13932</v>
       </c>
       <c r="E321" t="n">
         <v>10</v>
@@ -8802,7 +8802,7 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>2696</v>
+        <v>20268</v>
       </c>
       <c r="E322" t="n">
         <v>10</v>
@@ -8828,7 +8828,7 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>1860</v>
+        <v>1398</v>
       </c>
       <c r="E323" t="n">
         <v>10</v>
@@ -8854,7 +8854,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>1668</v>
+        <v>1254</v>
       </c>
       <c r="E324" t="n">
         <v>10</v>
@@ -8880,7 +8880,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>2099</v>
+        <v>1578</v>
       </c>
       <c r="E325" t="n">
         <v>10</v>
@@ -8906,7 +8906,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>2214</v>
+        <v>16644</v>
       </c>
       <c r="E326" t="n">
         <v>10</v>
@@ -8932,7 +8932,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>3058</v>
+        <v>22992</v>
       </c>
       <c r="E327" t="n">
         <v>10</v>
@@ -8958,7 +8958,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>2706</v>
+        <v>2034</v>
       </c>
       <c r="E328" t="n">
         <v>10</v>
@@ -8984,7 +8984,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>2474</v>
+        <v>1860</v>
       </c>
       <c r="E329" t="n">
         <v>10</v>
@@ -9010,7 +9010,7 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>2005</v>
+        <v>15072</v>
       </c>
       <c r="E330" t="n">
         <v>10</v>
@@ -9036,7 +9036,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>2581</v>
+        <v>19404</v>
       </c>
       <c r="E331" t="n">
         <v>10</v>
@@ -9062,7 +9062,7 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>1762</v>
+        <v>13248</v>
       </c>
       <c r="E332" t="n">
         <v>10</v>
@@ -9088,7 +9088,7 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>2955</v>
+        <v>22212</v>
       </c>
       <c r="E333" t="n">
         <v>10</v>
@@ -9114,7 +9114,7 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>3622</v>
+        <v>27228</v>
       </c>
       <c r="E334" t="n">
         <v>10</v>
@@ -9140,7 +9140,7 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>1823</v>
+        <v>13704</v>
       </c>
       <c r="E335" t="n">
         <v>10</v>
@@ -9166,7 +9166,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>1327</v>
+        <v>9972</v>
       </c>
       <c r="E336" t="n">
         <v>10</v>
@@ -9192,7 +9192,7 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>1641</v>
+        <v>12336</v>
       </c>
       <c r="E337" t="n">
         <v>10</v>
@@ -9218,7 +9218,7 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>2380</v>
+        <v>17892</v>
       </c>
       <c r="E338" t="n">
         <v>10</v>
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="D339" t="n">
-        <v>1764</v>
+        <v>1326</v>
       </c>
       <c r="E339" t="n">
         <v>10</v>
@@ -9270,7 +9270,7 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>2300</v>
+        <v>17292</v>
       </c>
       <c r="E340" t="n">
         <v>10</v>
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="D341" t="n">
-        <v>2904</v>
+        <v>21828</v>
       </c>
       <c r="E341" t="n">
         <v>10</v>
@@ -9322,7 +9322,7 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>2594</v>
+        <v>1950</v>
       </c>
       <c r="E342" t="n">
         <v>10</v>
@@ -9348,7 +9348,7 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>2337</v>
+        <v>17568</v>
       </c>
       <c r="E343" t="n">
         <v>10</v>
@@ -9374,7 +9374,7 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>5100</v>
+        <v>3834</v>
       </c>
       <c r="E344" t="n">
         <v>10</v>
@@ -9400,7 +9400,7 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>6000</v>
+        <v>45108</v>
       </c>
       <c r="E345" t="n">
         <v>10</v>
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>3105</v>
+        <v>2334</v>
       </c>
       <c r="E346" t="n">
         <v>10</v>
@@ -9452,7 +9452,7 @@
         </is>
       </c>
       <c r="D347" t="n">
-        <v>2125</v>
+        <v>15972</v>
       </c>
       <c r="E347" t="n">
         <v>10</v>
@@ -9478,7 +9478,7 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>1499</v>
+        <v>11268</v>
       </c>
       <c r="E348" t="n">
         <v>10</v>
@@ -9504,7 +9504,7 @@
         </is>
       </c>
       <c r="D349" t="n">
-        <v>2260</v>
+        <v>16992</v>
       </c>
       <c r="E349" t="n">
         <v>10</v>
@@ -9530,7 +9530,7 @@
         </is>
       </c>
       <c r="D350" t="n">
-        <v>3057</v>
+        <v>2298</v>
       </c>
       <c r="E350" t="n">
         <v>10</v>
@@ -9556,7 +9556,7 @@
         </is>
       </c>
       <c r="D351" t="n">
-        <v>3909</v>
+        <v>29388</v>
       </c>
       <c r="E351" t="n">
         <v>10</v>
@@ -9582,7 +9582,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>4356</v>
+        <v>32748</v>
       </c>
       <c r="E352" t="n">
         <v>10</v>
@@ -9608,7 +9608,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>2240</v>
+        <v>16836</v>
       </c>
       <c r="E353" t="n">
         <v>10</v>
@@ -9634,7 +9634,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>3421</v>
+        <v>25716</v>
       </c>
       <c r="E354" t="n">
         <v>10</v>
@@ -9660,7 +9660,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>1620</v>
+        <v>1218</v>
       </c>
       <c r="E355" t="n">
         <v>10</v>
@@ -9686,7 +9686,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>2379</v>
+        <v>1788</v>
       </c>
       <c r="E356" t="n">
         <v>10</v>
@@ -9712,7 +9712,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>2872</v>
+        <v>21588</v>
       </c>
       <c r="E357" t="n">
         <v>10</v>
@@ -9738,7 +9738,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>1991</v>
+        <v>14964</v>
       </c>
       <c r="E358" t="n">
         <v>10</v>
@@ -9764,7 +9764,7 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>3317</v>
+        <v>24936</v>
       </c>
       <c r="E359" t="n">
         <v>10</v>
@@ -9790,7 +9790,7 @@
         </is>
       </c>
       <c r="D360" t="n">
-        <v>2500</v>
+        <v>18792</v>
       </c>
       <c r="E360" t="n">
         <v>10</v>
@@ -9816,7 +9816,7 @@
         </is>
       </c>
       <c r="D361" t="n">
-        <v>15960</v>
+        <v>12000</v>
       </c>
       <c r="E361" t="n">
         <v>10</v>
@@ -9842,7 +9842,7 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>8140</v>
+        <v>6120</v>
       </c>
       <c r="E362" t="n">
         <v>10</v>
@@ -9868,7 +9868,7 @@
         </is>
       </c>
       <c r="D363" t="n">
-        <v>6798</v>
+        <v>51108</v>
       </c>
       <c r="E363" t="n">
         <v>10</v>
@@ -9894,7 +9894,7 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>4926</v>
+        <v>37032</v>
       </c>
       <c r="E364" t="n">
         <v>10</v>
@@ -9920,7 +9920,7 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>5028</v>
+        <v>4656</v>
       </c>
       <c r="E365" t="n">
         <v>10</v>
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>5028</v>
+        <v>4656</v>
       </c>
       <c r="E366" t="n">
         <v>10</v>
@@ -9972,7 +9972,7 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>5586</v>
+        <v>5172</v>
       </c>
       <c r="E367" t="n">
         <v>10</v>
@@ -9998,7 +9998,7 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>4139</v>
+        <v>31116</v>
       </c>
       <c r="E368" t="n">
         <v>7</v>
@@ -10024,7 +10024,7 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>4335</v>
+        <v>32592</v>
       </c>
       <c r="E369" t="n">
         <v>10</v>
@@ -10050,7 +10050,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>4878</v>
+        <v>36672</v>
       </c>
       <c r="E370" t="n">
         <v>10</v>
@@ -10076,7 +10076,7 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>4877</v>
+        <v>45156</v>
       </c>
       <c r="E371" t="n">
         <v>10</v>
@@ -10102,7 +10102,7 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>5617</v>
+        <v>42228</v>
       </c>
       <c r="E372" t="n">
         <v>10</v>
@@ -10128,7 +10128,7 @@
         </is>
       </c>
       <c r="D373" t="n">
-        <v>11331</v>
+        <v>85188</v>
       </c>
       <c r="E373" t="n">
         <v>4</v>
@@ -10154,7 +10154,7 @@
         </is>
       </c>
       <c r="D374" t="n">
-        <v>5962</v>
+        <v>4482</v>
       </c>
       <c r="E374" t="n">
         <v>10</v>
@@ -10180,7 +10180,7 @@
         </is>
       </c>
       <c r="D375" t="n">
-        <v>5095</v>
+        <v>38304</v>
       </c>
       <c r="E375" t="n">
         <v>1</v>
@@ -10206,7 +10206,7 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>5203</v>
+        <v>3912</v>
       </c>
       <c r="E376" t="n">
         <v>10</v>
@@ -10232,7 +10232,7 @@
         </is>
       </c>
       <c r="D377" t="n">
-        <v>4986</v>
+        <v>37488</v>
       </c>
       <c r="E377" t="n">
         <v>10</v>
@@ -10258,7 +10258,7 @@
         </is>
       </c>
       <c r="D378" t="n">
-        <v>5095</v>
+        <v>38304</v>
       </c>
       <c r="E378" t="n">
         <v>10</v>
@@ -10284,7 +10284,7 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>6200</v>
+        <v>4662</v>
       </c>
       <c r="E379" t="n">
         <v>10</v>
@@ -10310,7 +10310,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>5521</v>
+        <v>5112</v>
       </c>
       <c r="E380" t="n">
         <v>10</v>
@@ -10336,7 +10336,7 @@
         </is>
       </c>
       <c r="D381" t="n">
-        <v>7045</v>
+        <v>52968</v>
       </c>
       <c r="E381" t="n">
         <v>10</v>
@@ -10362,7 +10362,7 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>7854</v>
+        <v>7272</v>
       </c>
       <c r="E382" t="n">
         <v>10</v>
@@ -10388,7 +10388,7 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>5988</v>
+        <v>5544</v>
       </c>
       <c r="E383" t="n">
         <v>10</v>
@@ -10414,7 +10414,7 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>6815</v>
+        <v>5124</v>
       </c>
       <c r="E384" t="n">
         <v>10</v>
@@ -10440,7 +10440,7 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>7134</v>
+        <v>5364</v>
       </c>
       <c r="E385" t="n">
         <v>10</v>
@@ -10466,7 +10466,7 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>5857</v>
+        <v>4404</v>
       </c>
       <c r="E386" t="n">
         <v>10</v>
@@ -10492,7 +10492,7 @@
         </is>
       </c>
       <c r="D387" t="n">
-        <v>6368</v>
+        <v>4788</v>
       </c>
       <c r="E387" t="n">
         <v>10</v>
@@ -10518,7 +10518,7 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>5187</v>
+        <v>3900</v>
       </c>
       <c r="E388" t="n">
         <v>10</v>
@@ -10544,7 +10544,7 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>5379</v>
+        <v>4044</v>
       </c>
       <c r="E389" t="n">
         <v>10</v>
@@ -10570,7 +10570,7 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>7166</v>
+        <v>5388</v>
       </c>
       <c r="E390" t="n">
         <v>10</v>
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>4932</v>
+        <v>3708</v>
       </c>
       <c r="E391" t="n">
         <v>10</v>
@@ -10622,7 +10622,7 @@
         </is>
       </c>
       <c r="D392" t="n">
-        <v>7788</v>
+        <v>5856</v>
       </c>
       <c r="E392" t="n">
         <v>10</v>
@@ -10648,7 +10648,7 @@
         </is>
       </c>
       <c r="D393" t="n">
-        <v>6943</v>
+        <v>5220</v>
       </c>
       <c r="E393" t="n">
         <v>10</v>
@@ -10674,7 +10674,7 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>5889</v>
+        <v>4428</v>
       </c>
       <c r="E394" t="n">
         <v>10</v>
@@ -10700,7 +10700,7 @@
         </is>
       </c>
       <c r="D395" t="n">
-        <v>5650</v>
+        <v>4248</v>
       </c>
       <c r="E395" t="n">
         <v>10</v>
@@ -10726,7 +10726,7 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>6240</v>
+        <v>4692</v>
       </c>
       <c r="E396" t="n">
         <v>10</v>
@@ -10752,7 +10752,7 @@
         </is>
       </c>
       <c r="D397" t="n">
-        <v>7038</v>
+        <v>5292</v>
       </c>
       <c r="E397" t="n">
         <v>10</v>
@@ -10778,7 +10778,7 @@
         </is>
       </c>
       <c r="D398" t="n">
-        <v>6831</v>
+        <v>5136</v>
       </c>
       <c r="E398" t="n">
         <v>10</v>
@@ -10804,7 +10804,7 @@
         </is>
       </c>
       <c r="D399" t="n">
-        <v>7980</v>
+        <v>6000</v>
       </c>
       <c r="E399" t="n">
         <v>4</v>
@@ -10830,7 +10830,7 @@
         </is>
       </c>
       <c r="D400" t="n">
-        <v>4389</v>
+        <v>3300</v>
       </c>
       <c r="E400" t="n">
         <v>10</v>
@@ -10856,7 +10856,7 @@
         </is>
       </c>
       <c r="D401" t="n">
-        <v>1156</v>
+        <v>10704</v>
       </c>
       <c r="E401" t="n">
         <v>10</v>
@@ -10882,7 +10882,7 @@
         </is>
       </c>
       <c r="D402" t="n">
-        <v>926</v>
+        <v>696</v>
       </c>
       <c r="E402" t="n">
         <v>10</v>
@@ -10908,7 +10908,7 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>958</v>
+        <v>720</v>
       </c>
       <c r="E403" t="n">
         <v>10</v>
@@ -10934,7 +10934,7 @@
         </is>
       </c>
       <c r="D404" t="n">
-        <v>9576</v>
+        <v>7200</v>
       </c>
       <c r="E404" t="n">
         <v>10</v>
@@ -10960,7 +10960,7 @@
         </is>
       </c>
       <c r="D405" t="n">
-        <v>7502</v>
+        <v>5640</v>
       </c>
       <c r="E405" t="n">
         <v>10</v>
@@ -10986,7 +10986,7 @@
         </is>
       </c>
       <c r="D406" t="n">
-        <v>5600</v>
+        <v>4212</v>
       </c>
       <c r="E406" t="n">
         <v>10</v>
@@ -11012,7 +11012,7 @@
         </is>
       </c>
       <c r="D407" t="n">
-        <v>7428</v>
+        <v>55848</v>
       </c>
       <c r="E407" t="n">
         <v>10</v>
@@ -11038,7 +11038,7 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>16294</v>
+        <v>122508</v>
       </c>
       <c r="E408" t="n">
         <v>10</v>
@@ -11064,7 +11064,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>7494</v>
+        <v>5634</v>
       </c>
       <c r="E409" t="n">
         <v>10</v>
@@ -11090,7 +11090,7 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>8474</v>
+        <v>63708</v>
       </c>
       <c r="E410" t="n">
         <v>10</v>
@@ -11116,7 +11116,7 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>7388</v>
+        <v>55548</v>
       </c>
       <c r="E411" t="n">
         <v>10</v>
@@ -11142,7 +11142,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>6614</v>
+        <v>49728</v>
       </c>
       <c r="E412" t="n">
         <v>10</v>
@@ -11168,7 +11168,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>3855</v>
+        <v>2898</v>
       </c>
       <c r="E413" t="n">
         <v>10</v>
@@ -11194,7 +11194,7 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>4420</v>
+        <v>33228</v>
       </c>
       <c r="E414" t="n">
         <v>10</v>
@@ -11220,7 +11220,7 @@
         </is>
       </c>
       <c r="D415" t="n">
-        <v>5596</v>
+        <v>42072</v>
       </c>
       <c r="E415" t="n">
         <v>10</v>
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="D416" t="n">
-        <v>4262</v>
+        <v>3204</v>
       </c>
       <c r="E416" t="n">
         <v>10</v>
@@ -11272,7 +11272,7 @@
         </is>
       </c>
       <c r="D417" t="n">
-        <v>3753</v>
+        <v>28212</v>
       </c>
       <c r="E417" t="n">
         <v>10</v>
@@ -11298,7 +11298,7 @@
         </is>
       </c>
       <c r="D418" t="n">
-        <v>6286</v>
+        <v>47256</v>
       </c>
       <c r="E418" t="n">
         <v>10</v>
@@ -11324,7 +11324,7 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>8445</v>
+        <v>63492</v>
       </c>
       <c r="E419" t="n">
         <v>10</v>
@@ -11350,7 +11350,7 @@
         </is>
       </c>
       <c r="D420" t="n">
-        <v>5580</v>
+        <v>41952</v>
       </c>
       <c r="E420" t="n">
         <v>10</v>
@@ -11376,7 +11376,7 @@
         </is>
       </c>
       <c r="D421" t="n">
-        <v>4176</v>
+        <v>31392</v>
       </c>
       <c r="E421" t="n">
         <v>10</v>
@@ -11402,7 +11402,7 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>4260</v>
+        <v>32028</v>
       </c>
       <c r="E422" t="n">
         <v>10</v>
@@ -11428,7 +11428,7 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>4729</v>
+        <v>35556</v>
       </c>
       <c r="E423" t="n">
         <v>10</v>
@@ -11454,7 +11454,7 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>6523</v>
+        <v>49044</v>
       </c>
       <c r="E424" t="n">
         <v>10</v>
@@ -11480,7 +11480,7 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>8689</v>
+        <v>65328</v>
       </c>
       <c r="E425" t="n">
         <v>10</v>
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>9846</v>
+        <v>74028</v>
       </c>
       <c r="E426" t="n">
         <v>10</v>
@@ -11532,7 +11532,7 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>7677</v>
+        <v>5772</v>
       </c>
       <c r="E427" t="n">
         <v>10</v>
@@ -11558,7 +11558,7 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>8239</v>
+        <v>61944</v>
       </c>
       <c r="E428" t="n">
         <v>10</v>
@@ -11584,7 +11584,7 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>6501</v>
+        <v>48876</v>
       </c>
       <c r="E429" t="n">
         <v>10</v>
@@ -11610,7 +11610,7 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>14119</v>
+        <v>106152</v>
       </c>
       <c r="E430" t="n">
         <v>10</v>
@@ -11636,7 +11636,7 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>16112</v>
+        <v>12114</v>
       </c>
       <c r="E431" t="n">
         <v>10</v>
@@ -11662,7 +11662,7 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>15906</v>
+        <v>119592</v>
       </c>
       <c r="E432" t="n">
         <v>10</v>
@@ -11688,7 +11688,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>5467</v>
+        <v>4110</v>
       </c>
       <c r="E433" t="n">
         <v>10</v>
@@ -11714,7 +11714,7 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>9589</v>
+        <v>72096</v>
       </c>
       <c r="E434" t="n">
         <v>10</v>
@@ -11740,7 +11740,7 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>9695</v>
+        <v>72888</v>
       </c>
       <c r="E435" t="n">
         <v>10</v>
@@ -11766,7 +11766,7 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>7800</v>
+        <v>58644</v>
       </c>
       <c r="E436" t="n">
         <v>10</v>
@@ -11792,7 +11792,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>7617</v>
+        <v>57264</v>
       </c>
       <c r="E437" t="n">
         <v>10</v>
@@ -11818,7 +11818,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>3716</v>
+        <v>27936</v>
       </c>
       <c r="E438" t="n">
         <v>10</v>
@@ -11844,7 +11844,7 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>3848</v>
+        <v>28932</v>
       </c>
       <c r="E439" t="n">
         <v>10</v>
@@ -11870,7 +11870,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>5901</v>
+        <v>44364</v>
       </c>
       <c r="E440" t="n">
         <v>10</v>
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>7601</v>
+        <v>57144</v>
       </c>
       <c r="E441" t="n">
         <v>10</v>
@@ -11922,7 +11922,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>9936</v>
+        <v>7470</v>
       </c>
       <c r="E442" t="n">
         <v>10</v>
@@ -11948,7 +11948,7 @@
         </is>
       </c>
       <c r="D443" t="n">
-        <v>16824</v>
+        <v>126492</v>
       </c>
       <c r="E443" t="n">
         <v>10</v>
@@ -11974,7 +11974,7 @@
         </is>
       </c>
       <c r="D444" t="n">
-        <v>7221</v>
+        <v>54288</v>
       </c>
       <c r="E444" t="n">
         <v>10</v>
@@ -12000,7 +12000,7 @@
         </is>
       </c>
       <c r="D445" t="n">
-        <v>5172</v>
+        <v>3888</v>
       </c>
       <c r="E445" t="n">
         <v>10</v>
@@ -12026,7 +12026,7 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>8494</v>
+        <v>63864</v>
       </c>
       <c r="E446" t="n">
         <v>10</v>
@@ -12052,7 +12052,7 @@
         </is>
       </c>
       <c r="D447" t="n">
-        <v>8943</v>
+        <v>67236</v>
       </c>
       <c r="E447" t="n">
         <v>10</v>
@@ -12078,7 +12078,7 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>9101</v>
+        <v>68424</v>
       </c>
       <c r="E448" t="n">
         <v>10</v>
@@ -12104,7 +12104,7 @@
         </is>
       </c>
       <c r="D449" t="n">
-        <v>11650</v>
+        <v>87588</v>
       </c>
       <c r="E449" t="n">
         <v>10</v>
@@ -12130,7 +12130,7 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>11128</v>
+        <v>83664</v>
       </c>
       <c r="E450" t="n">
         <v>10</v>
@@ -12156,7 +12156,7 @@
         </is>
       </c>
       <c r="D451" t="n">
-        <v>10604</v>
+        <v>79728</v>
       </c>
       <c r="E451" t="n">
         <v>10</v>
@@ -12182,7 +12182,7 @@
         </is>
       </c>
       <c r="D452" t="n">
-        <v>8769</v>
+        <v>65928</v>
       </c>
       <c r="E452" t="n">
         <v>10</v>
@@ -12208,7 +12208,7 @@
         </is>
       </c>
       <c r="D453" t="n">
-        <v>7953</v>
+        <v>59796</v>
       </c>
       <c r="E453" t="n">
         <v>10</v>
@@ -12234,7 +12234,7 @@
         </is>
       </c>
       <c r="D454" t="n">
-        <v>7636</v>
+        <v>57408</v>
       </c>
       <c r="E454" t="n">
         <v>10</v>
@@ -12260,7 +12260,7 @@
         </is>
       </c>
       <c r="D455" t="n">
-        <v>7489</v>
+        <v>56304</v>
       </c>
       <c r="E455" t="n">
         <v>10</v>
@@ -12286,7 +12286,7 @@
         </is>
       </c>
       <c r="D456" t="n">
-        <v>9554</v>
+        <v>71832</v>
       </c>
       <c r="E456" t="n">
         <v>10</v>
@@ -12312,7 +12312,7 @@
         </is>
       </c>
       <c r="D457" t="n">
-        <v>8360</v>
+        <v>62856</v>
       </c>
       <c r="E457" t="n">
         <v>10</v>
@@ -12338,7 +12338,7 @@
         </is>
       </c>
       <c r="D458" t="n">
-        <v>7380</v>
+        <v>55488</v>
       </c>
       <c r="E458" t="n">
         <v>10</v>
@@ -12364,7 +12364,7 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>5462</v>
+        <v>41064</v>
       </c>
       <c r="E459" t="n">
         <v>10</v>
@@ -12390,7 +12390,7 @@
         </is>
       </c>
       <c r="D460" t="n">
-        <v>5100</v>
+        <v>3834</v>
       </c>
       <c r="E460" t="n">
         <v>10</v>
@@ -12416,7 +12416,7 @@
         </is>
       </c>
       <c r="D461" t="n">
-        <v>8778</v>
+        <v>6600</v>
       </c>
       <c r="E461" t="n">
         <v>10</v>
@@ -12442,7 +12442,7 @@
         </is>
       </c>
       <c r="D462" t="n">
-        <v>8778</v>
+        <v>6600</v>
       </c>
       <c r="E462" t="n">
         <v>10</v>
@@ -12468,7 +12468,7 @@
         </is>
       </c>
       <c r="D463" t="n">
-        <v>6286</v>
+        <v>5820</v>
       </c>
       <c r="E463" t="n">
         <v>10</v>
@@ -12494,7 +12494,7 @@
         </is>
       </c>
       <c r="D464" t="n">
-        <v>11172</v>
+        <v>8400</v>
       </c>
       <c r="E464" t="n">
         <v>10</v>
@@ -12520,7 +12520,7 @@
         </is>
       </c>
       <c r="D465" t="n">
-        <v>7933</v>
+        <v>5964</v>
       </c>
       <c r="E465" t="n">
         <v>10</v>
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="D466" t="n">
-        <v>9576</v>
+        <v>7200</v>
       </c>
       <c r="E466" t="n">
         <v>10</v>
@@ -12572,7 +12572,7 @@
         </is>
       </c>
       <c r="D467" t="n">
-        <v>559</v>
+        <v>420</v>
       </c>
       <c r="E467" t="n">
         <v>10</v>
@@ -12598,7 +12598,7 @@
         </is>
       </c>
       <c r="D468" t="n">
-        <v>690</v>
+        <v>5184</v>
       </c>
       <c r="E468" t="n">
         <v>10</v>
@@ -12624,7 +12624,7 @@
         </is>
       </c>
       <c r="D469" t="n">
-        <v>735</v>
+        <v>552</v>
       </c>
       <c r="E469" t="n">
         <v>10</v>
@@ -12650,7 +12650,7 @@
         </is>
       </c>
       <c r="D470" t="n">
-        <v>735</v>
+        <v>552</v>
       </c>
       <c r="E470" t="n">
         <v>10</v>
@@ -12676,7 +12676,7 @@
         </is>
       </c>
       <c r="D471" t="n">
-        <v>735</v>
+        <v>552</v>
       </c>
       <c r="E471" t="n">
         <v>10</v>
@@ -12702,7 +12702,7 @@
         </is>
       </c>
       <c r="D472" t="n">
-        <v>775</v>
+        <v>582</v>
       </c>
       <c r="E472" t="n">
         <v>10</v>
@@ -12728,7 +12728,7 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>775</v>
+        <v>582</v>
       </c>
       <c r="E473" t="n">
         <v>10</v>
@@ -12754,7 +12754,7 @@
         </is>
       </c>
       <c r="D474" t="n">
-        <v>853</v>
+        <v>6408</v>
       </c>
       <c r="E474" t="n">
         <v>10</v>
@@ -12780,7 +12780,7 @@
         </is>
       </c>
       <c r="D475" t="n">
-        <v>894</v>
+        <v>672</v>
       </c>
       <c r="E475" t="n">
         <v>10</v>
@@ -12806,7 +12806,7 @@
         </is>
       </c>
       <c r="D476" t="n">
-        <v>398</v>
+        <v>2988</v>
       </c>
       <c r="E476" t="n">
         <v>10</v>
@@ -12832,7 +12832,7 @@
         </is>
       </c>
       <c r="D477" t="n">
-        <v>398</v>
+        <v>2988</v>
       </c>
       <c r="E477" t="n">
         <v>10</v>
@@ -12858,7 +12858,7 @@
         </is>
       </c>
       <c r="D478" t="n">
-        <v>444</v>
+        <v>3336</v>
       </c>
       <c r="E478" t="n">
         <v>10</v>
@@ -12884,7 +12884,7 @@
         </is>
       </c>
       <c r="D479" t="n">
-        <v>444</v>
+        <v>3336</v>
       </c>
       <c r="E479" t="n">
         <v>10</v>
@@ -12910,7 +12910,7 @@
         </is>
       </c>
       <c r="D480" t="n">
-        <v>444</v>
+        <v>3336</v>
       </c>
       <c r="E480" t="n">
         <v>10</v>
@@ -12936,7 +12936,7 @@
         </is>
       </c>
       <c r="D481" t="n">
-        <v>444</v>
+        <v>3336</v>
       </c>
       <c r="E481" t="n">
         <v>10</v>
@@ -12962,7 +12962,7 @@
         </is>
       </c>
       <c r="D482" t="n">
-        <v>468</v>
+        <v>3516</v>
       </c>
       <c r="E482" t="n">
         <v>10</v>
@@ -12988,7 +12988,7 @@
         </is>
       </c>
       <c r="D483" t="n">
-        <v>468</v>
+        <v>3516</v>
       </c>
       <c r="E483" t="n">
         <v>10</v>
@@ -13014,7 +13014,7 @@
         </is>
       </c>
       <c r="D484" t="n">
-        <v>468</v>
+        <v>3516</v>
       </c>
       <c r="E484" t="n">
         <v>10</v>
@@ -13040,7 +13040,7 @@
         </is>
       </c>
       <c r="D485" t="n">
-        <v>514</v>
+        <v>3864</v>
       </c>
       <c r="E485" t="n">
         <v>10</v>
@@ -13066,7 +13066,7 @@
         </is>
       </c>
       <c r="D486" t="n">
-        <v>540</v>
+        <v>4056</v>
       </c>
       <c r="E486" t="n">
         <v>10</v>
@@ -13092,7 +13092,7 @@
         </is>
       </c>
       <c r="D487" t="n">
-        <v>540</v>
+        <v>4056</v>
       </c>
       <c r="E487" t="n">
         <v>10</v>
@@ -13118,7 +13118,7 @@
         </is>
       </c>
       <c r="D488" t="n">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="E488" t="n">
         <v>10</v>
@@ -13144,7 +13144,7 @@
         </is>
       </c>
       <c r="D489" t="n">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="E489" t="n">
         <v>10</v>
@@ -13170,7 +13170,7 @@
         </is>
       </c>
       <c r="D490" t="n">
-        <v>487</v>
+        <v>366</v>
       </c>
       <c r="E490" t="n">
         <v>10</v>
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="D491" t="n">
-        <v>382</v>
+        <v>2868</v>
       </c>
       <c r="E491" t="n">
         <v>10</v>
@@ -13222,7 +13222,7 @@
         </is>
       </c>
       <c r="D492" t="n">
-        <v>0</v>
+        <v>2952</v>
       </c>
       <c r="E492" t="n">
         <v>10</v>
@@ -13248,7 +13248,7 @@
         </is>
       </c>
       <c r="D493" t="n">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="E493" t="n">
         <v>10</v>
@@ -13274,7 +13274,7 @@
         </is>
       </c>
       <c r="D494" t="n">
-        <v>567</v>
+        <v>426</v>
       </c>
       <c r="E494" t="n">
         <v>10</v>
@@ -13300,7 +13300,7 @@
         </is>
       </c>
       <c r="D495" t="n">
-        <v>567</v>
+        <v>426</v>
       </c>
       <c r="E495" t="n">
         <v>10</v>
@@ -13326,7 +13326,7 @@
         </is>
       </c>
       <c r="D496" t="n">
-        <v>567</v>
+        <v>426</v>
       </c>
       <c r="E496" t="n">
         <v>10</v>
@@ -13352,7 +13352,7 @@
         </is>
       </c>
       <c r="D497" t="n">
-        <v>567</v>
+        <v>426</v>
       </c>
       <c r="E497" t="n">
         <v>10</v>
@@ -13378,7 +13378,7 @@
         </is>
       </c>
       <c r="D498" t="n">
-        <v>567</v>
+        <v>426</v>
       </c>
       <c r="E498" t="n">
         <v>10</v>
@@ -13404,7 +13404,7 @@
         </is>
       </c>
       <c r="D499" t="n">
-        <v>596</v>
+        <v>4476</v>
       </c>
       <c r="E499" t="n">
         <v>10</v>
@@ -13430,7 +13430,7 @@
         </is>
       </c>
       <c r="D500" t="n">
-        <v>655</v>
+        <v>492</v>
       </c>
       <c r="E500" t="n">
         <v>10</v>
@@ -13456,7 +13456,7 @@
         </is>
       </c>
       <c r="D501" t="n">
-        <v>690</v>
+        <v>5184</v>
       </c>
       <c r="E501" t="n">
         <v>10</v>
@@ -13482,7 +13482,7 @@
         </is>
       </c>
       <c r="D502" t="n">
-        <v>958</v>
+        <v>720</v>
       </c>
       <c r="E502" t="n">
         <v>10</v>
@@ -13508,7 +13508,7 @@
         </is>
       </c>
       <c r="D503" t="n">
-        <v>958</v>
+        <v>720</v>
       </c>
       <c r="E503" t="n">
         <v>10</v>
@@ -13534,7 +13534,7 @@
         </is>
       </c>
       <c r="D504" t="n">
-        <v>1884</v>
+        <v>1416</v>
       </c>
       <c r="E504" t="n">
         <v>10</v>

--- a/price_for_emex.xlsx
+++ b/price_for_emex.xlsx
@@ -870,7 +870,7 @@
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="n">
-        <v>77076</v>
+        <v>7708</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -924,7 +924,7 @@
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="n">
-        <v>123408</v>
+        <v>12341</v>
       </c>
       <c r="E27" t="n">
         <v>10</v>
@@ -978,7 +978,7 @@
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="n">
-        <v>11532</v>
+        <v>1153</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -996,7 +996,7 @@
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="n">
-        <v>24312</v>
+        <v>2431</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -1014,7 +1014,7 @@
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="n">
-        <v>24312</v>
+        <v>2431</v>
       </c>
       <c r="E32" t="n">
         <v>10</v>
@@ -1032,7 +1032,7 @@
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="n">
-        <v>22992</v>
+        <v>2299</v>
       </c>
       <c r="E33" t="n">
         <v>2</v>
@@ -1050,7 +1050,7 @@
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="n">
-        <v>22992</v>
+        <v>2299</v>
       </c>
       <c r="E34" t="n">
         <v>2</v>
@@ -1068,7 +1068,7 @@
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="n">
-        <v>22212</v>
+        <v>2221</v>
       </c>
       <c r="E35" t="n">
         <v>10</v>
@@ -1086,7 +1086,7 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>22212</v>
+        <v>2221</v>
       </c>
       <c r="E36" t="n">
         <v>10</v>
@@ -1104,7 +1104,7 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>13704</v>
+        <v>1370</v>
       </c>
       <c r="E37" t="n">
         <v>10</v>
@@ -1122,7 +1122,7 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>13704</v>
+        <v>1370</v>
       </c>
       <c r="E38" t="n">
         <v>10</v>
@@ -1212,7 +1212,7 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>6924</v>
+        <v>692</v>
       </c>
       <c r="E43" t="n">
         <v>10</v>
@@ -1230,7 +1230,7 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
-        <v>6468</v>
+        <v>647</v>
       </c>
       <c r="E44" t="n">
         <v>10</v>
@@ -1248,7 +1248,7 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
-        <v>10188</v>
+        <v>1019</v>
       </c>
       <c r="E45" t="n">
         <v>10</v>
@@ -1284,7 +1284,7 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="n">
-        <v>5484</v>
+        <v>548</v>
       </c>
       <c r="E47" t="n">
         <v>10</v>
@@ -1302,7 +1302,7 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="n">
-        <v>6528</v>
+        <v>653</v>
       </c>
       <c r="E48" t="n">
         <v>10</v>
@@ -1320,7 +1320,7 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="n">
-        <v>6528</v>
+        <v>653</v>
       </c>
       <c r="E49" t="n">
         <v>10</v>
@@ -1338,7 +1338,7 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="n">
-        <v>5244</v>
+        <v>524</v>
       </c>
       <c r="E50" t="n">
         <v>10</v>
@@ -1356,7 +1356,7 @@
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="n">
-        <v>4848</v>
+        <v>485</v>
       </c>
       <c r="E51" t="n">
         <v>10</v>
@@ -1374,7 +1374,7 @@
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="n">
-        <v>5316</v>
+        <v>532</v>
       </c>
       <c r="E52" t="n">
         <v>10</v>
@@ -1392,7 +1392,7 @@
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="n">
-        <v>5856</v>
+        <v>586</v>
       </c>
       <c r="E53" t="n">
         <v>10</v>
@@ -1428,7 +1428,7 @@
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
-        <v>6864</v>
+        <v>686</v>
       </c>
       <c r="E55" t="n">
         <v>10</v>
@@ -1446,7 +1446,7 @@
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="n">
-        <v>7944</v>
+        <v>794</v>
       </c>
       <c r="E56" t="n">
         <v>10</v>
@@ -1464,7 +1464,7 @@
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="n">
-        <v>6852</v>
+        <v>685</v>
       </c>
       <c r="E57" t="n">
         <v>10</v>
@@ -1482,7 +1482,7 @@
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="n">
-        <v>6324</v>
+        <v>632</v>
       </c>
       <c r="E58" t="n">
         <v>10</v>
@@ -1500,7 +1500,7 @@
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="n">
-        <v>15924</v>
+        <v>1592</v>
       </c>
       <c r="E59" t="n">
         <v>10</v>
@@ -1518,7 +1518,7 @@
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="n">
-        <v>10752</v>
+        <v>1075</v>
       </c>
       <c r="E60" t="n">
         <v>10</v>
@@ -1536,7 +1536,7 @@
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="n">
-        <v>6096</v>
+        <v>610</v>
       </c>
       <c r="E61" t="n">
         <v>10</v>
@@ -1590,7 +1590,7 @@
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="n">
-        <v>5016</v>
+        <v>502</v>
       </c>
       <c r="E64" t="n">
         <v>10</v>
@@ -1608,7 +1608,7 @@
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="n">
-        <v>12012</v>
+        <v>1201</v>
       </c>
       <c r="E65" t="n">
         <v>10</v>
@@ -1626,7 +1626,7 @@
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="n">
-        <v>13032</v>
+        <v>1303</v>
       </c>
       <c r="E66" t="n">
         <v>10</v>
@@ -1644,7 +1644,7 @@
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="n">
-        <v>7056</v>
+        <v>706</v>
       </c>
       <c r="E67" t="n">
         <v>10</v>
@@ -1662,7 +1662,7 @@
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="n">
-        <v>5832</v>
+        <v>583</v>
       </c>
       <c r="E68" t="n">
         <v>10</v>
@@ -1716,7 +1716,7 @@
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="n">
-        <v>5616</v>
+        <v>562</v>
       </c>
       <c r="E71" t="n">
         <v>10</v>
@@ -1734,7 +1734,7 @@
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="n">
-        <v>6432</v>
+        <v>643</v>
       </c>
       <c r="E72" t="n">
         <v>10</v>
@@ -1752,7 +1752,7 @@
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="n">
-        <v>7176</v>
+        <v>718</v>
       </c>
       <c r="E73" t="n">
         <v>10</v>
@@ -1770,7 +1770,7 @@
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="n">
-        <v>6516</v>
+        <v>652</v>
       </c>
       <c r="E74" t="n">
         <v>10</v>
@@ -1806,7 +1806,7 @@
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="n">
-        <v>7572</v>
+        <v>757</v>
       </c>
       <c r="E76" t="n">
         <v>10</v>
@@ -1824,7 +1824,7 @@
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="n">
-        <v>12144</v>
+        <v>1214</v>
       </c>
       <c r="E77" t="n">
         <v>10</v>
@@ -1842,7 +1842,7 @@
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="n">
-        <v>7488</v>
+        <v>749</v>
       </c>
       <c r="E78" t="n">
         <v>10</v>
@@ -1860,7 +1860,7 @@
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="n">
-        <v>8292</v>
+        <v>829</v>
       </c>
       <c r="E79" t="n">
         <v>10</v>
@@ -1914,7 +1914,7 @@
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="n">
-        <v>10728</v>
+        <v>1073</v>
       </c>
       <c r="E82" t="n">
         <v>10</v>
@@ -1932,7 +1932,7 @@
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="n">
-        <v>8976</v>
+        <v>898</v>
       </c>
       <c r="E83" t="n">
         <v>10</v>
@@ -1950,7 +1950,7 @@
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="n">
-        <v>5184</v>
+        <v>518</v>
       </c>
       <c r="E84" t="n">
         <v>10</v>
@@ -1968,7 +1968,7 @@
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="n">
-        <v>6684</v>
+        <v>668</v>
       </c>
       <c r="E85" t="n">
         <v>10</v>
@@ -2004,7 +2004,7 @@
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="n">
-        <v>6684</v>
+        <v>668</v>
       </c>
       <c r="E87" t="n">
         <v>10</v>
@@ -2022,7 +2022,7 @@
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="n">
-        <v>5628</v>
+        <v>563</v>
       </c>
       <c r="E88" t="n">
         <v>10</v>
@@ -2040,7 +2040,7 @@
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="n">
-        <v>5424</v>
+        <v>542</v>
       </c>
       <c r="E89" t="n">
         <v>10</v>
@@ -2058,7 +2058,7 @@
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="n">
-        <v>5952</v>
+        <v>595</v>
       </c>
       <c r="E90" t="n">
         <v>10</v>
@@ -2094,7 +2094,7 @@
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="n">
-        <v>6288</v>
+        <v>629</v>
       </c>
       <c r="E92" t="n">
         <v>10</v>
@@ -2112,7 +2112,7 @@
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="n">
-        <v>6792</v>
+        <v>679</v>
       </c>
       <c r="E93" t="n">
         <v>10</v>
@@ -2130,7 +2130,7 @@
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="n">
-        <v>6276</v>
+        <v>628</v>
       </c>
       <c r="E94" t="n">
         <v>10</v>
@@ -2166,7 +2166,7 @@
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="n">
-        <v>7488</v>
+        <v>749</v>
       </c>
       <c r="E96" t="n">
         <v>10</v>
@@ -2184,7 +2184,7 @@
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="n">
-        <v>6576</v>
+        <v>658</v>
       </c>
       <c r="E97" t="n">
         <v>10</v>
@@ -2220,7 +2220,7 @@
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="n">
-        <v>6108</v>
+        <v>611</v>
       </c>
       <c r="E99" t="n">
         <v>10</v>
@@ -2238,7 +2238,7 @@
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="n">
-        <v>5472</v>
+        <v>547</v>
       </c>
       <c r="E100" t="n">
         <v>10</v>
@@ -2256,7 +2256,7 @@
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="n">
-        <v>6096</v>
+        <v>610</v>
       </c>
       <c r="E101" t="n">
         <v>10</v>
@@ -2274,7 +2274,7 @@
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="n">
-        <v>7212</v>
+        <v>721</v>
       </c>
       <c r="E102" t="n">
         <v>10</v>
@@ -2292,7 +2292,7 @@
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="n">
-        <v>7212</v>
+        <v>721</v>
       </c>
       <c r="E103" t="n">
         <v>10</v>
@@ -2310,7 +2310,7 @@
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="n">
-        <v>8304</v>
+        <v>830</v>
       </c>
       <c r="E104" t="n">
         <v>10</v>
@@ -2328,7 +2328,7 @@
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="n">
-        <v>5532</v>
+        <v>553</v>
       </c>
       <c r="E105" t="n">
         <v>10</v>
@@ -2364,7 +2364,7 @@
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="n">
-        <v>6864</v>
+        <v>686</v>
       </c>
       <c r="E107" t="n">
         <v>10</v>
@@ -2382,7 +2382,7 @@
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="n">
-        <v>6732</v>
+        <v>673</v>
       </c>
       <c r="E108" t="n">
         <v>10</v>
@@ -2400,7 +2400,7 @@
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="n">
-        <v>4704</v>
+        <v>470</v>
       </c>
       <c r="E109" t="n">
         <v>10</v>
@@ -2418,7 +2418,7 @@
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="n">
-        <v>5316</v>
+        <v>532</v>
       </c>
       <c r="E110" t="n">
         <v>10</v>
@@ -2436,7 +2436,7 @@
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="n">
-        <v>5652</v>
+        <v>565</v>
       </c>
       <c r="E111" t="n">
         <v>10</v>
@@ -2454,7 +2454,7 @@
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="n">
-        <v>5496</v>
+        <v>550</v>
       </c>
       <c r="E112" t="n">
         <v>10</v>
@@ -2472,7 +2472,7 @@
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="n">
-        <v>5724</v>
+        <v>572</v>
       </c>
       <c r="E113" t="n">
         <v>10</v>
@@ -2490,7 +2490,7 @@
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="n">
-        <v>5868</v>
+        <v>587</v>
       </c>
       <c r="E114" t="n">
         <v>10</v>
@@ -2508,7 +2508,7 @@
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="n">
-        <v>6924</v>
+        <v>692</v>
       </c>
       <c r="E115" t="n">
         <v>10</v>
@@ -2526,7 +2526,7 @@
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="n">
-        <v>6348</v>
+        <v>635</v>
       </c>
       <c r="E116" t="n">
         <v>10</v>
@@ -2544,7 +2544,7 @@
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="n">
-        <v>6936</v>
+        <v>694</v>
       </c>
       <c r="E117" t="n">
         <v>10</v>
@@ -2580,7 +2580,7 @@
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="n">
-        <v>8748</v>
+        <v>875</v>
       </c>
       <c r="E119" t="n">
         <v>10</v>
@@ -2598,7 +2598,7 @@
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="n">
-        <v>7836</v>
+        <v>784</v>
       </c>
       <c r="E120" t="n">
         <v>10</v>
@@ -2616,7 +2616,7 @@
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="n">
-        <v>5844</v>
+        <v>584</v>
       </c>
       <c r="E121" t="n">
         <v>10</v>
@@ -2634,7 +2634,7 @@
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="n">
-        <v>6288</v>
+        <v>629</v>
       </c>
       <c r="E122" t="n">
         <v>10</v>
@@ -2688,7 +2688,7 @@
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="n">
-        <v>5808</v>
+        <v>581</v>
       </c>
       <c r="E125" t="n">
         <v>10</v>
@@ -2706,7 +2706,7 @@
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="n">
-        <v>8736</v>
+        <v>874</v>
       </c>
       <c r="E126" t="n">
         <v>10</v>
@@ -2724,7 +2724,7 @@
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="inlineStr"/>
       <c r="D127" t="n">
-        <v>6012</v>
+        <v>601</v>
       </c>
       <c r="E127" t="n">
         <v>10</v>
@@ -2760,7 +2760,7 @@
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr"/>
       <c r="D129" t="n">
-        <v>6024</v>
+        <v>602</v>
       </c>
       <c r="E129" t="n">
         <v>10</v>
@@ -2778,7 +2778,7 @@
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr"/>
       <c r="D130" t="n">
-        <v>6432</v>
+        <v>643</v>
       </c>
       <c r="E130" t="n">
         <v>10</v>
@@ -2814,7 +2814,7 @@
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="n">
-        <v>13716</v>
+        <v>1372</v>
       </c>
       <c r="E132" t="n">
         <v>10</v>
@@ -2832,7 +2832,7 @@
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="n">
-        <v>8892</v>
+        <v>889</v>
       </c>
       <c r="E133" t="n">
         <v>10</v>
@@ -2850,7 +2850,7 @@
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="n">
-        <v>11232</v>
+        <v>1123</v>
       </c>
       <c r="E134" t="n">
         <v>10</v>
@@ -2868,7 +2868,7 @@
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="n">
-        <v>7104</v>
+        <v>710</v>
       </c>
       <c r="E135" t="n">
         <v>10</v>
@@ -2904,7 +2904,7 @@
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="n">
-        <v>8088</v>
+        <v>809</v>
       </c>
       <c r="E137" t="n">
         <v>10</v>
@@ -2922,7 +2922,7 @@
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="inlineStr"/>
       <c r="D138" t="n">
-        <v>9264</v>
+        <v>926</v>
       </c>
       <c r="E138" t="n">
         <v>10</v>
@@ -2940,7 +2940,7 @@
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="n">
-        <v>5448</v>
+        <v>545</v>
       </c>
       <c r="E139" t="n">
         <v>10</v>
@@ -2958,7 +2958,7 @@
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="inlineStr"/>
       <c r="D140" t="n">
-        <v>6744</v>
+        <v>674</v>
       </c>
       <c r="E140" t="n">
         <v>10</v>
@@ -2994,7 +2994,7 @@
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="inlineStr"/>
       <c r="D142" t="n">
-        <v>8748</v>
+        <v>875</v>
       </c>
       <c r="E142" t="n">
         <v>10</v>
@@ -3012,7 +3012,7 @@
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="n">
-        <v>6924</v>
+        <v>692</v>
       </c>
       <c r="E143" t="n">
         <v>10</v>
@@ -3030,7 +3030,7 @@
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="n">
-        <v>11664</v>
+        <v>1166</v>
       </c>
       <c r="E144" t="n">
         <v>10</v>
@@ -3066,7 +3066,7 @@
       <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr"/>
       <c r="D146" t="n">
-        <v>11316</v>
+        <v>1132</v>
       </c>
       <c r="E146" t="n">
         <v>10</v>
@@ -3084,7 +3084,7 @@
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="n">
-        <v>9384</v>
+        <v>938</v>
       </c>
       <c r="E147" t="n">
         <v>10</v>
@@ -3102,7 +3102,7 @@
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="inlineStr"/>
       <c r="D148" t="n">
-        <v>6192</v>
+        <v>619</v>
       </c>
       <c r="E148" t="n">
         <v>10</v>
@@ -3120,7 +3120,7 @@
       <c r="B149" t="inlineStr"/>
       <c r="C149" t="inlineStr"/>
       <c r="D149" t="n">
-        <v>6756</v>
+        <v>676</v>
       </c>
       <c r="E149" t="n">
         <v>10</v>
@@ -3138,7 +3138,7 @@
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="inlineStr"/>
       <c r="D150" t="n">
-        <v>8676</v>
+        <v>868</v>
       </c>
       <c r="E150" t="n">
         <v>10</v>
@@ -3156,7 +3156,7 @@
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="inlineStr"/>
       <c r="D151" t="n">
-        <v>6576</v>
+        <v>658</v>
       </c>
       <c r="E151" t="n">
         <v>10</v>
@@ -3210,7 +3210,7 @@
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="inlineStr"/>
       <c r="D154" t="n">
-        <v>8724</v>
+        <v>872</v>
       </c>
       <c r="E154" t="n">
         <v>10</v>
@@ -3228,7 +3228,7 @@
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="inlineStr"/>
       <c r="D155" t="n">
-        <v>9048</v>
+        <v>905</v>
       </c>
       <c r="E155" t="n">
         <v>10</v>
@@ -3246,7 +3246,7 @@
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="inlineStr"/>
       <c r="D156" t="n">
-        <v>8136</v>
+        <v>814</v>
       </c>
       <c r="E156" t="n">
         <v>10</v>
@@ -3264,7 +3264,7 @@
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="inlineStr"/>
       <c r="D157" t="n">
-        <v>6684</v>
+        <v>668</v>
       </c>
       <c r="E157" t="n">
         <v>10</v>
@@ -3282,7 +3282,7 @@
       <c r="B158" t="inlineStr"/>
       <c r="C158" t="inlineStr"/>
       <c r="D158" t="n">
-        <v>7776</v>
+        <v>778</v>
       </c>
       <c r="E158" t="n">
         <v>10</v>
@@ -3300,7 +3300,7 @@
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="inlineStr"/>
       <c r="D159" t="n">
-        <v>8184</v>
+        <v>818</v>
       </c>
       <c r="E159" t="n">
         <v>10</v>
@@ -3318,7 +3318,7 @@
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="inlineStr"/>
       <c r="D160" t="n">
-        <v>8544</v>
+        <v>854</v>
       </c>
       <c r="E160" t="n">
         <v>10</v>
@@ -3336,7 +3336,7 @@
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="inlineStr"/>
       <c r="D161" t="n">
-        <v>13032</v>
+        <v>1303</v>
       </c>
       <c r="E161" t="n">
         <v>4</v>
@@ -3354,7 +3354,7 @@
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="inlineStr"/>
       <c r="D162" t="n">
-        <v>7788</v>
+        <v>779</v>
       </c>
       <c r="E162" t="n">
         <v>10</v>
@@ -3372,7 +3372,7 @@
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="inlineStr"/>
       <c r="D163" t="n">
-        <v>6192</v>
+        <v>619</v>
       </c>
       <c r="E163" t="n">
         <v>10</v>
@@ -3408,7 +3408,7 @@
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="inlineStr"/>
       <c r="D165" t="n">
-        <v>7428</v>
+        <v>743</v>
       </c>
       <c r="E165" t="n">
         <v>10</v>
@@ -3462,7 +3462,7 @@
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="inlineStr"/>
       <c r="D168" t="n">
-        <v>8052</v>
+        <v>805</v>
       </c>
       <c r="E168" t="n">
         <v>10</v>
@@ -3480,7 +3480,7 @@
       <c r="B169" t="inlineStr"/>
       <c r="C169" t="inlineStr"/>
       <c r="D169" t="n">
-        <v>6504</v>
+        <v>650</v>
       </c>
       <c r="E169" t="n">
         <v>10</v>
@@ -3498,7 +3498,7 @@
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="inlineStr"/>
       <c r="D170" t="n">
-        <v>7704</v>
+        <v>770</v>
       </c>
       <c r="E170" t="n">
         <v>10</v>
@@ -3516,7 +3516,7 @@
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="n">
-        <v>9912</v>
+        <v>991</v>
       </c>
       <c r="E171" t="n">
         <v>10</v>
@@ -3534,7 +3534,7 @@
       <c r="B172" t="inlineStr"/>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="n">
-        <v>10056</v>
+        <v>1006</v>
       </c>
       <c r="E172" t="n">
         <v>10</v>
@@ -3552,7 +3552,7 @@
       <c r="B173" t="inlineStr"/>
       <c r="C173" t="inlineStr"/>
       <c r="D173" t="n">
-        <v>7956</v>
+        <v>796</v>
       </c>
       <c r="E173" t="n">
         <v>10</v>
@@ -3570,7 +3570,7 @@
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="n">
-        <v>10656</v>
+        <v>1066</v>
       </c>
       <c r="E174" t="n">
         <v>10</v>
@@ -3588,7 +3588,7 @@
       <c r="B175" t="inlineStr"/>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="n">
-        <v>5988</v>
+        <v>599</v>
       </c>
       <c r="E175" t="n">
         <v>10</v>
@@ -3606,7 +3606,7 @@
       <c r="B176" t="inlineStr"/>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="n">
-        <v>6792</v>
+        <v>679</v>
       </c>
       <c r="E176" t="n">
         <v>10</v>
@@ -3624,7 +3624,7 @@
       <c r="B177" t="inlineStr"/>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="n">
-        <v>6816</v>
+        <v>682</v>
       </c>
       <c r="E177" t="n">
         <v>10</v>
@@ -3642,7 +3642,7 @@
       <c r="B178" t="inlineStr"/>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="n">
-        <v>6804</v>
+        <v>680</v>
       </c>
       <c r="E178" t="n">
         <v>10</v>
@@ -3660,7 +3660,7 @@
       <c r="B179" t="inlineStr"/>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="n">
-        <v>6804</v>
+        <v>680</v>
       </c>
       <c r="E179" t="n">
         <v>10</v>
@@ -3678,7 +3678,7 @@
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="n">
-        <v>5976</v>
+        <v>598</v>
       </c>
       <c r="E180" t="n">
         <v>10</v>
@@ -3696,7 +3696,7 @@
       <c r="B181" t="inlineStr"/>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="n">
-        <v>10656</v>
+        <v>1066</v>
       </c>
       <c r="E181" t="n">
         <v>10</v>
@@ -3714,7 +3714,7 @@
       <c r="B182" t="inlineStr"/>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="n">
-        <v>6912</v>
+        <v>691</v>
       </c>
       <c r="E182" t="n">
         <v>10</v>
@@ -3732,7 +3732,7 @@
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="n">
-        <v>6012</v>
+        <v>601</v>
       </c>
       <c r="E183" t="n">
         <v>10</v>
@@ -3822,7 +3822,7 @@
       <c r="B188" t="inlineStr"/>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="n">
-        <v>6888</v>
+        <v>689</v>
       </c>
       <c r="E188" t="n">
         <v>10</v>
@@ -3876,7 +3876,7 @@
       <c r="B191" t="inlineStr"/>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="n">
-        <v>7884</v>
+        <v>788</v>
       </c>
       <c r="E191" t="n">
         <v>10</v>
@@ -3894,7 +3894,7 @@
       <c r="B192" t="inlineStr"/>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="n">
-        <v>5736</v>
+        <v>574</v>
       </c>
       <c r="E192" t="n">
         <v>10</v>
@@ -3912,7 +3912,7 @@
       <c r="B193" t="inlineStr"/>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="n">
-        <v>7044</v>
+        <v>704</v>
       </c>
       <c r="E193" t="n">
         <v>10</v>
@@ -3930,7 +3930,7 @@
       <c r="B194" t="inlineStr"/>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="n">
-        <v>7548</v>
+        <v>755</v>
       </c>
       <c r="E194" t="n">
         <v>10</v>
@@ -3948,7 +3948,7 @@
       <c r="B195" t="inlineStr"/>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="n">
-        <v>8244</v>
+        <v>824</v>
       </c>
       <c r="E195" t="n">
         <v>10</v>
@@ -3966,7 +3966,7 @@
       <c r="B196" t="inlineStr"/>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="n">
-        <v>8196</v>
+        <v>820</v>
       </c>
       <c r="E196" t="n">
         <v>10</v>
@@ -4002,7 +4002,7 @@
       <c r="B198" t="inlineStr"/>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="n">
-        <v>8388</v>
+        <v>839</v>
       </c>
       <c r="E198" t="n">
         <v>10</v>
@@ -4020,7 +4020,7 @@
       <c r="B199" t="inlineStr"/>
       <c r="C199" t="inlineStr"/>
       <c r="D199" t="n">
-        <v>9876</v>
+        <v>988</v>
       </c>
       <c r="E199" t="n">
         <v>10</v>
@@ -4038,7 +4038,7 @@
       <c r="B200" t="inlineStr"/>
       <c r="C200" t="inlineStr"/>
       <c r="D200" t="n">
-        <v>13056</v>
+        <v>1306</v>
       </c>
       <c r="E200" t="n">
         <v>10</v>
@@ -4056,7 +4056,7 @@
       <c r="B201" t="inlineStr"/>
       <c r="C201" t="inlineStr"/>
       <c r="D201" t="n">
-        <v>6048</v>
+        <v>605</v>
       </c>
       <c r="E201" t="n">
         <v>10</v>
@@ -4074,7 +4074,7 @@
       <c r="B202" t="inlineStr"/>
       <c r="C202" t="inlineStr"/>
       <c r="D202" t="n">
-        <v>10044</v>
+        <v>1004</v>
       </c>
       <c r="E202" t="n">
         <v>10</v>
@@ -4092,7 +4092,7 @@
       <c r="B203" t="inlineStr"/>
       <c r="C203" t="inlineStr"/>
       <c r="D203" t="n">
-        <v>9924</v>
+        <v>992</v>
       </c>
       <c r="E203" t="n">
         <v>10</v>
@@ -4128,7 +4128,7 @@
       <c r="B205" t="inlineStr"/>
       <c r="C205" t="inlineStr"/>
       <c r="D205" t="n">
-        <v>11628</v>
+        <v>1163</v>
       </c>
       <c r="E205" t="n">
         <v>10</v>
@@ -4182,7 +4182,7 @@
       <c r="B208" t="inlineStr"/>
       <c r="C208" t="inlineStr"/>
       <c r="D208" t="n">
-        <v>51852</v>
+        <v>5185</v>
       </c>
       <c r="E208" t="n">
         <v>10</v>
@@ -4200,7 +4200,7 @@
       <c r="B209" t="inlineStr"/>
       <c r="C209" t="inlineStr"/>
       <c r="D209" t="n">
-        <v>59256</v>
+        <v>5926</v>
       </c>
       <c r="E209" t="n">
         <v>10</v>
@@ -4218,7 +4218,7 @@
       <c r="B210" t="inlineStr"/>
       <c r="C210" t="inlineStr"/>
       <c r="D210" t="n">
-        <v>30372</v>
+        <v>3037</v>
       </c>
       <c r="E210" t="n">
         <v>10</v>
@@ -4236,7 +4236,7 @@
       <c r="B211" t="inlineStr"/>
       <c r="C211" t="inlineStr"/>
       <c r="D211" t="n">
-        <v>45924</v>
+        <v>4592</v>
       </c>
       <c r="E211" t="n">
         <v>10</v>
@@ -4254,7 +4254,7 @@
       <c r="B212" t="inlineStr"/>
       <c r="C212" t="inlineStr"/>
       <c r="D212" t="n">
-        <v>44448</v>
+        <v>4445</v>
       </c>
       <c r="E212" t="n">
         <v>10</v>
@@ -4272,7 +4272,7 @@
       <c r="B213" t="inlineStr"/>
       <c r="C213" t="inlineStr"/>
       <c r="D213" t="n">
-        <v>48144</v>
+        <v>4814</v>
       </c>
       <c r="E213" t="n">
         <v>10</v>
@@ -4308,7 +4308,7 @@
       <c r="B215" t="inlineStr"/>
       <c r="C215" t="inlineStr"/>
       <c r="D215" t="n">
-        <v>44448</v>
+        <v>4445</v>
       </c>
       <c r="E215" t="n">
         <v>10</v>
@@ -4326,7 +4326,7 @@
       <c r="B216" t="inlineStr"/>
       <c r="C216" t="inlineStr"/>
       <c r="D216" t="n">
-        <v>59256</v>
+        <v>5926</v>
       </c>
       <c r="E216" t="n">
         <v>10</v>
@@ -4344,7 +4344,7 @@
       <c r="B217" t="inlineStr"/>
       <c r="C217" t="inlineStr"/>
       <c r="D217" t="n">
-        <v>42228</v>
+        <v>4223</v>
       </c>
       <c r="E217" t="n">
         <v>10</v>
@@ -4362,7 +4362,7 @@
       <c r="B218" t="inlineStr"/>
       <c r="C218" t="inlineStr"/>
       <c r="D218" t="n">
-        <v>42228</v>
+        <v>4223</v>
       </c>
       <c r="E218" t="n">
         <v>10</v>
@@ -4380,7 +4380,7 @@
       <c r="B219" t="inlineStr"/>
       <c r="C219" t="inlineStr"/>
       <c r="D219" t="n">
-        <v>51852</v>
+        <v>5185</v>
       </c>
       <c r="E219" t="n">
         <v>10</v>
@@ -4398,7 +4398,7 @@
       <c r="B220" t="inlineStr"/>
       <c r="C220" t="inlineStr"/>
       <c r="D220" t="n">
-        <v>74076</v>
+        <v>7408</v>
       </c>
       <c r="E220" t="n">
         <v>10</v>
@@ -4416,7 +4416,7 @@
       <c r="B221" t="inlineStr"/>
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="n">
-        <v>70368</v>
+        <v>7037</v>
       </c>
       <c r="E221" t="n">
         <v>10</v>
@@ -4434,7 +4434,7 @@
       <c r="B222" t="inlineStr"/>
       <c r="C222" t="inlineStr"/>
       <c r="D222" t="n">
-        <v>44448</v>
+        <v>4445</v>
       </c>
       <c r="E222" t="n">
         <v>10</v>
@@ -4452,7 +4452,7 @@
       <c r="B223" t="inlineStr"/>
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="n">
-        <v>46668</v>
+        <v>4667</v>
       </c>
       <c r="E223" t="n">
         <v>5</v>
@@ -4470,7 +4470,7 @@
       <c r="B224" t="inlineStr"/>
       <c r="C224" t="inlineStr"/>
       <c r="D224" t="n">
-        <v>44448</v>
+        <v>4445</v>
       </c>
       <c r="E224" t="n">
         <v>10</v>
@@ -4488,7 +4488,7 @@
       <c r="B225" t="inlineStr"/>
       <c r="C225" t="inlineStr"/>
       <c r="D225" t="n">
-        <v>51852</v>
+        <v>5185</v>
       </c>
       <c r="E225" t="n">
         <v>6</v>
@@ -4506,7 +4506,7 @@
       <c r="B226" t="inlineStr"/>
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="n">
-        <v>88884</v>
+        <v>8888</v>
       </c>
       <c r="E226" t="n">
         <v>10</v>
@@ -4524,7 +4524,7 @@
       <c r="B227" t="inlineStr"/>
       <c r="C227" t="inlineStr"/>
       <c r="D227" t="n">
-        <v>50772</v>
+        <v>5077</v>
       </c>
       <c r="E227" t="n">
         <v>10</v>
@@ -4578,7 +4578,7 @@
       <c r="B230" t="inlineStr"/>
       <c r="C230" t="inlineStr"/>
       <c r="D230" t="n">
-        <v>8112</v>
+        <v>811</v>
       </c>
       <c r="E230" t="n">
         <v>10</v>
@@ -4596,7 +4596,7 @@
       <c r="B231" t="inlineStr"/>
       <c r="C231" t="inlineStr"/>
       <c r="D231" t="n">
-        <v>8112</v>
+        <v>811</v>
       </c>
       <c r="E231" t="n">
         <v>10</v>
@@ -4668,7 +4668,7 @@
       <c r="B235" t="inlineStr"/>
       <c r="C235" t="inlineStr"/>
       <c r="D235" t="n">
-        <v>49248</v>
+        <v>4925</v>
       </c>
       <c r="E235" t="n">
         <v>10</v>
@@ -4686,7 +4686,7 @@
       <c r="B236" t="inlineStr"/>
       <c r="C236" t="inlineStr"/>
       <c r="D236" t="n">
-        <v>52512</v>
+        <v>5251</v>
       </c>
       <c r="E236" t="n">
         <v>2</v>
@@ -4704,7 +4704,7 @@
       <c r="B237" t="inlineStr"/>
       <c r="C237" t="inlineStr"/>
       <c r="D237" t="n">
-        <v>47448</v>
+        <v>4745</v>
       </c>
       <c r="E237" t="n">
         <v>10</v>
@@ -4722,7 +4722,7 @@
       <c r="B238" t="inlineStr"/>
       <c r="C238" t="inlineStr"/>
       <c r="D238" t="n">
-        <v>41076</v>
+        <v>4108</v>
       </c>
       <c r="E238" t="n">
         <v>10</v>
@@ -4740,7 +4740,7 @@
       <c r="B239" t="inlineStr"/>
       <c r="C239" t="inlineStr"/>
       <c r="D239" t="n">
-        <v>114336</v>
+        <v>11434</v>
       </c>
       <c r="E239" t="n">
         <v>10</v>
@@ -4758,7 +4758,7 @@
       <c r="B240" t="inlineStr"/>
       <c r="C240" t="inlineStr"/>
       <c r="D240" t="n">
-        <v>63072</v>
+        <v>6307</v>
       </c>
       <c r="E240" t="n">
         <v>10</v>
@@ -4776,7 +4776,7 @@
       <c r="B241" t="inlineStr"/>
       <c r="C241" t="inlineStr"/>
       <c r="D241" t="n">
-        <v>52428</v>
+        <v>5243</v>
       </c>
       <c r="E241" t="n">
         <v>3</v>
@@ -4794,7 +4794,7 @@
       <c r="B242" t="inlineStr"/>
       <c r="C242" t="inlineStr"/>
       <c r="D242" t="n">
-        <v>57228</v>
+        <v>5723</v>
       </c>
       <c r="E242" t="n">
         <v>10</v>
@@ -4812,7 +4812,7 @@
       <c r="B243" t="inlineStr"/>
       <c r="C243" t="inlineStr"/>
       <c r="D243" t="n">
-        <v>65328</v>
+        <v>6533</v>
       </c>
       <c r="E243" t="n">
         <v>10</v>
@@ -4830,7 +4830,7 @@
       <c r="B244" t="inlineStr"/>
       <c r="C244" t="inlineStr"/>
       <c r="D244" t="n">
-        <v>65328</v>
+        <v>6533</v>
       </c>
       <c r="E244" t="n">
         <v>10</v>
@@ -4848,7 +4848,7 @@
       <c r="B245" t="inlineStr"/>
       <c r="C245" t="inlineStr"/>
       <c r="D245" t="n">
-        <v>74028</v>
+        <v>7403</v>
       </c>
       <c r="E245" t="n">
         <v>2</v>
@@ -4866,7 +4866,7 @@
       <c r="B246" t="inlineStr"/>
       <c r="C246" t="inlineStr"/>
       <c r="D246" t="n">
-        <v>74028</v>
+        <v>7403</v>
       </c>
       <c r="E246" t="n">
         <v>2</v>
@@ -4884,7 +4884,7 @@
       <c r="B247" t="inlineStr"/>
       <c r="C247" t="inlineStr"/>
       <c r="D247" t="n">
-        <v>55032</v>
+        <v>5503</v>
       </c>
       <c r="E247" t="n">
         <v>10</v>
@@ -4902,7 +4902,7 @@
       <c r="B248" t="inlineStr"/>
       <c r="C248" t="inlineStr"/>
       <c r="D248" t="n">
-        <v>59004</v>
+        <v>5900</v>
       </c>
       <c r="E248" t="n">
         <v>10</v>
@@ -4920,7 +4920,7 @@
       <c r="B249" t="inlineStr"/>
       <c r="C249" t="inlineStr"/>
       <c r="D249" t="n">
-        <v>56232</v>
+        <v>5623</v>
       </c>
       <c r="E249" t="n">
         <v>2</v>
@@ -4938,7 +4938,7 @@
       <c r="B250" t="inlineStr"/>
       <c r="C250" t="inlineStr"/>
       <c r="D250" t="n">
-        <v>71196</v>
+        <v>7120</v>
       </c>
       <c r="E250" t="n">
         <v>10</v>
@@ -4956,7 +4956,7 @@
       <c r="B251" t="inlineStr"/>
       <c r="C251" t="inlineStr"/>
       <c r="D251" t="n">
-        <v>61308</v>
+        <v>6131</v>
       </c>
       <c r="E251" t="n">
         <v>10</v>
@@ -4974,7 +4974,7 @@
       <c r="B252" t="inlineStr"/>
       <c r="C252" t="inlineStr"/>
       <c r="D252" t="n">
-        <v>76272</v>
+        <v>7627</v>
       </c>
       <c r="E252" t="n">
         <v>10</v>
@@ -4992,7 +4992,7 @@
       <c r="B253" t="inlineStr"/>
       <c r="C253" t="inlineStr"/>
       <c r="D253" t="n">
-        <v>54252</v>
+        <v>5425</v>
       </c>
       <c r="E253" t="n">
         <v>5</v>
@@ -5010,7 +5010,7 @@
       <c r="B254" t="inlineStr"/>
       <c r="C254" t="inlineStr"/>
       <c r="D254" t="n">
-        <v>66684</v>
+        <v>6668</v>
       </c>
       <c r="E254" t="n">
         <v>10</v>
@@ -5046,7 +5046,7 @@
       <c r="B256" t="inlineStr"/>
       <c r="C256" t="inlineStr"/>
       <c r="D256" t="n">
-        <v>47364</v>
+        <v>4736</v>
       </c>
       <c r="E256" t="n">
         <v>2</v>
@@ -5082,7 +5082,7 @@
       <c r="B258" t="inlineStr"/>
       <c r="C258" t="inlineStr"/>
       <c r="D258" t="n">
-        <v>47724</v>
+        <v>4772</v>
       </c>
       <c r="E258" t="n">
         <v>10</v>
@@ -5118,7 +5118,7 @@
       <c r="B260" t="inlineStr"/>
       <c r="C260" t="inlineStr"/>
       <c r="D260" t="n">
-        <v>45792</v>
+        <v>4579</v>
       </c>
       <c r="E260" t="n">
         <v>10</v>
@@ -5136,7 +5136,7 @@
       <c r="B261" t="inlineStr"/>
       <c r="C261" t="inlineStr"/>
       <c r="D261" t="n">
-        <v>63696</v>
+        <v>6370</v>
       </c>
       <c r="E261" t="n">
         <v>10</v>
@@ -5154,7 +5154,7 @@
       <c r="B262" t="inlineStr"/>
       <c r="C262" t="inlineStr"/>
       <c r="D262" t="n">
-        <v>45924</v>
+        <v>4592</v>
       </c>
       <c r="E262" t="n">
         <v>10</v>
@@ -5172,7 +5172,7 @@
       <c r="B263" t="inlineStr"/>
       <c r="C263" t="inlineStr"/>
       <c r="D263" t="n">
-        <v>51156</v>
+        <v>5116</v>
       </c>
       <c r="E263" t="n">
         <v>3</v>
@@ -5190,7 +5190,7 @@
       <c r="B264" t="inlineStr"/>
       <c r="C264" t="inlineStr"/>
       <c r="D264" t="n">
-        <v>32016</v>
+        <v>3202</v>
       </c>
       <c r="E264" t="n">
         <v>10</v>
@@ -5226,7 +5226,7 @@
       <c r="B266" t="inlineStr"/>
       <c r="C266" t="inlineStr"/>
       <c r="D266" t="n">
-        <v>35688</v>
+        <v>3569</v>
       </c>
       <c r="E266" t="n">
         <v>10</v>
@@ -5244,7 +5244,7 @@
       <c r="B267" t="inlineStr"/>
       <c r="C267" t="inlineStr"/>
       <c r="D267" t="n">
-        <v>44004</v>
+        <v>4400</v>
       </c>
       <c r="E267" t="n">
         <v>10</v>
@@ -5262,7 +5262,7 @@
       <c r="B268" t="inlineStr"/>
       <c r="C268" t="inlineStr"/>
       <c r="D268" t="n">
-        <v>32784</v>
+        <v>3278</v>
       </c>
       <c r="E268" t="n">
         <v>10</v>
@@ -5280,7 +5280,7 @@
       <c r="B269" t="inlineStr"/>
       <c r="C269" t="inlineStr"/>
       <c r="D269" t="n">
-        <v>36072</v>
+        <v>3607</v>
       </c>
       <c r="E269" t="n">
         <v>10</v>
@@ -5298,7 +5298,7 @@
       <c r="B270" t="inlineStr"/>
       <c r="C270" t="inlineStr"/>
       <c r="D270" t="n">
-        <v>27252</v>
+        <v>2725</v>
       </c>
       <c r="E270" t="n">
         <v>10</v>
@@ -5316,7 +5316,7 @@
       <c r="B271" t="inlineStr"/>
       <c r="C271" t="inlineStr"/>
       <c r="D271" t="n">
-        <v>44484</v>
+        <v>4448</v>
       </c>
       <c r="E271" t="n">
         <v>10</v>
@@ -5334,7 +5334,7 @@
       <c r="B272" t="inlineStr"/>
       <c r="C272" t="inlineStr"/>
       <c r="D272" t="n">
-        <v>39744</v>
+        <v>3974</v>
       </c>
       <c r="E272" t="n">
         <v>10</v>
@@ -5352,7 +5352,7 @@
       <c r="B273" t="inlineStr"/>
       <c r="C273" t="inlineStr"/>
       <c r="D273" t="n">
-        <v>44604</v>
+        <v>4460</v>
       </c>
       <c r="E273" t="n">
         <v>10</v>
@@ -5388,7 +5388,7 @@
       <c r="B275" t="inlineStr"/>
       <c r="C275" t="inlineStr"/>
       <c r="D275" t="n">
-        <v>64908</v>
+        <v>6491</v>
       </c>
       <c r="E275" t="n">
         <v>4</v>
@@ -5406,7 +5406,7 @@
       <c r="B276" t="inlineStr"/>
       <c r="C276" t="inlineStr"/>
       <c r="D276" t="n">
-        <v>54672</v>
+        <v>5467</v>
       </c>
       <c r="E276" t="n">
         <v>10</v>
@@ -5424,7 +5424,7 @@
       <c r="B277" t="inlineStr"/>
       <c r="C277" t="inlineStr"/>
       <c r="D277" t="n">
-        <v>48648</v>
+        <v>4865</v>
       </c>
       <c r="E277" t="n">
         <v>10</v>
@@ -5442,7 +5442,7 @@
       <c r="B278" t="inlineStr"/>
       <c r="C278" t="inlineStr"/>
       <c r="D278" t="n">
-        <v>46404</v>
+        <v>4640</v>
       </c>
       <c r="E278" t="n">
         <v>10</v>
@@ -5460,7 +5460,7 @@
       <c r="B279" t="inlineStr"/>
       <c r="C279" t="inlineStr"/>
       <c r="D279" t="n">
-        <v>44256</v>
+        <v>4426</v>
       </c>
       <c r="E279" t="n">
         <v>10</v>
@@ -5496,7 +5496,7 @@
       <c r="B281" t="inlineStr"/>
       <c r="C281" t="inlineStr"/>
       <c r="D281" t="n">
-        <v>112572</v>
+        <v>11257</v>
       </c>
       <c r="E281" t="n">
         <v>10</v>
@@ -5514,7 +5514,7 @@
       <c r="B282" t="inlineStr"/>
       <c r="C282" t="inlineStr"/>
       <c r="D282" t="n">
-        <v>62088</v>
+        <v>6209</v>
       </c>
       <c r="E282" t="n">
         <v>10</v>
@@ -5532,7 +5532,7 @@
       <c r="B283" t="inlineStr"/>
       <c r="C283" t="inlineStr"/>
       <c r="D283" t="n">
-        <v>105624</v>
+        <v>10562</v>
       </c>
       <c r="E283" t="n">
         <v>10</v>
@@ -5550,7 +5550,7 @@
       <c r="B284" t="inlineStr"/>
       <c r="C284" t="inlineStr"/>
       <c r="D284" t="n">
-        <v>126492</v>
+        <v>12649</v>
       </c>
       <c r="E284" t="n">
         <v>2</v>
@@ -5568,7 +5568,7 @@
       <c r="B285" t="inlineStr"/>
       <c r="C285" t="inlineStr"/>
       <c r="D285" t="n">
-        <v>126492</v>
+        <v>12649</v>
       </c>
       <c r="E285" t="n">
         <v>2</v>
@@ -5640,7 +5640,7 @@
       <c r="B289" t="inlineStr"/>
       <c r="C289" t="inlineStr"/>
       <c r="D289" t="n">
-        <v>36996</v>
+        <v>3700</v>
       </c>
       <c r="E289" t="n">
         <v>10</v>
@@ -5658,7 +5658,7 @@
       <c r="B290" t="inlineStr"/>
       <c r="C290" t="inlineStr"/>
       <c r="D290" t="n">
-        <v>38268</v>
+        <v>3827</v>
       </c>
       <c r="E290" t="n">
         <v>10</v>
@@ -5694,7 +5694,7 @@
       <c r="B292" t="inlineStr"/>
       <c r="C292" t="inlineStr"/>
       <c r="D292" t="n">
-        <v>73164</v>
+        <v>7316</v>
       </c>
       <c r="E292" t="n">
         <v>10</v>
@@ -6054,7 +6054,7 @@
       <c r="B312" t="inlineStr"/>
       <c r="C312" t="inlineStr"/>
       <c r="D312" t="n">
-        <v>20196</v>
+        <v>2020</v>
       </c>
       <c r="E312" t="n">
         <v>10</v>
@@ -6072,7 +6072,7 @@
       <c r="B313" t="inlineStr"/>
       <c r="C313" t="inlineStr"/>
       <c r="D313" t="n">
-        <v>17184</v>
+        <v>1718</v>
       </c>
       <c r="E313" t="n">
         <v>10</v>
@@ -6090,7 +6090,7 @@
       <c r="B314" t="inlineStr"/>
       <c r="C314" t="inlineStr"/>
       <c r="D314" t="n">
-        <v>27192</v>
+        <v>2719</v>
       </c>
       <c r="E314" t="n">
         <v>10</v>
@@ -6108,7 +6108,7 @@
       <c r="B315" t="inlineStr"/>
       <c r="C315" t="inlineStr"/>
       <c r="D315" t="n">
-        <v>10896</v>
+        <v>1090</v>
       </c>
       <c r="E315" t="n">
         <v>10</v>
@@ -6126,7 +6126,7 @@
       <c r="B316" t="inlineStr"/>
       <c r="C316" t="inlineStr"/>
       <c r="D316" t="n">
-        <v>15504</v>
+        <v>1550</v>
       </c>
       <c r="E316" t="n">
         <v>10</v>
@@ -6144,7 +6144,7 @@
       <c r="B317" t="inlineStr"/>
       <c r="C317" t="inlineStr"/>
       <c r="D317" t="n">
-        <v>21972</v>
+        <v>2197</v>
       </c>
       <c r="E317" t="n">
         <v>10</v>
@@ -6162,7 +6162,7 @@
       <c r="B318" t="inlineStr"/>
       <c r="C318" t="inlineStr"/>
       <c r="D318" t="n">
-        <v>14004</v>
+        <v>1400</v>
       </c>
       <c r="E318" t="n">
         <v>10</v>
@@ -6180,7 +6180,7 @@
       <c r="B319" t="inlineStr"/>
       <c r="C319" t="inlineStr"/>
       <c r="D319" t="n">
-        <v>10428</v>
+        <v>1043</v>
       </c>
       <c r="E319" t="n">
         <v>10</v>
@@ -6198,7 +6198,7 @@
       <c r="B320" t="inlineStr"/>
       <c r="C320" t="inlineStr"/>
       <c r="D320" t="n">
-        <v>14808</v>
+        <v>1481</v>
       </c>
       <c r="E320" t="n">
         <v>10</v>
@@ -6216,7 +6216,7 @@
       <c r="B321" t="inlineStr"/>
       <c r="C321" t="inlineStr"/>
       <c r="D321" t="n">
-        <v>13728</v>
+        <v>1373</v>
       </c>
       <c r="E321" t="n">
         <v>8</v>
@@ -6234,7 +6234,7 @@
       <c r="B322" t="inlineStr"/>
       <c r="C322" t="inlineStr"/>
       <c r="D322" t="n">
-        <v>12696</v>
+        <v>1270</v>
       </c>
       <c r="E322" t="n">
         <v>10</v>
@@ -6270,7 +6270,7 @@
       <c r="B324" t="inlineStr"/>
       <c r="C324" t="inlineStr"/>
       <c r="D324" t="n">
-        <v>19644</v>
+        <v>1964</v>
       </c>
       <c r="E324" t="n">
         <v>10</v>
@@ -6306,7 +6306,7 @@
       <c r="B326" t="inlineStr"/>
       <c r="C326" t="inlineStr"/>
       <c r="D326" t="n">
-        <v>17412</v>
+        <v>1741</v>
       </c>
       <c r="E326" t="n">
         <v>10</v>
@@ -6324,7 +6324,7 @@
       <c r="B327" t="inlineStr"/>
       <c r="C327" t="inlineStr"/>
       <c r="D327" t="n">
-        <v>13332</v>
+        <v>1333</v>
       </c>
       <c r="E327" t="n">
         <v>10</v>
@@ -6342,7 +6342,7 @@
       <c r="B328" t="inlineStr"/>
       <c r="C328" t="inlineStr"/>
       <c r="D328" t="n">
-        <v>12696</v>
+        <v>1270</v>
       </c>
       <c r="E328" t="n">
         <v>10</v>
@@ -6360,7 +6360,7 @@
       <c r="B329" t="inlineStr"/>
       <c r="C329" t="inlineStr"/>
       <c r="D329" t="n">
-        <v>12528</v>
+        <v>1253</v>
       </c>
       <c r="E329" t="n">
         <v>10</v>
@@ -6378,7 +6378,7 @@
       <c r="B330" t="inlineStr"/>
       <c r="C330" t="inlineStr"/>
       <c r="D330" t="n">
-        <v>13428</v>
+        <v>1343</v>
       </c>
       <c r="E330" t="n">
         <v>10</v>
@@ -6396,7 +6396,7 @@
       <c r="B331" t="inlineStr"/>
       <c r="C331" t="inlineStr"/>
       <c r="D331" t="n">
-        <v>13092</v>
+        <v>1309</v>
       </c>
       <c r="E331" t="n">
         <v>10</v>
@@ -6432,7 +6432,7 @@
       <c r="B333" t="inlineStr"/>
       <c r="C333" t="inlineStr"/>
       <c r="D333" t="n">
-        <v>14184</v>
+        <v>1418</v>
       </c>
       <c r="E333" t="n">
         <v>10</v>
@@ -6450,7 +6450,7 @@
       <c r="B334" t="inlineStr"/>
       <c r="C334" t="inlineStr"/>
       <c r="D334" t="n">
-        <v>19488</v>
+        <v>1949</v>
       </c>
       <c r="E334" t="n">
         <v>10</v>
@@ -6468,7 +6468,7 @@
       <c r="B335" t="inlineStr"/>
       <c r="C335" t="inlineStr"/>
       <c r="D335" t="n">
-        <v>19092</v>
+        <v>1909</v>
       </c>
       <c r="E335" t="n">
         <v>10</v>
@@ -6486,7 +6486,7 @@
       <c r="B336" t="inlineStr"/>
       <c r="C336" t="inlineStr"/>
       <c r="D336" t="n">
-        <v>13236</v>
+        <v>1324</v>
       </c>
       <c r="E336" t="n">
         <v>10</v>
@@ -6504,7 +6504,7 @@
       <c r="B337" t="inlineStr"/>
       <c r="C337" t="inlineStr"/>
       <c r="D337" t="n">
-        <v>14592</v>
+        <v>1459</v>
       </c>
       <c r="E337" t="n">
         <v>10</v>
@@ -6522,7 +6522,7 @@
       <c r="B338" t="inlineStr"/>
       <c r="C338" t="inlineStr"/>
       <c r="D338" t="n">
-        <v>24312</v>
+        <v>2431</v>
       </c>
       <c r="E338" t="n">
         <v>10</v>
@@ -6540,7 +6540,7 @@
       <c r="B339" t="inlineStr"/>
       <c r="C339" t="inlineStr"/>
       <c r="D339" t="n">
-        <v>24312</v>
+        <v>2431</v>
       </c>
       <c r="E339" t="n">
         <v>10</v>
@@ -6558,7 +6558,7 @@
       <c r="B340" t="inlineStr"/>
       <c r="C340" t="inlineStr"/>
       <c r="D340" t="n">
-        <v>14508</v>
+        <v>1451</v>
       </c>
       <c r="E340" t="n">
         <v>10</v>
@@ -6576,7 +6576,7 @@
       <c r="B341" t="inlineStr"/>
       <c r="C341" t="inlineStr"/>
       <c r="D341" t="n">
-        <v>12312</v>
+        <v>1231</v>
       </c>
       <c r="E341" t="n">
         <v>10</v>
@@ -6594,7 +6594,7 @@
       <c r="B342" t="inlineStr"/>
       <c r="C342" t="inlineStr"/>
       <c r="D342" t="n">
-        <v>20412</v>
+        <v>2041</v>
       </c>
       <c r="E342" t="n">
         <v>10</v>
@@ -6612,7 +6612,7 @@
       <c r="B343" t="inlineStr"/>
       <c r="C343" t="inlineStr"/>
       <c r="D343" t="n">
-        <v>17568</v>
+        <v>1757</v>
       </c>
       <c r="E343" t="n">
         <v>10</v>
@@ -6630,7 +6630,7 @@
       <c r="B344" t="inlineStr"/>
       <c r="C344" t="inlineStr"/>
       <c r="D344" t="n">
-        <v>12624</v>
+        <v>1262</v>
       </c>
       <c r="E344" t="n">
         <v>10</v>
@@ -6666,7 +6666,7 @@
       <c r="B346" t="inlineStr"/>
       <c r="C346" t="inlineStr"/>
       <c r="D346" t="n">
-        <v>13932</v>
+        <v>1393</v>
       </c>
       <c r="E346" t="n">
         <v>10</v>
@@ -6684,7 +6684,7 @@
       <c r="B347" t="inlineStr"/>
       <c r="C347" t="inlineStr"/>
       <c r="D347" t="n">
-        <v>20268</v>
+        <v>2027</v>
       </c>
       <c r="E347" t="n">
         <v>10</v>
@@ -6756,7 +6756,7 @@
       <c r="B351" t="inlineStr"/>
       <c r="C351" t="inlineStr"/>
       <c r="D351" t="n">
-        <v>16644</v>
+        <v>1664</v>
       </c>
       <c r="E351" t="n">
         <v>10</v>
@@ -6774,7 +6774,7 @@
       <c r="B352" t="inlineStr"/>
       <c r="C352" t="inlineStr"/>
       <c r="D352" t="n">
-        <v>22992</v>
+        <v>2299</v>
       </c>
       <c r="E352" t="n">
         <v>10</v>
@@ -6792,7 +6792,7 @@
       <c r="B353" t="inlineStr"/>
       <c r="C353" t="inlineStr"/>
       <c r="D353" t="n">
-        <v>22992</v>
+        <v>2299</v>
       </c>
       <c r="E353" t="n">
         <v>10</v>
@@ -6846,7 +6846,7 @@
       <c r="B356" t="inlineStr"/>
       <c r="C356" t="inlineStr"/>
       <c r="D356" t="n">
-        <v>15072</v>
+        <v>1507</v>
       </c>
       <c r="E356" t="n">
         <v>10</v>
@@ -6864,7 +6864,7 @@
       <c r="B357" t="inlineStr"/>
       <c r="C357" t="inlineStr"/>
       <c r="D357" t="n">
-        <v>19404</v>
+        <v>1940</v>
       </c>
       <c r="E357" t="n">
         <v>10</v>
@@ -6882,7 +6882,7 @@
       <c r="B358" t="inlineStr"/>
       <c r="C358" t="inlineStr"/>
       <c r="D358" t="n">
-        <v>13248</v>
+        <v>1325</v>
       </c>
       <c r="E358" t="n">
         <v>10</v>
@@ -6900,7 +6900,7 @@
       <c r="B359" t="inlineStr"/>
       <c r="C359" t="inlineStr"/>
       <c r="D359" t="n">
-        <v>22212</v>
+        <v>2221</v>
       </c>
       <c r="E359" t="n">
         <v>10</v>
@@ -6918,7 +6918,7 @@
       <c r="B360" t="inlineStr"/>
       <c r="C360" t="inlineStr"/>
       <c r="D360" t="n">
-        <v>22212</v>
+        <v>2221</v>
       </c>
       <c r="E360" t="n">
         <v>10</v>
@@ -6936,7 +6936,7 @@
       <c r="B361" t="inlineStr"/>
       <c r="C361" t="inlineStr"/>
       <c r="D361" t="n">
-        <v>27228</v>
+        <v>2723</v>
       </c>
       <c r="E361" t="n">
         <v>10</v>
@@ -6954,7 +6954,7 @@
       <c r="B362" t="inlineStr"/>
       <c r="C362" t="inlineStr"/>
       <c r="D362" t="n">
-        <v>13704</v>
+        <v>1370</v>
       </c>
       <c r="E362" t="n">
         <v>10</v>
@@ -6972,7 +6972,7 @@
       <c r="B363" t="inlineStr"/>
       <c r="C363" t="inlineStr"/>
       <c r="D363" t="n">
-        <v>13704</v>
+        <v>1370</v>
       </c>
       <c r="E363" t="n">
         <v>10</v>
@@ -6990,7 +6990,7 @@
       <c r="B364" t="inlineStr"/>
       <c r="C364" t="inlineStr"/>
       <c r="D364" t="n">
-        <v>9972</v>
+        <v>997</v>
       </c>
       <c r="E364" t="n">
         <v>10</v>
@@ -7008,7 +7008,7 @@
       <c r="B365" t="inlineStr"/>
       <c r="C365" t="inlineStr"/>
       <c r="D365" t="n">
-        <v>12336</v>
+        <v>1234</v>
       </c>
       <c r="E365" t="n">
         <v>10</v>
@@ -7026,7 +7026,7 @@
       <c r="B366" t="inlineStr"/>
       <c r="C366" t="inlineStr"/>
       <c r="D366" t="n">
-        <v>17892</v>
+        <v>1789</v>
       </c>
       <c r="E366" t="n">
         <v>10</v>
@@ -7062,7 +7062,7 @@
       <c r="B368" t="inlineStr"/>
       <c r="C368" t="inlineStr"/>
       <c r="D368" t="n">
-        <v>17292</v>
+        <v>1729</v>
       </c>
       <c r="E368" t="n">
         <v>10</v>
@@ -7080,7 +7080,7 @@
       <c r="B369" t="inlineStr"/>
       <c r="C369" t="inlineStr"/>
       <c r="D369" t="n">
-        <v>21828</v>
+        <v>2183</v>
       </c>
       <c r="E369" t="n">
         <v>10</v>
@@ -7116,7 +7116,7 @@
       <c r="B371" t="inlineStr"/>
       <c r="C371" t="inlineStr"/>
       <c r="D371" t="n">
-        <v>17568</v>
+        <v>1757</v>
       </c>
       <c r="E371" t="n">
         <v>10</v>
@@ -7170,7 +7170,7 @@
       <c r="B374" t="inlineStr"/>
       <c r="C374" t="inlineStr"/>
       <c r="D374" t="n">
-        <v>45108</v>
+        <v>4511</v>
       </c>
       <c r="E374" t="n">
         <v>10</v>
@@ -7224,7 +7224,7 @@
       <c r="B377" t="inlineStr"/>
       <c r="C377" t="inlineStr"/>
       <c r="D377" t="n">
-        <v>15972</v>
+        <v>1597</v>
       </c>
       <c r="E377" t="n">
         <v>10</v>
@@ -7242,7 +7242,7 @@
       <c r="B378" t="inlineStr"/>
       <c r="C378" t="inlineStr"/>
       <c r="D378" t="n">
-        <v>11268</v>
+        <v>1127</v>
       </c>
       <c r="E378" t="n">
         <v>10</v>
@@ -7260,7 +7260,7 @@
       <c r="B379" t="inlineStr"/>
       <c r="C379" t="inlineStr"/>
       <c r="D379" t="n">
-        <v>16992</v>
+        <v>1699</v>
       </c>
       <c r="E379" t="n">
         <v>10</v>
@@ -7296,7 +7296,7 @@
       <c r="B381" t="inlineStr"/>
       <c r="C381" t="inlineStr"/>
       <c r="D381" t="n">
-        <v>29388</v>
+        <v>2939</v>
       </c>
       <c r="E381" t="n">
         <v>10</v>
@@ -7314,7 +7314,7 @@
       <c r="B382" t="inlineStr"/>
       <c r="C382" t="inlineStr"/>
       <c r="D382" t="n">
-        <v>32748</v>
+        <v>3275</v>
       </c>
       <c r="E382" t="n">
         <v>10</v>
@@ -7332,7 +7332,7 @@
       <c r="B383" t="inlineStr"/>
       <c r="C383" t="inlineStr"/>
       <c r="D383" t="n">
-        <v>16836</v>
+        <v>1684</v>
       </c>
       <c r="E383" t="n">
         <v>10</v>
@@ -7350,7 +7350,7 @@
       <c r="B384" t="inlineStr"/>
       <c r="C384" t="inlineStr"/>
       <c r="D384" t="n">
-        <v>25716</v>
+        <v>2572</v>
       </c>
       <c r="E384" t="n">
         <v>10</v>
@@ -7404,7 +7404,7 @@
       <c r="B387" t="inlineStr"/>
       <c r="C387" t="inlineStr"/>
       <c r="D387" t="n">
-        <v>21588</v>
+        <v>2159</v>
       </c>
       <c r="E387" t="n">
         <v>10</v>
@@ -7422,7 +7422,7 @@
       <c r="B388" t="inlineStr"/>
       <c r="C388" t="inlineStr"/>
       <c r="D388" t="n">
-        <v>14964</v>
+        <v>1496</v>
       </c>
       <c r="E388" t="n">
         <v>10</v>
@@ -7440,7 +7440,7 @@
       <c r="B389" t="inlineStr"/>
       <c r="C389" t="inlineStr"/>
       <c r="D389" t="n">
-        <v>24936</v>
+        <v>2494</v>
       </c>
       <c r="E389" t="n">
         <v>10</v>
@@ -7458,7 +7458,7 @@
       <c r="B390" t="inlineStr"/>
       <c r="C390" t="inlineStr"/>
       <c r="D390" t="n">
-        <v>18792</v>
+        <v>1879</v>
       </c>
       <c r="E390" t="n">
         <v>10</v>
@@ -7548,7 +7548,7 @@
       <c r="B395" t="inlineStr"/>
       <c r="C395" t="inlineStr"/>
       <c r="D395" t="n">
-        <v>51108</v>
+        <v>5111</v>
       </c>
       <c r="E395" t="n">
         <v>10</v>
@@ -7566,7 +7566,7 @@
       <c r="B396" t="inlineStr"/>
       <c r="C396" t="inlineStr"/>
       <c r="D396" t="n">
-        <v>37032</v>
+        <v>3703</v>
       </c>
       <c r="E396" t="n">
         <v>10</v>
@@ -7656,7 +7656,7 @@
       <c r="B401" t="inlineStr"/>
       <c r="C401" t="inlineStr"/>
       <c r="D401" t="n">
-        <v>31116</v>
+        <v>3112</v>
       </c>
       <c r="E401" t="n">
         <v>7</v>
@@ -7674,7 +7674,7 @@
       <c r="B402" t="inlineStr"/>
       <c r="C402" t="inlineStr"/>
       <c r="D402" t="n">
-        <v>32592</v>
+        <v>3259</v>
       </c>
       <c r="E402" t="n">
         <v>10</v>
@@ -7692,7 +7692,7 @@
       <c r="B403" t="inlineStr"/>
       <c r="C403" t="inlineStr"/>
       <c r="D403" t="n">
-        <v>36672</v>
+        <v>3667</v>
       </c>
       <c r="E403" t="n">
         <v>10</v>
@@ -7710,7 +7710,7 @@
       <c r="B404" t="inlineStr"/>
       <c r="C404" t="inlineStr"/>
       <c r="D404" t="n">
-        <v>45156</v>
+        <v>4516</v>
       </c>
       <c r="E404" t="n">
         <v>10</v>
@@ -7728,7 +7728,7 @@
       <c r="B405" t="inlineStr"/>
       <c r="C405" t="inlineStr"/>
       <c r="D405" t="n">
-        <v>45156</v>
+        <v>4516</v>
       </c>
       <c r="E405" t="n">
         <v>10</v>
@@ -7746,7 +7746,7 @@
       <c r="B406" t="inlineStr"/>
       <c r="C406" t="inlineStr"/>
       <c r="D406" t="n">
-        <v>42228</v>
+        <v>4223</v>
       </c>
       <c r="E406" t="n">
         <v>10</v>
@@ -7764,7 +7764,7 @@
       <c r="B407" t="inlineStr"/>
       <c r="C407" t="inlineStr"/>
       <c r="D407" t="n">
-        <v>42228</v>
+        <v>4223</v>
       </c>
       <c r="E407" t="n">
         <v>10</v>
@@ -7782,7 +7782,7 @@
       <c r="B408" t="inlineStr"/>
       <c r="C408" t="inlineStr"/>
       <c r="D408" t="n">
-        <v>85188</v>
+        <v>8519</v>
       </c>
       <c r="E408" t="n">
         <v>4</v>
@@ -7818,7 +7818,7 @@
       <c r="B410" t="inlineStr"/>
       <c r="C410" t="inlineStr"/>
       <c r="D410" t="n">
-        <v>38304</v>
+        <v>3830</v>
       </c>
       <c r="E410" t="n">
         <v>1</v>
@@ -7854,7 +7854,7 @@
       <c r="B412" t="inlineStr"/>
       <c r="C412" t="inlineStr"/>
       <c r="D412" t="n">
-        <v>37488</v>
+        <v>3749</v>
       </c>
       <c r="E412" t="n">
         <v>10</v>
@@ -7872,7 +7872,7 @@
       <c r="B413" t="inlineStr"/>
       <c r="C413" t="inlineStr"/>
       <c r="D413" t="n">
-        <v>38304</v>
+        <v>3830</v>
       </c>
       <c r="E413" t="n">
         <v>10</v>
@@ -7944,7 +7944,7 @@
       <c r="B417" t="inlineStr"/>
       <c r="C417" t="inlineStr"/>
       <c r="D417" t="n">
-        <v>52968</v>
+        <v>5297</v>
       </c>
       <c r="E417" t="n">
         <v>10</v>
@@ -8340,7 +8340,7 @@
       <c r="B439" t="inlineStr"/>
       <c r="C439" t="inlineStr"/>
       <c r="D439" t="n">
-        <v>10704</v>
+        <v>1070</v>
       </c>
       <c r="E439" t="n">
         <v>10</v>
@@ -8466,7 +8466,7 @@
       <c r="B446" t="inlineStr"/>
       <c r="C446" t="inlineStr"/>
       <c r="D446" t="n">
-        <v>55848</v>
+        <v>5585</v>
       </c>
       <c r="E446" t="n">
         <v>10</v>
@@ -8484,7 +8484,7 @@
       <c r="B447" t="inlineStr"/>
       <c r="C447" t="inlineStr"/>
       <c r="D447" t="n">
-        <v>122508</v>
+        <v>12251</v>
       </c>
       <c r="E447" t="n">
         <v>10</v>
@@ -8520,7 +8520,7 @@
       <c r="B449" t="inlineStr"/>
       <c r="C449" t="inlineStr"/>
       <c r="D449" t="n">
-        <v>63708</v>
+        <v>6371</v>
       </c>
       <c r="E449" t="n">
         <v>10</v>
@@ -8538,7 +8538,7 @@
       <c r="B450" t="inlineStr"/>
       <c r="C450" t="inlineStr"/>
       <c r="D450" t="n">
-        <v>55548</v>
+        <v>5555</v>
       </c>
       <c r="E450" t="n">
         <v>10</v>
@@ -8556,7 +8556,7 @@
       <c r="B451" t="inlineStr"/>
       <c r="C451" t="inlineStr"/>
       <c r="D451" t="n">
-        <v>49728</v>
+        <v>4973</v>
       </c>
       <c r="E451" t="n">
         <v>10</v>
@@ -8592,7 +8592,7 @@
       <c r="B453" t="inlineStr"/>
       <c r="C453" t="inlineStr"/>
       <c r="D453" t="n">
-        <v>33228</v>
+        <v>3323</v>
       </c>
       <c r="E453" t="n">
         <v>10</v>
@@ -8610,7 +8610,7 @@
       <c r="B454" t="inlineStr"/>
       <c r="C454" t="inlineStr"/>
       <c r="D454" t="n">
-        <v>42072</v>
+        <v>4207</v>
       </c>
       <c r="E454" t="n">
         <v>10</v>
@@ -8646,7 +8646,7 @@
       <c r="B456" t="inlineStr"/>
       <c r="C456" t="inlineStr"/>
       <c r="D456" t="n">
-        <v>28212</v>
+        <v>2821</v>
       </c>
       <c r="E456" t="n">
         <v>10</v>
@@ -8664,7 +8664,7 @@
       <c r="B457" t="inlineStr"/>
       <c r="C457" t="inlineStr"/>
       <c r="D457" t="n">
-        <v>47256</v>
+        <v>4726</v>
       </c>
       <c r="E457" t="n">
         <v>10</v>
@@ -8682,7 +8682,7 @@
       <c r="B458" t="inlineStr"/>
       <c r="C458" t="inlineStr"/>
       <c r="D458" t="n">
-        <v>63492</v>
+        <v>6349</v>
       </c>
       <c r="E458" t="n">
         <v>10</v>
@@ -8700,7 +8700,7 @@
       <c r="B459" t="inlineStr"/>
       <c r="C459" t="inlineStr"/>
       <c r="D459" t="n">
-        <v>41952</v>
+        <v>4195</v>
       </c>
       <c r="E459" t="n">
         <v>10</v>
@@ -8718,7 +8718,7 @@
       <c r="B460" t="inlineStr"/>
       <c r="C460" t="inlineStr"/>
       <c r="D460" t="n">
-        <v>31392</v>
+        <v>3139</v>
       </c>
       <c r="E460" t="n">
         <v>10</v>
@@ -8736,7 +8736,7 @@
       <c r="B461" t="inlineStr"/>
       <c r="C461" t="inlineStr"/>
       <c r="D461" t="n">
-        <v>32028</v>
+        <v>3203</v>
       </c>
       <c r="E461" t="n">
         <v>10</v>
@@ -8754,7 +8754,7 @@
       <c r="B462" t="inlineStr"/>
       <c r="C462" t="inlineStr"/>
       <c r="D462" t="n">
-        <v>35556</v>
+        <v>3556</v>
       </c>
       <c r="E462" t="n">
         <v>10</v>
@@ -8772,7 +8772,7 @@
       <c r="B463" t="inlineStr"/>
       <c r="C463" t="inlineStr"/>
       <c r="D463" t="n">
-        <v>49044</v>
+        <v>4904</v>
       </c>
       <c r="E463" t="n">
         <v>10</v>
@@ -8790,7 +8790,7 @@
       <c r="B464" t="inlineStr"/>
       <c r="C464" t="inlineStr"/>
       <c r="D464" t="n">
-        <v>65328</v>
+        <v>6533</v>
       </c>
       <c r="E464" t="n">
         <v>10</v>
@@ -8808,7 +8808,7 @@
       <c r="B465" t="inlineStr"/>
       <c r="C465" t="inlineStr"/>
       <c r="D465" t="n">
-        <v>65328</v>
+        <v>6533</v>
       </c>
       <c r="E465" t="n">
         <v>10</v>
@@ -8826,7 +8826,7 @@
       <c r="B466" t="inlineStr"/>
       <c r="C466" t="inlineStr"/>
       <c r="D466" t="n">
-        <v>74028</v>
+        <v>7403</v>
       </c>
       <c r="E466" t="n">
         <v>10</v>
@@ -8844,7 +8844,7 @@
       <c r="B467" t="inlineStr"/>
       <c r="C467" t="inlineStr"/>
       <c r="D467" t="n">
-        <v>74028</v>
+        <v>7403</v>
       </c>
       <c r="E467" t="n">
         <v>10</v>
@@ -8880,7 +8880,7 @@
       <c r="B469" t="inlineStr"/>
       <c r="C469" t="inlineStr"/>
       <c r="D469" t="n">
-        <v>61944</v>
+        <v>6194</v>
       </c>
       <c r="E469" t="n">
         <v>10</v>
@@ -8898,7 +8898,7 @@
       <c r="B470" t="inlineStr"/>
       <c r="C470" t="inlineStr"/>
       <c r="D470" t="n">
-        <v>48876</v>
+        <v>4888</v>
       </c>
       <c r="E470" t="n">
         <v>10</v>
@@ -8916,7 +8916,7 @@
       <c r="B471" t="inlineStr"/>
       <c r="C471" t="inlineStr"/>
       <c r="D471" t="n">
-        <v>106152</v>
+        <v>10615</v>
       </c>
       <c r="E471" t="n">
         <v>10</v>
@@ -8952,7 +8952,7 @@
       <c r="B473" t="inlineStr"/>
       <c r="C473" t="inlineStr"/>
       <c r="D473" t="n">
-        <v>119592</v>
+        <v>11959</v>
       </c>
       <c r="E473" t="n">
         <v>10</v>
@@ -8988,7 +8988,7 @@
       <c r="B475" t="inlineStr"/>
       <c r="C475" t="inlineStr"/>
       <c r="D475" t="n">
-        <v>72096</v>
+        <v>7210</v>
       </c>
       <c r="E475" t="n">
         <v>10</v>
@@ -9006,7 +9006,7 @@
       <c r="B476" t="inlineStr"/>
       <c r="C476" t="inlineStr"/>
       <c r="D476" t="n">
-        <v>72888</v>
+        <v>7289</v>
       </c>
       <c r="E476" t="n">
         <v>10</v>
@@ -9024,7 +9024,7 @@
       <c r="B477" t="inlineStr"/>
       <c r="C477" t="inlineStr"/>
       <c r="D477" t="n">
-        <v>58644</v>
+        <v>5864</v>
       </c>
       <c r="E477" t="n">
         <v>10</v>
@@ -9042,7 +9042,7 @@
       <c r="B478" t="inlineStr"/>
       <c r="C478" t="inlineStr"/>
       <c r="D478" t="n">
-        <v>57264</v>
+        <v>5726</v>
       </c>
       <c r="E478" t="n">
         <v>10</v>
@@ -9060,7 +9060,7 @@
       <c r="B479" t="inlineStr"/>
       <c r="C479" t="inlineStr"/>
       <c r="D479" t="n">
-        <v>27936</v>
+        <v>2794</v>
       </c>
       <c r="E479" t="n">
         <v>10</v>
@@ -9078,7 +9078,7 @@
       <c r="B480" t="inlineStr"/>
       <c r="C480" t="inlineStr"/>
       <c r="D480" t="n">
-        <v>28932</v>
+        <v>2893</v>
       </c>
       <c r="E480" t="n">
         <v>10</v>
@@ -9096,7 +9096,7 @@
       <c r="B481" t="inlineStr"/>
       <c r="C481" t="inlineStr"/>
       <c r="D481" t="n">
-        <v>44364</v>
+        <v>4436</v>
       </c>
       <c r="E481" t="n">
         <v>10</v>
@@ -9114,7 +9114,7 @@
       <c r="B482" t="inlineStr"/>
       <c r="C482" t="inlineStr"/>
       <c r="D482" t="n">
-        <v>57144</v>
+        <v>5714</v>
       </c>
       <c r="E482" t="n">
         <v>10</v>
@@ -9150,7 +9150,7 @@
       <c r="B484" t="inlineStr"/>
       <c r="C484" t="inlineStr"/>
       <c r="D484" t="n">
-        <v>126492</v>
+        <v>12649</v>
       </c>
       <c r="E484" t="n">
         <v>10</v>
@@ -9168,7 +9168,7 @@
       <c r="B485" t="inlineStr"/>
       <c r="C485" t="inlineStr"/>
       <c r="D485" t="n">
-        <v>126492</v>
+        <v>12649</v>
       </c>
       <c r="E485" t="n">
         <v>10</v>
@@ -9186,7 +9186,7 @@
       <c r="B486" t="inlineStr"/>
       <c r="C486" t="inlineStr"/>
       <c r="D486" t="n">
-        <v>54288</v>
+        <v>5429</v>
       </c>
       <c r="E486" t="n">
         <v>10</v>
@@ -9222,7 +9222,7 @@
       <c r="B488" t="inlineStr"/>
       <c r="C488" t="inlineStr"/>
       <c r="D488" t="n">
-        <v>63864</v>
+        <v>6386</v>
       </c>
       <c r="E488" t="n">
         <v>10</v>
@@ -9240,7 +9240,7 @@
       <c r="B489" t="inlineStr"/>
       <c r="C489" t="inlineStr"/>
       <c r="D489" t="n">
-        <v>67236</v>
+        <v>6724</v>
       </c>
       <c r="E489" t="n">
         <v>10</v>
@@ -9258,7 +9258,7 @@
       <c r="B490" t="inlineStr"/>
       <c r="C490" t="inlineStr"/>
       <c r="D490" t="n">
-        <v>68424</v>
+        <v>6842</v>
       </c>
       <c r="E490" t="n">
         <v>10</v>
@@ -9276,7 +9276,7 @@
       <c r="B491" t="inlineStr"/>
       <c r="C491" t="inlineStr"/>
       <c r="D491" t="n">
-        <v>87588</v>
+        <v>8759</v>
       </c>
       <c r="E491" t="n">
         <v>10</v>
@@ -9294,7 +9294,7 @@
       <c r="B492" t="inlineStr"/>
       <c r="C492" t="inlineStr"/>
       <c r="D492" t="n">
-        <v>83664</v>
+        <v>8366</v>
       </c>
       <c r="E492" t="n">
         <v>10</v>
@@ -9312,7 +9312,7 @@
       <c r="B493" t="inlineStr"/>
       <c r="C493" t="inlineStr"/>
       <c r="D493" t="n">
-        <v>79728</v>
+        <v>7973</v>
       </c>
       <c r="E493" t="n">
         <v>10</v>
@@ -9330,7 +9330,7 @@
       <c r="B494" t="inlineStr"/>
       <c r="C494" t="inlineStr"/>
       <c r="D494" t="n">
-        <v>65928</v>
+        <v>6593</v>
       </c>
       <c r="E494" t="n">
         <v>10</v>
@@ -9348,7 +9348,7 @@
       <c r="B495" t="inlineStr"/>
       <c r="C495" t="inlineStr"/>
       <c r="D495" t="n">
-        <v>59796</v>
+        <v>5980</v>
       </c>
       <c r="E495" t="n">
         <v>10</v>
@@ -9366,7 +9366,7 @@
       <c r="B496" t="inlineStr"/>
       <c r="C496" t="inlineStr"/>
       <c r="D496" t="n">
-        <v>57408</v>
+        <v>5741</v>
       </c>
       <c r="E496" t="n">
         <v>10</v>
@@ -9384,7 +9384,7 @@
       <c r="B497" t="inlineStr"/>
       <c r="C497" t="inlineStr"/>
       <c r="D497" t="n">
-        <v>56304</v>
+        <v>5630</v>
       </c>
       <c r="E497" t="n">
         <v>10</v>
@@ -9402,7 +9402,7 @@
       <c r="B498" t="inlineStr"/>
       <c r="C498" t="inlineStr"/>
       <c r="D498" t="n">
-        <v>71832</v>
+        <v>7183</v>
       </c>
       <c r="E498" t="n">
         <v>10</v>
@@ -9420,7 +9420,7 @@
       <c r="B499" t="inlineStr"/>
       <c r="C499" t="inlineStr"/>
       <c r="D499" t="n">
-        <v>62856</v>
+        <v>6286</v>
       </c>
       <c r="E499" t="n">
         <v>10</v>
@@ -9438,7 +9438,7 @@
       <c r="B500" t="inlineStr"/>
       <c r="C500" t="inlineStr"/>
       <c r="D500" t="n">
-        <v>55488</v>
+        <v>5549</v>
       </c>
       <c r="E500" t="n">
         <v>10</v>
@@ -9456,7 +9456,7 @@
       <c r="B501" t="inlineStr"/>
       <c r="C501" t="inlineStr"/>
       <c r="D501" t="n">
-        <v>41064</v>
+        <v>4106</v>
       </c>
       <c r="E501" t="n">
         <v>10</v>
@@ -9636,7 +9636,7 @@
       <c r="B511" t="inlineStr"/>
       <c r="C511" t="inlineStr"/>
       <c r="D511" t="n">
-        <v>5184</v>
+        <v>518</v>
       </c>
       <c r="E511" t="n">
         <v>10</v>
@@ -9744,7 +9744,7 @@
       <c r="B517" t="inlineStr"/>
       <c r="C517" t="inlineStr"/>
       <c r="D517" t="n">
-        <v>6408</v>
+        <v>641</v>
       </c>
       <c r="E517" t="n">
         <v>10</v>
@@ -9780,7 +9780,7 @@
       <c r="B519" t="inlineStr"/>
       <c r="C519" t="inlineStr"/>
       <c r="D519" t="n">
-        <v>2988</v>
+        <v>299</v>
       </c>
       <c r="E519" t="n">
         <v>10</v>
@@ -9798,7 +9798,7 @@
       <c r="B520" t="inlineStr"/>
       <c r="C520" t="inlineStr"/>
       <c r="D520" t="n">
-        <v>2988</v>
+        <v>299</v>
       </c>
       <c r="E520" t="n">
         <v>10</v>
@@ -9816,7 +9816,7 @@
       <c r="B521" t="inlineStr"/>
       <c r="C521" t="inlineStr"/>
       <c r="D521" t="n">
-        <v>3336</v>
+        <v>334</v>
       </c>
       <c r="E521" t="n">
         <v>10</v>
@@ -9834,7 +9834,7 @@
       <c r="B522" t="inlineStr"/>
       <c r="C522" t="inlineStr"/>
       <c r="D522" t="n">
-        <v>3336</v>
+        <v>334</v>
       </c>
       <c r="E522" t="n">
         <v>10</v>
@@ -9852,7 +9852,7 @@
       <c r="B523" t="inlineStr"/>
       <c r="C523" t="inlineStr"/>
       <c r="D523" t="n">
-        <v>3336</v>
+        <v>334</v>
       </c>
       <c r="E523" t="n">
         <v>10</v>
@@ -9870,7 +9870,7 @@
       <c r="B524" t="inlineStr"/>
       <c r="C524" t="inlineStr"/>
       <c r="D524" t="n">
-        <v>3336</v>
+        <v>334</v>
       </c>
       <c r="E524" t="n">
         <v>10</v>
@@ -9888,7 +9888,7 @@
       <c r="B525" t="inlineStr"/>
       <c r="C525" t="inlineStr"/>
       <c r="D525" t="n">
-        <v>3516</v>
+        <v>352</v>
       </c>
       <c r="E525" t="n">
         <v>10</v>
@@ -9906,7 +9906,7 @@
       <c r="B526" t="inlineStr"/>
       <c r="C526" t="inlineStr"/>
       <c r="D526" t="n">
-        <v>3516</v>
+        <v>352</v>
       </c>
       <c r="E526" t="n">
         <v>10</v>
@@ -9924,7 +9924,7 @@
       <c r="B527" t="inlineStr"/>
       <c r="C527" t="inlineStr"/>
       <c r="D527" t="n">
-        <v>3516</v>
+        <v>352</v>
       </c>
       <c r="E527" t="n">
         <v>10</v>
@@ -9942,7 +9942,7 @@
       <c r="B528" t="inlineStr"/>
       <c r="C528" t="inlineStr"/>
       <c r="D528" t="n">
-        <v>3864</v>
+        <v>386</v>
       </c>
       <c r="E528" t="n">
         <v>10</v>
@@ -9960,7 +9960,7 @@
       <c r="B529" t="inlineStr"/>
       <c r="C529" t="inlineStr"/>
       <c r="D529" t="n">
-        <v>4056</v>
+        <v>406</v>
       </c>
       <c r="E529" t="n">
         <v>10</v>
@@ -9978,7 +9978,7 @@
       <c r="B530" t="inlineStr"/>
       <c r="C530" t="inlineStr"/>
       <c r="D530" t="n">
-        <v>4056</v>
+        <v>406</v>
       </c>
       <c r="E530" t="n">
         <v>10</v>
@@ -10050,7 +10050,7 @@
       <c r="B534" t="inlineStr"/>
       <c r="C534" t="inlineStr"/>
       <c r="D534" t="n">
-        <v>2868</v>
+        <v>287</v>
       </c>
       <c r="E534" t="n">
         <v>10</v>
@@ -10068,7 +10068,7 @@
       <c r="B535" t="inlineStr"/>
       <c r="C535" t="inlineStr"/>
       <c r="D535" t="n">
-        <v>2952</v>
+        <v>295</v>
       </c>
       <c r="E535" t="n">
         <v>10</v>
@@ -10194,7 +10194,7 @@
       <c r="B542" t="inlineStr"/>
       <c r="C542" t="inlineStr"/>
       <c r="D542" t="n">
-        <v>4476</v>
+        <v>448</v>
       </c>
       <c r="E542" t="n">
         <v>10</v>
@@ -10230,7 +10230,7 @@
       <c r="B544" t="inlineStr"/>
       <c r="C544" t="inlineStr"/>
       <c r="D544" t="n">
-        <v>5184</v>
+        <v>518</v>
       </c>
       <c r="E544" t="n">
         <v>10</v>

--- a/price_for_emex.xlsx
+++ b/price_for_emex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F535"/>
+  <dimension ref="A1:F549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6980,17 +6980,17 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>595843AVT</t>
+          <t>595575AVT</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Бендикс (Шестерня привода ) LADA LARGUS</t>
+          <t>Бендикс (Шестерня привода )</t>
         </is>
       </c>
       <c r="C298" t="inlineStr"/>
       <c r="D298" t="n">
-        <v>900</v>
+        <v>1020</v>
       </c>
       <c r="E298" t="n">
         <v>10</v>
@@ -7002,17 +7002,17 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>RF004AVT</t>
+          <t>595575AVT</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Вентилятор системы охлаждения Nissan Qashqai</t>
+          <t>Бендикс (Шестерня привода )</t>
         </is>
       </c>
       <c r="C299" t="inlineStr"/>
       <c r="D299" t="n">
-        <v>6600</v>
+        <v>1020</v>
       </c>
       <c r="E299" t="n">
         <v>10</v>
@@ -7024,17 +7024,17 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>RF005AVT</t>
+          <t>595843AVT</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Вентилятор системы охлаждения Nissan X-Trail, Qashqai (Дизель)</t>
+          <t>Бендикс (Шестерня привода ) LADA LARGUS</t>
         </is>
       </c>
       <c r="C300" t="inlineStr"/>
       <c r="D300" t="n">
-        <v>6600</v>
+        <v>900</v>
       </c>
       <c r="E300" t="n">
         <v>10</v>
@@ -7046,17 +7046,17 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>595785AVT</t>
+          <t>595844AVT</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Втягивающее реле (для 438327 / 438328)</t>
+          <t>Бендикс (Шестерня привода ) RENAULT DUSTER</t>
         </is>
       </c>
       <c r="C301" t="inlineStr"/>
       <c r="D301" t="n">
-        <v>1800</v>
+        <v>1080</v>
       </c>
       <c r="E301" t="n">
         <v>10</v>
@@ -7068,20 +7068,20 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>AL200AVT</t>
+          <t>595844AVT</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Генератор LADA GRANTA 110А</t>
+          <t>Бендикс (Шестерня привода ) RENAULT DUSTER</t>
         </is>
       </c>
       <c r="C302" t="inlineStr"/>
       <c r="D302" t="n">
-        <v>9996</v>
+        <v>1080</v>
       </c>
       <c r="E302" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F302" t="n">
         <v>1</v>
@@ -7090,20 +7090,20 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>AL200AVT</t>
+          <t>RF004AVT</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Генератор LADA GRANTA 110А</t>
+          <t>Вентилятор системы охлаждения Nissan Qashqai</t>
         </is>
       </c>
       <c r="C303" t="inlineStr"/>
       <c r="D303" t="n">
-        <v>9996</v>
+        <v>6600</v>
       </c>
       <c r="E303" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F303" t="n">
         <v>1</v>
@@ -7112,17 +7112,17 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>BD050AVT</t>
+          <t>RF005AVT</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Диск тормозной Audi A4 / A6 (95-) передний</t>
+          <t>Вентилятор системы охлаждения Nissan X-Trail, Qashqai (Дизель)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr"/>
       <c r="D304" t="n">
-        <v>2020</v>
+        <v>6600</v>
       </c>
       <c r="E304" t="n">
         <v>10</v>
@@ -7134,17 +7134,17 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>BD075AVT</t>
+          <t>595739AVT</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Диск тормозной Audi Q5 (08-) задний</t>
+          <t>Втягивающее реле</t>
         </is>
       </c>
       <c r="C305" t="inlineStr"/>
       <c r="D305" t="n">
-        <v>1718</v>
+        <v>1080</v>
       </c>
       <c r="E305" t="n">
         <v>10</v>
@@ -7156,17 +7156,17 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>BD056AVT</t>
+          <t>595739AVT</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Диск тормозной Audi Q7 (06-) задний</t>
+          <t>Втягивающее реле</t>
         </is>
       </c>
       <c r="C306" t="inlineStr"/>
       <c r="D306" t="n">
-        <v>2719</v>
+        <v>1080</v>
       </c>
       <c r="E306" t="n">
         <v>10</v>
@@ -7178,17 +7178,17 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>BD021AVT</t>
+          <t>595785AVT</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Диск тормозной Chevrolet Aveo (02-) / Spark (05-) передний</t>
+          <t>Втягивающее реле (для 438327 / 438328)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr"/>
       <c r="D307" t="n">
-        <v>1090</v>
+        <v>1800</v>
       </c>
       <c r="E307" t="n">
         <v>10</v>
@@ -7200,17 +7200,17 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>BD022AVT</t>
+          <t>595776AVT</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Диск тормозной Chevrolet Cruze (09-) / Aveo (11-) задний</t>
+          <t>Втягивающее реле LADA VESTA / RENUALT LOGAN</t>
         </is>
       </c>
       <c r="C308" t="inlineStr"/>
       <c r="D308" t="n">
-        <v>1550</v>
+        <v>1440</v>
       </c>
       <c r="E308" t="n">
         <v>10</v>
@@ -7222,17 +7222,17 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>BD018AVT</t>
+          <t>595776AVT</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Диск тормозной Chevrolet Cruze (09-) / Aveo (11-) передний</t>
+          <t>Втягивающее реле LADA VESTA / RENUALT LOGAN</t>
         </is>
       </c>
       <c r="C309" t="inlineStr"/>
       <c r="D309" t="n">
-        <v>2197</v>
+        <v>1440</v>
       </c>
       <c r="E309" t="n">
         <v>10</v>
@@ -7244,17 +7244,17 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>BD049AVT</t>
+          <t>AL200AVT</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Диск тормозной Chevrolet Lacetti (04-) задний</t>
+          <t>Генератор LADA GRANTA 110А</t>
         </is>
       </c>
       <c r="C310" t="inlineStr"/>
       <c r="D310" t="n">
-        <v>1400</v>
+        <v>9996</v>
       </c>
       <c r="E310" t="n">
         <v>10</v>
@@ -7266,17 +7266,17 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>BD039AVT</t>
+          <t>AL200AVT</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Диск тормозной Daewoo Matiz (98-) передний</t>
+          <t>Генератор LADA GRANTA 110А</t>
         </is>
       </c>
       <c r="C311" t="inlineStr"/>
       <c r="D311" t="n">
-        <v>1043</v>
+        <v>9996</v>
       </c>
       <c r="E311" t="n">
         <v>10</v>
@@ -7288,17 +7288,17 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>BD042AVT</t>
+          <t>BD050AVT</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Fiesta (02-) / Fusion (02-) передний</t>
+          <t>Диск тормозной Audi A4 / A6 (95-) передний</t>
         </is>
       </c>
       <c r="C312" t="inlineStr"/>
       <c r="D312" t="n">
-        <v>1481</v>
+        <v>2020</v>
       </c>
       <c r="E312" t="n">
         <v>10</v>
@@ -7310,20 +7310,20 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>BD040AVT</t>
+          <t>BD075AVT</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Focus (04-) задний</t>
+          <t>Диск тормозной Audi Q5 (08-) задний</t>
         </is>
       </c>
       <c r="C313" t="inlineStr"/>
       <c r="D313" t="n">
-        <v>1373</v>
+        <v>1718</v>
       </c>
       <c r="E313" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F313" t="n">
         <v>1</v>
@@ -7332,17 +7332,17 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>BD015AVT</t>
+          <t>BD056AVT</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Focus (04-) задний d.264,8</t>
+          <t>Диск тормозной Audi Q7 (06-) задний</t>
         </is>
       </c>
       <c r="C314" t="inlineStr"/>
       <c r="D314" t="n">
-        <v>1270</v>
+        <v>2719</v>
       </c>
       <c r="E314" t="n">
         <v>10</v>
@@ -7354,17 +7354,17 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>BD006AVT</t>
+          <t>BD021AVT</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Focus II (05-) / Ford Focus III (11-) передний</t>
+          <t>Диск тормозной Chevrolet Aveo (02-) / Spark (05-) передний</t>
         </is>
       </c>
       <c r="C315" t="inlineStr"/>
       <c r="D315" t="n">
-        <v>2310</v>
+        <v>1090</v>
       </c>
       <c r="E315" t="n">
         <v>10</v>
@@ -7376,17 +7376,17 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>BD013AVT</t>
+          <t>BD022AVT</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Focus II (05-) / Ford Focus III (11-) передний d.278,1</t>
+          <t>Диск тормозной Chevrolet Cruze (09-) / Aveo (11-) задний</t>
         </is>
       </c>
       <c r="C316" t="inlineStr"/>
       <c r="D316" t="n">
-        <v>1964</v>
+        <v>1550</v>
       </c>
       <c r="E316" t="n">
         <v>10</v>
@@ -7398,17 +7398,17 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>BD032AVT</t>
+          <t>BD018AVT</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Focus III (11-) задний</t>
+          <t>Диск тормозной Chevrolet Cruze (09-) / Aveo (11-) передний</t>
         </is>
       </c>
       <c r="C317" t="inlineStr"/>
       <c r="D317" t="n">
-        <v>1494</v>
+        <v>2197</v>
       </c>
       <c r="E317" t="n">
         <v>10</v>
@@ -7420,17 +7420,17 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>BD076AVT</t>
+          <t>BD049AVT</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Mondeo IV (07-) задний</t>
+          <t>Диск тормозной Chevrolet Lacetti (04-) задний</t>
         </is>
       </c>
       <c r="C318" t="inlineStr"/>
       <c r="D318" t="n">
-        <v>1741</v>
+        <v>1400</v>
       </c>
       <c r="E318" t="n">
         <v>10</v>
@@ -7442,17 +7442,17 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>BD033AVT</t>
+          <t>BD039AVT</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Accent (00-) передний</t>
+          <t>Диск тормозной Daewoo Matiz (98-) передний</t>
         </is>
       </c>
       <c r="C319" t="inlineStr"/>
       <c r="D319" t="n">
-        <v>1333</v>
+        <v>1043</v>
       </c>
       <c r="E319" t="n">
         <v>10</v>
@@ -7464,17 +7464,17 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>BD037AVT</t>
+          <t>BD042AVT</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Creta (16-) задний 2WD</t>
+          <t>Диск тормозной Ford Fiesta (02-) / Fusion (02-) передний</t>
         </is>
       </c>
       <c r="C320" t="inlineStr"/>
       <c r="D320" t="n">
-        <v>1270</v>
+        <v>1481</v>
       </c>
       <c r="E320" t="n">
         <v>10</v>
@@ -7486,20 +7486,20 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>BD041AVT</t>
+          <t>BD040AVT</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Getz (02-) задний</t>
+          <t>Диск тормозной Ford Focus (04-) задний</t>
         </is>
       </c>
       <c r="C321" t="inlineStr"/>
       <c r="D321" t="n">
-        <v>1253</v>
+        <v>1373</v>
       </c>
       <c r="E321" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F321" t="n">
         <v>1</v>
@@ -7508,17 +7508,17 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>BD054AVT</t>
+          <t>BD015AVT</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Getz (02-) передний (ABS)</t>
+          <t>Диск тормозной Ford Focus (04-) задний d.264,8</t>
         </is>
       </c>
       <c r="C322" t="inlineStr"/>
       <c r="D322" t="n">
-        <v>1343</v>
+        <v>1270</v>
       </c>
       <c r="E322" t="n">
         <v>10</v>
@@ -7530,17 +7530,17 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>BD055AVT</t>
+          <t>BD006AVT</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Getz (02-) передний (без ABS)</t>
+          <t>Диск тормозной Ford Focus II (05-) / Ford Focus III (11-) передний</t>
         </is>
       </c>
       <c r="C323" t="inlineStr"/>
       <c r="D323" t="n">
-        <v>1309</v>
+        <v>2310</v>
       </c>
       <c r="E323" t="n">
         <v>10</v>
@@ -7552,17 +7552,17 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>BD002AVT</t>
+          <t>BD013AVT</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Solaris (10-) (17-) задний</t>
+          <t>Диск тормозной Ford Focus II (05-) / Ford Focus III (11-) передний d.278,1</t>
         </is>
       </c>
       <c r="C324" t="inlineStr"/>
       <c r="D324" t="n">
-        <v>1230</v>
+        <v>1964</v>
       </c>
       <c r="E324" t="n">
         <v>10</v>
@@ -7574,17 +7574,17 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>BD001AVT</t>
+          <t>BD032AVT</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Solaris (10-) (17-) передний</t>
+          <t>Диск тормозной Ford Focus III (11-) задний</t>
         </is>
       </c>
       <c r="C325" t="inlineStr"/>
       <c r="D325" t="n">
-        <v>1418</v>
+        <v>1494</v>
       </c>
       <c r="E325" t="n">
         <v>10</v>
@@ -7596,17 +7596,17 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>BD027AVT</t>
+          <t>BD076AVT</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Ceed (07-) / Cerato (09-) / Hyundai i30 (07-) передний</t>
+          <t>Диск тормозной Ford Mondeo IV (07-) задний</t>
         </is>
       </c>
       <c r="C326" t="inlineStr"/>
       <c r="D326" t="n">
-        <v>1949</v>
+        <v>1741</v>
       </c>
       <c r="E326" t="n">
         <v>10</v>
@@ -7618,17 +7618,17 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>BD068AVT</t>
+          <t>BD033AVT</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Sorento II (09-) задний</t>
+          <t>Диск тормозной Hyundai Accent (00-) передний</t>
         </is>
       </c>
       <c r="C327" t="inlineStr"/>
       <c r="D327" t="n">
-        <v>1909</v>
+        <v>1333</v>
       </c>
       <c r="E327" t="n">
         <v>10</v>
@@ -7640,17 +7640,17 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>BD028AVT</t>
+          <t>BD037AVT</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Sportage (10-) / Hyundai ix35 (10-) задний</t>
+          <t>Диск тормозной Hyundai Creta (16-) задний 2WD</t>
         </is>
       </c>
       <c r="C328" t="inlineStr"/>
       <c r="D328" t="n">
-        <v>1324</v>
+        <v>1270</v>
       </c>
       <c r="E328" t="n">
         <v>10</v>
@@ -7662,17 +7662,17 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>BD045AVT</t>
+          <t>BD041AVT</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Sportage III (10-) / Hyundai iX 35 (09-) задний</t>
+          <t>Диск тормозной Hyundai Getz (02-) задний</t>
         </is>
       </c>
       <c r="C329" t="inlineStr"/>
       <c r="D329" t="n">
-        <v>1459</v>
+        <v>1253</v>
       </c>
       <c r="E329" t="n">
         <v>10</v>
@@ -7684,17 +7684,17 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>BD031AVT</t>
+          <t>BD054AVT</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Sportage III (10-) / Hyundai ix35 (10-) / Creta (16-) передний</t>
+          <t>Диск тормозной Hyundai Getz (02-) передний (ABS)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr"/>
       <c r="D330" t="n">
-        <v>2431</v>
+        <v>1343</v>
       </c>
       <c r="E330" t="n">
         <v>10</v>
@@ -7706,17 +7706,17 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>BD031AVT</t>
+          <t>BD055AVT</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Sportage III (10-) / Hyundai ix35 (10-) / Creta (16-) передний</t>
+          <t>Диск тормозной Hyundai Getz (02-) передний (без ABS)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr"/>
       <c r="D331" t="n">
-        <v>2431</v>
+        <v>1309</v>
       </c>
       <c r="E331" t="n">
         <v>10</v>
@@ -7728,17 +7728,17 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>BD011AVT</t>
+          <t>BD002AVT</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Диск тормозной Lada Largus (12-) / Renault Logan (07-) передний (без ABS)</t>
+          <t>Диск тормозной Hyundai Solaris (10-) (17-) задний</t>
         </is>
       </c>
       <c r="C332" t="inlineStr"/>
       <c r="D332" t="n">
-        <v>1451</v>
+        <v>1230</v>
       </c>
       <c r="E332" t="n">
         <v>10</v>
@@ -7750,17 +7750,17 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>BD060AVT</t>
+          <t>BD001AVT</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Диск тормозной Mazda 3 (03-) задний</t>
+          <t>Диск тормозной Hyundai Solaris (10-) (17-) передний</t>
         </is>
       </c>
       <c r="C333" t="inlineStr"/>
       <c r="D333" t="n">
-        <v>1231</v>
+        <v>1418</v>
       </c>
       <c r="E333" t="n">
         <v>10</v>
@@ -7772,17 +7772,17 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>BD059AVT</t>
+          <t>BD027AVT</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Диск тормозной Mazda 3 (03-) передний</t>
+          <t>Диск тормозной Kia Ceed (07-) / Cerato (09-) / Hyundai i30 (07-) передний</t>
         </is>
       </c>
       <c r="C334" t="inlineStr"/>
       <c r="D334" t="n">
-        <v>2041</v>
+        <v>1949</v>
       </c>
       <c r="E334" t="n">
         <v>10</v>
@@ -7794,17 +7794,17 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>BD081AVT</t>
+          <t>BD068AVT</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi ASX (10-) / Outlander III / Peugeot 4008 / Citroen C4 Aircross (12-) задни</t>
+          <t>Диск тормозной Kia Sorento II (09-) задний</t>
         </is>
       </c>
       <c r="C335" t="inlineStr"/>
       <c r="D335" t="n">
-        <v>1757</v>
+        <v>1909</v>
       </c>
       <c r="E335" t="n">
         <v>10</v>
@@ -7816,17 +7816,17 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>BD051AVT</t>
+          <t>BD028AVT</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi Lancer (00-) задний</t>
+          <t>Диск тормозной Kia Sportage (10-) / Hyundai ix35 (10-) задний</t>
         </is>
       </c>
       <c r="C336" t="inlineStr"/>
       <c r="D336" t="n">
-        <v>1262</v>
+        <v>1324</v>
       </c>
       <c r="E336" t="n">
         <v>10</v>
@@ -7838,17 +7838,17 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>BD053AVT</t>
+          <t>BD045AVT</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi Lancer (00-) передний</t>
+          <t>Диск тормозной Kia Sportage III (10-) / Hyundai iX 35 (09-) задний</t>
         </is>
       </c>
       <c r="C337" t="inlineStr"/>
       <c r="D337" t="n">
-        <v>1860</v>
+        <v>1459</v>
       </c>
       <c r="E337" t="n">
         <v>10</v>
@@ -7860,17 +7860,17 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>BD074AVT</t>
+          <t>BD031AVT</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi Lancer (08-) задний</t>
+          <t>Диск тормозной Kia Sportage III (10-) / Hyundai ix35 (10-) / Creta (16-) передний</t>
         </is>
       </c>
       <c r="C338" t="inlineStr"/>
       <c r="D338" t="n">
-        <v>1393</v>
+        <v>2431</v>
       </c>
       <c r="E338" t="n">
         <v>10</v>
@@ -7882,17 +7882,17 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>BD048AVT</t>
+          <t>BD031AVT</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi Outlander (06-) передний</t>
+          <t>Диск тормозной Kia Sportage III (10-) / Hyundai ix35 (10-) / Creta (16-) передний</t>
         </is>
       </c>
       <c r="C339" t="inlineStr"/>
       <c r="D339" t="n">
-        <v>2027</v>
+        <v>2431</v>
       </c>
       <c r="E339" t="n">
         <v>10</v>
@@ -7904,17 +7904,17 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>BD026AVT</t>
+          <t>BD011AVT</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Диск тормозной Nexia (95-) / Lanos (05-) передний</t>
+          <t>Диск тормозной Lada Largus (12-) / Renault Logan (07-) передний (без ABS)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr"/>
       <c r="D340" t="n">
-        <v>1398</v>
+        <v>1451</v>
       </c>
       <c r="E340" t="n">
         <v>10</v>
@@ -7926,17 +7926,17 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>BD079AVT</t>
+          <t>BD060AVT</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Almera Classic (06-) передний</t>
+          <t>Диск тормозной Mazda 3 (03-) задний</t>
         </is>
       </c>
       <c r="C341" t="inlineStr"/>
       <c r="D341" t="n">
-        <v>1254</v>
+        <v>1231</v>
       </c>
       <c r="E341" t="n">
         <v>10</v>
@@ -7948,17 +7948,17 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>BD038AVT</t>
+          <t>BD059AVT</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Juke (10-) задний</t>
+          <t>Диск тормозной Mazda 3 (03-) передний</t>
         </is>
       </c>
       <c r="C342" t="inlineStr"/>
       <c r="D342" t="n">
-        <v>1578</v>
+        <v>2041</v>
       </c>
       <c r="E342" t="n">
         <v>10</v>
@@ -7970,17 +7970,17 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>BD020AVT</t>
+          <t>BD081AVT</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) задний</t>
+          <t>Диск тормозной Mitsubishi ASX (10-) / Outlander III / Peugeot 4008 / Citroen C4 Aircross (12-) задни</t>
         </is>
       </c>
       <c r="C343" t="inlineStr"/>
       <c r="D343" t="n">
-        <v>1664</v>
+        <v>1757</v>
       </c>
       <c r="E343" t="n">
         <v>10</v>
@@ -7992,20 +7992,20 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>BD019AVT</t>
+          <t>BD051AVT</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) передний</t>
+          <t>Диск тормозной Mitsubishi Lancer (00-) задний</t>
         </is>
       </c>
       <c r="C344" t="inlineStr"/>
       <c r="D344" t="n">
-        <v>2299</v>
+        <v>1262</v>
       </c>
       <c r="E344" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F344" t="n">
         <v>1</v>
@@ -8014,20 +8014,20 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>BD019AVT</t>
+          <t>BD053AVT</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) передний</t>
+          <t>Диск тормозной Mitsubishi Lancer (00-) передний</t>
         </is>
       </c>
       <c r="C345" t="inlineStr"/>
       <c r="D345" t="n">
-        <v>2299</v>
+        <v>1860</v>
       </c>
       <c r="E345" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F345" t="n">
         <v>1</v>
@@ -8036,17 +8036,17 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>BD058AVT</t>
+          <t>BD074AVT</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Qashqai II (13-) / X-Trail (14-) передний</t>
+          <t>Диск тормозной Mitsubishi Lancer (08-) задний</t>
         </is>
       </c>
       <c r="C346" t="inlineStr"/>
       <c r="D346" t="n">
-        <v>2034</v>
+        <v>1393</v>
       </c>
       <c r="E346" t="n">
         <v>10</v>
@@ -8058,17 +8058,17 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>BD025AVT</t>
+          <t>BD048AVT</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Диск тормозной Opel Astra H (04-) передний</t>
+          <t>Диск тормозной Mitsubishi Outlander (06-) передний</t>
         </is>
       </c>
       <c r="C347" t="inlineStr"/>
       <c r="D347" t="n">
-        <v>1860</v>
+        <v>2027</v>
       </c>
       <c r="E347" t="n">
         <v>10</v>
@@ -8080,17 +8080,17 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>BD024AVT</t>
+          <t>BD026AVT</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Диск тормозной Opel Astra J (10-) / Chevrolet Cruze (09-) задний</t>
+          <t>Диск тормозной Nexia (95-) / Lanos (05-) передний</t>
         </is>
       </c>
       <c r="C348" t="inlineStr"/>
       <c r="D348" t="n">
-        <v>1507</v>
+        <v>1398</v>
       </c>
       <c r="E348" t="n">
         <v>10</v>
@@ -8102,17 +8102,17 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>BD034AVT</t>
+          <t>BD079AVT</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Диск тормозной Peugeot 307 (00-) / 308 (07-) / Citroen C4 (04-) передний</t>
+          <t>Диск тормозной Nissan Almera Classic (06-) передний</t>
         </is>
       </c>
       <c r="C349" t="inlineStr"/>
       <c r="D349" t="n">
-        <v>1940</v>
+        <v>1254</v>
       </c>
       <c r="E349" t="n">
         <v>10</v>
@@ -8124,17 +8124,17 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>BD069AVT</t>
+          <t>BD038AVT</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Диск тормозной Peugeot Partner / Citroen Berlingo (96-) передний</t>
+          <t>Диск тормозной Nissan Juke (10-) задний</t>
         </is>
       </c>
       <c r="C350" t="inlineStr"/>
       <c r="D350" t="n">
-        <v>1325</v>
+        <v>1578</v>
       </c>
       <c r="E350" t="n">
         <v>10</v>
@@ -8146,17 +8146,17 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>BD023AVT</t>
+          <t>BD020AVT</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Duster (10-) / Arkana (19-)</t>
+          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) задний</t>
         </is>
       </c>
       <c r="C351" t="inlineStr"/>
       <c r="D351" t="n">
-        <v>2221</v>
+        <v>1664</v>
       </c>
       <c r="E351" t="n">
         <v>10</v>
@@ -8168,17 +8168,17 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>BD023AVT</t>
+          <t>BD019AVT</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Duster (10-) / Arkana (19-)</t>
+          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) передний</t>
         </is>
       </c>
       <c r="C352" t="inlineStr"/>
       <c r="D352" t="n">
-        <v>2221</v>
+        <v>2299</v>
       </c>
       <c r="E352" t="n">
         <v>10</v>
@@ -8190,17 +8190,17 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>BD061AVT</t>
+          <t>BD019AVT</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Koleos (08-) передний</t>
+          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) передний</t>
         </is>
       </c>
       <c r="C353" t="inlineStr"/>
       <c r="D353" t="n">
-        <v>2723</v>
+        <v>2299</v>
       </c>
       <c r="E353" t="n">
         <v>10</v>
@@ -8212,17 +8212,17 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>BD004AVT</t>
+          <t>BD058AVT</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Logan (04-) передний</t>
+          <t>Диск тормозной Nissan Qashqai II (13-) / X-Trail (14-) передний</t>
         </is>
       </c>
       <c r="C354" t="inlineStr"/>
       <c r="D354" t="n">
-        <v>1370</v>
+        <v>2034</v>
       </c>
       <c r="E354" t="n">
         <v>10</v>
@@ -8234,17 +8234,17 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>BD004AVT</t>
+          <t>BD025AVT</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Logan (04-) передний</t>
+          <t>Диск тормозной Opel Astra H (04-) передний</t>
         </is>
       </c>
       <c r="C355" t="inlineStr"/>
       <c r="D355" t="n">
-        <v>1370</v>
+        <v>1860</v>
       </c>
       <c r="E355" t="n">
         <v>10</v>
@@ -8256,17 +8256,17 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>BD010AVT</t>
+          <t>BD024AVT</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Logan (04-) передний (без ABS)</t>
+          <t>Диск тормозной Opel Astra J (10-) / Chevrolet Cruze (09-) задний</t>
         </is>
       </c>
       <c r="C356" t="inlineStr"/>
       <c r="D356" t="n">
-        <v>997</v>
+        <v>1507</v>
       </c>
       <c r="E356" t="n">
         <v>10</v>
@@ -8278,17 +8278,17 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>BD012AVT</t>
+          <t>BD034AVT</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Octavia (04-) / VW Golf V (03-) задний</t>
+          <t>Диск тормозной Peugeot 307 (00-) / 308 (07-) / Citroen C4 (04-) передний</t>
         </is>
       </c>
       <c r="C357" t="inlineStr"/>
       <c r="D357" t="n">
-        <v>1234</v>
+        <v>1940</v>
       </c>
       <c r="E357" t="n">
         <v>10</v>
@@ -8300,17 +8300,17 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>BD016AVT</t>
+          <t>BD069AVT</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Octavia (04-) / VW Golf V (03-) передний</t>
+          <t>Диск тормозной Peugeot Partner / Citroen Berlingo (96-) передний</t>
         </is>
       </c>
       <c r="C358" t="inlineStr"/>
       <c r="D358" t="n">
-        <v>1789</v>
+        <v>1325</v>
       </c>
       <c r="E358" t="n">
         <v>10</v>
@@ -8322,17 +8322,17 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>BD008AVT</t>
+          <t>BD023AVT</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Octavia (13-) / VW Golf VII (12-) задний</t>
+          <t>Диск тормозной Renault Duster (10-) / Arkana (19-)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr"/>
       <c r="D359" t="n">
-        <v>1326</v>
+        <v>2221</v>
       </c>
       <c r="E359" t="n">
         <v>10</v>
@@ -8344,17 +8344,17 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>BD063AVT</t>
+          <t>BD023AVT</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Octavia (96-) / VW Golf IV (97-) передний</t>
+          <t>Диск тормозной Renault Duster (10-) / Arkana (19-)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr"/>
       <c r="D360" t="n">
-        <v>1729</v>
+        <v>2221</v>
       </c>
       <c r="E360" t="n">
         <v>10</v>
@@ -8366,17 +8366,17 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>BD007AVT</t>
+          <t>BD061AVT</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Yeti (09-) передний</t>
+          <t>Диск тормозной Renault Koleos (08-) передний</t>
         </is>
       </c>
       <c r="C361" t="inlineStr"/>
       <c r="D361" t="n">
-        <v>2183</v>
+        <v>2723</v>
       </c>
       <c r="E361" t="n">
         <v>10</v>
@@ -8388,17 +8388,17 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>BD064AVT</t>
+          <t>BD004AVT</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Диск тормозной SsangYong Kyron (05-) задний</t>
+          <t>Диск тормозной Renault Logan (04-) передний</t>
         </is>
       </c>
       <c r="C362" t="inlineStr"/>
       <c r="D362" t="n">
-        <v>1950</v>
+        <v>1370</v>
       </c>
       <c r="E362" t="n">
         <v>10</v>
@@ -8410,17 +8410,17 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>BD070AVT</t>
+          <t>BD004AVT</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Диск тормозной Suzuki Grand Vitara (05-) передний</t>
+          <t>Диск тормозной Renault Logan (04-) передний</t>
         </is>
       </c>
       <c r="C363" t="inlineStr"/>
       <c r="D363" t="n">
-        <v>1757</v>
+        <v>1370</v>
       </c>
       <c r="E363" t="n">
         <v>10</v>
@@ -8432,17 +8432,17 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>BD083AVT</t>
+          <t>BD010AVT</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Диск тормозной Tank 300 передний</t>
+          <t>Диск тормозной Renault Logan (04-) передний (без ABS)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr"/>
       <c r="D364" t="n">
-        <v>3834</v>
+        <v>997</v>
       </c>
       <c r="E364" t="n">
         <v>10</v>
@@ -8454,17 +8454,17 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>BD083AVT</t>
+          <t>BD012AVT</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Диск тормозной Tank 300 передний</t>
+          <t>Диск тормозной Skoda Octavia (04-) / VW Golf V (03-) задний</t>
         </is>
       </c>
       <c r="C365" t="inlineStr"/>
       <c r="D365" t="n">
-        <v>3834</v>
+        <v>1234</v>
       </c>
       <c r="E365" t="n">
         <v>10</v>
@@ -8476,17 +8476,17 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>BD082AVT</t>
+          <t>BD016AVT</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Диск тормозной Tank 500 передний</t>
+          <t>Диск тормозной Skoda Octavia (04-) / VW Golf V (03-) передний</t>
         </is>
       </c>
       <c r="C366" t="inlineStr"/>
       <c r="D366" t="n">
-        <v>4511</v>
+        <v>1789</v>
       </c>
       <c r="E366" t="n">
         <v>10</v>
@@ -8498,17 +8498,17 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>BD017AVT</t>
+          <t>BD008AVT</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Camry (06-) / RAV 4 (06-) передний</t>
+          <t>Диск тормозной Skoda Octavia (13-) / VW Golf VII (12-) задний</t>
         </is>
       </c>
       <c r="C367" t="inlineStr"/>
       <c r="D367" t="n">
-        <v>2334</v>
+        <v>1326</v>
       </c>
       <c r="E367" t="n">
         <v>10</v>
@@ -8520,17 +8520,17 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>BD017AVT</t>
+          <t>BD063AVT</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Camry (06-) / RAV 4 (06-) передний</t>
+          <t>Диск тормозной Skoda Octavia (96-) / VW Golf IV (97-) передний</t>
         </is>
       </c>
       <c r="C368" t="inlineStr"/>
       <c r="D368" t="n">
-        <v>2334</v>
+        <v>1729</v>
       </c>
       <c r="E368" t="n">
         <v>10</v>
@@ -8542,17 +8542,17 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>BD044AVT</t>
+          <t>BD007AVT</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Camry (06-) задний</t>
+          <t>Диск тормозной Skoda Yeti (09-) передний</t>
         </is>
       </c>
       <c r="C369" t="inlineStr"/>
       <c r="D369" t="n">
-        <v>1597</v>
+        <v>2183</v>
       </c>
       <c r="E369" t="n">
         <v>10</v>
@@ -8564,17 +8564,17 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>BD036AVT</t>
+          <t>BD064AVT</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Corolla (06-) / Auris (06-) задний</t>
+          <t>Диск тормозной SsangYong Kyron (05-) задний</t>
         </is>
       </c>
       <c r="C370" t="inlineStr"/>
       <c r="D370" t="n">
-        <v>1127</v>
+        <v>1950</v>
       </c>
       <c r="E370" t="n">
         <v>10</v>
@@ -8586,17 +8586,17 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>BD035AVT</t>
+          <t>BD070AVT</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Corolla (06-) / Auris (06-) передний</t>
+          <t>Диск тормозной Suzuki Grand Vitara (05-) передний</t>
         </is>
       </c>
       <c r="C371" t="inlineStr"/>
       <c r="D371" t="n">
-        <v>1699</v>
+        <v>1757</v>
       </c>
       <c r="E371" t="n">
         <v>10</v>
@@ -8608,17 +8608,17 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>BD071AVT</t>
+          <t>BD083AVT</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota LC 200 (07-) задний</t>
+          <t>Диск тормозной Tank 300 передний</t>
         </is>
       </c>
       <c r="C372" t="inlineStr"/>
       <c r="D372" t="n">
-        <v>2298</v>
+        <v>3834</v>
       </c>
       <c r="E372" t="n">
         <v>10</v>
@@ -8630,17 +8630,17 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>BD052AVT</t>
+          <t>BD083AVT</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota LC 200 (07-) передний</t>
+          <t>Диск тормозной Tank 300 передний</t>
         </is>
       </c>
       <c r="C373" t="inlineStr"/>
       <c r="D373" t="n">
-        <v>2939</v>
+        <v>3834</v>
       </c>
       <c r="E373" t="n">
         <v>10</v>
@@ -8652,17 +8652,17 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>BD066AVT</t>
+          <t>BD082AVT</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota LC Prado (09-) передний</t>
+          <t>Диск тормозной Tank 500 передний</t>
         </is>
       </c>
       <c r="C374" t="inlineStr"/>
       <c r="D374" t="n">
-        <v>3275</v>
+        <v>4511</v>
       </c>
       <c r="E374" t="n">
         <v>10</v>
@@ -8674,17 +8674,17 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>BD029AVT</t>
+          <t>BD017AVT</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota RAV 4 (06-) / RAV 4 (13-) задний</t>
+          <t>Диск тормозной Toyota Camry (06-) / RAV 4 (06-) передний</t>
         </is>
       </c>
       <c r="C375" t="inlineStr"/>
       <c r="D375" t="n">
-        <v>1684</v>
+        <v>2334</v>
       </c>
       <c r="E375" t="n">
         <v>10</v>
@@ -8696,17 +8696,17 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>BD065AVT</t>
+          <t>BD017AVT</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Диск тормозной Volvo XC 70 (07-) / S60 (10-) / S80 (06-) передний</t>
+          <t>Диск тормозной Toyota Camry (06-) / RAV 4 (06-) передний</t>
         </is>
       </c>
       <c r="C376" t="inlineStr"/>
       <c r="D376" t="n">
-        <v>2572</v>
+        <v>2334</v>
       </c>
       <c r="E376" t="n">
         <v>10</v>
@@ -8718,17 +8718,17 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>BD047AVT</t>
+          <t>BD044AVT</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Passat (96-) задний</t>
+          <t>Диск тормозной Toyota Camry (06-) задний</t>
         </is>
       </c>
       <c r="C377" t="inlineStr"/>
       <c r="D377" t="n">
-        <v>1218</v>
+        <v>1597</v>
       </c>
       <c r="E377" t="n">
         <v>10</v>
@@ -8740,17 +8740,17 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>BD072AVT</t>
+          <t>BD036AVT</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Passat (96-) передний</t>
+          <t>Диск тормозной Toyota Corolla (06-) / Auris (06-) задний</t>
         </is>
       </c>
       <c r="C378" t="inlineStr"/>
       <c r="D378" t="n">
-        <v>1788</v>
+        <v>1127</v>
       </c>
       <c r="E378" t="n">
         <v>10</v>
@@ -8762,17 +8762,17 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>BD009AVT</t>
+          <t>BD035AVT</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Polo Sedan (10-) передний d.286,8</t>
+          <t>Диск тормозной Toyota Corolla (06-) / Auris (06-) передний</t>
         </is>
       </c>
       <c r="C379" t="inlineStr"/>
       <c r="D379" t="n">
-        <v>2159</v>
+        <v>1699</v>
       </c>
       <c r="E379" t="n">
         <v>10</v>
@@ -8784,17 +8784,17 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>BD014AVT</t>
+          <t>BD071AVT</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Tiguan (07-) задний</t>
+          <t>Диск тормозной Toyota LC 200 (07-) задний</t>
         </is>
       </c>
       <c r="C380" t="inlineStr"/>
       <c r="D380" t="n">
-        <v>1496</v>
+        <v>2298</v>
       </c>
       <c r="E380" t="n">
         <v>10</v>
@@ -8806,17 +8806,17 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>BD003AVT</t>
+          <t>BD052AVT</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Tiguan (07-) передний</t>
+          <t>Диск тормозной Toyota LC 200 (07-) передний</t>
         </is>
       </c>
       <c r="C381" t="inlineStr"/>
       <c r="D381" t="n">
-        <v>2494</v>
+        <v>2939</v>
       </c>
       <c r="E381" t="n">
         <v>10</v>
@@ -8828,17 +8828,17 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>BD043AVT</t>
+          <t>BD066AVT</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Tiguan (16-) / Skoda Kodiaq (16-) задний</t>
+          <t>Диск тормозной Toyota LC Prado (09-) передний</t>
         </is>
       </c>
       <c r="C382" t="inlineStr"/>
       <c r="D382" t="n">
-        <v>1879</v>
+        <v>3275</v>
       </c>
       <c r="E382" t="n">
         <v>10</v>
@@ -8850,17 +8850,17 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>BP023AVT</t>
+          <t>BD029AVT</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Lada Vesta Sport (18-) / Renault Duster (10-) / Renault Arkan</t>
+          <t>Диск тормозной Toyota RAV 4 (06-) / RAV 4 (13-) задний</t>
         </is>
       </c>
       <c r="C383" t="inlineStr"/>
       <c r="D383" t="n">
-        <v>864</v>
+        <v>1684</v>
       </c>
       <c r="E383" t="n">
         <v>10</v>
@@ -8872,17 +8872,17 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>BP023AVT</t>
+          <t>BD065AVT</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Lada Vesta Sport (18-) / Renault Duster (10-) / Renault Arkan</t>
+          <t>Диск тормозной Volvo XC 70 (07-) / S60 (10-) / S80 (06-) передний</t>
         </is>
       </c>
       <c r="C384" t="inlineStr"/>
       <c r="D384" t="n">
-        <v>864</v>
+        <v>2572</v>
       </c>
       <c r="E384" t="n">
         <v>10</v>
@@ -8894,17 +8894,17 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>BP096AVT</t>
+          <t>BD047AVT</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Renault Logan II (2012-)</t>
+          <t>Диск тормозной VW Passat (96-) задний</t>
         </is>
       </c>
       <c r="C385" t="inlineStr"/>
       <c r="D385" t="n">
-        <v>680</v>
+        <v>1218</v>
       </c>
       <c r="E385" t="n">
         <v>10</v>
@@ -8916,17 +8916,17 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>BP096AVT</t>
+          <t>BD072AVT</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Renault Logan II (2012-)</t>
+          <t>Диск тормозной VW Passat (96-) передний</t>
         </is>
       </c>
       <c r="C386" t="inlineStr"/>
       <c r="D386" t="n">
-        <v>680</v>
+        <v>1788</v>
       </c>
       <c r="E386" t="n">
         <v>10</v>
@@ -8938,17 +8938,17 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>832198AVT</t>
+          <t>BD009AVT</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Комплект сцепления LADA Largus (корзина+диск) для 21809</t>
+          <t>Диск тормозной VW Polo Sedan (10-) передний d.286,8</t>
         </is>
       </c>
       <c r="C387" t="inlineStr"/>
       <c r="D387" t="n">
-        <v>12000</v>
+        <v>2159</v>
       </c>
       <c r="E387" t="n">
         <v>10</v>
@@ -8960,17 +8960,17 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>832198AVT</t>
+          <t>BD014AVT</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Комплект сцепления LADA Largus (корзина+диск) для 21809</t>
+          <t>Диск тормозной VW Tiguan (07-) задний</t>
         </is>
       </c>
       <c r="C388" t="inlineStr"/>
       <c r="D388" t="n">
-        <v>12000</v>
+        <v>1496</v>
       </c>
       <c r="E388" t="n">
         <v>10</v>
@@ -8982,17 +8982,17 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>826787AVT</t>
+          <t>BD003AVT</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Комплект сцепления без подшипника Chevrolet Lacetti (04-)</t>
+          <t>Диск тормозной VW Tiguan (07-) передний</t>
         </is>
       </c>
       <c r="C389" t="inlineStr"/>
       <c r="D389" t="n">
-        <v>5111</v>
+        <v>2494</v>
       </c>
       <c r="E389" t="n">
         <v>10</v>
@@ -9004,17 +9004,17 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>826853AVT</t>
+          <t>BD043AVT</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Комплект сцепления без подшипника Renault Logan (08-)</t>
+          <t>Диск тормозной VW Tiguan (16-) / Skoda Kodiaq (16-) задний</t>
         </is>
       </c>
       <c r="C390" t="inlineStr"/>
       <c r="D390" t="n">
-        <v>3703</v>
+        <v>1879</v>
       </c>
       <c r="E390" t="n">
         <v>10</v>
@@ -9026,17 +9026,17 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>3495AVT</t>
+          <t>832198AVT</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником 2107</t>
+          <t>Комплект сцепления LADA Largus (корзина+диск) для 21809</t>
         </is>
       </c>
       <c r="C391" t="inlineStr"/>
       <c r="D391" t="n">
-        <v>4656</v>
+        <v>12000</v>
       </c>
       <c r="E391" t="n">
         <v>10</v>
@@ -9048,17 +9048,17 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>801122AVT</t>
+          <t>832198AVT</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником 2109</t>
+          <t>Комплект сцепления LADA Largus (корзина+диск) для 21809</t>
         </is>
       </c>
       <c r="C392" t="inlineStr"/>
       <c r="D392" t="n">
-        <v>4656</v>
+        <v>12000</v>
       </c>
       <c r="E392" t="n">
         <v>10</v>
@@ -9070,20 +9070,20 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>826245AVT</t>
+          <t>832290AVT</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Citroen C3 (03-) 1.1-1.4 (05-)</t>
+          <t>Комплект сцепления LADA Largus с подшипником для LADA Vesta / X-RAY 1.8 (коробка робот)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr"/>
       <c r="D393" t="n">
-        <v>3112</v>
+        <v>6120</v>
       </c>
       <c r="E393" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F393" t="n">
         <v>1</v>
@@ -9092,17 +9092,17 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>826568AVT</t>
+          <t>832290AVT</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Daewoo Matiz (01-)</t>
+          <t>Комплект сцепления LADA Largus с подшипником для LADA Vesta / X-RAY 1.8 (коробка робот)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr"/>
       <c r="D394" t="n">
-        <v>3259</v>
+        <v>6120</v>
       </c>
       <c r="E394" t="n">
         <v>10</v>
@@ -9114,17 +9114,17 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>821098AVT</t>
+          <t>826787AVT</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Daewoo Nexia (95-)</t>
+          <t>Комплект сцепления без подшипника Chevrolet Lacetti (04-)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr"/>
       <c r="D395" t="n">
-        <v>3667</v>
+        <v>5111</v>
       </c>
       <c r="E395" t="n">
         <v>10</v>
@@ -9136,17 +9136,17 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>826995AVT</t>
+          <t>826853AVT</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Hyundai Solaris I (10-)</t>
+          <t>Комплект сцепления без подшипника Renault Logan (08-)</t>
         </is>
       </c>
       <c r="C396" t="inlineStr"/>
       <c r="D396" t="n">
-        <v>4223</v>
+        <v>3703</v>
       </c>
       <c r="E396" t="n">
         <v>10</v>
@@ -9158,17 +9158,17 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>826995AVT</t>
+          <t>3495AVT</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Hyundai Solaris I (10-)</t>
+          <t>Комплект сцепления с подшипником 2107</t>
         </is>
       </c>
       <c r="C397" t="inlineStr"/>
       <c r="D397" t="n">
-        <v>4223</v>
+        <v>4656</v>
       </c>
       <c r="E397" t="n">
         <v>10</v>
@@ -9180,20 +9180,20 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>826299AVT</t>
+          <t>801122AVT</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Hyundai Sonata IV (98-) 2.0</t>
+          <t>Комплект сцепления с подшипником 2109</t>
         </is>
       </c>
       <c r="C398" t="inlineStr"/>
       <c r="D398" t="n">
-        <v>8519</v>
+        <v>4656</v>
       </c>
       <c r="E398" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F398" t="n">
         <v>1</v>
@@ -9202,17 +9202,17 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>801515AVT</t>
+          <t>826222AVT</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Nissan Almera N16 (00-04) 1.5</t>
+          <t>Комплект сцепления с подшипником 2110</t>
         </is>
       </c>
       <c r="C399" t="inlineStr"/>
       <c r="D399" t="n">
-        <v>4482</v>
+        <v>5172</v>
       </c>
       <c r="E399" t="n">
         <v>10</v>
@@ -9224,20 +9224,20 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>826211AVT</t>
+          <t>826222AVT</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 306 (97-) / Partner (96-) 1.4-1.6</t>
+          <t>Комплект сцепления с подшипником 2110</t>
         </is>
       </c>
       <c r="C400" t="inlineStr"/>
       <c r="D400" t="n">
-        <v>3830</v>
+        <v>5172</v>
       </c>
       <c r="E400" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F400" t="n">
         <v>1</v>
@@ -9246,20 +9246,20 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>821340AVT</t>
+          <t>826245AVT</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 307 (00-) 1.1-1.4</t>
+          <t>Комплект сцепления с подшипником Citroen C3 (03-) 1.1-1.4 (05-)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr"/>
       <c r="D401" t="n">
-        <v>3912</v>
+        <v>3112</v>
       </c>
       <c r="E401" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F401" t="n">
         <v>1</v>
@@ -9268,17 +9268,17 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>826213AVT</t>
+          <t>826568AVT</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Peugeot 307 (00-)</t>
+          <t>Комплект сцепления с подшипником Daewoo Matiz (01-)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr"/>
       <c r="D402" t="n">
-        <v>3749</v>
+        <v>3259</v>
       </c>
       <c r="E402" t="n">
         <v>10</v>
@@ -9290,17 +9290,17 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>821183AVT</t>
+          <t>821098AVT</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Renault Logan (04-)</t>
+          <t>Комплект сцепления с подшипником Daewoo Nexia (95-)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr"/>
       <c r="D403" t="n">
-        <v>3830</v>
+        <v>3667</v>
       </c>
       <c r="E403" t="n">
         <v>10</v>
@@ -9312,17 +9312,17 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>826577AVT</t>
+          <t>826298AVT</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Renault Logan I 1.4 (04-)</t>
+          <t>Комплект сцепления с подшипником GAZ 3110 / 3302 (ZMZ 402 / 406)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr"/>
       <c r="D404" t="n">
-        <v>4662</v>
+        <v>4516</v>
       </c>
       <c r="E404" t="n">
         <v>10</v>
@@ -9334,17 +9334,17 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>826326AVT</t>
+          <t>826298AVT</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником VW Polo Sedan (10-)</t>
+          <t>Комплект сцепления с подшипником GAZ 3110 / 3302 (ZMZ 402 / 406)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr"/>
       <c r="D405" t="n">
-        <v>5297</v>
+        <v>4516</v>
       </c>
       <c r="E405" t="n">
         <v>10</v>
@@ -9356,17 +9356,17 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>826474AVT</t>
+          <t>826995AVT</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Нива</t>
+          <t>Комплект сцепления с подшипником Hyundai Solaris I (10-)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr"/>
       <c r="D406" t="n">
-        <v>7272</v>
+        <v>4223</v>
       </c>
       <c r="E406" t="n">
         <v>10</v>
@@ -9378,17 +9378,17 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>CD044AVT</t>
+          <t>826995AVT</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.0</t>
+          <t>Комплект сцепления с подшипником Hyundai Solaris I (10-)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr"/>
       <c r="D407" t="n">
-        <v>5124</v>
+        <v>4223</v>
       </c>
       <c r="E407" t="n">
         <v>10</v>
@@ -9400,20 +9400,20 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>CD046AVT</t>
+          <t>826299AVT</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.2</t>
+          <t>Комплект сцепления с подшипником Hyundai Sonata IV (98-) 2.0</t>
         </is>
       </c>
       <c r="C408" t="inlineStr"/>
       <c r="D408" t="n">
-        <v>5364</v>
+        <v>8519</v>
       </c>
       <c r="E408" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F408" t="n">
         <v>1</v>
@@ -9422,17 +9422,17 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>CD036AVT</t>
+          <t>801515AVT</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Конденсор Chevrolet Aveo T300 (11-) 1.2-1.6</t>
+          <t>Комплект сцепления с подшипником Nissan Almera N16 (00-04) 1.5</t>
         </is>
       </c>
       <c r="C409" t="inlineStr"/>
       <c r="D409" t="n">
-        <v>4404</v>
+        <v>4482</v>
       </c>
       <c r="E409" t="n">
         <v>10</v>
@@ -9444,20 +9444,20 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>CD047AVT</t>
+          <t>826211AVT</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Конденсор Chevrolet Captiva / Opel Antara (06-) 2.0-2.2D</t>
+          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 306 (97-) / Partner (96-) 1.4-1.6</t>
         </is>
       </c>
       <c r="C410" t="inlineStr"/>
       <c r="D410" t="n">
-        <v>4788</v>
+        <v>3830</v>
       </c>
       <c r="E410" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F410" t="n">
         <v>1</v>
@@ -9466,17 +9466,17 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>CD048AVT</t>
+          <t>821340AVT</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Конденсор Chevrolet Cruze / Opel Astra J (09-) 1.4-1.8</t>
+          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 307 (00-) 1.1-1.4</t>
         </is>
       </c>
       <c r="C411" t="inlineStr"/>
       <c r="D411" t="n">
-        <v>3900</v>
+        <v>3912</v>
       </c>
       <c r="E411" t="n">
         <v>10</v>
@@ -9488,17 +9488,17 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>CD033AVT</t>
+          <t>826213AVT</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Конденсор Ford Focus II (05-) / Volvo S40 (04-) 1.4-2.0</t>
+          <t>Комплект сцепления с подшипником Peugeot 307 (00-)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr"/>
       <c r="D412" t="n">
-        <v>4044</v>
+        <v>3749</v>
       </c>
       <c r="E412" t="n">
         <v>10</v>
@@ -9510,17 +9510,17 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>CD037AVT</t>
+          <t>821183AVT</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Конденсор Ford Mondeo (07-) / Volvo XC60 (08-) / XC70 (07-) / S80 (06-) 1.6-2.5</t>
+          <t>Комплект сцепления с подшипником Renault Logan (04-)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr"/>
       <c r="D413" t="n">
-        <v>5388</v>
+        <v>3830</v>
       </c>
       <c r="E413" t="n">
         <v>10</v>
@@ -9532,17 +9532,17 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>CD038AVT</t>
+          <t>826577AVT</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Конденсор Hyundai Accent II (99-) MT 1.3-1.6</t>
+          <t>Комплект сцепления с подшипником Renault Logan I 1.4 (04-)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr"/>
       <c r="D414" t="n">
-        <v>3708</v>
+        <v>4662</v>
       </c>
       <c r="E414" t="n">
         <v>10</v>
@@ -9554,17 +9554,17 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>CD039AVT</t>
+          <t>828009AVT</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Конденсор Hyundai Tucson (15-) / Kia Sportage (16-) 1.6-2.0</t>
+          <t>Комплект сцепления с подшипником UAZ 3151 / 3160 (ZMZ 409)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr"/>
       <c r="D415" t="n">
-        <v>5856</v>
+        <v>5112</v>
       </c>
       <c r="E415" t="n">
         <v>10</v>
@@ -9576,17 +9576,17 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>CD045AVT</t>
+          <t>828009AVT</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Конденсор Mazda 3 (09-) 1.6-2.5</t>
+          <t>Комплект сцепления с подшипником UAZ 3151 / 3160 (ZMZ 409)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr"/>
       <c r="D416" t="n">
-        <v>5220</v>
+        <v>5112</v>
       </c>
       <c r="E416" t="n">
         <v>10</v>
@@ -9598,17 +9598,17 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>CD041AVT</t>
+          <t>826326AVT</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Конденсор Mitsubishi Outlander (12-) 2.0-2.4</t>
+          <t>Комплект сцепления с подшипником VW Polo Sedan (10-)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr"/>
       <c r="D417" t="n">
-        <v>4428</v>
+        <v>5297</v>
       </c>
       <c r="E417" t="n">
         <v>10</v>
@@ -9620,17 +9620,17 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>CD042AVT</t>
+          <t>826474AVT</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Конденсор Nissan Note (06-) / Tiida (04-) / Juke (10-) 1.2-1.6</t>
+          <t>Комплект сцепления с подшипником Нива</t>
         </is>
       </c>
       <c r="C418" t="inlineStr"/>
       <c r="D418" t="n">
-        <v>4248</v>
+        <v>7272</v>
       </c>
       <c r="E418" t="n">
         <v>10</v>
@@ -9642,17 +9642,17 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>CD043AVT</t>
+          <t>828003AVT</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Конденсор Opel Astra H (04-) 1.4-1.8</t>
+          <t>Комплект сцепления с подшипником Приора</t>
         </is>
       </c>
       <c r="C419" t="inlineStr"/>
       <c r="D419" t="n">
-        <v>4692</v>
+        <v>5544</v>
       </c>
       <c r="E419" t="n">
         <v>10</v>
@@ -9664,17 +9664,17 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>CD034AVT</t>
+          <t>828003AVT</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Конденсор Skoda Kodiaq (16-) / Skoda Octavia A7 (13-) / VW Tiguan (16-) 1.2-2.0</t>
+          <t>Комплект сцепления с подшипником Приора</t>
         </is>
       </c>
       <c r="C420" t="inlineStr"/>
       <c r="D420" t="n">
-        <v>5292</v>
+        <v>5544</v>
       </c>
       <c r="E420" t="n">
         <v>10</v>
@@ -9686,17 +9686,17 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>CD035AVT</t>
+          <t>CD044AVT</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Конденсор Skoda Octavia A5 (04-) / VW Golf V (03-) 1.6-2.0</t>
+          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.0</t>
         </is>
       </c>
       <c r="C421" t="inlineStr"/>
       <c r="D421" t="n">
-        <v>5136</v>
+        <v>5124</v>
       </c>
       <c r="E421" t="n">
         <v>10</v>
@@ -9708,20 +9708,20 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>836383AVT</t>
+          <t>CD046AVT</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Одномассовый маховик HYUNDAI SOLARIS 17-</t>
+          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.2</t>
         </is>
       </c>
       <c r="C422" t="inlineStr"/>
       <c r="D422" t="n">
-        <v>6000</v>
+        <v>5364</v>
       </c>
       <c r="E422" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F422" t="n">
         <v>1</v>
@@ -9730,20 +9730,20 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>836365AVT</t>
+          <t>CD036AVT</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
+          <t>Конденсор Chevrolet Aveo T300 (11-) 1.2-1.6</t>
         </is>
       </c>
       <c r="C423" t="inlineStr"/>
       <c r="D423" t="n">
-        <v>3300</v>
+        <v>4404</v>
       </c>
       <c r="E423" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F423" t="n">
         <v>1</v>
@@ -9752,20 +9752,20 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>836365AVT</t>
+          <t>CD047AVT</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
+          <t>Конденсор Chevrolet Captiva / Opel Antara (06-) 2.0-2.2D</t>
         </is>
       </c>
       <c r="C424" t="inlineStr"/>
       <c r="D424" t="n">
-        <v>3300</v>
+        <v>4788</v>
       </c>
       <c r="E424" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F424" t="n">
         <v>1</v>
@@ -9774,17 +9774,17 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>804295AVT</t>
+          <t>CD048AVT</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Подшипник выжимной 2101-2107</t>
+          <t>Конденсор Chevrolet Cruze / Opel Astra J (09-) 1.4-1.8</t>
         </is>
       </c>
       <c r="C425" t="inlineStr"/>
       <c r="D425" t="n">
-        <v>1070</v>
+        <v>3900</v>
       </c>
       <c r="E425" t="n">
         <v>10</v>
@@ -9796,17 +9796,17 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>804296AVT</t>
+          <t>CD033AVT</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Подшипник выжимной 2108-2112</t>
+          <t>Конденсор Ford Focus II (05-) / Volvo S40 (04-) 1.4-2.0</t>
         </is>
       </c>
       <c r="C426" t="inlineStr"/>
       <c r="D426" t="n">
-        <v>811</v>
+        <v>4044</v>
       </c>
       <c r="E426" t="n">
         <v>10</v>
@@ -9818,17 +9818,17 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>804296AVT</t>
+          <t>CD037AVT</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Подшипник выжимной 2108-2112</t>
+          <t>Конденсор Ford Mondeo (07-) / Volvo XC60 (08-) / XC70 (07-) / S80 (06-) 1.6-2.5</t>
         </is>
       </c>
       <c r="C427" t="inlineStr"/>
       <c r="D427" t="n">
-        <v>811</v>
+        <v>5388</v>
       </c>
       <c r="E427" t="n">
         <v>10</v>
@@ -9840,17 +9840,17 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>804036AVT</t>
+          <t>CD038AVT</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Подшипник выжимной CITROEN/PEUGEOT</t>
+          <t>Конденсор Hyundai Accent II (99-) MT 1.3-1.6</t>
         </is>
       </c>
       <c r="C428" t="inlineStr"/>
       <c r="D428" t="n">
-        <v>696</v>
+        <v>3708</v>
       </c>
       <c r="E428" t="n">
         <v>10</v>
@@ -9862,17 +9862,17 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>804299AVT</t>
+          <t>CD039AVT</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Подшипник выжимной PSA</t>
+          <t>Конденсор Hyundai Tucson (15-) / Kia Sportage (16-) 1.6-2.0</t>
         </is>
       </c>
       <c r="C429" t="inlineStr"/>
       <c r="D429" t="n">
-        <v>720</v>
+        <v>5856</v>
       </c>
       <c r="E429" t="n">
         <v>10</v>
@@ -9884,17 +9884,17 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>804587AVT</t>
+          <t>CD045AVT</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Подшипник гидравлический RENAULT DUSTER 1.6</t>
+          <t>Конденсор Mazda 3 (09-) 1.6-2.5</t>
         </is>
       </c>
       <c r="C430" t="inlineStr"/>
       <c r="D430" t="n">
-        <v>7200</v>
+        <v>5220</v>
       </c>
       <c r="E430" t="n">
         <v>10</v>
@@ -9906,17 +9906,17 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>804544AVT</t>
+          <t>CD041AVT</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Подшипник гидравлический RENAULT/NISSAN</t>
+          <t>Конденсор Mitsubishi Outlander (12-) 2.0-2.4</t>
         </is>
       </c>
       <c r="C431" t="inlineStr"/>
       <c r="D431" t="n">
-        <v>5640</v>
+        <v>4428</v>
       </c>
       <c r="E431" t="n">
         <v>10</v>
@@ -9928,17 +9928,17 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>804544AVT</t>
+          <t>CD042AVT</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Подшипник гидравлический RENAULT/NISSAN</t>
+          <t>Конденсор Nissan Note (06-) / Tiida (04-) / Juke (10-) 1.2-1.6</t>
         </is>
       </c>
       <c r="C432" t="inlineStr"/>
       <c r="D432" t="n">
-        <v>5640</v>
+        <v>4248</v>
       </c>
       <c r="E432" t="n">
         <v>10</v>
@@ -9950,17 +9950,17 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>701514AVT</t>
+          <t>CD043AVT</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Радиатор Веста / Икс-Рэй</t>
+          <t>Конденсор Opel Astra H (04-) 1.4-1.8</t>
         </is>
       </c>
       <c r="C433" t="inlineStr"/>
       <c r="D433" t="n">
-        <v>4212</v>
+        <v>4692</v>
       </c>
       <c r="E433" t="n">
         <v>10</v>
@@ -9972,17 +9972,17 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>RD204AVT</t>
+          <t>CD034AVT</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Радиатор двигатель паяный Hyundai Solaris / KIA RIO II (17-) 1.4i / 1.6i</t>
+          <t>Конденсор Skoda Kodiaq (16-) / Skoda Octavia A7 (13-) / VW Tiguan (16-) 1.2-2.0</t>
         </is>
       </c>
       <c r="C434" t="inlineStr"/>
       <c r="D434" t="n">
-        <v>5585</v>
+        <v>5292</v>
       </c>
       <c r="E434" t="n">
         <v>10</v>
@@ -9994,17 +9994,17 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>RD026AVT</t>
+          <t>CD035AVT</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Радиатор двигателя BMW X5 (E70) (07-) 30d/3.0t AT (паяный)</t>
+          <t>Конденсор Skoda Octavia A5 (04-) / VW Golf V (03-) 1.6-2.0</t>
         </is>
       </c>
       <c r="C435" t="inlineStr"/>
       <c r="D435" t="n">
-        <v>12251</v>
+        <v>5136</v>
       </c>
       <c r="E435" t="n">
         <v>10</v>
@@ -10016,20 +10016,20 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>RD008AVT</t>
+          <t>836383AVT</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Радиатор двигателя CHEVROLET CRUZE (09-) 1.6-1.8i / ORLANDO (10-) 1.8i MT</t>
+          <t>Одномассовый маховик HYUNDAI SOLARIS 17-</t>
         </is>
       </c>
       <c r="C436" t="inlineStr"/>
       <c r="D436" t="n">
-        <v>5634</v>
+        <v>6000</v>
       </c>
       <c r="E436" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F436" t="n">
         <v>1</v>
@@ -10038,17 +10038,17 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>RD018AVT</t>
+          <t>836365AVT</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i AT</t>
+          <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
         </is>
       </c>
       <c r="C437" t="inlineStr"/>
       <c r="D437" t="n">
-        <v>6371</v>
+        <v>3300</v>
       </c>
       <c r="E437" t="n">
         <v>10</v>
@@ -10060,17 +10060,17 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>RD009AVT</t>
+          <t>836365AVT</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i MT</t>
+          <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
         </is>
       </c>
       <c r="C438" t="inlineStr"/>
       <c r="D438" t="n">
-        <v>5555</v>
+        <v>3300</v>
       </c>
       <c r="E438" t="n">
         <v>10</v>
@@ -10082,17 +10082,17 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>RD011AVT</t>
+          <t>804295AVT</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Chevrolet Lacetti (04-) 1.4i/1.6i/1.8i MT (сборный)</t>
+          <t>Подшипник выжимной 2101-2107</t>
         </is>
       </c>
       <c r="C439" t="inlineStr"/>
       <c r="D439" t="n">
-        <v>4973</v>
+        <v>1070</v>
       </c>
       <c r="E439" t="n">
         <v>10</v>
@@ -10104,17 +10104,17 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>RD016AVT</t>
+          <t>804036AVT</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Daewoo Matiz (01-) 0.8i/1.0i MT (сборный)</t>
+          <t>Подшипник выжимной CITROEN/PEUGEOT</t>
         </is>
       </c>
       <c r="C440" t="inlineStr"/>
       <c r="D440" t="n">
-        <v>2898</v>
+        <v>696</v>
       </c>
       <c r="E440" t="n">
         <v>10</v>
@@ -10126,17 +10126,17 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>RD023AVT</t>
+          <t>804299AVT</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Daewoo Matiz (1998-) 0.8 MT (сборный)</t>
+          <t>Подшипник выжимной PSA</t>
         </is>
       </c>
       <c r="C441" t="inlineStr"/>
       <c r="D441" t="n">
-        <v>3323</v>
+        <v>720</v>
       </c>
       <c r="E441" t="n">
         <v>10</v>
@@ -10148,17 +10148,17 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>RD024AVT</t>
+          <t>804587AVT</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Радиатор двигателя DAEWOO MATIZ (98-) 0.8i AT</t>
+          <t>Подшипник гидравлический RENAULT DUSTER 1.6</t>
         </is>
       </c>
       <c r="C442" t="inlineStr"/>
       <c r="D442" t="n">
-        <v>4207</v>
+        <v>7200</v>
       </c>
       <c r="E442" t="n">
         <v>10</v>
@@ -10170,17 +10170,17 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>RD015AVT</t>
+          <t>804544AVT</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Daewoo Nexia (94-) 1.5/1.8 MT (сборный)</t>
+          <t>Подшипник гидравлический RENAULT/NISSAN</t>
         </is>
       </c>
       <c r="C443" t="inlineStr"/>
       <c r="D443" t="n">
-        <v>3204</v>
+        <v>5640</v>
       </c>
       <c r="E443" t="n">
         <v>10</v>
@@ -10192,17 +10192,17 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>RD040AVT</t>
+          <t>804544AVT</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Радиатор двигателя FORD FIESTA / FUSION (01-) 1.2-1.6i MT / AT</t>
+          <t>Подшипник гидравлический RENAULT/NISSAN</t>
         </is>
       </c>
       <c r="C444" t="inlineStr"/>
       <c r="D444" t="n">
-        <v>2821</v>
+        <v>5640</v>
       </c>
       <c r="E444" t="n">
         <v>10</v>
@@ -10214,17 +10214,17 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>RD004AVT</t>
+          <t>701514AVT</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Ford Focus II (05-) A/C+ (сборный)</t>
+          <t>Радиатор Веста / Икс-Рэй</t>
         </is>
       </c>
       <c r="C445" t="inlineStr"/>
       <c r="D445" t="n">
-        <v>4726</v>
+        <v>4212</v>
       </c>
       <c r="E445" t="n">
         <v>10</v>
@@ -10236,17 +10236,17 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>RD048AVT</t>
+          <t>RD204AVT</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Радиатор двигателя FORD FOCUS III / C-MAX (11-) 1.6-2.0i MT / AT</t>
+          <t>Радиатор двигатель паяный Hyundai Solaris / KIA RIO II (17-) 1.4i / 1.6i</t>
         </is>
       </c>
       <c r="C446" t="inlineStr"/>
       <c r="D446" t="n">
-        <v>6349</v>
+        <v>5585</v>
       </c>
       <c r="E446" t="n">
         <v>10</v>
@@ -10258,17 +10258,17 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>RD055AVT</t>
+          <t>RD026AVT</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Радиатор двигателя HYUNDAI SOLARIS (10-) / KIA RIO (10-) 1.4-1.6i 6AT</t>
+          <t>Радиатор двигателя BMW X5 (E70) (07-) 30d/3.0t AT (паяный)</t>
         </is>
       </c>
       <c r="C447" t="inlineStr"/>
       <c r="D447" t="n">
-        <v>4195</v>
+        <v>12251</v>
       </c>
       <c r="E447" t="n">
         <v>10</v>
@@ -10280,17 +10280,17 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>RD001AVT</t>
+          <t>RD008AVT</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Радиатор двигателя HYUNDAI SOLARIS (RB) / KIA RIO III (UB) (11-) 1.4-1.6i MT</t>
+          <t>Радиатор двигателя CHEVROLET CRUZE (09-) 1.6-1.8i / ORLANDO (10-) 1.8i MT</t>
         </is>
       </c>
       <c r="C448" t="inlineStr"/>
       <c r="D448" t="n">
-        <v>3139</v>
+        <v>5634</v>
       </c>
       <c r="E448" t="n">
         <v>10</v>
@@ -10302,17 +10302,17 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>RD002AVT</t>
+          <t>RD018AVT</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Hyundai Solaris / Kia Rio (10-&gt;) AT (сборный)</t>
+          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i AT</t>
         </is>
       </c>
       <c r="C449" t="inlineStr"/>
       <c r="D449" t="n">
-        <v>3203</v>
+        <v>6371</v>
       </c>
       <c r="E449" t="n">
         <v>10</v>
@@ -10324,17 +10324,17 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>RD057AVT</t>
+          <t>RD009AVT</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Радиатор двигателя HYUNDAI SOLARIS / KIA RIO (17-) 1.4-1.6i MT</t>
+          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i MT</t>
         </is>
       </c>
       <c r="C450" t="inlineStr"/>
       <c r="D450" t="n">
-        <v>3556</v>
+        <v>5555</v>
       </c>
       <c r="E450" t="n">
         <v>10</v>
@@ -10346,17 +10346,17 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>RD021AVT</t>
+          <t>RD011AVT</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA CEED (ED) (07-) 1.4-2.0i / HYUNDAI ELANTRA (HD) (06-) 1.6-2.0i / HYUNDAI i30</t>
+          <t>Радиатор двигателя Chevrolet Lacetti (04-) 1.4i/1.6i/1.8i MT (сборный)</t>
         </is>
       </c>
       <c r="C451" t="inlineStr"/>
       <c r="D451" t="n">
-        <v>4904</v>
+        <v>4973</v>
       </c>
       <c r="E451" t="n">
         <v>10</v>
@@ -10368,17 +10368,17 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>RD056AVT</t>
+          <t>RD016AVT</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA CEED / HYUNDAI i30 / ELANTRA IV (06-) 1.4-2.0i AT</t>
+          <t>Радиатор двигателя Daewoo Matiz (01-) 0.8i/1.0i MT (сборный)</t>
         </is>
       </c>
       <c r="C452" t="inlineStr"/>
       <c r="D452" t="n">
-        <v>6533</v>
+        <v>2898</v>
       </c>
       <c r="E452" t="n">
         <v>10</v>
@@ -10390,17 +10390,17 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>RD056AVT</t>
+          <t>RD023AVT</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA CEED / HYUNDAI i30 / ELANTRA IV (06-) 1.4-2.0i AT</t>
+          <t>Радиатор двигателя Daewoo Matiz (1998-) 0.8 MT (сборный)</t>
         </is>
       </c>
       <c r="C453" t="inlineStr"/>
       <c r="D453" t="n">
-        <v>6533</v>
+        <v>3323</v>
       </c>
       <c r="E453" t="n">
         <v>10</v>
@@ -10412,20 +10412,20 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>RD087AVT</t>
+          <t>RD024AVT</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
+          <t>Радиатор двигателя DAEWOO MATIZ (98-) 0.8i AT</t>
         </is>
       </c>
       <c r="C454" t="inlineStr"/>
       <c r="D454" t="n">
-        <v>7403</v>
+        <v>4207</v>
       </c>
       <c r="E454" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F454" t="n">
         <v>1</v>
@@ -10434,20 +10434,20 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>RD087AVT</t>
+          <t>RD015AVT</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
+          <t>Радиатор двигателя Daewoo Nexia (94-) 1.5/1.8 MT (сборный)</t>
         </is>
       </c>
       <c r="C455" t="inlineStr"/>
       <c r="D455" t="n">
-        <v>7403</v>
+        <v>3204</v>
       </c>
       <c r="E455" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F455" t="n">
         <v>1</v>
@@ -10456,17 +10456,17 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>RD062AVT</t>
+          <t>RD040AVT</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia Spectra (96-) 1.5-1.8 AT</t>
+          <t>Радиатор двигателя FORD FIESTA / FUSION (01-) 1.2-1.6i MT / AT</t>
         </is>
       </c>
       <c r="C456" t="inlineStr"/>
       <c r="D456" t="n">
-        <v>5772</v>
+        <v>2821</v>
       </c>
       <c r="E456" t="n">
         <v>10</v>
@@ -10478,17 +10478,17 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>RD020AVT</t>
+          <t>RD004AVT</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i AT</t>
+          <t>Радиатор двигателя Ford Focus II (05-) A/C+ (сборный)</t>
         </is>
       </c>
       <c r="C457" t="inlineStr"/>
       <c r="D457" t="n">
-        <v>6194</v>
+        <v>4726</v>
       </c>
       <c r="E457" t="n">
         <v>10</v>
@@ -10500,17 +10500,17 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>RD019AVT</t>
+          <t>RD048AVT</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i MT</t>
+          <t>Радиатор двигателя FORD FOCUS III / C-MAX (11-) 1.6-2.0i MT / AT</t>
         </is>
       </c>
       <c r="C458" t="inlineStr"/>
       <c r="D458" t="n">
-        <v>4888</v>
+        <v>6349</v>
       </c>
       <c r="E458" t="n">
         <v>10</v>
@@ -10522,17 +10522,17 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>RD028AVT</t>
+          <t>RD055AVT</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MB C (07-), E (-16), GLK (08-) 1.6-4.7i AT</t>
+          <t>Радиатор двигателя HYUNDAI SOLARIS (10-) / KIA RIO (10-) 1.4-1.6i 6AT</t>
         </is>
       </c>
       <c r="C459" t="inlineStr"/>
       <c r="D459" t="n">
-        <v>10615</v>
+        <v>4195</v>
       </c>
       <c r="E459" t="n">
         <v>10</v>
@@ -10544,17 +10544,17 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>RD029AVT</t>
+          <t>RD001AVT</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MB E (16-), GLC (15-), C (14-), S (13-) 2.0-4.0 MT / AT</t>
+          <t>Радиатор двигателя HYUNDAI SOLARIS (RB) / KIA RIO III (UB) (11-) 1.4-1.6i MT</t>
         </is>
       </c>
       <c r="C460" t="inlineStr"/>
       <c r="D460" t="n">
-        <v>12114</v>
+        <v>3139</v>
       </c>
       <c r="E460" t="n">
         <v>10</v>
@@ -10566,17 +10566,17 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>RD027AVT</t>
+          <t>RD002AVT</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MB ML (12-) GL, GLS, GLE (-18) 2.2-5.5i AT</t>
+          <t>Радиатор двигателя Hyundai Solaris / Kia Rio (10-&gt;) AT (сборный)</t>
         </is>
       </c>
       <c r="C461" t="inlineStr"/>
       <c r="D461" t="n">
-        <v>11959</v>
+        <v>3203</v>
       </c>
       <c r="E461" t="n">
         <v>10</v>
@@ -10588,17 +10588,17 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>RD005AVT</t>
+          <t>RD057AVT</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MITSUBISHI ASX (10-) 1.6-1.8i / OUTLANDER (07-) 2.0-2.4i / LANCER (07-) 1.5-2.0i</t>
+          <t>Радиатор двигателя HYUNDAI SOLARIS / KIA RIO (17-) 1.4-1.6i MT</t>
         </is>
       </c>
       <c r="C462" t="inlineStr"/>
       <c r="D462" t="n">
-        <v>4110</v>
+        <v>3556</v>
       </c>
       <c r="E462" t="n">
         <v>10</v>
@@ -10610,17 +10610,17 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>RD060AVT</t>
+          <t>RD021AVT</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MITSUBISHI OUTLANDER III (12-) 2.0-3.0i MT / AT</t>
+          <t>Радиатор двигателя KIA CEED (ED) (07-) 1.4-2.0i / HYUNDAI ELANTRA (HD) (06-) 1.6-2.0i / HYUNDAI i30</t>
         </is>
       </c>
       <c r="C463" t="inlineStr"/>
       <c r="D463" t="n">
-        <v>7210</v>
+        <v>4904</v>
       </c>
       <c r="E463" t="n">
         <v>10</v>
@@ -10632,17 +10632,17 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>RD017AVT</t>
+          <t>RD056AVT</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Радиатор двигателя NISSAN QASHQAI (J10) (07-) 1.6-2.0i MT / AT</t>
+          <t>Радиатор двигателя KIA CEED / HYUNDAI i30 / ELANTRA IV (06-) 1.4-2.0i AT</t>
         </is>
       </c>
       <c r="C464" t="inlineStr"/>
       <c r="D464" t="n">
-        <v>7289</v>
+        <v>6533</v>
       </c>
       <c r="E464" t="n">
         <v>10</v>
@@ -10654,17 +10654,17 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>RD063AVT</t>
+          <t>RD056AVT</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Nissan X-Trail (14-) 2.0-2.5</t>
+          <t>Радиатор двигателя KIA CEED / HYUNDAI i30 / ELANTRA IV (06-) 1.4-2.0i AT</t>
         </is>
       </c>
       <c r="C465" t="inlineStr"/>
       <c r="D465" t="n">
-        <v>5864</v>
+        <v>6533</v>
       </c>
       <c r="E465" t="n">
         <v>10</v>
@@ -10676,17 +10676,17 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>RD014AVT</t>
+          <t>RD087AVT</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Радиатор двигателя OPEL ZAFIRA / ASTRA H (05-) 1.6-1.8i MT / AT</t>
+          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
         </is>
       </c>
       <c r="C466" t="inlineStr"/>
       <c r="D466" t="n">
-        <v>5726</v>
+        <v>7403</v>
       </c>
       <c r="E466" t="n">
         <v>10</v>
@@ -10698,17 +10698,17 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>RD003AVT</t>
+          <t>RD087AVT</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Renault Logan (04-) 1.4i/1.6i А/С+ (сборный)</t>
+          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
         </is>
       </c>
       <c r="C467" t="inlineStr"/>
       <c r="D467" t="n">
-        <v>2794</v>
+        <v>7403</v>
       </c>
       <c r="E467" t="n">
         <v>10</v>
@@ -10720,17 +10720,17 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>RD058AVT</t>
+          <t>RD062AVT</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Радиатор двигателя RENAULT LOGAN / SANDERO / SYMBOL (04-) 1.4-1.6i / Lada LARGUS K7M 1.6i (12-) MT /</t>
+          <t>Радиатор двигателя Kia Spectra (96-) 1.5-1.8 AT</t>
         </is>
       </c>
       <c r="C468" t="inlineStr"/>
       <c r="D468" t="n">
-        <v>2893</v>
+        <v>5772</v>
       </c>
       <c r="E468" t="n">
         <v>10</v>
@@ -10742,17 +10742,17 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>RD013AVT</t>
+          <t>RD020AVT</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Skoda Octavia A5 (04-)/VW Golf V (03-) (сборный)</t>
+          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i AT</t>
         </is>
       </c>
       <c r="C469" t="inlineStr"/>
       <c r="D469" t="n">
-        <v>4436</v>
+        <v>6194</v>
       </c>
       <c r="E469" t="n">
         <v>10</v>
@@ -10764,17 +10764,17 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>RD007AVT</t>
+          <t>RD019AVT</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Радиатор двигателя TOYOTA AURIS (E15) (07-) / (E18) (12-) 1.3-1.6i / AVENSIS (T27) (08-) 1.6-2.0i /</t>
+          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i MT</t>
         </is>
       </c>
       <c r="C470" t="inlineStr"/>
       <c r="D470" t="n">
-        <v>5714</v>
+        <v>4888</v>
       </c>
       <c r="E470" t="n">
         <v>10</v>
@@ -10786,17 +10786,17 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>RD025AVT</t>
+          <t>RD028AVT</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Радиатор двигателя TOYOTA CAMRY (11-16) 2.5-3.5i AT</t>
+          <t>Радиатор двигателя MB C (07-), E (-16), GLK (08-) 1.6-4.7i AT</t>
         </is>
       </c>
       <c r="C471" t="inlineStr"/>
       <c r="D471" t="n">
-        <v>7470</v>
+        <v>10615</v>
       </c>
       <c r="E471" t="n">
         <v>10</v>
@@ -10808,20 +10808,20 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>RD050AVT</t>
+          <t>RD029AVT</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota LC200 (08-) 4.5D</t>
+          <t>Радиатор двигателя MB E (16-), GLC (15-), C (14-), S (13-) 2.0-4.0 MT / AT</t>
         </is>
       </c>
       <c r="C472" t="inlineStr"/>
       <c r="D472" t="n">
-        <v>12649</v>
+        <v>12114</v>
       </c>
       <c r="E472" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F472" t="n">
         <v>1</v>
@@ -10830,20 +10830,20 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>RD050AVT</t>
+          <t>RD027AVT</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota LC200 (08-) 4.5D</t>
+          <t>Радиатор двигателя MB ML (12-) GL, GLS, GLE (-18) 2.2-5.5i AT</t>
         </is>
       </c>
       <c r="C473" t="inlineStr"/>
       <c r="D473" t="n">
-        <v>12649</v>
+        <v>11959</v>
       </c>
       <c r="E473" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F473" t="n">
         <v>1</v>
@@ -10852,17 +10852,17 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>RD010AVT</t>
+          <t>RD005AVT</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota RAV 4 (06-&gt;)/RAV 4 (13-&gt;) 2.0i MT/AT (сборный)</t>
+          <t>Радиатор двигателя MITSUBISHI ASX (10-) 1.6-1.8i / OUTLANDER (07-) 2.0-2.4i / LANCER (07-) 1.5-2.0i</t>
         </is>
       </c>
       <c r="C474" t="inlineStr"/>
       <c r="D474" t="n">
-        <v>5429</v>
+        <v>4110</v>
       </c>
       <c r="E474" t="n">
         <v>10</v>
@@ -10874,17 +10874,17 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>RD006AVT</t>
+          <t>RD060AVT</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Радиатор двигателя VW Polo Sedan (10-)/(20-)/Skoda Rapid (12-)/(20-) (сборный)</t>
+          <t>Радиатор двигателя MITSUBISHI OUTLANDER III (12-) 2.0-3.0i MT / AT</t>
         </is>
       </c>
       <c r="C475" t="inlineStr"/>
       <c r="D475" t="n">
-        <v>3888</v>
+        <v>7210</v>
       </c>
       <c r="E475" t="n">
         <v>10</v>
@@ -10896,17 +10896,17 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>RD221AVT</t>
+          <t>RD017AVT</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Audi A4/А6 (94-) 1.6i, 1.8i, 1.9TDi, 1.8T</t>
+          <t>Радиатор двигателя NISSAN QASHQAI (J10) (07-) 1.6-2.0i MT / AT</t>
         </is>
       </c>
       <c r="C476" t="inlineStr"/>
       <c r="D476" t="n">
-        <v>6386</v>
+        <v>7289</v>
       </c>
       <c r="E476" t="n">
         <v>10</v>
@@ -10918,17 +10918,17 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>RD302AVT</t>
+          <t>RD063AVT</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Ford Ranger (98-) 2.5TDi</t>
+          <t>Радиатор двигателя Nissan X-Trail (14-) 2.0-2.5</t>
         </is>
       </c>
       <c r="C477" t="inlineStr"/>
       <c r="D477" t="n">
-        <v>6724</v>
+        <v>5864</v>
       </c>
       <c r="E477" t="n">
         <v>10</v>
@@ -10940,17 +10940,17 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>RD220AVT</t>
+          <t>RD014AVT</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Honda CR-V III (06-) 2.0i</t>
+          <t>Радиатор двигателя OPEL ZAFIRA / ASTRA H (05-) 1.6-1.8i MT / AT</t>
         </is>
       </c>
       <c r="C478" t="inlineStr"/>
       <c r="D478" t="n">
-        <v>6842</v>
+        <v>5726</v>
       </c>
       <c r="E478" t="n">
         <v>10</v>
@@ -10962,17 +10962,17 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>RD225AVT</t>
+          <t>RD003AVT</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Hyundai Santa Fe II (06-) 2.2CRDi</t>
+          <t>Радиатор двигателя Renault Logan (04-) 1.4i/1.6i А/С+ (сборный)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr"/>
       <c r="D479" t="n">
-        <v>8759</v>
+        <v>2794</v>
       </c>
       <c r="E479" t="n">
         <v>10</v>
@@ -10984,17 +10984,17 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>RD274AVT</t>
+          <t>RD058AVT</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i, 2.0i AT</t>
+          <t>Радиатор двигателя RENAULT LOGAN / SANDERO / SYMBOL (04-) 1.4-1.6i / Lada LARGUS K7M 1.6i (12-) MT /</t>
         </is>
       </c>
       <c r="C480" t="inlineStr"/>
       <c r="D480" t="n">
-        <v>8366</v>
+        <v>2893</v>
       </c>
       <c r="E480" t="n">
         <v>10</v>
@@ -11006,17 +11006,17 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>RD207AVT</t>
+          <t>RD013AVT</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i, 2.0i MT</t>
+          <t>Радиатор двигателя Skoda Octavia A5 (04-)/VW Golf V (03-) (сборный)</t>
         </is>
       </c>
       <c r="C481" t="inlineStr"/>
       <c r="D481" t="n">
-        <v>7973</v>
+        <v>4436</v>
       </c>
       <c r="E481" t="n">
         <v>10</v>
@@ -11028,17 +11028,17 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>RD230AVT</t>
+          <t>RD007AVT</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Mitsubishi Outlander I (03-) 2.0i, 2.4i</t>
+          <t>Радиатор двигателя TOYOTA AURIS (E15) (07-) / (E18) (12-) 1.3-1.6i / AVENSIS (T27) (08-) 1.6-2.0i /</t>
         </is>
       </c>
       <c r="C482" t="inlineStr"/>
       <c r="D482" t="n">
-        <v>6593</v>
+        <v>5714</v>
       </c>
       <c r="E482" t="n">
         <v>10</v>
@@ -11050,17 +11050,17 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>RD211AVT</t>
+          <t>RD025AVT</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Nissan Almera Classic B10 (06-) 1.6i</t>
+          <t>Радиатор двигателя TOYOTA CAMRY (11-16) 2.5-3.5i AT</t>
         </is>
       </c>
       <c r="C483" t="inlineStr"/>
       <c r="D483" t="n">
-        <v>5980</v>
+        <v>7470</v>
       </c>
       <c r="E483" t="n">
         <v>10</v>
@@ -11072,17 +11072,17 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>RD264AVT</t>
+          <t>RD050AVT</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Nissan X-Trail T30 (01-) 2.0i, 2.5i</t>
+          <t>Радиатор двигателя Toyota LC200 (08-) 4.5D</t>
         </is>
       </c>
       <c r="C484" t="inlineStr"/>
       <c r="D484" t="n">
-        <v>5741</v>
+        <v>12649</v>
       </c>
       <c r="E484" t="n">
         <v>10</v>
@@ -11094,17 +11094,17 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>RD205AVT</t>
+          <t>RD050AVT</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Skoda Octavia/Kodiaq A7 (13-) 1.2TSi, 1.4TSi, 1.6TDi, 2.0TDi</t>
+          <t>Радиатор двигателя Toyota LC200 (08-) 4.5D</t>
         </is>
       </c>
       <c r="C485" t="inlineStr"/>
       <c r="D485" t="n">
-        <v>5630</v>
+        <v>12649</v>
       </c>
       <c r="E485" t="n">
         <v>10</v>
@@ -11116,17 +11116,17 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>RD217AVT</t>
+          <t>RD010AVT</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Suzuki SX4 I (06-) 1.6i</t>
+          <t>Радиатор двигателя Toyota RAV 4 (06-&gt;)/RAV 4 (13-&gt;) 2.0i MT/AT (сборный)</t>
         </is>
       </c>
       <c r="C486" t="inlineStr"/>
       <c r="D486" t="n">
-        <v>7183</v>
+        <v>5429</v>
       </c>
       <c r="E486" t="n">
         <v>10</v>
@@ -11138,17 +11138,17 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>RD059AVT</t>
+          <t>RD006AVT</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный VW PASSAT B6 / B7 JETTA III /IV / TIGUAN / TOURAN / SKODA OCTAVIA II / SUP</t>
+          <t>Радиатор двигателя VW Polo Sedan (10-)/(20-)/Skoda Rapid (12-)/(20-) (сборный)</t>
         </is>
       </c>
       <c r="C487" t="inlineStr"/>
       <c r="D487" t="n">
-        <v>6286</v>
+        <v>3888</v>
       </c>
       <c r="E487" t="n">
         <v>10</v>
@@ -11160,17 +11160,17 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>RD250AVT</t>
+          <t>RD221AVT</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Радиатор двигателя сборный Chevrolet Rezzo (00-) 1.6i, 1.8i</t>
+          <t>Радиатор двигателя паяный Audi A4/А6 (94-) 1.6i, 1.8i, 1.9TDi, 1.8T</t>
         </is>
       </c>
       <c r="C488" t="inlineStr"/>
       <c r="D488" t="n">
-        <v>5549</v>
+        <v>6386</v>
       </c>
       <c r="E488" t="n">
         <v>10</v>
@@ -11182,17 +11182,17 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>RD012AVT</t>
+          <t>RD302AVT</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Радиатор двигателя сборный VW Jetta (05)/(11-)/Skoda Octavia A5 (04-)</t>
+          <t>Радиатор двигателя паяный Ford Ranger (98-) 2.5TDi</t>
         </is>
       </c>
       <c r="C489" t="inlineStr"/>
       <c r="D489" t="n">
-        <v>4106</v>
+        <v>6724</v>
       </c>
       <c r="E489" t="n">
         <v>10</v>
@@ -11204,17 +11204,17 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>735634AVT</t>
+          <t>RD220AVT</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Радиатор Рено Логан II</t>
+          <t>Радиатор двигателя паяный Honda CR-V III (06-) 2.0i</t>
         </is>
       </c>
       <c r="C490" t="inlineStr"/>
       <c r="D490" t="n">
-        <v>3834</v>
+        <v>6842</v>
       </c>
       <c r="E490" t="n">
         <v>10</v>
@@ -11226,17 +11226,17 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>438544AVT</t>
+          <t>RD225AVT</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Стартер Renault Arkana</t>
+          <t>Радиатор двигателя паяный Hyundai Santa Fe II (06-) 2.2CRDi</t>
         </is>
       </c>
       <c r="C491" t="inlineStr"/>
       <c r="D491" t="n">
-        <v>6600</v>
+        <v>8759</v>
       </c>
       <c r="E491" t="n">
         <v>10</v>
@@ -11248,17 +11248,17 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>438545AVT</t>
+          <t>RD274AVT</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Стартер Toyota Camry / Rav4</t>
+          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i, 2.0i AT</t>
         </is>
       </c>
       <c r="C492" t="inlineStr"/>
       <c r="D492" t="n">
-        <v>6600</v>
+        <v>8366</v>
       </c>
       <c r="E492" t="n">
         <v>10</v>
@@ -11270,17 +11270,17 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>438286AVT</t>
+          <t>RD207AVT</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Стартер Гранта АКПП</t>
+          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i, 2.0i MT</t>
         </is>
       </c>
       <c r="C493" t="inlineStr"/>
       <c r="D493" t="n">
-        <v>5916</v>
+        <v>7973</v>
       </c>
       <c r="E493" t="n">
         <v>10</v>
@@ -11292,17 +11292,17 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>438286AVT</t>
+          <t>RD230AVT</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Стартер Гранта АКПП</t>
+          <t>Радиатор двигателя паяный Mitsubishi Outlander I (03-) 2.0i, 2.4i</t>
         </is>
       </c>
       <c r="C494" t="inlineStr"/>
       <c r="D494" t="n">
-        <v>5916</v>
+        <v>6593</v>
       </c>
       <c r="E494" t="n">
         <v>10</v>
@@ -11314,17 +11314,17 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>438285AVT</t>
+          <t>RD211AVT</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Стартер Гранта МКПП</t>
+          <t>Радиатор двигателя паяный Nissan Almera Classic B10 (06-) 1.6i</t>
         </is>
       </c>
       <c r="C495" t="inlineStr"/>
       <c r="D495" t="n">
-        <v>5820</v>
+        <v>5980</v>
       </c>
       <c r="E495" t="n">
         <v>10</v>
@@ -11336,17 +11336,17 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>438327AVT</t>
+          <t>RD264AVT</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Стартер Рено F4R</t>
+          <t>Радиатор двигателя паяный Nissan X-Trail T30 (01-) 2.0i, 2.5i</t>
         </is>
       </c>
       <c r="C496" t="inlineStr"/>
       <c r="D496" t="n">
-        <v>8400</v>
+        <v>5741</v>
       </c>
       <c r="E496" t="n">
         <v>10</v>
@@ -11358,17 +11358,17 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>438324AVT</t>
+          <t>RD205AVT</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Стартер Рено H4M</t>
+          <t>Радиатор двигателя паяный Skoda Octavia/Kodiaq A7 (13-) 1.2TSi, 1.4TSi, 1.6TDi, 2.0TDi</t>
         </is>
       </c>
       <c r="C497" t="inlineStr"/>
       <c r="D497" t="n">
-        <v>5964</v>
+        <v>5630</v>
       </c>
       <c r="E497" t="n">
         <v>10</v>
@@ -11380,17 +11380,17 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>438328AVT</t>
+          <t>RD217AVT</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Стартер Рено K4M</t>
+          <t>Радиатор двигателя паяный Suzuki SX4 I (06-) 1.6i</t>
         </is>
       </c>
       <c r="C498" t="inlineStr"/>
       <c r="D498" t="n">
-        <v>7200</v>
+        <v>7183</v>
       </c>
       <c r="E498" t="n">
         <v>10</v>
@@ -11402,17 +11402,17 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>438328AVT</t>
+          <t>RD059AVT</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Стартер Рено K4M</t>
+          <t>Радиатор двигателя паяный VW PASSAT B6 / B7 JETTA III /IV / TIGUAN / TOURAN / SKODA OCTAVIA II / SUP</t>
         </is>
       </c>
       <c r="C499" t="inlineStr"/>
       <c r="D499" t="n">
-        <v>7200</v>
+        <v>6286</v>
       </c>
       <c r="E499" t="n">
         <v>10</v>
@@ -11424,17 +11424,17 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>FC001AVT</t>
+          <t>RD250AVT</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Фильтр отопителя LADA VESTA</t>
+          <t>Радиатор двигателя сборный Chevrolet Rezzo (00-) 1.6i, 1.8i</t>
         </is>
       </c>
       <c r="C500" t="inlineStr"/>
       <c r="D500" t="n">
-        <v>420</v>
+        <v>5549</v>
       </c>
       <c r="E500" t="n">
         <v>10</v>
@@ -11446,17 +11446,17 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>252.5215900-14</t>
+          <t>RD012AVT</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 350 мм</t>
+          <t>Радиатор двигателя сборный VW Jetta (05)/(11-)/Skoda Octavia A5 (04-)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr"/>
       <c r="D501" t="n">
-        <v>518</v>
+        <v>4106</v>
       </c>
       <c r="E501" t="n">
         <v>10</v>
@@ -11468,17 +11468,17 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>252.5215900-16</t>
+          <t>735634AVT</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 400 мм</t>
+          <t>Радиатор Рено Логан II</t>
         </is>
       </c>
       <c r="C502" t="inlineStr"/>
       <c r="D502" t="n">
-        <v>552</v>
+        <v>3834</v>
       </c>
       <c r="E502" t="n">
         <v>10</v>
@@ -11490,17 +11490,17 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>252.5215900-17</t>
+          <t>438544AVT</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 430 мм</t>
+          <t>Стартер Renault Arkana</t>
         </is>
       </c>
       <c r="C503" t="inlineStr"/>
       <c r="D503" t="n">
-        <v>552</v>
+        <v>6600</v>
       </c>
       <c r="E503" t="n">
         <v>10</v>
@@ -11512,17 +11512,17 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>252.5215900-18</t>
+          <t>438545AVT</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 450 мм</t>
+          <t>Стартер Toyota Camry / Rav4</t>
         </is>
       </c>
       <c r="C504" t="inlineStr"/>
       <c r="D504" t="n">
-        <v>552</v>
+        <v>6600</v>
       </c>
       <c r="E504" t="n">
         <v>10</v>
@@ -11534,17 +11534,17 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>252.5215900-20</t>
+          <t>438285AVT</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 500 мм</t>
+          <t>Стартер Гранта МКПП</t>
         </is>
       </c>
       <c r="C505" t="inlineStr"/>
       <c r="D505" t="n">
-        <v>582</v>
+        <v>5820</v>
       </c>
       <c r="E505" t="n">
         <v>10</v>
@@ -11556,17 +11556,17 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>252.5215900-22</t>
+          <t>438327AVT</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 550 мм</t>
+          <t>Стартер Рено F4R</t>
         </is>
       </c>
       <c r="C506" t="inlineStr"/>
       <c r="D506" t="n">
-        <v>582</v>
+        <v>8400</v>
       </c>
       <c r="E506" t="n">
         <v>10</v>
@@ -11578,17 +11578,17 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>252.5215900-24</t>
+          <t>438324AVT</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 600 мм</t>
+          <t>Стартер Рено H4M</t>
         </is>
       </c>
       <c r="C507" t="inlineStr"/>
       <c r="D507" t="n">
-        <v>641</v>
+        <v>5964</v>
       </c>
       <c r="E507" t="n">
         <v>10</v>
@@ -11600,17 +11600,17 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>252.5215900-26</t>
+          <t>438328AVT</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 650 мм</t>
+          <t>Стартер Рено K4M</t>
         </is>
       </c>
       <c r="C508" t="inlineStr"/>
       <c r="D508" t="n">
-        <v>672</v>
+        <v>7200</v>
       </c>
       <c r="E508" t="n">
         <v>10</v>
@@ -11622,17 +11622,17 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>25.5215900-13</t>
+          <t>438328AVT</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 330 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Стартер Рено K4M</t>
         </is>
       </c>
       <c r="C509" t="inlineStr"/>
       <c r="D509" t="n">
-        <v>299</v>
+        <v>7200</v>
       </c>
       <c r="E509" t="n">
         <v>10</v>
@@ -11644,17 +11644,17 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>25.5215900-14</t>
+          <t>FC001AVT</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 350 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Фильтр отопителя LADA VESTA</t>
         </is>
       </c>
       <c r="C510" t="inlineStr"/>
       <c r="D510" t="n">
-        <v>299</v>
+        <v>420</v>
       </c>
       <c r="E510" t="n">
         <v>10</v>
@@ -11666,17 +11666,17 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>25.5215900-16</t>
+          <t>252.5215900-14</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 400 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 350 мм</t>
         </is>
       </c>
       <c r="C511" t="inlineStr"/>
       <c r="D511" t="n">
-        <v>334</v>
+        <v>518</v>
       </c>
       <c r="E511" t="n">
         <v>10</v>
@@ -11688,17 +11688,17 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>25.5215900-17</t>
+          <t>252.5215900-16</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 430 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 400 мм</t>
         </is>
       </c>
       <c r="C512" t="inlineStr"/>
       <c r="D512" t="n">
-        <v>334</v>
+        <v>552</v>
       </c>
       <c r="E512" t="n">
         <v>10</v>
@@ -11710,17 +11710,17 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>25.5215900-18</t>
+          <t>252.5215900-17</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 450 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 430 мм</t>
         </is>
       </c>
       <c r="C513" t="inlineStr"/>
       <c r="D513" t="n">
-        <v>334</v>
+        <v>552</v>
       </c>
       <c r="E513" t="n">
         <v>10</v>
@@ -11732,17 +11732,17 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>25.5215900-19</t>
+          <t>252.5215900-18</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 480 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 450 мм</t>
         </is>
       </c>
       <c r="C514" t="inlineStr"/>
       <c r="D514" t="n">
-        <v>334</v>
+        <v>552</v>
       </c>
       <c r="E514" t="n">
         <v>10</v>
@@ -11754,17 +11754,17 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>25.5215900-20</t>
+          <t>252.5215900-20</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 500 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 500 мм</t>
         </is>
       </c>
       <c r="C515" t="inlineStr"/>
       <c r="D515" t="n">
-        <v>352</v>
+        <v>582</v>
       </c>
       <c r="E515" t="n">
         <v>10</v>
@@ -11776,17 +11776,17 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>25.5215900-21</t>
+          <t>252.5215900-22</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 530 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 550 мм</t>
         </is>
       </c>
       <c r="C516" t="inlineStr"/>
       <c r="D516" t="n">
-        <v>352</v>
+        <v>582</v>
       </c>
       <c r="E516" t="n">
         <v>10</v>
@@ -11798,17 +11798,17 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>25.5215900-22</t>
+          <t>252.5215900-24</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 550 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 600 мм</t>
         </is>
       </c>
       <c r="C517" t="inlineStr"/>
       <c r="D517" t="n">
-        <v>352</v>
+        <v>641</v>
       </c>
       <c r="E517" t="n">
         <v>10</v>
@@ -11820,17 +11820,17 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>25.5215900-24</t>
+          <t>252.5215900-26</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 600 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 650 мм</t>
         </is>
       </c>
       <c r="C518" t="inlineStr"/>
       <c r="D518" t="n">
-        <v>386</v>
+        <v>672</v>
       </c>
       <c r="E518" t="n">
         <v>10</v>
@@ -11842,17 +11842,17 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>25.5215900-26</t>
+          <t>25.5215900-13</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 650 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 330 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C519" t="inlineStr"/>
       <c r="D519" t="n">
-        <v>406</v>
+        <v>299</v>
       </c>
       <c r="E519" t="n">
         <v>10</v>
@@ -11864,17 +11864,17 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>25.5215900-28</t>
+          <t>25.5215900-14</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 700 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 350 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C520" t="inlineStr"/>
       <c r="D520" t="n">
-        <v>406</v>
+        <v>299</v>
       </c>
       <c r="E520" t="n">
         <v>10</v>
@@ -11886,17 +11886,17 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>СЛ136Е-5205900-01</t>
+          <t>25.5215900-16</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 410 мм, тип крепления "Hook" ("Крюк") и "Bayonet" ("Штыковой замо</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 400 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C521" t="inlineStr"/>
       <c r="D521" t="n">
-        <v>144</v>
+        <v>334</v>
       </c>
       <c r="E521" t="n">
         <v>10</v>
@@ -11908,17 +11908,17 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>23.5215900-01</t>
+          <t>25.5215900-17</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 475 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 430 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C522" t="inlineStr"/>
       <c r="D522" t="n">
-        <v>144</v>
+        <v>334</v>
       </c>
       <c r="E522" t="n">
         <v>10</v>
@@ -11930,17 +11930,17 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>49.5205900-01</t>
+          <t>25.5215900-18</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 500 мм, тип крепления "Hook" ("Крюк") и "Bayonet" ("Штыковой замо</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 450 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C523" t="inlineStr"/>
       <c r="D523" t="n">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="E523" t="n">
         <v>10</v>
@@ -11952,17 +11952,17 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>731.5205900-01</t>
+          <t>25.5215900-19</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 525 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 480 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C524" t="inlineStr"/>
       <c r="D524" t="n">
-        <v>287</v>
+        <v>334</v>
       </c>
       <c r="E524" t="n">
         <v>10</v>
@@ -11974,17 +11974,17 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>11.5215900-01</t>
+          <t>25.5215900-20</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 550 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 500 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C525" t="inlineStr"/>
       <c r="D525" t="n">
-        <v>295</v>
+        <v>352</v>
       </c>
       <c r="E525" t="n">
         <v>10</v>
@@ -11996,17 +11996,17 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>93.5205900-01</t>
+          <t>25.5215900-21</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 600 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 530 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C526" t="inlineStr"/>
       <c r="D526" t="n">
-        <v>144</v>
+        <v>352</v>
       </c>
       <c r="E526" t="n">
         <v>10</v>
@@ -12018,17 +12018,17 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>251.5215900-15</t>
+          <t>25.5215900-22</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 380 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 550 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C527" t="inlineStr"/>
       <c r="D527" t="n">
-        <v>426</v>
+        <v>352</v>
       </c>
       <c r="E527" t="n">
         <v>10</v>
@@ -12040,17 +12040,17 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>251.5215900-16</t>
+          <t>25.5215900-24</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 400 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 600 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C528" t="inlineStr"/>
       <c r="D528" t="n">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="E528" t="n">
         <v>10</v>
@@ -12062,17 +12062,17 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>251.5215900-17</t>
+          <t>25.5215900-26</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 430 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 650 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C529" t="inlineStr"/>
       <c r="D529" t="n">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="E529" t="n">
         <v>10</v>
@@ -12084,17 +12084,17 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>251.5215900-18</t>
+          <t>25.5215900-28</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 450 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 700 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C530" t="inlineStr"/>
       <c r="D530" t="n">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="E530" t="n">
         <v>10</v>
@@ -12106,17 +12106,17 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>251.5215900-19</t>
+          <t>СЛ136Е-5205900-01</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 480 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, каркасная, 410 мм, тип крепления "Hook" ("Крюк") и "Bayonet" ("Штыковой замо</t>
         </is>
       </c>
       <c r="C531" t="inlineStr"/>
       <c r="D531" t="n">
-        <v>426</v>
+        <v>144</v>
       </c>
       <c r="E531" t="n">
         <v>10</v>
@@ -12128,17 +12128,17 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>251.5215900-20</t>
+          <t>23.5215900-01</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 500 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, каркасная, 475 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C532" t="inlineStr"/>
       <c r="D532" t="n">
-        <v>448</v>
+        <v>144</v>
       </c>
       <c r="E532" t="n">
         <v>10</v>
@@ -12150,17 +12150,17 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>251.5215900-24</t>
+          <t>49.5205900-01</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 600 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, каркасная, 500 мм, тип крепления "Hook" ("Крюк") и "Bayonet" ("Штыковой замо</t>
         </is>
       </c>
       <c r="C533" t="inlineStr"/>
       <c r="D533" t="n">
-        <v>492</v>
+        <v>366</v>
       </c>
       <c r="E533" t="n">
         <v>10</v>
@@ -12172,17 +12172,17 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>251.5215900-26</t>
+          <t>731.5205900-01</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 650 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, каркасная, 525 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C534" t="inlineStr"/>
       <c r="D534" t="n">
-        <v>518</v>
+        <v>287</v>
       </c>
       <c r="E534" t="n">
         <v>10</v>
@@ -12194,22 +12194,330 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>595842AVT</t>
+          <t>11.5215900-01</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Якорь стартера</t>
+          <t>Щетка стеклоочистителя, каркасная, 550 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C535" t="inlineStr"/>
       <c r="D535" t="n">
+        <v>295</v>
+      </c>
+      <c r="E535" t="n">
+        <v>10</v>
+      </c>
+      <c r="F535" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>93.5205900-01</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Щетка стеклоочистителя, каркасная, 600 мм, тип крепления "Hook" ("Крюк")</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr"/>
+      <c r="D536" t="n">
+        <v>144</v>
+      </c>
+      <c r="E536" t="n">
+        <v>10</v>
+      </c>
+      <c r="F536" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>251.5215900-15</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 380 мм, в комплекте 9 адаптеров</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr"/>
+      <c r="D537" t="n">
+        <v>426</v>
+      </c>
+      <c r="E537" t="n">
+        <v>10</v>
+      </c>
+      <c r="F537" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>251.5215900-16</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 400 мм, в комплекте 9 адаптеров</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr"/>
+      <c r="D538" t="n">
+        <v>426</v>
+      </c>
+      <c r="E538" t="n">
+        <v>10</v>
+      </c>
+      <c r="F538" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>251.5215900-17</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 430 мм, в комплекте 9 адаптеров</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr"/>
+      <c r="D539" t="n">
+        <v>426</v>
+      </c>
+      <c r="E539" t="n">
+        <v>10</v>
+      </c>
+      <c r="F539" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>251.5215900-18</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 450 мм, в комплекте 9 адаптеров</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr"/>
+      <c r="D540" t="n">
+        <v>426</v>
+      </c>
+      <c r="E540" t="n">
+        <v>10</v>
+      </c>
+      <c r="F540" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>251.5215900-19</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 480 мм, в комплекте 9 адаптеров</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr"/>
+      <c r="D541" t="n">
+        <v>426</v>
+      </c>
+      <c r="E541" t="n">
+        <v>10</v>
+      </c>
+      <c r="F541" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>251.5215900-20</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 500 мм, в комплекте 9 адаптеров</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr"/>
+      <c r="D542" t="n">
+        <v>448</v>
+      </c>
+      <c r="E542" t="n">
+        <v>10</v>
+      </c>
+      <c r="F542" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>251.5215900-24</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 600 мм, в комплекте 9 адаптеров</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr"/>
+      <c r="D543" t="n">
+        <v>492</v>
+      </c>
+      <c r="E543" t="n">
+        <v>10</v>
+      </c>
+      <c r="F543" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>251.5215900-26</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 650 мм, в комплекте 9 адаптеров</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr"/>
+      <c r="D544" t="n">
+        <v>518</v>
+      </c>
+      <c r="E544" t="n">
+        <v>10</v>
+      </c>
+      <c r="F544" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>595863AVT</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Щеткодержатель стартера</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr"/>
+      <c r="D545" t="n">
+        <v>720</v>
+      </c>
+      <c r="E545" t="n">
+        <v>10</v>
+      </c>
+      <c r="F545" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>595863AVT</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>Щеткодержатель стартера</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr"/>
+      <c r="D546" t="n">
+        <v>720</v>
+      </c>
+      <c r="E546" t="n">
+        <v>10</v>
+      </c>
+      <c r="F546" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>595845AVT</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Щеткодержатель стартера  LADA VESTA</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr"/>
+      <c r="D547" t="n">
+        <v>720</v>
+      </c>
+      <c r="E547" t="n">
+        <v>10</v>
+      </c>
+      <c r="F547" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>595845AVT</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Щеткодержатель стартера  LADA VESTA</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr"/>
+      <c r="D548" t="n">
+        <v>720</v>
+      </c>
+      <c r="E548" t="n">
+        <v>10</v>
+      </c>
+      <c r="F548" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>595842AVT</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>Якорь стартера</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr"/>
+      <c r="D549" t="n">
         <v>1416</v>
       </c>
-      <c r="E535" t="n">
-        <v>10</v>
-      </c>
-      <c r="F535" t="n">
+      <c r="E549" t="n">
+        <v>10</v>
+      </c>
+      <c r="F549" t="n">
         <v>1</v>
       </c>
     </row>

--- a/price_for_emex.xlsx
+++ b/price_for_emex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F535"/>
+  <dimension ref="A1:F549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1152,7 +1152,11 @@
           <t>Генератор LADA GRANTA 110А</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
       <c r="D28" t="n">
         <v>9996</v>
       </c>
@@ -1174,7 +1178,11 @@
           <t>Генератор LADA GRANTA 110А</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
       <c r="D29" t="n">
         <v>9996</v>
       </c>
@@ -1222,7 +1230,11 @@
           <t>Диск тормозной Kia Sportage III (10-) / Hyundai ix35 (10-) / Creta (16-) передний</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
       <c r="D31" t="n">
         <v>2431</v>
       </c>
@@ -1230,7 +1242,7 @@
         <v>10</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32">
@@ -1244,7 +1256,11 @@
           <t>Диск тормозной Kia Sportage III (10-) / Hyundai ix35 (10-) / Creta (16-) передний</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr"/>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
       <c r="D32" t="n">
         <v>2431</v>
       </c>
@@ -1252,7 +1268,7 @@
         <v>10</v>
       </c>
       <c r="F32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
@@ -1266,7 +1282,11 @@
           <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) передний</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
       <c r="D33" t="n">
         <v>2299</v>
       </c>
@@ -1274,7 +1294,7 @@
         <v>2</v>
       </c>
       <c r="F33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -1288,7 +1308,11 @@
           <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) передний</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
       <c r="D34" t="n">
         <v>2299</v>
       </c>
@@ -1296,7 +1320,7 @@
         <v>2</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -1310,7 +1334,11 @@
           <t>Диск тормозной Renault Duster (10-) / Arkana (19-)</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
       <c r="D35" t="n">
         <v>2221</v>
       </c>
@@ -1318,7 +1346,7 @@
         <v>10</v>
       </c>
       <c r="F35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1332,7 +1360,11 @@
           <t>Диск тормозной Renault Duster (10-) / Arkana (19-)</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
       <c r="D36" t="n">
         <v>2221</v>
       </c>
@@ -1340,7 +1372,7 @@
         <v>10</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -1354,7 +1386,11 @@
           <t>Диск тормозной Renault Logan (04-) передний</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr"/>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
       <c r="D37" t="n">
         <v>1370</v>
       </c>
@@ -1362,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="F37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -1376,7 +1412,11 @@
           <t>Диск тормозной Renault Logan (04-) передний</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
       <c r="D38" t="n">
         <v>1370</v>
       </c>
@@ -1384,7 +1424,7 @@
         <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -1398,7 +1438,11 @@
           <t>Диск тормозной Tank 300 передний</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
       <c r="D39" t="n">
         <v>3834</v>
       </c>
@@ -1406,7 +1450,7 @@
         <v>10</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -1420,7 +1464,11 @@
           <t>Диск тормозной Tank 300 передний</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr"/>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
       <c r="D40" t="n">
         <v>3834</v>
       </c>
@@ -1428,7 +1476,7 @@
         <v>10</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41">
@@ -1442,7 +1490,11 @@
           <t>Диск тормозной Toyota Camry (06-) / RAV 4 (06-) передний</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
       <c r="D41" t="n">
         <v>2334</v>
       </c>
@@ -1450,7 +1502,7 @@
         <v>10</v>
       </c>
       <c r="F41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -1464,7 +1516,11 @@
           <t>Диск тормозной Toyota Camry (06-) / RAV 4 (06-) передний</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
       <c r="D42" t="n">
         <v>2334</v>
       </c>
@@ -1472,7 +1528,7 @@
         <v>10</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -4320,7 +4376,11 @@
           <t>Колодки тормозные передние без датчика Lada Vesta Sport (18-) / Renault Duster (10-) / Renault Arkan</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr"/>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
       <c r="D152" t="n">
         <v>864</v>
       </c>
@@ -4342,7 +4402,11 @@
           <t>Колодки тормозные передние без датчика Lada Vesta Sport (18-) / Renault Duster (10-) / Renault Arkan</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr"/>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
       <c r="D153" t="n">
         <v>864</v>
       </c>
@@ -4988,7 +5052,11 @@
           <t>Колодки тормозные передние без датчика Renault Logan II (2012-)</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr"/>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
       <c r="D178" t="n">
         <v>680</v>
       </c>
@@ -5010,7 +5078,11 @@
           <t>Колодки тормозные передние без датчика Renault Logan II (2012-)</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr"/>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
       <c r="D179" t="n">
         <v>680</v>
       </c>
@@ -5708,7 +5780,11 @@
           <t>Комплект сцепления LADA Largus (корзина+диск) для 21809</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr"/>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
       <c r="D206" t="n">
         <v>12000</v>
       </c>
@@ -5730,7 +5806,11 @@
           <t>Комплект сцепления LADA Largus (корзина+диск) для 21809</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr"/>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
       <c r="D207" t="n">
         <v>12000</v>
       </c>
@@ -5986,7 +6066,11 @@
           <t>Комплект сцепления с подшипником Hyundai Solaris I (10-)</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr"/>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
       <c r="D217" t="n">
         <v>4223</v>
       </c>
@@ -6008,7 +6092,11 @@
           <t>Комплект сцепления с подшипником Hyundai Solaris I (10-)</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr"/>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
       <c r="D218" t="n">
         <v>4223</v>
       </c>
@@ -6264,7 +6352,11 @@
           <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr"/>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
       <c r="D228" t="n">
         <v>3300</v>
       </c>
@@ -6286,7 +6378,11 @@
           <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr"/>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
       <c r="D229" t="n">
         <v>3300</v>
       </c>
@@ -6308,7 +6404,11 @@
           <t>Подшипник выжимной 2108-2112</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr"/>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
       <c r="D230" t="n">
         <v>811</v>
       </c>
@@ -6330,7 +6430,11 @@
           <t>Подшипник выжимной 2108-2112</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr"/>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
       <c r="D231" t="n">
         <v>811</v>
       </c>
@@ -6352,7 +6456,11 @@
           <t>Подшипник гидравлический RENAULT/NISSAN</t>
         </is>
       </c>
-      <c r="C232" t="inlineStr"/>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
       <c r="D232" t="n">
         <v>5640</v>
       </c>
@@ -6374,7 +6482,11 @@
           <t>Подшипник гидравлический RENAULT/NISSAN</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr"/>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
       <c r="D233" t="n">
         <v>5640</v>
       </c>
@@ -6630,7 +6742,11 @@
           <t>Радиатор двигателя KIA CEED / HYUNDAI i30 / ELANTRA IV (06-) 1.4-2.0i AT</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr"/>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
       <c r="D243" t="n">
         <v>6533</v>
       </c>
@@ -6652,7 +6768,11 @@
           <t>Радиатор двигателя KIA CEED / HYUNDAI i30 / ELANTRA IV (06-) 1.4-2.0i AT</t>
         </is>
       </c>
-      <c r="C244" t="inlineStr"/>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
       <c r="D244" t="n">
         <v>6533</v>
       </c>
@@ -6674,7 +6794,11 @@
           <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
         </is>
       </c>
-      <c r="C245" t="inlineStr"/>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
       <c r="D245" t="n">
         <v>7403</v>
       </c>
@@ -6696,7 +6820,11 @@
           <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
         </is>
       </c>
-      <c r="C246" t="inlineStr"/>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
       <c r="D246" t="n">
         <v>7403</v>
       </c>
@@ -7680,7 +7808,11 @@
           <t>Радиатор двигателя Toyota LC200 (08-) 4.5D</t>
         </is>
       </c>
-      <c r="C284" t="inlineStr"/>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
       <c r="D284" t="n">
         <v>12649</v>
       </c>
@@ -7702,7 +7834,11 @@
           <t>Радиатор двигателя Toyota LC200 (08-) 4.5D</t>
         </is>
       </c>
-      <c r="C285" t="inlineStr"/>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
       <c r="D285" t="n">
         <v>12649</v>
       </c>
@@ -7906,7 +8042,11 @@
           <t>Стартер Гранта АКПП</t>
         </is>
       </c>
-      <c r="C293" t="inlineStr"/>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
       <c r="D293" t="n">
         <v>5916</v>
       </c>
@@ -7928,7 +8068,11 @@
           <t>Стартер Гранта АКПП</t>
         </is>
       </c>
-      <c r="C294" t="inlineStr"/>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
       <c r="D294" t="n">
         <v>5916</v>
       </c>
@@ -7950,7 +8094,11 @@
           <t>Стартер Рено K4M</t>
         </is>
       </c>
-      <c r="C295" t="inlineStr"/>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
       <c r="D295" t="n">
         <v>7200</v>
       </c>
@@ -7972,7 +8120,11 @@
           <t>Стартер Рено K4M</t>
         </is>
       </c>
-      <c r="C296" t="inlineStr"/>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
       <c r="D296" t="n">
         <v>7200</v>
       </c>
@@ -8012,12 +8164,12 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>595843AVT</t>
+          <t>595575AVT</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Бендикс (Шестерня привода ) LADA LARGUS</t>
+          <t>Бендикс (Шестерня привода )</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -8026,7 +8178,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>900</v>
+        <v>1020</v>
       </c>
       <c r="E298" t="n">
         <v>10</v>
@@ -8038,12 +8190,12 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>RF004AVT</t>
+          <t>595575AVT</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Вентилятор системы охлаждения Nissan Qashqai</t>
+          <t>Бендикс (Шестерня привода )</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -8052,7 +8204,7 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>6600</v>
+        <v>1020</v>
       </c>
       <c r="E299" t="n">
         <v>10</v>
@@ -8064,12 +8216,12 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>RF005AVT</t>
+          <t>595843AVT</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Вентилятор системы охлаждения Nissan X-Trail, Qashqai (Дизель)</t>
+          <t>Бендикс (Шестерня привода ) LADA LARGUS</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -8078,7 +8230,7 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>6600</v>
+        <v>900</v>
       </c>
       <c r="E300" t="n">
         <v>10</v>
@@ -8090,12 +8242,12 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>595785AVT</t>
+          <t>595844AVT</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Втягивающее реле (для 438327 / 438328)</t>
+          <t>Бендикс (Шестерня привода ) RENAULT DUSTER</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -8104,7 +8256,7 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>1800</v>
+        <v>1080</v>
       </c>
       <c r="E301" t="n">
         <v>10</v>
@@ -8116,12 +8268,12 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>AL200AVT</t>
+          <t>595844AVT</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Генератор LADA GRANTA 110А</t>
+          <t>Бендикс (Шестерня привода ) RENAULT DUSTER</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -8130,10 +8282,10 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>9996</v>
+        <v>1080</v>
       </c>
       <c r="E302" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F302" t="n">
         <v>1</v>
@@ -8142,12 +8294,12 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>AL200AVT</t>
+          <t>RF004AVT</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Генератор LADA GRANTA 110А</t>
+          <t>Вентилятор системы охлаждения Nissan Qashqai</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -8156,10 +8308,10 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>9996</v>
+        <v>6600</v>
       </c>
       <c r="E303" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F303" t="n">
         <v>1</v>
@@ -8168,12 +8320,12 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>BD050AVT</t>
+          <t>RF005AVT</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Диск тормозной Audi A4 / A6 (95-) передний</t>
+          <t>Вентилятор системы охлаждения Nissan X-Trail, Qashqai (Дизель)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -8182,24 +8334,24 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>2020</v>
+        <v>6600</v>
       </c>
       <c r="E304" t="n">
         <v>10</v>
       </c>
       <c r="F304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>BD075AVT</t>
+          <t>595739AVT</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Диск тормозной Audi Q5 (08-) задний</t>
+          <t>Втягивающее реле</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -8208,24 +8360,24 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1718</v>
+        <v>1080</v>
       </c>
       <c r="E305" t="n">
         <v>10</v>
       </c>
       <c r="F305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>BD056AVT</t>
+          <t>595739AVT</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Диск тормозной Audi Q7 (06-) задний</t>
+          <t>Втягивающее реле</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -8234,24 +8386,24 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>2719</v>
+        <v>1080</v>
       </c>
       <c r="E306" t="n">
         <v>10</v>
       </c>
       <c r="F306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>BD021AVT</t>
+          <t>595785AVT</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Диск тормозной Chevrolet Aveo (02-) / Spark (05-) передний</t>
+          <t>Втягивающее реле (для 438327 / 438328)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -8260,24 +8412,24 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>1090</v>
+        <v>1800</v>
       </c>
       <c r="E307" t="n">
         <v>10</v>
       </c>
       <c r="F307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>BD022AVT</t>
+          <t>595776AVT</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Диск тормозной Chevrolet Cruze (09-) / Aveo (11-) задний</t>
+          <t>Втягивающее реле LADA VESTA / RENUALT LOGAN</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -8286,24 +8438,24 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>1550</v>
+        <v>1440</v>
       </c>
       <c r="E308" t="n">
         <v>10</v>
       </c>
       <c r="F308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>BD018AVT</t>
+          <t>595776AVT</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Диск тормозной Chevrolet Cruze (09-) / Aveo (11-) передний</t>
+          <t>Втягивающее реле LADA VESTA / RENUALT LOGAN</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -8312,24 +8464,24 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>2197</v>
+        <v>1440</v>
       </c>
       <c r="E309" t="n">
         <v>10</v>
       </c>
       <c r="F309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>BD049AVT</t>
+          <t>AL200AVT</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Диск тормозной Chevrolet Lacetti (04-) задний</t>
+          <t>Генератор LADA GRANTA 110А</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -8338,24 +8490,24 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>1400</v>
+        <v>9996</v>
       </c>
       <c r="E310" t="n">
         <v>10</v>
       </c>
       <c r="F310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>BD039AVT</t>
+          <t>AL200AVT</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Диск тормозной Daewoo Matiz (98-) передний</t>
+          <t>Генератор LADA GRANTA 110А</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -8364,24 +8516,24 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>1043</v>
+        <v>9996</v>
       </c>
       <c r="E311" t="n">
         <v>10</v>
       </c>
       <c r="F311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>BD042AVT</t>
+          <t>BD050AVT</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Fiesta (02-) / Fusion (02-) передний</t>
+          <t>Диск тормозной Audi A4 / A6 (95-) передний</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -8390,7 +8542,7 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>1481</v>
+        <v>2020</v>
       </c>
       <c r="E312" t="n">
         <v>10</v>
@@ -8402,12 +8554,12 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>BD040AVT</t>
+          <t>BD075AVT</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Focus (04-) задний</t>
+          <t>Диск тормозной Audi Q5 (08-) задний</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -8416,10 +8568,10 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>1373</v>
+        <v>1718</v>
       </c>
       <c r="E313" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F313" t="n">
         <v>2</v>
@@ -8428,12 +8580,12 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>BD015AVT</t>
+          <t>BD056AVT</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Focus (04-) задний d.264,8</t>
+          <t>Диск тормозной Audi Q7 (06-) задний</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -8442,7 +8594,7 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>1270</v>
+        <v>2719</v>
       </c>
       <c r="E314" t="n">
         <v>10</v>
@@ -8454,12 +8606,12 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>BD006AVT</t>
+          <t>BD021AVT</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Focus II (05-) / Ford Focus III (11-) передний</t>
+          <t>Диск тормозной Chevrolet Aveo (02-) / Spark (05-) передний</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -8468,7 +8620,7 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>2310</v>
+        <v>1090</v>
       </c>
       <c r="E315" t="n">
         <v>10</v>
@@ -8480,12 +8632,12 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>BD013AVT</t>
+          <t>BD022AVT</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Focus II (05-) / Ford Focus III (11-) передний d.278,1</t>
+          <t>Диск тормозной Chevrolet Cruze (09-) / Aveo (11-) задний</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -8494,7 +8646,7 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>1964</v>
+        <v>1550</v>
       </c>
       <c r="E316" t="n">
         <v>10</v>
@@ -8506,12 +8658,12 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>BD032AVT</t>
+          <t>BD018AVT</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Focus III (11-) задний</t>
+          <t>Диск тормозной Chevrolet Cruze (09-) / Aveo (11-) передний</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -8520,7 +8672,7 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>1494</v>
+        <v>2197</v>
       </c>
       <c r="E317" t="n">
         <v>10</v>
@@ -8532,12 +8684,12 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>BD076AVT</t>
+          <t>BD049AVT</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Mondeo IV (07-) задний</t>
+          <t>Диск тормозной Chevrolet Lacetti (04-) задний</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -8546,7 +8698,7 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>1741</v>
+        <v>1400</v>
       </c>
       <c r="E318" t="n">
         <v>10</v>
@@ -8558,12 +8710,12 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>BD033AVT</t>
+          <t>BD039AVT</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Accent (00-) передний</t>
+          <t>Диск тормозной Daewoo Matiz (98-) передний</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -8572,7 +8724,7 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>1333</v>
+        <v>1043</v>
       </c>
       <c r="E319" t="n">
         <v>10</v>
@@ -8584,12 +8736,12 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>BD037AVT</t>
+          <t>BD042AVT</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Creta (16-) задний 2WD</t>
+          <t>Диск тормозной Ford Fiesta (02-) / Fusion (02-) передний</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -8598,7 +8750,7 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>1270</v>
+        <v>1481</v>
       </c>
       <c r="E320" t="n">
         <v>10</v>
@@ -8610,12 +8762,12 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>BD041AVT</t>
+          <t>BD040AVT</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Getz (02-) задний</t>
+          <t>Диск тормозной Ford Focus (04-) задний</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -8624,10 +8776,10 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>1253</v>
+        <v>1373</v>
       </c>
       <c r="E321" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F321" t="n">
         <v>2</v>
@@ -8636,12 +8788,12 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>BD054AVT</t>
+          <t>BD015AVT</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Getz (02-) передний (ABS)</t>
+          <t>Диск тормозной Ford Focus (04-) задний d.264,8</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -8650,7 +8802,7 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>1343</v>
+        <v>1270</v>
       </c>
       <c r="E322" t="n">
         <v>10</v>
@@ -8662,12 +8814,12 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>BD055AVT</t>
+          <t>BD006AVT</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Getz (02-) передний (без ABS)</t>
+          <t>Диск тормозной Ford Focus II (05-) / Ford Focus III (11-) передний</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -8676,7 +8828,7 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>1309</v>
+        <v>2310</v>
       </c>
       <c r="E323" t="n">
         <v>10</v>
@@ -8688,12 +8840,12 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>BD002AVT</t>
+          <t>BD013AVT</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Solaris (10-) (17-) задний</t>
+          <t>Диск тормозной Ford Focus II (05-) / Ford Focus III (11-) передний d.278,1</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -8702,7 +8854,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>1230</v>
+        <v>1964</v>
       </c>
       <c r="E324" t="n">
         <v>10</v>
@@ -8714,12 +8866,12 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>BD001AVT</t>
+          <t>BD032AVT</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Solaris (10-) (17-) передний</t>
+          <t>Диск тормозной Ford Focus III (11-) задний</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -8728,7 +8880,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>1418</v>
+        <v>1494</v>
       </c>
       <c r="E325" t="n">
         <v>10</v>
@@ -8740,12 +8892,12 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>BD027AVT</t>
+          <t>BD076AVT</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Ceed (07-) / Cerato (09-) / Hyundai i30 (07-) передний</t>
+          <t>Диск тормозной Ford Mondeo IV (07-) задний</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -8754,7 +8906,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>1949</v>
+        <v>1741</v>
       </c>
       <c r="E326" t="n">
         <v>10</v>
@@ -8766,12 +8918,12 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>BD068AVT</t>
+          <t>BD033AVT</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Sorento II (09-) задний</t>
+          <t>Диск тормозной Hyundai Accent (00-) передний</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -8780,7 +8932,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>1909</v>
+        <v>1333</v>
       </c>
       <c r="E327" t="n">
         <v>10</v>
@@ -8792,12 +8944,12 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>BD028AVT</t>
+          <t>BD037AVT</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Sportage (10-) / Hyundai ix35 (10-) задний</t>
+          <t>Диск тормозной Hyundai Creta (16-) задний 2WD</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -8806,7 +8958,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>1324</v>
+        <v>1270</v>
       </c>
       <c r="E328" t="n">
         <v>10</v>
@@ -8818,12 +8970,12 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>BD045AVT</t>
+          <t>BD041AVT</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Sportage III (10-) / Hyundai iX 35 (09-) задний</t>
+          <t>Диск тормозной Hyundai Getz (02-) задний</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -8832,7 +8984,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>1459</v>
+        <v>1253</v>
       </c>
       <c r="E329" t="n">
         <v>10</v>
@@ -8844,12 +8996,12 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>BD031AVT</t>
+          <t>BD054AVT</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Sportage III (10-) / Hyundai ix35 (10-) / Creta (16-) передний</t>
+          <t>Диск тормозной Hyundai Getz (02-) передний (ABS)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -8858,7 +9010,7 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>2431</v>
+        <v>1343</v>
       </c>
       <c r="E330" t="n">
         <v>10</v>
@@ -8870,12 +9022,12 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>BD031AVT</t>
+          <t>BD055AVT</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Sportage III (10-) / Hyundai ix35 (10-) / Creta (16-) передний</t>
+          <t>Диск тормозной Hyundai Getz (02-) передний (без ABS)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -8884,7 +9036,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>2431</v>
+        <v>1309</v>
       </c>
       <c r="E331" t="n">
         <v>10</v>
@@ -8896,12 +9048,12 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>BD011AVT</t>
+          <t>BD002AVT</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Диск тормозной Lada Largus (12-) / Renault Logan (07-) передний (без ABS)</t>
+          <t>Диск тормозной Hyundai Solaris (10-) (17-) задний</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -8910,7 +9062,7 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>1451</v>
+        <v>1230</v>
       </c>
       <c r="E332" t="n">
         <v>10</v>
@@ -8922,12 +9074,12 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>BD060AVT</t>
+          <t>BD001AVT</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Диск тормозной Mazda 3 (03-) задний</t>
+          <t>Диск тормозной Hyundai Solaris (10-) (17-) передний</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -8936,7 +9088,7 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>1231</v>
+        <v>1418</v>
       </c>
       <c r="E333" t="n">
         <v>10</v>
@@ -8948,12 +9100,12 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>BD059AVT</t>
+          <t>BD027AVT</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Диск тормозной Mazda 3 (03-) передний</t>
+          <t>Диск тормозной Kia Ceed (07-) / Cerato (09-) / Hyundai i30 (07-) передний</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -8962,7 +9114,7 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>2041</v>
+        <v>1949</v>
       </c>
       <c r="E334" t="n">
         <v>10</v>
@@ -8974,12 +9126,12 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>BD081AVT</t>
+          <t>BD068AVT</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi ASX (10-) / Outlander III / Peugeot 4008 / Citroen C4 Aircross (12-) задни</t>
+          <t>Диск тормозной Kia Sorento II (09-) задний</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -8988,7 +9140,7 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>1757</v>
+        <v>1909</v>
       </c>
       <c r="E335" t="n">
         <v>10</v>
@@ -9000,12 +9152,12 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>BD051AVT</t>
+          <t>BD028AVT</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi Lancer (00-) задний</t>
+          <t>Диск тормозной Kia Sportage (10-) / Hyundai ix35 (10-) задний</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -9014,7 +9166,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>1262</v>
+        <v>1324</v>
       </c>
       <c r="E336" t="n">
         <v>10</v>
@@ -9026,12 +9178,12 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>BD053AVT</t>
+          <t>BD045AVT</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi Lancer (00-) передний</t>
+          <t>Диск тормозной Kia Sportage III (10-) / Hyundai iX 35 (09-) задний</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -9040,7 +9192,7 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>1860</v>
+        <v>1459</v>
       </c>
       <c r="E337" t="n">
         <v>10</v>
@@ -9052,12 +9204,12 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>BD074AVT</t>
+          <t>BD031AVT</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi Lancer (08-) задний</t>
+          <t>Диск тормозной Kia Sportage III (10-) / Hyundai ix35 (10-) / Creta (16-) передний</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -9066,7 +9218,7 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>1393</v>
+        <v>2431</v>
       </c>
       <c r="E338" t="n">
         <v>10</v>
@@ -9078,12 +9230,12 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>BD048AVT</t>
+          <t>BD031AVT</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi Outlander (06-) передний</t>
+          <t>Диск тормозной Kia Sportage III (10-) / Hyundai ix35 (10-) / Creta (16-) передний</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -9092,7 +9244,7 @@
         </is>
       </c>
       <c r="D339" t="n">
-        <v>2027</v>
+        <v>2431</v>
       </c>
       <c r="E339" t="n">
         <v>10</v>
@@ -9104,12 +9256,12 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>BD026AVT</t>
+          <t>BD011AVT</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Диск тормозной Nexia (95-) / Lanos (05-) передний</t>
+          <t>Диск тормозной Lada Largus (12-) / Renault Logan (07-) передний (без ABS)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -9118,7 +9270,7 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>1398</v>
+        <v>1451</v>
       </c>
       <c r="E340" t="n">
         <v>10</v>
@@ -9130,12 +9282,12 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>BD079AVT</t>
+          <t>BD060AVT</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Almera Classic (06-) передний</t>
+          <t>Диск тормозной Mazda 3 (03-) задний</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -9144,7 +9296,7 @@
         </is>
       </c>
       <c r="D341" t="n">
-        <v>1254</v>
+        <v>1231</v>
       </c>
       <c r="E341" t="n">
         <v>10</v>
@@ -9156,12 +9308,12 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>BD038AVT</t>
+          <t>BD059AVT</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Juke (10-) задний</t>
+          <t>Диск тормозной Mazda 3 (03-) передний</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -9170,7 +9322,7 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>1578</v>
+        <v>2041</v>
       </c>
       <c r="E342" t="n">
         <v>10</v>
@@ -9182,12 +9334,12 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>BD020AVT</t>
+          <t>BD081AVT</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) задний</t>
+          <t>Диск тормозной Mitsubishi ASX (10-) / Outlander III / Peugeot 4008 / Citroen C4 Aircross (12-) задни</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -9196,7 +9348,7 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>1664</v>
+        <v>1757</v>
       </c>
       <c r="E343" t="n">
         <v>10</v>
@@ -9208,12 +9360,12 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>BD019AVT</t>
+          <t>BD051AVT</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) передний</t>
+          <t>Диск тормозной Mitsubishi Lancer (00-) задний</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -9222,10 +9374,10 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>2299</v>
+        <v>1262</v>
       </c>
       <c r="E344" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F344" t="n">
         <v>2</v>
@@ -9234,12 +9386,12 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>BD019AVT</t>
+          <t>BD053AVT</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) передний</t>
+          <t>Диск тормозной Mitsubishi Lancer (00-) передний</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -9248,10 +9400,10 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>2299</v>
+        <v>1860</v>
       </c>
       <c r="E345" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F345" t="n">
         <v>2</v>
@@ -9260,12 +9412,12 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>BD058AVT</t>
+          <t>BD074AVT</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Qashqai II (13-) / X-Trail (14-) передний</t>
+          <t>Диск тормозной Mitsubishi Lancer (08-) задний</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -9274,7 +9426,7 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>2034</v>
+        <v>1393</v>
       </c>
       <c r="E346" t="n">
         <v>10</v>
@@ -9286,12 +9438,12 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>BD025AVT</t>
+          <t>BD048AVT</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Диск тормозной Opel Astra H (04-) передний</t>
+          <t>Диск тормозной Mitsubishi Outlander (06-) передний</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -9300,7 +9452,7 @@
         </is>
       </c>
       <c r="D347" t="n">
-        <v>1860</v>
+        <v>2027</v>
       </c>
       <c r="E347" t="n">
         <v>10</v>
@@ -9312,12 +9464,12 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>BD024AVT</t>
+          <t>BD026AVT</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Диск тормозной Opel Astra J (10-) / Chevrolet Cruze (09-) задний</t>
+          <t>Диск тормозной Nexia (95-) / Lanos (05-) передний</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -9326,7 +9478,7 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>1507</v>
+        <v>1398</v>
       </c>
       <c r="E348" t="n">
         <v>10</v>
@@ -9338,12 +9490,12 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>BD034AVT</t>
+          <t>BD079AVT</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Диск тормозной Peugeot 307 (00-) / 308 (07-) / Citroen C4 (04-) передний</t>
+          <t>Диск тормозной Nissan Almera Classic (06-) передний</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -9352,7 +9504,7 @@
         </is>
       </c>
       <c r="D349" t="n">
-        <v>1940</v>
+        <v>1254</v>
       </c>
       <c r="E349" t="n">
         <v>10</v>
@@ -9364,12 +9516,12 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>BD069AVT</t>
+          <t>BD038AVT</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Диск тормозной Peugeot Partner / Citroen Berlingo (96-) передний</t>
+          <t>Диск тормозной Nissan Juke (10-) задний</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -9378,7 +9530,7 @@
         </is>
       </c>
       <c r="D350" t="n">
-        <v>1325</v>
+        <v>1578</v>
       </c>
       <c r="E350" t="n">
         <v>10</v>
@@ -9390,12 +9542,12 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>BD023AVT</t>
+          <t>BD020AVT</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Duster (10-) / Arkana (19-)</t>
+          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) задний</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -9404,7 +9556,7 @@
         </is>
       </c>
       <c r="D351" t="n">
-        <v>2221</v>
+        <v>1664</v>
       </c>
       <c r="E351" t="n">
         <v>10</v>
@@ -9416,12 +9568,12 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>BD023AVT</t>
+          <t>BD019AVT</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Duster (10-) / Arkana (19-)</t>
+          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) передний</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -9430,7 +9582,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>2221</v>
+        <v>2299</v>
       </c>
       <c r="E352" t="n">
         <v>10</v>
@@ -9442,12 +9594,12 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>BD061AVT</t>
+          <t>BD019AVT</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Koleos (08-) передний</t>
+          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) передний</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -9456,7 +9608,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>2723</v>
+        <v>2299</v>
       </c>
       <c r="E353" t="n">
         <v>10</v>
@@ -9468,12 +9620,12 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>BD004AVT</t>
+          <t>BD058AVT</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Logan (04-) передний</t>
+          <t>Диск тормозной Nissan Qashqai II (13-) / X-Trail (14-) передний</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -9482,7 +9634,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>1370</v>
+        <v>2034</v>
       </c>
       <c r="E354" t="n">
         <v>10</v>
@@ -9494,12 +9646,12 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>BD004AVT</t>
+          <t>BD025AVT</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Logan (04-) передний</t>
+          <t>Диск тормозной Opel Astra H (04-) передний</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -9508,7 +9660,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>1370</v>
+        <v>1860</v>
       </c>
       <c r="E355" t="n">
         <v>10</v>
@@ -9520,12 +9672,12 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>BD010AVT</t>
+          <t>BD024AVT</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Logan (04-) передний (без ABS)</t>
+          <t>Диск тормозной Opel Astra J (10-) / Chevrolet Cruze (09-) задний</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -9534,7 +9686,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>997</v>
+        <v>1507</v>
       </c>
       <c r="E356" t="n">
         <v>10</v>
@@ -9546,12 +9698,12 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>BD012AVT</t>
+          <t>BD034AVT</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Octavia (04-) / VW Golf V (03-) задний</t>
+          <t>Диск тормозной Peugeot 307 (00-) / 308 (07-) / Citroen C4 (04-) передний</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -9560,7 +9712,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>1234</v>
+        <v>1940</v>
       </c>
       <c r="E357" t="n">
         <v>10</v>
@@ -9572,12 +9724,12 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>BD016AVT</t>
+          <t>BD069AVT</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Octavia (04-) / VW Golf V (03-) передний</t>
+          <t>Диск тормозной Peugeot Partner / Citroen Berlingo (96-) передний</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -9586,7 +9738,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>1789</v>
+        <v>1325</v>
       </c>
       <c r="E358" t="n">
         <v>10</v>
@@ -9598,12 +9750,12 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>BD008AVT</t>
+          <t>BD023AVT</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Octavia (13-) / VW Golf VII (12-) задний</t>
+          <t>Диск тормозной Renault Duster (10-) / Arkana (19-)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -9612,7 +9764,7 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>1326</v>
+        <v>2221</v>
       </c>
       <c r="E359" t="n">
         <v>10</v>
@@ -9624,12 +9776,12 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>BD063AVT</t>
+          <t>BD023AVT</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Octavia (96-) / VW Golf IV (97-) передний</t>
+          <t>Диск тормозной Renault Duster (10-) / Arkana (19-)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -9638,7 +9790,7 @@
         </is>
       </c>
       <c r="D360" t="n">
-        <v>1729</v>
+        <v>2221</v>
       </c>
       <c r="E360" t="n">
         <v>10</v>
@@ -9650,12 +9802,12 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>BD007AVT</t>
+          <t>BD061AVT</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Yeti (09-) передний</t>
+          <t>Диск тормозной Renault Koleos (08-) передний</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -9664,7 +9816,7 @@
         </is>
       </c>
       <c r="D361" t="n">
-        <v>2183</v>
+        <v>2723</v>
       </c>
       <c r="E361" t="n">
         <v>10</v>
@@ -9676,12 +9828,12 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>BD064AVT</t>
+          <t>BD004AVT</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Диск тормозной SsangYong Kyron (05-) задний</t>
+          <t>Диск тормозной Renault Logan (04-) передний</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -9690,7 +9842,7 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>1950</v>
+        <v>1370</v>
       </c>
       <c r="E362" t="n">
         <v>10</v>
@@ -9702,12 +9854,12 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>BD070AVT</t>
+          <t>BD004AVT</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Диск тормозной Suzuki Grand Vitara (05-) передний</t>
+          <t>Диск тормозной Renault Logan (04-) передний</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -9716,7 +9868,7 @@
         </is>
       </c>
       <c r="D363" t="n">
-        <v>1757</v>
+        <v>1370</v>
       </c>
       <c r="E363" t="n">
         <v>10</v>
@@ -9728,12 +9880,12 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>BD083AVT</t>
+          <t>BD010AVT</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Диск тормозной Tank 300 передний</t>
+          <t>Диск тормозной Renault Logan (04-) передний (без ABS)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -9742,7 +9894,7 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>3834</v>
+        <v>997</v>
       </c>
       <c r="E364" t="n">
         <v>10</v>
@@ -9754,12 +9906,12 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>BD083AVT</t>
+          <t>BD012AVT</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Диск тормозной Tank 300 передний</t>
+          <t>Диск тормозной Skoda Octavia (04-) / VW Golf V (03-) задний</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -9768,7 +9920,7 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>3834</v>
+        <v>1234</v>
       </c>
       <c r="E365" t="n">
         <v>10</v>
@@ -9780,12 +9932,12 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>BD082AVT</t>
+          <t>BD016AVT</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Диск тормозной Tank 500 передний</t>
+          <t>Диск тормозной Skoda Octavia (04-) / VW Golf V (03-) передний</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -9794,7 +9946,7 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>4511</v>
+        <v>1789</v>
       </c>
       <c r="E366" t="n">
         <v>10</v>
@@ -9806,12 +9958,12 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>BD017AVT</t>
+          <t>BD008AVT</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Camry (06-) / RAV 4 (06-) передний</t>
+          <t>Диск тормозной Skoda Octavia (13-) / VW Golf VII (12-) задний</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -9820,7 +9972,7 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>2334</v>
+        <v>1326</v>
       </c>
       <c r="E367" t="n">
         <v>10</v>
@@ -9832,12 +9984,12 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>BD017AVT</t>
+          <t>BD063AVT</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Camry (06-) / RAV 4 (06-) передний</t>
+          <t>Диск тормозной Skoda Octavia (96-) / VW Golf IV (97-) передний</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -9846,7 +9998,7 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>2334</v>
+        <v>1729</v>
       </c>
       <c r="E368" t="n">
         <v>10</v>
@@ -9858,12 +10010,12 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>BD044AVT</t>
+          <t>BD007AVT</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Camry (06-) задний</t>
+          <t>Диск тормозной Skoda Yeti (09-) передний</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -9872,7 +10024,7 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>1597</v>
+        <v>2183</v>
       </c>
       <c r="E369" t="n">
         <v>10</v>
@@ -9884,12 +10036,12 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>BD036AVT</t>
+          <t>BD064AVT</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Corolla (06-) / Auris (06-) задний</t>
+          <t>Диск тормозной SsangYong Kyron (05-) задний</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -9898,7 +10050,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>1127</v>
+        <v>1950</v>
       </c>
       <c r="E370" t="n">
         <v>10</v>
@@ -9910,12 +10062,12 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>BD035AVT</t>
+          <t>BD070AVT</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Corolla (06-) / Auris (06-) передний</t>
+          <t>Диск тормозной Suzuki Grand Vitara (05-) передний</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -9924,7 +10076,7 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>1699</v>
+        <v>1757</v>
       </c>
       <c r="E371" t="n">
         <v>10</v>
@@ -9936,12 +10088,12 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>BD071AVT</t>
+          <t>BD083AVT</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota LC 200 (07-) задний</t>
+          <t>Диск тормозной Tank 300 передний</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -9950,7 +10102,7 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>2298</v>
+        <v>3834</v>
       </c>
       <c r="E372" t="n">
         <v>10</v>
@@ -9962,12 +10114,12 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>BD052AVT</t>
+          <t>BD083AVT</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota LC 200 (07-) передний</t>
+          <t>Диск тормозной Tank 300 передний</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -9976,7 +10128,7 @@
         </is>
       </c>
       <c r="D373" t="n">
-        <v>2939</v>
+        <v>3834</v>
       </c>
       <c r="E373" t="n">
         <v>10</v>
@@ -9988,12 +10140,12 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>BD066AVT</t>
+          <t>BD082AVT</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota LC Prado (09-) передний</t>
+          <t>Диск тормозной Tank 500 передний</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -10002,7 +10154,7 @@
         </is>
       </c>
       <c r="D374" t="n">
-        <v>3275</v>
+        <v>4511</v>
       </c>
       <c r="E374" t="n">
         <v>10</v>
@@ -10014,12 +10166,12 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>BD029AVT</t>
+          <t>BD017AVT</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota RAV 4 (06-) / RAV 4 (13-) задний</t>
+          <t>Диск тормозной Toyota Camry (06-) / RAV 4 (06-) передний</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -10028,7 +10180,7 @@
         </is>
       </c>
       <c r="D375" t="n">
-        <v>1684</v>
+        <v>2334</v>
       </c>
       <c r="E375" t="n">
         <v>10</v>
@@ -10040,12 +10192,12 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>BD065AVT</t>
+          <t>BD017AVT</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Диск тормозной Volvo XC 70 (07-) / S60 (10-) / S80 (06-) передний</t>
+          <t>Диск тормозной Toyota Camry (06-) / RAV 4 (06-) передний</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -10054,7 +10206,7 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>2572</v>
+        <v>2334</v>
       </c>
       <c r="E376" t="n">
         <v>10</v>
@@ -10066,12 +10218,12 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>BD047AVT</t>
+          <t>BD044AVT</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Passat (96-) задний</t>
+          <t>Диск тормозной Toyota Camry (06-) задний</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -10080,7 +10232,7 @@
         </is>
       </c>
       <c r="D377" t="n">
-        <v>1218</v>
+        <v>1597</v>
       </c>
       <c r="E377" t="n">
         <v>10</v>
@@ -10092,12 +10244,12 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>BD072AVT</t>
+          <t>BD036AVT</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Passat (96-) передний</t>
+          <t>Диск тормозной Toyota Corolla (06-) / Auris (06-) задний</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -10106,7 +10258,7 @@
         </is>
       </c>
       <c r="D378" t="n">
-        <v>1788</v>
+        <v>1127</v>
       </c>
       <c r="E378" t="n">
         <v>10</v>
@@ -10118,12 +10270,12 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>BD009AVT</t>
+          <t>BD035AVT</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Polo Sedan (10-) передний d.286,8</t>
+          <t>Диск тормозной Toyota Corolla (06-) / Auris (06-) передний</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -10132,7 +10284,7 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>2159</v>
+        <v>1699</v>
       </c>
       <c r="E379" t="n">
         <v>10</v>
@@ -10144,12 +10296,12 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>BD014AVT</t>
+          <t>BD071AVT</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Tiguan (07-) задний</t>
+          <t>Диск тормозной Toyota LC 200 (07-) задний</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -10158,7 +10310,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>1496</v>
+        <v>2298</v>
       </c>
       <c r="E380" t="n">
         <v>10</v>
@@ -10170,12 +10322,12 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>BD003AVT</t>
+          <t>BD052AVT</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Tiguan (07-) передний</t>
+          <t>Диск тормозной Toyota LC 200 (07-) передний</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -10184,7 +10336,7 @@
         </is>
       </c>
       <c r="D381" t="n">
-        <v>2494</v>
+        <v>2939</v>
       </c>
       <c r="E381" t="n">
         <v>10</v>
@@ -10196,12 +10348,12 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>BD043AVT</t>
+          <t>BD066AVT</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Tiguan (16-) / Skoda Kodiaq (16-) задний</t>
+          <t>Диск тормозной Toyota LC Prado (09-) передний</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -10210,7 +10362,7 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>1879</v>
+        <v>3275</v>
       </c>
       <c r="E382" t="n">
         <v>10</v>
@@ -10222,12 +10374,12 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>BP023AVT</t>
+          <t>BD029AVT</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Lada Vesta Sport (18-) / Renault Duster (10-) / Renault Arkan</t>
+          <t>Диск тормозной Toyota RAV 4 (06-) / RAV 4 (13-) задний</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -10236,24 +10388,24 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>864</v>
+        <v>1684</v>
       </c>
       <c r="E383" t="n">
         <v>10</v>
       </c>
       <c r="F383" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>BP023AVT</t>
+          <t>BD065AVT</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Lada Vesta Sport (18-) / Renault Duster (10-) / Renault Arkan</t>
+          <t>Диск тормозной Volvo XC 70 (07-) / S60 (10-) / S80 (06-) передний</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -10262,24 +10414,24 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>864</v>
+        <v>2572</v>
       </c>
       <c r="E384" t="n">
         <v>10</v>
       </c>
       <c r="F384" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>BP096AVT</t>
+          <t>BD047AVT</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Renault Logan II (2012-)</t>
+          <t>Диск тормозной VW Passat (96-) задний</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -10288,24 +10440,24 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>680</v>
+        <v>1218</v>
       </c>
       <c r="E385" t="n">
         <v>10</v>
       </c>
       <c r="F385" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>BP096AVT</t>
+          <t>BD072AVT</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Renault Logan II (2012-)</t>
+          <t>Диск тормозной VW Passat (96-) передний</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -10314,24 +10466,24 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>680</v>
+        <v>1788</v>
       </c>
       <c r="E386" t="n">
         <v>10</v>
       </c>
       <c r="F386" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>832198AVT</t>
+          <t>BD009AVT</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Комплект сцепления LADA Largus (корзина+диск) для 21809</t>
+          <t>Диск тормозной VW Polo Sedan (10-) передний d.286,8</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -10340,24 +10492,24 @@
         </is>
       </c>
       <c r="D387" t="n">
-        <v>12000</v>
+        <v>2159</v>
       </c>
       <c r="E387" t="n">
         <v>10</v>
       </c>
       <c r="F387" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>832198AVT</t>
+          <t>BD014AVT</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Комплект сцепления LADA Largus (корзина+диск) для 21809</t>
+          <t>Диск тормозной VW Tiguan (07-) задний</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -10366,24 +10518,24 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>12000</v>
+        <v>1496</v>
       </c>
       <c r="E388" t="n">
         <v>10</v>
       </c>
       <c r="F388" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>826787AVT</t>
+          <t>BD003AVT</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Комплект сцепления без подшипника Chevrolet Lacetti (04-)</t>
+          <t>Диск тормозной VW Tiguan (07-) передний</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -10392,24 +10544,24 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>5111</v>
+        <v>2494</v>
       </c>
       <c r="E389" t="n">
         <v>10</v>
       </c>
       <c r="F389" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>826853AVT</t>
+          <t>BD043AVT</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Комплект сцепления без подшипника Renault Logan (08-)</t>
+          <t>Диск тормозной VW Tiguan (16-) / Skoda Kodiaq (16-) задний</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -10418,24 +10570,24 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>3703</v>
+        <v>1879</v>
       </c>
       <c r="E390" t="n">
         <v>10</v>
       </c>
       <c r="F390" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>3495AVT</t>
+          <t>832198AVT</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником 2107</t>
+          <t>Комплект сцепления LADA Largus (корзина+диск) для 21809</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -10444,7 +10596,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>4656</v>
+        <v>12000</v>
       </c>
       <c r="E391" t="n">
         <v>10</v>
@@ -10456,12 +10608,12 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>801122AVT</t>
+          <t>832198AVT</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником 2109</t>
+          <t>Комплект сцепления LADA Largus (корзина+диск) для 21809</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -10470,7 +10622,7 @@
         </is>
       </c>
       <c r="D392" t="n">
-        <v>4656</v>
+        <v>12000</v>
       </c>
       <c r="E392" t="n">
         <v>10</v>
@@ -10482,12 +10634,12 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>826245AVT</t>
+          <t>832290AVT</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Citroen C3 (03-) 1.1-1.4 (05-)</t>
+          <t>Комплект сцепления LADA Largus с подшипником для LADA Vesta / X-RAY 1.8 (коробка робот)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -10496,10 +10648,10 @@
         </is>
       </c>
       <c r="D393" t="n">
-        <v>3112</v>
+        <v>6120</v>
       </c>
       <c r="E393" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F393" t="n">
         <v>1</v>
@@ -10508,12 +10660,12 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>826568AVT</t>
+          <t>832290AVT</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Daewoo Matiz (01-)</t>
+          <t>Комплект сцепления LADA Largus с подшипником для LADA Vesta / X-RAY 1.8 (коробка робот)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -10522,7 +10674,7 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>3259</v>
+        <v>6120</v>
       </c>
       <c r="E394" t="n">
         <v>10</v>
@@ -10534,12 +10686,12 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>821098AVT</t>
+          <t>826787AVT</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Daewoo Nexia (95-)</t>
+          <t>Комплект сцепления без подшипника Chevrolet Lacetti (04-)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -10548,7 +10700,7 @@
         </is>
       </c>
       <c r="D395" t="n">
-        <v>3667</v>
+        <v>5111</v>
       </c>
       <c r="E395" t="n">
         <v>10</v>
@@ -10560,12 +10712,12 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>826995AVT</t>
+          <t>826853AVT</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Hyundai Solaris I (10-)</t>
+          <t>Комплект сцепления без подшипника Renault Logan (08-)</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -10574,7 +10726,7 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>4223</v>
+        <v>3703</v>
       </c>
       <c r="E396" t="n">
         <v>10</v>
@@ -10586,12 +10738,12 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>826995AVT</t>
+          <t>3495AVT</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Hyundai Solaris I (10-)</t>
+          <t>Комплект сцепления с подшипником 2107</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -10600,7 +10752,7 @@
         </is>
       </c>
       <c r="D397" t="n">
-        <v>4223</v>
+        <v>4656</v>
       </c>
       <c r="E397" t="n">
         <v>10</v>
@@ -10612,12 +10764,12 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>826299AVT</t>
+          <t>801122AVT</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Hyundai Sonata IV (98-) 2.0</t>
+          <t>Комплект сцепления с подшипником 2109</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -10626,10 +10778,10 @@
         </is>
       </c>
       <c r="D398" t="n">
-        <v>8519</v>
+        <v>4656</v>
       </c>
       <c r="E398" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F398" t="n">
         <v>1</v>
@@ -10638,12 +10790,12 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>801515AVT</t>
+          <t>826222AVT</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Nissan Almera N16 (00-04) 1.5</t>
+          <t>Комплект сцепления с подшипником 2110</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -10652,7 +10804,7 @@
         </is>
       </c>
       <c r="D399" t="n">
-        <v>4482</v>
+        <v>5172</v>
       </c>
       <c r="E399" t="n">
         <v>10</v>
@@ -10664,12 +10816,12 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>826211AVT</t>
+          <t>826222AVT</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 306 (97-) / Partner (96-) 1.4-1.6</t>
+          <t>Комплект сцепления с подшипником 2110</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -10678,10 +10830,10 @@
         </is>
       </c>
       <c r="D400" t="n">
-        <v>3830</v>
+        <v>5172</v>
       </c>
       <c r="E400" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F400" t="n">
         <v>1</v>
@@ -10690,12 +10842,12 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>821340AVT</t>
+          <t>826245AVT</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 307 (00-) 1.1-1.4</t>
+          <t>Комплект сцепления с подшипником Citroen C3 (03-) 1.1-1.4 (05-)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -10704,10 +10856,10 @@
         </is>
       </c>
       <c r="D401" t="n">
-        <v>3912</v>
+        <v>3112</v>
       </c>
       <c r="E401" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F401" t="n">
         <v>1</v>
@@ -10716,12 +10868,12 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>826213AVT</t>
+          <t>826568AVT</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Peugeot 307 (00-)</t>
+          <t>Комплект сцепления с подшипником Daewoo Matiz (01-)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -10730,7 +10882,7 @@
         </is>
       </c>
       <c r="D402" t="n">
-        <v>3749</v>
+        <v>3259</v>
       </c>
       <c r="E402" t="n">
         <v>10</v>
@@ -10742,12 +10894,12 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>821183AVT</t>
+          <t>821098AVT</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Renault Logan (04-)</t>
+          <t>Комплект сцепления с подшипником Daewoo Nexia (95-)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -10756,7 +10908,7 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>3830</v>
+        <v>3667</v>
       </c>
       <c r="E403" t="n">
         <v>10</v>
@@ -10768,12 +10920,12 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>826577AVT</t>
+          <t>826298AVT</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Renault Logan I 1.4 (04-)</t>
+          <t>Комплект сцепления с подшипником GAZ 3110 / 3302 (ZMZ 402 / 406)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -10782,7 +10934,7 @@
         </is>
       </c>
       <c r="D404" t="n">
-        <v>4662</v>
+        <v>4516</v>
       </c>
       <c r="E404" t="n">
         <v>10</v>
@@ -10794,12 +10946,12 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>826326AVT</t>
+          <t>826298AVT</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником VW Polo Sedan (10-)</t>
+          <t>Комплект сцепления с подшипником GAZ 3110 / 3302 (ZMZ 402 / 406)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -10808,7 +10960,7 @@
         </is>
       </c>
       <c r="D405" t="n">
-        <v>5297</v>
+        <v>4516</v>
       </c>
       <c r="E405" t="n">
         <v>10</v>
@@ -10820,12 +10972,12 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>826474AVT</t>
+          <t>826995AVT</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Нива</t>
+          <t>Комплект сцепления с подшипником Hyundai Solaris I (10-)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -10834,7 +10986,7 @@
         </is>
       </c>
       <c r="D406" t="n">
-        <v>7272</v>
+        <v>4223</v>
       </c>
       <c r="E406" t="n">
         <v>10</v>
@@ -10846,12 +10998,12 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>CD044AVT</t>
+          <t>826995AVT</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.0</t>
+          <t>Комплект сцепления с подшипником Hyundai Solaris I (10-)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -10860,7 +11012,7 @@
         </is>
       </c>
       <c r="D407" t="n">
-        <v>5124</v>
+        <v>4223</v>
       </c>
       <c r="E407" t="n">
         <v>10</v>
@@ -10872,12 +11024,12 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>CD046AVT</t>
+          <t>826299AVT</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.2</t>
+          <t>Комплект сцепления с подшипником Hyundai Sonata IV (98-) 2.0</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -10886,10 +11038,10 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>5364</v>
+        <v>8519</v>
       </c>
       <c r="E408" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F408" t="n">
         <v>1</v>
@@ -10898,12 +11050,12 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>CD036AVT</t>
+          <t>801515AVT</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Конденсор Chevrolet Aveo T300 (11-) 1.2-1.6</t>
+          <t>Комплект сцепления с подшипником Nissan Almera N16 (00-04) 1.5</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -10912,7 +11064,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>4404</v>
+        <v>4482</v>
       </c>
       <c r="E409" t="n">
         <v>10</v>
@@ -10924,12 +11076,12 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>CD047AVT</t>
+          <t>826211AVT</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Конденсор Chevrolet Captiva / Opel Antara (06-) 2.0-2.2D</t>
+          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 306 (97-) / Partner (96-) 1.4-1.6</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -10938,10 +11090,10 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>4788</v>
+        <v>3830</v>
       </c>
       <c r="E410" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F410" t="n">
         <v>1</v>
@@ -10950,12 +11102,12 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>CD048AVT</t>
+          <t>821340AVT</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Конденсор Chevrolet Cruze / Opel Astra J (09-) 1.4-1.8</t>
+          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 307 (00-) 1.1-1.4</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -10964,7 +11116,7 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>3900</v>
+        <v>3912</v>
       </c>
       <c r="E411" t="n">
         <v>10</v>
@@ -10976,12 +11128,12 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>CD033AVT</t>
+          <t>826213AVT</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Конденсор Ford Focus II (05-) / Volvo S40 (04-) 1.4-2.0</t>
+          <t>Комплект сцепления с подшипником Peugeot 307 (00-)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -10990,7 +11142,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>4044</v>
+        <v>3749</v>
       </c>
       <c r="E412" t="n">
         <v>10</v>
@@ -11002,12 +11154,12 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>CD037AVT</t>
+          <t>821183AVT</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Конденсор Ford Mondeo (07-) / Volvo XC60 (08-) / XC70 (07-) / S80 (06-) 1.6-2.5</t>
+          <t>Комплект сцепления с подшипником Renault Logan (04-)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -11016,7 +11168,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>5388</v>
+        <v>3830</v>
       </c>
       <c r="E413" t="n">
         <v>10</v>
@@ -11028,12 +11180,12 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>CD038AVT</t>
+          <t>826577AVT</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Конденсор Hyundai Accent II (99-) MT 1.3-1.6</t>
+          <t>Комплект сцепления с подшипником Renault Logan I 1.4 (04-)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -11042,7 +11194,7 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>3708</v>
+        <v>4662</v>
       </c>
       <c r="E414" t="n">
         <v>10</v>
@@ -11054,12 +11206,12 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>CD039AVT</t>
+          <t>828009AVT</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Конденсор Hyundai Tucson (15-) / Kia Sportage (16-) 1.6-2.0</t>
+          <t>Комплект сцепления с подшипником UAZ 3151 / 3160 (ZMZ 409)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -11068,7 +11220,7 @@
         </is>
       </c>
       <c r="D415" t="n">
-        <v>5856</v>
+        <v>5112</v>
       </c>
       <c r="E415" t="n">
         <v>10</v>
@@ -11080,12 +11232,12 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>CD045AVT</t>
+          <t>828009AVT</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Конденсор Mazda 3 (09-) 1.6-2.5</t>
+          <t>Комплект сцепления с подшипником UAZ 3151 / 3160 (ZMZ 409)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -11094,7 +11246,7 @@
         </is>
       </c>
       <c r="D416" t="n">
-        <v>5220</v>
+        <v>5112</v>
       </c>
       <c r="E416" t="n">
         <v>10</v>
@@ -11106,12 +11258,12 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>CD041AVT</t>
+          <t>826326AVT</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Конденсор Mitsubishi Outlander (12-) 2.0-2.4</t>
+          <t>Комплект сцепления с подшипником VW Polo Sedan (10-)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -11120,7 +11272,7 @@
         </is>
       </c>
       <c r="D417" t="n">
-        <v>4428</v>
+        <v>5297</v>
       </c>
       <c r="E417" t="n">
         <v>10</v>
@@ -11132,12 +11284,12 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>CD042AVT</t>
+          <t>826474AVT</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Конденсор Nissan Note (06-) / Tiida (04-) / Juke (10-) 1.2-1.6</t>
+          <t>Комплект сцепления с подшипником Нива</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -11146,7 +11298,7 @@
         </is>
       </c>
       <c r="D418" t="n">
-        <v>4248</v>
+        <v>7272</v>
       </c>
       <c r="E418" t="n">
         <v>10</v>
@@ -11158,12 +11310,12 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>CD043AVT</t>
+          <t>828003AVT</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Конденсор Opel Astra H (04-) 1.4-1.8</t>
+          <t>Комплект сцепления с подшипником Приора</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -11172,7 +11324,7 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>4692</v>
+        <v>5544</v>
       </c>
       <c r="E419" t="n">
         <v>10</v>
@@ -11184,12 +11336,12 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>CD034AVT</t>
+          <t>828003AVT</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Конденсор Skoda Kodiaq (16-) / Skoda Octavia A7 (13-) / VW Tiguan (16-) 1.2-2.0</t>
+          <t>Комплект сцепления с подшипником Приора</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -11198,7 +11350,7 @@
         </is>
       </c>
       <c r="D420" t="n">
-        <v>5292</v>
+        <v>5544</v>
       </c>
       <c r="E420" t="n">
         <v>10</v>
@@ -11210,12 +11362,12 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>CD035AVT</t>
+          <t>CD044AVT</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Конденсор Skoda Octavia A5 (04-) / VW Golf V (03-) 1.6-2.0</t>
+          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.0</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -11224,7 +11376,7 @@
         </is>
       </c>
       <c r="D421" t="n">
-        <v>5136</v>
+        <v>5124</v>
       </c>
       <c r="E421" t="n">
         <v>10</v>
@@ -11236,12 +11388,12 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>836383AVT</t>
+          <t>CD046AVT</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Одномассовый маховик HYUNDAI SOLARIS 17-</t>
+          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.2</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -11250,10 +11402,10 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>6000</v>
+        <v>5364</v>
       </c>
       <c r="E422" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F422" t="n">
         <v>1</v>
@@ -11262,12 +11414,12 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>836365AVT</t>
+          <t>CD036AVT</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
+          <t>Конденсор Chevrolet Aveo T300 (11-) 1.2-1.6</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -11276,10 +11428,10 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>3300</v>
+        <v>4404</v>
       </c>
       <c r="E423" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F423" t="n">
         <v>1</v>
@@ -11288,12 +11440,12 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>836365AVT</t>
+          <t>CD047AVT</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
+          <t>Конденсор Chevrolet Captiva / Opel Antara (06-) 2.0-2.2D</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -11302,10 +11454,10 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>3300</v>
+        <v>4788</v>
       </c>
       <c r="E424" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F424" t="n">
         <v>1</v>
@@ -11314,12 +11466,12 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>804295AVT</t>
+          <t>CD048AVT</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Подшипник выжимной 2101-2107</t>
+          <t>Конденсор Chevrolet Cruze / Opel Astra J (09-) 1.4-1.8</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -11328,7 +11480,7 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>1070</v>
+        <v>3900</v>
       </c>
       <c r="E425" t="n">
         <v>10</v>
@@ -11340,12 +11492,12 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>804296AVT</t>
+          <t>CD033AVT</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Подшипник выжимной 2108-2112</t>
+          <t>Конденсор Ford Focus II (05-) / Volvo S40 (04-) 1.4-2.0</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -11354,7 +11506,7 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>811</v>
+        <v>4044</v>
       </c>
       <c r="E426" t="n">
         <v>10</v>
@@ -11366,12 +11518,12 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>804296AVT</t>
+          <t>CD037AVT</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Подшипник выжимной 2108-2112</t>
+          <t>Конденсор Ford Mondeo (07-) / Volvo XC60 (08-) / XC70 (07-) / S80 (06-) 1.6-2.5</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -11380,7 +11532,7 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>811</v>
+        <v>5388</v>
       </c>
       <c r="E427" t="n">
         <v>10</v>
@@ -11392,12 +11544,12 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>804036AVT</t>
+          <t>CD038AVT</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Подшипник выжимной CITROEN/PEUGEOT</t>
+          <t>Конденсор Hyundai Accent II (99-) MT 1.3-1.6</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -11406,7 +11558,7 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>696</v>
+        <v>3708</v>
       </c>
       <c r="E428" t="n">
         <v>10</v>
@@ -11418,12 +11570,12 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>804299AVT</t>
+          <t>CD039AVT</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Подшипник выжимной PSA</t>
+          <t>Конденсор Hyundai Tucson (15-) / Kia Sportage (16-) 1.6-2.0</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -11432,7 +11584,7 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>720</v>
+        <v>5856</v>
       </c>
       <c r="E429" t="n">
         <v>10</v>
@@ -11444,12 +11596,12 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>804587AVT</t>
+          <t>CD045AVT</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Подшипник гидравлический RENAULT DUSTER 1.6</t>
+          <t>Конденсор Mazda 3 (09-) 1.6-2.5</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -11458,7 +11610,7 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>7200</v>
+        <v>5220</v>
       </c>
       <c r="E430" t="n">
         <v>10</v>
@@ -11470,12 +11622,12 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>804544AVT</t>
+          <t>CD041AVT</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Подшипник гидравлический RENAULT/NISSAN</t>
+          <t>Конденсор Mitsubishi Outlander (12-) 2.0-2.4</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -11484,7 +11636,7 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>5640</v>
+        <v>4428</v>
       </c>
       <c r="E431" t="n">
         <v>10</v>
@@ -11496,12 +11648,12 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>804544AVT</t>
+          <t>CD042AVT</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Подшипник гидравлический RENAULT/NISSAN</t>
+          <t>Конденсор Nissan Note (06-) / Tiida (04-) / Juke (10-) 1.2-1.6</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -11510,7 +11662,7 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>5640</v>
+        <v>4248</v>
       </c>
       <c r="E432" t="n">
         <v>10</v>
@@ -11522,12 +11674,12 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>701514AVT</t>
+          <t>CD043AVT</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Радиатор Веста / Икс-Рэй</t>
+          <t>Конденсор Opel Astra H (04-) 1.4-1.8</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -11536,7 +11688,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>4212</v>
+        <v>4692</v>
       </c>
       <c r="E433" t="n">
         <v>10</v>
@@ -11548,12 +11700,12 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>RD204AVT</t>
+          <t>CD034AVT</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Радиатор двигатель паяный Hyundai Solaris / KIA RIO II (17-) 1.4i / 1.6i</t>
+          <t>Конденсор Skoda Kodiaq (16-) / Skoda Octavia A7 (13-) / VW Tiguan (16-) 1.2-2.0</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -11562,7 +11714,7 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>5585</v>
+        <v>5292</v>
       </c>
       <c r="E434" t="n">
         <v>10</v>
@@ -11574,12 +11726,12 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>RD026AVT</t>
+          <t>CD035AVT</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Радиатор двигателя BMW X5 (E70) (07-) 30d/3.0t AT (паяный)</t>
+          <t>Конденсор Skoda Octavia A5 (04-) / VW Golf V (03-) 1.6-2.0</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -11588,7 +11740,7 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>12251</v>
+        <v>5136</v>
       </c>
       <c r="E435" t="n">
         <v>10</v>
@@ -11600,12 +11752,12 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>RD008AVT</t>
+          <t>836383AVT</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Радиатор двигателя CHEVROLET CRUZE (09-) 1.6-1.8i / ORLANDO (10-) 1.8i MT</t>
+          <t>Одномассовый маховик HYUNDAI SOLARIS 17-</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -11614,10 +11766,10 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>5634</v>
+        <v>6000</v>
       </c>
       <c r="E436" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F436" t="n">
         <v>1</v>
@@ -11626,12 +11778,12 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>RD018AVT</t>
+          <t>836365AVT</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i AT</t>
+          <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -11640,7 +11792,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>6371</v>
+        <v>3300</v>
       </c>
       <c r="E437" t="n">
         <v>10</v>
@@ -11652,12 +11804,12 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>RD009AVT</t>
+          <t>836365AVT</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i MT</t>
+          <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -11666,7 +11818,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>5555</v>
+        <v>3300</v>
       </c>
       <c r="E438" t="n">
         <v>10</v>
@@ -11678,12 +11830,12 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>RD011AVT</t>
+          <t>804295AVT</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Chevrolet Lacetti (04-) 1.4i/1.6i/1.8i MT (сборный)</t>
+          <t>Подшипник выжимной 2101-2107</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -11692,7 +11844,7 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>4973</v>
+        <v>1070</v>
       </c>
       <c r="E439" t="n">
         <v>10</v>
@@ -11704,12 +11856,12 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>RD016AVT</t>
+          <t>804036AVT</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Daewoo Matiz (01-) 0.8i/1.0i MT (сборный)</t>
+          <t>Подшипник выжимной CITROEN/PEUGEOT</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -11718,7 +11870,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>2898</v>
+        <v>696</v>
       </c>
       <c r="E440" t="n">
         <v>10</v>
@@ -11730,12 +11882,12 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>RD023AVT</t>
+          <t>804299AVT</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Daewoo Matiz (1998-) 0.8 MT (сборный)</t>
+          <t>Подшипник выжимной PSA</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -11744,7 +11896,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>3323</v>
+        <v>720</v>
       </c>
       <c r="E441" t="n">
         <v>10</v>
@@ -11756,12 +11908,12 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>RD024AVT</t>
+          <t>804587AVT</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Радиатор двигателя DAEWOO MATIZ (98-) 0.8i AT</t>
+          <t>Подшипник гидравлический RENAULT DUSTER 1.6</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -11770,7 +11922,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>4207</v>
+        <v>7200</v>
       </c>
       <c r="E442" t="n">
         <v>10</v>
@@ -11782,12 +11934,12 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>RD015AVT</t>
+          <t>804544AVT</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Daewoo Nexia (94-) 1.5/1.8 MT (сборный)</t>
+          <t>Подшипник гидравлический RENAULT/NISSAN</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -11796,7 +11948,7 @@
         </is>
       </c>
       <c r="D443" t="n">
-        <v>3204</v>
+        <v>5640</v>
       </c>
       <c r="E443" t="n">
         <v>10</v>
@@ -11808,12 +11960,12 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>RD040AVT</t>
+          <t>804544AVT</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Радиатор двигателя FORD FIESTA / FUSION (01-) 1.2-1.6i MT / AT</t>
+          <t>Подшипник гидравлический RENAULT/NISSAN</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -11822,7 +11974,7 @@
         </is>
       </c>
       <c r="D444" t="n">
-        <v>2821</v>
+        <v>5640</v>
       </c>
       <c r="E444" t="n">
         <v>10</v>
@@ -11834,12 +11986,12 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>RD004AVT</t>
+          <t>701514AVT</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Ford Focus II (05-) A/C+ (сборный)</t>
+          <t>Радиатор Веста / Икс-Рэй</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -11848,7 +12000,7 @@
         </is>
       </c>
       <c r="D445" t="n">
-        <v>4726</v>
+        <v>4212</v>
       </c>
       <c r="E445" t="n">
         <v>10</v>
@@ -11860,12 +12012,12 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>RD048AVT</t>
+          <t>RD204AVT</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Радиатор двигателя FORD FOCUS III / C-MAX (11-) 1.6-2.0i MT / AT</t>
+          <t>Радиатор двигатель паяный Hyundai Solaris / KIA RIO II (17-) 1.4i / 1.6i</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -11874,7 +12026,7 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>6349</v>
+        <v>5585</v>
       </c>
       <c r="E446" t="n">
         <v>10</v>
@@ -11886,12 +12038,12 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>RD055AVT</t>
+          <t>RD026AVT</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Радиатор двигателя HYUNDAI SOLARIS (10-) / KIA RIO (10-) 1.4-1.6i 6AT</t>
+          <t>Радиатор двигателя BMW X5 (E70) (07-) 30d/3.0t AT (паяный)</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -11900,7 +12052,7 @@
         </is>
       </c>
       <c r="D447" t="n">
-        <v>4195</v>
+        <v>12251</v>
       </c>
       <c r="E447" t="n">
         <v>10</v>
@@ -11912,12 +12064,12 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>RD001AVT</t>
+          <t>RD008AVT</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Радиатор двигателя HYUNDAI SOLARIS (RB) / KIA RIO III (UB) (11-) 1.4-1.6i MT</t>
+          <t>Радиатор двигателя CHEVROLET CRUZE (09-) 1.6-1.8i / ORLANDO (10-) 1.8i MT</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -11926,7 +12078,7 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>3139</v>
+        <v>5634</v>
       </c>
       <c r="E448" t="n">
         <v>10</v>
@@ -11938,12 +12090,12 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>RD002AVT</t>
+          <t>RD018AVT</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Hyundai Solaris / Kia Rio (10-&gt;) AT (сборный)</t>
+          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i AT</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -11952,7 +12104,7 @@
         </is>
       </c>
       <c r="D449" t="n">
-        <v>3203</v>
+        <v>6371</v>
       </c>
       <c r="E449" t="n">
         <v>10</v>
@@ -11964,12 +12116,12 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>RD057AVT</t>
+          <t>RD009AVT</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Радиатор двигателя HYUNDAI SOLARIS / KIA RIO (17-) 1.4-1.6i MT</t>
+          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i MT</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -11978,7 +12130,7 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>3556</v>
+        <v>5555</v>
       </c>
       <c r="E450" t="n">
         <v>10</v>
@@ -11990,12 +12142,12 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>RD021AVT</t>
+          <t>RD011AVT</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA CEED (ED) (07-) 1.4-2.0i / HYUNDAI ELANTRA (HD) (06-) 1.6-2.0i / HYUNDAI i30</t>
+          <t>Радиатор двигателя Chevrolet Lacetti (04-) 1.4i/1.6i/1.8i MT (сборный)</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -12004,7 +12156,7 @@
         </is>
       </c>
       <c r="D451" t="n">
-        <v>4904</v>
+        <v>4973</v>
       </c>
       <c r="E451" t="n">
         <v>10</v>
@@ -12016,12 +12168,12 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>RD056AVT</t>
+          <t>RD016AVT</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA CEED / HYUNDAI i30 / ELANTRA IV (06-) 1.4-2.0i AT</t>
+          <t>Радиатор двигателя Daewoo Matiz (01-) 0.8i/1.0i MT (сборный)</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -12030,7 +12182,7 @@
         </is>
       </c>
       <c r="D452" t="n">
-        <v>6533</v>
+        <v>2898</v>
       </c>
       <c r="E452" t="n">
         <v>10</v>
@@ -12042,12 +12194,12 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>RD056AVT</t>
+          <t>RD023AVT</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA CEED / HYUNDAI i30 / ELANTRA IV (06-) 1.4-2.0i AT</t>
+          <t>Радиатор двигателя Daewoo Matiz (1998-) 0.8 MT (сборный)</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -12056,7 +12208,7 @@
         </is>
       </c>
       <c r="D453" t="n">
-        <v>6533</v>
+        <v>3323</v>
       </c>
       <c r="E453" t="n">
         <v>10</v>
@@ -12068,12 +12220,12 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>RD087AVT</t>
+          <t>RD024AVT</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
+          <t>Радиатор двигателя DAEWOO MATIZ (98-) 0.8i AT</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -12082,10 +12234,10 @@
         </is>
       </c>
       <c r="D454" t="n">
-        <v>7403</v>
+        <v>4207</v>
       </c>
       <c r="E454" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F454" t="n">
         <v>1</v>
@@ -12094,12 +12246,12 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>RD087AVT</t>
+          <t>RD015AVT</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
+          <t>Радиатор двигателя Daewoo Nexia (94-) 1.5/1.8 MT (сборный)</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -12108,10 +12260,10 @@
         </is>
       </c>
       <c r="D455" t="n">
-        <v>7403</v>
+        <v>3204</v>
       </c>
       <c r="E455" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F455" t="n">
         <v>1</v>
@@ -12120,12 +12272,12 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>RD062AVT</t>
+          <t>RD040AVT</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia Spectra (96-) 1.5-1.8 AT</t>
+          <t>Радиатор двигателя FORD FIESTA / FUSION (01-) 1.2-1.6i MT / AT</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -12134,7 +12286,7 @@
         </is>
       </c>
       <c r="D456" t="n">
-        <v>5772</v>
+        <v>2821</v>
       </c>
       <c r="E456" t="n">
         <v>10</v>
@@ -12146,12 +12298,12 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>RD020AVT</t>
+          <t>RD004AVT</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i AT</t>
+          <t>Радиатор двигателя Ford Focus II (05-) A/C+ (сборный)</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -12160,7 +12312,7 @@
         </is>
       </c>
       <c r="D457" t="n">
-        <v>6194</v>
+        <v>4726</v>
       </c>
       <c r="E457" t="n">
         <v>10</v>
@@ -12172,12 +12324,12 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>RD019AVT</t>
+          <t>RD048AVT</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i MT</t>
+          <t>Радиатор двигателя FORD FOCUS III / C-MAX (11-) 1.6-2.0i MT / AT</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -12186,7 +12338,7 @@
         </is>
       </c>
       <c r="D458" t="n">
-        <v>4888</v>
+        <v>6349</v>
       </c>
       <c r="E458" t="n">
         <v>10</v>
@@ -12198,12 +12350,12 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>RD028AVT</t>
+          <t>RD055AVT</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MB C (07-), E (-16), GLK (08-) 1.6-4.7i AT</t>
+          <t>Радиатор двигателя HYUNDAI SOLARIS (10-) / KIA RIO (10-) 1.4-1.6i 6AT</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -12212,7 +12364,7 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>10615</v>
+        <v>4195</v>
       </c>
       <c r="E459" t="n">
         <v>10</v>
@@ -12224,12 +12376,12 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>RD029AVT</t>
+          <t>RD001AVT</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MB E (16-), GLC (15-), C (14-), S (13-) 2.0-4.0 MT / AT</t>
+          <t>Радиатор двигателя HYUNDAI SOLARIS (RB) / KIA RIO III (UB) (11-) 1.4-1.6i MT</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -12238,7 +12390,7 @@
         </is>
       </c>
       <c r="D460" t="n">
-        <v>12114</v>
+        <v>3139</v>
       </c>
       <c r="E460" t="n">
         <v>10</v>
@@ -12250,12 +12402,12 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>RD027AVT</t>
+          <t>RD002AVT</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MB ML (12-) GL, GLS, GLE (-18) 2.2-5.5i AT</t>
+          <t>Радиатор двигателя Hyundai Solaris / Kia Rio (10-&gt;) AT (сборный)</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -12264,7 +12416,7 @@
         </is>
       </c>
       <c r="D461" t="n">
-        <v>11959</v>
+        <v>3203</v>
       </c>
       <c r="E461" t="n">
         <v>10</v>
@@ -12276,12 +12428,12 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>RD005AVT</t>
+          <t>RD057AVT</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MITSUBISHI ASX (10-) 1.6-1.8i / OUTLANDER (07-) 2.0-2.4i / LANCER (07-) 1.5-2.0i</t>
+          <t>Радиатор двигателя HYUNDAI SOLARIS / KIA RIO (17-) 1.4-1.6i MT</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -12290,7 +12442,7 @@
         </is>
       </c>
       <c r="D462" t="n">
-        <v>4110</v>
+        <v>3556</v>
       </c>
       <c r="E462" t="n">
         <v>10</v>
@@ -12302,12 +12454,12 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>RD060AVT</t>
+          <t>RD021AVT</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MITSUBISHI OUTLANDER III (12-) 2.0-3.0i MT / AT</t>
+          <t>Радиатор двигателя KIA CEED (ED) (07-) 1.4-2.0i / HYUNDAI ELANTRA (HD) (06-) 1.6-2.0i / HYUNDAI i30</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -12316,7 +12468,7 @@
         </is>
       </c>
       <c r="D463" t="n">
-        <v>7210</v>
+        <v>4904</v>
       </c>
       <c r="E463" t="n">
         <v>10</v>
@@ -12328,12 +12480,12 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>RD017AVT</t>
+          <t>RD056AVT</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Радиатор двигателя NISSAN QASHQAI (J10) (07-) 1.6-2.0i MT / AT</t>
+          <t>Радиатор двигателя KIA CEED / HYUNDAI i30 / ELANTRA IV (06-) 1.4-2.0i AT</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -12342,7 +12494,7 @@
         </is>
       </c>
       <c r="D464" t="n">
-        <v>7289</v>
+        <v>6533</v>
       </c>
       <c r="E464" t="n">
         <v>10</v>
@@ -12354,12 +12506,12 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>RD063AVT</t>
+          <t>RD056AVT</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Nissan X-Trail (14-) 2.0-2.5</t>
+          <t>Радиатор двигателя KIA CEED / HYUNDAI i30 / ELANTRA IV (06-) 1.4-2.0i AT</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -12368,7 +12520,7 @@
         </is>
       </c>
       <c r="D465" t="n">
-        <v>5864</v>
+        <v>6533</v>
       </c>
       <c r="E465" t="n">
         <v>10</v>
@@ -12380,12 +12532,12 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>RD014AVT</t>
+          <t>RD087AVT</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Радиатор двигателя OPEL ZAFIRA / ASTRA H (05-) 1.6-1.8i MT / AT</t>
+          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -12394,7 +12546,7 @@
         </is>
       </c>
       <c r="D466" t="n">
-        <v>5726</v>
+        <v>7403</v>
       </c>
       <c r="E466" t="n">
         <v>10</v>
@@ -12406,12 +12558,12 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>RD003AVT</t>
+          <t>RD087AVT</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Renault Logan (04-) 1.4i/1.6i А/С+ (сборный)</t>
+          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -12420,7 +12572,7 @@
         </is>
       </c>
       <c r="D467" t="n">
-        <v>2794</v>
+        <v>7403</v>
       </c>
       <c r="E467" t="n">
         <v>10</v>
@@ -12432,12 +12584,12 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>RD058AVT</t>
+          <t>RD062AVT</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Радиатор двигателя RENAULT LOGAN / SANDERO / SYMBOL (04-) 1.4-1.6i / Lada LARGUS K7M 1.6i (12-) MT /</t>
+          <t>Радиатор двигателя Kia Spectra (96-) 1.5-1.8 AT</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -12446,7 +12598,7 @@
         </is>
       </c>
       <c r="D468" t="n">
-        <v>2893</v>
+        <v>5772</v>
       </c>
       <c r="E468" t="n">
         <v>10</v>
@@ -12458,12 +12610,12 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>RD013AVT</t>
+          <t>RD020AVT</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Skoda Octavia A5 (04-)/VW Golf V (03-) (сборный)</t>
+          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i AT</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -12472,7 +12624,7 @@
         </is>
       </c>
       <c r="D469" t="n">
-        <v>4436</v>
+        <v>6194</v>
       </c>
       <c r="E469" t="n">
         <v>10</v>
@@ -12484,12 +12636,12 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>RD007AVT</t>
+          <t>RD019AVT</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Радиатор двигателя TOYOTA AURIS (E15) (07-) / (E18) (12-) 1.3-1.6i / AVENSIS (T27) (08-) 1.6-2.0i /</t>
+          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i MT</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -12498,7 +12650,7 @@
         </is>
       </c>
       <c r="D470" t="n">
-        <v>5714</v>
+        <v>4888</v>
       </c>
       <c r="E470" t="n">
         <v>10</v>
@@ -12510,12 +12662,12 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>RD025AVT</t>
+          <t>RD028AVT</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Радиатор двигателя TOYOTA CAMRY (11-16) 2.5-3.5i AT</t>
+          <t>Радиатор двигателя MB C (07-), E (-16), GLK (08-) 1.6-4.7i AT</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -12524,7 +12676,7 @@
         </is>
       </c>
       <c r="D471" t="n">
-        <v>7470</v>
+        <v>10615</v>
       </c>
       <c r="E471" t="n">
         <v>10</v>
@@ -12536,12 +12688,12 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>RD050AVT</t>
+          <t>RD029AVT</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota LC200 (08-) 4.5D</t>
+          <t>Радиатор двигателя MB E (16-), GLC (15-), C (14-), S (13-) 2.0-4.0 MT / AT</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -12550,10 +12702,10 @@
         </is>
       </c>
       <c r="D472" t="n">
-        <v>12649</v>
+        <v>12114</v>
       </c>
       <c r="E472" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F472" t="n">
         <v>1</v>
@@ -12562,12 +12714,12 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>RD050AVT</t>
+          <t>RD027AVT</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota LC200 (08-) 4.5D</t>
+          <t>Радиатор двигателя MB ML (12-) GL, GLS, GLE (-18) 2.2-5.5i AT</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -12576,10 +12728,10 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>12649</v>
+        <v>11959</v>
       </c>
       <c r="E473" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F473" t="n">
         <v>1</v>
@@ -12588,12 +12740,12 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>RD010AVT</t>
+          <t>RD005AVT</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota RAV 4 (06-&gt;)/RAV 4 (13-&gt;) 2.0i MT/AT (сборный)</t>
+          <t>Радиатор двигателя MITSUBISHI ASX (10-) 1.6-1.8i / OUTLANDER (07-) 2.0-2.4i / LANCER (07-) 1.5-2.0i</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -12602,7 +12754,7 @@
         </is>
       </c>
       <c r="D474" t="n">
-        <v>5429</v>
+        <v>4110</v>
       </c>
       <c r="E474" t="n">
         <v>10</v>
@@ -12614,12 +12766,12 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>RD006AVT</t>
+          <t>RD060AVT</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Радиатор двигателя VW Polo Sedan (10-)/(20-)/Skoda Rapid (12-)/(20-) (сборный)</t>
+          <t>Радиатор двигателя MITSUBISHI OUTLANDER III (12-) 2.0-3.0i MT / AT</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -12628,7 +12780,7 @@
         </is>
       </c>
       <c r="D475" t="n">
-        <v>3888</v>
+        <v>7210</v>
       </c>
       <c r="E475" t="n">
         <v>10</v>
@@ -12640,12 +12792,12 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>RD221AVT</t>
+          <t>RD017AVT</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Audi A4/А6 (94-) 1.6i, 1.8i, 1.9TDi, 1.8T</t>
+          <t>Радиатор двигателя NISSAN QASHQAI (J10) (07-) 1.6-2.0i MT / AT</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -12654,7 +12806,7 @@
         </is>
       </c>
       <c r="D476" t="n">
-        <v>6386</v>
+        <v>7289</v>
       </c>
       <c r="E476" t="n">
         <v>10</v>
@@ -12666,12 +12818,12 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>RD302AVT</t>
+          <t>RD063AVT</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Ford Ranger (98-) 2.5TDi</t>
+          <t>Радиатор двигателя Nissan X-Trail (14-) 2.0-2.5</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -12680,7 +12832,7 @@
         </is>
       </c>
       <c r="D477" t="n">
-        <v>6724</v>
+        <v>5864</v>
       </c>
       <c r="E477" t="n">
         <v>10</v>
@@ -12692,12 +12844,12 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>RD220AVT</t>
+          <t>RD014AVT</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Honda CR-V III (06-) 2.0i</t>
+          <t>Радиатор двигателя OPEL ZAFIRA / ASTRA H (05-) 1.6-1.8i MT / AT</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -12706,7 +12858,7 @@
         </is>
       </c>
       <c r="D478" t="n">
-        <v>6842</v>
+        <v>5726</v>
       </c>
       <c r="E478" t="n">
         <v>10</v>
@@ -12718,12 +12870,12 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>RD225AVT</t>
+          <t>RD003AVT</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Hyundai Santa Fe II (06-) 2.2CRDi</t>
+          <t>Радиатор двигателя Renault Logan (04-) 1.4i/1.6i А/С+ (сборный)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -12732,7 +12884,7 @@
         </is>
       </c>
       <c r="D479" t="n">
-        <v>8759</v>
+        <v>2794</v>
       </c>
       <c r="E479" t="n">
         <v>10</v>
@@ -12744,12 +12896,12 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>RD274AVT</t>
+          <t>RD058AVT</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i, 2.0i AT</t>
+          <t>Радиатор двигателя RENAULT LOGAN / SANDERO / SYMBOL (04-) 1.4-1.6i / Lada LARGUS K7M 1.6i (12-) MT /</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -12758,7 +12910,7 @@
         </is>
       </c>
       <c r="D480" t="n">
-        <v>8366</v>
+        <v>2893</v>
       </c>
       <c r="E480" t="n">
         <v>10</v>
@@ -12770,12 +12922,12 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>RD207AVT</t>
+          <t>RD013AVT</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i, 2.0i MT</t>
+          <t>Радиатор двигателя Skoda Octavia A5 (04-)/VW Golf V (03-) (сборный)</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -12784,7 +12936,7 @@
         </is>
       </c>
       <c r="D481" t="n">
-        <v>7973</v>
+        <v>4436</v>
       </c>
       <c r="E481" t="n">
         <v>10</v>
@@ -12796,12 +12948,12 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>RD230AVT</t>
+          <t>RD007AVT</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Mitsubishi Outlander I (03-) 2.0i, 2.4i</t>
+          <t>Радиатор двигателя TOYOTA AURIS (E15) (07-) / (E18) (12-) 1.3-1.6i / AVENSIS (T27) (08-) 1.6-2.0i /</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -12810,7 +12962,7 @@
         </is>
       </c>
       <c r="D482" t="n">
-        <v>6593</v>
+        <v>5714</v>
       </c>
       <c r="E482" t="n">
         <v>10</v>
@@ -12822,12 +12974,12 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>RD211AVT</t>
+          <t>RD025AVT</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Nissan Almera Classic B10 (06-) 1.6i</t>
+          <t>Радиатор двигателя TOYOTA CAMRY (11-16) 2.5-3.5i AT</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -12836,7 +12988,7 @@
         </is>
       </c>
       <c r="D483" t="n">
-        <v>5980</v>
+        <v>7470</v>
       </c>
       <c r="E483" t="n">
         <v>10</v>
@@ -12848,12 +13000,12 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>RD264AVT</t>
+          <t>RD050AVT</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Nissan X-Trail T30 (01-) 2.0i, 2.5i</t>
+          <t>Радиатор двигателя Toyota LC200 (08-) 4.5D</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -12862,7 +13014,7 @@
         </is>
       </c>
       <c r="D484" t="n">
-        <v>5741</v>
+        <v>12649</v>
       </c>
       <c r="E484" t="n">
         <v>10</v>
@@ -12874,12 +13026,12 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>RD205AVT</t>
+          <t>RD050AVT</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Skoda Octavia/Kodiaq A7 (13-) 1.2TSi, 1.4TSi, 1.6TDi, 2.0TDi</t>
+          <t>Радиатор двигателя Toyota LC200 (08-) 4.5D</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -12888,7 +13040,7 @@
         </is>
       </c>
       <c r="D485" t="n">
-        <v>5630</v>
+        <v>12649</v>
       </c>
       <c r="E485" t="n">
         <v>10</v>
@@ -12900,12 +13052,12 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>RD217AVT</t>
+          <t>RD010AVT</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Suzuki SX4 I (06-) 1.6i</t>
+          <t>Радиатор двигателя Toyota RAV 4 (06-&gt;)/RAV 4 (13-&gt;) 2.0i MT/AT (сборный)</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -12914,7 +13066,7 @@
         </is>
       </c>
       <c r="D486" t="n">
-        <v>7183</v>
+        <v>5429</v>
       </c>
       <c r="E486" t="n">
         <v>10</v>
@@ -12926,12 +13078,12 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>RD059AVT</t>
+          <t>RD006AVT</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный VW PASSAT B6 / B7 JETTA III /IV / TIGUAN / TOURAN / SKODA OCTAVIA II / SUP</t>
+          <t>Радиатор двигателя VW Polo Sedan (10-)/(20-)/Skoda Rapid (12-)/(20-) (сборный)</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -12940,7 +13092,7 @@
         </is>
       </c>
       <c r="D487" t="n">
-        <v>6286</v>
+        <v>3888</v>
       </c>
       <c r="E487" t="n">
         <v>10</v>
@@ -12952,12 +13104,12 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>RD250AVT</t>
+          <t>RD221AVT</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Радиатор двигателя сборный Chevrolet Rezzo (00-) 1.6i, 1.8i</t>
+          <t>Радиатор двигателя паяный Audi A4/А6 (94-) 1.6i, 1.8i, 1.9TDi, 1.8T</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -12966,7 +13118,7 @@
         </is>
       </c>
       <c r="D488" t="n">
-        <v>5549</v>
+        <v>6386</v>
       </c>
       <c r="E488" t="n">
         <v>10</v>
@@ -12978,12 +13130,12 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>RD012AVT</t>
+          <t>RD302AVT</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Радиатор двигателя сборный VW Jetta (05)/(11-)/Skoda Octavia A5 (04-)</t>
+          <t>Радиатор двигателя паяный Ford Ranger (98-) 2.5TDi</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -12992,7 +13144,7 @@
         </is>
       </c>
       <c r="D489" t="n">
-        <v>4106</v>
+        <v>6724</v>
       </c>
       <c r="E489" t="n">
         <v>10</v>
@@ -13004,12 +13156,12 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>735634AVT</t>
+          <t>RD220AVT</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Радиатор Рено Логан II</t>
+          <t>Радиатор двигателя паяный Honda CR-V III (06-) 2.0i</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -13018,7 +13170,7 @@
         </is>
       </c>
       <c r="D490" t="n">
-        <v>3834</v>
+        <v>6842</v>
       </c>
       <c r="E490" t="n">
         <v>10</v>
@@ -13030,12 +13182,12 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>438544AVT</t>
+          <t>RD225AVT</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Стартер Renault Arkana</t>
+          <t>Радиатор двигателя паяный Hyundai Santa Fe II (06-) 2.2CRDi</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -13044,7 +13196,7 @@
         </is>
       </c>
       <c r="D491" t="n">
-        <v>6600</v>
+        <v>8759</v>
       </c>
       <c r="E491" t="n">
         <v>10</v>
@@ -13056,12 +13208,12 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>438545AVT</t>
+          <t>RD274AVT</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Стартер Toyota Camry / Rav4</t>
+          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i, 2.0i AT</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -13070,7 +13222,7 @@
         </is>
       </c>
       <c r="D492" t="n">
-        <v>6600</v>
+        <v>8366</v>
       </c>
       <c r="E492" t="n">
         <v>10</v>
@@ -13082,12 +13234,12 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>438286AVT</t>
+          <t>RD207AVT</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Стартер Гранта АКПП</t>
+          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i, 2.0i MT</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -13096,7 +13248,7 @@
         </is>
       </c>
       <c r="D493" t="n">
-        <v>5916</v>
+        <v>7973</v>
       </c>
       <c r="E493" t="n">
         <v>10</v>
@@ -13108,12 +13260,12 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>438286AVT</t>
+          <t>RD230AVT</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Стартер Гранта АКПП</t>
+          <t>Радиатор двигателя паяный Mitsubishi Outlander I (03-) 2.0i, 2.4i</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -13122,7 +13274,7 @@
         </is>
       </c>
       <c r="D494" t="n">
-        <v>5916</v>
+        <v>6593</v>
       </c>
       <c r="E494" t="n">
         <v>10</v>
@@ -13134,12 +13286,12 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>438285AVT</t>
+          <t>RD211AVT</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Стартер Гранта МКПП</t>
+          <t>Радиатор двигателя паяный Nissan Almera Classic B10 (06-) 1.6i</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -13148,7 +13300,7 @@
         </is>
       </c>
       <c r="D495" t="n">
-        <v>5820</v>
+        <v>5980</v>
       </c>
       <c r="E495" t="n">
         <v>10</v>
@@ -13160,12 +13312,12 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>438327AVT</t>
+          <t>RD264AVT</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Стартер Рено F4R</t>
+          <t>Радиатор двигателя паяный Nissan X-Trail T30 (01-) 2.0i, 2.5i</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -13174,7 +13326,7 @@
         </is>
       </c>
       <c r="D496" t="n">
-        <v>8400</v>
+        <v>5741</v>
       </c>
       <c r="E496" t="n">
         <v>10</v>
@@ -13186,12 +13338,12 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>438324AVT</t>
+          <t>RD205AVT</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Стартер Рено H4M</t>
+          <t>Радиатор двигателя паяный Skoda Octavia/Kodiaq A7 (13-) 1.2TSi, 1.4TSi, 1.6TDi, 2.0TDi</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -13200,7 +13352,7 @@
         </is>
       </c>
       <c r="D497" t="n">
-        <v>5964</v>
+        <v>5630</v>
       </c>
       <c r="E497" t="n">
         <v>10</v>
@@ -13212,12 +13364,12 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>438328AVT</t>
+          <t>RD217AVT</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Стартер Рено K4M</t>
+          <t>Радиатор двигателя паяный Suzuki SX4 I (06-) 1.6i</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -13226,7 +13378,7 @@
         </is>
       </c>
       <c r="D498" t="n">
-        <v>7200</v>
+        <v>7183</v>
       </c>
       <c r="E498" t="n">
         <v>10</v>
@@ -13238,12 +13390,12 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>438328AVT</t>
+          <t>RD059AVT</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Стартер Рено K4M</t>
+          <t>Радиатор двигателя паяный VW PASSAT B6 / B7 JETTA III /IV / TIGUAN / TOURAN / SKODA OCTAVIA II / SUP</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -13252,7 +13404,7 @@
         </is>
       </c>
       <c r="D499" t="n">
-        <v>7200</v>
+        <v>6286</v>
       </c>
       <c r="E499" t="n">
         <v>10</v>
@@ -13264,12 +13416,12 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>FC001AVT</t>
+          <t>RD250AVT</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Фильтр отопителя LADA VESTA</t>
+          <t>Радиатор двигателя сборный Chevrolet Rezzo (00-) 1.6i, 1.8i</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -13278,7 +13430,7 @@
         </is>
       </c>
       <c r="D500" t="n">
-        <v>420</v>
+        <v>5549</v>
       </c>
       <c r="E500" t="n">
         <v>10</v>
@@ -13290,12 +13442,12 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>252.5215900-14</t>
+          <t>RD012AVT</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 350 мм</t>
+          <t>Радиатор двигателя сборный VW Jetta (05)/(11-)/Skoda Octavia A5 (04-)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -13304,7 +13456,7 @@
         </is>
       </c>
       <c r="D501" t="n">
-        <v>518</v>
+        <v>4106</v>
       </c>
       <c r="E501" t="n">
         <v>10</v>
@@ -13316,12 +13468,12 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>252.5215900-16</t>
+          <t>735634AVT</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 400 мм</t>
+          <t>Радиатор Рено Логан II</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -13330,7 +13482,7 @@
         </is>
       </c>
       <c r="D502" t="n">
-        <v>552</v>
+        <v>3834</v>
       </c>
       <c r="E502" t="n">
         <v>10</v>
@@ -13342,12 +13494,12 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>252.5215900-17</t>
+          <t>438544AVT</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 430 мм</t>
+          <t>Стартер Renault Arkana</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -13356,7 +13508,7 @@
         </is>
       </c>
       <c r="D503" t="n">
-        <v>552</v>
+        <v>6600</v>
       </c>
       <c r="E503" t="n">
         <v>10</v>
@@ -13368,12 +13520,12 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>252.5215900-18</t>
+          <t>438545AVT</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 450 мм</t>
+          <t>Стартер Toyota Camry / Rav4</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -13382,7 +13534,7 @@
         </is>
       </c>
       <c r="D504" t="n">
-        <v>552</v>
+        <v>6600</v>
       </c>
       <c r="E504" t="n">
         <v>10</v>
@@ -13394,12 +13546,12 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>252.5215900-20</t>
+          <t>438285AVT</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 500 мм</t>
+          <t>Стартер Гранта МКПП</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -13408,7 +13560,7 @@
         </is>
       </c>
       <c r="D505" t="n">
-        <v>582</v>
+        <v>5820</v>
       </c>
       <c r="E505" t="n">
         <v>10</v>
@@ -13420,12 +13572,12 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>252.5215900-22</t>
+          <t>438327AVT</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 550 мм</t>
+          <t>Стартер Рено F4R</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -13434,7 +13586,7 @@
         </is>
       </c>
       <c r="D506" t="n">
-        <v>582</v>
+        <v>8400</v>
       </c>
       <c r="E506" t="n">
         <v>10</v>
@@ -13446,12 +13598,12 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>252.5215900-24</t>
+          <t>438324AVT</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 600 мм</t>
+          <t>Стартер Рено H4M</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -13460,7 +13612,7 @@
         </is>
       </c>
       <c r="D507" t="n">
-        <v>641</v>
+        <v>5964</v>
       </c>
       <c r="E507" t="n">
         <v>10</v>
@@ -13472,12 +13624,12 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>252.5215900-26</t>
+          <t>438328AVT</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 650 мм</t>
+          <t>Стартер Рено K4M</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -13486,7 +13638,7 @@
         </is>
       </c>
       <c r="D508" t="n">
-        <v>672</v>
+        <v>7200</v>
       </c>
       <c r="E508" t="n">
         <v>10</v>
@@ -13498,12 +13650,12 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>25.5215900-13</t>
+          <t>438328AVT</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 330 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Стартер Рено K4M</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -13512,7 +13664,7 @@
         </is>
       </c>
       <c r="D509" t="n">
-        <v>299</v>
+        <v>7200</v>
       </c>
       <c r="E509" t="n">
         <v>10</v>
@@ -13524,12 +13676,12 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>25.5215900-14</t>
+          <t>FC001AVT</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 350 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Фильтр отопителя LADA VESTA</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -13538,7 +13690,7 @@
         </is>
       </c>
       <c r="D510" t="n">
-        <v>299</v>
+        <v>420</v>
       </c>
       <c r="E510" t="n">
         <v>10</v>
@@ -13550,12 +13702,12 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>25.5215900-16</t>
+          <t>252.5215900-14</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 400 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 350 мм</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -13564,7 +13716,7 @@
         </is>
       </c>
       <c r="D511" t="n">
-        <v>334</v>
+        <v>518</v>
       </c>
       <c r="E511" t="n">
         <v>10</v>
@@ -13576,12 +13728,12 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>25.5215900-17</t>
+          <t>252.5215900-16</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 430 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 400 мм</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -13590,7 +13742,7 @@
         </is>
       </c>
       <c r="D512" t="n">
-        <v>334</v>
+        <v>552</v>
       </c>
       <c r="E512" t="n">
         <v>10</v>
@@ -13602,12 +13754,12 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>25.5215900-18</t>
+          <t>252.5215900-17</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 450 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 430 мм</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -13616,7 +13768,7 @@
         </is>
       </c>
       <c r="D513" t="n">
-        <v>334</v>
+        <v>552</v>
       </c>
       <c r="E513" t="n">
         <v>10</v>
@@ -13628,12 +13780,12 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>25.5215900-19</t>
+          <t>252.5215900-18</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 480 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 450 мм</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -13642,7 +13794,7 @@
         </is>
       </c>
       <c r="D514" t="n">
-        <v>334</v>
+        <v>552</v>
       </c>
       <c r="E514" t="n">
         <v>10</v>
@@ -13654,12 +13806,12 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>25.5215900-20</t>
+          <t>252.5215900-20</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 500 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 500 мм</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -13668,7 +13820,7 @@
         </is>
       </c>
       <c r="D515" t="n">
-        <v>352</v>
+        <v>582</v>
       </c>
       <c r="E515" t="n">
         <v>10</v>
@@ -13680,12 +13832,12 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>25.5215900-21</t>
+          <t>252.5215900-22</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 530 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 550 мм</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -13694,7 +13846,7 @@
         </is>
       </c>
       <c r="D516" t="n">
-        <v>352</v>
+        <v>582</v>
       </c>
       <c r="E516" t="n">
         <v>10</v>
@@ -13706,12 +13858,12 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>25.5215900-22</t>
+          <t>252.5215900-24</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 550 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 600 мм</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -13720,7 +13872,7 @@
         </is>
       </c>
       <c r="D517" t="n">
-        <v>352</v>
+        <v>641</v>
       </c>
       <c r="E517" t="n">
         <v>10</v>
@@ -13732,12 +13884,12 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>25.5215900-24</t>
+          <t>252.5215900-26</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 600 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 650 мм</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -13746,7 +13898,7 @@
         </is>
       </c>
       <c r="D518" t="n">
-        <v>386</v>
+        <v>672</v>
       </c>
       <c r="E518" t="n">
         <v>10</v>
@@ -13758,12 +13910,12 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>25.5215900-26</t>
+          <t>25.5215900-13</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 650 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 330 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -13772,7 +13924,7 @@
         </is>
       </c>
       <c r="D519" t="n">
-        <v>406</v>
+        <v>299</v>
       </c>
       <c r="E519" t="n">
         <v>10</v>
@@ -13784,12 +13936,12 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>25.5215900-28</t>
+          <t>25.5215900-14</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 700 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 350 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -13798,7 +13950,7 @@
         </is>
       </c>
       <c r="D520" t="n">
-        <v>406</v>
+        <v>299</v>
       </c>
       <c r="E520" t="n">
         <v>10</v>
@@ -13810,12 +13962,12 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>СЛ136Е-5205900-01</t>
+          <t>25.5215900-16</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 410 мм, тип крепления "Hook" ("Крюк") и "Bayonet" ("Штыковой замо</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 400 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -13824,7 +13976,7 @@
         </is>
       </c>
       <c r="D521" t="n">
-        <v>144</v>
+        <v>334</v>
       </c>
       <c r="E521" t="n">
         <v>10</v>
@@ -13836,12 +13988,12 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>23.5215900-01</t>
+          <t>25.5215900-17</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 475 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 430 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -13850,7 +14002,7 @@
         </is>
       </c>
       <c r="D522" t="n">
-        <v>144</v>
+        <v>334</v>
       </c>
       <c r="E522" t="n">
         <v>10</v>
@@ -13862,12 +14014,12 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>49.5205900-01</t>
+          <t>25.5215900-18</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 500 мм, тип крепления "Hook" ("Крюк") и "Bayonet" ("Штыковой замо</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 450 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -13876,7 +14028,7 @@
         </is>
       </c>
       <c r="D523" t="n">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="E523" t="n">
         <v>10</v>
@@ -13888,12 +14040,12 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>731.5205900-01</t>
+          <t>25.5215900-19</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 525 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 480 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -13902,7 +14054,7 @@
         </is>
       </c>
       <c r="D524" t="n">
-        <v>287</v>
+        <v>334</v>
       </c>
       <c r="E524" t="n">
         <v>10</v>
@@ -13914,12 +14066,12 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>11.5215900-01</t>
+          <t>25.5215900-20</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 550 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 500 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -13928,7 +14080,7 @@
         </is>
       </c>
       <c r="D525" t="n">
-        <v>295</v>
+        <v>352</v>
       </c>
       <c r="E525" t="n">
         <v>10</v>
@@ -13940,12 +14092,12 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>93.5205900-01</t>
+          <t>25.5215900-21</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 600 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 530 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -13954,7 +14106,7 @@
         </is>
       </c>
       <c r="D526" t="n">
-        <v>144</v>
+        <v>352</v>
       </c>
       <c r="E526" t="n">
         <v>10</v>
@@ -13966,12 +14118,12 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>251.5215900-15</t>
+          <t>25.5215900-22</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 380 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 550 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -13980,7 +14132,7 @@
         </is>
       </c>
       <c r="D527" t="n">
-        <v>426</v>
+        <v>352</v>
       </c>
       <c r="E527" t="n">
         <v>10</v>
@@ -13992,12 +14144,12 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>251.5215900-16</t>
+          <t>25.5215900-24</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 400 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 600 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -14006,7 +14158,7 @@
         </is>
       </c>
       <c r="D528" t="n">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="E528" t="n">
         <v>10</v>
@@ -14018,12 +14170,12 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>251.5215900-17</t>
+          <t>25.5215900-26</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 430 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 650 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -14032,7 +14184,7 @@
         </is>
       </c>
       <c r="D529" t="n">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="E529" t="n">
         <v>10</v>
@@ -14044,12 +14196,12 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>251.5215900-18</t>
+          <t>25.5215900-28</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 450 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 700 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -14058,7 +14210,7 @@
         </is>
       </c>
       <c r="D530" t="n">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="E530" t="n">
         <v>10</v>
@@ -14070,12 +14222,12 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>251.5215900-19</t>
+          <t>СЛ136Е-5205900-01</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 480 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, каркасная, 410 мм, тип крепления "Hook" ("Крюк") и "Bayonet" ("Штыковой замо</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -14084,7 +14236,7 @@
         </is>
       </c>
       <c r="D531" t="n">
-        <v>426</v>
+        <v>144</v>
       </c>
       <c r="E531" t="n">
         <v>10</v>
@@ -14096,12 +14248,12 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>251.5215900-20</t>
+          <t>23.5215900-01</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 500 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, каркасная, 475 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -14110,7 +14262,7 @@
         </is>
       </c>
       <c r="D532" t="n">
-        <v>448</v>
+        <v>144</v>
       </c>
       <c r="E532" t="n">
         <v>10</v>
@@ -14122,12 +14274,12 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>251.5215900-24</t>
+          <t>49.5205900-01</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 600 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, каркасная, 500 мм, тип крепления "Hook" ("Крюк") и "Bayonet" ("Штыковой замо</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -14136,7 +14288,7 @@
         </is>
       </c>
       <c r="D533" t="n">
-        <v>492</v>
+        <v>366</v>
       </c>
       <c r="E533" t="n">
         <v>10</v>
@@ -14148,12 +14300,12 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>251.5215900-26</t>
+          <t>731.5205900-01</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 650 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, каркасная, 525 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -14162,7 +14314,7 @@
         </is>
       </c>
       <c r="D534" t="n">
-        <v>518</v>
+        <v>287</v>
       </c>
       <c r="E534" t="n">
         <v>10</v>
@@ -14174,26 +14326,390 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
+          <t>11.5215900-01</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Щетка стеклоочистителя, каркасная, 550 мм, тип крепления "Hook" ("Крюк")</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D535" t="n">
+        <v>295</v>
+      </c>
+      <c r="E535" t="n">
+        <v>10</v>
+      </c>
+      <c r="F535" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>93.5205900-01</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Щетка стеклоочистителя, каркасная, 600 мм, тип крепления "Hook" ("Крюк")</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D536" t="n">
+        <v>144</v>
+      </c>
+      <c r="E536" t="n">
+        <v>10</v>
+      </c>
+      <c r="F536" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>251.5215900-15</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 380 мм, в комплекте 9 адаптеров</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D537" t="n">
+        <v>426</v>
+      </c>
+      <c r="E537" t="n">
+        <v>10</v>
+      </c>
+      <c r="F537" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>251.5215900-16</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 400 мм, в комплекте 9 адаптеров</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D538" t="n">
+        <v>426</v>
+      </c>
+      <c r="E538" t="n">
+        <v>10</v>
+      </c>
+      <c r="F538" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>251.5215900-17</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 430 мм, в комплекте 9 адаптеров</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D539" t="n">
+        <v>426</v>
+      </c>
+      <c r="E539" t="n">
+        <v>10</v>
+      </c>
+      <c r="F539" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>251.5215900-18</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 450 мм, в комплекте 9 адаптеров</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D540" t="n">
+        <v>426</v>
+      </c>
+      <c r="E540" t="n">
+        <v>10</v>
+      </c>
+      <c r="F540" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>251.5215900-19</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 480 мм, в комплекте 9 адаптеров</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D541" t="n">
+        <v>426</v>
+      </c>
+      <c r="E541" t="n">
+        <v>10</v>
+      </c>
+      <c r="F541" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>251.5215900-20</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 500 мм, в комплекте 9 адаптеров</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D542" t="n">
+        <v>448</v>
+      </c>
+      <c r="E542" t="n">
+        <v>10</v>
+      </c>
+      <c r="F542" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>251.5215900-24</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 600 мм, в комплекте 9 адаптеров</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D543" t="n">
+        <v>492</v>
+      </c>
+      <c r="E543" t="n">
+        <v>10</v>
+      </c>
+      <c r="F543" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>251.5215900-26</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 650 мм, в комплекте 9 адаптеров</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D544" t="n">
+        <v>518</v>
+      </c>
+      <c r="E544" t="n">
+        <v>10</v>
+      </c>
+      <c r="F544" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>595863AVT</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Щеткодержатель стартера</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D545" t="n">
+        <v>720</v>
+      </c>
+      <c r="E545" t="n">
+        <v>10</v>
+      </c>
+      <c r="F545" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>595863AVT</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>Щеткодержатель стартера</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D546" t="n">
+        <v>720</v>
+      </c>
+      <c r="E546" t="n">
+        <v>10</v>
+      </c>
+      <c r="F546" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>595845AVT</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Щеткодержатель стартера  LADA VESTA</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D547" t="n">
+        <v>720</v>
+      </c>
+      <c r="E547" t="n">
+        <v>10</v>
+      </c>
+      <c r="F547" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>595845AVT</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Щеткодержатель стартера  LADA VESTA</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D548" t="n">
+        <v>720</v>
+      </c>
+      <c r="E548" t="n">
+        <v>10</v>
+      </c>
+      <c r="F548" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
           <t>595842AVT</t>
         </is>
       </c>
-      <c r="B535" t="inlineStr">
+      <c r="B549" t="inlineStr">
         <is>
           <t>Якорь стартера</t>
         </is>
       </c>
-      <c r="C535" t="inlineStr">
-        <is>
-          <t>AVTOPRIBOR</t>
-        </is>
-      </c>
-      <c r="D535" t="n">
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D549" t="n">
         <v>1416</v>
       </c>
-      <c r="E535" t="n">
-        <v>10</v>
-      </c>
-      <c r="F535" t="n">
+      <c r="E549" t="n">
+        <v>10</v>
+      </c>
+      <c r="F549" t="n">
         <v>1</v>
       </c>
     </row>

--- a/price_for_emex.xlsx
+++ b/price_for_emex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F549"/>
+  <dimension ref="A1:F547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9100,12 +9100,12 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>BD027AVT</t>
+          <t>BD081AVT</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Ceed (07-) / Cerato (09-) / Hyundai i30 (07-) передний</t>
+          <t>Диск тормозной Mitsubishi ASX (10-) / Outlander III / Peugeot 4008 / Citroen C4 Aircross (12-) задни</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -9114,7 +9114,7 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>1949</v>
+        <v>1757</v>
       </c>
       <c r="E334" t="n">
         <v>10</v>
@@ -9126,12 +9126,12 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>BD068AVT</t>
+          <t>BD051AVT</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Sorento II (09-) задний</t>
+          <t>Диск тормозной Mitsubishi Lancer (00-) задний</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -9140,7 +9140,7 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>1909</v>
+        <v>1262</v>
       </c>
       <c r="E335" t="n">
         <v>10</v>
@@ -9152,12 +9152,12 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>BD028AVT</t>
+          <t>BD053AVT</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Sportage (10-) / Hyundai ix35 (10-) задний</t>
+          <t>Диск тормозной Mitsubishi Lancer (00-) передний</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -9166,7 +9166,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>1324</v>
+        <v>1860</v>
       </c>
       <c r="E336" t="n">
         <v>10</v>
@@ -9178,12 +9178,12 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>BD045AVT</t>
+          <t>BD074AVT</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Sportage III (10-) / Hyundai iX 35 (09-) задний</t>
+          <t>Диск тормозной Mitsubishi Lancer (08-) задний</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -9192,7 +9192,7 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>1459</v>
+        <v>1393</v>
       </c>
       <c r="E337" t="n">
         <v>10</v>
@@ -9204,12 +9204,12 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>BD031AVT</t>
+          <t>BD048AVT</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Sportage III (10-) / Hyundai ix35 (10-) / Creta (16-) передний</t>
+          <t>Диск тормозной Mitsubishi Outlander (06-) передний</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -9218,7 +9218,7 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>2431</v>
+        <v>2027</v>
       </c>
       <c r="E338" t="n">
         <v>10</v>
@@ -9230,12 +9230,12 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>BD031AVT</t>
+          <t>BD026AVT</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Sportage III (10-) / Hyundai ix35 (10-) / Creta (16-) передний</t>
+          <t>Диск тормозной Nexia (95-) / Lanos (05-) передний</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="D339" t="n">
-        <v>2431</v>
+        <v>1398</v>
       </c>
       <c r="E339" t="n">
         <v>10</v>
@@ -9256,12 +9256,12 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>BD011AVT</t>
+          <t>BD079AVT</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Диск тормозной Lada Largus (12-) / Renault Logan (07-) передний (без ABS)</t>
+          <t>Диск тормозной Nissan Almera Classic (06-) передний</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -9270,7 +9270,7 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>1451</v>
+        <v>1254</v>
       </c>
       <c r="E340" t="n">
         <v>10</v>
@@ -9282,12 +9282,12 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>BD060AVT</t>
+          <t>BD038AVT</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Диск тормозной Mazda 3 (03-) задний</t>
+          <t>Диск тормозной Nissan Juke (10-) задний</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="D341" t="n">
-        <v>1231</v>
+        <v>1578</v>
       </c>
       <c r="E341" t="n">
         <v>10</v>
@@ -9308,12 +9308,12 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>BD059AVT</t>
+          <t>BD020AVT</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Диск тормозной Mazda 3 (03-) передний</t>
+          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) задний</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -9322,7 +9322,7 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>2041</v>
+        <v>1664</v>
       </c>
       <c r="E342" t="n">
         <v>10</v>
@@ -9334,12 +9334,12 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>BD081AVT</t>
+          <t>BD019AVT</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi ASX (10-) / Outlander III / Peugeot 4008 / Citroen C4 Aircross (12-) задни</t>
+          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) передний</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -9348,7 +9348,7 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>1757</v>
+        <v>2299</v>
       </c>
       <c r="E343" t="n">
         <v>10</v>
@@ -9360,12 +9360,12 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>BD051AVT</t>
+          <t>BD019AVT</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi Lancer (00-) задний</t>
+          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) передний</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -9374,7 +9374,7 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>1262</v>
+        <v>2299</v>
       </c>
       <c r="E344" t="n">
         <v>10</v>
@@ -9386,12 +9386,12 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>BD053AVT</t>
+          <t>BD058AVT</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi Lancer (00-) передний</t>
+          <t>Диск тормозной Nissan Qashqai II (13-) / X-Trail (14-) передний</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -9400,7 +9400,7 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>1860</v>
+        <v>2034</v>
       </c>
       <c r="E345" t="n">
         <v>10</v>
@@ -9412,12 +9412,12 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>BD074AVT</t>
+          <t>BD025AVT</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi Lancer (08-) задний</t>
+          <t>Диск тормозной Opel Astra H (04-) передний</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>1393</v>
+        <v>1860</v>
       </c>
       <c r="E346" t="n">
         <v>10</v>
@@ -9438,12 +9438,12 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>BD048AVT</t>
+          <t>BD024AVT</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi Outlander (06-) передний</t>
+          <t>Диск тормозной Opel Astra J (10-) / Chevrolet Cruze (09-) задний</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -9452,7 +9452,7 @@
         </is>
       </c>
       <c r="D347" t="n">
-        <v>2027</v>
+        <v>1507</v>
       </c>
       <c r="E347" t="n">
         <v>10</v>
@@ -9464,12 +9464,12 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>BD026AVT</t>
+          <t>BD034AVT</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Диск тормозной Nexia (95-) / Lanos (05-) передний</t>
+          <t>Диск тормозной Peugeot 307 (00-) / 308 (07-) / Citroen C4 (04-) передний</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -9478,7 +9478,7 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>1398</v>
+        <v>1940</v>
       </c>
       <c r="E348" t="n">
         <v>10</v>
@@ -9490,12 +9490,12 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>BD079AVT</t>
+          <t>BD069AVT</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Almera Classic (06-) передний</t>
+          <t>Диск тормозной Peugeot Partner / Citroen Berlingo (96-) передний</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -9504,7 +9504,7 @@
         </is>
       </c>
       <c r="D349" t="n">
-        <v>1254</v>
+        <v>1325</v>
       </c>
       <c r="E349" t="n">
         <v>10</v>
@@ -9516,12 +9516,12 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>BD038AVT</t>
+          <t>BD023AVT</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Juke (10-) задний</t>
+          <t>Диск тормозной Renault Duster (10-) / Arkana (19-)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -9530,7 +9530,7 @@
         </is>
       </c>
       <c r="D350" t="n">
-        <v>1578</v>
+        <v>2221</v>
       </c>
       <c r="E350" t="n">
         <v>10</v>
@@ -9542,12 +9542,12 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>BD020AVT</t>
+          <t>BD023AVT</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) задний</t>
+          <t>Диск тормозной Renault Duster (10-) / Arkana (19-)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -9556,7 +9556,7 @@
         </is>
       </c>
       <c r="D351" t="n">
-        <v>1664</v>
+        <v>2221</v>
       </c>
       <c r="E351" t="n">
         <v>10</v>
@@ -9568,12 +9568,12 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>BD019AVT</t>
+          <t>BD061AVT</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) передний</t>
+          <t>Диск тормозной Renault Koleos (08-) передний</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -9582,7 +9582,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>2299</v>
+        <v>2723</v>
       </c>
       <c r="E352" t="n">
         <v>10</v>
@@ -9594,12 +9594,12 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>BD019AVT</t>
+          <t>BD004AVT</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) передний</t>
+          <t>Диск тормозной Renault Logan (04-) передний</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -9608,7 +9608,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>2299</v>
+        <v>1370</v>
       </c>
       <c r="E353" t="n">
         <v>10</v>
@@ -9620,12 +9620,12 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>BD058AVT</t>
+          <t>BD004AVT</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Qashqai II (13-) / X-Trail (14-) передний</t>
+          <t>Диск тормозной Renault Logan (04-) передний</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -9634,7 +9634,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>2034</v>
+        <v>1370</v>
       </c>
       <c r="E354" t="n">
         <v>10</v>
@@ -9646,12 +9646,12 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>BD025AVT</t>
+          <t>BD010AVT</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Диск тормозной Opel Astra H (04-) передний</t>
+          <t>Диск тормозной Renault Logan (04-) передний (без ABS)</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -9660,7 +9660,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>1860</v>
+        <v>997</v>
       </c>
       <c r="E355" t="n">
         <v>10</v>
@@ -9672,12 +9672,12 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>BD024AVT</t>
+          <t>BD012AVT</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Диск тормозной Opel Astra J (10-) / Chevrolet Cruze (09-) задний</t>
+          <t>Диск тормозной Skoda Octavia (04-) / VW Golf V (03-) задний</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -9686,7 +9686,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>1507</v>
+        <v>1234</v>
       </c>
       <c r="E356" t="n">
         <v>10</v>
@@ -9698,12 +9698,12 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>BD034AVT</t>
+          <t>BD016AVT</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Диск тормозной Peugeot 307 (00-) / 308 (07-) / Citroen C4 (04-) передний</t>
+          <t>Диск тормозной Skoda Octavia (04-) / VW Golf V (03-) передний</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -9712,7 +9712,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>1940</v>
+        <v>1789</v>
       </c>
       <c r="E357" t="n">
         <v>10</v>
@@ -9724,12 +9724,12 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>BD069AVT</t>
+          <t>BD008AVT</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Диск тормозной Peugeot Partner / Citroen Berlingo (96-) передний</t>
+          <t>Диск тормозной Skoda Octavia (13-) / VW Golf VII (12-) задний</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -9738,7 +9738,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="E358" t="n">
         <v>10</v>
@@ -9750,12 +9750,12 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>BD023AVT</t>
+          <t>BD063AVT</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Duster (10-) / Arkana (19-)</t>
+          <t>Диск тормозной Skoda Octavia (96-) / VW Golf IV (97-) передний</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -9764,7 +9764,7 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>2221</v>
+        <v>1729</v>
       </c>
       <c r="E359" t="n">
         <v>10</v>
@@ -9776,12 +9776,12 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>BD023AVT</t>
+          <t>BD007AVT</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Duster (10-) / Arkana (19-)</t>
+          <t>Диск тормозной Skoda Yeti (09-) передний</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -9790,7 +9790,7 @@
         </is>
       </c>
       <c r="D360" t="n">
-        <v>2221</v>
+        <v>2183</v>
       </c>
       <c r="E360" t="n">
         <v>10</v>
@@ -9802,12 +9802,12 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>BD061AVT</t>
+          <t>BD064AVT</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Koleos (08-) передний</t>
+          <t>Диск тормозной SsangYong Kyron (05-) задний</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -9816,7 +9816,7 @@
         </is>
       </c>
       <c r="D361" t="n">
-        <v>2723</v>
+        <v>1950</v>
       </c>
       <c r="E361" t="n">
         <v>10</v>
@@ -9828,12 +9828,12 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>BD004AVT</t>
+          <t>BD070AVT</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Logan (04-) передний</t>
+          <t>Диск тормозной Suzuki Grand Vitara (05-) передний</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -9842,7 +9842,7 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>1370</v>
+        <v>1757</v>
       </c>
       <c r="E362" t="n">
         <v>10</v>
@@ -9854,12 +9854,12 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>BD004AVT</t>
+          <t>BD083AVT</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Logan (04-) передний</t>
+          <t>Диск тормозной Tank 300 передний</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -9868,7 +9868,7 @@
         </is>
       </c>
       <c r="D363" t="n">
-        <v>1370</v>
+        <v>3834</v>
       </c>
       <c r="E363" t="n">
         <v>10</v>
@@ -9880,12 +9880,12 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>BD010AVT</t>
+          <t>BD083AVT</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Logan (04-) передний (без ABS)</t>
+          <t>Диск тормозной Tank 300 передний</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -9894,7 +9894,7 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>997</v>
+        <v>3834</v>
       </c>
       <c r="E364" t="n">
         <v>10</v>
@@ -9906,12 +9906,12 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>BD012AVT</t>
+          <t>BD082AVT</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Octavia (04-) / VW Golf V (03-) задний</t>
+          <t>Диск тормозной Tank 500 передний</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -9920,7 +9920,7 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>1234</v>
+        <v>4511</v>
       </c>
       <c r="E365" t="n">
         <v>10</v>
@@ -9932,12 +9932,12 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>BD016AVT</t>
+          <t>BD017AVT</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Octavia (04-) / VW Golf V (03-) передний</t>
+          <t>Диск тормозной Toyota Camry (06-) / RAV 4 (06-) передний</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>1789</v>
+        <v>2334</v>
       </c>
       <c r="E366" t="n">
         <v>10</v>
@@ -9958,12 +9958,12 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>BD008AVT</t>
+          <t>BD017AVT</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Octavia (13-) / VW Golf VII (12-) задний</t>
+          <t>Диск тормозной Toyota Camry (06-) / RAV 4 (06-) передний</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -9972,7 +9972,7 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>1326</v>
+        <v>2334</v>
       </c>
       <c r="E367" t="n">
         <v>10</v>
@@ -9984,12 +9984,12 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>BD063AVT</t>
+          <t>BD044AVT</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Octavia (96-) / VW Golf IV (97-) передний</t>
+          <t>Диск тормозной Toyota Camry (06-) задний</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -9998,7 +9998,7 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>1729</v>
+        <v>1597</v>
       </c>
       <c r="E368" t="n">
         <v>10</v>
@@ -10010,12 +10010,12 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>BD007AVT</t>
+          <t>BD036AVT</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Yeti (09-) передний</t>
+          <t>Диск тормозной Toyota Corolla (06-) / Auris (06-) задний</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -10024,7 +10024,7 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>2183</v>
+        <v>1127</v>
       </c>
       <c r="E369" t="n">
         <v>10</v>
@@ -10036,12 +10036,12 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>BD064AVT</t>
+          <t>BD035AVT</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Диск тормозной SsangYong Kyron (05-) задний</t>
+          <t>Диск тормозной Toyota Corolla (06-) / Auris (06-) передний</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -10050,7 +10050,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>1950</v>
+        <v>1699</v>
       </c>
       <c r="E370" t="n">
         <v>10</v>
@@ -10062,12 +10062,12 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>BD070AVT</t>
+          <t>BD071AVT</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Диск тормозной Suzuki Grand Vitara (05-) передний</t>
+          <t>Диск тормозной Toyota LC 200 (07-) задний</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -10076,7 +10076,7 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>1757</v>
+        <v>2298</v>
       </c>
       <c r="E371" t="n">
         <v>10</v>
@@ -10088,12 +10088,12 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>BD083AVT</t>
+          <t>BD052AVT</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Диск тормозной Tank 300 передний</t>
+          <t>Диск тормозной Toyota LC 200 (07-) передний</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -10102,7 +10102,7 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>3834</v>
+        <v>2939</v>
       </c>
       <c r="E372" t="n">
         <v>10</v>
@@ -10114,12 +10114,12 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>BD083AVT</t>
+          <t>BD066AVT</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Диск тормозной Tank 300 передний</t>
+          <t>Диск тормозной Toyota LC Prado (09-) передний</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -10128,7 +10128,7 @@
         </is>
       </c>
       <c r="D373" t="n">
-        <v>3834</v>
+        <v>3275</v>
       </c>
       <c r="E373" t="n">
         <v>10</v>
@@ -10140,12 +10140,12 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>BD082AVT</t>
+          <t>BD029AVT</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Диск тормозной Tank 500 передний</t>
+          <t>Диск тормозной Toyota RAV 4 (06-) / RAV 4 (13-) задний</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -10154,7 +10154,7 @@
         </is>
       </c>
       <c r="D374" t="n">
-        <v>4511</v>
+        <v>1684</v>
       </c>
       <c r="E374" t="n">
         <v>10</v>
@@ -10166,12 +10166,12 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>BD017AVT</t>
+          <t>BD065AVT</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Camry (06-) / RAV 4 (06-) передний</t>
+          <t>Диск тормозной Volvo XC 70 (07-) / S60 (10-) / S80 (06-) передний</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -10180,7 +10180,7 @@
         </is>
       </c>
       <c r="D375" t="n">
-        <v>2334</v>
+        <v>2572</v>
       </c>
       <c r="E375" t="n">
         <v>10</v>
@@ -10192,12 +10192,12 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>BD017AVT</t>
+          <t>BD047AVT</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Camry (06-) / RAV 4 (06-) передний</t>
+          <t>Диск тормозной VW Passat (96-) задний</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -10206,7 +10206,7 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>2334</v>
+        <v>1218</v>
       </c>
       <c r="E376" t="n">
         <v>10</v>
@@ -10218,12 +10218,12 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>BD044AVT</t>
+          <t>BD072AVT</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Camry (06-) задний</t>
+          <t>Диск тормозной VW Passat (96-) передний</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -10232,7 +10232,7 @@
         </is>
       </c>
       <c r="D377" t="n">
-        <v>1597</v>
+        <v>1788</v>
       </c>
       <c r="E377" t="n">
         <v>10</v>
@@ -10244,12 +10244,12 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>BD036AVT</t>
+          <t>BD009AVT</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Corolla (06-) / Auris (06-) задний</t>
+          <t>Диск тормозной VW Polo Sedan (10-) передний d.286,8</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -10258,7 +10258,7 @@
         </is>
       </c>
       <c r="D378" t="n">
-        <v>1127</v>
+        <v>2159</v>
       </c>
       <c r="E378" t="n">
         <v>10</v>
@@ -10270,12 +10270,12 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>BD035AVT</t>
+          <t>BD014AVT</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Corolla (06-) / Auris (06-) передний</t>
+          <t>Диск тормозной VW Tiguan (07-) задний</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -10284,7 +10284,7 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>1699</v>
+        <v>1496</v>
       </c>
       <c r="E379" t="n">
         <v>10</v>
@@ -10296,12 +10296,12 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>BD071AVT</t>
+          <t>BD003AVT</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota LC 200 (07-) задний</t>
+          <t>Диск тормозной VW Tiguan (07-) передний</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -10310,7 +10310,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>2298</v>
+        <v>2494</v>
       </c>
       <c r="E380" t="n">
         <v>10</v>
@@ -10322,12 +10322,12 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>BD052AVT</t>
+          <t>BD043AVT</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota LC 200 (07-) передний</t>
+          <t>Диск тормозной VW Tiguan (16-) / Skoda Kodiaq (16-) задний</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -10336,7 +10336,7 @@
         </is>
       </c>
       <c r="D381" t="n">
-        <v>2939</v>
+        <v>1879</v>
       </c>
       <c r="E381" t="n">
         <v>10</v>
@@ -10348,12 +10348,12 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>BD066AVT</t>
+          <t>832198AVT</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota LC Prado (09-) передний</t>
+          <t>Комплект сцепления LADA Largus (корзина+диск) для 21809</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -10362,24 +10362,24 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>3275</v>
+        <v>12000</v>
       </c>
       <c r="E382" t="n">
         <v>10</v>
       </c>
       <c r="F382" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>BD029AVT</t>
+          <t>832198AVT</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota RAV 4 (06-) / RAV 4 (13-) задний</t>
+          <t>Комплект сцепления LADA Largus (корзина+диск) для 21809</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -10388,24 +10388,24 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>1684</v>
+        <v>12000</v>
       </c>
       <c r="E383" t="n">
         <v>10</v>
       </c>
       <c r="F383" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>BD065AVT</t>
+          <t>832290AVT</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Диск тормозной Volvo XC 70 (07-) / S60 (10-) / S80 (06-) передний</t>
+          <t>Комплект сцепления LADA Largus с подшипником для LADA Vesta / X-RAY 1.8 (коробка робот)</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -10414,24 +10414,24 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>2572</v>
+        <v>6120</v>
       </c>
       <c r="E384" t="n">
         <v>10</v>
       </c>
       <c r="F384" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>BD047AVT</t>
+          <t>832290AVT</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Passat (96-) задний</t>
+          <t>Комплект сцепления LADA Largus с подшипником для LADA Vesta / X-RAY 1.8 (коробка робот)</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -10440,24 +10440,24 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>1218</v>
+        <v>6120</v>
       </c>
       <c r="E385" t="n">
         <v>10</v>
       </c>
       <c r="F385" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>BD072AVT</t>
+          <t>826787AVT</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Passat (96-) передний</t>
+          <t>Комплект сцепления без подшипника Chevrolet Lacetti (04-)</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -10466,24 +10466,24 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>1788</v>
+        <v>5111</v>
       </c>
       <c r="E386" t="n">
         <v>10</v>
       </c>
       <c r="F386" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>BD009AVT</t>
+          <t>826853AVT</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Polo Sedan (10-) передний d.286,8</t>
+          <t>Комплект сцепления без подшипника Renault Logan (08-)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -10492,24 +10492,24 @@
         </is>
       </c>
       <c r="D387" t="n">
-        <v>2159</v>
+        <v>3703</v>
       </c>
       <c r="E387" t="n">
         <v>10</v>
       </c>
       <c r="F387" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>BD014AVT</t>
+          <t>3495AVT</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Tiguan (07-) задний</t>
+          <t>Комплект сцепления с подшипником 2107</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -10518,24 +10518,24 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>1496</v>
+        <v>4656</v>
       </c>
       <c r="E388" t="n">
         <v>10</v>
       </c>
       <c r="F388" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>BD003AVT</t>
+          <t>801122AVT</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Tiguan (07-) передний</t>
+          <t>Комплект сцепления с подшипником 2109</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -10544,24 +10544,24 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>2494</v>
+        <v>4656</v>
       </c>
       <c r="E389" t="n">
         <v>10</v>
       </c>
       <c r="F389" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>BD043AVT</t>
+          <t>826222AVT</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Tiguan (16-) / Skoda Kodiaq (16-) задний</t>
+          <t>Комплект сцепления с подшипником 2110</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -10570,24 +10570,24 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>1879</v>
+        <v>5172</v>
       </c>
       <c r="E390" t="n">
         <v>10</v>
       </c>
       <c r="F390" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>832198AVT</t>
+          <t>826222AVT</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Комплект сцепления LADA Largus (корзина+диск) для 21809</t>
+          <t>Комплект сцепления с подшипником 2110</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>12000</v>
+        <v>5172</v>
       </c>
       <c r="E391" t="n">
         <v>10</v>
@@ -10608,12 +10608,12 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>832198AVT</t>
+          <t>826245AVT</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Комплект сцепления LADA Largus (корзина+диск) для 21809</t>
+          <t>Комплект сцепления с подшипником Citroen C3 (03-) 1.1-1.4 (05-)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -10622,10 +10622,10 @@
         </is>
       </c>
       <c r="D392" t="n">
-        <v>12000</v>
+        <v>3112</v>
       </c>
       <c r="E392" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F392" t="n">
         <v>1</v>
@@ -10634,12 +10634,12 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>832290AVT</t>
+          <t>826568AVT</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Комплект сцепления LADA Largus с подшипником для LADA Vesta / X-RAY 1.8 (коробка робот)</t>
+          <t>Комплект сцепления с подшипником Daewoo Matiz (01-)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -10648,7 +10648,7 @@
         </is>
       </c>
       <c r="D393" t="n">
-        <v>6120</v>
+        <v>3259</v>
       </c>
       <c r="E393" t="n">
         <v>10</v>
@@ -10660,12 +10660,12 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>832290AVT</t>
+          <t>821098AVT</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Комплект сцепления LADA Largus с подшипником для LADA Vesta / X-RAY 1.8 (коробка робот)</t>
+          <t>Комплект сцепления с подшипником Daewoo Nexia (95-)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -10674,7 +10674,7 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>6120</v>
+        <v>3667</v>
       </c>
       <c r="E394" t="n">
         <v>10</v>
@@ -10686,12 +10686,12 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>826787AVT</t>
+          <t>826298AVT</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Комплект сцепления без подшипника Chevrolet Lacetti (04-)</t>
+          <t>Комплект сцепления с подшипником GAZ 3110 / 3302 (ZMZ 402 / 406)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -10700,7 +10700,7 @@
         </is>
       </c>
       <c r="D395" t="n">
-        <v>5111</v>
+        <v>4516</v>
       </c>
       <c r="E395" t="n">
         <v>10</v>
@@ -10712,12 +10712,12 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>826853AVT</t>
+          <t>826298AVT</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Комплект сцепления без подшипника Renault Logan (08-)</t>
+          <t>Комплект сцепления с подшипником GAZ 3110 / 3302 (ZMZ 402 / 406)</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -10726,7 +10726,7 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>3703</v>
+        <v>4516</v>
       </c>
       <c r="E396" t="n">
         <v>10</v>
@@ -10738,12 +10738,12 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>3495AVT</t>
+          <t>826995AVT</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником 2107</t>
+          <t>Комплект сцепления с подшипником Hyundai Solaris I (10-)</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -10752,7 +10752,7 @@
         </is>
       </c>
       <c r="D397" t="n">
-        <v>4656</v>
+        <v>4223</v>
       </c>
       <c r="E397" t="n">
         <v>10</v>
@@ -10764,12 +10764,12 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>801122AVT</t>
+          <t>826995AVT</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником 2109</t>
+          <t>Комплект сцепления с подшипником Hyundai Solaris I (10-)</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -10778,7 +10778,7 @@
         </is>
       </c>
       <c r="D398" t="n">
-        <v>4656</v>
+        <v>4223</v>
       </c>
       <c r="E398" t="n">
         <v>10</v>
@@ -10790,12 +10790,12 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>826222AVT</t>
+          <t>826299AVT</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником 2110</t>
+          <t>Комплект сцепления с подшипником Hyundai Sonata IV (98-) 2.0</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -10804,10 +10804,10 @@
         </is>
       </c>
       <c r="D399" t="n">
-        <v>5172</v>
+        <v>8519</v>
       </c>
       <c r="E399" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F399" t="n">
         <v>1</v>
@@ -10816,12 +10816,12 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>826222AVT</t>
+          <t>801515AVT</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником 2110</t>
+          <t>Комплект сцепления с подшипником Nissan Almera N16 (00-04) 1.5</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -10830,7 +10830,7 @@
         </is>
       </c>
       <c r="D400" t="n">
-        <v>5172</v>
+        <v>4482</v>
       </c>
       <c r="E400" t="n">
         <v>10</v>
@@ -10842,12 +10842,12 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>826245AVT</t>
+          <t>826211AVT</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Citroen C3 (03-) 1.1-1.4 (05-)</t>
+          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 306 (97-) / Partner (96-) 1.4-1.6</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -10856,10 +10856,10 @@
         </is>
       </c>
       <c r="D401" t="n">
-        <v>3112</v>
+        <v>3830</v>
       </c>
       <c r="E401" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F401" t="n">
         <v>1</v>
@@ -10868,12 +10868,12 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>826568AVT</t>
+          <t>821340AVT</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Daewoo Matiz (01-)</t>
+          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 307 (00-) 1.1-1.4</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -10882,7 +10882,7 @@
         </is>
       </c>
       <c r="D402" t="n">
-        <v>3259</v>
+        <v>3912</v>
       </c>
       <c r="E402" t="n">
         <v>10</v>
@@ -10894,12 +10894,12 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>821098AVT</t>
+          <t>826213AVT</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Daewoo Nexia (95-)</t>
+          <t>Комплект сцепления с подшипником Peugeot 307 (00-)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -10908,7 +10908,7 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>3667</v>
+        <v>3749</v>
       </c>
       <c r="E403" t="n">
         <v>10</v>
@@ -10920,12 +10920,12 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>826298AVT</t>
+          <t>821183AVT</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником GAZ 3110 / 3302 (ZMZ 402 / 406)</t>
+          <t>Комплект сцепления с подшипником Renault Logan (04-)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -10934,7 +10934,7 @@
         </is>
       </c>
       <c r="D404" t="n">
-        <v>4516</v>
+        <v>3830</v>
       </c>
       <c r="E404" t="n">
         <v>10</v>
@@ -10946,12 +10946,12 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>826298AVT</t>
+          <t>826577AVT</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником GAZ 3110 / 3302 (ZMZ 402 / 406)</t>
+          <t>Комплект сцепления с подшипником Renault Logan I 1.4 (04-)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -10960,7 +10960,7 @@
         </is>
       </c>
       <c r="D405" t="n">
-        <v>4516</v>
+        <v>4662</v>
       </c>
       <c r="E405" t="n">
         <v>10</v>
@@ -10972,12 +10972,12 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>826995AVT</t>
+          <t>828009AVT</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Hyundai Solaris I (10-)</t>
+          <t>Комплект сцепления с подшипником UAZ 3151 / 3160 (ZMZ 409)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -10986,7 +10986,7 @@
         </is>
       </c>
       <c r="D406" t="n">
-        <v>4223</v>
+        <v>5112</v>
       </c>
       <c r="E406" t="n">
         <v>10</v>
@@ -10998,12 +10998,12 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>826995AVT</t>
+          <t>828009AVT</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Hyundai Solaris I (10-)</t>
+          <t>Комплект сцепления с подшипником UAZ 3151 / 3160 (ZMZ 409)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -11012,7 +11012,7 @@
         </is>
       </c>
       <c r="D407" t="n">
-        <v>4223</v>
+        <v>5112</v>
       </c>
       <c r="E407" t="n">
         <v>10</v>
@@ -11024,12 +11024,12 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>826299AVT</t>
+          <t>826326AVT</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Hyundai Sonata IV (98-) 2.0</t>
+          <t>Комплект сцепления с подшипником VW Polo Sedan (10-)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -11038,10 +11038,10 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>8519</v>
+        <v>5297</v>
       </c>
       <c r="E408" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F408" t="n">
         <v>1</v>
@@ -11050,12 +11050,12 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>801515AVT</t>
+          <t>826474AVT</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Nissan Almera N16 (00-04) 1.5</t>
+          <t>Комплект сцепления с подшипником Нива</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -11064,7 +11064,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>4482</v>
+        <v>7272</v>
       </c>
       <c r="E409" t="n">
         <v>10</v>
@@ -11076,12 +11076,12 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>826211AVT</t>
+          <t>828003AVT</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 306 (97-) / Partner (96-) 1.4-1.6</t>
+          <t>Комплект сцепления с подшипником Приора</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -11090,10 +11090,10 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>3830</v>
+        <v>5544</v>
       </c>
       <c r="E410" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F410" t="n">
         <v>1</v>
@@ -11102,12 +11102,12 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>821340AVT</t>
+          <t>828003AVT</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 307 (00-) 1.1-1.4</t>
+          <t>Комплект сцепления с подшипником Приора</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -11116,7 +11116,7 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>3912</v>
+        <v>5544</v>
       </c>
       <c r="E411" t="n">
         <v>10</v>
@@ -11128,12 +11128,12 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>826213AVT</t>
+          <t>CD044AVT</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Peugeot 307 (00-)</t>
+          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.0</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -11142,7 +11142,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>3749</v>
+        <v>5124</v>
       </c>
       <c r="E412" t="n">
         <v>10</v>
@@ -11154,12 +11154,12 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>821183AVT</t>
+          <t>CD046AVT</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Renault Logan (04-)</t>
+          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.2</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -11168,7 +11168,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>3830</v>
+        <v>5364</v>
       </c>
       <c r="E413" t="n">
         <v>10</v>
@@ -11180,12 +11180,12 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>826577AVT</t>
+          <t>CD036AVT</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Renault Logan I 1.4 (04-)</t>
+          <t>Конденсор Chevrolet Aveo T300 (11-) 1.2-1.6</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -11194,7 +11194,7 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>4662</v>
+        <v>4404</v>
       </c>
       <c r="E414" t="n">
         <v>10</v>
@@ -11206,12 +11206,12 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>828009AVT</t>
+          <t>CD047AVT</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником UAZ 3151 / 3160 (ZMZ 409)</t>
+          <t>Конденсор Chevrolet Captiva / Opel Antara (06-) 2.0-2.2D</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -11220,7 +11220,7 @@
         </is>
       </c>
       <c r="D415" t="n">
-        <v>5112</v>
+        <v>4788</v>
       </c>
       <c r="E415" t="n">
         <v>10</v>
@@ -11232,12 +11232,12 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>828009AVT</t>
+          <t>CD048AVT</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником UAZ 3151 / 3160 (ZMZ 409)</t>
+          <t>Конденсор Chevrolet Cruze / Opel Astra J (09-) 1.4-1.8</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="D416" t="n">
-        <v>5112</v>
+        <v>3900</v>
       </c>
       <c r="E416" t="n">
         <v>10</v>
@@ -11258,12 +11258,12 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>826326AVT</t>
+          <t>CD033AVT</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником VW Polo Sedan (10-)</t>
+          <t>Конденсор Ford Focus II (05-) / Volvo S40 (04-) 1.4-2.0</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -11272,7 +11272,7 @@
         </is>
       </c>
       <c r="D417" t="n">
-        <v>5297</v>
+        <v>4044</v>
       </c>
       <c r="E417" t="n">
         <v>10</v>
@@ -11284,12 +11284,12 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>826474AVT</t>
+          <t>CD037AVT</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Нива</t>
+          <t>Конденсор Ford Mondeo (07-) / Volvo XC60 (08-) / XC70 (07-) / S80 (06-) 1.6-2.5</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -11298,7 +11298,7 @@
         </is>
       </c>
       <c r="D418" t="n">
-        <v>7272</v>
+        <v>5388</v>
       </c>
       <c r="E418" t="n">
         <v>10</v>
@@ -11310,12 +11310,12 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>828003AVT</t>
+          <t>CD038AVT</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Приора</t>
+          <t>Конденсор Hyundai Accent II (99-) MT 1.3-1.6</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -11324,7 +11324,7 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>5544</v>
+        <v>3708</v>
       </c>
       <c r="E419" t="n">
         <v>10</v>
@@ -11336,12 +11336,12 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>828003AVT</t>
+          <t>CD039AVT</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Приора</t>
+          <t>Конденсор Hyundai Tucson (15-) / Kia Sportage (16-) 1.6-2.0</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -11350,7 +11350,7 @@
         </is>
       </c>
       <c r="D420" t="n">
-        <v>5544</v>
+        <v>5856</v>
       </c>
       <c r="E420" t="n">
         <v>10</v>
@@ -11362,12 +11362,12 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>CD044AVT</t>
+          <t>CD045AVT</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.0</t>
+          <t>Конденсор Mazda 3 (09-) 1.6-2.5</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -11376,7 +11376,7 @@
         </is>
       </c>
       <c r="D421" t="n">
-        <v>5124</v>
+        <v>5220</v>
       </c>
       <c r="E421" t="n">
         <v>10</v>
@@ -11388,12 +11388,12 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>CD046AVT</t>
+          <t>CD041AVT</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.2</t>
+          <t>Конденсор Mitsubishi Outlander (12-) 2.0-2.4</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -11402,7 +11402,7 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>5364</v>
+        <v>4428</v>
       </c>
       <c r="E422" t="n">
         <v>10</v>
@@ -11414,12 +11414,12 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>CD036AVT</t>
+          <t>CD042AVT</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Конденсор Chevrolet Aveo T300 (11-) 1.2-1.6</t>
+          <t>Конденсор Nissan Note (06-) / Tiida (04-) / Juke (10-) 1.2-1.6</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -11428,7 +11428,7 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>4404</v>
+        <v>4248</v>
       </c>
       <c r="E423" t="n">
         <v>10</v>
@@ -11440,12 +11440,12 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>CD047AVT</t>
+          <t>CD043AVT</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Конденсор Chevrolet Captiva / Opel Antara (06-) 2.0-2.2D</t>
+          <t>Конденсор Opel Astra H (04-) 1.4-1.8</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -11454,7 +11454,7 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>4788</v>
+        <v>4692</v>
       </c>
       <c r="E424" t="n">
         <v>10</v>
@@ -11466,12 +11466,12 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>CD048AVT</t>
+          <t>CD034AVT</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Конденсор Chevrolet Cruze / Opel Astra J (09-) 1.4-1.8</t>
+          <t>Конденсор Skoda Kodiaq (16-) / Skoda Octavia A7 (13-) / VW Tiguan (16-) 1.2-2.0</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -11480,7 +11480,7 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>3900</v>
+        <v>5292</v>
       </c>
       <c r="E425" t="n">
         <v>10</v>
@@ -11492,12 +11492,12 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>CD033AVT</t>
+          <t>CD035AVT</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Конденсор Ford Focus II (05-) / Volvo S40 (04-) 1.4-2.0</t>
+          <t>Конденсор Skoda Octavia A5 (04-) / VW Golf V (03-) 1.6-2.0</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>4044</v>
+        <v>5136</v>
       </c>
       <c r="E426" t="n">
         <v>10</v>
@@ -11518,12 +11518,12 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>CD037AVT</t>
+          <t>836383AVT</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Конденсор Ford Mondeo (07-) / Volvo XC60 (08-) / XC70 (07-) / S80 (06-) 1.6-2.5</t>
+          <t>Одномассовый маховик HYUNDAI SOLARIS 17-</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -11532,10 +11532,10 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>5388</v>
+        <v>6000</v>
       </c>
       <c r="E427" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F427" t="n">
         <v>1</v>
@@ -11544,12 +11544,12 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>CD038AVT</t>
+          <t>836365AVT</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Конденсор Hyundai Accent II (99-) MT 1.3-1.6</t>
+          <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -11558,7 +11558,7 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>3708</v>
+        <v>3300</v>
       </c>
       <c r="E428" t="n">
         <v>10</v>
@@ -11570,12 +11570,12 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>CD039AVT</t>
+          <t>836365AVT</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Конденсор Hyundai Tucson (15-) / Kia Sportage (16-) 1.6-2.0</t>
+          <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -11584,7 +11584,7 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>5856</v>
+        <v>3300</v>
       </c>
       <c r="E429" t="n">
         <v>10</v>
@@ -11596,12 +11596,12 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>CD045AVT</t>
+          <t>804295AVT</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Конденсор Mazda 3 (09-) 1.6-2.5</t>
+          <t>Подшипник выжимной 2101-2107</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -11610,7 +11610,7 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>5220</v>
+        <v>1070</v>
       </c>
       <c r="E430" t="n">
         <v>10</v>
@@ -11622,12 +11622,12 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>CD041AVT</t>
+          <t>804036AVT</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Конденсор Mitsubishi Outlander (12-) 2.0-2.4</t>
+          <t>Подшипник выжимной CITROEN/PEUGEOT</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -11636,7 +11636,7 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>4428</v>
+        <v>696</v>
       </c>
       <c r="E431" t="n">
         <v>10</v>
@@ -11648,12 +11648,12 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>CD042AVT</t>
+          <t>804299AVT</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Конденсор Nissan Note (06-) / Tiida (04-) / Juke (10-) 1.2-1.6</t>
+          <t>Подшипник выжимной PSA</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -11662,7 +11662,7 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>4248</v>
+        <v>720</v>
       </c>
       <c r="E432" t="n">
         <v>10</v>
@@ -11674,12 +11674,12 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>CD043AVT</t>
+          <t>804587AVT</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Конденсор Opel Astra H (04-) 1.4-1.8</t>
+          <t>Подшипник гидравлический RENAULT DUSTER 1.6</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -11688,7 +11688,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>4692</v>
+        <v>7200</v>
       </c>
       <c r="E433" t="n">
         <v>10</v>
@@ -11700,12 +11700,12 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>CD034AVT</t>
+          <t>804544AVT</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Конденсор Skoda Kodiaq (16-) / Skoda Octavia A7 (13-) / VW Tiguan (16-) 1.2-2.0</t>
+          <t>Подшипник гидравлический RENAULT/NISSAN</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -11714,7 +11714,7 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>5292</v>
+        <v>5640</v>
       </c>
       <c r="E434" t="n">
         <v>10</v>
@@ -11726,12 +11726,12 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>CD035AVT</t>
+          <t>804544AVT</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Конденсор Skoda Octavia A5 (04-) / VW Golf V (03-) 1.6-2.0</t>
+          <t>Подшипник гидравлический RENAULT/NISSAN</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -11740,7 +11740,7 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>5136</v>
+        <v>5640</v>
       </c>
       <c r="E435" t="n">
         <v>10</v>
@@ -11752,12 +11752,12 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>836383AVT</t>
+          <t>701514AVT</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Одномассовый маховик HYUNDAI SOLARIS 17-</t>
+          <t>Радиатор Веста / Икс-Рэй</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -11766,10 +11766,10 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>6000</v>
+        <v>4212</v>
       </c>
       <c r="E436" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F436" t="n">
         <v>1</v>
@@ -11778,12 +11778,12 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>836365AVT</t>
+          <t>RD204AVT</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
+          <t>Радиатор двигатель паяный Hyundai Solaris / KIA RIO II (17-) 1.4i / 1.6i</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -11792,7 +11792,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>3300</v>
+        <v>5585</v>
       </c>
       <c r="E437" t="n">
         <v>10</v>
@@ -11804,12 +11804,12 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>836365AVT</t>
+          <t>RD026AVT</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
+          <t>Радиатор двигателя BMW X5 (E70) (07-) 30d/3.0t AT (паяный)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -11818,7 +11818,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>3300</v>
+        <v>12251</v>
       </c>
       <c r="E438" t="n">
         <v>10</v>
@@ -11830,12 +11830,12 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>804295AVT</t>
+          <t>RD008AVT</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Подшипник выжимной 2101-2107</t>
+          <t>Радиатор двигателя CHEVROLET CRUZE (09-) 1.6-1.8i / ORLANDO (10-) 1.8i MT</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -11844,7 +11844,7 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>1070</v>
+        <v>5634</v>
       </c>
       <c r="E439" t="n">
         <v>10</v>
@@ -11856,12 +11856,12 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>804036AVT</t>
+          <t>RD018AVT</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Подшипник выжимной CITROEN/PEUGEOT</t>
+          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i AT</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -11870,7 +11870,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>696</v>
+        <v>6371</v>
       </c>
       <c r="E440" t="n">
         <v>10</v>
@@ -11882,12 +11882,12 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>804299AVT</t>
+          <t>RD009AVT</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Подшипник выжимной PSA</t>
+          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i MT</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>720</v>
+        <v>5555</v>
       </c>
       <c r="E441" t="n">
         <v>10</v>
@@ -11908,12 +11908,12 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>804587AVT</t>
+          <t>RD011AVT</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Подшипник гидравлический RENAULT DUSTER 1.6</t>
+          <t>Радиатор двигателя Chevrolet Lacetti (04-) 1.4i/1.6i/1.8i MT (сборный)</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -11922,7 +11922,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>7200</v>
+        <v>4973</v>
       </c>
       <c r="E442" t="n">
         <v>10</v>
@@ -11934,12 +11934,12 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>804544AVT</t>
+          <t>RD016AVT</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Подшипник гидравлический RENAULT/NISSAN</t>
+          <t>Радиатор двигателя Daewoo Matiz (01-) 0.8i/1.0i MT (сборный)</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -11948,7 +11948,7 @@
         </is>
       </c>
       <c r="D443" t="n">
-        <v>5640</v>
+        <v>2898</v>
       </c>
       <c r="E443" t="n">
         <v>10</v>
@@ -11960,12 +11960,12 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>804544AVT</t>
+          <t>RD023AVT</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Подшипник гидравлический RENAULT/NISSAN</t>
+          <t>Радиатор двигателя Daewoo Matiz (1998-) 0.8 MT (сборный)</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -11974,7 +11974,7 @@
         </is>
       </c>
       <c r="D444" t="n">
-        <v>5640</v>
+        <v>3323</v>
       </c>
       <c r="E444" t="n">
         <v>10</v>
@@ -11986,12 +11986,12 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>701514AVT</t>
+          <t>RD024AVT</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Радиатор Веста / Икс-Рэй</t>
+          <t>Радиатор двигателя DAEWOO MATIZ (98-) 0.8i AT</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -12000,7 +12000,7 @@
         </is>
       </c>
       <c r="D445" t="n">
-        <v>4212</v>
+        <v>4207</v>
       </c>
       <c r="E445" t="n">
         <v>10</v>
@@ -12012,12 +12012,12 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>RD204AVT</t>
+          <t>RD015AVT</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Радиатор двигатель паяный Hyundai Solaris / KIA RIO II (17-) 1.4i / 1.6i</t>
+          <t>Радиатор двигателя Daewoo Nexia (94-) 1.5/1.8 MT (сборный)</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -12026,7 +12026,7 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>5585</v>
+        <v>3204</v>
       </c>
       <c r="E446" t="n">
         <v>10</v>
@@ -12038,12 +12038,12 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>RD026AVT</t>
+          <t>RD040AVT</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Радиатор двигателя BMW X5 (E70) (07-) 30d/3.0t AT (паяный)</t>
+          <t>Радиатор двигателя FORD FIESTA / FUSION (01-) 1.2-1.6i MT / AT</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -12052,7 +12052,7 @@
         </is>
       </c>
       <c r="D447" t="n">
-        <v>12251</v>
+        <v>2821</v>
       </c>
       <c r="E447" t="n">
         <v>10</v>
@@ -12064,12 +12064,12 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>RD008AVT</t>
+          <t>RD004AVT</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Радиатор двигателя CHEVROLET CRUZE (09-) 1.6-1.8i / ORLANDO (10-) 1.8i MT</t>
+          <t>Радиатор двигателя Ford Focus II (05-) A/C+ (сборный)</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -12078,7 +12078,7 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>5634</v>
+        <v>4726</v>
       </c>
       <c r="E448" t="n">
         <v>10</v>
@@ -12090,12 +12090,12 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>RD018AVT</t>
+          <t>RD048AVT</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i AT</t>
+          <t>Радиатор двигателя FORD FOCUS III / C-MAX (11-) 1.6-2.0i MT / AT</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -12104,7 +12104,7 @@
         </is>
       </c>
       <c r="D449" t="n">
-        <v>6371</v>
+        <v>6349</v>
       </c>
       <c r="E449" t="n">
         <v>10</v>
@@ -12116,12 +12116,12 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>RD009AVT</t>
+          <t>RD055AVT</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i MT</t>
+          <t>Радиатор двигателя HYUNDAI SOLARIS (10-) / KIA RIO (10-) 1.4-1.6i 6AT</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -12130,7 +12130,7 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>5555</v>
+        <v>4195</v>
       </c>
       <c r="E450" t="n">
         <v>10</v>
@@ -12142,12 +12142,12 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>RD011AVT</t>
+          <t>RD001AVT</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Chevrolet Lacetti (04-) 1.4i/1.6i/1.8i MT (сборный)</t>
+          <t>Радиатор двигателя HYUNDAI SOLARIS (RB) / KIA RIO III (UB) (11-) 1.4-1.6i MT</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -12156,7 +12156,7 @@
         </is>
       </c>
       <c r="D451" t="n">
-        <v>4973</v>
+        <v>3139</v>
       </c>
       <c r="E451" t="n">
         <v>10</v>
@@ -12168,12 +12168,12 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>RD016AVT</t>
+          <t>RD002AVT</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Daewoo Matiz (01-) 0.8i/1.0i MT (сборный)</t>
+          <t>Радиатор двигателя Hyundai Solaris / Kia Rio (10-&gt;) AT (сборный)</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -12182,7 +12182,7 @@
         </is>
       </c>
       <c r="D452" t="n">
-        <v>2898</v>
+        <v>3203</v>
       </c>
       <c r="E452" t="n">
         <v>10</v>
@@ -12194,12 +12194,12 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>RD023AVT</t>
+          <t>RD057AVT</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Daewoo Matiz (1998-) 0.8 MT (сборный)</t>
+          <t>Радиатор двигателя HYUNDAI SOLARIS / KIA RIO (17-) 1.4-1.6i MT</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -12208,7 +12208,7 @@
         </is>
       </c>
       <c r="D453" t="n">
-        <v>3323</v>
+        <v>3556</v>
       </c>
       <c r="E453" t="n">
         <v>10</v>
@@ -12220,12 +12220,12 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>RD024AVT</t>
+          <t>RD021AVT</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Радиатор двигателя DAEWOO MATIZ (98-) 0.8i AT</t>
+          <t>Радиатор двигателя KIA CEED (ED) (07-) 1.4-2.0i / HYUNDAI ELANTRA (HD) (06-) 1.6-2.0i / HYUNDAI i30</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -12234,7 +12234,7 @@
         </is>
       </c>
       <c r="D454" t="n">
-        <v>4207</v>
+        <v>4904</v>
       </c>
       <c r="E454" t="n">
         <v>10</v>
@@ -12246,12 +12246,12 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>RD015AVT</t>
+          <t>RD056AVT</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Daewoo Nexia (94-) 1.5/1.8 MT (сборный)</t>
+          <t>Радиатор двигателя KIA CEED / HYUNDAI i30 / ELANTRA IV (06-) 1.4-2.0i AT</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -12260,7 +12260,7 @@
         </is>
       </c>
       <c r="D455" t="n">
-        <v>3204</v>
+        <v>6533</v>
       </c>
       <c r="E455" t="n">
         <v>10</v>
@@ -12272,12 +12272,12 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>RD040AVT</t>
+          <t>RD056AVT</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Радиатор двигателя FORD FIESTA / FUSION (01-) 1.2-1.6i MT / AT</t>
+          <t>Радиатор двигателя KIA CEED / HYUNDAI i30 / ELANTRA IV (06-) 1.4-2.0i AT</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -12286,7 +12286,7 @@
         </is>
       </c>
       <c r="D456" t="n">
-        <v>2821</v>
+        <v>6533</v>
       </c>
       <c r="E456" t="n">
         <v>10</v>
@@ -12298,12 +12298,12 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>RD004AVT</t>
+          <t>RD087AVT</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Ford Focus II (05-) A/C+ (сборный)</t>
+          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -12312,7 +12312,7 @@
         </is>
       </c>
       <c r="D457" t="n">
-        <v>4726</v>
+        <v>7403</v>
       </c>
       <c r="E457" t="n">
         <v>10</v>
@@ -12324,12 +12324,12 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>RD048AVT</t>
+          <t>RD087AVT</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Радиатор двигателя FORD FOCUS III / C-MAX (11-) 1.6-2.0i MT / AT</t>
+          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -12338,7 +12338,7 @@
         </is>
       </c>
       <c r="D458" t="n">
-        <v>6349</v>
+        <v>7403</v>
       </c>
       <c r="E458" t="n">
         <v>10</v>
@@ -12350,12 +12350,12 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>RD055AVT</t>
+          <t>RD062AVT</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Радиатор двигателя HYUNDAI SOLARIS (10-) / KIA RIO (10-) 1.4-1.6i 6AT</t>
+          <t>Радиатор двигателя Kia Spectra (96-) 1.5-1.8 AT</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -12364,7 +12364,7 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>4195</v>
+        <v>5772</v>
       </c>
       <c r="E459" t="n">
         <v>10</v>
@@ -12376,12 +12376,12 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>RD001AVT</t>
+          <t>RD020AVT</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Радиатор двигателя HYUNDAI SOLARIS (RB) / KIA RIO III (UB) (11-) 1.4-1.6i MT</t>
+          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i AT</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -12390,7 +12390,7 @@
         </is>
       </c>
       <c r="D460" t="n">
-        <v>3139</v>
+        <v>6194</v>
       </c>
       <c r="E460" t="n">
         <v>10</v>
@@ -12402,12 +12402,12 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>RD002AVT</t>
+          <t>RD019AVT</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Hyundai Solaris / Kia Rio (10-&gt;) AT (сборный)</t>
+          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i MT</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -12416,7 +12416,7 @@
         </is>
       </c>
       <c r="D461" t="n">
-        <v>3203</v>
+        <v>4888</v>
       </c>
       <c r="E461" t="n">
         <v>10</v>
@@ -12428,12 +12428,12 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>RD057AVT</t>
+          <t>RD028AVT</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Радиатор двигателя HYUNDAI SOLARIS / KIA RIO (17-) 1.4-1.6i MT</t>
+          <t>Радиатор двигателя MB C (07-), E (-16), GLK (08-) 1.6-4.7i AT</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -12442,7 +12442,7 @@
         </is>
       </c>
       <c r="D462" t="n">
-        <v>3556</v>
+        <v>10615</v>
       </c>
       <c r="E462" t="n">
         <v>10</v>
@@ -12454,12 +12454,12 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>RD021AVT</t>
+          <t>RD029AVT</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA CEED (ED) (07-) 1.4-2.0i / HYUNDAI ELANTRA (HD) (06-) 1.6-2.0i / HYUNDAI i30</t>
+          <t>Радиатор двигателя MB E (16-), GLC (15-), C (14-), S (13-) 2.0-4.0 MT / AT</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -12468,7 +12468,7 @@
         </is>
       </c>
       <c r="D463" t="n">
-        <v>4904</v>
+        <v>12114</v>
       </c>
       <c r="E463" t="n">
         <v>10</v>
@@ -12480,12 +12480,12 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>RD056AVT</t>
+          <t>RD027AVT</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA CEED / HYUNDAI i30 / ELANTRA IV (06-) 1.4-2.0i AT</t>
+          <t>Радиатор двигателя MB ML (12-) GL, GLS, GLE (-18) 2.2-5.5i AT</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -12494,7 +12494,7 @@
         </is>
       </c>
       <c r="D464" t="n">
-        <v>6533</v>
+        <v>11959</v>
       </c>
       <c r="E464" t="n">
         <v>10</v>
@@ -12506,12 +12506,12 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>RD056AVT</t>
+          <t>RD005AVT</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA CEED / HYUNDAI i30 / ELANTRA IV (06-) 1.4-2.0i AT</t>
+          <t>Радиатор двигателя MITSUBISHI ASX (10-) 1.6-1.8i / OUTLANDER (07-) 2.0-2.4i / LANCER (07-) 1.5-2.0i</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -12520,7 +12520,7 @@
         </is>
       </c>
       <c r="D465" t="n">
-        <v>6533</v>
+        <v>4110</v>
       </c>
       <c r="E465" t="n">
         <v>10</v>
@@ -12532,12 +12532,12 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>RD087AVT</t>
+          <t>RD060AVT</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
+          <t>Радиатор двигателя MITSUBISHI OUTLANDER III (12-) 2.0-3.0i MT / AT</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="D466" t="n">
-        <v>7403</v>
+        <v>7210</v>
       </c>
       <c r="E466" t="n">
         <v>10</v>
@@ -12558,12 +12558,12 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>RD087AVT</t>
+          <t>RD017AVT</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
+          <t>Радиатор двигателя NISSAN QASHQAI (J10) (07-) 1.6-2.0i MT / AT</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -12572,7 +12572,7 @@
         </is>
       </c>
       <c r="D467" t="n">
-        <v>7403</v>
+        <v>7289</v>
       </c>
       <c r="E467" t="n">
         <v>10</v>
@@ -12584,12 +12584,12 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>RD062AVT</t>
+          <t>RD063AVT</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia Spectra (96-) 1.5-1.8 AT</t>
+          <t>Радиатор двигателя Nissan X-Trail (14-) 2.0-2.5</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -12598,7 +12598,7 @@
         </is>
       </c>
       <c r="D468" t="n">
-        <v>5772</v>
+        <v>5864</v>
       </c>
       <c r="E468" t="n">
         <v>10</v>
@@ -12610,12 +12610,12 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>RD020AVT</t>
+          <t>RD014AVT</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i AT</t>
+          <t>Радиатор двигателя OPEL ZAFIRA / ASTRA H (05-) 1.6-1.8i MT / AT</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -12624,7 +12624,7 @@
         </is>
       </c>
       <c r="D469" t="n">
-        <v>6194</v>
+        <v>5726</v>
       </c>
       <c r="E469" t="n">
         <v>10</v>
@@ -12636,12 +12636,12 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>RD019AVT</t>
+          <t>RD003AVT</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i MT</t>
+          <t>Радиатор двигателя Renault Logan (04-) 1.4i/1.6i А/С+ (сборный)</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -12650,7 +12650,7 @@
         </is>
       </c>
       <c r="D470" t="n">
-        <v>4888</v>
+        <v>2794</v>
       </c>
       <c r="E470" t="n">
         <v>10</v>
@@ -12662,12 +12662,12 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>RD028AVT</t>
+          <t>RD058AVT</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MB C (07-), E (-16), GLK (08-) 1.6-4.7i AT</t>
+          <t>Радиатор двигателя RENAULT LOGAN / SANDERO / SYMBOL (04-) 1.4-1.6i / Lada LARGUS K7M 1.6i (12-) MT /</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -12676,7 +12676,7 @@
         </is>
       </c>
       <c r="D471" t="n">
-        <v>10615</v>
+        <v>2893</v>
       </c>
       <c r="E471" t="n">
         <v>10</v>
@@ -12688,12 +12688,12 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>RD029AVT</t>
+          <t>RD013AVT</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MB E (16-), GLC (15-), C (14-), S (13-) 2.0-4.0 MT / AT</t>
+          <t>Радиатор двигателя Skoda Octavia A5 (04-)/VW Golf V (03-) (сборный)</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -12702,7 +12702,7 @@
         </is>
       </c>
       <c r="D472" t="n">
-        <v>12114</v>
+        <v>4436</v>
       </c>
       <c r="E472" t="n">
         <v>10</v>
@@ -12714,12 +12714,12 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>RD027AVT</t>
+          <t>RD007AVT</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MB ML (12-) GL, GLS, GLE (-18) 2.2-5.5i AT</t>
+          <t>Радиатор двигателя TOYOTA AURIS (E15) (07-) / (E18) (12-) 1.3-1.6i / AVENSIS (T27) (08-) 1.6-2.0i /</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -12728,7 +12728,7 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>11959</v>
+        <v>5714</v>
       </c>
       <c r="E473" t="n">
         <v>10</v>
@@ -12740,12 +12740,12 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>RD005AVT</t>
+          <t>RD025AVT</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MITSUBISHI ASX (10-) 1.6-1.8i / OUTLANDER (07-) 2.0-2.4i / LANCER (07-) 1.5-2.0i</t>
+          <t>Радиатор двигателя TOYOTA CAMRY (11-16) 2.5-3.5i AT</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -12754,7 +12754,7 @@
         </is>
       </c>
       <c r="D474" t="n">
-        <v>4110</v>
+        <v>7470</v>
       </c>
       <c r="E474" t="n">
         <v>10</v>
@@ -12766,12 +12766,12 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>RD060AVT</t>
+          <t>RD050AVT</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MITSUBISHI OUTLANDER III (12-) 2.0-3.0i MT / AT</t>
+          <t>Радиатор двигателя Toyota LC200 (08-) 4.5D</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -12780,7 +12780,7 @@
         </is>
       </c>
       <c r="D475" t="n">
-        <v>7210</v>
+        <v>12649</v>
       </c>
       <c r="E475" t="n">
         <v>10</v>
@@ -12792,12 +12792,12 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>RD017AVT</t>
+          <t>RD050AVT</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Радиатор двигателя NISSAN QASHQAI (J10) (07-) 1.6-2.0i MT / AT</t>
+          <t>Радиатор двигателя Toyota LC200 (08-) 4.5D</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -12806,7 +12806,7 @@
         </is>
       </c>
       <c r="D476" t="n">
-        <v>7289</v>
+        <v>12649</v>
       </c>
       <c r="E476" t="n">
         <v>10</v>
@@ -12818,12 +12818,12 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>RD063AVT</t>
+          <t>RD010AVT</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Nissan X-Trail (14-) 2.0-2.5</t>
+          <t>Радиатор двигателя Toyota RAV 4 (06-&gt;)/RAV 4 (13-&gt;) 2.0i MT/AT (сборный)</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -12832,7 +12832,7 @@
         </is>
       </c>
       <c r="D477" t="n">
-        <v>5864</v>
+        <v>5429</v>
       </c>
       <c r="E477" t="n">
         <v>10</v>
@@ -12844,12 +12844,12 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>RD014AVT</t>
+          <t>RD006AVT</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Радиатор двигателя OPEL ZAFIRA / ASTRA H (05-) 1.6-1.8i MT / AT</t>
+          <t>Радиатор двигателя VW Polo Sedan (10-)/(20-)/Skoda Rapid (12-)/(20-) (сборный)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -12858,7 +12858,7 @@
         </is>
       </c>
       <c r="D478" t="n">
-        <v>5726</v>
+        <v>3888</v>
       </c>
       <c r="E478" t="n">
         <v>10</v>
@@ -12870,12 +12870,12 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>RD003AVT</t>
+          <t>RD221AVT</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Renault Logan (04-) 1.4i/1.6i А/С+ (сборный)</t>
+          <t>Радиатор двигателя паяный Audi A4/А6 (94-) 1.6i, 1.8i, 1.9TDi, 1.8T</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -12884,7 +12884,7 @@
         </is>
       </c>
       <c r="D479" t="n">
-        <v>2794</v>
+        <v>6386</v>
       </c>
       <c r="E479" t="n">
         <v>10</v>
@@ -12896,12 +12896,12 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>RD058AVT</t>
+          <t>RD302AVT</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Радиатор двигателя RENAULT LOGAN / SANDERO / SYMBOL (04-) 1.4-1.6i / Lada LARGUS K7M 1.6i (12-) MT /</t>
+          <t>Радиатор двигателя паяный Ford Ranger (98-) 2.5TDi</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -12910,7 +12910,7 @@
         </is>
       </c>
       <c r="D480" t="n">
-        <v>2893</v>
+        <v>6724</v>
       </c>
       <c r="E480" t="n">
         <v>10</v>
@@ -12922,12 +12922,12 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>RD013AVT</t>
+          <t>RD220AVT</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Skoda Octavia A5 (04-)/VW Golf V (03-) (сборный)</t>
+          <t>Радиатор двигателя паяный Honda CR-V III (06-) 2.0i</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -12936,7 +12936,7 @@
         </is>
       </c>
       <c r="D481" t="n">
-        <v>4436</v>
+        <v>6842</v>
       </c>
       <c r="E481" t="n">
         <v>10</v>
@@ -12948,12 +12948,12 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>RD007AVT</t>
+          <t>RD225AVT</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Радиатор двигателя TOYOTA AURIS (E15) (07-) / (E18) (12-) 1.3-1.6i / AVENSIS (T27) (08-) 1.6-2.0i /</t>
+          <t>Радиатор двигателя паяный Hyundai Santa Fe II (06-) 2.2CRDi</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -12962,7 +12962,7 @@
         </is>
       </c>
       <c r="D482" t="n">
-        <v>5714</v>
+        <v>8759</v>
       </c>
       <c r="E482" t="n">
         <v>10</v>
@@ -12974,12 +12974,12 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>RD025AVT</t>
+          <t>RD274AVT</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Радиатор двигателя TOYOTA CAMRY (11-16) 2.5-3.5i AT</t>
+          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i, 2.0i AT</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -12988,7 +12988,7 @@
         </is>
       </c>
       <c r="D483" t="n">
-        <v>7470</v>
+        <v>8366</v>
       </c>
       <c r="E483" t="n">
         <v>10</v>
@@ -13000,12 +13000,12 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>RD050AVT</t>
+          <t>RD207AVT</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota LC200 (08-) 4.5D</t>
+          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i, 2.0i MT</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -13014,7 +13014,7 @@
         </is>
       </c>
       <c r="D484" t="n">
-        <v>12649</v>
+        <v>7973</v>
       </c>
       <c r="E484" t="n">
         <v>10</v>
@@ -13026,12 +13026,12 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>RD050AVT</t>
+          <t>RD230AVT</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota LC200 (08-) 4.5D</t>
+          <t>Радиатор двигателя паяный Mitsubishi Outlander I (03-) 2.0i, 2.4i</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -13040,7 +13040,7 @@
         </is>
       </c>
       <c r="D485" t="n">
-        <v>12649</v>
+        <v>6593</v>
       </c>
       <c r="E485" t="n">
         <v>10</v>
@@ -13052,12 +13052,12 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>RD010AVT</t>
+          <t>RD211AVT</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota RAV 4 (06-&gt;)/RAV 4 (13-&gt;) 2.0i MT/AT (сборный)</t>
+          <t>Радиатор двигателя паяный Nissan Almera Classic B10 (06-) 1.6i</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -13066,7 +13066,7 @@
         </is>
       </c>
       <c r="D486" t="n">
-        <v>5429</v>
+        <v>5980</v>
       </c>
       <c r="E486" t="n">
         <v>10</v>
@@ -13078,12 +13078,12 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>RD006AVT</t>
+          <t>RD264AVT</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Радиатор двигателя VW Polo Sedan (10-)/(20-)/Skoda Rapid (12-)/(20-) (сборный)</t>
+          <t>Радиатор двигателя паяный Nissan X-Trail T30 (01-) 2.0i, 2.5i</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -13092,7 +13092,7 @@
         </is>
       </c>
       <c r="D487" t="n">
-        <v>3888</v>
+        <v>5741</v>
       </c>
       <c r="E487" t="n">
         <v>10</v>
@@ -13104,12 +13104,12 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>RD221AVT</t>
+          <t>RD205AVT</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Audi A4/А6 (94-) 1.6i, 1.8i, 1.9TDi, 1.8T</t>
+          <t>Радиатор двигателя паяный Skoda Octavia/Kodiaq A7 (13-) 1.2TSi, 1.4TSi, 1.6TDi, 2.0TDi</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -13118,7 +13118,7 @@
         </is>
       </c>
       <c r="D488" t="n">
-        <v>6386</v>
+        <v>5630</v>
       </c>
       <c r="E488" t="n">
         <v>10</v>
@@ -13130,12 +13130,12 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>RD302AVT</t>
+          <t>RD217AVT</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Ford Ranger (98-) 2.5TDi</t>
+          <t>Радиатор двигателя паяный Suzuki SX4 I (06-) 1.6i</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -13144,7 +13144,7 @@
         </is>
       </c>
       <c r="D489" t="n">
-        <v>6724</v>
+        <v>7183</v>
       </c>
       <c r="E489" t="n">
         <v>10</v>
@@ -13156,12 +13156,12 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>RD220AVT</t>
+          <t>RD059AVT</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Honda CR-V III (06-) 2.0i</t>
+          <t>Радиатор двигателя паяный VW PASSAT B6 / B7 JETTA III /IV / TIGUAN / TOURAN / SKODA OCTAVIA II / SUP</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -13170,7 +13170,7 @@
         </is>
       </c>
       <c r="D490" t="n">
-        <v>6842</v>
+        <v>6286</v>
       </c>
       <c r="E490" t="n">
         <v>10</v>
@@ -13182,12 +13182,12 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>RD225AVT</t>
+          <t>RD250AVT</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Hyundai Santa Fe II (06-) 2.2CRDi</t>
+          <t>Радиатор двигателя сборный Chevrolet Rezzo (00-) 1.6i, 1.8i</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="D491" t="n">
-        <v>8759</v>
+        <v>5549</v>
       </c>
       <c r="E491" t="n">
         <v>10</v>
@@ -13208,12 +13208,12 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>RD274AVT</t>
+          <t>RD012AVT</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i, 2.0i AT</t>
+          <t>Радиатор двигателя сборный VW Jetta (05)/(11-)/Skoda Octavia A5 (04-)</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -13222,7 +13222,7 @@
         </is>
       </c>
       <c r="D492" t="n">
-        <v>8366</v>
+        <v>4106</v>
       </c>
       <c r="E492" t="n">
         <v>10</v>
@@ -13234,12 +13234,12 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>RD207AVT</t>
+          <t>735634AVT</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i, 2.0i MT</t>
+          <t>Радиатор Рено Логан II</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -13248,7 +13248,7 @@
         </is>
       </c>
       <c r="D493" t="n">
-        <v>7973</v>
+        <v>3834</v>
       </c>
       <c r="E493" t="n">
         <v>10</v>
@@ -13260,12 +13260,12 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>RD230AVT</t>
+          <t>438544AVT</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Mitsubishi Outlander I (03-) 2.0i, 2.4i</t>
+          <t>Стартер Renault Arkana</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -13274,7 +13274,7 @@
         </is>
       </c>
       <c r="D494" t="n">
-        <v>6593</v>
+        <v>6600</v>
       </c>
       <c r="E494" t="n">
         <v>10</v>
@@ -13286,12 +13286,12 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>RD211AVT</t>
+          <t>438545AVT</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Nissan Almera Classic B10 (06-) 1.6i</t>
+          <t>Стартер Toyota Camry / Rav4</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -13300,7 +13300,7 @@
         </is>
       </c>
       <c r="D495" t="n">
-        <v>5980</v>
+        <v>6600</v>
       </c>
       <c r="E495" t="n">
         <v>10</v>
@@ -13312,12 +13312,12 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>RD264AVT</t>
+          <t>438285AVT</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Nissan X-Trail T30 (01-) 2.0i, 2.5i</t>
+          <t>Стартер Гранта МКПП</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -13326,7 +13326,7 @@
         </is>
       </c>
       <c r="D496" t="n">
-        <v>5741</v>
+        <v>5820</v>
       </c>
       <c r="E496" t="n">
         <v>10</v>
@@ -13338,12 +13338,12 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>RD205AVT</t>
+          <t>438327AVT</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Skoda Octavia/Kodiaq A7 (13-) 1.2TSi, 1.4TSi, 1.6TDi, 2.0TDi</t>
+          <t>Стартер Рено F4R</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -13352,7 +13352,7 @@
         </is>
       </c>
       <c r="D497" t="n">
-        <v>5630</v>
+        <v>8400</v>
       </c>
       <c r="E497" t="n">
         <v>10</v>
@@ -13364,12 +13364,12 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>RD217AVT</t>
+          <t>438324AVT</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Suzuki SX4 I (06-) 1.6i</t>
+          <t>Стартер Рено H4M</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -13378,7 +13378,7 @@
         </is>
       </c>
       <c r="D498" t="n">
-        <v>7183</v>
+        <v>5964</v>
       </c>
       <c r="E498" t="n">
         <v>10</v>
@@ -13390,12 +13390,12 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>RD059AVT</t>
+          <t>438328AVT</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный VW PASSAT B6 / B7 JETTA III /IV / TIGUAN / TOURAN / SKODA OCTAVIA II / SUP</t>
+          <t>Стартер Рено K4M</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -13404,7 +13404,7 @@
         </is>
       </c>
       <c r="D499" t="n">
-        <v>6286</v>
+        <v>7200</v>
       </c>
       <c r="E499" t="n">
         <v>10</v>
@@ -13416,12 +13416,12 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>RD250AVT</t>
+          <t>438328AVT</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Радиатор двигателя сборный Chevrolet Rezzo (00-) 1.6i, 1.8i</t>
+          <t>Стартер Рено K4M</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -13430,7 +13430,7 @@
         </is>
       </c>
       <c r="D500" t="n">
-        <v>5549</v>
+        <v>7200</v>
       </c>
       <c r="E500" t="n">
         <v>10</v>
@@ -13442,12 +13442,12 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>RD012AVT</t>
+          <t>FC001AVT</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Радиатор двигателя сборный VW Jetta (05)/(11-)/Skoda Octavia A5 (04-)</t>
+          <t>Фильтр отопителя LADA VESTA</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -13456,7 +13456,7 @@
         </is>
       </c>
       <c r="D501" t="n">
-        <v>4106</v>
+        <v>420</v>
       </c>
       <c r="E501" t="n">
         <v>10</v>
@@ -13468,12 +13468,12 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>735634AVT</t>
+          <t>252.5215900-14</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Радиатор Рено Логан II</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 350 мм</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -13482,7 +13482,7 @@
         </is>
       </c>
       <c r="D502" t="n">
-        <v>3834</v>
+        <v>518</v>
       </c>
       <c r="E502" t="n">
         <v>10</v>
@@ -13494,12 +13494,12 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>438544AVT</t>
+          <t>252.5215900-16</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Стартер Renault Arkana</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 400 мм</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -13508,7 +13508,7 @@
         </is>
       </c>
       <c r="D503" t="n">
-        <v>6600</v>
+        <v>552</v>
       </c>
       <c r="E503" t="n">
         <v>10</v>
@@ -13520,12 +13520,12 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>438545AVT</t>
+          <t>252.5215900-17</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Стартер Toyota Camry / Rav4</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 430 мм</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -13534,7 +13534,7 @@
         </is>
       </c>
       <c r="D504" t="n">
-        <v>6600</v>
+        <v>552</v>
       </c>
       <c r="E504" t="n">
         <v>10</v>
@@ -13546,12 +13546,12 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>438285AVT</t>
+          <t>252.5215900-18</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Стартер Гранта МКПП</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 450 мм</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -13560,7 +13560,7 @@
         </is>
       </c>
       <c r="D505" t="n">
-        <v>5820</v>
+        <v>552</v>
       </c>
       <c r="E505" t="n">
         <v>10</v>
@@ -13572,12 +13572,12 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>438327AVT</t>
+          <t>252.5215900-20</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Стартер Рено F4R</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 500 мм</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="D506" t="n">
-        <v>8400</v>
+        <v>582</v>
       </c>
       <c r="E506" t="n">
         <v>10</v>
@@ -13598,12 +13598,12 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>438324AVT</t>
+          <t>252.5215900-22</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Стартер Рено H4M</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 550 мм</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -13612,7 +13612,7 @@
         </is>
       </c>
       <c r="D507" t="n">
-        <v>5964</v>
+        <v>582</v>
       </c>
       <c r="E507" t="n">
         <v>10</v>
@@ -13624,12 +13624,12 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>438328AVT</t>
+          <t>252.5215900-24</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Стартер Рено K4M</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 600 мм</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -13638,7 +13638,7 @@
         </is>
       </c>
       <c r="D508" t="n">
-        <v>7200</v>
+        <v>641</v>
       </c>
       <c r="E508" t="n">
         <v>10</v>
@@ -13650,12 +13650,12 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>438328AVT</t>
+          <t>252.5215900-26</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Стартер Рено K4M</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 650 мм</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -13664,7 +13664,7 @@
         </is>
       </c>
       <c r="D509" t="n">
-        <v>7200</v>
+        <v>672</v>
       </c>
       <c r="E509" t="n">
         <v>10</v>
@@ -13676,12 +13676,12 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>FC001AVT</t>
+          <t>25.5215900-13</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Фильтр отопителя LADA VESTA</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 330 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -13690,7 +13690,7 @@
         </is>
       </c>
       <c r="D510" t="n">
-        <v>420</v>
+        <v>299</v>
       </c>
       <c r="E510" t="n">
         <v>10</v>
@@ -13702,12 +13702,12 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>252.5215900-14</t>
+          <t>25.5215900-14</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 350 мм</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 350 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -13716,7 +13716,7 @@
         </is>
       </c>
       <c r="D511" t="n">
-        <v>518</v>
+        <v>299</v>
       </c>
       <c r="E511" t="n">
         <v>10</v>
@@ -13728,12 +13728,12 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>252.5215900-16</t>
+          <t>25.5215900-16</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 400 мм</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 400 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -13742,7 +13742,7 @@
         </is>
       </c>
       <c r="D512" t="n">
-        <v>552</v>
+        <v>334</v>
       </c>
       <c r="E512" t="n">
         <v>10</v>
@@ -13754,12 +13754,12 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>252.5215900-17</t>
+          <t>25.5215900-17</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 430 мм</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 430 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -13768,7 +13768,7 @@
         </is>
       </c>
       <c r="D513" t="n">
-        <v>552</v>
+        <v>334</v>
       </c>
       <c r="E513" t="n">
         <v>10</v>
@@ -13780,12 +13780,12 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>252.5215900-18</t>
+          <t>25.5215900-18</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 450 мм</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 450 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -13794,7 +13794,7 @@
         </is>
       </c>
       <c r="D514" t="n">
-        <v>552</v>
+        <v>334</v>
       </c>
       <c r="E514" t="n">
         <v>10</v>
@@ -13806,12 +13806,12 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>252.5215900-20</t>
+          <t>25.5215900-19</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 500 мм</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 480 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -13820,7 +13820,7 @@
         </is>
       </c>
       <c r="D515" t="n">
-        <v>582</v>
+        <v>334</v>
       </c>
       <c r="E515" t="n">
         <v>10</v>
@@ -13832,12 +13832,12 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>252.5215900-22</t>
+          <t>25.5215900-20</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 550 мм</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 500 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="D516" t="n">
-        <v>582</v>
+        <v>352</v>
       </c>
       <c r="E516" t="n">
         <v>10</v>
@@ -13858,12 +13858,12 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>252.5215900-24</t>
+          <t>25.5215900-21</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 600 мм</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 530 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -13872,7 +13872,7 @@
         </is>
       </c>
       <c r="D517" t="n">
-        <v>641</v>
+        <v>352</v>
       </c>
       <c r="E517" t="n">
         <v>10</v>
@@ -13884,12 +13884,12 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>252.5215900-26</t>
+          <t>25.5215900-22</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 650 мм</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 550 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -13898,7 +13898,7 @@
         </is>
       </c>
       <c r="D518" t="n">
-        <v>672</v>
+        <v>352</v>
       </c>
       <c r="E518" t="n">
         <v>10</v>
@@ -13910,12 +13910,12 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>25.5215900-13</t>
+          <t>25.5215900-24</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 330 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 600 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -13924,7 +13924,7 @@
         </is>
       </c>
       <c r="D519" t="n">
-        <v>299</v>
+        <v>386</v>
       </c>
       <c r="E519" t="n">
         <v>10</v>
@@ -13936,12 +13936,12 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>25.5215900-14</t>
+          <t>25.5215900-26</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 350 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 650 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -13950,7 +13950,7 @@
         </is>
       </c>
       <c r="D520" t="n">
-        <v>299</v>
+        <v>406</v>
       </c>
       <c r="E520" t="n">
         <v>10</v>
@@ -13962,12 +13962,12 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>25.5215900-16</t>
+          <t>25.5215900-28</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 400 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 700 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -13976,7 +13976,7 @@
         </is>
       </c>
       <c r="D521" t="n">
-        <v>334</v>
+        <v>406</v>
       </c>
       <c r="E521" t="n">
         <v>10</v>
@@ -13988,12 +13988,12 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>25.5215900-17</t>
+          <t>СЛ136Е-5205900-01</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 430 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, каркасная, 410 мм, тип крепления "Hook" ("Крюк") и "Bayonet" ("Штыковой замо</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -14002,7 +14002,7 @@
         </is>
       </c>
       <c r="D522" t="n">
-        <v>334</v>
+        <v>144</v>
       </c>
       <c r="E522" t="n">
         <v>10</v>
@@ -14014,12 +14014,12 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>25.5215900-18</t>
+          <t>23.5215900-01</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 450 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, каркасная, 475 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -14028,7 +14028,7 @@
         </is>
       </c>
       <c r="D523" t="n">
-        <v>334</v>
+        <v>144</v>
       </c>
       <c r="E523" t="n">
         <v>10</v>
@@ -14040,12 +14040,12 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>25.5215900-19</t>
+          <t>49.5205900-01</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 480 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, каркасная, 500 мм, тип крепления "Hook" ("Крюк") и "Bayonet" ("Штыковой замо</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -14054,7 +14054,7 @@
         </is>
       </c>
       <c r="D524" t="n">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="E524" t="n">
         <v>10</v>
@@ -14066,12 +14066,12 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>25.5215900-20</t>
+          <t>731.5205900-01</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 500 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, каркасная, 525 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -14080,7 +14080,7 @@
         </is>
       </c>
       <c r="D525" t="n">
-        <v>352</v>
+        <v>287</v>
       </c>
       <c r="E525" t="n">
         <v>10</v>
@@ -14092,12 +14092,12 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>25.5215900-21</t>
+          <t>11.5215900-01</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 530 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, каркасная, 550 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -14106,7 +14106,7 @@
         </is>
       </c>
       <c r="D526" t="n">
-        <v>352</v>
+        <v>295</v>
       </c>
       <c r="E526" t="n">
         <v>10</v>
@@ -14118,12 +14118,12 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>25.5215900-22</t>
+          <t>93.5205900-01</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 550 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, каркасная, 600 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -14132,7 +14132,7 @@
         </is>
       </c>
       <c r="D527" t="n">
-        <v>352</v>
+        <v>144</v>
       </c>
       <c r="E527" t="n">
         <v>10</v>
@@ -14144,12 +14144,12 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>25.5215900-24</t>
+          <t>251.5215900-15</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 600 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 380 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -14158,7 +14158,7 @@
         </is>
       </c>
       <c r="D528" t="n">
-        <v>386</v>
+        <v>426</v>
       </c>
       <c r="E528" t="n">
         <v>10</v>
@@ -14170,12 +14170,12 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>25.5215900-26</t>
+          <t>251.5215900-16</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 650 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 400 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -14184,7 +14184,7 @@
         </is>
       </c>
       <c r="D529" t="n">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="E529" t="n">
         <v>10</v>
@@ -14196,12 +14196,12 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>25.5215900-28</t>
+          <t>251.5215900-17</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 700 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 430 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -14210,7 +14210,7 @@
         </is>
       </c>
       <c r="D530" t="n">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="E530" t="n">
         <v>10</v>
@@ -14222,12 +14222,12 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>СЛ136Е-5205900-01</t>
+          <t>251.5215900-18</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 410 мм, тип крепления "Hook" ("Крюк") и "Bayonet" ("Штыковой замо</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 450 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -14236,7 +14236,7 @@
         </is>
       </c>
       <c r="D531" t="n">
-        <v>144</v>
+        <v>426</v>
       </c>
       <c r="E531" t="n">
         <v>10</v>
@@ -14248,12 +14248,12 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>23.5215900-01</t>
+          <t>251.5215900-19</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 475 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 480 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -14262,7 +14262,7 @@
         </is>
       </c>
       <c r="D532" t="n">
-        <v>144</v>
+        <v>426</v>
       </c>
       <c r="E532" t="n">
         <v>10</v>
@@ -14274,12 +14274,12 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>49.5205900-01</t>
+          <t>251.5215900-20</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 500 мм, тип крепления "Hook" ("Крюк") и "Bayonet" ("Штыковой замо</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 500 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -14288,7 +14288,7 @@
         </is>
       </c>
       <c r="D533" t="n">
-        <v>366</v>
+        <v>448</v>
       </c>
       <c r="E533" t="n">
         <v>10</v>
@@ -14300,12 +14300,12 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>731.5205900-01</t>
+          <t>251.5215900-24</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 525 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 600 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -14314,7 +14314,7 @@
         </is>
       </c>
       <c r="D534" t="n">
-        <v>287</v>
+        <v>492</v>
       </c>
       <c r="E534" t="n">
         <v>10</v>
@@ -14326,12 +14326,12 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>11.5215900-01</t>
+          <t>251.5215900-26</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 550 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 650 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -14340,7 +14340,7 @@
         </is>
       </c>
       <c r="D535" t="n">
-        <v>295</v>
+        <v>518</v>
       </c>
       <c r="E535" t="n">
         <v>10</v>
@@ -14352,12 +14352,12 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>93.5205900-01</t>
+          <t>595863AVT</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 600 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щеткодержатель стартера</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -14366,7 +14366,7 @@
         </is>
       </c>
       <c r="D536" t="n">
-        <v>144</v>
+        <v>720</v>
       </c>
       <c r="E536" t="n">
         <v>10</v>
@@ -14378,12 +14378,12 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>251.5215900-15</t>
+          <t>595863AVT</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 380 мм, в комплекте 9 адаптеров</t>
+          <t>Щеткодержатель стартера</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -14392,7 +14392,7 @@
         </is>
       </c>
       <c r="D537" t="n">
-        <v>426</v>
+        <v>720</v>
       </c>
       <c r="E537" t="n">
         <v>10</v>
@@ -14404,12 +14404,12 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>251.5215900-16</t>
+          <t>595845AVT</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 400 мм, в комплекте 9 адаптеров</t>
+          <t>Щеткодержатель стартера  LADA VESTA</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -14418,7 +14418,7 @@
         </is>
       </c>
       <c r="D538" t="n">
-        <v>426</v>
+        <v>720</v>
       </c>
       <c r="E538" t="n">
         <v>10</v>
@@ -14430,12 +14430,12 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>251.5215900-17</t>
+          <t>595845AVT</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 430 мм, в комплекте 9 адаптеров</t>
+          <t>Щеткодержатель стартера  LADA VESTA</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -14444,7 +14444,7 @@
         </is>
       </c>
       <c r="D539" t="n">
-        <v>426</v>
+        <v>720</v>
       </c>
       <c r="E539" t="n">
         <v>10</v>
@@ -14456,12 +14456,12 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>251.5215900-18</t>
+          <t>595842AVT</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 450 мм, в комплекте 9 адаптеров</t>
+          <t>Якорь стартера</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -14470,7 +14470,7 @@
         </is>
       </c>
       <c r="D540" t="n">
-        <v>426</v>
+        <v>1416</v>
       </c>
       <c r="E540" t="n">
         <v>10</v>
@@ -14482,12 +14482,12 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>251.5215900-19</t>
+          <t>BD027AVT</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 480 мм, в комплекте 9 адаптеров</t>
+          <t>Диск тормозной Kia Ceed (07-) / Cerato (09-) / Hyundai i30 (07-) передний</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -14496,24 +14496,24 @@
         </is>
       </c>
       <c r="D541" t="n">
-        <v>426</v>
+        <v>1949</v>
       </c>
       <c r="E541" t="n">
         <v>10</v>
       </c>
       <c r="F541" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>251.5215900-20</t>
+          <t>BD068AVT</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 500 мм, в комплекте 9 адаптеров</t>
+          <t>Диск тормозной Kia Sorento II (09-) задний</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -14522,24 +14522,24 @@
         </is>
       </c>
       <c r="D542" t="n">
-        <v>448</v>
+        <v>1909</v>
       </c>
       <c r="E542" t="n">
         <v>10</v>
       </c>
       <c r="F542" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>251.5215900-24</t>
+          <t>BD028AVT</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 600 мм, в комплекте 9 адаптеров</t>
+          <t>Диск тормозной Kia Sportage (10-) / Hyundai ix35 (10-) задний</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -14548,24 +14548,24 @@
         </is>
       </c>
       <c r="D543" t="n">
-        <v>492</v>
+        <v>1324</v>
       </c>
       <c r="E543" t="n">
         <v>10</v>
       </c>
       <c r="F543" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>251.5215900-26</t>
+          <t>BD045AVT</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 650 мм, в комплекте 9 адаптеров</t>
+          <t>Диск тормозной Kia Sportage III (10-) / Hyundai iX 35 (09-) задний</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -14574,24 +14574,24 @@
         </is>
       </c>
       <c r="D544" t="n">
-        <v>518</v>
+        <v>1459</v>
       </c>
       <c r="E544" t="n">
         <v>10</v>
       </c>
       <c r="F544" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>595863AVT</t>
+          <t>BD011AVT</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>Щеткодержатель стартера</t>
+          <t>Диск тормозной Lada Largus (12-) / Renault Logan (07-) передний (без ABS)</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -14600,24 +14600,24 @@
         </is>
       </c>
       <c r="D545" t="n">
-        <v>720</v>
+        <v>1451</v>
       </c>
       <c r="E545" t="n">
         <v>10</v>
       </c>
       <c r="F545" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>595863AVT</t>
+          <t>BD060AVT</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Щеткодержатель стартера</t>
+          <t>Диск тормозной Mazda 3 (03-) задний</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -14626,24 +14626,24 @@
         </is>
       </c>
       <c r="D546" t="n">
-        <v>720</v>
+        <v>1231</v>
       </c>
       <c r="E546" t="n">
         <v>10</v>
       </c>
       <c r="F546" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>595845AVT</t>
+          <t>BD059AVT</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Щеткодержатель стартера  LADA VESTA</t>
+          <t>Диск тормозной Mazda 3 (03-) передний</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -14652,65 +14652,13 @@
         </is>
       </c>
       <c r="D547" t="n">
-        <v>720</v>
+        <v>2041</v>
       </c>
       <c r="E547" t="n">
         <v>10</v>
       </c>
       <c r="F547" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" t="inlineStr">
-        <is>
-          <t>595845AVT</t>
-        </is>
-      </c>
-      <c r="B548" t="inlineStr">
-        <is>
-          <t>Щеткодержатель стартера  LADA VESTA</t>
-        </is>
-      </c>
-      <c r="C548" t="inlineStr">
-        <is>
-          <t>AVTOPRIBOR</t>
-        </is>
-      </c>
-      <c r="D548" t="n">
-        <v>720</v>
-      </c>
-      <c r="E548" t="n">
-        <v>10</v>
-      </c>
-      <c r="F548" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" t="inlineStr">
-        <is>
-          <t>595842AVT</t>
-        </is>
-      </c>
-      <c r="B549" t="inlineStr">
-        <is>
-          <t>Якорь стартера</t>
-        </is>
-      </c>
-      <c r="C549" t="inlineStr">
-        <is>
-          <t>AVTOPRIBOR</t>
-        </is>
-      </c>
-      <c r="D549" t="n">
-        <v>1416</v>
-      </c>
-      <c r="E549" t="n">
-        <v>10</v>
-      </c>
-      <c r="F549" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/price_for_emex.xlsx
+++ b/price_for_emex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F547"/>
+  <dimension ref="A1:F549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9100,12 +9100,12 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>BD081AVT</t>
+          <t>BD027AVT</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi ASX (10-) / Outlander III / Peugeot 4008 / Citroen C4 Aircross (12-) задни</t>
+          <t>Диск тормозной Kia Ceed (07-) / Cerato (09-) / Hyundai i30 (07-) передний</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -9114,7 +9114,7 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>1757</v>
+        <v>1949</v>
       </c>
       <c r="E334" t="n">
         <v>10</v>
@@ -9126,12 +9126,12 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>BD051AVT</t>
+          <t>BD068AVT</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi Lancer (00-) задний</t>
+          <t>Диск тормозной Kia Sorento II (09-) задний</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -9140,7 +9140,7 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>1262</v>
+        <v>1909</v>
       </c>
       <c r="E335" t="n">
         <v>10</v>
@@ -9152,12 +9152,12 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>BD053AVT</t>
+          <t>BD028AVT</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi Lancer (00-) передний</t>
+          <t>Диск тормозной Kia Sportage (10-) / Hyundai ix35 (10-) задний</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -9166,7 +9166,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>1860</v>
+        <v>1324</v>
       </c>
       <c r="E336" t="n">
         <v>10</v>
@@ -9178,12 +9178,12 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>BD074AVT</t>
+          <t>BD045AVT</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi Lancer (08-) задний</t>
+          <t>Диск тормозной Kia Sportage III (10-) / Hyundai iX 35 (09-) задний</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -9192,7 +9192,7 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>1393</v>
+        <v>1459</v>
       </c>
       <c r="E337" t="n">
         <v>10</v>
@@ -9204,12 +9204,12 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>BD048AVT</t>
+          <t>BD031AVT</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi Outlander (06-) передний</t>
+          <t>Диск тормозной Kia Sportage III (10-) / Hyundai ix35 (10-) / Creta (16-) передний</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -9218,7 +9218,7 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>2027</v>
+        <v>2431</v>
       </c>
       <c r="E338" t="n">
         <v>10</v>
@@ -9230,12 +9230,12 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>BD026AVT</t>
+          <t>BD031AVT</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Диск тормозной Nexia (95-) / Lanos (05-) передний</t>
+          <t>Диск тормозной Kia Sportage III (10-) / Hyundai ix35 (10-) / Creta (16-) передний</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="D339" t="n">
-        <v>1398</v>
+        <v>2431</v>
       </c>
       <c r="E339" t="n">
         <v>10</v>
@@ -9256,12 +9256,12 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>BD079AVT</t>
+          <t>BD011AVT</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Almera Classic (06-) передний</t>
+          <t>Диск тормозной Lada Largus (12-) / Renault Logan (07-) передний (без ABS)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -9270,7 +9270,7 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>1254</v>
+        <v>1451</v>
       </c>
       <c r="E340" t="n">
         <v>10</v>
@@ -9282,12 +9282,12 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>BD038AVT</t>
+          <t>BD060AVT</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Juke (10-) задний</t>
+          <t>Диск тормозной Mazda 3 (03-) задний</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="D341" t="n">
-        <v>1578</v>
+        <v>1231</v>
       </c>
       <c r="E341" t="n">
         <v>10</v>
@@ -9308,12 +9308,12 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>BD020AVT</t>
+          <t>BD059AVT</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) задний</t>
+          <t>Диск тормозной Mazda 3 (03-) передний</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -9322,7 +9322,7 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>1664</v>
+        <v>2041</v>
       </c>
       <c r="E342" t="n">
         <v>10</v>
@@ -9334,12 +9334,12 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>BD019AVT</t>
+          <t>BD081AVT</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) передний</t>
+          <t>Диск тормозной Mitsubishi ASX (10-) / Outlander III / Peugeot 4008 / Citroen C4 Aircross (12-) задни</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -9348,7 +9348,7 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>2299</v>
+        <v>1757</v>
       </c>
       <c r="E343" t="n">
         <v>10</v>
@@ -9360,12 +9360,12 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>BD019AVT</t>
+          <t>BD051AVT</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) передний</t>
+          <t>Диск тормозной Mitsubishi Lancer (00-) задний</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -9374,7 +9374,7 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>2299</v>
+        <v>1262</v>
       </c>
       <c r="E344" t="n">
         <v>10</v>
@@ -9386,12 +9386,12 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>BD058AVT</t>
+          <t>BD053AVT</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Qashqai II (13-) / X-Trail (14-) передний</t>
+          <t>Диск тормозной Mitsubishi Lancer (00-) передний</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -9400,7 +9400,7 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>2034</v>
+        <v>1860</v>
       </c>
       <c r="E345" t="n">
         <v>10</v>
@@ -9412,12 +9412,12 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>BD025AVT</t>
+          <t>BD074AVT</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Диск тормозной Opel Astra H (04-) передний</t>
+          <t>Диск тормозной Mitsubishi Lancer (08-) задний</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>1860</v>
+        <v>1393</v>
       </c>
       <c r="E346" t="n">
         <v>10</v>
@@ -9438,12 +9438,12 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>BD024AVT</t>
+          <t>BD048AVT</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Диск тормозной Opel Astra J (10-) / Chevrolet Cruze (09-) задний</t>
+          <t>Диск тормозной Mitsubishi Outlander (06-) передний</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -9452,7 +9452,7 @@
         </is>
       </c>
       <c r="D347" t="n">
-        <v>1507</v>
+        <v>2027</v>
       </c>
       <c r="E347" t="n">
         <v>10</v>
@@ -9464,12 +9464,12 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>BD034AVT</t>
+          <t>BD026AVT</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Диск тормозной Peugeot 307 (00-) / 308 (07-) / Citroen C4 (04-) передний</t>
+          <t>Диск тормозной Nexia (95-) / Lanos (05-) передний</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -9478,7 +9478,7 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>1940</v>
+        <v>1398</v>
       </c>
       <c r="E348" t="n">
         <v>10</v>
@@ -9490,12 +9490,12 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>BD069AVT</t>
+          <t>BD079AVT</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Диск тормозной Peugeot Partner / Citroen Berlingo (96-) передний</t>
+          <t>Диск тормозной Nissan Almera Classic (06-) передний</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -9504,7 +9504,7 @@
         </is>
       </c>
       <c r="D349" t="n">
-        <v>1325</v>
+        <v>1254</v>
       </c>
       <c r="E349" t="n">
         <v>10</v>
@@ -9516,12 +9516,12 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>BD023AVT</t>
+          <t>BD038AVT</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Duster (10-) / Arkana (19-)</t>
+          <t>Диск тормозной Nissan Juke (10-) задний</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -9530,7 +9530,7 @@
         </is>
       </c>
       <c r="D350" t="n">
-        <v>2221</v>
+        <v>1578</v>
       </c>
       <c r="E350" t="n">
         <v>10</v>
@@ -9542,12 +9542,12 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>BD023AVT</t>
+          <t>BD020AVT</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Duster (10-) / Arkana (19-)</t>
+          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) задний</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -9556,7 +9556,7 @@
         </is>
       </c>
       <c r="D351" t="n">
-        <v>2221</v>
+        <v>1664</v>
       </c>
       <c r="E351" t="n">
         <v>10</v>
@@ -9568,12 +9568,12 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>BD061AVT</t>
+          <t>BD019AVT</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Koleos (08-) передний</t>
+          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) передний</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -9582,7 +9582,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>2723</v>
+        <v>2299</v>
       </c>
       <c r="E352" t="n">
         <v>10</v>
@@ -9594,12 +9594,12 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>BD004AVT</t>
+          <t>BD019AVT</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Logan (04-) передний</t>
+          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) передний</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -9608,7 +9608,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>1370</v>
+        <v>2299</v>
       </c>
       <c r="E353" t="n">
         <v>10</v>
@@ -9620,12 +9620,12 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>BD004AVT</t>
+          <t>BD058AVT</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Logan (04-) передний</t>
+          <t>Диск тормозной Nissan Qashqai II (13-) / X-Trail (14-) передний</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -9634,7 +9634,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>1370</v>
+        <v>2034</v>
       </c>
       <c r="E354" t="n">
         <v>10</v>
@@ -9646,12 +9646,12 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>BD010AVT</t>
+          <t>BD025AVT</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Logan (04-) передний (без ABS)</t>
+          <t>Диск тормозной Opel Astra H (04-) передний</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -9660,7 +9660,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>997</v>
+        <v>1860</v>
       </c>
       <c r="E355" t="n">
         <v>10</v>
@@ -9672,12 +9672,12 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>BD012AVT</t>
+          <t>BD024AVT</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Octavia (04-) / VW Golf V (03-) задний</t>
+          <t>Диск тормозной Opel Astra J (10-) / Chevrolet Cruze (09-) задний</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -9686,7 +9686,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>1234</v>
+        <v>1507</v>
       </c>
       <c r="E356" t="n">
         <v>10</v>
@@ -9698,12 +9698,12 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>BD016AVT</t>
+          <t>BD034AVT</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Octavia (04-) / VW Golf V (03-) передний</t>
+          <t>Диск тормозной Peugeot 307 (00-) / 308 (07-) / Citroen C4 (04-) передний</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -9712,7 +9712,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>1789</v>
+        <v>1940</v>
       </c>
       <c r="E357" t="n">
         <v>10</v>
@@ -9724,12 +9724,12 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>BD008AVT</t>
+          <t>BD069AVT</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Octavia (13-) / VW Golf VII (12-) задний</t>
+          <t>Диск тормозной Peugeot Partner / Citroen Berlingo (96-) передний</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -9738,7 +9738,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="E358" t="n">
         <v>10</v>
@@ -9750,12 +9750,12 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>BD063AVT</t>
+          <t>BD023AVT</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Octavia (96-) / VW Golf IV (97-) передний</t>
+          <t>Диск тормозной Renault Duster (10-) / Arkana (19-)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -9764,7 +9764,7 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>1729</v>
+        <v>2221</v>
       </c>
       <c r="E359" t="n">
         <v>10</v>
@@ -9776,12 +9776,12 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>BD007AVT</t>
+          <t>BD023AVT</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Yeti (09-) передний</t>
+          <t>Диск тормозной Renault Duster (10-) / Arkana (19-)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -9790,7 +9790,7 @@
         </is>
       </c>
       <c r="D360" t="n">
-        <v>2183</v>
+        <v>2221</v>
       </c>
       <c r="E360" t="n">
         <v>10</v>
@@ -9802,12 +9802,12 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>BD064AVT</t>
+          <t>BD061AVT</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Диск тормозной SsangYong Kyron (05-) задний</t>
+          <t>Диск тормозной Renault Koleos (08-) передний</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -9816,7 +9816,7 @@
         </is>
       </c>
       <c r="D361" t="n">
-        <v>1950</v>
+        <v>2723</v>
       </c>
       <c r="E361" t="n">
         <v>10</v>
@@ -9828,12 +9828,12 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>BD070AVT</t>
+          <t>BD004AVT</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Диск тормозной Suzuki Grand Vitara (05-) передний</t>
+          <t>Диск тормозной Renault Logan (04-) передний</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -9842,7 +9842,7 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>1757</v>
+        <v>1370</v>
       </c>
       <c r="E362" t="n">
         <v>10</v>
@@ -9854,12 +9854,12 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>BD083AVT</t>
+          <t>BD004AVT</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Диск тормозной Tank 300 передний</t>
+          <t>Диск тормозной Renault Logan (04-) передний</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -9868,7 +9868,7 @@
         </is>
       </c>
       <c r="D363" t="n">
-        <v>3834</v>
+        <v>1370</v>
       </c>
       <c r="E363" t="n">
         <v>10</v>
@@ -9880,12 +9880,12 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>BD083AVT</t>
+          <t>BD010AVT</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Диск тормозной Tank 300 передний</t>
+          <t>Диск тормозной Renault Logan (04-) передний (без ABS)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -9894,7 +9894,7 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>3834</v>
+        <v>997</v>
       </c>
       <c r="E364" t="n">
         <v>10</v>
@@ -9906,12 +9906,12 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>BD082AVT</t>
+          <t>BD012AVT</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Диск тормозной Tank 500 передний</t>
+          <t>Диск тормозной Skoda Octavia (04-) / VW Golf V (03-) задний</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -9920,7 +9920,7 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>4511</v>
+        <v>1234</v>
       </c>
       <c r="E365" t="n">
         <v>10</v>
@@ -9932,12 +9932,12 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>BD017AVT</t>
+          <t>BD016AVT</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Camry (06-) / RAV 4 (06-) передний</t>
+          <t>Диск тормозной Skoda Octavia (04-) / VW Golf V (03-) передний</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>2334</v>
+        <v>1789</v>
       </c>
       <c r="E366" t="n">
         <v>10</v>
@@ -9958,12 +9958,12 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>BD017AVT</t>
+          <t>BD008AVT</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Camry (06-) / RAV 4 (06-) передний</t>
+          <t>Диск тормозной Skoda Octavia (13-) / VW Golf VII (12-) задний</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -9972,7 +9972,7 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>2334</v>
+        <v>1326</v>
       </c>
       <c r="E367" t="n">
         <v>10</v>
@@ -9984,12 +9984,12 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>BD044AVT</t>
+          <t>BD063AVT</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Camry (06-) задний</t>
+          <t>Диск тормозной Skoda Octavia (96-) / VW Golf IV (97-) передний</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -9998,7 +9998,7 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>1597</v>
+        <v>1729</v>
       </c>
       <c r="E368" t="n">
         <v>10</v>
@@ -10010,12 +10010,12 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>BD036AVT</t>
+          <t>BD007AVT</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Corolla (06-) / Auris (06-) задний</t>
+          <t>Диск тормозной Skoda Yeti (09-) передний</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -10024,7 +10024,7 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>1127</v>
+        <v>2183</v>
       </c>
       <c r="E369" t="n">
         <v>10</v>
@@ -10036,12 +10036,12 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>BD035AVT</t>
+          <t>BD064AVT</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Corolla (06-) / Auris (06-) передний</t>
+          <t>Диск тормозной SsangYong Kyron (05-) задний</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -10050,7 +10050,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>1699</v>
+        <v>1950</v>
       </c>
       <c r="E370" t="n">
         <v>10</v>
@@ -10062,12 +10062,12 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>BD071AVT</t>
+          <t>BD070AVT</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota LC 200 (07-) задний</t>
+          <t>Диск тормозной Suzuki Grand Vitara (05-) передний</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -10076,7 +10076,7 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>2298</v>
+        <v>1757</v>
       </c>
       <c r="E371" t="n">
         <v>10</v>
@@ -10088,12 +10088,12 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>BD052AVT</t>
+          <t>BD083AVT</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota LC 200 (07-) передний</t>
+          <t>Диск тормозной Tank 300 передний</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -10102,7 +10102,7 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>2939</v>
+        <v>3834</v>
       </c>
       <c r="E372" t="n">
         <v>10</v>
@@ -10114,12 +10114,12 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>BD066AVT</t>
+          <t>BD083AVT</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota LC Prado (09-) передний</t>
+          <t>Диск тормозной Tank 300 передний</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -10128,7 +10128,7 @@
         </is>
       </c>
       <c r="D373" t="n">
-        <v>3275</v>
+        <v>3834</v>
       </c>
       <c r="E373" t="n">
         <v>10</v>
@@ -10140,12 +10140,12 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>BD029AVT</t>
+          <t>BD082AVT</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota RAV 4 (06-) / RAV 4 (13-) задний</t>
+          <t>Диск тормозной Tank 500 передний</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -10154,7 +10154,7 @@
         </is>
       </c>
       <c r="D374" t="n">
-        <v>1684</v>
+        <v>4511</v>
       </c>
       <c r="E374" t="n">
         <v>10</v>
@@ -10166,12 +10166,12 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>BD065AVT</t>
+          <t>BD017AVT</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Диск тормозной Volvo XC 70 (07-) / S60 (10-) / S80 (06-) передний</t>
+          <t>Диск тормозной Toyota Camry (06-) / RAV 4 (06-) передний</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -10180,7 +10180,7 @@
         </is>
       </c>
       <c r="D375" t="n">
-        <v>2572</v>
+        <v>2334</v>
       </c>
       <c r="E375" t="n">
         <v>10</v>
@@ -10192,12 +10192,12 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>BD047AVT</t>
+          <t>BD017AVT</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Passat (96-) задний</t>
+          <t>Диск тормозной Toyota Camry (06-) / RAV 4 (06-) передний</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -10206,7 +10206,7 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>1218</v>
+        <v>2334</v>
       </c>
       <c r="E376" t="n">
         <v>10</v>
@@ -10218,12 +10218,12 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>BD072AVT</t>
+          <t>BD044AVT</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Passat (96-) передний</t>
+          <t>Диск тормозной Toyota Camry (06-) задний</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -10232,7 +10232,7 @@
         </is>
       </c>
       <c r="D377" t="n">
-        <v>1788</v>
+        <v>1597</v>
       </c>
       <c r="E377" t="n">
         <v>10</v>
@@ -10244,12 +10244,12 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>BD009AVT</t>
+          <t>BD036AVT</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Polo Sedan (10-) передний d.286,8</t>
+          <t>Диск тормозной Toyota Corolla (06-) / Auris (06-) задний</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -10258,7 +10258,7 @@
         </is>
       </c>
       <c r="D378" t="n">
-        <v>2159</v>
+        <v>1127</v>
       </c>
       <c r="E378" t="n">
         <v>10</v>
@@ -10270,12 +10270,12 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>BD014AVT</t>
+          <t>BD035AVT</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Tiguan (07-) задний</t>
+          <t>Диск тормозной Toyota Corolla (06-) / Auris (06-) передний</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -10284,7 +10284,7 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>1496</v>
+        <v>1699</v>
       </c>
       <c r="E379" t="n">
         <v>10</v>
@@ -10296,12 +10296,12 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>BD003AVT</t>
+          <t>BD071AVT</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Tiguan (07-) передний</t>
+          <t>Диск тормозной Toyota LC 200 (07-) задний</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -10310,7 +10310,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>2494</v>
+        <v>2298</v>
       </c>
       <c r="E380" t="n">
         <v>10</v>
@@ -10322,12 +10322,12 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>BD043AVT</t>
+          <t>BD052AVT</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Tiguan (16-) / Skoda Kodiaq (16-) задний</t>
+          <t>Диск тормозной Toyota LC 200 (07-) передний</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -10336,7 +10336,7 @@
         </is>
       </c>
       <c r="D381" t="n">
-        <v>1879</v>
+        <v>2939</v>
       </c>
       <c r="E381" t="n">
         <v>10</v>
@@ -10348,12 +10348,12 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>832198AVT</t>
+          <t>BD066AVT</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Комплект сцепления LADA Largus (корзина+диск) для 21809</t>
+          <t>Диск тормозной Toyota LC Prado (09-) передний</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -10362,24 +10362,24 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>12000</v>
+        <v>3275</v>
       </c>
       <c r="E382" t="n">
         <v>10</v>
       </c>
       <c r="F382" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>832198AVT</t>
+          <t>BD029AVT</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Комплект сцепления LADA Largus (корзина+диск) для 21809</t>
+          <t>Диск тормозной Toyota RAV 4 (06-) / RAV 4 (13-) задний</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -10388,24 +10388,24 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>12000</v>
+        <v>1684</v>
       </c>
       <c r="E383" t="n">
         <v>10</v>
       </c>
       <c r="F383" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>832290AVT</t>
+          <t>BD065AVT</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Комплект сцепления LADA Largus с подшипником для LADA Vesta / X-RAY 1.8 (коробка робот)</t>
+          <t>Диск тормозной Volvo XC 70 (07-) / S60 (10-) / S80 (06-) передний</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -10414,24 +10414,24 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>6120</v>
+        <v>2572</v>
       </c>
       <c r="E384" t="n">
         <v>10</v>
       </c>
       <c r="F384" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>832290AVT</t>
+          <t>BD047AVT</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Комплект сцепления LADA Largus с подшипником для LADA Vesta / X-RAY 1.8 (коробка робот)</t>
+          <t>Диск тормозной VW Passat (96-) задний</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -10440,24 +10440,24 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>6120</v>
+        <v>1218</v>
       </c>
       <c r="E385" t="n">
         <v>10</v>
       </c>
       <c r="F385" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>826787AVT</t>
+          <t>BD072AVT</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Комплект сцепления без подшипника Chevrolet Lacetti (04-)</t>
+          <t>Диск тормозной VW Passat (96-) передний</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -10466,24 +10466,24 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>5111</v>
+        <v>1788</v>
       </c>
       <c r="E386" t="n">
         <v>10</v>
       </c>
       <c r="F386" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>826853AVT</t>
+          <t>BD009AVT</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Комплект сцепления без подшипника Renault Logan (08-)</t>
+          <t>Диск тормозной VW Polo Sedan (10-) передний d.286,8</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -10492,24 +10492,24 @@
         </is>
       </c>
       <c r="D387" t="n">
-        <v>3703</v>
+        <v>2159</v>
       </c>
       <c r="E387" t="n">
         <v>10</v>
       </c>
       <c r="F387" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>3495AVT</t>
+          <t>BD014AVT</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником 2107</t>
+          <t>Диск тормозной VW Tiguan (07-) задний</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -10518,24 +10518,24 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>4656</v>
+        <v>1496</v>
       </c>
       <c r="E388" t="n">
         <v>10</v>
       </c>
       <c r="F388" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>801122AVT</t>
+          <t>BD003AVT</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником 2109</t>
+          <t>Диск тормозной VW Tiguan (07-) передний</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -10544,24 +10544,24 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>4656</v>
+        <v>2494</v>
       </c>
       <c r="E389" t="n">
         <v>10</v>
       </c>
       <c r="F389" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>826222AVT</t>
+          <t>BD043AVT</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником 2110</t>
+          <t>Диск тормозной VW Tiguan (16-) / Skoda Kodiaq (16-) задний</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -10570,24 +10570,24 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>5172</v>
+        <v>1879</v>
       </c>
       <c r="E390" t="n">
         <v>10</v>
       </c>
       <c r="F390" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>826222AVT</t>
+          <t>832198AVT</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником 2110</t>
+          <t>Комплект сцепления LADA Largus (корзина+диск) для 21809</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>5172</v>
+        <v>12000</v>
       </c>
       <c r="E391" t="n">
         <v>10</v>
@@ -10608,12 +10608,12 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>826245AVT</t>
+          <t>832198AVT</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Citroen C3 (03-) 1.1-1.4 (05-)</t>
+          <t>Комплект сцепления LADA Largus (корзина+диск) для 21809</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -10622,10 +10622,10 @@
         </is>
       </c>
       <c r="D392" t="n">
-        <v>3112</v>
+        <v>12000</v>
       </c>
       <c r="E392" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F392" t="n">
         <v>1</v>
@@ -10634,12 +10634,12 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>826568AVT</t>
+          <t>832290AVT</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Daewoo Matiz (01-)</t>
+          <t>Комплект сцепления LADA Largus с подшипником для LADA Vesta / X-RAY 1.8 (коробка робот)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -10648,7 +10648,7 @@
         </is>
       </c>
       <c r="D393" t="n">
-        <v>3259</v>
+        <v>6120</v>
       </c>
       <c r="E393" t="n">
         <v>10</v>
@@ -10660,12 +10660,12 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>821098AVT</t>
+          <t>832290AVT</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Daewoo Nexia (95-)</t>
+          <t>Комплект сцепления LADA Largus с подшипником для LADA Vesta / X-RAY 1.8 (коробка робот)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -10674,7 +10674,7 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>3667</v>
+        <v>6120</v>
       </c>
       <c r="E394" t="n">
         <v>10</v>
@@ -10686,12 +10686,12 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>826298AVT</t>
+          <t>826787AVT</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником GAZ 3110 / 3302 (ZMZ 402 / 406)</t>
+          <t>Комплект сцепления без подшипника Chevrolet Lacetti (04-)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -10700,7 +10700,7 @@
         </is>
       </c>
       <c r="D395" t="n">
-        <v>4516</v>
+        <v>5111</v>
       </c>
       <c r="E395" t="n">
         <v>10</v>
@@ -10712,12 +10712,12 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>826298AVT</t>
+          <t>826853AVT</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником GAZ 3110 / 3302 (ZMZ 402 / 406)</t>
+          <t>Комплект сцепления без подшипника Renault Logan (08-)</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -10726,7 +10726,7 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>4516</v>
+        <v>3703</v>
       </c>
       <c r="E396" t="n">
         <v>10</v>
@@ -10738,12 +10738,12 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>826995AVT</t>
+          <t>3495AVT</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Hyundai Solaris I (10-)</t>
+          <t>Комплект сцепления с подшипником 2107</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -10752,7 +10752,7 @@
         </is>
       </c>
       <c r="D397" t="n">
-        <v>4223</v>
+        <v>4656</v>
       </c>
       <c r="E397" t="n">
         <v>10</v>
@@ -10764,12 +10764,12 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>826995AVT</t>
+          <t>801122AVT</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Hyundai Solaris I (10-)</t>
+          <t>Комплект сцепления с подшипником 2109</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -10778,7 +10778,7 @@
         </is>
       </c>
       <c r="D398" t="n">
-        <v>4223</v>
+        <v>4656</v>
       </c>
       <c r="E398" t="n">
         <v>10</v>
@@ -10790,12 +10790,12 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>826299AVT</t>
+          <t>826222AVT</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Hyundai Sonata IV (98-) 2.0</t>
+          <t>Комплект сцепления с подшипником 2110</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -10804,10 +10804,10 @@
         </is>
       </c>
       <c r="D399" t="n">
-        <v>8519</v>
+        <v>5172</v>
       </c>
       <c r="E399" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F399" t="n">
         <v>1</v>
@@ -10816,12 +10816,12 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>801515AVT</t>
+          <t>826222AVT</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Nissan Almera N16 (00-04) 1.5</t>
+          <t>Комплект сцепления с подшипником 2110</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -10830,7 +10830,7 @@
         </is>
       </c>
       <c r="D400" t="n">
-        <v>4482</v>
+        <v>5172</v>
       </c>
       <c r="E400" t="n">
         <v>10</v>
@@ -10842,12 +10842,12 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>826211AVT</t>
+          <t>826245AVT</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 306 (97-) / Partner (96-) 1.4-1.6</t>
+          <t>Комплект сцепления с подшипником Citroen C3 (03-) 1.1-1.4 (05-)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -10856,10 +10856,10 @@
         </is>
       </c>
       <c r="D401" t="n">
-        <v>3830</v>
+        <v>3112</v>
       </c>
       <c r="E401" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F401" t="n">
         <v>1</v>
@@ -10868,12 +10868,12 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>821340AVT</t>
+          <t>826568AVT</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 307 (00-) 1.1-1.4</t>
+          <t>Комплект сцепления с подшипником Daewoo Matiz (01-)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -10882,7 +10882,7 @@
         </is>
       </c>
       <c r="D402" t="n">
-        <v>3912</v>
+        <v>3259</v>
       </c>
       <c r="E402" t="n">
         <v>10</v>
@@ -10894,12 +10894,12 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>826213AVT</t>
+          <t>821098AVT</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Peugeot 307 (00-)</t>
+          <t>Комплект сцепления с подшипником Daewoo Nexia (95-)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -10908,7 +10908,7 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>3749</v>
+        <v>3667</v>
       </c>
       <c r="E403" t="n">
         <v>10</v>
@@ -10920,12 +10920,12 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>821183AVT</t>
+          <t>826298AVT</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Renault Logan (04-)</t>
+          <t>Комплект сцепления с подшипником GAZ 3110 / 3302 (ZMZ 402 / 406)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -10934,7 +10934,7 @@
         </is>
       </c>
       <c r="D404" t="n">
-        <v>3830</v>
+        <v>4516</v>
       </c>
       <c r="E404" t="n">
         <v>10</v>
@@ -10946,12 +10946,12 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>826577AVT</t>
+          <t>826298AVT</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Renault Logan I 1.4 (04-)</t>
+          <t>Комплект сцепления с подшипником GAZ 3110 / 3302 (ZMZ 402 / 406)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -10960,7 +10960,7 @@
         </is>
       </c>
       <c r="D405" t="n">
-        <v>4662</v>
+        <v>4516</v>
       </c>
       <c r="E405" t="n">
         <v>10</v>
@@ -10972,12 +10972,12 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>828009AVT</t>
+          <t>826995AVT</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником UAZ 3151 / 3160 (ZMZ 409)</t>
+          <t>Комплект сцепления с подшипником Hyundai Solaris I (10-)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -10986,7 +10986,7 @@
         </is>
       </c>
       <c r="D406" t="n">
-        <v>5112</v>
+        <v>4223</v>
       </c>
       <c r="E406" t="n">
         <v>10</v>
@@ -10998,12 +10998,12 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>828009AVT</t>
+          <t>826995AVT</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником UAZ 3151 / 3160 (ZMZ 409)</t>
+          <t>Комплект сцепления с подшипником Hyundai Solaris I (10-)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -11012,7 +11012,7 @@
         </is>
       </c>
       <c r="D407" t="n">
-        <v>5112</v>
+        <v>4223</v>
       </c>
       <c r="E407" t="n">
         <v>10</v>
@@ -11024,12 +11024,12 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>826326AVT</t>
+          <t>826299AVT</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником VW Polo Sedan (10-)</t>
+          <t>Комплект сцепления с подшипником Hyundai Sonata IV (98-) 2.0</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -11038,10 +11038,10 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>5297</v>
+        <v>8519</v>
       </c>
       <c r="E408" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F408" t="n">
         <v>1</v>
@@ -11050,12 +11050,12 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>826474AVT</t>
+          <t>801515AVT</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Нива</t>
+          <t>Комплект сцепления с подшипником Nissan Almera N16 (00-04) 1.5</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -11064,7 +11064,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>7272</v>
+        <v>4482</v>
       </c>
       <c r="E409" t="n">
         <v>10</v>
@@ -11076,12 +11076,12 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>828003AVT</t>
+          <t>826211AVT</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Приора</t>
+          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 306 (97-) / Partner (96-) 1.4-1.6</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -11090,10 +11090,10 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>5544</v>
+        <v>3830</v>
       </c>
       <c r="E410" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F410" t="n">
         <v>1</v>
@@ -11102,12 +11102,12 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>828003AVT</t>
+          <t>821340AVT</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Приора</t>
+          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 307 (00-) 1.1-1.4</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -11116,7 +11116,7 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>5544</v>
+        <v>3912</v>
       </c>
       <c r="E411" t="n">
         <v>10</v>
@@ -11128,12 +11128,12 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>CD044AVT</t>
+          <t>826213AVT</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.0</t>
+          <t>Комплект сцепления с подшипником Peugeot 307 (00-)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -11142,7 +11142,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>5124</v>
+        <v>3749</v>
       </c>
       <c r="E412" t="n">
         <v>10</v>
@@ -11154,12 +11154,12 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>CD046AVT</t>
+          <t>821183AVT</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.2</t>
+          <t>Комплект сцепления с подшипником Renault Logan (04-)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -11168,7 +11168,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>5364</v>
+        <v>3830</v>
       </c>
       <c r="E413" t="n">
         <v>10</v>
@@ -11180,12 +11180,12 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>CD036AVT</t>
+          <t>826577AVT</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Конденсор Chevrolet Aveo T300 (11-) 1.2-1.6</t>
+          <t>Комплект сцепления с подшипником Renault Logan I 1.4 (04-)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -11194,7 +11194,7 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>4404</v>
+        <v>4662</v>
       </c>
       <c r="E414" t="n">
         <v>10</v>
@@ -11206,12 +11206,12 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>CD047AVT</t>
+          <t>828009AVT</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Конденсор Chevrolet Captiva / Opel Antara (06-) 2.0-2.2D</t>
+          <t>Комплект сцепления с подшипником UAZ 3151 / 3160 (ZMZ 409)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -11220,7 +11220,7 @@
         </is>
       </c>
       <c r="D415" t="n">
-        <v>4788</v>
+        <v>5112</v>
       </c>
       <c r="E415" t="n">
         <v>10</v>
@@ -11232,12 +11232,12 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>CD048AVT</t>
+          <t>828009AVT</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Конденсор Chevrolet Cruze / Opel Astra J (09-) 1.4-1.8</t>
+          <t>Комплект сцепления с подшипником UAZ 3151 / 3160 (ZMZ 409)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="D416" t="n">
-        <v>3900</v>
+        <v>5112</v>
       </c>
       <c r="E416" t="n">
         <v>10</v>
@@ -11258,12 +11258,12 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>CD033AVT</t>
+          <t>826326AVT</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Конденсор Ford Focus II (05-) / Volvo S40 (04-) 1.4-2.0</t>
+          <t>Комплект сцепления с подшипником VW Polo Sedan (10-)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -11272,7 +11272,7 @@
         </is>
       </c>
       <c r="D417" t="n">
-        <v>4044</v>
+        <v>5297</v>
       </c>
       <c r="E417" t="n">
         <v>10</v>
@@ -11284,12 +11284,12 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>CD037AVT</t>
+          <t>826474AVT</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Конденсор Ford Mondeo (07-) / Volvo XC60 (08-) / XC70 (07-) / S80 (06-) 1.6-2.5</t>
+          <t>Комплект сцепления с подшипником Нива</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -11298,7 +11298,7 @@
         </is>
       </c>
       <c r="D418" t="n">
-        <v>5388</v>
+        <v>7272</v>
       </c>
       <c r="E418" t="n">
         <v>10</v>
@@ -11310,12 +11310,12 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>CD038AVT</t>
+          <t>828003AVT</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Конденсор Hyundai Accent II (99-) MT 1.3-1.6</t>
+          <t>Комплект сцепления с подшипником Приора</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -11324,7 +11324,7 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>3708</v>
+        <v>5544</v>
       </c>
       <c r="E419" t="n">
         <v>10</v>
@@ -11336,12 +11336,12 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>CD039AVT</t>
+          <t>828003AVT</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Конденсор Hyundai Tucson (15-) / Kia Sportage (16-) 1.6-2.0</t>
+          <t>Комплект сцепления с подшипником Приора</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -11350,7 +11350,7 @@
         </is>
       </c>
       <c r="D420" t="n">
-        <v>5856</v>
+        <v>5544</v>
       </c>
       <c r="E420" t="n">
         <v>10</v>
@@ -11362,12 +11362,12 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>CD045AVT</t>
+          <t>CD044AVT</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Конденсор Mazda 3 (09-) 1.6-2.5</t>
+          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.0</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -11376,7 +11376,7 @@
         </is>
       </c>
       <c r="D421" t="n">
-        <v>5220</v>
+        <v>5124</v>
       </c>
       <c r="E421" t="n">
         <v>10</v>
@@ -11388,12 +11388,12 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>CD041AVT</t>
+          <t>CD046AVT</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Конденсор Mitsubishi Outlander (12-) 2.0-2.4</t>
+          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.2</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -11402,7 +11402,7 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>4428</v>
+        <v>5364</v>
       </c>
       <c r="E422" t="n">
         <v>10</v>
@@ -11414,12 +11414,12 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>CD042AVT</t>
+          <t>CD036AVT</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Конденсор Nissan Note (06-) / Tiida (04-) / Juke (10-) 1.2-1.6</t>
+          <t>Конденсор Chevrolet Aveo T300 (11-) 1.2-1.6</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -11428,7 +11428,7 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>4248</v>
+        <v>4404</v>
       </c>
       <c r="E423" t="n">
         <v>10</v>
@@ -11440,12 +11440,12 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>CD043AVT</t>
+          <t>CD047AVT</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Конденсор Opel Astra H (04-) 1.4-1.8</t>
+          <t>Конденсор Chevrolet Captiva / Opel Antara (06-) 2.0-2.2D</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -11454,7 +11454,7 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>4692</v>
+        <v>4788</v>
       </c>
       <c r="E424" t="n">
         <v>10</v>
@@ -11466,12 +11466,12 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>CD034AVT</t>
+          <t>CD048AVT</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Конденсор Skoda Kodiaq (16-) / Skoda Octavia A7 (13-) / VW Tiguan (16-) 1.2-2.0</t>
+          <t>Конденсор Chevrolet Cruze / Opel Astra J (09-) 1.4-1.8</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -11480,7 +11480,7 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>5292</v>
+        <v>3900</v>
       </c>
       <c r="E425" t="n">
         <v>10</v>
@@ -11492,12 +11492,12 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>CD035AVT</t>
+          <t>CD033AVT</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Конденсор Skoda Octavia A5 (04-) / VW Golf V (03-) 1.6-2.0</t>
+          <t>Конденсор Ford Focus II (05-) / Volvo S40 (04-) 1.4-2.0</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>5136</v>
+        <v>4044</v>
       </c>
       <c r="E426" t="n">
         <v>10</v>
@@ -11518,12 +11518,12 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>836383AVT</t>
+          <t>CD037AVT</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Одномассовый маховик HYUNDAI SOLARIS 17-</t>
+          <t>Конденсор Ford Mondeo (07-) / Volvo XC60 (08-) / XC70 (07-) / S80 (06-) 1.6-2.5</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -11532,10 +11532,10 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>6000</v>
+        <v>5388</v>
       </c>
       <c r="E427" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F427" t="n">
         <v>1</v>
@@ -11544,12 +11544,12 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>836365AVT</t>
+          <t>CD038AVT</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
+          <t>Конденсор Hyundai Accent II (99-) MT 1.3-1.6</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -11558,7 +11558,7 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>3300</v>
+        <v>3708</v>
       </c>
       <c r="E428" t="n">
         <v>10</v>
@@ -11570,12 +11570,12 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>836365AVT</t>
+          <t>CD039AVT</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
+          <t>Конденсор Hyundai Tucson (15-) / Kia Sportage (16-) 1.6-2.0</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -11584,7 +11584,7 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>3300</v>
+        <v>5856</v>
       </c>
       <c r="E429" t="n">
         <v>10</v>
@@ -11596,12 +11596,12 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>804295AVT</t>
+          <t>CD045AVT</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Подшипник выжимной 2101-2107</t>
+          <t>Конденсор Mazda 3 (09-) 1.6-2.5</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -11610,7 +11610,7 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>1070</v>
+        <v>5220</v>
       </c>
       <c r="E430" t="n">
         <v>10</v>
@@ -11622,12 +11622,12 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>804036AVT</t>
+          <t>CD041AVT</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Подшипник выжимной CITROEN/PEUGEOT</t>
+          <t>Конденсор Mitsubishi Outlander (12-) 2.0-2.4</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -11636,7 +11636,7 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>696</v>
+        <v>4428</v>
       </c>
       <c r="E431" t="n">
         <v>10</v>
@@ -11648,12 +11648,12 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>804299AVT</t>
+          <t>CD042AVT</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Подшипник выжимной PSA</t>
+          <t>Конденсор Nissan Note (06-) / Tiida (04-) / Juke (10-) 1.2-1.6</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -11662,7 +11662,7 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>720</v>
+        <v>4248</v>
       </c>
       <c r="E432" t="n">
         <v>10</v>
@@ -11674,12 +11674,12 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>804587AVT</t>
+          <t>CD043AVT</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Подшипник гидравлический RENAULT DUSTER 1.6</t>
+          <t>Конденсор Opel Astra H (04-) 1.4-1.8</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -11688,7 +11688,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>7200</v>
+        <v>4692</v>
       </c>
       <c r="E433" t="n">
         <v>10</v>
@@ -11700,12 +11700,12 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>804544AVT</t>
+          <t>CD034AVT</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Подшипник гидравлический RENAULT/NISSAN</t>
+          <t>Конденсор Skoda Kodiaq (16-) / Skoda Octavia A7 (13-) / VW Tiguan (16-) 1.2-2.0</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -11714,7 +11714,7 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>5640</v>
+        <v>5292</v>
       </c>
       <c r="E434" t="n">
         <v>10</v>
@@ -11726,12 +11726,12 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>804544AVT</t>
+          <t>CD035AVT</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Подшипник гидравлический RENAULT/NISSAN</t>
+          <t>Конденсор Skoda Octavia A5 (04-) / VW Golf V (03-) 1.6-2.0</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -11740,7 +11740,7 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>5640</v>
+        <v>5136</v>
       </c>
       <c r="E435" t="n">
         <v>10</v>
@@ -11752,12 +11752,12 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>701514AVT</t>
+          <t>836383AVT</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Радиатор Веста / Икс-Рэй</t>
+          <t>Одномассовый маховик HYUNDAI SOLARIS 17-</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -11766,10 +11766,10 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>4212</v>
+        <v>6000</v>
       </c>
       <c r="E436" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F436" t="n">
         <v>1</v>
@@ -11778,12 +11778,12 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>RD204AVT</t>
+          <t>836365AVT</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Радиатор двигатель паяный Hyundai Solaris / KIA RIO II (17-) 1.4i / 1.6i</t>
+          <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -11792,7 +11792,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>5585</v>
+        <v>3300</v>
       </c>
       <c r="E437" t="n">
         <v>10</v>
@@ -11804,12 +11804,12 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>RD026AVT</t>
+          <t>836365AVT</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Радиатор двигателя BMW X5 (E70) (07-) 30d/3.0t AT (паяный)</t>
+          <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -11818,7 +11818,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>12251</v>
+        <v>3300</v>
       </c>
       <c r="E438" t="n">
         <v>10</v>
@@ -11830,12 +11830,12 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>RD008AVT</t>
+          <t>804295AVT</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Радиатор двигателя CHEVROLET CRUZE (09-) 1.6-1.8i / ORLANDO (10-) 1.8i MT</t>
+          <t>Подшипник выжимной 2101-2107</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -11844,7 +11844,7 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>5634</v>
+        <v>1070</v>
       </c>
       <c r="E439" t="n">
         <v>10</v>
@@ -11856,12 +11856,12 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>RD018AVT</t>
+          <t>804036AVT</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i AT</t>
+          <t>Подшипник выжимной CITROEN/PEUGEOT</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -11870,7 +11870,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>6371</v>
+        <v>696</v>
       </c>
       <c r="E440" t="n">
         <v>10</v>
@@ -11882,12 +11882,12 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>RD009AVT</t>
+          <t>804299AVT</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i MT</t>
+          <t>Подшипник выжимной PSA</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>5555</v>
+        <v>720</v>
       </c>
       <c r="E441" t="n">
         <v>10</v>
@@ -11908,12 +11908,12 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>RD011AVT</t>
+          <t>804587AVT</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Chevrolet Lacetti (04-) 1.4i/1.6i/1.8i MT (сборный)</t>
+          <t>Подшипник гидравлический RENAULT DUSTER 1.6</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -11922,7 +11922,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>4973</v>
+        <v>7200</v>
       </c>
       <c r="E442" t="n">
         <v>10</v>
@@ -11934,12 +11934,12 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>RD016AVT</t>
+          <t>804544AVT</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Daewoo Matiz (01-) 0.8i/1.0i MT (сборный)</t>
+          <t>Подшипник гидравлический RENAULT/NISSAN</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -11948,7 +11948,7 @@
         </is>
       </c>
       <c r="D443" t="n">
-        <v>2898</v>
+        <v>5640</v>
       </c>
       <c r="E443" t="n">
         <v>10</v>
@@ -11960,12 +11960,12 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>RD023AVT</t>
+          <t>804544AVT</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Daewoo Matiz (1998-) 0.8 MT (сборный)</t>
+          <t>Подшипник гидравлический RENAULT/NISSAN</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -11974,7 +11974,7 @@
         </is>
       </c>
       <c r="D444" t="n">
-        <v>3323</v>
+        <v>5640</v>
       </c>
       <c r="E444" t="n">
         <v>10</v>
@@ -11986,12 +11986,12 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>RD024AVT</t>
+          <t>701514AVT</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Радиатор двигателя DAEWOO MATIZ (98-) 0.8i AT</t>
+          <t>Радиатор Веста / Икс-Рэй</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -12000,7 +12000,7 @@
         </is>
       </c>
       <c r="D445" t="n">
-        <v>4207</v>
+        <v>4212</v>
       </c>
       <c r="E445" t="n">
         <v>10</v>
@@ -12012,12 +12012,12 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>RD015AVT</t>
+          <t>RD204AVT</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Daewoo Nexia (94-) 1.5/1.8 MT (сборный)</t>
+          <t>Радиатор двигатель паяный Hyundai Solaris / KIA RIO II (17-) 1.4i / 1.6i</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -12026,7 +12026,7 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>3204</v>
+        <v>5585</v>
       </c>
       <c r="E446" t="n">
         <v>10</v>
@@ -12038,12 +12038,12 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>RD040AVT</t>
+          <t>RD026AVT</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Радиатор двигателя FORD FIESTA / FUSION (01-) 1.2-1.6i MT / AT</t>
+          <t>Радиатор двигателя BMW X5 (E70) (07-) 30d/3.0t AT (паяный)</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -12052,7 +12052,7 @@
         </is>
       </c>
       <c r="D447" t="n">
-        <v>2821</v>
+        <v>12251</v>
       </c>
       <c r="E447" t="n">
         <v>10</v>
@@ -12064,12 +12064,12 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>RD004AVT</t>
+          <t>RD008AVT</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Ford Focus II (05-) A/C+ (сборный)</t>
+          <t>Радиатор двигателя CHEVROLET CRUZE (09-) 1.6-1.8i / ORLANDO (10-) 1.8i MT</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -12078,7 +12078,7 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>4726</v>
+        <v>5634</v>
       </c>
       <c r="E448" t="n">
         <v>10</v>
@@ -12090,12 +12090,12 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>RD048AVT</t>
+          <t>RD018AVT</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Радиатор двигателя FORD FOCUS III / C-MAX (11-) 1.6-2.0i MT / AT</t>
+          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i AT</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -12104,7 +12104,7 @@
         </is>
       </c>
       <c r="D449" t="n">
-        <v>6349</v>
+        <v>6371</v>
       </c>
       <c r="E449" t="n">
         <v>10</v>
@@ -12116,12 +12116,12 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>RD055AVT</t>
+          <t>RD009AVT</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Радиатор двигателя HYUNDAI SOLARIS (10-) / KIA RIO (10-) 1.4-1.6i 6AT</t>
+          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i MT</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -12130,7 +12130,7 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>4195</v>
+        <v>5555</v>
       </c>
       <c r="E450" t="n">
         <v>10</v>
@@ -12142,12 +12142,12 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>RD001AVT</t>
+          <t>RD011AVT</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Радиатор двигателя HYUNDAI SOLARIS (RB) / KIA RIO III (UB) (11-) 1.4-1.6i MT</t>
+          <t>Радиатор двигателя Chevrolet Lacetti (04-) 1.4i/1.6i/1.8i MT (сборный)</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -12156,7 +12156,7 @@
         </is>
       </c>
       <c r="D451" t="n">
-        <v>3139</v>
+        <v>4973</v>
       </c>
       <c r="E451" t="n">
         <v>10</v>
@@ -12168,12 +12168,12 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>RD002AVT</t>
+          <t>RD016AVT</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Hyundai Solaris / Kia Rio (10-&gt;) AT (сборный)</t>
+          <t>Радиатор двигателя Daewoo Matiz (01-) 0.8i/1.0i MT (сборный)</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -12182,7 +12182,7 @@
         </is>
       </c>
       <c r="D452" t="n">
-        <v>3203</v>
+        <v>2898</v>
       </c>
       <c r="E452" t="n">
         <v>10</v>
@@ -12194,12 +12194,12 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>RD057AVT</t>
+          <t>RD023AVT</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Радиатор двигателя HYUNDAI SOLARIS / KIA RIO (17-) 1.4-1.6i MT</t>
+          <t>Радиатор двигателя Daewoo Matiz (1998-) 0.8 MT (сборный)</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -12208,7 +12208,7 @@
         </is>
       </c>
       <c r="D453" t="n">
-        <v>3556</v>
+        <v>3323</v>
       </c>
       <c r="E453" t="n">
         <v>10</v>
@@ -12220,12 +12220,12 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>RD021AVT</t>
+          <t>RD024AVT</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA CEED (ED) (07-) 1.4-2.0i / HYUNDAI ELANTRA (HD) (06-) 1.6-2.0i / HYUNDAI i30</t>
+          <t>Радиатор двигателя DAEWOO MATIZ (98-) 0.8i AT</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -12234,7 +12234,7 @@
         </is>
       </c>
       <c r="D454" t="n">
-        <v>4904</v>
+        <v>4207</v>
       </c>
       <c r="E454" t="n">
         <v>10</v>
@@ -12246,12 +12246,12 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>RD056AVT</t>
+          <t>RD015AVT</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA CEED / HYUNDAI i30 / ELANTRA IV (06-) 1.4-2.0i AT</t>
+          <t>Радиатор двигателя Daewoo Nexia (94-) 1.5/1.8 MT (сборный)</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -12260,7 +12260,7 @@
         </is>
       </c>
       <c r="D455" t="n">
-        <v>6533</v>
+        <v>3204</v>
       </c>
       <c r="E455" t="n">
         <v>10</v>
@@ -12272,12 +12272,12 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>RD056AVT</t>
+          <t>RD040AVT</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA CEED / HYUNDAI i30 / ELANTRA IV (06-) 1.4-2.0i AT</t>
+          <t>Радиатор двигателя FORD FIESTA / FUSION (01-) 1.2-1.6i MT / AT</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -12286,7 +12286,7 @@
         </is>
       </c>
       <c r="D456" t="n">
-        <v>6533</v>
+        <v>2821</v>
       </c>
       <c r="E456" t="n">
         <v>10</v>
@@ -12298,12 +12298,12 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>RD087AVT</t>
+          <t>RD004AVT</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
+          <t>Радиатор двигателя Ford Focus II (05-) A/C+ (сборный)</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -12312,7 +12312,7 @@
         </is>
       </c>
       <c r="D457" t="n">
-        <v>7403</v>
+        <v>4726</v>
       </c>
       <c r="E457" t="n">
         <v>10</v>
@@ -12324,12 +12324,12 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>RD087AVT</t>
+          <t>RD048AVT</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
+          <t>Радиатор двигателя FORD FOCUS III / C-MAX (11-) 1.6-2.0i MT / AT</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -12338,7 +12338,7 @@
         </is>
       </c>
       <c r="D458" t="n">
-        <v>7403</v>
+        <v>6349</v>
       </c>
       <c r="E458" t="n">
         <v>10</v>
@@ -12350,12 +12350,12 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>RD062AVT</t>
+          <t>RD055AVT</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia Spectra (96-) 1.5-1.8 AT</t>
+          <t>Радиатор двигателя HYUNDAI SOLARIS (10-) / KIA RIO (10-) 1.4-1.6i 6AT</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -12364,7 +12364,7 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>5772</v>
+        <v>4195</v>
       </c>
       <c r="E459" t="n">
         <v>10</v>
@@ -12376,12 +12376,12 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>RD020AVT</t>
+          <t>RD001AVT</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i AT</t>
+          <t>Радиатор двигателя HYUNDAI SOLARIS (RB) / KIA RIO III (UB) (11-) 1.4-1.6i MT</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -12390,7 +12390,7 @@
         </is>
       </c>
       <c r="D460" t="n">
-        <v>6194</v>
+        <v>3139</v>
       </c>
       <c r="E460" t="n">
         <v>10</v>
@@ -12402,12 +12402,12 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>RD019AVT</t>
+          <t>RD002AVT</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i MT</t>
+          <t>Радиатор двигателя Hyundai Solaris / Kia Rio (10-&gt;) AT (сборный)</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -12416,7 +12416,7 @@
         </is>
       </c>
       <c r="D461" t="n">
-        <v>4888</v>
+        <v>3203</v>
       </c>
       <c r="E461" t="n">
         <v>10</v>
@@ -12428,12 +12428,12 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>RD028AVT</t>
+          <t>RD057AVT</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MB C (07-), E (-16), GLK (08-) 1.6-4.7i AT</t>
+          <t>Радиатор двигателя HYUNDAI SOLARIS / KIA RIO (17-) 1.4-1.6i MT</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -12442,7 +12442,7 @@
         </is>
       </c>
       <c r="D462" t="n">
-        <v>10615</v>
+        <v>3556</v>
       </c>
       <c r="E462" t="n">
         <v>10</v>
@@ -12454,12 +12454,12 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>RD029AVT</t>
+          <t>RD021AVT</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MB E (16-), GLC (15-), C (14-), S (13-) 2.0-4.0 MT / AT</t>
+          <t>Радиатор двигателя KIA CEED (ED) (07-) 1.4-2.0i / HYUNDAI ELANTRA (HD) (06-) 1.6-2.0i / HYUNDAI i30</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -12468,7 +12468,7 @@
         </is>
       </c>
       <c r="D463" t="n">
-        <v>12114</v>
+        <v>4904</v>
       </c>
       <c r="E463" t="n">
         <v>10</v>
@@ -12480,12 +12480,12 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>RD027AVT</t>
+          <t>RD056AVT</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MB ML (12-) GL, GLS, GLE (-18) 2.2-5.5i AT</t>
+          <t>Радиатор двигателя KIA CEED / HYUNDAI i30 / ELANTRA IV (06-) 1.4-2.0i AT</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -12494,7 +12494,7 @@
         </is>
       </c>
       <c r="D464" t="n">
-        <v>11959</v>
+        <v>6533</v>
       </c>
       <c r="E464" t="n">
         <v>10</v>
@@ -12506,12 +12506,12 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>RD005AVT</t>
+          <t>RD056AVT</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MITSUBISHI ASX (10-) 1.6-1.8i / OUTLANDER (07-) 2.0-2.4i / LANCER (07-) 1.5-2.0i</t>
+          <t>Радиатор двигателя KIA CEED / HYUNDAI i30 / ELANTRA IV (06-) 1.4-2.0i AT</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -12520,7 +12520,7 @@
         </is>
       </c>
       <c r="D465" t="n">
-        <v>4110</v>
+        <v>6533</v>
       </c>
       <c r="E465" t="n">
         <v>10</v>
@@ -12532,12 +12532,12 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>RD060AVT</t>
+          <t>RD087AVT</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MITSUBISHI OUTLANDER III (12-) 2.0-3.0i MT / AT</t>
+          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="D466" t="n">
-        <v>7210</v>
+        <v>7403</v>
       </c>
       <c r="E466" t="n">
         <v>10</v>
@@ -12558,12 +12558,12 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>RD017AVT</t>
+          <t>RD087AVT</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Радиатор двигателя NISSAN QASHQAI (J10) (07-) 1.6-2.0i MT / AT</t>
+          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -12572,7 +12572,7 @@
         </is>
       </c>
       <c r="D467" t="n">
-        <v>7289</v>
+        <v>7403</v>
       </c>
       <c r="E467" t="n">
         <v>10</v>
@@ -12584,12 +12584,12 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>RD063AVT</t>
+          <t>RD062AVT</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Nissan X-Trail (14-) 2.0-2.5</t>
+          <t>Радиатор двигателя Kia Spectra (96-) 1.5-1.8 AT</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -12598,7 +12598,7 @@
         </is>
       </c>
       <c r="D468" t="n">
-        <v>5864</v>
+        <v>5772</v>
       </c>
       <c r="E468" t="n">
         <v>10</v>
@@ -12610,12 +12610,12 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>RD014AVT</t>
+          <t>RD020AVT</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Радиатор двигателя OPEL ZAFIRA / ASTRA H (05-) 1.6-1.8i MT / AT</t>
+          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i AT</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -12624,7 +12624,7 @@
         </is>
       </c>
       <c r="D469" t="n">
-        <v>5726</v>
+        <v>6194</v>
       </c>
       <c r="E469" t="n">
         <v>10</v>
@@ -12636,12 +12636,12 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>RD003AVT</t>
+          <t>RD019AVT</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Renault Logan (04-) 1.4i/1.6i А/С+ (сборный)</t>
+          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i MT</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -12650,7 +12650,7 @@
         </is>
       </c>
       <c r="D470" t="n">
-        <v>2794</v>
+        <v>4888</v>
       </c>
       <c r="E470" t="n">
         <v>10</v>
@@ -12662,12 +12662,12 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>RD058AVT</t>
+          <t>RD028AVT</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Радиатор двигателя RENAULT LOGAN / SANDERO / SYMBOL (04-) 1.4-1.6i / Lada LARGUS K7M 1.6i (12-) MT /</t>
+          <t>Радиатор двигателя MB C (07-), E (-16), GLK (08-) 1.6-4.7i AT</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -12676,7 +12676,7 @@
         </is>
       </c>
       <c r="D471" t="n">
-        <v>2893</v>
+        <v>10615</v>
       </c>
       <c r="E471" t="n">
         <v>10</v>
@@ -12688,12 +12688,12 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>RD013AVT</t>
+          <t>RD029AVT</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Skoda Octavia A5 (04-)/VW Golf V (03-) (сборный)</t>
+          <t>Радиатор двигателя MB E (16-), GLC (15-), C (14-), S (13-) 2.0-4.0 MT / AT</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -12702,7 +12702,7 @@
         </is>
       </c>
       <c r="D472" t="n">
-        <v>4436</v>
+        <v>12114</v>
       </c>
       <c r="E472" t="n">
         <v>10</v>
@@ -12714,12 +12714,12 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>RD007AVT</t>
+          <t>RD027AVT</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Радиатор двигателя TOYOTA AURIS (E15) (07-) / (E18) (12-) 1.3-1.6i / AVENSIS (T27) (08-) 1.6-2.0i /</t>
+          <t>Радиатор двигателя MB ML (12-) GL, GLS, GLE (-18) 2.2-5.5i AT</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -12728,7 +12728,7 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>5714</v>
+        <v>11959</v>
       </c>
       <c r="E473" t="n">
         <v>10</v>
@@ -12740,12 +12740,12 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>RD025AVT</t>
+          <t>RD005AVT</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Радиатор двигателя TOYOTA CAMRY (11-16) 2.5-3.5i AT</t>
+          <t>Радиатор двигателя MITSUBISHI ASX (10-) 1.6-1.8i / OUTLANDER (07-) 2.0-2.4i / LANCER (07-) 1.5-2.0i</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -12754,7 +12754,7 @@
         </is>
       </c>
       <c r="D474" t="n">
-        <v>7470</v>
+        <v>4110</v>
       </c>
       <c r="E474" t="n">
         <v>10</v>
@@ -12766,12 +12766,12 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>RD050AVT</t>
+          <t>RD060AVT</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota LC200 (08-) 4.5D</t>
+          <t>Радиатор двигателя MITSUBISHI OUTLANDER III (12-) 2.0-3.0i MT / AT</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -12780,7 +12780,7 @@
         </is>
       </c>
       <c r="D475" t="n">
-        <v>12649</v>
+        <v>7210</v>
       </c>
       <c r="E475" t="n">
         <v>10</v>
@@ -12792,12 +12792,12 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>RD050AVT</t>
+          <t>RD017AVT</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota LC200 (08-) 4.5D</t>
+          <t>Радиатор двигателя NISSAN QASHQAI (J10) (07-) 1.6-2.0i MT / AT</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -12806,7 +12806,7 @@
         </is>
       </c>
       <c r="D476" t="n">
-        <v>12649</v>
+        <v>7289</v>
       </c>
       <c r="E476" t="n">
         <v>10</v>
@@ -12818,12 +12818,12 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>RD010AVT</t>
+          <t>RD063AVT</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota RAV 4 (06-&gt;)/RAV 4 (13-&gt;) 2.0i MT/AT (сборный)</t>
+          <t>Радиатор двигателя Nissan X-Trail (14-) 2.0-2.5</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -12832,7 +12832,7 @@
         </is>
       </c>
       <c r="D477" t="n">
-        <v>5429</v>
+        <v>5864</v>
       </c>
       <c r="E477" t="n">
         <v>10</v>
@@ -12844,12 +12844,12 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>RD006AVT</t>
+          <t>RD014AVT</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Радиатор двигателя VW Polo Sedan (10-)/(20-)/Skoda Rapid (12-)/(20-) (сборный)</t>
+          <t>Радиатор двигателя OPEL ZAFIRA / ASTRA H (05-) 1.6-1.8i MT / AT</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -12858,7 +12858,7 @@
         </is>
       </c>
       <c r="D478" t="n">
-        <v>3888</v>
+        <v>5726</v>
       </c>
       <c r="E478" t="n">
         <v>10</v>
@@ -12870,12 +12870,12 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>RD221AVT</t>
+          <t>RD003AVT</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Audi A4/А6 (94-) 1.6i, 1.8i, 1.9TDi, 1.8T</t>
+          <t>Радиатор двигателя Renault Logan (04-) 1.4i/1.6i А/С+ (сборный)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -12884,7 +12884,7 @@
         </is>
       </c>
       <c r="D479" t="n">
-        <v>6386</v>
+        <v>2794</v>
       </c>
       <c r="E479" t="n">
         <v>10</v>
@@ -12896,12 +12896,12 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>RD302AVT</t>
+          <t>RD058AVT</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Ford Ranger (98-) 2.5TDi</t>
+          <t>Радиатор двигателя RENAULT LOGAN / SANDERO / SYMBOL (04-) 1.4-1.6i / Lada LARGUS K7M 1.6i (12-) MT /</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -12910,7 +12910,7 @@
         </is>
       </c>
       <c r="D480" t="n">
-        <v>6724</v>
+        <v>2893</v>
       </c>
       <c r="E480" t="n">
         <v>10</v>
@@ -12922,12 +12922,12 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>RD220AVT</t>
+          <t>RD013AVT</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Honda CR-V III (06-) 2.0i</t>
+          <t>Радиатор двигателя Skoda Octavia A5 (04-)/VW Golf V (03-) (сборный)</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -12936,7 +12936,7 @@
         </is>
       </c>
       <c r="D481" t="n">
-        <v>6842</v>
+        <v>4436</v>
       </c>
       <c r="E481" t="n">
         <v>10</v>
@@ -12948,12 +12948,12 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>RD225AVT</t>
+          <t>RD007AVT</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Hyundai Santa Fe II (06-) 2.2CRDi</t>
+          <t>Радиатор двигателя TOYOTA AURIS (E15) (07-) / (E18) (12-) 1.3-1.6i / AVENSIS (T27) (08-) 1.6-2.0i /</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -12962,7 +12962,7 @@
         </is>
       </c>
       <c r="D482" t="n">
-        <v>8759</v>
+        <v>5714</v>
       </c>
       <c r="E482" t="n">
         <v>10</v>
@@ -12974,12 +12974,12 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>RD274AVT</t>
+          <t>RD025AVT</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i, 2.0i AT</t>
+          <t>Радиатор двигателя TOYOTA CAMRY (11-16) 2.5-3.5i AT</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -12988,7 +12988,7 @@
         </is>
       </c>
       <c r="D483" t="n">
-        <v>8366</v>
+        <v>7470</v>
       </c>
       <c r="E483" t="n">
         <v>10</v>
@@ -13000,12 +13000,12 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>RD207AVT</t>
+          <t>RD050AVT</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i, 2.0i MT</t>
+          <t>Радиатор двигателя Toyota LC200 (08-) 4.5D</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -13014,7 +13014,7 @@
         </is>
       </c>
       <c r="D484" t="n">
-        <v>7973</v>
+        <v>12649</v>
       </c>
       <c r="E484" t="n">
         <v>10</v>
@@ -13026,12 +13026,12 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>RD230AVT</t>
+          <t>RD050AVT</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Mitsubishi Outlander I (03-) 2.0i, 2.4i</t>
+          <t>Радиатор двигателя Toyota LC200 (08-) 4.5D</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -13040,7 +13040,7 @@
         </is>
       </c>
       <c r="D485" t="n">
-        <v>6593</v>
+        <v>12649</v>
       </c>
       <c r="E485" t="n">
         <v>10</v>
@@ -13052,12 +13052,12 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>RD211AVT</t>
+          <t>RD010AVT</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Nissan Almera Classic B10 (06-) 1.6i</t>
+          <t>Радиатор двигателя Toyota RAV 4 (06-&gt;)/RAV 4 (13-&gt;) 2.0i MT/AT (сборный)</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -13066,7 +13066,7 @@
         </is>
       </c>
       <c r="D486" t="n">
-        <v>5980</v>
+        <v>5429</v>
       </c>
       <c r="E486" t="n">
         <v>10</v>
@@ -13078,12 +13078,12 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>RD264AVT</t>
+          <t>RD006AVT</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Nissan X-Trail T30 (01-) 2.0i, 2.5i</t>
+          <t>Радиатор двигателя VW Polo Sedan (10-)/(20-)/Skoda Rapid (12-)/(20-) (сборный)</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -13092,7 +13092,7 @@
         </is>
       </c>
       <c r="D487" t="n">
-        <v>5741</v>
+        <v>3888</v>
       </c>
       <c r="E487" t="n">
         <v>10</v>
@@ -13104,12 +13104,12 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>RD205AVT</t>
+          <t>RD221AVT</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Skoda Octavia/Kodiaq A7 (13-) 1.2TSi, 1.4TSi, 1.6TDi, 2.0TDi</t>
+          <t>Радиатор двигателя паяный Audi A4/А6 (94-) 1.6i, 1.8i, 1.9TDi, 1.8T</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -13118,7 +13118,7 @@
         </is>
       </c>
       <c r="D488" t="n">
-        <v>5630</v>
+        <v>6386</v>
       </c>
       <c r="E488" t="n">
         <v>10</v>
@@ -13130,12 +13130,12 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>RD217AVT</t>
+          <t>RD302AVT</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Suzuki SX4 I (06-) 1.6i</t>
+          <t>Радиатор двигателя паяный Ford Ranger (98-) 2.5TDi</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -13144,7 +13144,7 @@
         </is>
       </c>
       <c r="D489" t="n">
-        <v>7183</v>
+        <v>6724</v>
       </c>
       <c r="E489" t="n">
         <v>10</v>
@@ -13156,12 +13156,12 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>RD059AVT</t>
+          <t>RD220AVT</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный VW PASSAT B6 / B7 JETTA III /IV / TIGUAN / TOURAN / SKODA OCTAVIA II / SUP</t>
+          <t>Радиатор двигателя паяный Honda CR-V III (06-) 2.0i</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -13170,7 +13170,7 @@
         </is>
       </c>
       <c r="D490" t="n">
-        <v>6286</v>
+        <v>6842</v>
       </c>
       <c r="E490" t="n">
         <v>10</v>
@@ -13182,12 +13182,12 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>RD250AVT</t>
+          <t>RD225AVT</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Радиатор двигателя сборный Chevrolet Rezzo (00-) 1.6i, 1.8i</t>
+          <t>Радиатор двигателя паяный Hyundai Santa Fe II (06-) 2.2CRDi</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="D491" t="n">
-        <v>5549</v>
+        <v>8759</v>
       </c>
       <c r="E491" t="n">
         <v>10</v>
@@ -13208,12 +13208,12 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>RD012AVT</t>
+          <t>RD274AVT</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Радиатор двигателя сборный VW Jetta (05)/(11-)/Skoda Octavia A5 (04-)</t>
+          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i, 2.0i AT</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -13222,7 +13222,7 @@
         </is>
       </c>
       <c r="D492" t="n">
-        <v>4106</v>
+        <v>8366</v>
       </c>
       <c r="E492" t="n">
         <v>10</v>
@@ -13234,12 +13234,12 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>735634AVT</t>
+          <t>RD207AVT</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Радиатор Рено Логан II</t>
+          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i, 2.0i MT</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -13248,7 +13248,7 @@
         </is>
       </c>
       <c r="D493" t="n">
-        <v>3834</v>
+        <v>7973</v>
       </c>
       <c r="E493" t="n">
         <v>10</v>
@@ -13260,12 +13260,12 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>438544AVT</t>
+          <t>RD230AVT</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Стартер Renault Arkana</t>
+          <t>Радиатор двигателя паяный Mitsubishi Outlander I (03-) 2.0i, 2.4i</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -13274,7 +13274,7 @@
         </is>
       </c>
       <c r="D494" t="n">
-        <v>6600</v>
+        <v>6593</v>
       </c>
       <c r="E494" t="n">
         <v>10</v>
@@ -13286,12 +13286,12 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>438545AVT</t>
+          <t>RD211AVT</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Стартер Toyota Camry / Rav4</t>
+          <t>Радиатор двигателя паяный Nissan Almera Classic B10 (06-) 1.6i</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -13300,7 +13300,7 @@
         </is>
       </c>
       <c r="D495" t="n">
-        <v>6600</v>
+        <v>5980</v>
       </c>
       <c r="E495" t="n">
         <v>10</v>
@@ -13312,12 +13312,12 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>438285AVT</t>
+          <t>RD264AVT</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Стартер Гранта МКПП</t>
+          <t>Радиатор двигателя паяный Nissan X-Trail T30 (01-) 2.0i, 2.5i</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -13326,7 +13326,7 @@
         </is>
       </c>
       <c r="D496" t="n">
-        <v>5820</v>
+        <v>5741</v>
       </c>
       <c r="E496" t="n">
         <v>10</v>
@@ -13338,12 +13338,12 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>438327AVT</t>
+          <t>RD205AVT</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Стартер Рено F4R</t>
+          <t>Радиатор двигателя паяный Skoda Octavia/Kodiaq A7 (13-) 1.2TSi, 1.4TSi, 1.6TDi, 2.0TDi</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -13352,7 +13352,7 @@
         </is>
       </c>
       <c r="D497" t="n">
-        <v>8400</v>
+        <v>5630</v>
       </c>
       <c r="E497" t="n">
         <v>10</v>
@@ -13364,12 +13364,12 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>438324AVT</t>
+          <t>RD217AVT</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Стартер Рено H4M</t>
+          <t>Радиатор двигателя паяный Suzuki SX4 I (06-) 1.6i</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -13378,7 +13378,7 @@
         </is>
       </c>
       <c r="D498" t="n">
-        <v>5964</v>
+        <v>7183</v>
       </c>
       <c r="E498" t="n">
         <v>10</v>
@@ -13390,12 +13390,12 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>438328AVT</t>
+          <t>RD059AVT</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Стартер Рено K4M</t>
+          <t>Радиатор двигателя паяный VW PASSAT B6 / B7 JETTA III /IV / TIGUAN / TOURAN / SKODA OCTAVIA II / SUP</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -13404,7 +13404,7 @@
         </is>
       </c>
       <c r="D499" t="n">
-        <v>7200</v>
+        <v>6286</v>
       </c>
       <c r="E499" t="n">
         <v>10</v>
@@ -13416,12 +13416,12 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>438328AVT</t>
+          <t>RD250AVT</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Стартер Рено K4M</t>
+          <t>Радиатор двигателя сборный Chevrolet Rezzo (00-) 1.6i, 1.8i</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -13430,7 +13430,7 @@
         </is>
       </c>
       <c r="D500" t="n">
-        <v>7200</v>
+        <v>5549</v>
       </c>
       <c r="E500" t="n">
         <v>10</v>
@@ -13442,12 +13442,12 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>FC001AVT</t>
+          <t>RD012AVT</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Фильтр отопителя LADA VESTA</t>
+          <t>Радиатор двигателя сборный VW Jetta (05)/(11-)/Skoda Octavia A5 (04-)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -13456,7 +13456,7 @@
         </is>
       </c>
       <c r="D501" t="n">
-        <v>420</v>
+        <v>4106</v>
       </c>
       <c r="E501" t="n">
         <v>10</v>
@@ -13468,12 +13468,12 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>252.5215900-14</t>
+          <t>735634AVT</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 350 мм</t>
+          <t>Радиатор Рено Логан II</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -13482,7 +13482,7 @@
         </is>
       </c>
       <c r="D502" t="n">
-        <v>518</v>
+        <v>3834</v>
       </c>
       <c r="E502" t="n">
         <v>10</v>
@@ -13494,12 +13494,12 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>252.5215900-16</t>
+          <t>438544AVT</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 400 мм</t>
+          <t>Стартер Renault Arkana</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -13508,7 +13508,7 @@
         </is>
       </c>
       <c r="D503" t="n">
-        <v>552</v>
+        <v>6600</v>
       </c>
       <c r="E503" t="n">
         <v>10</v>
@@ -13520,12 +13520,12 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>252.5215900-17</t>
+          <t>438545AVT</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 430 мм</t>
+          <t>Стартер Toyota Camry / Rav4</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -13534,7 +13534,7 @@
         </is>
       </c>
       <c r="D504" t="n">
-        <v>552</v>
+        <v>6600</v>
       </c>
       <c r="E504" t="n">
         <v>10</v>
@@ -13546,12 +13546,12 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>252.5215900-18</t>
+          <t>438285AVT</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 450 мм</t>
+          <t>Стартер Гранта МКПП</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -13560,7 +13560,7 @@
         </is>
       </c>
       <c r="D505" t="n">
-        <v>552</v>
+        <v>5820</v>
       </c>
       <c r="E505" t="n">
         <v>10</v>
@@ -13572,12 +13572,12 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>252.5215900-20</t>
+          <t>438327AVT</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 500 мм</t>
+          <t>Стартер Рено F4R</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="D506" t="n">
-        <v>582</v>
+        <v>8400</v>
       </c>
       <c r="E506" t="n">
         <v>10</v>
@@ -13598,12 +13598,12 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>252.5215900-22</t>
+          <t>438324AVT</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 550 мм</t>
+          <t>Стартер Рено H4M</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -13612,7 +13612,7 @@
         </is>
       </c>
       <c r="D507" t="n">
-        <v>582</v>
+        <v>5964</v>
       </c>
       <c r="E507" t="n">
         <v>10</v>
@@ -13624,12 +13624,12 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>252.5215900-24</t>
+          <t>438328AVT</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 600 мм</t>
+          <t>Стартер Рено K4M</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -13638,7 +13638,7 @@
         </is>
       </c>
       <c r="D508" t="n">
-        <v>641</v>
+        <v>7200</v>
       </c>
       <c r="E508" t="n">
         <v>10</v>
@@ -13650,12 +13650,12 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>252.5215900-26</t>
+          <t>438328AVT</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 650 мм</t>
+          <t>Стартер Рено K4M</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -13664,7 +13664,7 @@
         </is>
       </c>
       <c r="D509" t="n">
-        <v>672</v>
+        <v>7200</v>
       </c>
       <c r="E509" t="n">
         <v>10</v>
@@ -13676,12 +13676,12 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>25.5215900-13</t>
+          <t>FC001AVT</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 330 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Фильтр отопителя LADA VESTA</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -13690,7 +13690,7 @@
         </is>
       </c>
       <c r="D510" t="n">
-        <v>299</v>
+        <v>420</v>
       </c>
       <c r="E510" t="n">
         <v>10</v>
@@ -13702,12 +13702,12 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>25.5215900-14</t>
+          <t>252.5215900-14</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 350 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 350 мм</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -13716,7 +13716,7 @@
         </is>
       </c>
       <c r="D511" t="n">
-        <v>299</v>
+        <v>518</v>
       </c>
       <c r="E511" t="n">
         <v>10</v>
@@ -13728,12 +13728,12 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>25.5215900-16</t>
+          <t>252.5215900-16</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 400 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 400 мм</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -13742,7 +13742,7 @@
         </is>
       </c>
       <c r="D512" t="n">
-        <v>334</v>
+        <v>552</v>
       </c>
       <c r="E512" t="n">
         <v>10</v>
@@ -13754,12 +13754,12 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>25.5215900-17</t>
+          <t>252.5215900-17</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 430 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 430 мм</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -13768,7 +13768,7 @@
         </is>
       </c>
       <c r="D513" t="n">
-        <v>334</v>
+        <v>552</v>
       </c>
       <c r="E513" t="n">
         <v>10</v>
@@ -13780,12 +13780,12 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>25.5215900-18</t>
+          <t>252.5215900-18</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 450 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 450 мм</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -13794,7 +13794,7 @@
         </is>
       </c>
       <c r="D514" t="n">
-        <v>334</v>
+        <v>552</v>
       </c>
       <c r="E514" t="n">
         <v>10</v>
@@ -13806,12 +13806,12 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>25.5215900-19</t>
+          <t>252.5215900-20</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 480 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 500 мм</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -13820,7 +13820,7 @@
         </is>
       </c>
       <c r="D515" t="n">
-        <v>334</v>
+        <v>582</v>
       </c>
       <c r="E515" t="n">
         <v>10</v>
@@ -13832,12 +13832,12 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>25.5215900-20</t>
+          <t>252.5215900-22</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 500 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 550 мм</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="D516" t="n">
-        <v>352</v>
+        <v>582</v>
       </c>
       <c r="E516" t="n">
         <v>10</v>
@@ -13858,12 +13858,12 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>25.5215900-21</t>
+          <t>252.5215900-24</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 530 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 600 мм</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -13872,7 +13872,7 @@
         </is>
       </c>
       <c r="D517" t="n">
-        <v>352</v>
+        <v>641</v>
       </c>
       <c r="E517" t="n">
         <v>10</v>
@@ -13884,12 +13884,12 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>25.5215900-22</t>
+          <t>252.5215900-26</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 550 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 650 мм</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -13898,7 +13898,7 @@
         </is>
       </c>
       <c r="D518" t="n">
-        <v>352</v>
+        <v>672</v>
       </c>
       <c r="E518" t="n">
         <v>10</v>
@@ -13910,12 +13910,12 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>25.5215900-24</t>
+          <t>25.5215900-13</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 600 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 330 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -13924,7 +13924,7 @@
         </is>
       </c>
       <c r="D519" t="n">
-        <v>386</v>
+        <v>299</v>
       </c>
       <c r="E519" t="n">
         <v>10</v>
@@ -13936,12 +13936,12 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>25.5215900-26</t>
+          <t>25.5215900-14</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 650 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 350 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -13950,7 +13950,7 @@
         </is>
       </c>
       <c r="D520" t="n">
-        <v>406</v>
+        <v>299</v>
       </c>
       <c r="E520" t="n">
         <v>10</v>
@@ -13962,12 +13962,12 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>25.5215900-28</t>
+          <t>25.5215900-16</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 700 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 400 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -13976,7 +13976,7 @@
         </is>
       </c>
       <c r="D521" t="n">
-        <v>406</v>
+        <v>334</v>
       </c>
       <c r="E521" t="n">
         <v>10</v>
@@ -13988,12 +13988,12 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>СЛ136Е-5205900-01</t>
+          <t>25.5215900-17</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 410 мм, тип крепления "Hook" ("Крюк") и "Bayonet" ("Штыковой замо</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 430 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -14002,7 +14002,7 @@
         </is>
       </c>
       <c r="D522" t="n">
-        <v>144</v>
+        <v>334</v>
       </c>
       <c r="E522" t="n">
         <v>10</v>
@@ -14014,12 +14014,12 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>23.5215900-01</t>
+          <t>25.5215900-18</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 475 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 450 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -14028,7 +14028,7 @@
         </is>
       </c>
       <c r="D523" t="n">
-        <v>144</v>
+        <v>334</v>
       </c>
       <c r="E523" t="n">
         <v>10</v>
@@ -14040,12 +14040,12 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>49.5205900-01</t>
+          <t>25.5215900-19</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 500 мм, тип крепления "Hook" ("Крюк") и "Bayonet" ("Штыковой замо</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 480 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -14054,7 +14054,7 @@
         </is>
       </c>
       <c r="D524" t="n">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="E524" t="n">
         <v>10</v>
@@ -14066,12 +14066,12 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>731.5205900-01</t>
+          <t>25.5215900-20</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 525 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 500 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -14080,7 +14080,7 @@
         </is>
       </c>
       <c r="D525" t="n">
-        <v>287</v>
+        <v>352</v>
       </c>
       <c r="E525" t="n">
         <v>10</v>
@@ -14092,12 +14092,12 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>11.5215900-01</t>
+          <t>25.5215900-21</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 550 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 530 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -14106,7 +14106,7 @@
         </is>
       </c>
       <c r="D526" t="n">
-        <v>295</v>
+        <v>352</v>
       </c>
       <c r="E526" t="n">
         <v>10</v>
@@ -14118,12 +14118,12 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>93.5205900-01</t>
+          <t>25.5215900-22</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 600 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 550 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -14132,7 +14132,7 @@
         </is>
       </c>
       <c r="D527" t="n">
-        <v>144</v>
+        <v>352</v>
       </c>
       <c r="E527" t="n">
         <v>10</v>
@@ -14144,12 +14144,12 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>251.5215900-15</t>
+          <t>25.5215900-24</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 380 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 600 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -14158,7 +14158,7 @@
         </is>
       </c>
       <c r="D528" t="n">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="E528" t="n">
         <v>10</v>
@@ -14170,12 +14170,12 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>251.5215900-16</t>
+          <t>25.5215900-26</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 400 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 650 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -14184,7 +14184,7 @@
         </is>
       </c>
       <c r="D529" t="n">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="E529" t="n">
         <v>10</v>
@@ -14196,12 +14196,12 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>251.5215900-17</t>
+          <t>25.5215900-28</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 430 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 700 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -14210,7 +14210,7 @@
         </is>
       </c>
       <c r="D530" t="n">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="E530" t="n">
         <v>10</v>
@@ -14222,12 +14222,12 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>251.5215900-18</t>
+          <t>СЛ136Е-5205900-01</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 450 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, каркасная, 410 мм, тип крепления "Hook" ("Крюк") и "Bayonet" ("Штыковой замо</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -14236,7 +14236,7 @@
         </is>
       </c>
       <c r="D531" t="n">
-        <v>426</v>
+        <v>144</v>
       </c>
       <c r="E531" t="n">
         <v>10</v>
@@ -14248,12 +14248,12 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>251.5215900-19</t>
+          <t>23.5215900-01</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 480 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, каркасная, 475 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -14262,7 +14262,7 @@
         </is>
       </c>
       <c r="D532" t="n">
-        <v>426</v>
+        <v>144</v>
       </c>
       <c r="E532" t="n">
         <v>10</v>
@@ -14274,12 +14274,12 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>251.5215900-20</t>
+          <t>49.5205900-01</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 500 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, каркасная, 500 мм, тип крепления "Hook" ("Крюк") и "Bayonet" ("Штыковой замо</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -14288,7 +14288,7 @@
         </is>
       </c>
       <c r="D533" t="n">
-        <v>448</v>
+        <v>366</v>
       </c>
       <c r="E533" t="n">
         <v>10</v>
@@ -14300,12 +14300,12 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>251.5215900-24</t>
+          <t>731.5205900-01</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 600 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, каркасная, 525 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -14314,7 +14314,7 @@
         </is>
       </c>
       <c r="D534" t="n">
-        <v>492</v>
+        <v>287</v>
       </c>
       <c r="E534" t="n">
         <v>10</v>
@@ -14326,12 +14326,12 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>251.5215900-26</t>
+          <t>11.5215900-01</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 650 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, каркасная, 550 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -14340,7 +14340,7 @@
         </is>
       </c>
       <c r="D535" t="n">
-        <v>518</v>
+        <v>295</v>
       </c>
       <c r="E535" t="n">
         <v>10</v>
@@ -14352,12 +14352,12 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>595863AVT</t>
+          <t>93.5205900-01</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>Щеткодержатель стартера</t>
+          <t>Щетка стеклоочистителя, каркасная, 600 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -14366,7 +14366,7 @@
         </is>
       </c>
       <c r="D536" t="n">
-        <v>720</v>
+        <v>144</v>
       </c>
       <c r="E536" t="n">
         <v>10</v>
@@ -14378,12 +14378,12 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>595863AVT</t>
+          <t>251.5215900-15</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>Щеткодержатель стартера</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 380 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C537" t="inlineStr">
@@ -14392,7 +14392,7 @@
         </is>
       </c>
       <c r="D537" t="n">
-        <v>720</v>
+        <v>426</v>
       </c>
       <c r="E537" t="n">
         <v>10</v>
@@ -14404,12 +14404,12 @@
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>595845AVT</t>
+          <t>251.5215900-16</t>
         </is>
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>Щеткодержатель стартера  LADA VESTA</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 400 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C538" t="inlineStr">
@@ -14418,7 +14418,7 @@
         </is>
       </c>
       <c r="D538" t="n">
-        <v>720</v>
+        <v>426</v>
       </c>
       <c r="E538" t="n">
         <v>10</v>
@@ -14430,12 +14430,12 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>595845AVT</t>
+          <t>251.5215900-17</t>
         </is>
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>Щеткодержатель стартера  LADA VESTA</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 430 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -14444,7 +14444,7 @@
         </is>
       </c>
       <c r="D539" t="n">
-        <v>720</v>
+        <v>426</v>
       </c>
       <c r="E539" t="n">
         <v>10</v>
@@ -14456,12 +14456,12 @@
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>595842AVT</t>
+          <t>251.5215900-18</t>
         </is>
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>Якорь стартера</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 450 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -14470,7 +14470,7 @@
         </is>
       </c>
       <c r="D540" t="n">
-        <v>1416</v>
+        <v>426</v>
       </c>
       <c r="E540" t="n">
         <v>10</v>
@@ -14482,12 +14482,12 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>BD027AVT</t>
+          <t>251.5215900-19</t>
         </is>
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Ceed (07-) / Cerato (09-) / Hyundai i30 (07-) передний</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 480 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C541" t="inlineStr">
@@ -14496,24 +14496,24 @@
         </is>
       </c>
       <c r="D541" t="n">
-        <v>1949</v>
+        <v>426</v>
       </c>
       <c r="E541" t="n">
         <v>10</v>
       </c>
       <c r="F541" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>BD068AVT</t>
+          <t>251.5215900-20</t>
         </is>
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Sorento II (09-) задний</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 500 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C542" t="inlineStr">
@@ -14522,24 +14522,24 @@
         </is>
       </c>
       <c r="D542" t="n">
-        <v>1909</v>
+        <v>448</v>
       </c>
       <c r="E542" t="n">
         <v>10</v>
       </c>
       <c r="F542" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>BD028AVT</t>
+          <t>251.5215900-24</t>
         </is>
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Sportage (10-) / Hyundai ix35 (10-) задний</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 600 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C543" t="inlineStr">
@@ -14548,24 +14548,24 @@
         </is>
       </c>
       <c r="D543" t="n">
-        <v>1324</v>
+        <v>492</v>
       </c>
       <c r="E543" t="n">
         <v>10</v>
       </c>
       <c r="F543" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>BD045AVT</t>
+          <t>251.5215900-26</t>
         </is>
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Sportage III (10-) / Hyundai iX 35 (09-) задний</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 650 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C544" t="inlineStr">
@@ -14574,24 +14574,24 @@
         </is>
       </c>
       <c r="D544" t="n">
-        <v>1459</v>
+        <v>518</v>
       </c>
       <c r="E544" t="n">
         <v>10</v>
       </c>
       <c r="F544" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>BD011AVT</t>
+          <t>595863AVT</t>
         </is>
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>Диск тормозной Lada Largus (12-) / Renault Logan (07-) передний (без ABS)</t>
+          <t>Щеткодержатель стартера</t>
         </is>
       </c>
       <c r="C545" t="inlineStr">
@@ -14600,24 +14600,24 @@
         </is>
       </c>
       <c r="D545" t="n">
-        <v>1451</v>
+        <v>720</v>
       </c>
       <c r="E545" t="n">
         <v>10</v>
       </c>
       <c r="F545" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>BD060AVT</t>
+          <t>595863AVT</t>
         </is>
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>Диск тормозной Mazda 3 (03-) задний</t>
+          <t>Щеткодержатель стартера</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -14626,24 +14626,24 @@
         </is>
       </c>
       <c r="D546" t="n">
-        <v>1231</v>
+        <v>720</v>
       </c>
       <c r="E546" t="n">
         <v>10</v>
       </c>
       <c r="F546" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>BD059AVT</t>
+          <t>595845AVT</t>
         </is>
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>Диск тормозной Mazda 3 (03-) передний</t>
+          <t>Щеткодержатель стартера  LADA VESTA</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -14652,13 +14652,65 @@
         </is>
       </c>
       <c r="D547" t="n">
-        <v>2041</v>
+        <v>720</v>
       </c>
       <c r="E547" t="n">
         <v>10</v>
       </c>
       <c r="F547" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>595845AVT</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Щеткодержатель стартера  LADA VESTA</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D548" t="n">
+        <v>720</v>
+      </c>
+      <c r="E548" t="n">
+        <v>10</v>
+      </c>
+      <c r="F548" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>595842AVT</t>
+        </is>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>Якорь стартера</t>
+        </is>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D549" t="n">
+        <v>1416</v>
+      </c>
+      <c r="E549" t="n">
+        <v>10</v>
+      </c>
+      <c r="F549" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/price_for_emex.xlsx
+++ b/price_for_emex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F549"/>
+  <dimension ref="A1:F535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8164,12 +8164,12 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>595575AVT</t>
+          <t>595843AVT</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Бендикс (Шестерня привода )</t>
+          <t>Бендикс (Шестерня привода ) LADA LARGUS</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -8178,7 +8178,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>1020</v>
+        <v>900</v>
       </c>
       <c r="E298" t="n">
         <v>10</v>
@@ -8190,12 +8190,12 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>595575AVT</t>
+          <t>RF004AVT</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Бендикс (Шестерня привода )</t>
+          <t>Вентилятор системы охлаждения Nissan Qashqai</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -8204,7 +8204,7 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1020</v>
+        <v>6600</v>
       </c>
       <c r="E299" t="n">
         <v>10</v>
@@ -8216,12 +8216,12 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>595843AVT</t>
+          <t>RF005AVT</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Бендикс (Шестерня привода ) LADA LARGUS</t>
+          <t>Вентилятор системы охлаждения Nissan X-Trail, Qashqai (Дизель)</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -8230,7 +8230,7 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>900</v>
+        <v>6600</v>
       </c>
       <c r="E300" t="n">
         <v>10</v>
@@ -8242,12 +8242,12 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>595844AVT</t>
+          <t>595785AVT</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Бендикс (Шестерня привода ) RENAULT DUSTER</t>
+          <t>Втягивающее реле (для 438327 / 438328)</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -8256,7 +8256,7 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>1080</v>
+        <v>1800</v>
       </c>
       <c r="E301" t="n">
         <v>10</v>
@@ -8268,12 +8268,12 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>595844AVT</t>
+          <t>AL200AVT</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Бендикс (Шестерня привода ) RENAULT DUSTER</t>
+          <t>Генератор LADA GRANTA 110А</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -8282,10 +8282,10 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>1080</v>
+        <v>9996</v>
       </c>
       <c r="E302" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F302" t="n">
         <v>1</v>
@@ -8294,12 +8294,12 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>RF004AVT</t>
+          <t>AL200AVT</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Вентилятор системы охлаждения Nissan Qashqai</t>
+          <t>Генератор LADA GRANTA 110А</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -8308,10 +8308,10 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>6600</v>
+        <v>9996</v>
       </c>
       <c r="E303" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F303" t="n">
         <v>1</v>
@@ -8320,12 +8320,12 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>RF005AVT</t>
+          <t>BD050AVT</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Вентилятор системы охлаждения Nissan X-Trail, Qashqai (Дизель)</t>
+          <t>Диск тормозной Audi A4 / A6 (95-) передний</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -8334,24 +8334,24 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>6600</v>
+        <v>2020</v>
       </c>
       <c r="E304" t="n">
         <v>10</v>
       </c>
       <c r="F304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>595739AVT</t>
+          <t>BD075AVT</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Втягивающее реле</t>
+          <t>Диск тормозной Audi Q5 (08-) задний</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -8360,24 +8360,24 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1080</v>
+        <v>1718</v>
       </c>
       <c r="E305" t="n">
         <v>10</v>
       </c>
       <c r="F305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>595739AVT</t>
+          <t>BD056AVT</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Втягивающее реле</t>
+          <t>Диск тормозной Audi Q7 (06-) задний</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -8386,24 +8386,24 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>1080</v>
+        <v>2719</v>
       </c>
       <c r="E306" t="n">
         <v>10</v>
       </c>
       <c r="F306" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>595785AVT</t>
+          <t>BD021AVT</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Втягивающее реле (для 438327 / 438328)</t>
+          <t>Диск тормозной Chevrolet Aveo (02-) / Spark (05-) передний</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -8412,24 +8412,24 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>1800</v>
+        <v>1090</v>
       </c>
       <c r="E307" t="n">
         <v>10</v>
       </c>
       <c r="F307" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>595776AVT</t>
+          <t>BD022AVT</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Втягивающее реле LADA VESTA / RENUALT LOGAN</t>
+          <t>Диск тормозной Chevrolet Cruze (09-) / Aveo (11-) задний</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -8438,24 +8438,24 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>1440</v>
+        <v>1550</v>
       </c>
       <c r="E308" t="n">
         <v>10</v>
       </c>
       <c r="F308" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>595776AVT</t>
+          <t>BD018AVT</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Втягивающее реле LADA VESTA / RENUALT LOGAN</t>
+          <t>Диск тормозной Chevrolet Cruze (09-) / Aveo (11-) передний</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -8464,24 +8464,24 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>1440</v>
+        <v>2197</v>
       </c>
       <c r="E309" t="n">
         <v>10</v>
       </c>
       <c r="F309" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>AL200AVT</t>
+          <t>BD049AVT</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Генератор LADA GRANTA 110А</t>
+          <t>Диск тормозной Chevrolet Lacetti (04-) задний</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -8490,24 +8490,24 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>9996</v>
+        <v>1400</v>
       </c>
       <c r="E310" t="n">
         <v>10</v>
       </c>
       <c r="F310" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>AL200AVT</t>
+          <t>BD039AVT</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Генератор LADA GRANTA 110А</t>
+          <t>Диск тормозной Daewoo Matiz (98-) передний</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -8516,24 +8516,24 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>9996</v>
+        <v>1043</v>
       </c>
       <c r="E311" t="n">
         <v>10</v>
       </c>
       <c r="F311" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>BD050AVT</t>
+          <t>BD042AVT</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Диск тормозной Audi A4 / A6 (95-) передний</t>
+          <t>Диск тормозной Ford Fiesta (02-) / Fusion (02-) передний</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -8542,7 +8542,7 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>2020</v>
+        <v>1481</v>
       </c>
       <c r="E312" t="n">
         <v>10</v>
@@ -8554,12 +8554,12 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>BD075AVT</t>
+          <t>BD040AVT</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Диск тормозной Audi Q5 (08-) задний</t>
+          <t>Диск тормозной Ford Focus (04-) задний</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -8568,10 +8568,10 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>1718</v>
+        <v>1373</v>
       </c>
       <c r="E313" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F313" t="n">
         <v>2</v>
@@ -8580,12 +8580,12 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>BD056AVT</t>
+          <t>BD015AVT</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Диск тормозной Audi Q7 (06-) задний</t>
+          <t>Диск тормозной Ford Focus (04-) задний d.264,8</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -8594,7 +8594,7 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>2719</v>
+        <v>1270</v>
       </c>
       <c r="E314" t="n">
         <v>10</v>
@@ -8606,12 +8606,12 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>BD021AVT</t>
+          <t>BD006AVT</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Диск тормозной Chevrolet Aveo (02-) / Spark (05-) передний</t>
+          <t>Диск тормозной Ford Focus II (05-) / Ford Focus III (11-) передний</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -8620,7 +8620,7 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>1090</v>
+        <v>2310</v>
       </c>
       <c r="E315" t="n">
         <v>10</v>
@@ -8632,12 +8632,12 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>BD022AVT</t>
+          <t>BD013AVT</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Диск тормозной Chevrolet Cruze (09-) / Aveo (11-) задний</t>
+          <t>Диск тормозной Ford Focus II (05-) / Ford Focus III (11-) передний d.278,1</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>1550</v>
+        <v>1964</v>
       </c>
       <c r="E316" t="n">
         <v>10</v>
@@ -8658,12 +8658,12 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>BD018AVT</t>
+          <t>BD032AVT</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Диск тормозной Chevrolet Cruze (09-) / Aveo (11-) передний</t>
+          <t>Диск тормозной Ford Focus III (11-) задний</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -8672,7 +8672,7 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>2197</v>
+        <v>1494</v>
       </c>
       <c r="E317" t="n">
         <v>10</v>
@@ -8684,12 +8684,12 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>BD049AVT</t>
+          <t>BD076AVT</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Диск тормозной Chevrolet Lacetti (04-) задний</t>
+          <t>Диск тормозной Ford Mondeo IV (07-) задний</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -8698,7 +8698,7 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>1400</v>
+        <v>1741</v>
       </c>
       <c r="E318" t="n">
         <v>10</v>
@@ -8710,12 +8710,12 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>BD039AVT</t>
+          <t>BD033AVT</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Диск тормозной Daewoo Matiz (98-) передний</t>
+          <t>Диск тормозной Hyundai Accent (00-) передний</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -8724,7 +8724,7 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>1043</v>
+        <v>1333</v>
       </c>
       <c r="E319" t="n">
         <v>10</v>
@@ -8736,12 +8736,12 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>BD042AVT</t>
+          <t>BD037AVT</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Fiesta (02-) / Fusion (02-) передний</t>
+          <t>Диск тормозной Hyundai Creta (16-) задний 2WD</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -8750,7 +8750,7 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>1481</v>
+        <v>1270</v>
       </c>
       <c r="E320" t="n">
         <v>10</v>
@@ -8762,12 +8762,12 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>BD040AVT</t>
+          <t>BD041AVT</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Focus (04-) задний</t>
+          <t>Диск тормозной Hyundai Getz (02-) задний</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -8776,10 +8776,10 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>1373</v>
+        <v>1253</v>
       </c>
       <c r="E321" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F321" t="n">
         <v>2</v>
@@ -8788,12 +8788,12 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>BD015AVT</t>
+          <t>BD054AVT</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Focus (04-) задний d.264,8</t>
+          <t>Диск тормозной Hyundai Getz (02-) передний (ABS)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -8802,7 +8802,7 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>1270</v>
+        <v>1343</v>
       </c>
       <c r="E322" t="n">
         <v>10</v>
@@ -8814,12 +8814,12 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>BD006AVT</t>
+          <t>BD055AVT</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Focus II (05-) / Ford Focus III (11-) передний</t>
+          <t>Диск тормозной Hyundai Getz (02-) передний (без ABS)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -8828,7 +8828,7 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>2310</v>
+        <v>1309</v>
       </c>
       <c r="E323" t="n">
         <v>10</v>
@@ -8840,12 +8840,12 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>BD013AVT</t>
+          <t>BD002AVT</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Focus II (05-) / Ford Focus III (11-) передний d.278,1</t>
+          <t>Диск тормозной Hyundai Solaris (10-) (17-) задний</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -8854,7 +8854,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>1964</v>
+        <v>1230</v>
       </c>
       <c r="E324" t="n">
         <v>10</v>
@@ -8866,12 +8866,12 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>BD032AVT</t>
+          <t>BD001AVT</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Focus III (11-) задний</t>
+          <t>Диск тормозной Hyundai Solaris (10-) (17-) передний</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -8880,7 +8880,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>1494</v>
+        <v>1418</v>
       </c>
       <c r="E325" t="n">
         <v>10</v>
@@ -8892,12 +8892,12 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>BD076AVT</t>
+          <t>BD027AVT</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Mondeo IV (07-) задний</t>
+          <t>Диск тормозной Kia Ceed (07-) / Cerato (09-) / Hyundai i30 (07-) передний</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -8906,7 +8906,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>1741</v>
+        <v>1949</v>
       </c>
       <c r="E326" t="n">
         <v>10</v>
@@ -8918,12 +8918,12 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>BD033AVT</t>
+          <t>BD068AVT</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Accent (00-) передний</t>
+          <t>Диск тормозной Kia Sorento II (09-) задний</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -8932,7 +8932,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>1333</v>
+        <v>1909</v>
       </c>
       <c r="E327" t="n">
         <v>10</v>
@@ -8944,12 +8944,12 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>BD037AVT</t>
+          <t>BD028AVT</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Creta (16-) задний 2WD</t>
+          <t>Диск тормозной Kia Sportage (10-) / Hyundai ix35 (10-) задний</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -8958,7 +8958,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>1270</v>
+        <v>1324</v>
       </c>
       <c r="E328" t="n">
         <v>10</v>
@@ -8970,12 +8970,12 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>BD041AVT</t>
+          <t>BD045AVT</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Getz (02-) задний</t>
+          <t>Диск тормозной Kia Sportage III (10-) / Hyundai iX 35 (09-) задний</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -8984,7 +8984,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>1253</v>
+        <v>1459</v>
       </c>
       <c r="E329" t="n">
         <v>10</v>
@@ -8996,12 +8996,12 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>BD054AVT</t>
+          <t>BD031AVT</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Getz (02-) передний (ABS)</t>
+          <t>Диск тормозной Kia Sportage III (10-) / Hyundai ix35 (10-) / Creta (16-) передний</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -9010,7 +9010,7 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>1343</v>
+        <v>2431</v>
       </c>
       <c r="E330" t="n">
         <v>10</v>
@@ -9022,12 +9022,12 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>BD055AVT</t>
+          <t>BD031AVT</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Getz (02-) передний (без ABS)</t>
+          <t>Диск тормозной Kia Sportage III (10-) / Hyundai ix35 (10-) / Creta (16-) передний</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -9036,7 +9036,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>1309</v>
+        <v>2431</v>
       </c>
       <c r="E331" t="n">
         <v>10</v>
@@ -9048,12 +9048,12 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>BD002AVT</t>
+          <t>BD011AVT</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Solaris (10-) (17-) задний</t>
+          <t>Диск тормозной Lada Largus (12-) / Renault Logan (07-) передний (без ABS)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -9062,7 +9062,7 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>1230</v>
+        <v>1451</v>
       </c>
       <c r="E332" t="n">
         <v>10</v>
@@ -9074,12 +9074,12 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>BD001AVT</t>
+          <t>BD060AVT</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Solaris (10-) (17-) передний</t>
+          <t>Диск тормозной Mazda 3 (03-) задний</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -9088,7 +9088,7 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>1418</v>
+        <v>1231</v>
       </c>
       <c r="E333" t="n">
         <v>10</v>
@@ -9100,12 +9100,12 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>BD027AVT</t>
+          <t>BD059AVT</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Ceed (07-) / Cerato (09-) / Hyundai i30 (07-) передний</t>
+          <t>Диск тормозной Mazda 3 (03-) передний</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -9114,7 +9114,7 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>1949</v>
+        <v>2041</v>
       </c>
       <c r="E334" t="n">
         <v>10</v>
@@ -9126,12 +9126,12 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>BD068AVT</t>
+          <t>BD081AVT</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Sorento II (09-) задний</t>
+          <t>Диск тормозной Mitsubishi ASX (10-) / Outlander III / Peugeot 4008 / Citroen C4 Aircross (12-) задни</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -9140,7 +9140,7 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>1909</v>
+        <v>1757</v>
       </c>
       <c r="E335" t="n">
         <v>10</v>
@@ -9152,12 +9152,12 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>BD028AVT</t>
+          <t>BD051AVT</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Sportage (10-) / Hyundai ix35 (10-) задний</t>
+          <t>Диск тормозной Mitsubishi Lancer (00-) задний</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -9166,7 +9166,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>1324</v>
+        <v>1262</v>
       </c>
       <c r="E336" t="n">
         <v>10</v>
@@ -9178,12 +9178,12 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>BD045AVT</t>
+          <t>BD053AVT</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Sportage III (10-) / Hyundai iX 35 (09-) задний</t>
+          <t>Диск тормозной Mitsubishi Lancer (00-) передний</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -9192,7 +9192,7 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>1459</v>
+        <v>1860</v>
       </c>
       <c r="E337" t="n">
         <v>10</v>
@@ -9204,12 +9204,12 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>BD031AVT</t>
+          <t>BD074AVT</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Sportage III (10-) / Hyundai ix35 (10-) / Creta (16-) передний</t>
+          <t>Диск тормозной Mitsubishi Lancer (08-) задний</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -9218,7 +9218,7 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>2431</v>
+        <v>1393</v>
       </c>
       <c r="E338" t="n">
         <v>10</v>
@@ -9230,12 +9230,12 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>BD031AVT</t>
+          <t>BD048AVT</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Sportage III (10-) / Hyundai ix35 (10-) / Creta (16-) передний</t>
+          <t>Диск тормозной Mitsubishi Outlander (06-) передний</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="D339" t="n">
-        <v>2431</v>
+        <v>2027</v>
       </c>
       <c r="E339" t="n">
         <v>10</v>
@@ -9256,12 +9256,12 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>BD011AVT</t>
+          <t>BD026AVT</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Диск тормозной Lada Largus (12-) / Renault Logan (07-) передний (без ABS)</t>
+          <t>Диск тормозной Nexia (95-) / Lanos (05-) передний</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -9270,7 +9270,7 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>1451</v>
+        <v>1398</v>
       </c>
       <c r="E340" t="n">
         <v>10</v>
@@ -9282,12 +9282,12 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>BD060AVT</t>
+          <t>BD079AVT</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Диск тормозной Mazda 3 (03-) задний</t>
+          <t>Диск тормозной Nissan Almera Classic (06-) передний</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="D341" t="n">
-        <v>1231</v>
+        <v>1254</v>
       </c>
       <c r="E341" t="n">
         <v>10</v>
@@ -9308,12 +9308,12 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>BD059AVT</t>
+          <t>BD038AVT</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Диск тормозной Mazda 3 (03-) передний</t>
+          <t>Диск тормозной Nissan Juke (10-) задний</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -9322,7 +9322,7 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>2041</v>
+        <v>1578</v>
       </c>
       <c r="E342" t="n">
         <v>10</v>
@@ -9334,12 +9334,12 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>BD081AVT</t>
+          <t>BD020AVT</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi ASX (10-) / Outlander III / Peugeot 4008 / Citroen C4 Aircross (12-) задни</t>
+          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) задний</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -9348,7 +9348,7 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>1757</v>
+        <v>1664</v>
       </c>
       <c r="E343" t="n">
         <v>10</v>
@@ -9360,12 +9360,12 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>BD051AVT</t>
+          <t>BD019AVT</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi Lancer (00-) задний</t>
+          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) передний</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -9374,10 +9374,10 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>1262</v>
+        <v>2299</v>
       </c>
       <c r="E344" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F344" t="n">
         <v>2</v>
@@ -9386,12 +9386,12 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>BD053AVT</t>
+          <t>BD019AVT</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi Lancer (00-) передний</t>
+          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) передний</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -9400,10 +9400,10 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>1860</v>
+        <v>2299</v>
       </c>
       <c r="E345" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F345" t="n">
         <v>2</v>
@@ -9412,12 +9412,12 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>BD074AVT</t>
+          <t>BD058AVT</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi Lancer (08-) задний</t>
+          <t>Диск тормозной Nissan Qashqai II (13-) / X-Trail (14-) передний</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>1393</v>
+        <v>2034</v>
       </c>
       <c r="E346" t="n">
         <v>10</v>
@@ -9438,12 +9438,12 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>BD048AVT</t>
+          <t>BD025AVT</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi Outlander (06-) передний</t>
+          <t>Диск тормозной Opel Astra H (04-) передний</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -9452,7 +9452,7 @@
         </is>
       </c>
       <c r="D347" t="n">
-        <v>2027</v>
+        <v>1860</v>
       </c>
       <c r="E347" t="n">
         <v>10</v>
@@ -9464,12 +9464,12 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>BD026AVT</t>
+          <t>BD024AVT</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Диск тормозной Nexia (95-) / Lanos (05-) передний</t>
+          <t>Диск тормозной Opel Astra J (10-) / Chevrolet Cruze (09-) задний</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -9478,7 +9478,7 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>1398</v>
+        <v>1507</v>
       </c>
       <c r="E348" t="n">
         <v>10</v>
@@ -9490,12 +9490,12 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>BD079AVT</t>
+          <t>BD034AVT</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Almera Classic (06-) передний</t>
+          <t>Диск тормозной Peugeot 307 (00-) / 308 (07-) / Citroen C4 (04-) передний</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -9504,7 +9504,7 @@
         </is>
       </c>
       <c r="D349" t="n">
-        <v>1254</v>
+        <v>1940</v>
       </c>
       <c r="E349" t="n">
         <v>10</v>
@@ -9516,12 +9516,12 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>BD038AVT</t>
+          <t>BD069AVT</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Juke (10-) задний</t>
+          <t>Диск тормозной Peugeot Partner / Citroen Berlingo (96-) передний</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -9530,7 +9530,7 @@
         </is>
       </c>
       <c r="D350" t="n">
-        <v>1578</v>
+        <v>1325</v>
       </c>
       <c r="E350" t="n">
         <v>10</v>
@@ -9542,12 +9542,12 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>BD020AVT</t>
+          <t>BD023AVT</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) задний</t>
+          <t>Диск тормозной Renault Duster (10-) / Arkana (19-)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -9556,7 +9556,7 @@
         </is>
       </c>
       <c r="D351" t="n">
-        <v>1664</v>
+        <v>2221</v>
       </c>
       <c r="E351" t="n">
         <v>10</v>
@@ -9568,12 +9568,12 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>BD019AVT</t>
+          <t>BD023AVT</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) передний</t>
+          <t>Диск тормозной Renault Duster (10-) / Arkana (19-)</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -9582,7 +9582,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>2299</v>
+        <v>2221</v>
       </c>
       <c r="E352" t="n">
         <v>10</v>
@@ -9594,12 +9594,12 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>BD019AVT</t>
+          <t>BD061AVT</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) передний</t>
+          <t>Диск тормозной Renault Koleos (08-) передний</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -9608,7 +9608,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>2299</v>
+        <v>2723</v>
       </c>
       <c r="E353" t="n">
         <v>10</v>
@@ -9620,12 +9620,12 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>BD058AVT</t>
+          <t>BD004AVT</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Qashqai II (13-) / X-Trail (14-) передний</t>
+          <t>Диск тормозной Renault Logan (04-) передний</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -9634,7 +9634,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>2034</v>
+        <v>1370</v>
       </c>
       <c r="E354" t="n">
         <v>10</v>
@@ -9646,12 +9646,12 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>BD025AVT</t>
+          <t>BD004AVT</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Диск тормозной Opel Astra H (04-) передний</t>
+          <t>Диск тормозной Renault Logan (04-) передний</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -9660,7 +9660,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>1860</v>
+        <v>1370</v>
       </c>
       <c r="E355" t="n">
         <v>10</v>
@@ -9672,12 +9672,12 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>BD024AVT</t>
+          <t>BD010AVT</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Диск тормозной Opel Astra J (10-) / Chevrolet Cruze (09-) задний</t>
+          <t>Диск тормозной Renault Logan (04-) передний (без ABS)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -9686,7 +9686,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>1507</v>
+        <v>997</v>
       </c>
       <c r="E356" t="n">
         <v>10</v>
@@ -9698,12 +9698,12 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>BD034AVT</t>
+          <t>BD012AVT</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Диск тормозной Peugeot 307 (00-) / 308 (07-) / Citroen C4 (04-) передний</t>
+          <t>Диск тормозной Skoda Octavia (04-) / VW Golf V (03-) задний</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -9712,7 +9712,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>1940</v>
+        <v>1234</v>
       </c>
       <c r="E357" t="n">
         <v>10</v>
@@ -9724,12 +9724,12 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>BD069AVT</t>
+          <t>BD016AVT</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Диск тормозной Peugeot Partner / Citroen Berlingo (96-) передний</t>
+          <t>Диск тормозной Skoda Octavia (04-) / VW Golf V (03-) передний</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -9738,7 +9738,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>1325</v>
+        <v>1789</v>
       </c>
       <c r="E358" t="n">
         <v>10</v>
@@ -9750,12 +9750,12 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>BD023AVT</t>
+          <t>BD008AVT</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Duster (10-) / Arkana (19-)</t>
+          <t>Диск тормозной Skoda Octavia (13-) / VW Golf VII (12-) задний</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -9764,7 +9764,7 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>2221</v>
+        <v>1326</v>
       </c>
       <c r="E359" t="n">
         <v>10</v>
@@ -9776,12 +9776,12 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>BD023AVT</t>
+          <t>BD063AVT</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Duster (10-) / Arkana (19-)</t>
+          <t>Диск тормозной Skoda Octavia (96-) / VW Golf IV (97-) передний</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -9790,7 +9790,7 @@
         </is>
       </c>
       <c r="D360" t="n">
-        <v>2221</v>
+        <v>1729</v>
       </c>
       <c r="E360" t="n">
         <v>10</v>
@@ -9802,12 +9802,12 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>BD061AVT</t>
+          <t>BD007AVT</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Koleos (08-) передний</t>
+          <t>Диск тормозной Skoda Yeti (09-) передний</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -9816,7 +9816,7 @@
         </is>
       </c>
       <c r="D361" t="n">
-        <v>2723</v>
+        <v>2183</v>
       </c>
       <c r="E361" t="n">
         <v>10</v>
@@ -9828,12 +9828,12 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>BD004AVT</t>
+          <t>BD064AVT</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Logan (04-) передний</t>
+          <t>Диск тормозной SsangYong Kyron (05-) задний</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -9842,7 +9842,7 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>1370</v>
+        <v>1950</v>
       </c>
       <c r="E362" t="n">
         <v>10</v>
@@ -9854,12 +9854,12 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>BD004AVT</t>
+          <t>BD070AVT</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Logan (04-) передний</t>
+          <t>Диск тормозной Suzuki Grand Vitara (05-) передний</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -9868,7 +9868,7 @@
         </is>
       </c>
       <c r="D363" t="n">
-        <v>1370</v>
+        <v>1757</v>
       </c>
       <c r="E363" t="n">
         <v>10</v>
@@ -9880,12 +9880,12 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>BD010AVT</t>
+          <t>BD083AVT</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Logan (04-) передний (без ABS)</t>
+          <t>Диск тормозной Tank 300 передний</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -9894,7 +9894,7 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>997</v>
+        <v>3834</v>
       </c>
       <c r="E364" t="n">
         <v>10</v>
@@ -9906,12 +9906,12 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>BD012AVT</t>
+          <t>BD083AVT</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Octavia (04-) / VW Golf V (03-) задний</t>
+          <t>Диск тормозной Tank 300 передний</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -9920,7 +9920,7 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>1234</v>
+        <v>3834</v>
       </c>
       <c r="E365" t="n">
         <v>10</v>
@@ -9932,12 +9932,12 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>BD016AVT</t>
+          <t>BD082AVT</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Octavia (04-) / VW Golf V (03-) передний</t>
+          <t>Диск тормозной Tank 500 передний</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>1789</v>
+        <v>4511</v>
       </c>
       <c r="E366" t="n">
         <v>10</v>
@@ -9958,12 +9958,12 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>BD008AVT</t>
+          <t>BD017AVT</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Octavia (13-) / VW Golf VII (12-) задний</t>
+          <t>Диск тормозной Toyota Camry (06-) / RAV 4 (06-) передний</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -9972,7 +9972,7 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>1326</v>
+        <v>2334</v>
       </c>
       <c r="E367" t="n">
         <v>10</v>
@@ -9984,12 +9984,12 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>BD063AVT</t>
+          <t>BD017AVT</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Octavia (96-) / VW Golf IV (97-) передний</t>
+          <t>Диск тормозной Toyota Camry (06-) / RAV 4 (06-) передний</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -9998,7 +9998,7 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>1729</v>
+        <v>2334</v>
       </c>
       <c r="E368" t="n">
         <v>10</v>
@@ -10010,12 +10010,12 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>BD007AVT</t>
+          <t>BD044AVT</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Yeti (09-) передний</t>
+          <t>Диск тормозной Toyota Camry (06-) задний</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -10024,7 +10024,7 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>2183</v>
+        <v>1597</v>
       </c>
       <c r="E369" t="n">
         <v>10</v>
@@ -10036,12 +10036,12 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>BD064AVT</t>
+          <t>BD036AVT</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Диск тормозной SsangYong Kyron (05-) задний</t>
+          <t>Диск тормозной Toyota Corolla (06-) / Auris (06-) задний</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -10050,7 +10050,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>1950</v>
+        <v>1127</v>
       </c>
       <c r="E370" t="n">
         <v>10</v>
@@ -10062,12 +10062,12 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>BD070AVT</t>
+          <t>BD035AVT</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Диск тормозной Suzuki Grand Vitara (05-) передний</t>
+          <t>Диск тормозной Toyota Corolla (06-) / Auris (06-) передний</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -10076,7 +10076,7 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>1757</v>
+        <v>1699</v>
       </c>
       <c r="E371" t="n">
         <v>10</v>
@@ -10088,12 +10088,12 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>BD083AVT</t>
+          <t>BD071AVT</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Диск тормозной Tank 300 передний</t>
+          <t>Диск тормозной Toyota LC 200 (07-) задний</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -10102,7 +10102,7 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>3834</v>
+        <v>2298</v>
       </c>
       <c r="E372" t="n">
         <v>10</v>
@@ -10114,12 +10114,12 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>BD083AVT</t>
+          <t>BD052AVT</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Диск тормозной Tank 300 передний</t>
+          <t>Диск тормозной Toyota LC 200 (07-) передний</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -10128,7 +10128,7 @@
         </is>
       </c>
       <c r="D373" t="n">
-        <v>3834</v>
+        <v>2939</v>
       </c>
       <c r="E373" t="n">
         <v>10</v>
@@ -10140,12 +10140,12 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>BD082AVT</t>
+          <t>BD066AVT</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Диск тормозной Tank 500 передний</t>
+          <t>Диск тормозной Toyota LC Prado (09-) передний</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -10154,7 +10154,7 @@
         </is>
       </c>
       <c r="D374" t="n">
-        <v>4511</v>
+        <v>3275</v>
       </c>
       <c r="E374" t="n">
         <v>10</v>
@@ -10166,12 +10166,12 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>BD017AVT</t>
+          <t>BD029AVT</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Camry (06-) / RAV 4 (06-) передний</t>
+          <t>Диск тормозной Toyota RAV 4 (06-) / RAV 4 (13-) задний</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -10180,7 +10180,7 @@
         </is>
       </c>
       <c r="D375" t="n">
-        <v>2334</v>
+        <v>1684</v>
       </c>
       <c r="E375" t="n">
         <v>10</v>
@@ -10192,12 +10192,12 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>BD017AVT</t>
+          <t>BD065AVT</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Camry (06-) / RAV 4 (06-) передний</t>
+          <t>Диск тормозной Volvo XC 70 (07-) / S60 (10-) / S80 (06-) передний</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -10206,7 +10206,7 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>2334</v>
+        <v>2572</v>
       </c>
       <c r="E376" t="n">
         <v>10</v>
@@ -10218,12 +10218,12 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>BD044AVT</t>
+          <t>BD047AVT</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Camry (06-) задний</t>
+          <t>Диск тормозной VW Passat (96-) задний</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -10232,7 +10232,7 @@
         </is>
       </c>
       <c r="D377" t="n">
-        <v>1597</v>
+        <v>1218</v>
       </c>
       <c r="E377" t="n">
         <v>10</v>
@@ -10244,12 +10244,12 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>BD036AVT</t>
+          <t>BD072AVT</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Corolla (06-) / Auris (06-) задний</t>
+          <t>Диск тормозной VW Passat (96-) передний</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -10258,7 +10258,7 @@
         </is>
       </c>
       <c r="D378" t="n">
-        <v>1127</v>
+        <v>1788</v>
       </c>
       <c r="E378" t="n">
         <v>10</v>
@@ -10270,12 +10270,12 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>BD035AVT</t>
+          <t>BD009AVT</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Corolla (06-) / Auris (06-) передний</t>
+          <t>Диск тормозной VW Polo Sedan (10-) передний d.286,8</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -10284,7 +10284,7 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>1699</v>
+        <v>2159</v>
       </c>
       <c r="E379" t="n">
         <v>10</v>
@@ -10296,12 +10296,12 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>BD071AVT</t>
+          <t>BD014AVT</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota LC 200 (07-) задний</t>
+          <t>Диск тормозной VW Tiguan (07-) задний</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -10310,7 +10310,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>2298</v>
+        <v>1496</v>
       </c>
       <c r="E380" t="n">
         <v>10</v>
@@ -10322,12 +10322,12 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>BD052AVT</t>
+          <t>BD003AVT</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota LC 200 (07-) передний</t>
+          <t>Диск тормозной VW Tiguan (07-) передний</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -10336,7 +10336,7 @@
         </is>
       </c>
       <c r="D381" t="n">
-        <v>2939</v>
+        <v>2494</v>
       </c>
       <c r="E381" t="n">
         <v>10</v>
@@ -10348,12 +10348,12 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>BD066AVT</t>
+          <t>BD043AVT</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota LC Prado (09-) передний</t>
+          <t>Диск тормозной VW Tiguan (16-) / Skoda Kodiaq (16-) задний</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -10362,7 +10362,7 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>3275</v>
+        <v>1879</v>
       </c>
       <c r="E382" t="n">
         <v>10</v>
@@ -10374,12 +10374,12 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>BD029AVT</t>
+          <t>BP023AVT</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota RAV 4 (06-) / RAV 4 (13-) задний</t>
+          <t>Колодки тормозные передние без датчика Lada Vesta Sport (18-) / Renault Duster (10-) / Renault Arkan</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -10388,24 +10388,24 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>1684</v>
+        <v>864</v>
       </c>
       <c r="E383" t="n">
         <v>10</v>
       </c>
       <c r="F383" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>BD065AVT</t>
+          <t>BP023AVT</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Диск тормозной Volvo XC 70 (07-) / S60 (10-) / S80 (06-) передний</t>
+          <t>Колодки тормозные передние без датчика Lada Vesta Sport (18-) / Renault Duster (10-) / Renault Arkan</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -10414,24 +10414,24 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>2572</v>
+        <v>864</v>
       </c>
       <c r="E384" t="n">
         <v>10</v>
       </c>
       <c r="F384" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>BD047AVT</t>
+          <t>BP096AVT</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Passat (96-) задний</t>
+          <t>Колодки тормозные передние без датчика Renault Logan II (2012-)</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -10440,24 +10440,24 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>1218</v>
+        <v>680</v>
       </c>
       <c r="E385" t="n">
         <v>10</v>
       </c>
       <c r="F385" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>BD072AVT</t>
+          <t>BP096AVT</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Passat (96-) передний</t>
+          <t>Колодки тормозные передние без датчика Renault Logan II (2012-)</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -10466,24 +10466,24 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>1788</v>
+        <v>680</v>
       </c>
       <c r="E386" t="n">
         <v>10</v>
       </c>
       <c r="F386" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>BD009AVT</t>
+          <t>832198AVT</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Polo Sedan (10-) передний d.286,8</t>
+          <t>Комплект сцепления LADA Largus (корзина+диск) для 21809</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -10492,24 +10492,24 @@
         </is>
       </c>
       <c r="D387" t="n">
-        <v>2159</v>
+        <v>12000</v>
       </c>
       <c r="E387" t="n">
         <v>10</v>
       </c>
       <c r="F387" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>BD014AVT</t>
+          <t>832198AVT</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Tiguan (07-) задний</t>
+          <t>Комплект сцепления LADA Largus (корзина+диск) для 21809</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -10518,24 +10518,24 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>1496</v>
+        <v>12000</v>
       </c>
       <c r="E388" t="n">
         <v>10</v>
       </c>
       <c r="F388" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>BD003AVT</t>
+          <t>826787AVT</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Tiguan (07-) передний</t>
+          <t>Комплект сцепления без подшипника Chevrolet Lacetti (04-)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -10544,24 +10544,24 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>2494</v>
+        <v>5111</v>
       </c>
       <c r="E389" t="n">
         <v>10</v>
       </c>
       <c r="F389" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>BD043AVT</t>
+          <t>826853AVT</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Tiguan (16-) / Skoda Kodiaq (16-) задний</t>
+          <t>Комплект сцепления без подшипника Renault Logan (08-)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -10570,24 +10570,24 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>1879</v>
+        <v>3703</v>
       </c>
       <c r="E390" t="n">
         <v>10</v>
       </c>
       <c r="F390" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>832198AVT</t>
+          <t>3495AVT</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Комплект сцепления LADA Largus (корзина+диск) для 21809</t>
+          <t>Комплект сцепления с подшипником 2107</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>12000</v>
+        <v>4656</v>
       </c>
       <c r="E391" t="n">
         <v>10</v>
@@ -10608,12 +10608,12 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>832198AVT</t>
+          <t>801122AVT</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Комплект сцепления LADA Largus (корзина+диск) для 21809</t>
+          <t>Комплект сцепления с подшипником 2109</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -10622,7 +10622,7 @@
         </is>
       </c>
       <c r="D392" t="n">
-        <v>12000</v>
+        <v>4656</v>
       </c>
       <c r="E392" t="n">
         <v>10</v>
@@ -10634,12 +10634,12 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>832290AVT</t>
+          <t>826245AVT</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Комплект сцепления LADA Largus с подшипником для LADA Vesta / X-RAY 1.8 (коробка робот)</t>
+          <t>Комплект сцепления с подшипником Citroen C3 (03-) 1.1-1.4 (05-)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -10648,10 +10648,10 @@
         </is>
       </c>
       <c r="D393" t="n">
-        <v>6120</v>
+        <v>3112</v>
       </c>
       <c r="E393" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F393" t="n">
         <v>1</v>
@@ -10660,12 +10660,12 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>832290AVT</t>
+          <t>826568AVT</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Комплект сцепления LADA Largus с подшипником для LADA Vesta / X-RAY 1.8 (коробка робот)</t>
+          <t>Комплект сцепления с подшипником Daewoo Matiz (01-)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -10674,7 +10674,7 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>6120</v>
+        <v>3259</v>
       </c>
       <c r="E394" t="n">
         <v>10</v>
@@ -10686,12 +10686,12 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>826787AVT</t>
+          <t>821098AVT</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Комплект сцепления без подшипника Chevrolet Lacetti (04-)</t>
+          <t>Комплект сцепления с подшипником Daewoo Nexia (95-)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -10700,7 +10700,7 @@
         </is>
       </c>
       <c r="D395" t="n">
-        <v>5111</v>
+        <v>3667</v>
       </c>
       <c r="E395" t="n">
         <v>10</v>
@@ -10712,12 +10712,12 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>826853AVT</t>
+          <t>826995AVT</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Комплект сцепления без подшипника Renault Logan (08-)</t>
+          <t>Комплект сцепления с подшипником Hyundai Solaris I (10-)</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -10726,7 +10726,7 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>3703</v>
+        <v>4223</v>
       </c>
       <c r="E396" t="n">
         <v>10</v>
@@ -10738,12 +10738,12 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>3495AVT</t>
+          <t>826995AVT</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником 2107</t>
+          <t>Комплект сцепления с подшипником Hyundai Solaris I (10-)</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -10752,7 +10752,7 @@
         </is>
       </c>
       <c r="D397" t="n">
-        <v>4656</v>
+        <v>4223</v>
       </c>
       <c r="E397" t="n">
         <v>10</v>
@@ -10764,12 +10764,12 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>801122AVT</t>
+          <t>826299AVT</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником 2109</t>
+          <t>Комплект сцепления с подшипником Hyundai Sonata IV (98-) 2.0</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -10778,10 +10778,10 @@
         </is>
       </c>
       <c r="D398" t="n">
-        <v>4656</v>
+        <v>8519</v>
       </c>
       <c r="E398" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F398" t="n">
         <v>1</v>
@@ -10790,12 +10790,12 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>826222AVT</t>
+          <t>801515AVT</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником 2110</t>
+          <t>Комплект сцепления с подшипником Nissan Almera N16 (00-04) 1.5</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -10804,7 +10804,7 @@
         </is>
       </c>
       <c r="D399" t="n">
-        <v>5172</v>
+        <v>4482</v>
       </c>
       <c r="E399" t="n">
         <v>10</v>
@@ -10816,12 +10816,12 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>826222AVT</t>
+          <t>826211AVT</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником 2110</t>
+          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 306 (97-) / Partner (96-) 1.4-1.6</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -10830,10 +10830,10 @@
         </is>
       </c>
       <c r="D400" t="n">
-        <v>5172</v>
+        <v>3830</v>
       </c>
       <c r="E400" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F400" t="n">
         <v>1</v>
@@ -10842,12 +10842,12 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>826245AVT</t>
+          <t>821340AVT</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Citroen C3 (03-) 1.1-1.4 (05-)</t>
+          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 307 (00-) 1.1-1.4</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -10856,10 +10856,10 @@
         </is>
       </c>
       <c r="D401" t="n">
-        <v>3112</v>
+        <v>3912</v>
       </c>
       <c r="E401" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F401" t="n">
         <v>1</v>
@@ -10868,12 +10868,12 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>826568AVT</t>
+          <t>826213AVT</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Daewoo Matiz (01-)</t>
+          <t>Комплект сцепления с подшипником Peugeot 307 (00-)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -10882,7 +10882,7 @@
         </is>
       </c>
       <c r="D402" t="n">
-        <v>3259</v>
+        <v>3749</v>
       </c>
       <c r="E402" t="n">
         <v>10</v>
@@ -10894,12 +10894,12 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>821098AVT</t>
+          <t>821183AVT</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Daewoo Nexia (95-)</t>
+          <t>Комплект сцепления с подшипником Renault Logan (04-)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -10908,7 +10908,7 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>3667</v>
+        <v>3830</v>
       </c>
       <c r="E403" t="n">
         <v>10</v>
@@ -10920,12 +10920,12 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>826298AVT</t>
+          <t>826577AVT</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником GAZ 3110 / 3302 (ZMZ 402 / 406)</t>
+          <t>Комплект сцепления с подшипником Renault Logan I 1.4 (04-)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -10934,7 +10934,7 @@
         </is>
       </c>
       <c r="D404" t="n">
-        <v>4516</v>
+        <v>4662</v>
       </c>
       <c r="E404" t="n">
         <v>10</v>
@@ -10946,12 +10946,12 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>826298AVT</t>
+          <t>826326AVT</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником GAZ 3110 / 3302 (ZMZ 402 / 406)</t>
+          <t>Комплект сцепления с подшипником VW Polo Sedan (10-)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -10960,7 +10960,7 @@
         </is>
       </c>
       <c r="D405" t="n">
-        <v>4516</v>
+        <v>5297</v>
       </c>
       <c r="E405" t="n">
         <v>10</v>
@@ -10972,12 +10972,12 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>826995AVT</t>
+          <t>826474AVT</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Hyundai Solaris I (10-)</t>
+          <t>Комплект сцепления с подшипником Нива</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -10986,7 +10986,7 @@
         </is>
       </c>
       <c r="D406" t="n">
-        <v>4223</v>
+        <v>7272</v>
       </c>
       <c r="E406" t="n">
         <v>10</v>
@@ -10998,12 +10998,12 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>826995AVT</t>
+          <t>CD044AVT</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Hyundai Solaris I (10-)</t>
+          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.0</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -11012,7 +11012,7 @@
         </is>
       </c>
       <c r="D407" t="n">
-        <v>4223</v>
+        <v>5124</v>
       </c>
       <c r="E407" t="n">
         <v>10</v>
@@ -11024,12 +11024,12 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>826299AVT</t>
+          <t>CD046AVT</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Hyundai Sonata IV (98-) 2.0</t>
+          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.2</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -11038,10 +11038,10 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>8519</v>
+        <v>5364</v>
       </c>
       <c r="E408" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F408" t="n">
         <v>1</v>
@@ -11050,12 +11050,12 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>801515AVT</t>
+          <t>CD036AVT</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Nissan Almera N16 (00-04) 1.5</t>
+          <t>Конденсор Chevrolet Aveo T300 (11-) 1.2-1.6</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -11064,7 +11064,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>4482</v>
+        <v>4404</v>
       </c>
       <c r="E409" t="n">
         <v>10</v>
@@ -11076,12 +11076,12 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>826211AVT</t>
+          <t>CD047AVT</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 306 (97-) / Partner (96-) 1.4-1.6</t>
+          <t>Конденсор Chevrolet Captiva / Opel Antara (06-) 2.0-2.2D</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -11090,10 +11090,10 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>3830</v>
+        <v>4788</v>
       </c>
       <c r="E410" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F410" t="n">
         <v>1</v>
@@ -11102,12 +11102,12 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>821340AVT</t>
+          <t>CD048AVT</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 307 (00-) 1.1-1.4</t>
+          <t>Конденсор Chevrolet Cruze / Opel Astra J (09-) 1.4-1.8</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -11116,7 +11116,7 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>3912</v>
+        <v>3900</v>
       </c>
       <c r="E411" t="n">
         <v>10</v>
@@ -11128,12 +11128,12 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>826213AVT</t>
+          <t>CD033AVT</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Peugeot 307 (00-)</t>
+          <t>Конденсор Ford Focus II (05-) / Volvo S40 (04-) 1.4-2.0</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -11142,7 +11142,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>3749</v>
+        <v>4044</v>
       </c>
       <c r="E412" t="n">
         <v>10</v>
@@ -11154,12 +11154,12 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>821183AVT</t>
+          <t>CD037AVT</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Renault Logan (04-)</t>
+          <t>Конденсор Ford Mondeo (07-) / Volvo XC60 (08-) / XC70 (07-) / S80 (06-) 1.6-2.5</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -11168,7 +11168,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>3830</v>
+        <v>5388</v>
       </c>
       <c r="E413" t="n">
         <v>10</v>
@@ -11180,12 +11180,12 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>826577AVT</t>
+          <t>CD038AVT</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Renault Logan I 1.4 (04-)</t>
+          <t>Конденсор Hyundai Accent II (99-) MT 1.3-1.6</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -11194,7 +11194,7 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>4662</v>
+        <v>3708</v>
       </c>
       <c r="E414" t="n">
         <v>10</v>
@@ -11206,12 +11206,12 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>828009AVT</t>
+          <t>CD039AVT</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником UAZ 3151 / 3160 (ZMZ 409)</t>
+          <t>Конденсор Hyundai Tucson (15-) / Kia Sportage (16-) 1.6-2.0</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -11220,7 +11220,7 @@
         </is>
       </c>
       <c r="D415" t="n">
-        <v>5112</v>
+        <v>5856</v>
       </c>
       <c r="E415" t="n">
         <v>10</v>
@@ -11232,12 +11232,12 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>828009AVT</t>
+          <t>CD045AVT</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником UAZ 3151 / 3160 (ZMZ 409)</t>
+          <t>Конденсор Mazda 3 (09-) 1.6-2.5</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="D416" t="n">
-        <v>5112</v>
+        <v>5220</v>
       </c>
       <c r="E416" t="n">
         <v>10</v>
@@ -11258,12 +11258,12 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>826326AVT</t>
+          <t>CD041AVT</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником VW Polo Sedan (10-)</t>
+          <t>Конденсор Mitsubishi Outlander (12-) 2.0-2.4</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -11272,7 +11272,7 @@
         </is>
       </c>
       <c r="D417" t="n">
-        <v>5297</v>
+        <v>4428</v>
       </c>
       <c r="E417" t="n">
         <v>10</v>
@@ -11284,12 +11284,12 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>826474AVT</t>
+          <t>CD042AVT</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Нива</t>
+          <t>Конденсор Nissan Note (06-) / Tiida (04-) / Juke (10-) 1.2-1.6</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -11298,7 +11298,7 @@
         </is>
       </c>
       <c r="D418" t="n">
-        <v>7272</v>
+        <v>4248</v>
       </c>
       <c r="E418" t="n">
         <v>10</v>
@@ -11310,12 +11310,12 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>828003AVT</t>
+          <t>CD043AVT</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Приора</t>
+          <t>Конденсор Opel Astra H (04-) 1.4-1.8</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -11324,7 +11324,7 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>5544</v>
+        <v>4692</v>
       </c>
       <c r="E419" t="n">
         <v>10</v>
@@ -11336,12 +11336,12 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>828003AVT</t>
+          <t>CD034AVT</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Приора</t>
+          <t>Конденсор Skoda Kodiaq (16-) / Skoda Octavia A7 (13-) / VW Tiguan (16-) 1.2-2.0</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -11350,7 +11350,7 @@
         </is>
       </c>
       <c r="D420" t="n">
-        <v>5544</v>
+        <v>5292</v>
       </c>
       <c r="E420" t="n">
         <v>10</v>
@@ -11362,12 +11362,12 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>CD044AVT</t>
+          <t>CD035AVT</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.0</t>
+          <t>Конденсор Skoda Octavia A5 (04-) / VW Golf V (03-) 1.6-2.0</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -11376,7 +11376,7 @@
         </is>
       </c>
       <c r="D421" t="n">
-        <v>5124</v>
+        <v>5136</v>
       </c>
       <c r="E421" t="n">
         <v>10</v>
@@ -11388,12 +11388,12 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>CD046AVT</t>
+          <t>836383AVT</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.2</t>
+          <t>Одномассовый маховик HYUNDAI SOLARIS 17-</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -11402,10 +11402,10 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>5364</v>
+        <v>6000</v>
       </c>
       <c r="E422" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F422" t="n">
         <v>1</v>
@@ -11414,12 +11414,12 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>CD036AVT</t>
+          <t>836365AVT</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Конденсор Chevrolet Aveo T300 (11-) 1.2-1.6</t>
+          <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -11428,10 +11428,10 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>4404</v>
+        <v>3300</v>
       </c>
       <c r="E423" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F423" t="n">
         <v>1</v>
@@ -11440,12 +11440,12 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>CD047AVT</t>
+          <t>836365AVT</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Конденсор Chevrolet Captiva / Opel Antara (06-) 2.0-2.2D</t>
+          <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -11454,10 +11454,10 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>4788</v>
+        <v>3300</v>
       </c>
       <c r="E424" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F424" t="n">
         <v>1</v>
@@ -11466,12 +11466,12 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>CD048AVT</t>
+          <t>804295AVT</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Конденсор Chevrolet Cruze / Opel Astra J (09-) 1.4-1.8</t>
+          <t>Подшипник выжимной 2101-2107</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -11480,7 +11480,7 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>3900</v>
+        <v>1070</v>
       </c>
       <c r="E425" t="n">
         <v>10</v>
@@ -11492,12 +11492,12 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>CD033AVT</t>
+          <t>804296AVT</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Конденсор Ford Focus II (05-) / Volvo S40 (04-) 1.4-2.0</t>
+          <t>Подшипник выжимной 2108-2112</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>4044</v>
+        <v>811</v>
       </c>
       <c r="E426" t="n">
         <v>10</v>
@@ -11518,12 +11518,12 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>CD037AVT</t>
+          <t>804296AVT</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Конденсор Ford Mondeo (07-) / Volvo XC60 (08-) / XC70 (07-) / S80 (06-) 1.6-2.5</t>
+          <t>Подшипник выжимной 2108-2112</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -11532,7 +11532,7 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>5388</v>
+        <v>811</v>
       </c>
       <c r="E427" t="n">
         <v>10</v>
@@ -11544,12 +11544,12 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>CD038AVT</t>
+          <t>804036AVT</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Конденсор Hyundai Accent II (99-) MT 1.3-1.6</t>
+          <t>Подшипник выжимной CITROEN/PEUGEOT</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -11558,7 +11558,7 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>3708</v>
+        <v>696</v>
       </c>
       <c r="E428" t="n">
         <v>10</v>
@@ -11570,12 +11570,12 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>CD039AVT</t>
+          <t>804299AVT</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Конденсор Hyundai Tucson (15-) / Kia Sportage (16-) 1.6-2.0</t>
+          <t>Подшипник выжимной PSA</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -11584,7 +11584,7 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>5856</v>
+        <v>720</v>
       </c>
       <c r="E429" t="n">
         <v>10</v>
@@ -11596,12 +11596,12 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>CD045AVT</t>
+          <t>804587AVT</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Конденсор Mazda 3 (09-) 1.6-2.5</t>
+          <t>Подшипник гидравлический RENAULT DUSTER 1.6</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -11610,7 +11610,7 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>5220</v>
+        <v>7200</v>
       </c>
       <c r="E430" t="n">
         <v>10</v>
@@ -11622,12 +11622,12 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>CD041AVT</t>
+          <t>804544AVT</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Конденсор Mitsubishi Outlander (12-) 2.0-2.4</t>
+          <t>Подшипник гидравлический RENAULT/NISSAN</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -11636,7 +11636,7 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>4428</v>
+        <v>5640</v>
       </c>
       <c r="E431" t="n">
         <v>10</v>
@@ -11648,12 +11648,12 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>CD042AVT</t>
+          <t>804544AVT</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Конденсор Nissan Note (06-) / Tiida (04-) / Juke (10-) 1.2-1.6</t>
+          <t>Подшипник гидравлический RENAULT/NISSAN</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -11662,7 +11662,7 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>4248</v>
+        <v>5640</v>
       </c>
       <c r="E432" t="n">
         <v>10</v>
@@ -11674,12 +11674,12 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>CD043AVT</t>
+          <t>701514AVT</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Конденсор Opel Astra H (04-) 1.4-1.8</t>
+          <t>Радиатор Веста / Икс-Рэй</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -11688,7 +11688,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>4692</v>
+        <v>4212</v>
       </c>
       <c r="E433" t="n">
         <v>10</v>
@@ -11700,12 +11700,12 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>CD034AVT</t>
+          <t>RD204AVT</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Конденсор Skoda Kodiaq (16-) / Skoda Octavia A7 (13-) / VW Tiguan (16-) 1.2-2.0</t>
+          <t>Радиатор двигатель паяный Hyundai Solaris / KIA RIO II (17-) 1.4i / 1.6i</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -11714,7 +11714,7 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>5292</v>
+        <v>5585</v>
       </c>
       <c r="E434" t="n">
         <v>10</v>
@@ -11726,12 +11726,12 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>CD035AVT</t>
+          <t>RD026AVT</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Конденсор Skoda Octavia A5 (04-) / VW Golf V (03-) 1.6-2.0</t>
+          <t>Радиатор двигателя BMW X5 (E70) (07-) 30d/3.0t AT (паяный)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -11740,7 +11740,7 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>5136</v>
+        <v>12251</v>
       </c>
       <c r="E435" t="n">
         <v>10</v>
@@ -11752,12 +11752,12 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>836383AVT</t>
+          <t>RD008AVT</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Одномассовый маховик HYUNDAI SOLARIS 17-</t>
+          <t>Радиатор двигателя CHEVROLET CRUZE (09-) 1.6-1.8i / ORLANDO (10-) 1.8i MT</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -11766,10 +11766,10 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>6000</v>
+        <v>5634</v>
       </c>
       <c r="E436" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F436" t="n">
         <v>1</v>
@@ -11778,12 +11778,12 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>836365AVT</t>
+          <t>RD018AVT</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
+          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i AT</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -11792,7 +11792,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>3300</v>
+        <v>6371</v>
       </c>
       <c r="E437" t="n">
         <v>10</v>
@@ -11804,12 +11804,12 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>836365AVT</t>
+          <t>RD009AVT</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
+          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i MT</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -11818,7 +11818,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>3300</v>
+        <v>5555</v>
       </c>
       <c r="E438" t="n">
         <v>10</v>
@@ -11830,12 +11830,12 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>804295AVT</t>
+          <t>RD011AVT</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Подшипник выжимной 2101-2107</t>
+          <t>Радиатор двигателя Chevrolet Lacetti (04-) 1.4i/1.6i/1.8i MT (сборный)</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -11844,7 +11844,7 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>1070</v>
+        <v>4973</v>
       </c>
       <c r="E439" t="n">
         <v>10</v>
@@ -11856,12 +11856,12 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>804036AVT</t>
+          <t>RD016AVT</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Подшипник выжимной CITROEN/PEUGEOT</t>
+          <t>Радиатор двигателя Daewoo Matiz (01-) 0.8i/1.0i MT (сборный)</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -11870,7 +11870,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>696</v>
+        <v>2898</v>
       </c>
       <c r="E440" t="n">
         <v>10</v>
@@ -11882,12 +11882,12 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>804299AVT</t>
+          <t>RD023AVT</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Подшипник выжимной PSA</t>
+          <t>Радиатор двигателя Daewoo Matiz (1998-) 0.8 MT (сборный)</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>720</v>
+        <v>3323</v>
       </c>
       <c r="E441" t="n">
         <v>10</v>
@@ -11908,12 +11908,12 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>804587AVT</t>
+          <t>RD024AVT</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Подшипник гидравлический RENAULT DUSTER 1.6</t>
+          <t>Радиатор двигателя DAEWOO MATIZ (98-) 0.8i AT</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -11922,7 +11922,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>7200</v>
+        <v>4207</v>
       </c>
       <c r="E442" t="n">
         <v>10</v>
@@ -11934,12 +11934,12 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>804544AVT</t>
+          <t>RD015AVT</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Подшипник гидравлический RENAULT/NISSAN</t>
+          <t>Радиатор двигателя Daewoo Nexia (94-) 1.5/1.8 MT (сборный)</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -11948,7 +11948,7 @@
         </is>
       </c>
       <c r="D443" t="n">
-        <v>5640</v>
+        <v>3204</v>
       </c>
       <c r="E443" t="n">
         <v>10</v>
@@ -11960,12 +11960,12 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>804544AVT</t>
+          <t>RD040AVT</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Подшипник гидравлический RENAULT/NISSAN</t>
+          <t>Радиатор двигателя FORD FIESTA / FUSION (01-) 1.2-1.6i MT / AT</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -11974,7 +11974,7 @@
         </is>
       </c>
       <c r="D444" t="n">
-        <v>5640</v>
+        <v>2821</v>
       </c>
       <c r="E444" t="n">
         <v>10</v>
@@ -11986,12 +11986,12 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>701514AVT</t>
+          <t>RD004AVT</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Радиатор Веста / Икс-Рэй</t>
+          <t>Радиатор двигателя Ford Focus II (05-) A/C+ (сборный)</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -12000,7 +12000,7 @@
         </is>
       </c>
       <c r="D445" t="n">
-        <v>4212</v>
+        <v>4726</v>
       </c>
       <c r="E445" t="n">
         <v>10</v>
@@ -12012,12 +12012,12 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>RD204AVT</t>
+          <t>RD048AVT</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Радиатор двигатель паяный Hyundai Solaris / KIA RIO II (17-) 1.4i / 1.6i</t>
+          <t>Радиатор двигателя FORD FOCUS III / C-MAX (11-) 1.6-2.0i MT / AT</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -12026,7 +12026,7 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>5585</v>
+        <v>6349</v>
       </c>
       <c r="E446" t="n">
         <v>10</v>
@@ -12038,12 +12038,12 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>RD026AVT</t>
+          <t>RD055AVT</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Радиатор двигателя BMW X5 (E70) (07-) 30d/3.0t AT (паяный)</t>
+          <t>Радиатор двигателя HYUNDAI SOLARIS (10-) / KIA RIO (10-) 1.4-1.6i 6AT</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -12052,7 +12052,7 @@
         </is>
       </c>
       <c r="D447" t="n">
-        <v>12251</v>
+        <v>4195</v>
       </c>
       <c r="E447" t="n">
         <v>10</v>
@@ -12064,12 +12064,12 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>RD008AVT</t>
+          <t>RD001AVT</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Радиатор двигателя CHEVROLET CRUZE (09-) 1.6-1.8i / ORLANDO (10-) 1.8i MT</t>
+          <t>Радиатор двигателя HYUNDAI SOLARIS (RB) / KIA RIO III (UB) (11-) 1.4-1.6i MT</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -12078,7 +12078,7 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>5634</v>
+        <v>3139</v>
       </c>
       <c r="E448" t="n">
         <v>10</v>
@@ -12090,12 +12090,12 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>RD018AVT</t>
+          <t>RD002AVT</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i AT</t>
+          <t>Радиатор двигателя Hyundai Solaris / Kia Rio (10-&gt;) AT (сборный)</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -12104,7 +12104,7 @@
         </is>
       </c>
       <c r="D449" t="n">
-        <v>6371</v>
+        <v>3203</v>
       </c>
       <c r="E449" t="n">
         <v>10</v>
@@ -12116,12 +12116,12 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>RD009AVT</t>
+          <t>RD057AVT</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i MT</t>
+          <t>Радиатор двигателя HYUNDAI SOLARIS / KIA RIO (17-) 1.4-1.6i MT</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -12130,7 +12130,7 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>5555</v>
+        <v>3556</v>
       </c>
       <c r="E450" t="n">
         <v>10</v>
@@ -12142,12 +12142,12 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>RD011AVT</t>
+          <t>RD021AVT</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Chevrolet Lacetti (04-) 1.4i/1.6i/1.8i MT (сборный)</t>
+          <t>Радиатор двигателя KIA CEED (ED) (07-) 1.4-2.0i / HYUNDAI ELANTRA (HD) (06-) 1.6-2.0i / HYUNDAI i30</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -12156,7 +12156,7 @@
         </is>
       </c>
       <c r="D451" t="n">
-        <v>4973</v>
+        <v>4904</v>
       </c>
       <c r="E451" t="n">
         <v>10</v>
@@ -12168,12 +12168,12 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>RD016AVT</t>
+          <t>RD056AVT</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Daewoo Matiz (01-) 0.8i/1.0i MT (сборный)</t>
+          <t>Радиатор двигателя KIA CEED / HYUNDAI i30 / ELANTRA IV (06-) 1.4-2.0i AT</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -12182,7 +12182,7 @@
         </is>
       </c>
       <c r="D452" t="n">
-        <v>2898</v>
+        <v>6533</v>
       </c>
       <c r="E452" t="n">
         <v>10</v>
@@ -12194,12 +12194,12 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>RD023AVT</t>
+          <t>RD056AVT</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Daewoo Matiz (1998-) 0.8 MT (сборный)</t>
+          <t>Радиатор двигателя KIA CEED / HYUNDAI i30 / ELANTRA IV (06-) 1.4-2.0i AT</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -12208,7 +12208,7 @@
         </is>
       </c>
       <c r="D453" t="n">
-        <v>3323</v>
+        <v>6533</v>
       </c>
       <c r="E453" t="n">
         <v>10</v>
@@ -12220,12 +12220,12 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>RD024AVT</t>
+          <t>RD087AVT</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Радиатор двигателя DAEWOO MATIZ (98-) 0.8i AT</t>
+          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -12234,10 +12234,10 @@
         </is>
       </c>
       <c r="D454" t="n">
-        <v>4207</v>
+        <v>7403</v>
       </c>
       <c r="E454" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F454" t="n">
         <v>1</v>
@@ -12246,12 +12246,12 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>RD015AVT</t>
+          <t>RD087AVT</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Daewoo Nexia (94-) 1.5/1.8 MT (сборный)</t>
+          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -12260,10 +12260,10 @@
         </is>
       </c>
       <c r="D455" t="n">
-        <v>3204</v>
+        <v>7403</v>
       </c>
       <c r="E455" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F455" t="n">
         <v>1</v>
@@ -12272,12 +12272,12 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>RD040AVT</t>
+          <t>RD062AVT</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Радиатор двигателя FORD FIESTA / FUSION (01-) 1.2-1.6i MT / AT</t>
+          <t>Радиатор двигателя Kia Spectra (96-) 1.5-1.8 AT</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -12286,7 +12286,7 @@
         </is>
       </c>
       <c r="D456" t="n">
-        <v>2821</v>
+        <v>5772</v>
       </c>
       <c r="E456" t="n">
         <v>10</v>
@@ -12298,12 +12298,12 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>RD004AVT</t>
+          <t>RD020AVT</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Ford Focus II (05-) A/C+ (сборный)</t>
+          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i AT</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -12312,7 +12312,7 @@
         </is>
       </c>
       <c r="D457" t="n">
-        <v>4726</v>
+        <v>6194</v>
       </c>
       <c r="E457" t="n">
         <v>10</v>
@@ -12324,12 +12324,12 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>RD048AVT</t>
+          <t>RD019AVT</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Радиатор двигателя FORD FOCUS III / C-MAX (11-) 1.6-2.0i MT / AT</t>
+          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i MT</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -12338,7 +12338,7 @@
         </is>
       </c>
       <c r="D458" t="n">
-        <v>6349</v>
+        <v>4888</v>
       </c>
       <c r="E458" t="n">
         <v>10</v>
@@ -12350,12 +12350,12 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>RD055AVT</t>
+          <t>RD028AVT</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Радиатор двигателя HYUNDAI SOLARIS (10-) / KIA RIO (10-) 1.4-1.6i 6AT</t>
+          <t>Радиатор двигателя MB C (07-), E (-16), GLK (08-) 1.6-4.7i AT</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -12364,7 +12364,7 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>4195</v>
+        <v>10615</v>
       </c>
       <c r="E459" t="n">
         <v>10</v>
@@ -12376,12 +12376,12 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>RD001AVT</t>
+          <t>RD029AVT</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Радиатор двигателя HYUNDAI SOLARIS (RB) / KIA RIO III (UB) (11-) 1.4-1.6i MT</t>
+          <t>Радиатор двигателя MB E (16-), GLC (15-), C (14-), S (13-) 2.0-4.0 MT / AT</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -12390,7 +12390,7 @@
         </is>
       </c>
       <c r="D460" t="n">
-        <v>3139</v>
+        <v>12114</v>
       </c>
       <c r="E460" t="n">
         <v>10</v>
@@ -12402,12 +12402,12 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>RD002AVT</t>
+          <t>RD027AVT</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Hyundai Solaris / Kia Rio (10-&gt;) AT (сборный)</t>
+          <t>Радиатор двигателя MB ML (12-) GL, GLS, GLE (-18) 2.2-5.5i AT</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -12416,7 +12416,7 @@
         </is>
       </c>
       <c r="D461" t="n">
-        <v>3203</v>
+        <v>11959</v>
       </c>
       <c r="E461" t="n">
         <v>10</v>
@@ -12428,12 +12428,12 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>RD057AVT</t>
+          <t>RD005AVT</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Радиатор двигателя HYUNDAI SOLARIS / KIA RIO (17-) 1.4-1.6i MT</t>
+          <t>Радиатор двигателя MITSUBISHI ASX (10-) 1.6-1.8i / OUTLANDER (07-) 2.0-2.4i / LANCER (07-) 1.5-2.0i</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -12442,7 +12442,7 @@
         </is>
       </c>
       <c r="D462" t="n">
-        <v>3556</v>
+        <v>4110</v>
       </c>
       <c r="E462" t="n">
         <v>10</v>
@@ -12454,12 +12454,12 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>RD021AVT</t>
+          <t>RD060AVT</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA CEED (ED) (07-) 1.4-2.0i / HYUNDAI ELANTRA (HD) (06-) 1.6-2.0i / HYUNDAI i30</t>
+          <t>Радиатор двигателя MITSUBISHI OUTLANDER III (12-) 2.0-3.0i MT / AT</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -12468,7 +12468,7 @@
         </is>
       </c>
       <c r="D463" t="n">
-        <v>4904</v>
+        <v>7210</v>
       </c>
       <c r="E463" t="n">
         <v>10</v>
@@ -12480,12 +12480,12 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>RD056AVT</t>
+          <t>RD017AVT</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA CEED / HYUNDAI i30 / ELANTRA IV (06-) 1.4-2.0i AT</t>
+          <t>Радиатор двигателя NISSAN QASHQAI (J10) (07-) 1.6-2.0i MT / AT</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -12494,7 +12494,7 @@
         </is>
       </c>
       <c r="D464" t="n">
-        <v>6533</v>
+        <v>7289</v>
       </c>
       <c r="E464" t="n">
         <v>10</v>
@@ -12506,12 +12506,12 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>RD056AVT</t>
+          <t>RD063AVT</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA CEED / HYUNDAI i30 / ELANTRA IV (06-) 1.4-2.0i AT</t>
+          <t>Радиатор двигателя Nissan X-Trail (14-) 2.0-2.5</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -12520,7 +12520,7 @@
         </is>
       </c>
       <c r="D465" t="n">
-        <v>6533</v>
+        <v>5864</v>
       </c>
       <c r="E465" t="n">
         <v>10</v>
@@ -12532,12 +12532,12 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>RD087AVT</t>
+          <t>RD014AVT</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
+          <t>Радиатор двигателя OPEL ZAFIRA / ASTRA H (05-) 1.6-1.8i MT / AT</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="D466" t="n">
-        <v>7403</v>
+        <v>5726</v>
       </c>
       <c r="E466" t="n">
         <v>10</v>
@@ -12558,12 +12558,12 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>RD087AVT</t>
+          <t>RD003AVT</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
+          <t>Радиатор двигателя Renault Logan (04-) 1.4i/1.6i А/С+ (сборный)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -12572,7 +12572,7 @@
         </is>
       </c>
       <c r="D467" t="n">
-        <v>7403</v>
+        <v>2794</v>
       </c>
       <c r="E467" t="n">
         <v>10</v>
@@ -12584,12 +12584,12 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>RD062AVT</t>
+          <t>RD058AVT</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia Spectra (96-) 1.5-1.8 AT</t>
+          <t>Радиатор двигателя RENAULT LOGAN / SANDERO / SYMBOL (04-) 1.4-1.6i / Lada LARGUS K7M 1.6i (12-) MT /</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -12598,7 +12598,7 @@
         </is>
       </c>
       <c r="D468" t="n">
-        <v>5772</v>
+        <v>2893</v>
       </c>
       <c r="E468" t="n">
         <v>10</v>
@@ -12610,12 +12610,12 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>RD020AVT</t>
+          <t>RD013AVT</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i AT</t>
+          <t>Радиатор двигателя Skoda Octavia A5 (04-)/VW Golf V (03-) (сборный)</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -12624,7 +12624,7 @@
         </is>
       </c>
       <c r="D469" t="n">
-        <v>6194</v>
+        <v>4436</v>
       </c>
       <c r="E469" t="n">
         <v>10</v>
@@ -12636,12 +12636,12 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>RD019AVT</t>
+          <t>RD007AVT</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i MT</t>
+          <t>Радиатор двигателя TOYOTA AURIS (E15) (07-) / (E18) (12-) 1.3-1.6i / AVENSIS (T27) (08-) 1.6-2.0i /</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -12650,7 +12650,7 @@
         </is>
       </c>
       <c r="D470" t="n">
-        <v>4888</v>
+        <v>5714</v>
       </c>
       <c r="E470" t="n">
         <v>10</v>
@@ -12662,12 +12662,12 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>RD028AVT</t>
+          <t>RD025AVT</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MB C (07-), E (-16), GLK (08-) 1.6-4.7i AT</t>
+          <t>Радиатор двигателя TOYOTA CAMRY (11-16) 2.5-3.5i AT</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -12676,7 +12676,7 @@
         </is>
       </c>
       <c r="D471" t="n">
-        <v>10615</v>
+        <v>7470</v>
       </c>
       <c r="E471" t="n">
         <v>10</v>
@@ -12688,12 +12688,12 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>RD029AVT</t>
+          <t>RD050AVT</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MB E (16-), GLC (15-), C (14-), S (13-) 2.0-4.0 MT / AT</t>
+          <t>Радиатор двигателя Toyota LC200 (08-) 4.5D</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -12702,10 +12702,10 @@
         </is>
       </c>
       <c r="D472" t="n">
-        <v>12114</v>
+        <v>12649</v>
       </c>
       <c r="E472" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F472" t="n">
         <v>1</v>
@@ -12714,12 +12714,12 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>RD027AVT</t>
+          <t>RD050AVT</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MB ML (12-) GL, GLS, GLE (-18) 2.2-5.5i AT</t>
+          <t>Радиатор двигателя Toyota LC200 (08-) 4.5D</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -12728,10 +12728,10 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>11959</v>
+        <v>12649</v>
       </c>
       <c r="E473" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F473" t="n">
         <v>1</v>
@@ -12740,12 +12740,12 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>RD005AVT</t>
+          <t>RD010AVT</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MITSUBISHI ASX (10-) 1.6-1.8i / OUTLANDER (07-) 2.0-2.4i / LANCER (07-) 1.5-2.0i</t>
+          <t>Радиатор двигателя Toyota RAV 4 (06-&gt;)/RAV 4 (13-&gt;) 2.0i MT/AT (сборный)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -12754,7 +12754,7 @@
         </is>
       </c>
       <c r="D474" t="n">
-        <v>4110</v>
+        <v>5429</v>
       </c>
       <c r="E474" t="n">
         <v>10</v>
@@ -12766,12 +12766,12 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>RD060AVT</t>
+          <t>RD006AVT</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MITSUBISHI OUTLANDER III (12-) 2.0-3.0i MT / AT</t>
+          <t>Радиатор двигателя VW Polo Sedan (10-)/(20-)/Skoda Rapid (12-)/(20-) (сборный)</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -12780,7 +12780,7 @@
         </is>
       </c>
       <c r="D475" t="n">
-        <v>7210</v>
+        <v>3888</v>
       </c>
       <c r="E475" t="n">
         <v>10</v>
@@ -12792,12 +12792,12 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>RD017AVT</t>
+          <t>RD221AVT</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Радиатор двигателя NISSAN QASHQAI (J10) (07-) 1.6-2.0i MT / AT</t>
+          <t>Радиатор двигателя паяный Audi A4/А6 (94-) 1.6i, 1.8i, 1.9TDi, 1.8T</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -12806,7 +12806,7 @@
         </is>
       </c>
       <c r="D476" t="n">
-        <v>7289</v>
+        <v>6386</v>
       </c>
       <c r="E476" t="n">
         <v>10</v>
@@ -12818,12 +12818,12 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>RD063AVT</t>
+          <t>RD302AVT</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Nissan X-Trail (14-) 2.0-2.5</t>
+          <t>Радиатор двигателя паяный Ford Ranger (98-) 2.5TDi</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -12832,7 +12832,7 @@
         </is>
       </c>
       <c r="D477" t="n">
-        <v>5864</v>
+        <v>6724</v>
       </c>
       <c r="E477" t="n">
         <v>10</v>
@@ -12844,12 +12844,12 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>RD014AVT</t>
+          <t>RD220AVT</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Радиатор двигателя OPEL ZAFIRA / ASTRA H (05-) 1.6-1.8i MT / AT</t>
+          <t>Радиатор двигателя паяный Honda CR-V III (06-) 2.0i</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -12858,7 +12858,7 @@
         </is>
       </c>
       <c r="D478" t="n">
-        <v>5726</v>
+        <v>6842</v>
       </c>
       <c r="E478" t="n">
         <v>10</v>
@@ -12870,12 +12870,12 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>RD003AVT</t>
+          <t>RD225AVT</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Renault Logan (04-) 1.4i/1.6i А/С+ (сборный)</t>
+          <t>Радиатор двигателя паяный Hyundai Santa Fe II (06-) 2.2CRDi</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -12884,7 +12884,7 @@
         </is>
       </c>
       <c r="D479" t="n">
-        <v>2794</v>
+        <v>8759</v>
       </c>
       <c r="E479" t="n">
         <v>10</v>
@@ -12896,12 +12896,12 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>RD058AVT</t>
+          <t>RD274AVT</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Радиатор двигателя RENAULT LOGAN / SANDERO / SYMBOL (04-) 1.4-1.6i / Lada LARGUS K7M 1.6i (12-) MT /</t>
+          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i, 2.0i AT</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -12910,7 +12910,7 @@
         </is>
       </c>
       <c r="D480" t="n">
-        <v>2893</v>
+        <v>8366</v>
       </c>
       <c r="E480" t="n">
         <v>10</v>
@@ -12922,12 +12922,12 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>RD013AVT</t>
+          <t>RD207AVT</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Skoda Octavia A5 (04-)/VW Golf V (03-) (сборный)</t>
+          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i, 2.0i MT</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -12936,7 +12936,7 @@
         </is>
       </c>
       <c r="D481" t="n">
-        <v>4436</v>
+        <v>7973</v>
       </c>
       <c r="E481" t="n">
         <v>10</v>
@@ -12948,12 +12948,12 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>RD007AVT</t>
+          <t>RD230AVT</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Радиатор двигателя TOYOTA AURIS (E15) (07-) / (E18) (12-) 1.3-1.6i / AVENSIS (T27) (08-) 1.6-2.0i /</t>
+          <t>Радиатор двигателя паяный Mitsubishi Outlander I (03-) 2.0i, 2.4i</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -12962,7 +12962,7 @@
         </is>
       </c>
       <c r="D482" t="n">
-        <v>5714</v>
+        <v>6593</v>
       </c>
       <c r="E482" t="n">
         <v>10</v>
@@ -12974,12 +12974,12 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>RD025AVT</t>
+          <t>RD211AVT</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Радиатор двигателя TOYOTA CAMRY (11-16) 2.5-3.5i AT</t>
+          <t>Радиатор двигателя паяный Nissan Almera Classic B10 (06-) 1.6i</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -12988,7 +12988,7 @@
         </is>
       </c>
       <c r="D483" t="n">
-        <v>7470</v>
+        <v>5980</v>
       </c>
       <c r="E483" t="n">
         <v>10</v>
@@ -13000,12 +13000,12 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>RD050AVT</t>
+          <t>RD264AVT</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota LC200 (08-) 4.5D</t>
+          <t>Радиатор двигателя паяный Nissan X-Trail T30 (01-) 2.0i, 2.5i</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -13014,7 +13014,7 @@
         </is>
       </c>
       <c r="D484" t="n">
-        <v>12649</v>
+        <v>5741</v>
       </c>
       <c r="E484" t="n">
         <v>10</v>
@@ -13026,12 +13026,12 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>RD050AVT</t>
+          <t>RD205AVT</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota LC200 (08-) 4.5D</t>
+          <t>Радиатор двигателя паяный Skoda Octavia/Kodiaq A7 (13-) 1.2TSi, 1.4TSi, 1.6TDi, 2.0TDi</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -13040,7 +13040,7 @@
         </is>
       </c>
       <c r="D485" t="n">
-        <v>12649</v>
+        <v>5630</v>
       </c>
       <c r="E485" t="n">
         <v>10</v>
@@ -13052,12 +13052,12 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>RD010AVT</t>
+          <t>RD217AVT</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota RAV 4 (06-&gt;)/RAV 4 (13-&gt;) 2.0i MT/AT (сборный)</t>
+          <t>Радиатор двигателя паяный Suzuki SX4 I (06-) 1.6i</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -13066,7 +13066,7 @@
         </is>
       </c>
       <c r="D486" t="n">
-        <v>5429</v>
+        <v>7183</v>
       </c>
       <c r="E486" t="n">
         <v>10</v>
@@ -13078,12 +13078,12 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>RD006AVT</t>
+          <t>RD059AVT</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Радиатор двигателя VW Polo Sedan (10-)/(20-)/Skoda Rapid (12-)/(20-) (сборный)</t>
+          <t>Радиатор двигателя паяный VW PASSAT B6 / B7 JETTA III /IV / TIGUAN / TOURAN / SKODA OCTAVIA II / SUP</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -13092,7 +13092,7 @@
         </is>
       </c>
       <c r="D487" t="n">
-        <v>3888</v>
+        <v>6286</v>
       </c>
       <c r="E487" t="n">
         <v>10</v>
@@ -13104,12 +13104,12 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>RD221AVT</t>
+          <t>RD250AVT</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Audi A4/А6 (94-) 1.6i, 1.8i, 1.9TDi, 1.8T</t>
+          <t>Радиатор двигателя сборный Chevrolet Rezzo (00-) 1.6i, 1.8i</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -13118,7 +13118,7 @@
         </is>
       </c>
       <c r="D488" t="n">
-        <v>6386</v>
+        <v>5549</v>
       </c>
       <c r="E488" t="n">
         <v>10</v>
@@ -13130,12 +13130,12 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>RD302AVT</t>
+          <t>RD012AVT</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Ford Ranger (98-) 2.5TDi</t>
+          <t>Радиатор двигателя сборный VW Jetta (05)/(11-)/Skoda Octavia A5 (04-)</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -13144,7 +13144,7 @@
         </is>
       </c>
       <c r="D489" t="n">
-        <v>6724</v>
+        <v>4106</v>
       </c>
       <c r="E489" t="n">
         <v>10</v>
@@ -13156,12 +13156,12 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>RD220AVT</t>
+          <t>735634AVT</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Honda CR-V III (06-) 2.0i</t>
+          <t>Радиатор Рено Логан II</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -13170,7 +13170,7 @@
         </is>
       </c>
       <c r="D490" t="n">
-        <v>6842</v>
+        <v>3834</v>
       </c>
       <c r="E490" t="n">
         <v>10</v>
@@ -13182,12 +13182,12 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>RD225AVT</t>
+          <t>438544AVT</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Hyundai Santa Fe II (06-) 2.2CRDi</t>
+          <t>Стартер Renault Arkana</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="D491" t="n">
-        <v>8759</v>
+        <v>6600</v>
       </c>
       <c r="E491" t="n">
         <v>10</v>
@@ -13208,12 +13208,12 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>RD274AVT</t>
+          <t>438545AVT</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i, 2.0i AT</t>
+          <t>Стартер Toyota Camry / Rav4</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -13222,7 +13222,7 @@
         </is>
       </c>
       <c r="D492" t="n">
-        <v>8366</v>
+        <v>6600</v>
       </c>
       <c r="E492" t="n">
         <v>10</v>
@@ -13234,12 +13234,12 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>RD207AVT</t>
+          <t>438286AVT</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i, 2.0i MT</t>
+          <t>Стартер Гранта АКПП</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -13248,7 +13248,7 @@
         </is>
       </c>
       <c r="D493" t="n">
-        <v>7973</v>
+        <v>5916</v>
       </c>
       <c r="E493" t="n">
         <v>10</v>
@@ -13260,12 +13260,12 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>RD230AVT</t>
+          <t>438286AVT</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Mitsubishi Outlander I (03-) 2.0i, 2.4i</t>
+          <t>Стартер Гранта АКПП</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -13274,7 +13274,7 @@
         </is>
       </c>
       <c r="D494" t="n">
-        <v>6593</v>
+        <v>5916</v>
       </c>
       <c r="E494" t="n">
         <v>10</v>
@@ -13286,12 +13286,12 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>RD211AVT</t>
+          <t>438285AVT</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Nissan Almera Classic B10 (06-) 1.6i</t>
+          <t>Стартер Гранта МКПП</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -13300,7 +13300,7 @@
         </is>
       </c>
       <c r="D495" t="n">
-        <v>5980</v>
+        <v>5820</v>
       </c>
       <c r="E495" t="n">
         <v>10</v>
@@ -13312,12 +13312,12 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>RD264AVT</t>
+          <t>438327AVT</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Nissan X-Trail T30 (01-) 2.0i, 2.5i</t>
+          <t>Стартер Рено F4R</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -13326,7 +13326,7 @@
         </is>
       </c>
       <c r="D496" t="n">
-        <v>5741</v>
+        <v>8400</v>
       </c>
       <c r="E496" t="n">
         <v>10</v>
@@ -13338,12 +13338,12 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>RD205AVT</t>
+          <t>438324AVT</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Skoda Octavia/Kodiaq A7 (13-) 1.2TSi, 1.4TSi, 1.6TDi, 2.0TDi</t>
+          <t>Стартер Рено H4M</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -13352,7 +13352,7 @@
         </is>
       </c>
       <c r="D497" t="n">
-        <v>5630</v>
+        <v>5964</v>
       </c>
       <c r="E497" t="n">
         <v>10</v>
@@ -13364,12 +13364,12 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>RD217AVT</t>
+          <t>438328AVT</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Suzuki SX4 I (06-) 1.6i</t>
+          <t>Стартер Рено K4M</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -13378,7 +13378,7 @@
         </is>
       </c>
       <c r="D498" t="n">
-        <v>7183</v>
+        <v>7200</v>
       </c>
       <c r="E498" t="n">
         <v>10</v>
@@ -13390,12 +13390,12 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>RD059AVT</t>
+          <t>438328AVT</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный VW PASSAT B6 / B7 JETTA III /IV / TIGUAN / TOURAN / SKODA OCTAVIA II / SUP</t>
+          <t>Стартер Рено K4M</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -13404,7 +13404,7 @@
         </is>
       </c>
       <c r="D499" t="n">
-        <v>6286</v>
+        <v>7200</v>
       </c>
       <c r="E499" t="n">
         <v>10</v>
@@ -13416,12 +13416,12 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>RD250AVT</t>
+          <t>FC001AVT</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Радиатор двигателя сборный Chevrolet Rezzo (00-) 1.6i, 1.8i</t>
+          <t>Фильтр отопителя LADA VESTA</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -13430,7 +13430,7 @@
         </is>
       </c>
       <c r="D500" t="n">
-        <v>5549</v>
+        <v>420</v>
       </c>
       <c r="E500" t="n">
         <v>10</v>
@@ -13442,12 +13442,12 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>RD012AVT</t>
+          <t>252.5215900-14</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Радиатор двигателя сборный VW Jetta (05)/(11-)/Skoda Octavia A5 (04-)</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 350 мм</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -13456,7 +13456,7 @@
         </is>
       </c>
       <c r="D501" t="n">
-        <v>4106</v>
+        <v>518</v>
       </c>
       <c r="E501" t="n">
         <v>10</v>
@@ -13468,12 +13468,12 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>735634AVT</t>
+          <t>252.5215900-16</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Радиатор Рено Логан II</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 400 мм</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -13482,7 +13482,7 @@
         </is>
       </c>
       <c r="D502" t="n">
-        <v>3834</v>
+        <v>552</v>
       </c>
       <c r="E502" t="n">
         <v>10</v>
@@ -13494,12 +13494,12 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>438544AVT</t>
+          <t>252.5215900-17</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Стартер Renault Arkana</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 430 мм</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -13508,7 +13508,7 @@
         </is>
       </c>
       <c r="D503" t="n">
-        <v>6600</v>
+        <v>552</v>
       </c>
       <c r="E503" t="n">
         <v>10</v>
@@ -13520,12 +13520,12 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>438545AVT</t>
+          <t>252.5215900-18</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Стартер Toyota Camry / Rav4</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 450 мм</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -13534,7 +13534,7 @@
         </is>
       </c>
       <c r="D504" t="n">
-        <v>6600</v>
+        <v>552</v>
       </c>
       <c r="E504" t="n">
         <v>10</v>
@@ -13546,12 +13546,12 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>438285AVT</t>
+          <t>252.5215900-20</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Стартер Гранта МКПП</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 500 мм</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -13560,7 +13560,7 @@
         </is>
       </c>
       <c r="D505" t="n">
-        <v>5820</v>
+        <v>582</v>
       </c>
       <c r="E505" t="n">
         <v>10</v>
@@ -13572,12 +13572,12 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>438327AVT</t>
+          <t>252.5215900-22</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Стартер Рено F4R</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 550 мм</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="D506" t="n">
-        <v>8400</v>
+        <v>582</v>
       </c>
       <c r="E506" t="n">
         <v>10</v>
@@ -13598,12 +13598,12 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>438324AVT</t>
+          <t>252.5215900-24</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Стартер Рено H4M</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 600 мм</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -13612,7 +13612,7 @@
         </is>
       </c>
       <c r="D507" t="n">
-        <v>5964</v>
+        <v>641</v>
       </c>
       <c r="E507" t="n">
         <v>10</v>
@@ -13624,12 +13624,12 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>438328AVT</t>
+          <t>252.5215900-26</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Стартер Рено K4M</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 650 мм</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -13638,7 +13638,7 @@
         </is>
       </c>
       <c r="D508" t="n">
-        <v>7200</v>
+        <v>672</v>
       </c>
       <c r="E508" t="n">
         <v>10</v>
@@ -13650,12 +13650,12 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>438328AVT</t>
+          <t>25.5215900-13</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Стартер Рено K4M</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 330 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -13664,7 +13664,7 @@
         </is>
       </c>
       <c r="D509" t="n">
-        <v>7200</v>
+        <v>299</v>
       </c>
       <c r="E509" t="n">
         <v>10</v>
@@ -13676,12 +13676,12 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>FC001AVT</t>
+          <t>25.5215900-14</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Фильтр отопителя LADA VESTA</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 350 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -13690,7 +13690,7 @@
         </is>
       </c>
       <c r="D510" t="n">
-        <v>420</v>
+        <v>299</v>
       </c>
       <c r="E510" t="n">
         <v>10</v>
@@ -13702,12 +13702,12 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>252.5215900-14</t>
+          <t>25.5215900-16</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 350 мм</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 400 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -13716,7 +13716,7 @@
         </is>
       </c>
       <c r="D511" t="n">
-        <v>518</v>
+        <v>334</v>
       </c>
       <c r="E511" t="n">
         <v>10</v>
@@ -13728,12 +13728,12 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>252.5215900-16</t>
+          <t>25.5215900-17</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 400 мм</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 430 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -13742,7 +13742,7 @@
         </is>
       </c>
       <c r="D512" t="n">
-        <v>552</v>
+        <v>334</v>
       </c>
       <c r="E512" t="n">
         <v>10</v>
@@ -13754,12 +13754,12 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>252.5215900-17</t>
+          <t>25.5215900-18</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 430 мм</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 450 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -13768,7 +13768,7 @@
         </is>
       </c>
       <c r="D513" t="n">
-        <v>552</v>
+        <v>334</v>
       </c>
       <c r="E513" t="n">
         <v>10</v>
@@ -13780,12 +13780,12 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>252.5215900-18</t>
+          <t>25.5215900-19</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 450 мм</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 480 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -13794,7 +13794,7 @@
         </is>
       </c>
       <c r="D514" t="n">
-        <v>552</v>
+        <v>334</v>
       </c>
       <c r="E514" t="n">
         <v>10</v>
@@ -13806,12 +13806,12 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>252.5215900-20</t>
+          <t>25.5215900-20</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 500 мм</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 500 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -13820,7 +13820,7 @@
         </is>
       </c>
       <c r="D515" t="n">
-        <v>582</v>
+        <v>352</v>
       </c>
       <c r="E515" t="n">
         <v>10</v>
@@ -13832,12 +13832,12 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>252.5215900-22</t>
+          <t>25.5215900-21</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 550 мм</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 530 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="D516" t="n">
-        <v>582</v>
+        <v>352</v>
       </c>
       <c r="E516" t="n">
         <v>10</v>
@@ -13858,12 +13858,12 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>252.5215900-24</t>
+          <t>25.5215900-22</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 600 мм</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 550 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -13872,7 +13872,7 @@
         </is>
       </c>
       <c r="D517" t="n">
-        <v>641</v>
+        <v>352</v>
       </c>
       <c r="E517" t="n">
         <v>10</v>
@@ -13884,12 +13884,12 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>252.5215900-26</t>
+          <t>25.5215900-24</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 650 мм</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 600 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -13898,7 +13898,7 @@
         </is>
       </c>
       <c r="D518" t="n">
-        <v>672</v>
+        <v>386</v>
       </c>
       <c r="E518" t="n">
         <v>10</v>
@@ -13910,12 +13910,12 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>25.5215900-13</t>
+          <t>25.5215900-26</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 330 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 650 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -13924,7 +13924,7 @@
         </is>
       </c>
       <c r="D519" t="n">
-        <v>299</v>
+        <v>406</v>
       </c>
       <c r="E519" t="n">
         <v>10</v>
@@ -13936,12 +13936,12 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>25.5215900-14</t>
+          <t>25.5215900-28</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 350 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 700 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -13950,7 +13950,7 @@
         </is>
       </c>
       <c r="D520" t="n">
-        <v>299</v>
+        <v>406</v>
       </c>
       <c r="E520" t="n">
         <v>10</v>
@@ -13962,12 +13962,12 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>25.5215900-16</t>
+          <t>СЛ136Е-5205900-01</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 400 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, каркасная, 410 мм, тип крепления "Hook" ("Крюк") и "Bayonet" ("Штыковой замо</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -13976,7 +13976,7 @@
         </is>
       </c>
       <c r="D521" t="n">
-        <v>334</v>
+        <v>144</v>
       </c>
       <c r="E521" t="n">
         <v>10</v>
@@ -13988,12 +13988,12 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>25.5215900-17</t>
+          <t>23.5215900-01</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 430 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, каркасная, 475 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -14002,7 +14002,7 @@
         </is>
       </c>
       <c r="D522" t="n">
-        <v>334</v>
+        <v>144</v>
       </c>
       <c r="E522" t="n">
         <v>10</v>
@@ -14014,12 +14014,12 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>25.5215900-18</t>
+          <t>49.5205900-01</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 450 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, каркасная, 500 мм, тип крепления "Hook" ("Крюк") и "Bayonet" ("Штыковой замо</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -14028,7 +14028,7 @@
         </is>
       </c>
       <c r="D523" t="n">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="E523" t="n">
         <v>10</v>
@@ -14040,12 +14040,12 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>25.5215900-19</t>
+          <t>731.5205900-01</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 480 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, каркасная, 525 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -14054,7 +14054,7 @@
         </is>
       </c>
       <c r="D524" t="n">
-        <v>334</v>
+        <v>287</v>
       </c>
       <c r="E524" t="n">
         <v>10</v>
@@ -14066,12 +14066,12 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>25.5215900-20</t>
+          <t>11.5215900-01</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 500 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, каркасная, 550 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -14080,7 +14080,7 @@
         </is>
       </c>
       <c r="D525" t="n">
-        <v>352</v>
+        <v>295</v>
       </c>
       <c r="E525" t="n">
         <v>10</v>
@@ -14092,12 +14092,12 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>25.5215900-21</t>
+          <t>93.5205900-01</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 530 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, каркасная, 600 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -14106,7 +14106,7 @@
         </is>
       </c>
       <c r="D526" t="n">
-        <v>352</v>
+        <v>144</v>
       </c>
       <c r="E526" t="n">
         <v>10</v>
@@ -14118,12 +14118,12 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>25.5215900-22</t>
+          <t>251.5215900-15</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 550 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 380 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -14132,7 +14132,7 @@
         </is>
       </c>
       <c r="D527" t="n">
-        <v>352</v>
+        <v>426</v>
       </c>
       <c r="E527" t="n">
         <v>10</v>
@@ -14144,12 +14144,12 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>25.5215900-24</t>
+          <t>251.5215900-16</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 600 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 400 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -14158,7 +14158,7 @@
         </is>
       </c>
       <c r="D528" t="n">
-        <v>386</v>
+        <v>426</v>
       </c>
       <c r="E528" t="n">
         <v>10</v>
@@ -14170,12 +14170,12 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>25.5215900-26</t>
+          <t>251.5215900-17</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 650 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 430 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -14184,7 +14184,7 @@
         </is>
       </c>
       <c r="D529" t="n">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="E529" t="n">
         <v>10</v>
@@ -14196,12 +14196,12 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>25.5215900-28</t>
+          <t>251.5215900-18</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 700 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 450 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -14210,7 +14210,7 @@
         </is>
       </c>
       <c r="D530" t="n">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="E530" t="n">
         <v>10</v>
@@ -14222,12 +14222,12 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>СЛ136Е-5205900-01</t>
+          <t>251.5215900-19</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 410 мм, тип крепления "Hook" ("Крюк") и "Bayonet" ("Штыковой замо</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 480 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -14236,7 +14236,7 @@
         </is>
       </c>
       <c r="D531" t="n">
-        <v>144</v>
+        <v>426</v>
       </c>
       <c r="E531" t="n">
         <v>10</v>
@@ -14248,12 +14248,12 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>23.5215900-01</t>
+          <t>251.5215900-20</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 475 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 500 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -14262,7 +14262,7 @@
         </is>
       </c>
       <c r="D532" t="n">
-        <v>144</v>
+        <v>448</v>
       </c>
       <c r="E532" t="n">
         <v>10</v>
@@ -14274,12 +14274,12 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>49.5205900-01</t>
+          <t>251.5215900-24</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 500 мм, тип крепления "Hook" ("Крюк") и "Bayonet" ("Штыковой замо</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 600 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -14288,7 +14288,7 @@
         </is>
       </c>
       <c r="D533" t="n">
-        <v>366</v>
+        <v>492</v>
       </c>
       <c r="E533" t="n">
         <v>10</v>
@@ -14300,12 +14300,12 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>731.5205900-01</t>
+          <t>251.5215900-26</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 525 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 650 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -14314,7 +14314,7 @@
         </is>
       </c>
       <c r="D534" t="n">
-        <v>287</v>
+        <v>518</v>
       </c>
       <c r="E534" t="n">
         <v>10</v>
@@ -14326,12 +14326,12 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>11.5215900-01</t>
+          <t>595842AVT</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 550 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Якорь стартера</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -14340,376 +14340,12 @@
         </is>
       </c>
       <c r="D535" t="n">
-        <v>295</v>
+        <v>1416</v>
       </c>
       <c r="E535" t="n">
         <v>10</v>
       </c>
       <c r="F535" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" t="inlineStr">
-        <is>
-          <t>93.5205900-01</t>
-        </is>
-      </c>
-      <c r="B536" t="inlineStr">
-        <is>
-          <t>Щетка стеклоочистителя, каркасная, 600 мм, тип крепления "Hook" ("Крюк")</t>
-        </is>
-      </c>
-      <c r="C536" t="inlineStr">
-        <is>
-          <t>AVTOPRIBOR</t>
-        </is>
-      </c>
-      <c r="D536" t="n">
-        <v>144</v>
-      </c>
-      <c r="E536" t="n">
-        <v>10</v>
-      </c>
-      <c r="F536" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" t="inlineStr">
-        <is>
-          <t>251.5215900-15</t>
-        </is>
-      </c>
-      <c r="B537" t="inlineStr">
-        <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 380 мм, в комплекте 9 адаптеров</t>
-        </is>
-      </c>
-      <c r="C537" t="inlineStr">
-        <is>
-          <t>AVTOPRIBOR</t>
-        </is>
-      </c>
-      <c r="D537" t="n">
-        <v>426</v>
-      </c>
-      <c r="E537" t="n">
-        <v>10</v>
-      </c>
-      <c r="F537" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="inlineStr">
-        <is>
-          <t>251.5215900-16</t>
-        </is>
-      </c>
-      <c r="B538" t="inlineStr">
-        <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 400 мм, в комплекте 9 адаптеров</t>
-        </is>
-      </c>
-      <c r="C538" t="inlineStr">
-        <is>
-          <t>AVTOPRIBOR</t>
-        </is>
-      </c>
-      <c r="D538" t="n">
-        <v>426</v>
-      </c>
-      <c r="E538" t="n">
-        <v>10</v>
-      </c>
-      <c r="F538" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" t="inlineStr">
-        <is>
-          <t>251.5215900-17</t>
-        </is>
-      </c>
-      <c r="B539" t="inlineStr">
-        <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 430 мм, в комплекте 9 адаптеров</t>
-        </is>
-      </c>
-      <c r="C539" t="inlineStr">
-        <is>
-          <t>AVTOPRIBOR</t>
-        </is>
-      </c>
-      <c r="D539" t="n">
-        <v>426</v>
-      </c>
-      <c r="E539" t="n">
-        <v>10</v>
-      </c>
-      <c r="F539" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" t="inlineStr">
-        <is>
-          <t>251.5215900-18</t>
-        </is>
-      </c>
-      <c r="B540" t="inlineStr">
-        <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 450 мм, в комплекте 9 адаптеров</t>
-        </is>
-      </c>
-      <c r="C540" t="inlineStr">
-        <is>
-          <t>AVTOPRIBOR</t>
-        </is>
-      </c>
-      <c r="D540" t="n">
-        <v>426</v>
-      </c>
-      <c r="E540" t="n">
-        <v>10</v>
-      </c>
-      <c r="F540" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" t="inlineStr">
-        <is>
-          <t>251.5215900-19</t>
-        </is>
-      </c>
-      <c r="B541" t="inlineStr">
-        <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 480 мм, в комплекте 9 адаптеров</t>
-        </is>
-      </c>
-      <c r="C541" t="inlineStr">
-        <is>
-          <t>AVTOPRIBOR</t>
-        </is>
-      </c>
-      <c r="D541" t="n">
-        <v>426</v>
-      </c>
-      <c r="E541" t="n">
-        <v>10</v>
-      </c>
-      <c r="F541" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" t="inlineStr">
-        <is>
-          <t>251.5215900-20</t>
-        </is>
-      </c>
-      <c r="B542" t="inlineStr">
-        <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 500 мм, в комплекте 9 адаптеров</t>
-        </is>
-      </c>
-      <c r="C542" t="inlineStr">
-        <is>
-          <t>AVTOPRIBOR</t>
-        </is>
-      </c>
-      <c r="D542" t="n">
-        <v>448</v>
-      </c>
-      <c r="E542" t="n">
-        <v>10</v>
-      </c>
-      <c r="F542" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="inlineStr">
-        <is>
-          <t>251.5215900-24</t>
-        </is>
-      </c>
-      <c r="B543" t="inlineStr">
-        <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 600 мм, в комплекте 9 адаптеров</t>
-        </is>
-      </c>
-      <c r="C543" t="inlineStr">
-        <is>
-          <t>AVTOPRIBOR</t>
-        </is>
-      </c>
-      <c r="D543" t="n">
-        <v>492</v>
-      </c>
-      <c r="E543" t="n">
-        <v>10</v>
-      </c>
-      <c r="F543" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" t="inlineStr">
-        <is>
-          <t>251.5215900-26</t>
-        </is>
-      </c>
-      <c r="B544" t="inlineStr">
-        <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 650 мм, в комплекте 9 адаптеров</t>
-        </is>
-      </c>
-      <c r="C544" t="inlineStr">
-        <is>
-          <t>AVTOPRIBOR</t>
-        </is>
-      </c>
-      <c r="D544" t="n">
-        <v>518</v>
-      </c>
-      <c r="E544" t="n">
-        <v>10</v>
-      </c>
-      <c r="F544" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" t="inlineStr">
-        <is>
-          <t>595863AVT</t>
-        </is>
-      </c>
-      <c r="B545" t="inlineStr">
-        <is>
-          <t>Щеткодержатель стартера</t>
-        </is>
-      </c>
-      <c r="C545" t="inlineStr">
-        <is>
-          <t>AVTOPRIBOR</t>
-        </is>
-      </c>
-      <c r="D545" t="n">
-        <v>720</v>
-      </c>
-      <c r="E545" t="n">
-        <v>10</v>
-      </c>
-      <c r="F545" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" t="inlineStr">
-        <is>
-          <t>595863AVT</t>
-        </is>
-      </c>
-      <c r="B546" t="inlineStr">
-        <is>
-          <t>Щеткодержатель стартера</t>
-        </is>
-      </c>
-      <c r="C546" t="inlineStr">
-        <is>
-          <t>AVTOPRIBOR</t>
-        </is>
-      </c>
-      <c r="D546" t="n">
-        <v>720</v>
-      </c>
-      <c r="E546" t="n">
-        <v>10</v>
-      </c>
-      <c r="F546" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" t="inlineStr">
-        <is>
-          <t>595845AVT</t>
-        </is>
-      </c>
-      <c r="B547" t="inlineStr">
-        <is>
-          <t>Щеткодержатель стартера  LADA VESTA</t>
-        </is>
-      </c>
-      <c r="C547" t="inlineStr">
-        <is>
-          <t>AVTOPRIBOR</t>
-        </is>
-      </c>
-      <c r="D547" t="n">
-        <v>720</v>
-      </c>
-      <c r="E547" t="n">
-        <v>10</v>
-      </c>
-      <c r="F547" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" t="inlineStr">
-        <is>
-          <t>595845AVT</t>
-        </is>
-      </c>
-      <c r="B548" t="inlineStr">
-        <is>
-          <t>Щеткодержатель стартера  LADA VESTA</t>
-        </is>
-      </c>
-      <c r="C548" t="inlineStr">
-        <is>
-          <t>AVTOPRIBOR</t>
-        </is>
-      </c>
-      <c r="D548" t="n">
-        <v>720</v>
-      </c>
-      <c r="E548" t="n">
-        <v>10</v>
-      </c>
-      <c r="F548" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" t="inlineStr">
-        <is>
-          <t>595842AVT</t>
-        </is>
-      </c>
-      <c r="B549" t="inlineStr">
-        <is>
-          <t>Якорь стартера</t>
-        </is>
-      </c>
-      <c r="C549" t="inlineStr">
-        <is>
-          <t>AVTOPRIBOR</t>
-        </is>
-      </c>
-      <c r="D549" t="n">
-        <v>1416</v>
-      </c>
-      <c r="E549" t="n">
-        <v>10</v>
-      </c>
-      <c r="F549" t="n">
         <v>1</v>
       </c>
     </row>

--- a/price_for_emex.xlsx
+++ b/price_for_emex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F535"/>
+  <dimension ref="A1:F549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8164,12 +8164,12 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>595843AVT</t>
+          <t>595575AVT</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Бендикс (Шестерня привода ) LADA LARGUS</t>
+          <t>Бендикс (Шестерня привода )</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -8178,7 +8178,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>900</v>
+        <v>1020</v>
       </c>
       <c r="E298" t="n">
         <v>10</v>
@@ -8190,12 +8190,12 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>RF004AVT</t>
+          <t>595575AVT</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Вентилятор системы охлаждения Nissan Qashqai</t>
+          <t>Бендикс (Шестерня привода )</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -8204,7 +8204,7 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>6600</v>
+        <v>1020</v>
       </c>
       <c r="E299" t="n">
         <v>10</v>
@@ -8216,12 +8216,12 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>RF005AVT</t>
+          <t>595843AVT</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Вентилятор системы охлаждения Nissan X-Trail, Qashqai (Дизель)</t>
+          <t>Бендикс (Шестерня привода ) LADA LARGUS</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -8230,7 +8230,7 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>6600</v>
+        <v>900</v>
       </c>
       <c r="E300" t="n">
         <v>10</v>
@@ -8242,12 +8242,12 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>595785AVT</t>
+          <t>595844AVT</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Втягивающее реле (для 438327 / 438328)</t>
+          <t>Бендикс (Шестерня привода ) RENAULT DUSTER</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -8256,7 +8256,7 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>1800</v>
+        <v>1080</v>
       </c>
       <c r="E301" t="n">
         <v>10</v>
@@ -8268,12 +8268,12 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>AL200AVT</t>
+          <t>595844AVT</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Генератор LADA GRANTA 110А</t>
+          <t>Бендикс (Шестерня привода ) RENAULT DUSTER</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -8282,10 +8282,10 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>9996</v>
+        <v>1080</v>
       </c>
       <c r="E302" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F302" t="n">
         <v>1</v>
@@ -8294,12 +8294,12 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>AL200AVT</t>
+          <t>RF004AVT</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Генератор LADA GRANTA 110А</t>
+          <t>Вентилятор системы охлаждения Nissan Qashqai</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -8308,10 +8308,10 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>9996</v>
+        <v>6600</v>
       </c>
       <c r="E303" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F303" t="n">
         <v>1</v>
@@ -8320,12 +8320,12 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>BD050AVT</t>
+          <t>RF005AVT</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Диск тормозной Audi A4 / A6 (95-) передний</t>
+          <t>Вентилятор системы охлаждения Nissan X-Trail, Qashqai (Дизель)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -8334,24 +8334,24 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>2020</v>
+        <v>6600</v>
       </c>
       <c r="E304" t="n">
         <v>10</v>
       </c>
       <c r="F304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>BD075AVT</t>
+          <t>595739AVT</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Диск тормозной Audi Q5 (08-) задний</t>
+          <t>Втягивающее реле</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -8360,24 +8360,24 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1718</v>
+        <v>1080</v>
       </c>
       <c r="E305" t="n">
         <v>10</v>
       </c>
       <c r="F305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>BD056AVT</t>
+          <t>595739AVT</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Диск тормозной Audi Q7 (06-) задний</t>
+          <t>Втягивающее реле</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -8386,24 +8386,24 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>2719</v>
+        <v>1080</v>
       </c>
       <c r="E306" t="n">
         <v>10</v>
       </c>
       <c r="F306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>BD021AVT</t>
+          <t>595785AVT</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Диск тормозной Chevrolet Aveo (02-) / Spark (05-) передний</t>
+          <t>Втягивающее реле (для 438327 / 438328)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -8412,24 +8412,24 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>1090</v>
+        <v>1800</v>
       </c>
       <c r="E307" t="n">
         <v>10</v>
       </c>
       <c r="F307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>BD022AVT</t>
+          <t>595776AVT</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Диск тормозной Chevrolet Cruze (09-) / Aveo (11-) задний</t>
+          <t>Втягивающее реле LADA VESTA / RENUALT LOGAN</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -8438,24 +8438,24 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>1550</v>
+        <v>1440</v>
       </c>
       <c r="E308" t="n">
         <v>10</v>
       </c>
       <c r="F308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>BD018AVT</t>
+          <t>595776AVT</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Диск тормозной Chevrolet Cruze (09-) / Aveo (11-) передний</t>
+          <t>Втягивающее реле LADA VESTA / RENUALT LOGAN</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -8464,24 +8464,24 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>2197</v>
+        <v>1440</v>
       </c>
       <c r="E309" t="n">
         <v>10</v>
       </c>
       <c r="F309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>BD049AVT</t>
+          <t>AL200AVT</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Диск тормозной Chevrolet Lacetti (04-) задний</t>
+          <t>Генератор LADA GRANTA 110А</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -8490,24 +8490,24 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>1400</v>
+        <v>9996</v>
       </c>
       <c r="E310" t="n">
         <v>10</v>
       </c>
       <c r="F310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>BD039AVT</t>
+          <t>AL200AVT</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Диск тормозной Daewoo Matiz (98-) передний</t>
+          <t>Генератор LADA GRANTA 110А</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -8516,24 +8516,24 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>1043</v>
+        <v>9996</v>
       </c>
       <c r="E311" t="n">
         <v>10</v>
       </c>
       <c r="F311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>BD042AVT</t>
+          <t>BD050AVT</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Fiesta (02-) / Fusion (02-) передний</t>
+          <t>Диск тормозной Audi A4 / A6 (95-) передний</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -8542,7 +8542,7 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>1481</v>
+        <v>2020</v>
       </c>
       <c r="E312" t="n">
         <v>10</v>
@@ -8554,12 +8554,12 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>BD040AVT</t>
+          <t>BD075AVT</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Focus (04-) задний</t>
+          <t>Диск тормозной Audi Q5 (08-) задний</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -8568,10 +8568,10 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>1373</v>
+        <v>1718</v>
       </c>
       <c r="E313" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F313" t="n">
         <v>2</v>
@@ -8580,12 +8580,12 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>BD015AVT</t>
+          <t>BD056AVT</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Focus (04-) задний d.264,8</t>
+          <t>Диск тормозной Audi Q7 (06-) задний</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -8594,7 +8594,7 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>1270</v>
+        <v>2719</v>
       </c>
       <c r="E314" t="n">
         <v>10</v>
@@ -8606,12 +8606,12 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>BD006AVT</t>
+          <t>BD021AVT</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Focus II (05-) / Ford Focus III (11-) передний</t>
+          <t>Диск тормозной Chevrolet Aveo (02-) / Spark (05-) передний</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -8620,7 +8620,7 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>2310</v>
+        <v>1090</v>
       </c>
       <c r="E315" t="n">
         <v>10</v>
@@ -8632,12 +8632,12 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>BD013AVT</t>
+          <t>BD022AVT</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Focus II (05-) / Ford Focus III (11-) передний d.278,1</t>
+          <t>Диск тормозной Chevrolet Cruze (09-) / Aveo (11-) задний</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>1964</v>
+        <v>1550</v>
       </c>
       <c r="E316" t="n">
         <v>10</v>
@@ -8658,12 +8658,12 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>BD032AVT</t>
+          <t>BD018AVT</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Focus III (11-) задний</t>
+          <t>Диск тормозной Chevrolet Cruze (09-) / Aveo (11-) передний</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -8672,7 +8672,7 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>1494</v>
+        <v>2197</v>
       </c>
       <c r="E317" t="n">
         <v>10</v>
@@ -8684,12 +8684,12 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>BD076AVT</t>
+          <t>BD049AVT</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Mondeo IV (07-) задний</t>
+          <t>Диск тормозной Chevrolet Lacetti (04-) задний</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -8698,7 +8698,7 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>1741</v>
+        <v>1400</v>
       </c>
       <c r="E318" t="n">
         <v>10</v>
@@ -8710,12 +8710,12 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>BD033AVT</t>
+          <t>BD039AVT</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Accent (00-) передний</t>
+          <t>Диск тормозной Daewoo Matiz (98-) передний</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -8724,7 +8724,7 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>1333</v>
+        <v>1043</v>
       </c>
       <c r="E319" t="n">
         <v>10</v>
@@ -8736,12 +8736,12 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>BD037AVT</t>
+          <t>BD042AVT</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Creta (16-) задний 2WD</t>
+          <t>Диск тормозной Ford Fiesta (02-) / Fusion (02-) передний</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -8750,7 +8750,7 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>1270</v>
+        <v>1481</v>
       </c>
       <c r="E320" t="n">
         <v>10</v>
@@ -8762,12 +8762,12 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>BD041AVT</t>
+          <t>BD040AVT</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Getz (02-) задний</t>
+          <t>Диск тормозной Ford Focus (04-) задний</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -8776,10 +8776,10 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>1253</v>
+        <v>1373</v>
       </c>
       <c r="E321" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F321" t="n">
         <v>2</v>
@@ -8788,12 +8788,12 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>BD054AVT</t>
+          <t>BD015AVT</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Getz (02-) передний (ABS)</t>
+          <t>Диск тормозной Ford Focus (04-) задний d.264,8</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -8802,7 +8802,7 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>1343</v>
+        <v>1270</v>
       </c>
       <c r="E322" t="n">
         <v>10</v>
@@ -8814,12 +8814,12 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>BD055AVT</t>
+          <t>BD006AVT</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Getz (02-) передний (без ABS)</t>
+          <t>Диск тормозной Ford Focus II (05-) / Ford Focus III (11-) передний</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -8828,7 +8828,7 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>1309</v>
+        <v>2310</v>
       </c>
       <c r="E323" t="n">
         <v>10</v>
@@ -8840,12 +8840,12 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>BD002AVT</t>
+          <t>BD013AVT</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Solaris (10-) (17-) задний</t>
+          <t>Диск тормозной Ford Focus II (05-) / Ford Focus III (11-) передний d.278,1</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -8854,7 +8854,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>1230</v>
+        <v>1964</v>
       </c>
       <c r="E324" t="n">
         <v>10</v>
@@ -8866,12 +8866,12 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>BD001AVT</t>
+          <t>BD032AVT</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Solaris (10-) (17-) передний</t>
+          <t>Диск тормозной Ford Focus III (11-) задний</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -8880,7 +8880,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>1418</v>
+        <v>1494</v>
       </c>
       <c r="E325" t="n">
         <v>10</v>
@@ -8892,12 +8892,12 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>BD027AVT</t>
+          <t>BD076AVT</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Ceed (07-) / Cerato (09-) / Hyundai i30 (07-) передний</t>
+          <t>Диск тормозной Ford Mondeo IV (07-) задний</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -8906,7 +8906,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>1949</v>
+        <v>1741</v>
       </c>
       <c r="E326" t="n">
         <v>10</v>
@@ -8918,12 +8918,12 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>BD068AVT</t>
+          <t>BD033AVT</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Sorento II (09-) задний</t>
+          <t>Диск тормозной Hyundai Accent (00-) передний</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -8932,7 +8932,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>1909</v>
+        <v>1333</v>
       </c>
       <c r="E327" t="n">
         <v>10</v>
@@ -8944,12 +8944,12 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>BD028AVT</t>
+          <t>BD037AVT</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Sportage (10-) / Hyundai ix35 (10-) задний</t>
+          <t>Диск тормозной Hyundai Creta (16-) задний 2WD</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -8958,7 +8958,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>1324</v>
+        <v>1270</v>
       </c>
       <c r="E328" t="n">
         <v>10</v>
@@ -8970,12 +8970,12 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>BD045AVT</t>
+          <t>BD041AVT</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Sportage III (10-) / Hyundai iX 35 (09-) задний</t>
+          <t>Диск тормозной Hyundai Getz (02-) задний</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -8984,7 +8984,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>1459</v>
+        <v>1253</v>
       </c>
       <c r="E329" t="n">
         <v>10</v>
@@ -8996,12 +8996,12 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>BD031AVT</t>
+          <t>BD054AVT</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Sportage III (10-) / Hyundai ix35 (10-) / Creta (16-) передний</t>
+          <t>Диск тормозной Hyundai Getz (02-) передний (ABS)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -9010,7 +9010,7 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>2431</v>
+        <v>1343</v>
       </c>
       <c r="E330" t="n">
         <v>10</v>
@@ -9022,12 +9022,12 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>BD031AVT</t>
+          <t>BD055AVT</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Sportage III (10-) / Hyundai ix35 (10-) / Creta (16-) передний</t>
+          <t>Диск тормозной Hyundai Getz (02-) передний (без ABS)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -9036,7 +9036,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>2431</v>
+        <v>1309</v>
       </c>
       <c r="E331" t="n">
         <v>10</v>
@@ -9048,12 +9048,12 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>BD011AVT</t>
+          <t>BD002AVT</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Диск тормозной Lada Largus (12-) / Renault Logan (07-) передний (без ABS)</t>
+          <t>Диск тормозной Hyundai Solaris (10-) (17-) задний</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -9062,7 +9062,7 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>1451</v>
+        <v>1230</v>
       </c>
       <c r="E332" t="n">
         <v>10</v>
@@ -9074,12 +9074,12 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>BD060AVT</t>
+          <t>BD001AVT</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Диск тормозной Mazda 3 (03-) задний</t>
+          <t>Диск тормозной Hyundai Solaris (10-) (17-) передний</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -9088,7 +9088,7 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>1231</v>
+        <v>1418</v>
       </c>
       <c r="E333" t="n">
         <v>10</v>
@@ -9100,12 +9100,12 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>BD059AVT</t>
+          <t>BD027AVT</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Диск тормозной Mazda 3 (03-) передний</t>
+          <t>Диск тормозной Kia Ceed (07-) / Cerato (09-) / Hyundai i30 (07-) передний</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -9114,7 +9114,7 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>2041</v>
+        <v>1949</v>
       </c>
       <c r="E334" t="n">
         <v>10</v>
@@ -9126,12 +9126,12 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>BD081AVT</t>
+          <t>BD068AVT</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi ASX (10-) / Outlander III / Peugeot 4008 / Citroen C4 Aircross (12-) задни</t>
+          <t>Диск тормозной Kia Sorento II (09-) задний</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -9140,7 +9140,7 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>1757</v>
+        <v>1909</v>
       </c>
       <c r="E335" t="n">
         <v>10</v>
@@ -9152,12 +9152,12 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>BD051AVT</t>
+          <t>BD028AVT</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi Lancer (00-) задний</t>
+          <t>Диск тормозной Kia Sportage (10-) / Hyundai ix35 (10-) задний</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -9166,7 +9166,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>1262</v>
+        <v>1324</v>
       </c>
       <c r="E336" t="n">
         <v>10</v>
@@ -9178,12 +9178,12 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>BD053AVT</t>
+          <t>BD045AVT</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi Lancer (00-) передний</t>
+          <t>Диск тормозной Kia Sportage III (10-) / Hyundai iX 35 (09-) задний</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -9192,7 +9192,7 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>1860</v>
+        <v>1459</v>
       </c>
       <c r="E337" t="n">
         <v>10</v>
@@ -9204,12 +9204,12 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>BD074AVT</t>
+          <t>BD031AVT</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi Lancer (08-) задний</t>
+          <t>Диск тормозной Kia Sportage III (10-) / Hyundai ix35 (10-) / Creta (16-) передний</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -9218,7 +9218,7 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>1393</v>
+        <v>2431</v>
       </c>
       <c r="E338" t="n">
         <v>10</v>
@@ -9230,12 +9230,12 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>BD048AVT</t>
+          <t>BD031AVT</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi Outlander (06-) передний</t>
+          <t>Диск тормозной Kia Sportage III (10-) / Hyundai ix35 (10-) / Creta (16-) передний</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="D339" t="n">
-        <v>2027</v>
+        <v>2431</v>
       </c>
       <c r="E339" t="n">
         <v>10</v>
@@ -9256,12 +9256,12 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>BD026AVT</t>
+          <t>BD011AVT</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Диск тормозной Nexia (95-) / Lanos (05-) передний</t>
+          <t>Диск тормозной Lada Largus (12-) / Renault Logan (07-) передний (без ABS)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -9270,7 +9270,7 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>1398</v>
+        <v>1451</v>
       </c>
       <c r="E340" t="n">
         <v>10</v>
@@ -9282,12 +9282,12 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>BD079AVT</t>
+          <t>BD060AVT</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Almera Classic (06-) передний</t>
+          <t>Диск тормозной Mazda 3 (03-) задний</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="D341" t="n">
-        <v>1254</v>
+        <v>1231</v>
       </c>
       <c r="E341" t="n">
         <v>10</v>
@@ -9308,12 +9308,12 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>BD038AVT</t>
+          <t>BD059AVT</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Juke (10-) задний</t>
+          <t>Диск тормозной Mazda 3 (03-) передний</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -9322,7 +9322,7 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>1578</v>
+        <v>2041</v>
       </c>
       <c r="E342" t="n">
         <v>10</v>
@@ -9334,12 +9334,12 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>BD020AVT</t>
+          <t>BD081AVT</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) задний</t>
+          <t>Диск тормозной Mitsubishi ASX (10-) / Outlander III / Peugeot 4008 / Citroen C4 Aircross (12-) задни</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -9348,7 +9348,7 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>1664</v>
+        <v>1757</v>
       </c>
       <c r="E343" t="n">
         <v>10</v>
@@ -9360,12 +9360,12 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>BD019AVT</t>
+          <t>BD051AVT</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) передний</t>
+          <t>Диск тормозной Mitsubishi Lancer (00-) задний</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -9374,10 +9374,10 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>2299</v>
+        <v>1262</v>
       </c>
       <c r="E344" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F344" t="n">
         <v>2</v>
@@ -9386,12 +9386,12 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>BD019AVT</t>
+          <t>BD053AVT</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) передний</t>
+          <t>Диск тормозной Mitsubishi Lancer (00-) передний</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -9400,10 +9400,10 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>2299</v>
+        <v>1860</v>
       </c>
       <c r="E345" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F345" t="n">
         <v>2</v>
@@ -9412,12 +9412,12 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>BD058AVT</t>
+          <t>BD074AVT</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Qashqai II (13-) / X-Trail (14-) передний</t>
+          <t>Диск тормозной Mitsubishi Lancer (08-) задний</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>2034</v>
+        <v>1393</v>
       </c>
       <c r="E346" t="n">
         <v>10</v>
@@ -9438,12 +9438,12 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>BD025AVT</t>
+          <t>BD048AVT</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Диск тормозной Opel Astra H (04-) передний</t>
+          <t>Диск тормозной Mitsubishi Outlander (06-) передний</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -9452,7 +9452,7 @@
         </is>
       </c>
       <c r="D347" t="n">
-        <v>1860</v>
+        <v>2027</v>
       </c>
       <c r="E347" t="n">
         <v>10</v>
@@ -9464,12 +9464,12 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>BD024AVT</t>
+          <t>BD026AVT</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Диск тормозной Opel Astra J (10-) / Chevrolet Cruze (09-) задний</t>
+          <t>Диск тормозной Nexia (95-) / Lanos (05-) передний</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -9478,7 +9478,7 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>1507</v>
+        <v>1398</v>
       </c>
       <c r="E348" t="n">
         <v>10</v>
@@ -9490,12 +9490,12 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>BD034AVT</t>
+          <t>BD079AVT</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Диск тормозной Peugeot 307 (00-) / 308 (07-) / Citroen C4 (04-) передний</t>
+          <t>Диск тормозной Nissan Almera Classic (06-) передний</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -9504,7 +9504,7 @@
         </is>
       </c>
       <c r="D349" t="n">
-        <v>1940</v>
+        <v>1254</v>
       </c>
       <c r="E349" t="n">
         <v>10</v>
@@ -9516,12 +9516,12 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>BD069AVT</t>
+          <t>BD038AVT</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Диск тормозной Peugeot Partner / Citroen Berlingo (96-) передний</t>
+          <t>Диск тормозной Nissan Juke (10-) задний</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -9530,7 +9530,7 @@
         </is>
       </c>
       <c r="D350" t="n">
-        <v>1325</v>
+        <v>1578</v>
       </c>
       <c r="E350" t="n">
         <v>10</v>
@@ -9542,12 +9542,12 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>BD023AVT</t>
+          <t>BD020AVT</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Duster (10-) / Arkana (19-)</t>
+          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) задний</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -9556,7 +9556,7 @@
         </is>
       </c>
       <c r="D351" t="n">
-        <v>2221</v>
+        <v>1664</v>
       </c>
       <c r="E351" t="n">
         <v>10</v>
@@ -9568,12 +9568,12 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>BD023AVT</t>
+          <t>BD019AVT</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Duster (10-) / Arkana (19-)</t>
+          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) передний</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -9582,7 +9582,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>2221</v>
+        <v>2299</v>
       </c>
       <c r="E352" t="n">
         <v>10</v>
@@ -9594,12 +9594,12 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>BD061AVT</t>
+          <t>BD019AVT</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Koleos (08-) передний</t>
+          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) передний</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -9608,7 +9608,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>2723</v>
+        <v>2299</v>
       </c>
       <c r="E353" t="n">
         <v>10</v>
@@ -9620,12 +9620,12 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>BD004AVT</t>
+          <t>BD058AVT</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Logan (04-) передний</t>
+          <t>Диск тормозной Nissan Qashqai II (13-) / X-Trail (14-) передний</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -9634,7 +9634,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>1370</v>
+        <v>2034</v>
       </c>
       <c r="E354" t="n">
         <v>10</v>
@@ -9646,12 +9646,12 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>BD004AVT</t>
+          <t>BD025AVT</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Logan (04-) передний</t>
+          <t>Диск тормозной Opel Astra H (04-) передний</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -9660,7 +9660,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>1370</v>
+        <v>1860</v>
       </c>
       <c r="E355" t="n">
         <v>10</v>
@@ -9672,12 +9672,12 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>BD010AVT</t>
+          <t>BD024AVT</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Logan (04-) передний (без ABS)</t>
+          <t>Диск тормозной Opel Astra J (10-) / Chevrolet Cruze (09-) задний</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -9686,7 +9686,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>997</v>
+        <v>1507</v>
       </c>
       <c r="E356" t="n">
         <v>10</v>
@@ -9698,12 +9698,12 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>BD012AVT</t>
+          <t>BD034AVT</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Octavia (04-) / VW Golf V (03-) задний</t>
+          <t>Диск тормозной Peugeot 307 (00-) / 308 (07-) / Citroen C4 (04-) передний</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -9712,7 +9712,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>1234</v>
+        <v>1940</v>
       </c>
       <c r="E357" t="n">
         <v>10</v>
@@ -9724,12 +9724,12 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>BD016AVT</t>
+          <t>BD069AVT</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Octavia (04-) / VW Golf V (03-) передний</t>
+          <t>Диск тормозной Peugeot Partner / Citroen Berlingo (96-) передний</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -9738,7 +9738,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>1789</v>
+        <v>1325</v>
       </c>
       <c r="E358" t="n">
         <v>10</v>
@@ -9750,12 +9750,12 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>BD008AVT</t>
+          <t>BD023AVT</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Octavia (13-) / VW Golf VII (12-) задний</t>
+          <t>Диск тормозной Renault Duster (10-) / Arkana (19-)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -9764,7 +9764,7 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>1326</v>
+        <v>2221</v>
       </c>
       <c r="E359" t="n">
         <v>10</v>
@@ -9776,12 +9776,12 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>BD063AVT</t>
+          <t>BD023AVT</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Octavia (96-) / VW Golf IV (97-) передний</t>
+          <t>Диск тормозной Renault Duster (10-) / Arkana (19-)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -9790,7 +9790,7 @@
         </is>
       </c>
       <c r="D360" t="n">
-        <v>1729</v>
+        <v>2221</v>
       </c>
       <c r="E360" t="n">
         <v>10</v>
@@ -9802,12 +9802,12 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>BD007AVT</t>
+          <t>BD061AVT</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Yeti (09-) передний</t>
+          <t>Диск тормозной Renault Koleos (08-) передний</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -9816,7 +9816,7 @@
         </is>
       </c>
       <c r="D361" t="n">
-        <v>2183</v>
+        <v>2723</v>
       </c>
       <c r="E361" t="n">
         <v>10</v>
@@ -9828,12 +9828,12 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>BD064AVT</t>
+          <t>BD004AVT</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Диск тормозной SsangYong Kyron (05-) задний</t>
+          <t>Диск тормозной Renault Logan (04-) передний</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -9842,7 +9842,7 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>1950</v>
+        <v>1370</v>
       </c>
       <c r="E362" t="n">
         <v>10</v>
@@ -9854,12 +9854,12 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>BD070AVT</t>
+          <t>BD004AVT</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Диск тормозной Suzuki Grand Vitara (05-) передний</t>
+          <t>Диск тормозной Renault Logan (04-) передний</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -9868,7 +9868,7 @@
         </is>
       </c>
       <c r="D363" t="n">
-        <v>1757</v>
+        <v>1370</v>
       </c>
       <c r="E363" t="n">
         <v>10</v>
@@ -9880,12 +9880,12 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>BD083AVT</t>
+          <t>BD010AVT</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Диск тормозной Tank 300 передний</t>
+          <t>Диск тормозной Renault Logan (04-) передний (без ABS)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -9894,7 +9894,7 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>3834</v>
+        <v>997</v>
       </c>
       <c r="E364" t="n">
         <v>10</v>
@@ -9906,12 +9906,12 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>BD083AVT</t>
+          <t>BD012AVT</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Диск тормозной Tank 300 передний</t>
+          <t>Диск тормозной Skoda Octavia (04-) / VW Golf V (03-) задний</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -9920,7 +9920,7 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>3834</v>
+        <v>1234</v>
       </c>
       <c r="E365" t="n">
         <v>10</v>
@@ -9932,12 +9932,12 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>BD082AVT</t>
+          <t>BD016AVT</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Диск тормозной Tank 500 передний</t>
+          <t>Диск тормозной Skoda Octavia (04-) / VW Golf V (03-) передний</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>4511</v>
+        <v>1789</v>
       </c>
       <c r="E366" t="n">
         <v>10</v>
@@ -9958,12 +9958,12 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>BD017AVT</t>
+          <t>BD008AVT</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Camry (06-) / RAV 4 (06-) передний</t>
+          <t>Диск тормозной Skoda Octavia (13-) / VW Golf VII (12-) задний</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -9972,7 +9972,7 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>2334</v>
+        <v>1326</v>
       </c>
       <c r="E367" t="n">
         <v>10</v>
@@ -9984,12 +9984,12 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>BD017AVT</t>
+          <t>BD063AVT</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Camry (06-) / RAV 4 (06-) передний</t>
+          <t>Диск тормозной Skoda Octavia (96-) / VW Golf IV (97-) передний</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -9998,7 +9998,7 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>2334</v>
+        <v>1729</v>
       </c>
       <c r="E368" t="n">
         <v>10</v>
@@ -10010,12 +10010,12 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>BD044AVT</t>
+          <t>BD007AVT</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Camry (06-) задний</t>
+          <t>Диск тормозной Skoda Yeti (09-) передний</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -10024,7 +10024,7 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>1597</v>
+        <v>2183</v>
       </c>
       <c r="E369" t="n">
         <v>10</v>
@@ -10036,12 +10036,12 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>BD036AVT</t>
+          <t>BD064AVT</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Corolla (06-) / Auris (06-) задний</t>
+          <t>Диск тормозной SsangYong Kyron (05-) задний</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -10050,7 +10050,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>1127</v>
+        <v>1950</v>
       </c>
       <c r="E370" t="n">
         <v>10</v>
@@ -10062,12 +10062,12 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>BD035AVT</t>
+          <t>BD070AVT</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Corolla (06-) / Auris (06-) передний</t>
+          <t>Диск тормозной Suzuki Grand Vitara (05-) передний</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -10076,7 +10076,7 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>1699</v>
+        <v>1757</v>
       </c>
       <c r="E371" t="n">
         <v>10</v>
@@ -10088,12 +10088,12 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>BD071AVT</t>
+          <t>BD083AVT</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota LC 200 (07-) задний</t>
+          <t>Диск тормозной Tank 300 передний</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -10102,7 +10102,7 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>2298</v>
+        <v>3834</v>
       </c>
       <c r="E372" t="n">
         <v>10</v>
@@ -10114,12 +10114,12 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>BD052AVT</t>
+          <t>BD083AVT</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota LC 200 (07-) передний</t>
+          <t>Диск тормозной Tank 300 передний</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -10128,7 +10128,7 @@
         </is>
       </c>
       <c r="D373" t="n">
-        <v>2939</v>
+        <v>3834</v>
       </c>
       <c r="E373" t="n">
         <v>10</v>
@@ -10140,12 +10140,12 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>BD066AVT</t>
+          <t>BD082AVT</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota LC Prado (09-) передний</t>
+          <t>Диск тормозной Tank 500 передний</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -10154,7 +10154,7 @@
         </is>
       </c>
       <c r="D374" t="n">
-        <v>3275</v>
+        <v>4511</v>
       </c>
       <c r="E374" t="n">
         <v>10</v>
@@ -10166,12 +10166,12 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>BD029AVT</t>
+          <t>BD017AVT</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota RAV 4 (06-) / RAV 4 (13-) задний</t>
+          <t>Диск тормозной Toyota Camry (06-) / RAV 4 (06-) передний</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -10180,7 +10180,7 @@
         </is>
       </c>
       <c r="D375" t="n">
-        <v>1684</v>
+        <v>2334</v>
       </c>
       <c r="E375" t="n">
         <v>10</v>
@@ -10192,12 +10192,12 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>BD065AVT</t>
+          <t>BD017AVT</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Диск тормозной Volvo XC 70 (07-) / S60 (10-) / S80 (06-) передний</t>
+          <t>Диск тормозной Toyota Camry (06-) / RAV 4 (06-) передний</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -10206,7 +10206,7 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>2572</v>
+        <v>2334</v>
       </c>
       <c r="E376" t="n">
         <v>10</v>
@@ -10218,12 +10218,12 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>BD047AVT</t>
+          <t>BD044AVT</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Passat (96-) задний</t>
+          <t>Диск тормозной Toyota Camry (06-) задний</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -10232,7 +10232,7 @@
         </is>
       </c>
       <c r="D377" t="n">
-        <v>1218</v>
+        <v>1597</v>
       </c>
       <c r="E377" t="n">
         <v>10</v>
@@ -10244,12 +10244,12 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>BD072AVT</t>
+          <t>BD036AVT</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Passat (96-) передний</t>
+          <t>Диск тормозной Toyota Corolla (06-) / Auris (06-) задний</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -10258,7 +10258,7 @@
         </is>
       </c>
       <c r="D378" t="n">
-        <v>1788</v>
+        <v>1127</v>
       </c>
       <c r="E378" t="n">
         <v>10</v>
@@ -10270,12 +10270,12 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>BD009AVT</t>
+          <t>BD035AVT</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Polo Sedan (10-) передний d.286,8</t>
+          <t>Диск тормозной Toyota Corolla (06-) / Auris (06-) передний</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -10284,7 +10284,7 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>2159</v>
+        <v>1699</v>
       </c>
       <c r="E379" t="n">
         <v>10</v>
@@ -10296,12 +10296,12 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>BD014AVT</t>
+          <t>BD071AVT</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Tiguan (07-) задний</t>
+          <t>Диск тормозной Toyota LC 200 (07-) задний</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -10310,7 +10310,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>1496</v>
+        <v>2298</v>
       </c>
       <c r="E380" t="n">
         <v>10</v>
@@ -10322,12 +10322,12 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>BD003AVT</t>
+          <t>BD052AVT</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Tiguan (07-) передний</t>
+          <t>Диск тормозной Toyota LC 200 (07-) передний</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -10336,7 +10336,7 @@
         </is>
       </c>
       <c r="D381" t="n">
-        <v>2494</v>
+        <v>2939</v>
       </c>
       <c r="E381" t="n">
         <v>10</v>
@@ -10348,12 +10348,12 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>BD043AVT</t>
+          <t>BD066AVT</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Tiguan (16-) / Skoda Kodiaq (16-) задний</t>
+          <t>Диск тормозной Toyota LC Prado (09-) передний</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -10362,7 +10362,7 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>1879</v>
+        <v>3275</v>
       </c>
       <c r="E382" t="n">
         <v>10</v>
@@ -10374,12 +10374,12 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>BP023AVT</t>
+          <t>BD029AVT</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Lada Vesta Sport (18-) / Renault Duster (10-) / Renault Arkan</t>
+          <t>Диск тормозной Toyota RAV 4 (06-) / RAV 4 (13-) задний</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -10388,24 +10388,24 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>864</v>
+        <v>1684</v>
       </c>
       <c r="E383" t="n">
         <v>10</v>
       </c>
       <c r="F383" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>BP023AVT</t>
+          <t>BD065AVT</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Lada Vesta Sport (18-) / Renault Duster (10-) / Renault Arkan</t>
+          <t>Диск тормозной Volvo XC 70 (07-) / S60 (10-) / S80 (06-) передний</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -10414,24 +10414,24 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>864</v>
+        <v>2572</v>
       </c>
       <c r="E384" t="n">
         <v>10</v>
       </c>
       <c r="F384" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>BP096AVT</t>
+          <t>BD047AVT</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Renault Logan II (2012-)</t>
+          <t>Диск тормозной VW Passat (96-) задний</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -10440,24 +10440,24 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>680</v>
+        <v>1218</v>
       </c>
       <c r="E385" t="n">
         <v>10</v>
       </c>
       <c r="F385" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>BP096AVT</t>
+          <t>BD072AVT</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Renault Logan II (2012-)</t>
+          <t>Диск тормозной VW Passat (96-) передний</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -10466,24 +10466,24 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>680</v>
+        <v>1788</v>
       </c>
       <c r="E386" t="n">
         <v>10</v>
       </c>
       <c r="F386" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>832198AVT</t>
+          <t>BD009AVT</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Комплект сцепления LADA Largus (корзина+диск) для 21809</t>
+          <t>Диск тормозной VW Polo Sedan (10-) передний d.286,8</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -10492,24 +10492,24 @@
         </is>
       </c>
       <c r="D387" t="n">
-        <v>12000</v>
+        <v>2159</v>
       </c>
       <c r="E387" t="n">
         <v>10</v>
       </c>
       <c r="F387" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>832198AVT</t>
+          <t>BD014AVT</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Комплект сцепления LADA Largus (корзина+диск) для 21809</t>
+          <t>Диск тормозной VW Tiguan (07-) задний</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -10518,24 +10518,24 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>12000</v>
+        <v>1496</v>
       </c>
       <c r="E388" t="n">
         <v>10</v>
       </c>
       <c r="F388" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>826787AVT</t>
+          <t>BD003AVT</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Комплект сцепления без подшипника Chevrolet Lacetti (04-)</t>
+          <t>Диск тормозной VW Tiguan (07-) передний</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -10544,24 +10544,24 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>5111</v>
+        <v>2494</v>
       </c>
       <c r="E389" t="n">
         <v>10</v>
       </c>
       <c r="F389" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>826853AVT</t>
+          <t>BD043AVT</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Комплект сцепления без подшипника Renault Logan (08-)</t>
+          <t>Диск тормозной VW Tiguan (16-) / Skoda Kodiaq (16-) задний</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -10570,24 +10570,24 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>3703</v>
+        <v>1879</v>
       </c>
       <c r="E390" t="n">
         <v>10</v>
       </c>
       <c r="F390" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>3495AVT</t>
+          <t>832198AVT</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником 2107</t>
+          <t>Комплект сцепления LADA Largus (корзина+диск) для 21809</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>4656</v>
+        <v>12000</v>
       </c>
       <c r="E391" t="n">
         <v>10</v>
@@ -10608,12 +10608,12 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>801122AVT</t>
+          <t>832198AVT</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником 2109</t>
+          <t>Комплект сцепления LADA Largus (корзина+диск) для 21809</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -10622,7 +10622,7 @@
         </is>
       </c>
       <c r="D392" t="n">
-        <v>4656</v>
+        <v>12000</v>
       </c>
       <c r="E392" t="n">
         <v>10</v>
@@ -10634,12 +10634,12 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>826245AVT</t>
+          <t>832290AVT</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Citroen C3 (03-) 1.1-1.4 (05-)</t>
+          <t>Комплект сцепления LADA Largus с подшипником для LADA Vesta / X-RAY 1.8 (коробка робот)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -10648,10 +10648,10 @@
         </is>
       </c>
       <c r="D393" t="n">
-        <v>3112</v>
+        <v>6120</v>
       </c>
       <c r="E393" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F393" t="n">
         <v>1</v>
@@ -10660,12 +10660,12 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>826568AVT</t>
+          <t>832290AVT</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Daewoo Matiz (01-)</t>
+          <t>Комплект сцепления LADA Largus с подшипником для LADA Vesta / X-RAY 1.8 (коробка робот)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -10674,7 +10674,7 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>3259</v>
+        <v>6120</v>
       </c>
       <c r="E394" t="n">
         <v>10</v>
@@ -10686,12 +10686,12 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>821098AVT</t>
+          <t>826787AVT</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Daewoo Nexia (95-)</t>
+          <t>Комплект сцепления без подшипника Chevrolet Lacetti (04-)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -10700,7 +10700,7 @@
         </is>
       </c>
       <c r="D395" t="n">
-        <v>3667</v>
+        <v>5111</v>
       </c>
       <c r="E395" t="n">
         <v>10</v>
@@ -10712,12 +10712,12 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>826995AVT</t>
+          <t>826853AVT</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Hyundai Solaris I (10-)</t>
+          <t>Комплект сцепления без подшипника Renault Logan (08-)</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -10726,7 +10726,7 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>4223</v>
+        <v>3703</v>
       </c>
       <c r="E396" t="n">
         <v>10</v>
@@ -10738,12 +10738,12 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>826995AVT</t>
+          <t>3495AVT</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Hyundai Solaris I (10-)</t>
+          <t>Комплект сцепления с подшипником 2107</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -10752,7 +10752,7 @@
         </is>
       </c>
       <c r="D397" t="n">
-        <v>4223</v>
+        <v>4656</v>
       </c>
       <c r="E397" t="n">
         <v>10</v>
@@ -10764,12 +10764,12 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>826299AVT</t>
+          <t>801122AVT</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Hyundai Sonata IV (98-) 2.0</t>
+          <t>Комплект сцепления с подшипником 2109</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -10778,10 +10778,10 @@
         </is>
       </c>
       <c r="D398" t="n">
-        <v>8519</v>
+        <v>4656</v>
       </c>
       <c r="E398" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F398" t="n">
         <v>1</v>
@@ -10790,12 +10790,12 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>801515AVT</t>
+          <t>826222AVT</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Nissan Almera N16 (00-04) 1.5</t>
+          <t>Комплект сцепления с подшипником 2110</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -10804,7 +10804,7 @@
         </is>
       </c>
       <c r="D399" t="n">
-        <v>4482</v>
+        <v>5172</v>
       </c>
       <c r="E399" t="n">
         <v>10</v>
@@ -10816,12 +10816,12 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>826211AVT</t>
+          <t>826222AVT</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 306 (97-) / Partner (96-) 1.4-1.6</t>
+          <t>Комплект сцепления с подшипником 2110</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -10830,10 +10830,10 @@
         </is>
       </c>
       <c r="D400" t="n">
-        <v>3830</v>
+        <v>5172</v>
       </c>
       <c r="E400" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F400" t="n">
         <v>1</v>
@@ -10842,12 +10842,12 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>821340AVT</t>
+          <t>826245AVT</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 307 (00-) 1.1-1.4</t>
+          <t>Комплект сцепления с подшипником Citroen C3 (03-) 1.1-1.4 (05-)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -10856,10 +10856,10 @@
         </is>
       </c>
       <c r="D401" t="n">
-        <v>3912</v>
+        <v>3112</v>
       </c>
       <c r="E401" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F401" t="n">
         <v>1</v>
@@ -10868,12 +10868,12 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>826213AVT</t>
+          <t>826568AVT</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Peugeot 307 (00-)</t>
+          <t>Комплект сцепления с подшипником Daewoo Matiz (01-)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -10882,7 +10882,7 @@
         </is>
       </c>
       <c r="D402" t="n">
-        <v>3749</v>
+        <v>3259</v>
       </c>
       <c r="E402" t="n">
         <v>10</v>
@@ -10894,12 +10894,12 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>821183AVT</t>
+          <t>821098AVT</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Renault Logan (04-)</t>
+          <t>Комплект сцепления с подшипником Daewoo Nexia (95-)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -10908,7 +10908,7 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>3830</v>
+        <v>3667</v>
       </c>
       <c r="E403" t="n">
         <v>10</v>
@@ -10920,12 +10920,12 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>826577AVT</t>
+          <t>826298AVT</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Renault Logan I 1.4 (04-)</t>
+          <t>Комплект сцепления с подшипником GAZ 3110 / 3302 (ZMZ 402 / 406)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -10934,7 +10934,7 @@
         </is>
       </c>
       <c r="D404" t="n">
-        <v>4662</v>
+        <v>4516</v>
       </c>
       <c r="E404" t="n">
         <v>10</v>
@@ -10946,12 +10946,12 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>826326AVT</t>
+          <t>826298AVT</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником VW Polo Sedan (10-)</t>
+          <t>Комплект сцепления с подшипником GAZ 3110 / 3302 (ZMZ 402 / 406)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -10960,7 +10960,7 @@
         </is>
       </c>
       <c r="D405" t="n">
-        <v>5297</v>
+        <v>4516</v>
       </c>
       <c r="E405" t="n">
         <v>10</v>
@@ -10972,12 +10972,12 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>826474AVT</t>
+          <t>826995AVT</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Нива</t>
+          <t>Комплект сцепления с подшипником Hyundai Solaris I (10-)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -10986,7 +10986,7 @@
         </is>
       </c>
       <c r="D406" t="n">
-        <v>7272</v>
+        <v>4223</v>
       </c>
       <c r="E406" t="n">
         <v>10</v>
@@ -10998,12 +10998,12 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>CD044AVT</t>
+          <t>826995AVT</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.0</t>
+          <t>Комплект сцепления с подшипником Hyundai Solaris I (10-)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -11012,7 +11012,7 @@
         </is>
       </c>
       <c r="D407" t="n">
-        <v>5124</v>
+        <v>4223</v>
       </c>
       <c r="E407" t="n">
         <v>10</v>
@@ -11024,12 +11024,12 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>CD046AVT</t>
+          <t>826299AVT</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.2</t>
+          <t>Комплект сцепления с подшипником Hyundai Sonata IV (98-) 2.0</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -11038,10 +11038,10 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>5364</v>
+        <v>8519</v>
       </c>
       <c r="E408" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F408" t="n">
         <v>1</v>
@@ -11050,12 +11050,12 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>CD036AVT</t>
+          <t>801515AVT</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Конденсор Chevrolet Aveo T300 (11-) 1.2-1.6</t>
+          <t>Комплект сцепления с подшипником Nissan Almera N16 (00-04) 1.5</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -11064,7 +11064,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>4404</v>
+        <v>4482</v>
       </c>
       <c r="E409" t="n">
         <v>10</v>
@@ -11076,12 +11076,12 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>CD047AVT</t>
+          <t>826211AVT</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Конденсор Chevrolet Captiva / Opel Antara (06-) 2.0-2.2D</t>
+          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 306 (97-) / Partner (96-) 1.4-1.6</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -11090,10 +11090,10 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>4788</v>
+        <v>3830</v>
       </c>
       <c r="E410" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F410" t="n">
         <v>1</v>
@@ -11102,12 +11102,12 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>CD048AVT</t>
+          <t>821340AVT</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Конденсор Chevrolet Cruze / Opel Astra J (09-) 1.4-1.8</t>
+          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 307 (00-) 1.1-1.4</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -11116,7 +11116,7 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>3900</v>
+        <v>3912</v>
       </c>
       <c r="E411" t="n">
         <v>10</v>
@@ -11128,12 +11128,12 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>CD033AVT</t>
+          <t>826213AVT</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Конденсор Ford Focus II (05-) / Volvo S40 (04-) 1.4-2.0</t>
+          <t>Комплект сцепления с подшипником Peugeot 307 (00-)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -11142,7 +11142,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>4044</v>
+        <v>3749</v>
       </c>
       <c r="E412" t="n">
         <v>10</v>
@@ -11154,12 +11154,12 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>CD037AVT</t>
+          <t>821183AVT</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Конденсор Ford Mondeo (07-) / Volvo XC60 (08-) / XC70 (07-) / S80 (06-) 1.6-2.5</t>
+          <t>Комплект сцепления с подшипником Renault Logan (04-)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -11168,7 +11168,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>5388</v>
+        <v>3830</v>
       </c>
       <c r="E413" t="n">
         <v>10</v>
@@ -11180,12 +11180,12 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>CD038AVT</t>
+          <t>826577AVT</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Конденсор Hyundai Accent II (99-) MT 1.3-1.6</t>
+          <t>Комплект сцепления с подшипником Renault Logan I 1.4 (04-)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -11194,7 +11194,7 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>3708</v>
+        <v>4662</v>
       </c>
       <c r="E414" t="n">
         <v>10</v>
@@ -11206,12 +11206,12 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>CD039AVT</t>
+          <t>828009AVT</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Конденсор Hyundai Tucson (15-) / Kia Sportage (16-) 1.6-2.0</t>
+          <t>Комплект сцепления с подшипником UAZ 3151 / 3160 (ZMZ 409)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -11220,7 +11220,7 @@
         </is>
       </c>
       <c r="D415" t="n">
-        <v>5856</v>
+        <v>5112</v>
       </c>
       <c r="E415" t="n">
         <v>10</v>
@@ -11232,12 +11232,12 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>CD045AVT</t>
+          <t>828009AVT</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Конденсор Mazda 3 (09-) 1.6-2.5</t>
+          <t>Комплект сцепления с подшипником UAZ 3151 / 3160 (ZMZ 409)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="D416" t="n">
-        <v>5220</v>
+        <v>5112</v>
       </c>
       <c r="E416" t="n">
         <v>10</v>
@@ -11258,12 +11258,12 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>CD041AVT</t>
+          <t>826326AVT</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Конденсор Mitsubishi Outlander (12-) 2.0-2.4</t>
+          <t>Комплект сцепления с подшипником VW Polo Sedan (10-)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -11272,7 +11272,7 @@
         </is>
       </c>
       <c r="D417" t="n">
-        <v>4428</v>
+        <v>5297</v>
       </c>
       <c r="E417" t="n">
         <v>10</v>
@@ -11284,12 +11284,12 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>CD042AVT</t>
+          <t>826474AVT</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Конденсор Nissan Note (06-) / Tiida (04-) / Juke (10-) 1.2-1.6</t>
+          <t>Комплект сцепления с подшипником Нива</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -11298,7 +11298,7 @@
         </is>
       </c>
       <c r="D418" t="n">
-        <v>4248</v>
+        <v>7272</v>
       </c>
       <c r="E418" t="n">
         <v>10</v>
@@ -11310,12 +11310,12 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>CD043AVT</t>
+          <t>828003AVT</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Конденсор Opel Astra H (04-) 1.4-1.8</t>
+          <t>Комплект сцепления с подшипником Приора</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -11324,7 +11324,7 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>4692</v>
+        <v>5544</v>
       </c>
       <c r="E419" t="n">
         <v>10</v>
@@ -11336,12 +11336,12 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>CD034AVT</t>
+          <t>828003AVT</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Конденсор Skoda Kodiaq (16-) / Skoda Octavia A7 (13-) / VW Tiguan (16-) 1.2-2.0</t>
+          <t>Комплект сцепления с подшипником Приора</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -11350,7 +11350,7 @@
         </is>
       </c>
       <c r="D420" t="n">
-        <v>5292</v>
+        <v>5544</v>
       </c>
       <c r="E420" t="n">
         <v>10</v>
@@ -11362,12 +11362,12 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>CD035AVT</t>
+          <t>CD044AVT</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Конденсор Skoda Octavia A5 (04-) / VW Golf V (03-) 1.6-2.0</t>
+          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.0</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -11376,7 +11376,7 @@
         </is>
       </c>
       <c r="D421" t="n">
-        <v>5136</v>
+        <v>5124</v>
       </c>
       <c r="E421" t="n">
         <v>10</v>
@@ -11388,12 +11388,12 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>836383AVT</t>
+          <t>CD046AVT</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Одномассовый маховик HYUNDAI SOLARIS 17-</t>
+          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.2</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -11402,10 +11402,10 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>6000</v>
+        <v>5364</v>
       </c>
       <c r="E422" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F422" t="n">
         <v>1</v>
@@ -11414,12 +11414,12 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>836365AVT</t>
+          <t>CD036AVT</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
+          <t>Конденсор Chevrolet Aveo T300 (11-) 1.2-1.6</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -11428,10 +11428,10 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>3300</v>
+        <v>4404</v>
       </c>
       <c r="E423" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F423" t="n">
         <v>1</v>
@@ -11440,12 +11440,12 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>836365AVT</t>
+          <t>CD047AVT</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
+          <t>Конденсор Chevrolet Captiva / Opel Antara (06-) 2.0-2.2D</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -11454,10 +11454,10 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>3300</v>
+        <v>4788</v>
       </c>
       <c r="E424" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F424" t="n">
         <v>1</v>
@@ -11466,12 +11466,12 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>804295AVT</t>
+          <t>CD048AVT</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Подшипник выжимной 2101-2107</t>
+          <t>Конденсор Chevrolet Cruze / Opel Astra J (09-) 1.4-1.8</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -11480,7 +11480,7 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>1070</v>
+        <v>3900</v>
       </c>
       <c r="E425" t="n">
         <v>10</v>
@@ -11492,12 +11492,12 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>804296AVT</t>
+          <t>CD033AVT</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Подшипник выжимной 2108-2112</t>
+          <t>Конденсор Ford Focus II (05-) / Volvo S40 (04-) 1.4-2.0</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>811</v>
+        <v>4044</v>
       </c>
       <c r="E426" t="n">
         <v>10</v>
@@ -11518,12 +11518,12 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>804296AVT</t>
+          <t>CD037AVT</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Подшипник выжимной 2108-2112</t>
+          <t>Конденсор Ford Mondeo (07-) / Volvo XC60 (08-) / XC70 (07-) / S80 (06-) 1.6-2.5</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -11532,7 +11532,7 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>811</v>
+        <v>5388</v>
       </c>
       <c r="E427" t="n">
         <v>10</v>
@@ -11544,12 +11544,12 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>804036AVT</t>
+          <t>CD038AVT</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Подшипник выжимной CITROEN/PEUGEOT</t>
+          <t>Конденсор Hyundai Accent II (99-) MT 1.3-1.6</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -11558,7 +11558,7 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>696</v>
+        <v>3708</v>
       </c>
       <c r="E428" t="n">
         <v>10</v>
@@ -11570,12 +11570,12 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>804299AVT</t>
+          <t>CD039AVT</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Подшипник выжимной PSA</t>
+          <t>Конденсор Hyundai Tucson (15-) / Kia Sportage (16-) 1.6-2.0</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -11584,7 +11584,7 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>720</v>
+        <v>5856</v>
       </c>
       <c r="E429" t="n">
         <v>10</v>
@@ -11596,12 +11596,12 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>804587AVT</t>
+          <t>CD045AVT</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Подшипник гидравлический RENAULT DUSTER 1.6</t>
+          <t>Конденсор Mazda 3 (09-) 1.6-2.5</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -11610,7 +11610,7 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>7200</v>
+        <v>5220</v>
       </c>
       <c r="E430" t="n">
         <v>10</v>
@@ -11622,12 +11622,12 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>804544AVT</t>
+          <t>CD041AVT</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Подшипник гидравлический RENAULT/NISSAN</t>
+          <t>Конденсор Mitsubishi Outlander (12-) 2.0-2.4</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -11636,7 +11636,7 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>5640</v>
+        <v>4428</v>
       </c>
       <c r="E431" t="n">
         <v>10</v>
@@ -11648,12 +11648,12 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>804544AVT</t>
+          <t>CD042AVT</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Подшипник гидравлический RENAULT/NISSAN</t>
+          <t>Конденсор Nissan Note (06-) / Tiida (04-) / Juke (10-) 1.2-1.6</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -11662,7 +11662,7 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>5640</v>
+        <v>4248</v>
       </c>
       <c r="E432" t="n">
         <v>10</v>
@@ -11674,12 +11674,12 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>701514AVT</t>
+          <t>CD043AVT</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Радиатор Веста / Икс-Рэй</t>
+          <t>Конденсор Opel Astra H (04-) 1.4-1.8</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -11688,7 +11688,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>4212</v>
+        <v>4692</v>
       </c>
       <c r="E433" t="n">
         <v>10</v>
@@ -11700,12 +11700,12 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>RD204AVT</t>
+          <t>CD034AVT</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Радиатор двигатель паяный Hyundai Solaris / KIA RIO II (17-) 1.4i / 1.6i</t>
+          <t>Конденсор Skoda Kodiaq (16-) / Skoda Octavia A7 (13-) / VW Tiguan (16-) 1.2-2.0</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -11714,7 +11714,7 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>5585</v>
+        <v>5292</v>
       </c>
       <c r="E434" t="n">
         <v>10</v>
@@ -11726,12 +11726,12 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>RD026AVT</t>
+          <t>CD035AVT</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Радиатор двигателя BMW X5 (E70) (07-) 30d/3.0t AT (паяный)</t>
+          <t>Конденсор Skoda Octavia A5 (04-) / VW Golf V (03-) 1.6-2.0</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -11740,7 +11740,7 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>12251</v>
+        <v>5136</v>
       </c>
       <c r="E435" t="n">
         <v>10</v>
@@ -11752,12 +11752,12 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>RD008AVT</t>
+          <t>836383AVT</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Радиатор двигателя CHEVROLET CRUZE (09-) 1.6-1.8i / ORLANDO (10-) 1.8i MT</t>
+          <t>Одномассовый маховик HYUNDAI SOLARIS 17-</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -11766,10 +11766,10 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>5634</v>
+        <v>6000</v>
       </c>
       <c r="E436" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F436" t="n">
         <v>1</v>
@@ -11778,12 +11778,12 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>RD018AVT</t>
+          <t>836365AVT</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i AT</t>
+          <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -11792,7 +11792,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>6371</v>
+        <v>3300</v>
       </c>
       <c r="E437" t="n">
         <v>10</v>
@@ -11804,12 +11804,12 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>RD009AVT</t>
+          <t>836365AVT</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i MT</t>
+          <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -11818,7 +11818,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>5555</v>
+        <v>3300</v>
       </c>
       <c r="E438" t="n">
         <v>10</v>
@@ -11830,12 +11830,12 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>RD011AVT</t>
+          <t>804295AVT</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Chevrolet Lacetti (04-) 1.4i/1.6i/1.8i MT (сборный)</t>
+          <t>Подшипник выжимной 2101-2107</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -11844,7 +11844,7 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>4973</v>
+        <v>1070</v>
       </c>
       <c r="E439" t="n">
         <v>10</v>
@@ -11856,12 +11856,12 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>RD016AVT</t>
+          <t>804036AVT</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Daewoo Matiz (01-) 0.8i/1.0i MT (сборный)</t>
+          <t>Подшипник выжимной CITROEN/PEUGEOT</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -11870,7 +11870,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>2898</v>
+        <v>696</v>
       </c>
       <c r="E440" t="n">
         <v>10</v>
@@ -11882,12 +11882,12 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>RD023AVT</t>
+          <t>804299AVT</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Daewoo Matiz (1998-) 0.8 MT (сборный)</t>
+          <t>Подшипник выжимной PSA</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>3323</v>
+        <v>720</v>
       </c>
       <c r="E441" t="n">
         <v>10</v>
@@ -11908,12 +11908,12 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>RD024AVT</t>
+          <t>804587AVT</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Радиатор двигателя DAEWOO MATIZ (98-) 0.8i AT</t>
+          <t>Подшипник гидравлический RENAULT DUSTER 1.6</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -11922,7 +11922,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>4207</v>
+        <v>7200</v>
       </c>
       <c r="E442" t="n">
         <v>10</v>
@@ -11934,12 +11934,12 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>RD015AVT</t>
+          <t>804544AVT</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Daewoo Nexia (94-) 1.5/1.8 MT (сборный)</t>
+          <t>Подшипник гидравлический RENAULT/NISSAN</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -11948,7 +11948,7 @@
         </is>
       </c>
       <c r="D443" t="n">
-        <v>3204</v>
+        <v>5640</v>
       </c>
       <c r="E443" t="n">
         <v>10</v>
@@ -11960,12 +11960,12 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>RD040AVT</t>
+          <t>804544AVT</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Радиатор двигателя FORD FIESTA / FUSION (01-) 1.2-1.6i MT / AT</t>
+          <t>Подшипник гидравлический RENAULT/NISSAN</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -11974,7 +11974,7 @@
         </is>
       </c>
       <c r="D444" t="n">
-        <v>2821</v>
+        <v>5640</v>
       </c>
       <c r="E444" t="n">
         <v>10</v>
@@ -11986,12 +11986,12 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>RD004AVT</t>
+          <t>701514AVT</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Ford Focus II (05-) A/C+ (сборный)</t>
+          <t>Радиатор Веста / Икс-Рэй</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -12000,7 +12000,7 @@
         </is>
       </c>
       <c r="D445" t="n">
-        <v>4726</v>
+        <v>4212</v>
       </c>
       <c r="E445" t="n">
         <v>10</v>
@@ -12012,12 +12012,12 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>RD048AVT</t>
+          <t>RD204AVT</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Радиатор двигателя FORD FOCUS III / C-MAX (11-) 1.6-2.0i MT / AT</t>
+          <t>Радиатор двигатель паяный Hyundai Solaris / KIA RIO II (17-) 1.4i / 1.6i</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -12026,7 +12026,7 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>6349</v>
+        <v>5585</v>
       </c>
       <c r="E446" t="n">
         <v>10</v>
@@ -12038,12 +12038,12 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>RD055AVT</t>
+          <t>RD026AVT</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Радиатор двигателя HYUNDAI SOLARIS (10-) / KIA RIO (10-) 1.4-1.6i 6AT</t>
+          <t>Радиатор двигателя BMW X5 (E70) (07-) 30d/3.0t AT (паяный)</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -12052,7 +12052,7 @@
         </is>
       </c>
       <c r="D447" t="n">
-        <v>4195</v>
+        <v>12251</v>
       </c>
       <c r="E447" t="n">
         <v>10</v>
@@ -12064,12 +12064,12 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>RD001AVT</t>
+          <t>RD008AVT</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Радиатор двигателя HYUNDAI SOLARIS (RB) / KIA RIO III (UB) (11-) 1.4-1.6i MT</t>
+          <t>Радиатор двигателя CHEVROLET CRUZE (09-) 1.6-1.8i / ORLANDO (10-) 1.8i MT</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -12078,7 +12078,7 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>3139</v>
+        <v>5634</v>
       </c>
       <c r="E448" t="n">
         <v>10</v>
@@ -12090,12 +12090,12 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>RD002AVT</t>
+          <t>RD018AVT</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Hyundai Solaris / Kia Rio (10-&gt;) AT (сборный)</t>
+          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i AT</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -12104,7 +12104,7 @@
         </is>
       </c>
       <c r="D449" t="n">
-        <v>3203</v>
+        <v>6371</v>
       </c>
       <c r="E449" t="n">
         <v>10</v>
@@ -12116,12 +12116,12 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>RD057AVT</t>
+          <t>RD009AVT</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Радиатор двигателя HYUNDAI SOLARIS / KIA RIO (17-) 1.4-1.6i MT</t>
+          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i MT</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -12130,7 +12130,7 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>3556</v>
+        <v>5555</v>
       </c>
       <c r="E450" t="n">
         <v>10</v>
@@ -12142,12 +12142,12 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>RD021AVT</t>
+          <t>RD011AVT</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA CEED (ED) (07-) 1.4-2.0i / HYUNDAI ELANTRA (HD) (06-) 1.6-2.0i / HYUNDAI i30</t>
+          <t>Радиатор двигателя Chevrolet Lacetti (04-) 1.4i/1.6i/1.8i MT (сборный)</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -12156,7 +12156,7 @@
         </is>
       </c>
       <c r="D451" t="n">
-        <v>4904</v>
+        <v>4973</v>
       </c>
       <c r="E451" t="n">
         <v>10</v>
@@ -12168,12 +12168,12 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>RD056AVT</t>
+          <t>RD016AVT</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA CEED / HYUNDAI i30 / ELANTRA IV (06-) 1.4-2.0i AT</t>
+          <t>Радиатор двигателя Daewoo Matiz (01-) 0.8i/1.0i MT (сборный)</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -12182,7 +12182,7 @@
         </is>
       </c>
       <c r="D452" t="n">
-        <v>6533</v>
+        <v>2898</v>
       </c>
       <c r="E452" t="n">
         <v>10</v>
@@ -12194,12 +12194,12 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>RD056AVT</t>
+          <t>RD023AVT</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA CEED / HYUNDAI i30 / ELANTRA IV (06-) 1.4-2.0i AT</t>
+          <t>Радиатор двигателя Daewoo Matiz (1998-) 0.8 MT (сборный)</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -12208,7 +12208,7 @@
         </is>
       </c>
       <c r="D453" t="n">
-        <v>6533</v>
+        <v>3323</v>
       </c>
       <c r="E453" t="n">
         <v>10</v>
@@ -12220,12 +12220,12 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>RD087AVT</t>
+          <t>RD024AVT</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
+          <t>Радиатор двигателя DAEWOO MATIZ (98-) 0.8i AT</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -12234,10 +12234,10 @@
         </is>
       </c>
       <c r="D454" t="n">
-        <v>7403</v>
+        <v>4207</v>
       </c>
       <c r="E454" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F454" t="n">
         <v>1</v>
@@ -12246,12 +12246,12 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>RD087AVT</t>
+          <t>RD015AVT</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
+          <t>Радиатор двигателя Daewoo Nexia (94-) 1.5/1.8 MT (сборный)</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -12260,10 +12260,10 @@
         </is>
       </c>
       <c r="D455" t="n">
-        <v>7403</v>
+        <v>3204</v>
       </c>
       <c r="E455" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F455" t="n">
         <v>1</v>
@@ -12272,12 +12272,12 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>RD062AVT</t>
+          <t>RD040AVT</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia Spectra (96-) 1.5-1.8 AT</t>
+          <t>Радиатор двигателя FORD FIESTA / FUSION (01-) 1.2-1.6i MT / AT</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -12286,7 +12286,7 @@
         </is>
       </c>
       <c r="D456" t="n">
-        <v>5772</v>
+        <v>2821</v>
       </c>
       <c r="E456" t="n">
         <v>10</v>
@@ -12298,12 +12298,12 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>RD020AVT</t>
+          <t>RD004AVT</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i AT</t>
+          <t>Радиатор двигателя Ford Focus II (05-) A/C+ (сборный)</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -12312,7 +12312,7 @@
         </is>
       </c>
       <c r="D457" t="n">
-        <v>6194</v>
+        <v>4726</v>
       </c>
       <c r="E457" t="n">
         <v>10</v>
@@ -12324,12 +12324,12 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>RD019AVT</t>
+          <t>RD048AVT</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i MT</t>
+          <t>Радиатор двигателя FORD FOCUS III / C-MAX (11-) 1.6-2.0i MT / AT</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -12338,7 +12338,7 @@
         </is>
       </c>
       <c r="D458" t="n">
-        <v>4888</v>
+        <v>6349</v>
       </c>
       <c r="E458" t="n">
         <v>10</v>
@@ -12350,12 +12350,12 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>RD028AVT</t>
+          <t>RD055AVT</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MB C (07-), E (-16), GLK (08-) 1.6-4.7i AT</t>
+          <t>Радиатор двигателя HYUNDAI SOLARIS (10-) / KIA RIO (10-) 1.4-1.6i 6AT</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -12364,7 +12364,7 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>10615</v>
+        <v>4195</v>
       </c>
       <c r="E459" t="n">
         <v>10</v>
@@ -12376,12 +12376,12 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>RD029AVT</t>
+          <t>RD001AVT</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MB E (16-), GLC (15-), C (14-), S (13-) 2.0-4.0 MT / AT</t>
+          <t>Радиатор двигателя HYUNDAI SOLARIS (RB) / KIA RIO III (UB) (11-) 1.4-1.6i MT</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -12390,7 +12390,7 @@
         </is>
       </c>
       <c r="D460" t="n">
-        <v>12114</v>
+        <v>3139</v>
       </c>
       <c r="E460" t="n">
         <v>10</v>
@@ -12402,12 +12402,12 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>RD027AVT</t>
+          <t>RD002AVT</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MB ML (12-) GL, GLS, GLE (-18) 2.2-5.5i AT</t>
+          <t>Радиатор двигателя Hyundai Solaris / Kia Rio (10-&gt;) AT (сборный)</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -12416,7 +12416,7 @@
         </is>
       </c>
       <c r="D461" t="n">
-        <v>11959</v>
+        <v>3203</v>
       </c>
       <c r="E461" t="n">
         <v>10</v>
@@ -12428,12 +12428,12 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>RD005AVT</t>
+          <t>RD057AVT</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MITSUBISHI ASX (10-) 1.6-1.8i / OUTLANDER (07-) 2.0-2.4i / LANCER (07-) 1.5-2.0i</t>
+          <t>Радиатор двигателя HYUNDAI SOLARIS / KIA RIO (17-) 1.4-1.6i MT</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -12442,7 +12442,7 @@
         </is>
       </c>
       <c r="D462" t="n">
-        <v>4110</v>
+        <v>3556</v>
       </c>
       <c r="E462" t="n">
         <v>10</v>
@@ -12454,12 +12454,12 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>RD060AVT</t>
+          <t>RD021AVT</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MITSUBISHI OUTLANDER III (12-) 2.0-3.0i MT / AT</t>
+          <t>Радиатор двигателя KIA CEED (ED) (07-) 1.4-2.0i / HYUNDAI ELANTRA (HD) (06-) 1.6-2.0i / HYUNDAI i30</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -12468,7 +12468,7 @@
         </is>
       </c>
       <c r="D463" t="n">
-        <v>7210</v>
+        <v>4904</v>
       </c>
       <c r="E463" t="n">
         <v>10</v>
@@ -12480,12 +12480,12 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>RD017AVT</t>
+          <t>RD056AVT</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Радиатор двигателя NISSAN QASHQAI (J10) (07-) 1.6-2.0i MT / AT</t>
+          <t>Радиатор двигателя KIA CEED / HYUNDAI i30 / ELANTRA IV (06-) 1.4-2.0i AT</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -12494,7 +12494,7 @@
         </is>
       </c>
       <c r="D464" t="n">
-        <v>7289</v>
+        <v>6533</v>
       </c>
       <c r="E464" t="n">
         <v>10</v>
@@ -12506,12 +12506,12 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>RD063AVT</t>
+          <t>RD056AVT</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Nissan X-Trail (14-) 2.0-2.5</t>
+          <t>Радиатор двигателя KIA CEED / HYUNDAI i30 / ELANTRA IV (06-) 1.4-2.0i AT</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -12520,7 +12520,7 @@
         </is>
       </c>
       <c r="D465" t="n">
-        <v>5864</v>
+        <v>6533</v>
       </c>
       <c r="E465" t="n">
         <v>10</v>
@@ -12532,12 +12532,12 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>RD014AVT</t>
+          <t>RD087AVT</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Радиатор двигателя OPEL ZAFIRA / ASTRA H (05-) 1.6-1.8i MT / AT</t>
+          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="D466" t="n">
-        <v>5726</v>
+        <v>7403</v>
       </c>
       <c r="E466" t="n">
         <v>10</v>
@@ -12558,12 +12558,12 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>RD003AVT</t>
+          <t>RD087AVT</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Renault Logan (04-) 1.4i/1.6i А/С+ (сборный)</t>
+          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -12572,7 +12572,7 @@
         </is>
       </c>
       <c r="D467" t="n">
-        <v>2794</v>
+        <v>7403</v>
       </c>
       <c r="E467" t="n">
         <v>10</v>
@@ -12584,12 +12584,12 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>RD058AVT</t>
+          <t>RD062AVT</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Радиатор двигателя RENAULT LOGAN / SANDERO / SYMBOL (04-) 1.4-1.6i / Lada LARGUS K7M 1.6i (12-) MT /</t>
+          <t>Радиатор двигателя Kia Spectra (96-) 1.5-1.8 AT</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -12598,7 +12598,7 @@
         </is>
       </c>
       <c r="D468" t="n">
-        <v>2893</v>
+        <v>5772</v>
       </c>
       <c r="E468" t="n">
         <v>10</v>
@@ -12610,12 +12610,12 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>RD013AVT</t>
+          <t>RD020AVT</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Skoda Octavia A5 (04-)/VW Golf V (03-) (сборный)</t>
+          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i AT</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -12624,7 +12624,7 @@
         </is>
       </c>
       <c r="D469" t="n">
-        <v>4436</v>
+        <v>6194</v>
       </c>
       <c r="E469" t="n">
         <v>10</v>
@@ -12636,12 +12636,12 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>RD007AVT</t>
+          <t>RD019AVT</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Радиатор двигателя TOYOTA AURIS (E15) (07-) / (E18) (12-) 1.3-1.6i / AVENSIS (T27) (08-) 1.6-2.0i /</t>
+          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i MT</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -12650,7 +12650,7 @@
         </is>
       </c>
       <c r="D470" t="n">
-        <v>5714</v>
+        <v>4888</v>
       </c>
       <c r="E470" t="n">
         <v>10</v>
@@ -12662,12 +12662,12 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>RD025AVT</t>
+          <t>RD028AVT</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Радиатор двигателя TOYOTA CAMRY (11-16) 2.5-3.5i AT</t>
+          <t>Радиатор двигателя MB C (07-), E (-16), GLK (08-) 1.6-4.7i AT</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -12676,7 +12676,7 @@
         </is>
       </c>
       <c r="D471" t="n">
-        <v>7470</v>
+        <v>10615</v>
       </c>
       <c r="E471" t="n">
         <v>10</v>
@@ -12688,12 +12688,12 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>RD050AVT</t>
+          <t>RD029AVT</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota LC200 (08-) 4.5D</t>
+          <t>Радиатор двигателя MB E (16-), GLC (15-), C (14-), S (13-) 2.0-4.0 MT / AT</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -12702,10 +12702,10 @@
         </is>
       </c>
       <c r="D472" t="n">
-        <v>12649</v>
+        <v>12114</v>
       </c>
       <c r="E472" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F472" t="n">
         <v>1</v>
@@ -12714,12 +12714,12 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>RD050AVT</t>
+          <t>RD027AVT</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota LC200 (08-) 4.5D</t>
+          <t>Радиатор двигателя MB ML (12-) GL, GLS, GLE (-18) 2.2-5.5i AT</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -12728,10 +12728,10 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>12649</v>
+        <v>11959</v>
       </c>
       <c r="E473" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F473" t="n">
         <v>1</v>
@@ -12740,12 +12740,12 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>RD010AVT</t>
+          <t>RD005AVT</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota RAV 4 (06-&gt;)/RAV 4 (13-&gt;) 2.0i MT/AT (сборный)</t>
+          <t>Радиатор двигателя MITSUBISHI ASX (10-) 1.6-1.8i / OUTLANDER (07-) 2.0-2.4i / LANCER (07-) 1.5-2.0i</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -12754,7 +12754,7 @@
         </is>
       </c>
       <c r="D474" t="n">
-        <v>5429</v>
+        <v>4110</v>
       </c>
       <c r="E474" t="n">
         <v>10</v>
@@ -12766,12 +12766,12 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>RD006AVT</t>
+          <t>RD060AVT</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Радиатор двигателя VW Polo Sedan (10-)/(20-)/Skoda Rapid (12-)/(20-) (сборный)</t>
+          <t>Радиатор двигателя MITSUBISHI OUTLANDER III (12-) 2.0-3.0i MT / AT</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -12780,7 +12780,7 @@
         </is>
       </c>
       <c r="D475" t="n">
-        <v>3888</v>
+        <v>7210</v>
       </c>
       <c r="E475" t="n">
         <v>10</v>
@@ -12792,12 +12792,12 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>RD221AVT</t>
+          <t>RD017AVT</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Audi A4/А6 (94-) 1.6i, 1.8i, 1.9TDi, 1.8T</t>
+          <t>Радиатор двигателя NISSAN QASHQAI (J10) (07-) 1.6-2.0i MT / AT</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -12806,7 +12806,7 @@
         </is>
       </c>
       <c r="D476" t="n">
-        <v>6386</v>
+        <v>7289</v>
       </c>
       <c r="E476" t="n">
         <v>10</v>
@@ -12818,12 +12818,12 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>RD302AVT</t>
+          <t>RD063AVT</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Ford Ranger (98-) 2.5TDi</t>
+          <t>Радиатор двигателя Nissan X-Trail (14-) 2.0-2.5</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -12832,7 +12832,7 @@
         </is>
       </c>
       <c r="D477" t="n">
-        <v>6724</v>
+        <v>5864</v>
       </c>
       <c r="E477" t="n">
         <v>10</v>
@@ -12844,12 +12844,12 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>RD220AVT</t>
+          <t>RD014AVT</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Honda CR-V III (06-) 2.0i</t>
+          <t>Радиатор двигателя OPEL ZAFIRA / ASTRA H (05-) 1.6-1.8i MT / AT</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -12858,7 +12858,7 @@
         </is>
       </c>
       <c r="D478" t="n">
-        <v>6842</v>
+        <v>5726</v>
       </c>
       <c r="E478" t="n">
         <v>10</v>
@@ -12870,12 +12870,12 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>RD225AVT</t>
+          <t>RD003AVT</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Hyundai Santa Fe II (06-) 2.2CRDi</t>
+          <t>Радиатор двигателя Renault Logan (04-) 1.4i/1.6i А/С+ (сборный)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -12884,7 +12884,7 @@
         </is>
       </c>
       <c r="D479" t="n">
-        <v>8759</v>
+        <v>2794</v>
       </c>
       <c r="E479" t="n">
         <v>10</v>
@@ -12896,12 +12896,12 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>RD274AVT</t>
+          <t>RD058AVT</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i, 2.0i AT</t>
+          <t>Радиатор двигателя RENAULT LOGAN / SANDERO / SYMBOL (04-) 1.4-1.6i / Lada LARGUS K7M 1.6i (12-) MT /</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -12910,7 +12910,7 @@
         </is>
       </c>
       <c r="D480" t="n">
-        <v>8366</v>
+        <v>2893</v>
       </c>
       <c r="E480" t="n">
         <v>10</v>
@@ -12922,12 +12922,12 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>RD207AVT</t>
+          <t>RD013AVT</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i, 2.0i MT</t>
+          <t>Радиатор двигателя Skoda Octavia A5 (04-)/VW Golf V (03-) (сборный)</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -12936,7 +12936,7 @@
         </is>
       </c>
       <c r="D481" t="n">
-        <v>7973</v>
+        <v>4436</v>
       </c>
       <c r="E481" t="n">
         <v>10</v>
@@ -12948,12 +12948,12 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>RD230AVT</t>
+          <t>RD007AVT</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Mitsubishi Outlander I (03-) 2.0i, 2.4i</t>
+          <t>Радиатор двигателя TOYOTA AURIS (E15) (07-) / (E18) (12-) 1.3-1.6i / AVENSIS (T27) (08-) 1.6-2.0i /</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -12962,7 +12962,7 @@
         </is>
       </c>
       <c r="D482" t="n">
-        <v>6593</v>
+        <v>5714</v>
       </c>
       <c r="E482" t="n">
         <v>10</v>
@@ -12974,12 +12974,12 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>RD211AVT</t>
+          <t>RD025AVT</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Nissan Almera Classic B10 (06-) 1.6i</t>
+          <t>Радиатор двигателя TOYOTA CAMRY (11-16) 2.5-3.5i AT</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -12988,7 +12988,7 @@
         </is>
       </c>
       <c r="D483" t="n">
-        <v>5980</v>
+        <v>7470</v>
       </c>
       <c r="E483" t="n">
         <v>10</v>
@@ -13000,12 +13000,12 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>RD264AVT</t>
+          <t>RD050AVT</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Nissan X-Trail T30 (01-) 2.0i, 2.5i</t>
+          <t>Радиатор двигателя Toyota LC200 (08-) 4.5D</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -13014,7 +13014,7 @@
         </is>
       </c>
       <c r="D484" t="n">
-        <v>5741</v>
+        <v>12649</v>
       </c>
       <c r="E484" t="n">
         <v>10</v>
@@ -13026,12 +13026,12 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>RD205AVT</t>
+          <t>RD050AVT</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Skoda Octavia/Kodiaq A7 (13-) 1.2TSi, 1.4TSi, 1.6TDi, 2.0TDi</t>
+          <t>Радиатор двигателя Toyota LC200 (08-) 4.5D</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -13040,7 +13040,7 @@
         </is>
       </c>
       <c r="D485" t="n">
-        <v>5630</v>
+        <v>12649</v>
       </c>
       <c r="E485" t="n">
         <v>10</v>
@@ -13052,12 +13052,12 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>RD217AVT</t>
+          <t>RD010AVT</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Suzuki SX4 I (06-) 1.6i</t>
+          <t>Радиатор двигателя Toyota RAV 4 (06-&gt;)/RAV 4 (13-&gt;) 2.0i MT/AT (сборный)</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -13066,7 +13066,7 @@
         </is>
       </c>
       <c r="D486" t="n">
-        <v>7183</v>
+        <v>5429</v>
       </c>
       <c r="E486" t="n">
         <v>10</v>
@@ -13078,12 +13078,12 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>RD059AVT</t>
+          <t>RD006AVT</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный VW PASSAT B6 / B7 JETTA III /IV / TIGUAN / TOURAN / SKODA OCTAVIA II / SUP</t>
+          <t>Радиатор двигателя VW Polo Sedan (10-)/(20-)/Skoda Rapid (12-)/(20-) (сборный)</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -13092,7 +13092,7 @@
         </is>
       </c>
       <c r="D487" t="n">
-        <v>6286</v>
+        <v>3888</v>
       </c>
       <c r="E487" t="n">
         <v>10</v>
@@ -13104,12 +13104,12 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>RD250AVT</t>
+          <t>RD221AVT</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Радиатор двигателя сборный Chevrolet Rezzo (00-) 1.6i, 1.8i</t>
+          <t>Радиатор двигателя паяный Audi A4/А6 (94-) 1.6i, 1.8i, 1.9TDi, 1.8T</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -13118,7 +13118,7 @@
         </is>
       </c>
       <c r="D488" t="n">
-        <v>5549</v>
+        <v>6386</v>
       </c>
       <c r="E488" t="n">
         <v>10</v>
@@ -13130,12 +13130,12 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>RD012AVT</t>
+          <t>RD302AVT</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Радиатор двигателя сборный VW Jetta (05)/(11-)/Skoda Octavia A5 (04-)</t>
+          <t>Радиатор двигателя паяный Ford Ranger (98-) 2.5TDi</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -13144,7 +13144,7 @@
         </is>
       </c>
       <c r="D489" t="n">
-        <v>4106</v>
+        <v>6724</v>
       </c>
       <c r="E489" t="n">
         <v>10</v>
@@ -13156,12 +13156,12 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>735634AVT</t>
+          <t>RD220AVT</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Радиатор Рено Логан II</t>
+          <t>Радиатор двигателя паяный Honda CR-V III (06-) 2.0i</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -13170,7 +13170,7 @@
         </is>
       </c>
       <c r="D490" t="n">
-        <v>3834</v>
+        <v>6842</v>
       </c>
       <c r="E490" t="n">
         <v>10</v>
@@ -13182,12 +13182,12 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>438544AVT</t>
+          <t>RD225AVT</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Стартер Renault Arkana</t>
+          <t>Радиатор двигателя паяный Hyundai Santa Fe II (06-) 2.2CRDi</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="D491" t="n">
-        <v>6600</v>
+        <v>8759</v>
       </c>
       <c r="E491" t="n">
         <v>10</v>
@@ -13208,12 +13208,12 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>438545AVT</t>
+          <t>RD274AVT</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Стартер Toyota Camry / Rav4</t>
+          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i, 2.0i AT</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -13222,7 +13222,7 @@
         </is>
       </c>
       <c r="D492" t="n">
-        <v>6600</v>
+        <v>8366</v>
       </c>
       <c r="E492" t="n">
         <v>10</v>
@@ -13234,12 +13234,12 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>438286AVT</t>
+          <t>RD207AVT</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Стартер Гранта АКПП</t>
+          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i, 2.0i MT</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -13248,7 +13248,7 @@
         </is>
       </c>
       <c r="D493" t="n">
-        <v>5916</v>
+        <v>7973</v>
       </c>
       <c r="E493" t="n">
         <v>10</v>
@@ -13260,12 +13260,12 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>438286AVT</t>
+          <t>RD230AVT</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Стартер Гранта АКПП</t>
+          <t>Радиатор двигателя паяный Mitsubishi Outlander I (03-) 2.0i, 2.4i</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -13274,7 +13274,7 @@
         </is>
       </c>
       <c r="D494" t="n">
-        <v>5916</v>
+        <v>6593</v>
       </c>
       <c r="E494" t="n">
         <v>10</v>
@@ -13286,12 +13286,12 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>438285AVT</t>
+          <t>RD211AVT</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Стартер Гранта МКПП</t>
+          <t>Радиатор двигателя паяный Nissan Almera Classic B10 (06-) 1.6i</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -13300,7 +13300,7 @@
         </is>
       </c>
       <c r="D495" t="n">
-        <v>5820</v>
+        <v>5980</v>
       </c>
       <c r="E495" t="n">
         <v>10</v>
@@ -13312,12 +13312,12 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>438327AVT</t>
+          <t>RD264AVT</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Стартер Рено F4R</t>
+          <t>Радиатор двигателя паяный Nissan X-Trail T30 (01-) 2.0i, 2.5i</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -13326,7 +13326,7 @@
         </is>
       </c>
       <c r="D496" t="n">
-        <v>8400</v>
+        <v>5741</v>
       </c>
       <c r="E496" t="n">
         <v>10</v>
@@ -13338,12 +13338,12 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>438324AVT</t>
+          <t>RD205AVT</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Стартер Рено H4M</t>
+          <t>Радиатор двигателя паяный Skoda Octavia/Kodiaq A7 (13-) 1.2TSi, 1.4TSi, 1.6TDi, 2.0TDi</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -13352,7 +13352,7 @@
         </is>
       </c>
       <c r="D497" t="n">
-        <v>5964</v>
+        <v>5630</v>
       </c>
       <c r="E497" t="n">
         <v>10</v>
@@ -13364,12 +13364,12 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>438328AVT</t>
+          <t>RD217AVT</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Стартер Рено K4M</t>
+          <t>Радиатор двигателя паяный Suzuki SX4 I (06-) 1.6i</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -13378,7 +13378,7 @@
         </is>
       </c>
       <c r="D498" t="n">
-        <v>7200</v>
+        <v>7183</v>
       </c>
       <c r="E498" t="n">
         <v>10</v>
@@ -13390,12 +13390,12 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>438328AVT</t>
+          <t>RD059AVT</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Стартер Рено K4M</t>
+          <t>Радиатор двигателя паяный VW PASSAT B6 / B7 JETTA III /IV / TIGUAN / TOURAN / SKODA OCTAVIA II / SUP</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -13404,7 +13404,7 @@
         </is>
       </c>
       <c r="D499" t="n">
-        <v>7200</v>
+        <v>6286</v>
       </c>
       <c r="E499" t="n">
         <v>10</v>
@@ -13416,12 +13416,12 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>FC001AVT</t>
+          <t>RD250AVT</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Фильтр отопителя LADA VESTA</t>
+          <t>Радиатор двигателя сборный Chevrolet Rezzo (00-) 1.6i, 1.8i</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -13430,7 +13430,7 @@
         </is>
       </c>
       <c r="D500" t="n">
-        <v>420</v>
+        <v>5549</v>
       </c>
       <c r="E500" t="n">
         <v>10</v>
@@ -13442,12 +13442,12 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>252.5215900-14</t>
+          <t>RD012AVT</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 350 мм</t>
+          <t>Радиатор двигателя сборный VW Jetta (05)/(11-)/Skoda Octavia A5 (04-)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -13456,7 +13456,7 @@
         </is>
       </c>
       <c r="D501" t="n">
-        <v>518</v>
+        <v>4106</v>
       </c>
       <c r="E501" t="n">
         <v>10</v>
@@ -13468,12 +13468,12 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>252.5215900-16</t>
+          <t>735634AVT</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 400 мм</t>
+          <t>Радиатор Рено Логан II</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -13482,7 +13482,7 @@
         </is>
       </c>
       <c r="D502" t="n">
-        <v>552</v>
+        <v>3834</v>
       </c>
       <c r="E502" t="n">
         <v>10</v>
@@ -13494,12 +13494,12 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>252.5215900-17</t>
+          <t>438544AVT</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 430 мм</t>
+          <t>Стартер Renault Arkana</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -13508,7 +13508,7 @@
         </is>
       </c>
       <c r="D503" t="n">
-        <v>552</v>
+        <v>6600</v>
       </c>
       <c r="E503" t="n">
         <v>10</v>
@@ -13520,12 +13520,12 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>252.5215900-18</t>
+          <t>438545AVT</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 450 мм</t>
+          <t>Стартер Toyota Camry / Rav4</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -13534,7 +13534,7 @@
         </is>
       </c>
       <c r="D504" t="n">
-        <v>552</v>
+        <v>6600</v>
       </c>
       <c r="E504" t="n">
         <v>10</v>
@@ -13546,12 +13546,12 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>252.5215900-20</t>
+          <t>438285AVT</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 500 мм</t>
+          <t>Стартер Гранта МКПП</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -13560,7 +13560,7 @@
         </is>
       </c>
       <c r="D505" t="n">
-        <v>582</v>
+        <v>5820</v>
       </c>
       <c r="E505" t="n">
         <v>10</v>
@@ -13572,12 +13572,12 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>252.5215900-22</t>
+          <t>438327AVT</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 550 мм</t>
+          <t>Стартер Рено F4R</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="D506" t="n">
-        <v>582</v>
+        <v>8400</v>
       </c>
       <c r="E506" t="n">
         <v>10</v>
@@ -13598,12 +13598,12 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>252.5215900-24</t>
+          <t>438324AVT</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 600 мм</t>
+          <t>Стартер Рено H4M</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -13612,7 +13612,7 @@
         </is>
       </c>
       <c r="D507" t="n">
-        <v>641</v>
+        <v>5964</v>
       </c>
       <c r="E507" t="n">
         <v>10</v>
@@ -13624,12 +13624,12 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>252.5215900-26</t>
+          <t>438328AVT</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 650 мм</t>
+          <t>Стартер Рено K4M</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -13638,7 +13638,7 @@
         </is>
       </c>
       <c r="D508" t="n">
-        <v>672</v>
+        <v>7200</v>
       </c>
       <c r="E508" t="n">
         <v>10</v>
@@ -13650,12 +13650,12 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>25.5215900-13</t>
+          <t>438328AVT</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 330 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Стартер Рено K4M</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -13664,7 +13664,7 @@
         </is>
       </c>
       <c r="D509" t="n">
-        <v>299</v>
+        <v>7200</v>
       </c>
       <c r="E509" t="n">
         <v>10</v>
@@ -13676,12 +13676,12 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>25.5215900-14</t>
+          <t>FC001AVT</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 350 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Фильтр отопителя LADA VESTA</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -13690,7 +13690,7 @@
         </is>
       </c>
       <c r="D510" t="n">
-        <v>299</v>
+        <v>420</v>
       </c>
       <c r="E510" t="n">
         <v>10</v>
@@ -13702,12 +13702,12 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>25.5215900-16</t>
+          <t>252.5215900-14</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 400 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 350 мм</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -13716,7 +13716,7 @@
         </is>
       </c>
       <c r="D511" t="n">
-        <v>334</v>
+        <v>518</v>
       </c>
       <c r="E511" t="n">
         <v>10</v>
@@ -13728,12 +13728,12 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>25.5215900-17</t>
+          <t>252.5215900-16</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 430 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 400 мм</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -13742,7 +13742,7 @@
         </is>
       </c>
       <c r="D512" t="n">
-        <v>334</v>
+        <v>552</v>
       </c>
       <c r="E512" t="n">
         <v>10</v>
@@ -13754,12 +13754,12 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>25.5215900-18</t>
+          <t>252.5215900-17</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 450 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 430 мм</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -13768,7 +13768,7 @@
         </is>
       </c>
       <c r="D513" t="n">
-        <v>334</v>
+        <v>552</v>
       </c>
       <c r="E513" t="n">
         <v>10</v>
@@ -13780,12 +13780,12 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>25.5215900-19</t>
+          <t>252.5215900-18</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 480 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 450 мм</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -13794,7 +13794,7 @@
         </is>
       </c>
       <c r="D514" t="n">
-        <v>334</v>
+        <v>552</v>
       </c>
       <c r="E514" t="n">
         <v>10</v>
@@ -13806,12 +13806,12 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>25.5215900-20</t>
+          <t>252.5215900-20</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 500 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 500 мм</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -13820,7 +13820,7 @@
         </is>
       </c>
       <c r="D515" t="n">
-        <v>352</v>
+        <v>582</v>
       </c>
       <c r="E515" t="n">
         <v>10</v>
@@ -13832,12 +13832,12 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>25.5215900-21</t>
+          <t>252.5215900-22</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 530 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 550 мм</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="D516" t="n">
-        <v>352</v>
+        <v>582</v>
       </c>
       <c r="E516" t="n">
         <v>10</v>
@@ -13858,12 +13858,12 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>25.5215900-22</t>
+          <t>252.5215900-24</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 550 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 600 мм</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -13872,7 +13872,7 @@
         </is>
       </c>
       <c r="D517" t="n">
-        <v>352</v>
+        <v>641</v>
       </c>
       <c r="E517" t="n">
         <v>10</v>
@@ -13884,12 +13884,12 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>25.5215900-24</t>
+          <t>252.5215900-26</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 600 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 650 мм</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -13898,7 +13898,7 @@
         </is>
       </c>
       <c r="D518" t="n">
-        <v>386</v>
+        <v>672</v>
       </c>
       <c r="E518" t="n">
         <v>10</v>
@@ -13910,12 +13910,12 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>25.5215900-26</t>
+          <t>25.5215900-13</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 650 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 330 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -13924,7 +13924,7 @@
         </is>
       </c>
       <c r="D519" t="n">
-        <v>406</v>
+        <v>299</v>
       </c>
       <c r="E519" t="n">
         <v>10</v>
@@ -13936,12 +13936,12 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>25.5215900-28</t>
+          <t>25.5215900-14</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 700 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 350 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -13950,7 +13950,7 @@
         </is>
       </c>
       <c r="D520" t="n">
-        <v>406</v>
+        <v>299</v>
       </c>
       <c r="E520" t="n">
         <v>10</v>
@@ -13962,12 +13962,12 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>СЛ136Е-5205900-01</t>
+          <t>25.5215900-16</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 410 мм, тип крепления "Hook" ("Крюк") и "Bayonet" ("Штыковой замо</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 400 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -13976,7 +13976,7 @@
         </is>
       </c>
       <c r="D521" t="n">
-        <v>144</v>
+        <v>334</v>
       </c>
       <c r="E521" t="n">
         <v>10</v>
@@ -13988,12 +13988,12 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>23.5215900-01</t>
+          <t>25.5215900-17</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 475 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 430 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -14002,7 +14002,7 @@
         </is>
       </c>
       <c r="D522" t="n">
-        <v>144</v>
+        <v>334</v>
       </c>
       <c r="E522" t="n">
         <v>10</v>
@@ -14014,12 +14014,12 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>49.5205900-01</t>
+          <t>25.5215900-18</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 500 мм, тип крепления "Hook" ("Крюк") и "Bayonet" ("Штыковой замо</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 450 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -14028,7 +14028,7 @@
         </is>
       </c>
       <c r="D523" t="n">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="E523" t="n">
         <v>10</v>
@@ -14040,12 +14040,12 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>731.5205900-01</t>
+          <t>25.5215900-19</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 525 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 480 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -14054,7 +14054,7 @@
         </is>
       </c>
       <c r="D524" t="n">
-        <v>287</v>
+        <v>334</v>
       </c>
       <c r="E524" t="n">
         <v>10</v>
@@ -14066,12 +14066,12 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>11.5215900-01</t>
+          <t>25.5215900-20</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 550 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 500 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -14080,7 +14080,7 @@
         </is>
       </c>
       <c r="D525" t="n">
-        <v>295</v>
+        <v>352</v>
       </c>
       <c r="E525" t="n">
         <v>10</v>
@@ -14092,12 +14092,12 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>93.5205900-01</t>
+          <t>25.5215900-21</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 600 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 530 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -14106,7 +14106,7 @@
         </is>
       </c>
       <c r="D526" t="n">
-        <v>144</v>
+        <v>352</v>
       </c>
       <c r="E526" t="n">
         <v>10</v>
@@ -14118,12 +14118,12 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>251.5215900-15</t>
+          <t>25.5215900-22</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 380 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 550 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -14132,7 +14132,7 @@
         </is>
       </c>
       <c r="D527" t="n">
-        <v>426</v>
+        <v>352</v>
       </c>
       <c r="E527" t="n">
         <v>10</v>
@@ -14144,12 +14144,12 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>251.5215900-16</t>
+          <t>25.5215900-24</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 400 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 600 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -14158,7 +14158,7 @@
         </is>
       </c>
       <c r="D528" t="n">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="E528" t="n">
         <v>10</v>
@@ -14170,12 +14170,12 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>251.5215900-17</t>
+          <t>25.5215900-26</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 430 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 650 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -14184,7 +14184,7 @@
         </is>
       </c>
       <c r="D529" t="n">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="E529" t="n">
         <v>10</v>
@@ -14196,12 +14196,12 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>251.5215900-18</t>
+          <t>25.5215900-28</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 450 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 700 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -14210,7 +14210,7 @@
         </is>
       </c>
       <c r="D530" t="n">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="E530" t="n">
         <v>10</v>
@@ -14222,12 +14222,12 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>251.5215900-19</t>
+          <t>СЛ136Е-5205900-01</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 480 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, каркасная, 410 мм, тип крепления "Hook" ("Крюк") и "Bayonet" ("Штыковой замо</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -14236,7 +14236,7 @@
         </is>
       </c>
       <c r="D531" t="n">
-        <v>426</v>
+        <v>144</v>
       </c>
       <c r="E531" t="n">
         <v>10</v>
@@ -14248,12 +14248,12 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>251.5215900-20</t>
+          <t>23.5215900-01</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 500 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, каркасная, 475 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -14262,7 +14262,7 @@
         </is>
       </c>
       <c r="D532" t="n">
-        <v>448</v>
+        <v>144</v>
       </c>
       <c r="E532" t="n">
         <v>10</v>
@@ -14274,12 +14274,12 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>251.5215900-24</t>
+          <t>49.5205900-01</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 600 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, каркасная, 500 мм, тип крепления "Hook" ("Крюк") и "Bayonet" ("Штыковой замо</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -14288,7 +14288,7 @@
         </is>
       </c>
       <c r="D533" t="n">
-        <v>492</v>
+        <v>366</v>
       </c>
       <c r="E533" t="n">
         <v>10</v>
@@ -14300,12 +14300,12 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>251.5215900-26</t>
+          <t>731.5205900-01</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 650 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, каркасная, 525 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C534" t="inlineStr">
@@ -14314,7 +14314,7 @@
         </is>
       </c>
       <c r="D534" t="n">
-        <v>518</v>
+        <v>287</v>
       </c>
       <c r="E534" t="n">
         <v>10</v>
@@ -14326,26 +14326,390 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
+          <t>11.5215900-01</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Щетка стеклоочистителя, каркасная, 550 мм, тип крепления "Hook" ("Крюк")</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D535" t="n">
+        <v>295</v>
+      </c>
+      <c r="E535" t="n">
+        <v>10</v>
+      </c>
+      <c r="F535" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>93.5205900-01</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Щетка стеклоочистителя, каркасная, 600 мм, тип крепления "Hook" ("Крюк")</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D536" t="n">
+        <v>144</v>
+      </c>
+      <c r="E536" t="n">
+        <v>10</v>
+      </c>
+      <c r="F536" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>251.5215900-15</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 380 мм, в комплекте 9 адаптеров</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D537" t="n">
+        <v>426</v>
+      </c>
+      <c r="E537" t="n">
+        <v>10</v>
+      </c>
+      <c r="F537" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>251.5215900-16</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 400 мм, в комплекте 9 адаптеров</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D538" t="n">
+        <v>426</v>
+      </c>
+      <c r="E538" t="n">
+        <v>10</v>
+      </c>
+      <c r="F538" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>251.5215900-17</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 430 мм, в комплекте 9 адаптеров</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D539" t="n">
+        <v>426</v>
+      </c>
+      <c r="E539" t="n">
+        <v>10</v>
+      </c>
+      <c r="F539" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>251.5215900-18</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 450 мм, в комплекте 9 адаптеров</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D540" t="n">
+        <v>426</v>
+      </c>
+      <c r="E540" t="n">
+        <v>10</v>
+      </c>
+      <c r="F540" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>251.5215900-19</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 480 мм, в комплекте 9 адаптеров</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D541" t="n">
+        <v>426</v>
+      </c>
+      <c r="E541" t="n">
+        <v>10</v>
+      </c>
+      <c r="F541" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>251.5215900-20</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 500 мм, в комплекте 9 адаптеров</t>
+        </is>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D542" t="n">
+        <v>448</v>
+      </c>
+      <c r="E542" t="n">
+        <v>10</v>
+      </c>
+      <c r="F542" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>251.5215900-24</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 600 мм, в комплекте 9 адаптеров</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D543" t="n">
+        <v>492</v>
+      </c>
+      <c r="E543" t="n">
+        <v>10</v>
+      </c>
+      <c r="F543" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>251.5215900-26</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 650 мм, в комплекте 9 адаптеров</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D544" t="n">
+        <v>518</v>
+      </c>
+      <c r="E544" t="n">
+        <v>10</v>
+      </c>
+      <c r="F544" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>595863AVT</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>Щеткодержатель стартера</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D545" t="n">
+        <v>720</v>
+      </c>
+      <c r="E545" t="n">
+        <v>10</v>
+      </c>
+      <c r="F545" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>595863AVT</t>
+        </is>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>Щеткодержатель стартера</t>
+        </is>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D546" t="n">
+        <v>720</v>
+      </c>
+      <c r="E546" t="n">
+        <v>10</v>
+      </c>
+      <c r="F546" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>595845AVT</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>Щеткодержатель стартера  LADA VESTA</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D547" t="n">
+        <v>720</v>
+      </c>
+      <c r="E547" t="n">
+        <v>10</v>
+      </c>
+      <c r="F547" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>595845AVT</t>
+        </is>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>Щеткодержатель стартера  LADA VESTA</t>
+        </is>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D548" t="n">
+        <v>720</v>
+      </c>
+      <c r="E548" t="n">
+        <v>10</v>
+      </c>
+      <c r="F548" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
           <t>595842AVT</t>
         </is>
       </c>
-      <c r="B535" t="inlineStr">
+      <c r="B549" t="inlineStr">
         <is>
           <t>Якорь стартера</t>
         </is>
       </c>
-      <c r="C535" t="inlineStr">
-        <is>
-          <t>AVTOPRIBOR</t>
-        </is>
-      </c>
-      <c r="D535" t="n">
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D549" t="n">
         <v>1416</v>
       </c>
-      <c r="E535" t="n">
-        <v>10</v>
-      </c>
-      <c r="F535" t="n">
+      <c r="E549" t="n">
+        <v>10</v>
+      </c>
+      <c r="F549" t="n">
         <v>1</v>
       </c>
     </row>

--- a/price_for_emex.xlsx
+++ b/price_for_emex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F549"/>
+  <dimension ref="A1:F533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8164,12 +8164,12 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>595575AVT</t>
+          <t>595843AVT</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Бендикс (Шестерня привода )</t>
+          <t>Бендикс (Шестерня привода ) LADA LARGUS</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -8178,7 +8178,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>1020</v>
+        <v>900</v>
       </c>
       <c r="E298" t="n">
         <v>10</v>
@@ -8190,12 +8190,12 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>595575AVT</t>
+          <t>RF004AVT</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Бендикс (Шестерня привода )</t>
+          <t>Вентилятор системы охлаждения Nissan Qashqai</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -8204,7 +8204,7 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>1020</v>
+        <v>6600</v>
       </c>
       <c r="E299" t="n">
         <v>10</v>
@@ -8216,12 +8216,12 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>595843AVT</t>
+          <t>RF005AVT</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Бендикс (Шестерня привода ) LADA LARGUS</t>
+          <t>Вентилятор системы охлаждения Nissan X-Trail, Qashqai (Дизель)</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -8230,7 +8230,7 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>900</v>
+        <v>6600</v>
       </c>
       <c r="E300" t="n">
         <v>10</v>
@@ -8242,12 +8242,12 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>595844AVT</t>
+          <t>595785AVT</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Бендикс (Шестерня привода ) RENAULT DUSTER</t>
+          <t>Втягивающее реле (для 438327 / 438328)</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -8256,7 +8256,7 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>1080</v>
+        <v>1800</v>
       </c>
       <c r="E301" t="n">
         <v>10</v>
@@ -8268,12 +8268,12 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>595844AVT</t>
+          <t>AL200AVT</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Бендикс (Шестерня привода ) RENAULT DUSTER</t>
+          <t>Генератор LADA GRANTA 110А</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -8282,10 +8282,10 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>1080</v>
+        <v>9996</v>
       </c>
       <c r="E302" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F302" t="n">
         <v>1</v>
@@ -8294,12 +8294,12 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>RF004AVT</t>
+          <t>AL200AVT</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Вентилятор системы охлаждения Nissan Qashqai</t>
+          <t>Генератор LADA GRANTA 110А</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -8308,10 +8308,10 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>6600</v>
+        <v>9996</v>
       </c>
       <c r="E303" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F303" t="n">
         <v>1</v>
@@ -8320,12 +8320,12 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>RF005AVT</t>
+          <t>BD050AVT</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Вентилятор системы охлаждения Nissan X-Trail, Qashqai (Дизель)</t>
+          <t>Диск тормозной Audi A4 / A6 (95-) передний</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -8334,24 +8334,24 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>6600</v>
+        <v>2020</v>
       </c>
       <c r="E304" t="n">
         <v>10</v>
       </c>
       <c r="F304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>595739AVT</t>
+          <t>BD075AVT</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Втягивающее реле</t>
+          <t>Диск тормозной Audi Q5 (08-) задний</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -8360,24 +8360,24 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1080</v>
+        <v>1718</v>
       </c>
       <c r="E305" t="n">
         <v>10</v>
       </c>
       <c r="F305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>595739AVT</t>
+          <t>BD056AVT</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Втягивающее реле</t>
+          <t>Диск тормозной Audi Q7 (06-) задний</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -8386,24 +8386,24 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>1080</v>
+        <v>2719</v>
       </c>
       <c r="E306" t="n">
         <v>10</v>
       </c>
       <c r="F306" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>595785AVT</t>
+          <t>BD021AVT</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Втягивающее реле (для 438327 / 438328)</t>
+          <t>Диск тормозной Chevrolet Aveo (02-) / Spark (05-) передний</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -8412,24 +8412,24 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>1800</v>
+        <v>1090</v>
       </c>
       <c r="E307" t="n">
         <v>10</v>
       </c>
       <c r="F307" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>595776AVT</t>
+          <t>BD022AVT</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Втягивающее реле LADA VESTA / RENUALT LOGAN</t>
+          <t>Диск тормозной Chevrolet Cruze (09-) / Aveo (11-) задний</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -8438,24 +8438,24 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>1440</v>
+        <v>1550</v>
       </c>
       <c r="E308" t="n">
         <v>10</v>
       </c>
       <c r="F308" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>595776AVT</t>
+          <t>BD018AVT</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Втягивающее реле LADA VESTA / RENUALT LOGAN</t>
+          <t>Диск тормозной Chevrolet Cruze (09-) / Aveo (11-) передний</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -8464,24 +8464,24 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>1440</v>
+        <v>2197</v>
       </c>
       <c r="E309" t="n">
         <v>10</v>
       </c>
       <c r="F309" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>AL200AVT</t>
+          <t>BD049AVT</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Генератор LADA GRANTA 110А</t>
+          <t>Диск тормозной Chevrolet Lacetti (04-) задний</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -8490,24 +8490,24 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>9996</v>
+        <v>1400</v>
       </c>
       <c r="E310" t="n">
         <v>10</v>
       </c>
       <c r="F310" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>AL200AVT</t>
+          <t>BD039AVT</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Генератор LADA GRANTA 110А</t>
+          <t>Диск тормозной Daewoo Matiz (98-) передний</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -8516,24 +8516,24 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>9996</v>
+        <v>1043</v>
       </c>
       <c r="E311" t="n">
         <v>10</v>
       </c>
       <c r="F311" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>BD050AVT</t>
+          <t>BD042AVT</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Диск тормозной Audi A4 / A6 (95-) передний</t>
+          <t>Диск тормозной Ford Fiesta (02-) / Fusion (02-) передний</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -8542,7 +8542,7 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>2020</v>
+        <v>1481</v>
       </c>
       <c r="E312" t="n">
         <v>10</v>
@@ -8554,12 +8554,12 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>BD075AVT</t>
+          <t>BD040AVT</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Диск тормозной Audi Q5 (08-) задний</t>
+          <t>Диск тормозной Ford Focus (04-) задний</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -8568,10 +8568,10 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>1718</v>
+        <v>1373</v>
       </c>
       <c r="E313" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F313" t="n">
         <v>2</v>
@@ -8580,12 +8580,12 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>BD056AVT</t>
+          <t>BD015AVT</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Диск тормозной Audi Q7 (06-) задний</t>
+          <t>Диск тормозной Ford Focus (04-) задний d.264,8</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -8594,7 +8594,7 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>2719</v>
+        <v>1270</v>
       </c>
       <c r="E314" t="n">
         <v>10</v>
@@ -8606,12 +8606,12 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>BD021AVT</t>
+          <t>BD006AVT</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Диск тормозной Chevrolet Aveo (02-) / Spark (05-) передний</t>
+          <t>Диск тормозной Ford Focus II (05-) / Ford Focus III (11-) передний</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -8620,7 +8620,7 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>1090</v>
+        <v>2310</v>
       </c>
       <c r="E315" t="n">
         <v>10</v>
@@ -8632,12 +8632,12 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>BD022AVT</t>
+          <t>BD013AVT</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Диск тормозной Chevrolet Cruze (09-) / Aveo (11-) задний</t>
+          <t>Диск тормозной Ford Focus II (05-) / Ford Focus III (11-) передний d.278,1</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>1550</v>
+        <v>1964</v>
       </c>
       <c r="E316" t="n">
         <v>10</v>
@@ -8658,12 +8658,12 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>BD018AVT</t>
+          <t>BD032AVT</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Диск тормозной Chevrolet Cruze (09-) / Aveo (11-) передний</t>
+          <t>Диск тормозной Ford Focus III (11-) задний</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -8672,7 +8672,7 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>2197</v>
+        <v>1494</v>
       </c>
       <c r="E317" t="n">
         <v>10</v>
@@ -8684,12 +8684,12 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>BD049AVT</t>
+          <t>BD076AVT</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Диск тормозной Chevrolet Lacetti (04-) задний</t>
+          <t>Диск тормозной Ford Mondeo IV (07-) задний</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -8698,7 +8698,7 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>1400</v>
+        <v>1741</v>
       </c>
       <c r="E318" t="n">
         <v>10</v>
@@ -8710,12 +8710,12 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>BD039AVT</t>
+          <t>BD033AVT</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Диск тормозной Daewoo Matiz (98-) передний</t>
+          <t>Диск тормозной Hyundai Accent (00-) передний</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -8724,7 +8724,7 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>1043</v>
+        <v>1333</v>
       </c>
       <c r="E319" t="n">
         <v>10</v>
@@ -8736,12 +8736,12 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>BD042AVT</t>
+          <t>BD037AVT</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Fiesta (02-) / Fusion (02-) передний</t>
+          <t>Диск тормозной Hyundai Creta (16-) задний 2WD</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -8750,7 +8750,7 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>1481</v>
+        <v>1270</v>
       </c>
       <c r="E320" t="n">
         <v>10</v>
@@ -8762,12 +8762,12 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>BD040AVT</t>
+          <t>BD041AVT</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Focus (04-) задний</t>
+          <t>Диск тормозной Hyundai Getz (02-) задний</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -8776,10 +8776,10 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>1373</v>
+        <v>1253</v>
       </c>
       <c r="E321" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F321" t="n">
         <v>2</v>
@@ -8788,12 +8788,12 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>BD015AVT</t>
+          <t>BD054AVT</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Focus (04-) задний d.264,8</t>
+          <t>Диск тормозной Hyundai Getz (02-) передний (ABS)</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -8802,7 +8802,7 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>1270</v>
+        <v>1343</v>
       </c>
       <c r="E322" t="n">
         <v>10</v>
@@ -8814,12 +8814,12 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>BD006AVT</t>
+          <t>BD055AVT</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Focus II (05-) / Ford Focus III (11-) передний</t>
+          <t>Диск тормозной Hyundai Getz (02-) передний (без ABS)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -8828,7 +8828,7 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>2310</v>
+        <v>1309</v>
       </c>
       <c r="E323" t="n">
         <v>10</v>
@@ -8840,12 +8840,12 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>BD013AVT</t>
+          <t>BD002AVT</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Focus II (05-) / Ford Focus III (11-) передний d.278,1</t>
+          <t>Диск тормозной Hyundai Solaris (10-) (17-) задний</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -8854,7 +8854,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>1964</v>
+        <v>1230</v>
       </c>
       <c r="E324" t="n">
         <v>10</v>
@@ -8866,12 +8866,12 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>BD032AVT</t>
+          <t>BD001AVT</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Focus III (11-) задний</t>
+          <t>Диск тормозной Hyundai Solaris (10-) (17-) передний</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -8880,7 +8880,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>1494</v>
+        <v>1418</v>
       </c>
       <c r="E325" t="n">
         <v>10</v>
@@ -8892,12 +8892,12 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>BD076AVT</t>
+          <t>BD027AVT</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Mondeo IV (07-) задний</t>
+          <t>Диск тормозной Kia Ceed (07-) / Cerato (09-) / Hyundai i30 (07-) передний</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -8906,7 +8906,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>1741</v>
+        <v>1949</v>
       </c>
       <c r="E326" t="n">
         <v>10</v>
@@ -8918,12 +8918,12 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>BD033AVT</t>
+          <t>BD068AVT</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Accent (00-) передний</t>
+          <t>Диск тормозной Kia Sorento II (09-) задний</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -8932,7 +8932,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>1333</v>
+        <v>1909</v>
       </c>
       <c r="E327" t="n">
         <v>10</v>
@@ -8944,12 +8944,12 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>BD037AVT</t>
+          <t>BD028AVT</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Creta (16-) задний 2WD</t>
+          <t>Диск тормозной Kia Sportage (10-) / Hyundai ix35 (10-) задний</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -8958,7 +8958,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>1270</v>
+        <v>1324</v>
       </c>
       <c r="E328" t="n">
         <v>10</v>
@@ -8970,12 +8970,12 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>BD041AVT</t>
+          <t>BD045AVT</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Getz (02-) задний</t>
+          <t>Диск тормозной Kia Sportage III (10-) / Hyundai iX 35 (09-) задний</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -8984,7 +8984,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>1253</v>
+        <v>1459</v>
       </c>
       <c r="E329" t="n">
         <v>10</v>
@@ -8996,12 +8996,12 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>BD054AVT</t>
+          <t>BD031AVT</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Getz (02-) передний (ABS)</t>
+          <t>Диск тормозной Kia Sportage III (10-) / Hyundai ix35 (10-) / Creta (16-) передний</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -9010,7 +9010,7 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>1343</v>
+        <v>2431</v>
       </c>
       <c r="E330" t="n">
         <v>10</v>
@@ -9022,12 +9022,12 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>BD055AVT</t>
+          <t>BD031AVT</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Getz (02-) передний (без ABS)</t>
+          <t>Диск тормозной Kia Sportage III (10-) / Hyundai ix35 (10-) / Creta (16-) передний</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -9036,7 +9036,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>1309</v>
+        <v>2431</v>
       </c>
       <c r="E331" t="n">
         <v>10</v>
@@ -9048,12 +9048,12 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>BD002AVT</t>
+          <t>BD011AVT</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Solaris (10-) (17-) задний</t>
+          <t>Диск тормозной Lada Largus (12-) / Renault Logan (07-) передний (без ABS)</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -9062,7 +9062,7 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>1230</v>
+        <v>1451</v>
       </c>
       <c r="E332" t="n">
         <v>10</v>
@@ -9074,12 +9074,12 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>BD001AVT</t>
+          <t>BD060AVT</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Solaris (10-) (17-) передний</t>
+          <t>Диск тормозной Mazda 3 (03-) задний</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -9088,7 +9088,7 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>1418</v>
+        <v>1231</v>
       </c>
       <c r="E333" t="n">
         <v>10</v>
@@ -9100,12 +9100,12 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>BD027AVT</t>
+          <t>BD059AVT</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Ceed (07-) / Cerato (09-) / Hyundai i30 (07-) передний</t>
+          <t>Диск тормозной Mazda 3 (03-) передний</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -9114,7 +9114,7 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>1949</v>
+        <v>2041</v>
       </c>
       <c r="E334" t="n">
         <v>10</v>
@@ -9126,12 +9126,12 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>BD068AVT</t>
+          <t>BD081AVT</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Sorento II (09-) задний</t>
+          <t>Диск тормозной Mitsubishi ASX (10-) / Outlander III / Peugeot 4008 / Citroen C4 Aircross (12-) задни</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -9140,7 +9140,7 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>1909</v>
+        <v>1757</v>
       </c>
       <c r="E335" t="n">
         <v>10</v>
@@ -9152,12 +9152,12 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>BD028AVT</t>
+          <t>BD051AVT</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Sportage (10-) / Hyundai ix35 (10-) задний</t>
+          <t>Диск тормозной Mitsubishi Lancer (00-) задний</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -9166,7 +9166,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>1324</v>
+        <v>1262</v>
       </c>
       <c r="E336" t="n">
         <v>10</v>
@@ -9178,12 +9178,12 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>BD045AVT</t>
+          <t>BD053AVT</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Sportage III (10-) / Hyundai iX 35 (09-) задний</t>
+          <t>Диск тормозной Mitsubishi Lancer (00-) передний</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -9192,7 +9192,7 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>1459</v>
+        <v>1860</v>
       </c>
       <c r="E337" t="n">
         <v>10</v>
@@ -9204,12 +9204,12 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>BD031AVT</t>
+          <t>BD074AVT</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Sportage III (10-) / Hyundai ix35 (10-) / Creta (16-) передний</t>
+          <t>Диск тормозной Mitsubishi Lancer (08-) задний</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -9218,7 +9218,7 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>2431</v>
+        <v>1393</v>
       </c>
       <c r="E338" t="n">
         <v>10</v>
@@ -9230,12 +9230,12 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>BD031AVT</t>
+          <t>BD048AVT</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Sportage III (10-) / Hyundai ix35 (10-) / Creta (16-) передний</t>
+          <t>Диск тормозной Mitsubishi Outlander (06-) передний</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="D339" t="n">
-        <v>2431</v>
+        <v>2027</v>
       </c>
       <c r="E339" t="n">
         <v>10</v>
@@ -9256,12 +9256,12 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>BD011AVT</t>
+          <t>BD026AVT</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Диск тормозной Lada Largus (12-) / Renault Logan (07-) передний (без ABS)</t>
+          <t>Диск тормозной Nexia (95-) / Lanos (05-) передний</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -9270,7 +9270,7 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>1451</v>
+        <v>1398</v>
       </c>
       <c r="E340" t="n">
         <v>10</v>
@@ -9282,12 +9282,12 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>BD060AVT</t>
+          <t>BD079AVT</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Диск тормозной Mazda 3 (03-) задний</t>
+          <t>Диск тормозной Nissan Almera Classic (06-) передний</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="D341" t="n">
-        <v>1231</v>
+        <v>1254</v>
       </c>
       <c r="E341" t="n">
         <v>10</v>
@@ -9308,12 +9308,12 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>BD059AVT</t>
+          <t>BD038AVT</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Диск тормозной Mazda 3 (03-) передний</t>
+          <t>Диск тормозной Nissan Juke (10-) задний</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -9322,7 +9322,7 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>2041</v>
+        <v>1578</v>
       </c>
       <c r="E342" t="n">
         <v>10</v>
@@ -9334,12 +9334,12 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>BD081AVT</t>
+          <t>BD020AVT</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi ASX (10-) / Outlander III / Peugeot 4008 / Citroen C4 Aircross (12-) задни</t>
+          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) задний</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -9348,7 +9348,7 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>1757</v>
+        <v>1664</v>
       </c>
       <c r="E343" t="n">
         <v>10</v>
@@ -9360,12 +9360,12 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>BD051AVT</t>
+          <t>BD019AVT</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi Lancer (00-) задний</t>
+          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) передний</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -9374,10 +9374,10 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>1262</v>
+        <v>2299</v>
       </c>
       <c r="E344" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F344" t="n">
         <v>2</v>
@@ -9386,12 +9386,12 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>BD053AVT</t>
+          <t>BD019AVT</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi Lancer (00-) передний</t>
+          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) передний</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -9400,10 +9400,10 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>1860</v>
+        <v>2299</v>
       </c>
       <c r="E345" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F345" t="n">
         <v>2</v>
@@ -9412,12 +9412,12 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>BD074AVT</t>
+          <t>BD058AVT</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi Lancer (08-) задний</t>
+          <t>Диск тормозной Nissan Qashqai II (13-) / X-Trail (14-) передний</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>1393</v>
+        <v>2034</v>
       </c>
       <c r="E346" t="n">
         <v>10</v>
@@ -9438,12 +9438,12 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>BD048AVT</t>
+          <t>BD025AVT</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi Outlander (06-) передний</t>
+          <t>Диск тормозной Opel Astra H (04-) передний</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -9452,7 +9452,7 @@
         </is>
       </c>
       <c r="D347" t="n">
-        <v>2027</v>
+        <v>1860</v>
       </c>
       <c r="E347" t="n">
         <v>10</v>
@@ -9464,12 +9464,12 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>BD026AVT</t>
+          <t>BD024AVT</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Диск тормозной Nexia (95-) / Lanos (05-) передний</t>
+          <t>Диск тормозной Opel Astra J (10-) / Chevrolet Cruze (09-) задний</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -9478,7 +9478,7 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>1398</v>
+        <v>1507</v>
       </c>
       <c r="E348" t="n">
         <v>10</v>
@@ -9490,12 +9490,12 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>BD079AVT</t>
+          <t>BD034AVT</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Almera Classic (06-) передний</t>
+          <t>Диск тормозной Peugeot 307 (00-) / 308 (07-) / Citroen C4 (04-) передний</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -9504,7 +9504,7 @@
         </is>
       </c>
       <c r="D349" t="n">
-        <v>1254</v>
+        <v>1940</v>
       </c>
       <c r="E349" t="n">
         <v>10</v>
@@ -9516,12 +9516,12 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>BD038AVT</t>
+          <t>BD069AVT</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Juke (10-) задний</t>
+          <t>Диск тормозной Peugeot Partner / Citroen Berlingo (96-) передний</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -9530,7 +9530,7 @@
         </is>
       </c>
       <c r="D350" t="n">
-        <v>1578</v>
+        <v>1325</v>
       </c>
       <c r="E350" t="n">
         <v>10</v>
@@ -9542,12 +9542,12 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>BD020AVT</t>
+          <t>BD023AVT</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) задний</t>
+          <t>Диск тормозной Renault Duster (10-) / Arkana (19-)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -9556,7 +9556,7 @@
         </is>
       </c>
       <c r="D351" t="n">
-        <v>1664</v>
+        <v>2221</v>
       </c>
       <c r="E351" t="n">
         <v>10</v>
@@ -9568,12 +9568,12 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>BD019AVT</t>
+          <t>BD023AVT</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) передний</t>
+          <t>Диск тормозной Renault Duster (10-) / Arkana (19-)</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -9582,7 +9582,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>2299</v>
+        <v>2221</v>
       </c>
       <c r="E352" t="n">
         <v>10</v>
@@ -9594,12 +9594,12 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>BD019AVT</t>
+          <t>BD061AVT</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) передний</t>
+          <t>Диск тормозной Renault Koleos (08-) передний</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -9608,7 +9608,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>2299</v>
+        <v>2723</v>
       </c>
       <c r="E353" t="n">
         <v>10</v>
@@ -9620,12 +9620,12 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>BD058AVT</t>
+          <t>BD004AVT</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Qashqai II (13-) / X-Trail (14-) передний</t>
+          <t>Диск тормозной Renault Logan (04-) передний</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -9634,7 +9634,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>2034</v>
+        <v>1370</v>
       </c>
       <c r="E354" t="n">
         <v>10</v>
@@ -9646,12 +9646,12 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>BD025AVT</t>
+          <t>BD004AVT</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Диск тормозной Opel Astra H (04-) передний</t>
+          <t>Диск тормозной Renault Logan (04-) передний</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -9660,7 +9660,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>1860</v>
+        <v>1370</v>
       </c>
       <c r="E355" t="n">
         <v>10</v>
@@ -9672,12 +9672,12 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>BD024AVT</t>
+          <t>BD010AVT</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Диск тормозной Opel Astra J (10-) / Chevrolet Cruze (09-) задний</t>
+          <t>Диск тормозной Renault Logan (04-) передний (без ABS)</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -9686,7 +9686,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>1507</v>
+        <v>997</v>
       </c>
       <c r="E356" t="n">
         <v>10</v>
@@ -9698,12 +9698,12 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>BD034AVT</t>
+          <t>BD012AVT</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Диск тормозной Peugeot 307 (00-) / 308 (07-) / Citroen C4 (04-) передний</t>
+          <t>Диск тормозной Skoda Octavia (04-) / VW Golf V (03-) задний</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -9712,7 +9712,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>1940</v>
+        <v>1234</v>
       </c>
       <c r="E357" t="n">
         <v>10</v>
@@ -9724,12 +9724,12 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>BD069AVT</t>
+          <t>BD016AVT</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Диск тормозной Peugeot Partner / Citroen Berlingo (96-) передний</t>
+          <t>Диск тормозной Skoda Octavia (04-) / VW Golf V (03-) передний</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -9738,7 +9738,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>1325</v>
+        <v>1789</v>
       </c>
       <c r="E358" t="n">
         <v>10</v>
@@ -9750,12 +9750,12 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>BD023AVT</t>
+          <t>BD008AVT</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Duster (10-) / Arkana (19-)</t>
+          <t>Диск тормозной Skoda Octavia (13-) / VW Golf VII (12-) задний</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -9764,7 +9764,7 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>2221</v>
+        <v>1326</v>
       </c>
       <c r="E359" t="n">
         <v>10</v>
@@ -9776,12 +9776,12 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>BD023AVT</t>
+          <t>BD063AVT</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Duster (10-) / Arkana (19-)</t>
+          <t>Диск тормозной Skoda Octavia (96-) / VW Golf IV (97-) передний</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -9790,7 +9790,7 @@
         </is>
       </c>
       <c r="D360" t="n">
-        <v>2221</v>
+        <v>1729</v>
       </c>
       <c r="E360" t="n">
         <v>10</v>
@@ -9802,12 +9802,12 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>BD061AVT</t>
+          <t>BD007AVT</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Koleos (08-) передний</t>
+          <t>Диск тормозной Skoda Yeti (09-) передний</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -9816,7 +9816,7 @@
         </is>
       </c>
       <c r="D361" t="n">
-        <v>2723</v>
+        <v>2183</v>
       </c>
       <c r="E361" t="n">
         <v>10</v>
@@ -9828,12 +9828,12 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>BD004AVT</t>
+          <t>BD064AVT</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Logan (04-) передний</t>
+          <t>Диск тормозной SsangYong Kyron (05-) задний</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -9842,7 +9842,7 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>1370</v>
+        <v>1950</v>
       </c>
       <c r="E362" t="n">
         <v>10</v>
@@ -9854,12 +9854,12 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>BD004AVT</t>
+          <t>BD070AVT</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Logan (04-) передний</t>
+          <t>Диск тормозной Suzuki Grand Vitara (05-) передний</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -9868,7 +9868,7 @@
         </is>
       </c>
       <c r="D363" t="n">
-        <v>1370</v>
+        <v>1757</v>
       </c>
       <c r="E363" t="n">
         <v>10</v>
@@ -9880,12 +9880,12 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>BD010AVT</t>
+          <t>BD083AVT</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Logan (04-) передний (без ABS)</t>
+          <t>Диск тормозной Tank 300 передний</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -9894,7 +9894,7 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>997</v>
+        <v>3834</v>
       </c>
       <c r="E364" t="n">
         <v>10</v>
@@ -9906,12 +9906,12 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>BD012AVT</t>
+          <t>BD083AVT</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Octavia (04-) / VW Golf V (03-) задний</t>
+          <t>Диск тормозной Tank 300 передний</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -9920,7 +9920,7 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>1234</v>
+        <v>3834</v>
       </c>
       <c r="E365" t="n">
         <v>10</v>
@@ -9932,12 +9932,12 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>BD016AVT</t>
+          <t>BD082AVT</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Octavia (04-) / VW Golf V (03-) передний</t>
+          <t>Диск тормозной Tank 500 передний</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>1789</v>
+        <v>4511</v>
       </c>
       <c r="E366" t="n">
         <v>10</v>
@@ -9958,12 +9958,12 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>BD008AVT</t>
+          <t>BD017AVT</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Octavia (13-) / VW Golf VII (12-) задний</t>
+          <t>Диск тормозной Toyota Camry (06-) / RAV 4 (06-) передний</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -9972,7 +9972,7 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>1326</v>
+        <v>2334</v>
       </c>
       <c r="E367" t="n">
         <v>10</v>
@@ -9984,12 +9984,12 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>BD063AVT</t>
+          <t>BD017AVT</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Octavia (96-) / VW Golf IV (97-) передний</t>
+          <t>Диск тормозной Toyota Camry (06-) / RAV 4 (06-) передний</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -9998,7 +9998,7 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>1729</v>
+        <v>2334</v>
       </c>
       <c r="E368" t="n">
         <v>10</v>
@@ -10010,12 +10010,12 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>BD007AVT</t>
+          <t>BD044AVT</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Yeti (09-) передний</t>
+          <t>Диск тормозной Toyota Camry (06-) задний</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -10024,7 +10024,7 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>2183</v>
+        <v>1597</v>
       </c>
       <c r="E369" t="n">
         <v>10</v>
@@ -10036,12 +10036,12 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>BD064AVT</t>
+          <t>BD036AVT</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Диск тормозной SsangYong Kyron (05-) задний</t>
+          <t>Диск тормозной Toyota Corolla (06-) / Auris (06-) задний</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -10050,7 +10050,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>1950</v>
+        <v>1127</v>
       </c>
       <c r="E370" t="n">
         <v>10</v>
@@ -10062,12 +10062,12 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>BD070AVT</t>
+          <t>BD035AVT</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Диск тормозной Suzuki Grand Vitara (05-) передний</t>
+          <t>Диск тормозной Toyota Corolla (06-) / Auris (06-) передний</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -10076,7 +10076,7 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>1757</v>
+        <v>1699</v>
       </c>
       <c r="E371" t="n">
         <v>10</v>
@@ -10088,12 +10088,12 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>BD083AVT</t>
+          <t>BD071AVT</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Диск тормозной Tank 300 передний</t>
+          <t>Диск тормозной Toyota LC 200 (07-) задний</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -10102,7 +10102,7 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>3834</v>
+        <v>2298</v>
       </c>
       <c r="E372" t="n">
         <v>10</v>
@@ -10114,12 +10114,12 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>BD083AVT</t>
+          <t>BD052AVT</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Диск тормозной Tank 300 передний</t>
+          <t>Диск тормозной Toyota LC 200 (07-) передний</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -10128,7 +10128,7 @@
         </is>
       </c>
       <c r="D373" t="n">
-        <v>3834</v>
+        <v>2939</v>
       </c>
       <c r="E373" t="n">
         <v>10</v>
@@ -10140,12 +10140,12 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>BD082AVT</t>
+          <t>BD066AVT</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Диск тормозной Tank 500 передний</t>
+          <t>Диск тормозной Toyota LC Prado (09-) передний</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -10154,7 +10154,7 @@
         </is>
       </c>
       <c r="D374" t="n">
-        <v>4511</v>
+        <v>3275</v>
       </c>
       <c r="E374" t="n">
         <v>10</v>
@@ -10166,12 +10166,12 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>BD017AVT</t>
+          <t>BD029AVT</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Camry (06-) / RAV 4 (06-) передний</t>
+          <t>Диск тормозной Toyota RAV 4 (06-) / RAV 4 (13-) задний</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -10180,7 +10180,7 @@
         </is>
       </c>
       <c r="D375" t="n">
-        <v>2334</v>
+        <v>1684</v>
       </c>
       <c r="E375" t="n">
         <v>10</v>
@@ -10192,12 +10192,12 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>BD017AVT</t>
+          <t>BD065AVT</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Camry (06-) / RAV 4 (06-) передний</t>
+          <t>Диск тормозной Volvo XC 70 (07-) / S60 (10-) / S80 (06-) передний</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -10206,7 +10206,7 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>2334</v>
+        <v>2572</v>
       </c>
       <c r="E376" t="n">
         <v>10</v>
@@ -10218,12 +10218,12 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>BD044AVT</t>
+          <t>BD047AVT</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Camry (06-) задний</t>
+          <t>Диск тормозной VW Passat (96-) задний</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -10232,7 +10232,7 @@
         </is>
       </c>
       <c r="D377" t="n">
-        <v>1597</v>
+        <v>1218</v>
       </c>
       <c r="E377" t="n">
         <v>10</v>
@@ -10244,12 +10244,12 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>BD036AVT</t>
+          <t>BD072AVT</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Corolla (06-) / Auris (06-) задний</t>
+          <t>Диск тормозной VW Passat (96-) передний</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -10258,7 +10258,7 @@
         </is>
       </c>
       <c r="D378" t="n">
-        <v>1127</v>
+        <v>1788</v>
       </c>
       <c r="E378" t="n">
         <v>10</v>
@@ -10270,12 +10270,12 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>BD035AVT</t>
+          <t>BD009AVT</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Corolla (06-) / Auris (06-) передний</t>
+          <t>Диск тормозной VW Polo Sedan (10-) передний d.286,8</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -10284,7 +10284,7 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>1699</v>
+        <v>2159</v>
       </c>
       <c r="E379" t="n">
         <v>10</v>
@@ -10296,12 +10296,12 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>BD071AVT</t>
+          <t>BD014AVT</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota LC 200 (07-) задний</t>
+          <t>Диск тормозной VW Tiguan (07-) задний</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -10310,7 +10310,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>2298</v>
+        <v>1496</v>
       </c>
       <c r="E380" t="n">
         <v>10</v>
@@ -10322,12 +10322,12 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>BD052AVT</t>
+          <t>BD003AVT</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota LC 200 (07-) передний</t>
+          <t>Диск тормозной VW Tiguan (07-) передний</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -10336,7 +10336,7 @@
         </is>
       </c>
       <c r="D381" t="n">
-        <v>2939</v>
+        <v>2494</v>
       </c>
       <c r="E381" t="n">
         <v>10</v>
@@ -10348,12 +10348,12 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>BD066AVT</t>
+          <t>BD043AVT</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota LC Prado (09-) передний</t>
+          <t>Диск тормозной VW Tiguan (16-) / Skoda Kodiaq (16-) задний</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -10362,7 +10362,7 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>3275</v>
+        <v>1879</v>
       </c>
       <c r="E382" t="n">
         <v>10</v>
@@ -10374,12 +10374,12 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>BD029AVT</t>
+          <t>BP023AVT</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota RAV 4 (06-) / RAV 4 (13-) задний</t>
+          <t>Колодки тормозные передние без датчика Lada Vesta Sport (18-) / Renault Duster (10-) / Renault Arkan</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -10388,24 +10388,24 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>1684</v>
+        <v>864</v>
       </c>
       <c r="E383" t="n">
         <v>10</v>
       </c>
       <c r="F383" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>BD065AVT</t>
+          <t>BP023AVT</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Диск тормозной Volvo XC 70 (07-) / S60 (10-) / S80 (06-) передний</t>
+          <t>Колодки тормозные передние без датчика Lada Vesta Sport (18-) / Renault Duster (10-) / Renault Arkan</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -10414,24 +10414,24 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>2572</v>
+        <v>864</v>
       </c>
       <c r="E384" t="n">
         <v>10</v>
       </c>
       <c r="F384" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>BD047AVT</t>
+          <t>BP096AVT</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Passat (96-) задний</t>
+          <t>Колодки тормозные передние без датчика Renault Logan II (2012-)</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -10440,24 +10440,24 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>1218</v>
+        <v>680</v>
       </c>
       <c r="E385" t="n">
         <v>10</v>
       </c>
       <c r="F385" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>BD072AVT</t>
+          <t>BP096AVT</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Passat (96-) передний</t>
+          <t>Колодки тормозные передние без датчика Renault Logan II (2012-)</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -10466,24 +10466,24 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>1788</v>
+        <v>680</v>
       </c>
       <c r="E386" t="n">
         <v>10</v>
       </c>
       <c r="F386" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>BD009AVT</t>
+          <t>832198AVT</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Polo Sedan (10-) передний d.286,8</t>
+          <t>Комплект сцепления LADA Largus (корзина+диск) для 21809</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -10492,24 +10492,24 @@
         </is>
       </c>
       <c r="D387" t="n">
-        <v>2159</v>
+        <v>12000</v>
       </c>
       <c r="E387" t="n">
         <v>10</v>
       </c>
       <c r="F387" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>BD014AVT</t>
+          <t>832198AVT</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Tiguan (07-) задний</t>
+          <t>Комплект сцепления LADA Largus (корзина+диск) для 21809</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -10518,24 +10518,24 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>1496</v>
+        <v>12000</v>
       </c>
       <c r="E388" t="n">
         <v>10</v>
       </c>
       <c r="F388" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>BD003AVT</t>
+          <t>826787AVT</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Tiguan (07-) передний</t>
+          <t>Комплект сцепления без подшипника Chevrolet Lacetti (04-)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -10544,24 +10544,24 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>2494</v>
+        <v>5111</v>
       </c>
       <c r="E389" t="n">
         <v>10</v>
       </c>
       <c r="F389" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>BD043AVT</t>
+          <t>826853AVT</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Tiguan (16-) / Skoda Kodiaq (16-) задний</t>
+          <t>Комплект сцепления без подшипника Renault Logan (08-)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -10570,24 +10570,24 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>1879</v>
+        <v>3703</v>
       </c>
       <c r="E390" t="n">
         <v>10</v>
       </c>
       <c r="F390" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>832198AVT</t>
+          <t>3495AVT</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Комплект сцепления LADA Largus (корзина+диск) для 21809</t>
+          <t>Комплект сцепления с подшипником 2107</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>12000</v>
+        <v>4656</v>
       </c>
       <c r="E391" t="n">
         <v>10</v>
@@ -10608,12 +10608,12 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>832198AVT</t>
+          <t>826245AVT</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Комплект сцепления LADA Largus (корзина+диск) для 21809</t>
+          <t>Комплект сцепления с подшипником Citroen C3 (03-) 1.1-1.4 (05-)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -10622,10 +10622,10 @@
         </is>
       </c>
       <c r="D392" t="n">
-        <v>12000</v>
+        <v>3112</v>
       </c>
       <c r="E392" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F392" t="n">
         <v>1</v>
@@ -10634,12 +10634,12 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>832290AVT</t>
+          <t>826568AVT</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Комплект сцепления LADA Largus с подшипником для LADA Vesta / X-RAY 1.8 (коробка робот)</t>
+          <t>Комплект сцепления с подшипником Daewoo Matiz (01-)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -10648,7 +10648,7 @@
         </is>
       </c>
       <c r="D393" t="n">
-        <v>6120</v>
+        <v>3259</v>
       </c>
       <c r="E393" t="n">
         <v>10</v>
@@ -10660,12 +10660,12 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>832290AVT</t>
+          <t>821098AVT</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Комплект сцепления LADA Largus с подшипником для LADA Vesta / X-RAY 1.8 (коробка робот)</t>
+          <t>Комплект сцепления с подшипником Daewoo Nexia (95-)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -10674,7 +10674,7 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>6120</v>
+        <v>3667</v>
       </c>
       <c r="E394" t="n">
         <v>10</v>
@@ -10686,12 +10686,12 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>826787AVT</t>
+          <t>826995AVT</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Комплект сцепления без подшипника Chevrolet Lacetti (04-)</t>
+          <t>Комплект сцепления с подшипником Hyundai Solaris I (10-)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -10700,7 +10700,7 @@
         </is>
       </c>
       <c r="D395" t="n">
-        <v>5111</v>
+        <v>4223</v>
       </c>
       <c r="E395" t="n">
         <v>10</v>
@@ -10712,12 +10712,12 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>826853AVT</t>
+          <t>826995AVT</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Комплект сцепления без подшипника Renault Logan (08-)</t>
+          <t>Комплект сцепления с подшипником Hyundai Solaris I (10-)</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -10726,7 +10726,7 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>3703</v>
+        <v>4223</v>
       </c>
       <c r="E396" t="n">
         <v>10</v>
@@ -10738,12 +10738,12 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>3495AVT</t>
+          <t>826299AVT</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником 2107</t>
+          <t>Комплект сцепления с подшипником Hyundai Sonata IV (98-) 2.0</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -10752,10 +10752,10 @@
         </is>
       </c>
       <c r="D397" t="n">
-        <v>4656</v>
+        <v>8519</v>
       </c>
       <c r="E397" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F397" t="n">
         <v>1</v>
@@ -10764,12 +10764,12 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>801122AVT</t>
+          <t>801515AVT</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником 2109</t>
+          <t>Комплект сцепления с подшипником Nissan Almera N16 (00-04) 1.5</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -10778,7 +10778,7 @@
         </is>
       </c>
       <c r="D398" t="n">
-        <v>4656</v>
+        <v>4482</v>
       </c>
       <c r="E398" t="n">
         <v>10</v>
@@ -10790,12 +10790,12 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>826222AVT</t>
+          <t>826211AVT</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником 2110</t>
+          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 306 (97-) / Partner (96-) 1.4-1.6</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -10804,10 +10804,10 @@
         </is>
       </c>
       <c r="D399" t="n">
-        <v>5172</v>
+        <v>3830</v>
       </c>
       <c r="E399" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F399" t="n">
         <v>1</v>
@@ -10816,12 +10816,12 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>826222AVT</t>
+          <t>821340AVT</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником 2110</t>
+          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 307 (00-) 1.1-1.4</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -10830,7 +10830,7 @@
         </is>
       </c>
       <c r="D400" t="n">
-        <v>5172</v>
+        <v>3912</v>
       </c>
       <c r="E400" t="n">
         <v>10</v>
@@ -10842,12 +10842,12 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>826245AVT</t>
+          <t>826213AVT</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Citroen C3 (03-) 1.1-1.4 (05-)</t>
+          <t>Комплект сцепления с подшипником Peugeot 307 (00-)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -10856,10 +10856,10 @@
         </is>
       </c>
       <c r="D401" t="n">
-        <v>3112</v>
+        <v>3749</v>
       </c>
       <c r="E401" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F401" t="n">
         <v>1</v>
@@ -10868,12 +10868,12 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>826568AVT</t>
+          <t>821183AVT</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Daewoo Matiz (01-)</t>
+          <t>Комплект сцепления с подшипником Renault Logan (04-)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -10882,7 +10882,7 @@
         </is>
       </c>
       <c r="D402" t="n">
-        <v>3259</v>
+        <v>3830</v>
       </c>
       <c r="E402" t="n">
         <v>10</v>
@@ -10894,12 +10894,12 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>821098AVT</t>
+          <t>826577AVT</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Daewoo Nexia (95-)</t>
+          <t>Комплект сцепления с подшипником Renault Logan I 1.4 (04-)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -10908,7 +10908,7 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>3667</v>
+        <v>4662</v>
       </c>
       <c r="E403" t="n">
         <v>10</v>
@@ -10920,12 +10920,12 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>826298AVT</t>
+          <t>826326AVT</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником GAZ 3110 / 3302 (ZMZ 402 / 406)</t>
+          <t>Комплект сцепления с подшипником VW Polo Sedan (10-)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -10934,7 +10934,7 @@
         </is>
       </c>
       <c r="D404" t="n">
-        <v>4516</v>
+        <v>5297</v>
       </c>
       <c r="E404" t="n">
         <v>10</v>
@@ -10946,12 +10946,12 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>826298AVT</t>
+          <t>CD044AVT</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником GAZ 3110 / 3302 (ZMZ 402 / 406)</t>
+          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.0</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -10960,7 +10960,7 @@
         </is>
       </c>
       <c r="D405" t="n">
-        <v>4516</v>
+        <v>5124</v>
       </c>
       <c r="E405" t="n">
         <v>10</v>
@@ -10972,12 +10972,12 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>826995AVT</t>
+          <t>CD046AVT</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Hyundai Solaris I (10-)</t>
+          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.2</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -10986,7 +10986,7 @@
         </is>
       </c>
       <c r="D406" t="n">
-        <v>4223</v>
+        <v>5364</v>
       </c>
       <c r="E406" t="n">
         <v>10</v>
@@ -10998,12 +10998,12 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>826995AVT</t>
+          <t>CD036AVT</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Hyundai Solaris I (10-)</t>
+          <t>Конденсор Chevrolet Aveo T300 (11-) 1.2-1.6</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -11012,7 +11012,7 @@
         </is>
       </c>
       <c r="D407" t="n">
-        <v>4223</v>
+        <v>4404</v>
       </c>
       <c r="E407" t="n">
         <v>10</v>
@@ -11024,12 +11024,12 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>826299AVT</t>
+          <t>CD047AVT</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Hyundai Sonata IV (98-) 2.0</t>
+          <t>Конденсор Chevrolet Captiva / Opel Antara (06-) 2.0-2.2D</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -11038,10 +11038,10 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>8519</v>
+        <v>4788</v>
       </c>
       <c r="E408" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F408" t="n">
         <v>1</v>
@@ -11050,12 +11050,12 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>801515AVT</t>
+          <t>CD048AVT</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Nissan Almera N16 (00-04) 1.5</t>
+          <t>Конденсор Chevrolet Cruze / Opel Astra J (09-) 1.4-1.8</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -11064,7 +11064,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>4482</v>
+        <v>3900</v>
       </c>
       <c r="E409" t="n">
         <v>10</v>
@@ -11076,12 +11076,12 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>826211AVT</t>
+          <t>CD033AVT</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 306 (97-) / Partner (96-) 1.4-1.6</t>
+          <t>Конденсор Ford Focus II (05-) / Volvo S40 (04-) 1.4-2.0</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -11090,10 +11090,10 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>3830</v>
+        <v>4044</v>
       </c>
       <c r="E410" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F410" t="n">
         <v>1</v>
@@ -11102,12 +11102,12 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>821340AVT</t>
+          <t>CD037AVT</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 307 (00-) 1.1-1.4</t>
+          <t>Конденсор Ford Mondeo (07-) / Volvo XC60 (08-) / XC70 (07-) / S80 (06-) 1.6-2.5</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -11116,7 +11116,7 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>3912</v>
+        <v>5388</v>
       </c>
       <c r="E411" t="n">
         <v>10</v>
@@ -11128,12 +11128,12 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>826213AVT</t>
+          <t>CD038AVT</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Peugeot 307 (00-)</t>
+          <t>Конденсор Hyundai Accent II (99-) MT 1.3-1.6</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -11142,7 +11142,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>3749</v>
+        <v>3708</v>
       </c>
       <c r="E412" t="n">
         <v>10</v>
@@ -11154,12 +11154,12 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>821183AVT</t>
+          <t>CD039AVT</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Renault Logan (04-)</t>
+          <t>Конденсор Hyundai Tucson (15-) / Kia Sportage (16-) 1.6-2.0</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -11168,7 +11168,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>3830</v>
+        <v>5856</v>
       </c>
       <c r="E413" t="n">
         <v>10</v>
@@ -11180,12 +11180,12 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>826577AVT</t>
+          <t>CD045AVT</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Renault Logan I 1.4 (04-)</t>
+          <t>Конденсор Mazda 3 (09-) 1.6-2.5</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -11194,7 +11194,7 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>4662</v>
+        <v>5220</v>
       </c>
       <c r="E414" t="n">
         <v>10</v>
@@ -11206,12 +11206,12 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>828009AVT</t>
+          <t>CD041AVT</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником UAZ 3151 / 3160 (ZMZ 409)</t>
+          <t>Конденсор Mitsubishi Outlander (12-) 2.0-2.4</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -11220,7 +11220,7 @@
         </is>
       </c>
       <c r="D415" t="n">
-        <v>5112</v>
+        <v>4428</v>
       </c>
       <c r="E415" t="n">
         <v>10</v>
@@ -11232,12 +11232,12 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>828009AVT</t>
+          <t>CD042AVT</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником UAZ 3151 / 3160 (ZMZ 409)</t>
+          <t>Конденсор Nissan Note (06-) / Tiida (04-) / Juke (10-) 1.2-1.6</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="D416" t="n">
-        <v>5112</v>
+        <v>4248</v>
       </c>
       <c r="E416" t="n">
         <v>10</v>
@@ -11258,12 +11258,12 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>826326AVT</t>
+          <t>CD043AVT</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником VW Polo Sedan (10-)</t>
+          <t>Конденсор Opel Astra H (04-) 1.4-1.8</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -11272,7 +11272,7 @@
         </is>
       </c>
       <c r="D417" t="n">
-        <v>5297</v>
+        <v>4692</v>
       </c>
       <c r="E417" t="n">
         <v>10</v>
@@ -11284,12 +11284,12 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>826474AVT</t>
+          <t>CD034AVT</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Нива</t>
+          <t>Конденсор Skoda Kodiaq (16-) / Skoda Octavia A7 (13-) / VW Tiguan (16-) 1.2-2.0</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -11298,7 +11298,7 @@
         </is>
       </c>
       <c r="D418" t="n">
-        <v>7272</v>
+        <v>5292</v>
       </c>
       <c r="E418" t="n">
         <v>10</v>
@@ -11310,12 +11310,12 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>828003AVT</t>
+          <t>CD035AVT</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Приора</t>
+          <t>Конденсор Skoda Octavia A5 (04-) / VW Golf V (03-) 1.6-2.0</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -11324,7 +11324,7 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>5544</v>
+        <v>5136</v>
       </c>
       <c r="E419" t="n">
         <v>10</v>
@@ -11336,12 +11336,12 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>828003AVT</t>
+          <t>836383AVT</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Приора</t>
+          <t>Одномассовый маховик HYUNDAI SOLARIS 17-</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -11350,10 +11350,10 @@
         </is>
       </c>
       <c r="D420" t="n">
-        <v>5544</v>
+        <v>6000</v>
       </c>
       <c r="E420" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F420" t="n">
         <v>1</v>
@@ -11362,12 +11362,12 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>CD044AVT</t>
+          <t>836365AVT</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.0</t>
+          <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -11376,10 +11376,10 @@
         </is>
       </c>
       <c r="D421" t="n">
-        <v>5124</v>
+        <v>3300</v>
       </c>
       <c r="E421" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F421" t="n">
         <v>1</v>
@@ -11388,12 +11388,12 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>CD046AVT</t>
+          <t>836365AVT</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.2</t>
+          <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -11402,10 +11402,10 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>5364</v>
+        <v>3300</v>
       </c>
       <c r="E422" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F422" t="n">
         <v>1</v>
@@ -11414,12 +11414,12 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>CD036AVT</t>
+          <t>804295AVT</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Конденсор Chevrolet Aveo T300 (11-) 1.2-1.6</t>
+          <t>Подшипник выжимной 2101-2107</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -11428,7 +11428,7 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>4404</v>
+        <v>1070</v>
       </c>
       <c r="E423" t="n">
         <v>10</v>
@@ -11440,12 +11440,12 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>CD047AVT</t>
+          <t>804296AVT</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Конденсор Chevrolet Captiva / Opel Antara (06-) 2.0-2.2D</t>
+          <t>Подшипник выжимной 2108-2112</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -11454,7 +11454,7 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>4788</v>
+        <v>811</v>
       </c>
       <c r="E424" t="n">
         <v>10</v>
@@ -11466,12 +11466,12 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>CD048AVT</t>
+          <t>804296AVT</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Конденсор Chevrolet Cruze / Opel Astra J (09-) 1.4-1.8</t>
+          <t>Подшипник выжимной 2108-2112</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -11480,7 +11480,7 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>3900</v>
+        <v>811</v>
       </c>
       <c r="E425" t="n">
         <v>10</v>
@@ -11492,12 +11492,12 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>CD033AVT</t>
+          <t>804036AVT</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Конденсор Ford Focus II (05-) / Volvo S40 (04-) 1.4-2.0</t>
+          <t>Подшипник выжимной CITROEN/PEUGEOT</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>4044</v>
+        <v>696</v>
       </c>
       <c r="E426" t="n">
         <v>10</v>
@@ -11518,12 +11518,12 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>CD037AVT</t>
+          <t>804299AVT</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Конденсор Ford Mondeo (07-) / Volvo XC60 (08-) / XC70 (07-) / S80 (06-) 1.6-2.5</t>
+          <t>Подшипник выжимной PSA</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -11532,7 +11532,7 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>5388</v>
+        <v>720</v>
       </c>
       <c r="E427" t="n">
         <v>10</v>
@@ -11544,12 +11544,12 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>CD038AVT</t>
+          <t>804587AVT</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Конденсор Hyundai Accent II (99-) MT 1.3-1.6</t>
+          <t>Подшипник гидравлический RENAULT DUSTER 1.6</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -11558,7 +11558,7 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>3708</v>
+        <v>7200</v>
       </c>
       <c r="E428" t="n">
         <v>10</v>
@@ -11570,12 +11570,12 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>CD039AVT</t>
+          <t>804544AVT</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Конденсор Hyundai Tucson (15-) / Kia Sportage (16-) 1.6-2.0</t>
+          <t>Подшипник гидравлический RENAULT/NISSAN</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -11584,7 +11584,7 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>5856</v>
+        <v>5640</v>
       </c>
       <c r="E429" t="n">
         <v>10</v>
@@ -11596,12 +11596,12 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>CD045AVT</t>
+          <t>804544AVT</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Конденсор Mazda 3 (09-) 1.6-2.5</t>
+          <t>Подшипник гидравлический RENAULT/NISSAN</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -11610,7 +11610,7 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>5220</v>
+        <v>5640</v>
       </c>
       <c r="E430" t="n">
         <v>10</v>
@@ -11622,12 +11622,12 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>CD041AVT</t>
+          <t>701514AVT</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Конденсор Mitsubishi Outlander (12-) 2.0-2.4</t>
+          <t>Радиатор Веста / Икс-Рэй</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -11636,7 +11636,7 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>4428</v>
+        <v>4212</v>
       </c>
       <c r="E431" t="n">
         <v>10</v>
@@ -11648,12 +11648,12 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>CD042AVT</t>
+          <t>RD204AVT</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Конденсор Nissan Note (06-) / Tiida (04-) / Juke (10-) 1.2-1.6</t>
+          <t>Радиатор двигатель паяный Hyundai Solaris / KIA RIO II (17-) 1.4i / 1.6i</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -11662,7 +11662,7 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>4248</v>
+        <v>5585</v>
       </c>
       <c r="E432" t="n">
         <v>10</v>
@@ -11674,12 +11674,12 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>CD043AVT</t>
+          <t>RD026AVT</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Конденсор Opel Astra H (04-) 1.4-1.8</t>
+          <t>Радиатор двигателя BMW X5 (E70) (07-) 30d/3.0t AT (паяный)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -11688,7 +11688,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>4692</v>
+        <v>12251</v>
       </c>
       <c r="E433" t="n">
         <v>10</v>
@@ -11700,12 +11700,12 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>CD034AVT</t>
+          <t>RD008AVT</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Конденсор Skoda Kodiaq (16-) / Skoda Octavia A7 (13-) / VW Tiguan (16-) 1.2-2.0</t>
+          <t>Радиатор двигателя CHEVROLET CRUZE (09-) 1.6-1.8i / ORLANDO (10-) 1.8i MT</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -11714,7 +11714,7 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>5292</v>
+        <v>5634</v>
       </c>
       <c r="E434" t="n">
         <v>10</v>
@@ -11726,12 +11726,12 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>CD035AVT</t>
+          <t>RD018AVT</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Конденсор Skoda Octavia A5 (04-) / VW Golf V (03-) 1.6-2.0</t>
+          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i AT</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -11740,7 +11740,7 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>5136</v>
+        <v>6371</v>
       </c>
       <c r="E435" t="n">
         <v>10</v>
@@ -11752,12 +11752,12 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>836383AVT</t>
+          <t>RD009AVT</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Одномассовый маховик HYUNDAI SOLARIS 17-</t>
+          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i MT</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -11766,10 +11766,10 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>6000</v>
+        <v>5555</v>
       </c>
       <c r="E436" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F436" t="n">
         <v>1</v>
@@ -11778,12 +11778,12 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>836365AVT</t>
+          <t>RD011AVT</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
+          <t>Радиатор двигателя Chevrolet Lacetti (04-) 1.4i/1.6i/1.8i MT (сборный)</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -11792,7 +11792,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>3300</v>
+        <v>4973</v>
       </c>
       <c r="E437" t="n">
         <v>10</v>
@@ -11804,12 +11804,12 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>836365AVT</t>
+          <t>RD016AVT</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
+          <t>Радиатор двигателя Daewoo Matiz (01-) 0.8i/1.0i MT (сборный)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -11818,7 +11818,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>3300</v>
+        <v>2898</v>
       </c>
       <c r="E438" t="n">
         <v>10</v>
@@ -11830,12 +11830,12 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>804295AVT</t>
+          <t>RD023AVT</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Подшипник выжимной 2101-2107</t>
+          <t>Радиатор двигателя Daewoo Matiz (1998-) 0.8 MT (сборный)</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -11844,7 +11844,7 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>1070</v>
+        <v>3323</v>
       </c>
       <c r="E439" t="n">
         <v>10</v>
@@ -11856,12 +11856,12 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>804036AVT</t>
+          <t>RD024AVT</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Подшипник выжимной CITROEN/PEUGEOT</t>
+          <t>Радиатор двигателя DAEWOO MATIZ (98-) 0.8i AT</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -11870,7 +11870,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>696</v>
+        <v>4207</v>
       </c>
       <c r="E440" t="n">
         <v>10</v>
@@ -11882,12 +11882,12 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>804299AVT</t>
+          <t>RD015AVT</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Подшипник выжимной PSA</t>
+          <t>Радиатор двигателя Daewoo Nexia (94-) 1.5/1.8 MT (сборный)</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>720</v>
+        <v>3204</v>
       </c>
       <c r="E441" t="n">
         <v>10</v>
@@ -11908,12 +11908,12 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>804587AVT</t>
+          <t>RD040AVT</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Подшипник гидравлический RENAULT DUSTER 1.6</t>
+          <t>Радиатор двигателя FORD FIESTA / FUSION (01-) 1.2-1.6i MT / AT</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -11922,7 +11922,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>7200</v>
+        <v>2821</v>
       </c>
       <c r="E442" t="n">
         <v>10</v>
@@ -11934,12 +11934,12 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>804544AVT</t>
+          <t>RD004AVT</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Подшипник гидравлический RENAULT/NISSAN</t>
+          <t>Радиатор двигателя Ford Focus II (05-) A/C+ (сборный)</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -11948,7 +11948,7 @@
         </is>
       </c>
       <c r="D443" t="n">
-        <v>5640</v>
+        <v>4726</v>
       </c>
       <c r="E443" t="n">
         <v>10</v>
@@ -11960,12 +11960,12 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>804544AVT</t>
+          <t>RD048AVT</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Подшипник гидравлический RENAULT/NISSAN</t>
+          <t>Радиатор двигателя FORD FOCUS III / C-MAX (11-) 1.6-2.0i MT / AT</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -11974,7 +11974,7 @@
         </is>
       </c>
       <c r="D444" t="n">
-        <v>5640</v>
+        <v>6349</v>
       </c>
       <c r="E444" t="n">
         <v>10</v>
@@ -11986,12 +11986,12 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>701514AVT</t>
+          <t>RD055AVT</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Радиатор Веста / Икс-Рэй</t>
+          <t>Радиатор двигателя HYUNDAI SOLARIS (10-) / KIA RIO (10-) 1.4-1.6i 6AT</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -12000,7 +12000,7 @@
         </is>
       </c>
       <c r="D445" t="n">
-        <v>4212</v>
+        <v>4195</v>
       </c>
       <c r="E445" t="n">
         <v>10</v>
@@ -12012,12 +12012,12 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>RD204AVT</t>
+          <t>RD001AVT</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Радиатор двигатель паяный Hyundai Solaris / KIA RIO II (17-) 1.4i / 1.6i</t>
+          <t>Радиатор двигателя HYUNDAI SOLARIS (RB) / KIA RIO III (UB) (11-) 1.4-1.6i MT</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -12026,7 +12026,7 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>5585</v>
+        <v>3139</v>
       </c>
       <c r="E446" t="n">
         <v>10</v>
@@ -12038,12 +12038,12 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>RD026AVT</t>
+          <t>RD002AVT</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Радиатор двигателя BMW X5 (E70) (07-) 30d/3.0t AT (паяный)</t>
+          <t>Радиатор двигателя Hyundai Solaris / Kia Rio (10-&gt;) AT (сборный)</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -12052,7 +12052,7 @@
         </is>
       </c>
       <c r="D447" t="n">
-        <v>12251</v>
+        <v>3203</v>
       </c>
       <c r="E447" t="n">
         <v>10</v>
@@ -12064,12 +12064,12 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>RD008AVT</t>
+          <t>RD057AVT</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Радиатор двигателя CHEVROLET CRUZE (09-) 1.6-1.8i / ORLANDO (10-) 1.8i MT</t>
+          <t>Радиатор двигателя HYUNDAI SOLARIS / KIA RIO (17-) 1.4-1.6i MT</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -12078,7 +12078,7 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>5634</v>
+        <v>3556</v>
       </c>
       <c r="E448" t="n">
         <v>10</v>
@@ -12090,12 +12090,12 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>RD018AVT</t>
+          <t>RD021AVT</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i AT</t>
+          <t>Радиатор двигателя KIA CEED (ED) (07-) 1.4-2.0i / HYUNDAI ELANTRA (HD) (06-) 1.6-2.0i / HYUNDAI i30</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -12104,7 +12104,7 @@
         </is>
       </c>
       <c r="D449" t="n">
-        <v>6371</v>
+        <v>4904</v>
       </c>
       <c r="E449" t="n">
         <v>10</v>
@@ -12116,12 +12116,12 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>RD009AVT</t>
+          <t>RD056AVT</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i MT</t>
+          <t>Радиатор двигателя KIA CEED / HYUNDAI i30 / ELANTRA IV (06-) 1.4-2.0i AT</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -12130,7 +12130,7 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>5555</v>
+        <v>6533</v>
       </c>
       <c r="E450" t="n">
         <v>10</v>
@@ -12142,12 +12142,12 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>RD011AVT</t>
+          <t>RD056AVT</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Chevrolet Lacetti (04-) 1.4i/1.6i/1.8i MT (сборный)</t>
+          <t>Радиатор двигателя KIA CEED / HYUNDAI i30 / ELANTRA IV (06-) 1.4-2.0i AT</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -12156,7 +12156,7 @@
         </is>
       </c>
       <c r="D451" t="n">
-        <v>4973</v>
+        <v>6533</v>
       </c>
       <c r="E451" t="n">
         <v>10</v>
@@ -12168,12 +12168,12 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>RD016AVT</t>
+          <t>RD087AVT</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Daewoo Matiz (01-) 0.8i/1.0i MT (сборный)</t>
+          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -12182,10 +12182,10 @@
         </is>
       </c>
       <c r="D452" t="n">
-        <v>2898</v>
+        <v>7403</v>
       </c>
       <c r="E452" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F452" t="n">
         <v>1</v>
@@ -12194,12 +12194,12 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>RD023AVT</t>
+          <t>RD087AVT</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Daewoo Matiz (1998-) 0.8 MT (сборный)</t>
+          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -12208,10 +12208,10 @@
         </is>
       </c>
       <c r="D453" t="n">
-        <v>3323</v>
+        <v>7403</v>
       </c>
       <c r="E453" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F453" t="n">
         <v>1</v>
@@ -12220,12 +12220,12 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>RD024AVT</t>
+          <t>RD062AVT</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Радиатор двигателя DAEWOO MATIZ (98-) 0.8i AT</t>
+          <t>Радиатор двигателя Kia Spectra (96-) 1.5-1.8 AT</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -12234,7 +12234,7 @@
         </is>
       </c>
       <c r="D454" t="n">
-        <v>4207</v>
+        <v>5772</v>
       </c>
       <c r="E454" t="n">
         <v>10</v>
@@ -12246,12 +12246,12 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>RD015AVT</t>
+          <t>RD020AVT</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Daewoo Nexia (94-) 1.5/1.8 MT (сборный)</t>
+          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i AT</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -12260,7 +12260,7 @@
         </is>
       </c>
       <c r="D455" t="n">
-        <v>3204</v>
+        <v>6194</v>
       </c>
       <c r="E455" t="n">
         <v>10</v>
@@ -12272,12 +12272,12 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>RD040AVT</t>
+          <t>RD019AVT</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Радиатор двигателя FORD FIESTA / FUSION (01-) 1.2-1.6i MT / AT</t>
+          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i MT</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -12286,7 +12286,7 @@
         </is>
       </c>
       <c r="D456" t="n">
-        <v>2821</v>
+        <v>4888</v>
       </c>
       <c r="E456" t="n">
         <v>10</v>
@@ -12298,12 +12298,12 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>RD004AVT</t>
+          <t>RD028AVT</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Ford Focus II (05-) A/C+ (сборный)</t>
+          <t>Радиатор двигателя MB C (07-), E (-16), GLK (08-) 1.6-4.7i AT</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -12312,7 +12312,7 @@
         </is>
       </c>
       <c r="D457" t="n">
-        <v>4726</v>
+        <v>10615</v>
       </c>
       <c r="E457" t="n">
         <v>10</v>
@@ -12324,12 +12324,12 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>RD048AVT</t>
+          <t>RD029AVT</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Радиатор двигателя FORD FOCUS III / C-MAX (11-) 1.6-2.0i MT / AT</t>
+          <t>Радиатор двигателя MB E (16-), GLC (15-), C (14-), S (13-) 2.0-4.0 MT / AT</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -12338,7 +12338,7 @@
         </is>
       </c>
       <c r="D458" t="n">
-        <v>6349</v>
+        <v>12114</v>
       </c>
       <c r="E458" t="n">
         <v>10</v>
@@ -12350,12 +12350,12 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>RD055AVT</t>
+          <t>RD027AVT</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Радиатор двигателя HYUNDAI SOLARIS (10-) / KIA RIO (10-) 1.4-1.6i 6AT</t>
+          <t>Радиатор двигателя MB ML (12-) GL, GLS, GLE (-18) 2.2-5.5i AT</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -12364,7 +12364,7 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>4195</v>
+        <v>11959</v>
       </c>
       <c r="E459" t="n">
         <v>10</v>
@@ -12376,12 +12376,12 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>RD001AVT</t>
+          <t>RD005AVT</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Радиатор двигателя HYUNDAI SOLARIS (RB) / KIA RIO III (UB) (11-) 1.4-1.6i MT</t>
+          <t>Радиатор двигателя MITSUBISHI ASX (10-) 1.6-1.8i / OUTLANDER (07-) 2.0-2.4i / LANCER (07-) 1.5-2.0i</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -12390,7 +12390,7 @@
         </is>
       </c>
       <c r="D460" t="n">
-        <v>3139</v>
+        <v>4110</v>
       </c>
       <c r="E460" t="n">
         <v>10</v>
@@ -12402,12 +12402,12 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>RD002AVT</t>
+          <t>RD060AVT</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Hyundai Solaris / Kia Rio (10-&gt;) AT (сборный)</t>
+          <t>Радиатор двигателя MITSUBISHI OUTLANDER III (12-) 2.0-3.0i MT / AT</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -12416,7 +12416,7 @@
         </is>
       </c>
       <c r="D461" t="n">
-        <v>3203</v>
+        <v>7210</v>
       </c>
       <c r="E461" t="n">
         <v>10</v>
@@ -12428,12 +12428,12 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>RD057AVT</t>
+          <t>RD017AVT</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Радиатор двигателя HYUNDAI SOLARIS / KIA RIO (17-) 1.4-1.6i MT</t>
+          <t>Радиатор двигателя NISSAN QASHQAI (J10) (07-) 1.6-2.0i MT / AT</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -12442,7 +12442,7 @@
         </is>
       </c>
       <c r="D462" t="n">
-        <v>3556</v>
+        <v>7289</v>
       </c>
       <c r="E462" t="n">
         <v>10</v>
@@ -12454,12 +12454,12 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>RD021AVT</t>
+          <t>RD063AVT</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA CEED (ED) (07-) 1.4-2.0i / HYUNDAI ELANTRA (HD) (06-) 1.6-2.0i / HYUNDAI i30</t>
+          <t>Радиатор двигателя Nissan X-Trail (14-) 2.0-2.5</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -12468,7 +12468,7 @@
         </is>
       </c>
       <c r="D463" t="n">
-        <v>4904</v>
+        <v>5864</v>
       </c>
       <c r="E463" t="n">
         <v>10</v>
@@ -12480,12 +12480,12 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>RD056AVT</t>
+          <t>RD014AVT</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA CEED / HYUNDAI i30 / ELANTRA IV (06-) 1.4-2.0i AT</t>
+          <t>Радиатор двигателя OPEL ZAFIRA / ASTRA H (05-) 1.6-1.8i MT / AT</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -12494,7 +12494,7 @@
         </is>
       </c>
       <c r="D464" t="n">
-        <v>6533</v>
+        <v>5726</v>
       </c>
       <c r="E464" t="n">
         <v>10</v>
@@ -12506,12 +12506,12 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>RD056AVT</t>
+          <t>RD003AVT</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA CEED / HYUNDAI i30 / ELANTRA IV (06-) 1.4-2.0i AT</t>
+          <t>Радиатор двигателя Renault Logan (04-) 1.4i/1.6i А/С+ (сборный)</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -12520,7 +12520,7 @@
         </is>
       </c>
       <c r="D465" t="n">
-        <v>6533</v>
+        <v>2794</v>
       </c>
       <c r="E465" t="n">
         <v>10</v>
@@ -12532,12 +12532,12 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>RD087AVT</t>
+          <t>RD058AVT</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
+          <t>Радиатор двигателя RENAULT LOGAN / SANDERO / SYMBOL (04-) 1.4-1.6i / Lada LARGUS K7M 1.6i (12-) MT /</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="D466" t="n">
-        <v>7403</v>
+        <v>2893</v>
       </c>
       <c r="E466" t="n">
         <v>10</v>
@@ -12558,12 +12558,12 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>RD087AVT</t>
+          <t>RD013AVT</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
+          <t>Радиатор двигателя Skoda Octavia A5 (04-)/VW Golf V (03-) (сборный)</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -12572,7 +12572,7 @@
         </is>
       </c>
       <c r="D467" t="n">
-        <v>7403</v>
+        <v>4436</v>
       </c>
       <c r="E467" t="n">
         <v>10</v>
@@ -12584,12 +12584,12 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>RD062AVT</t>
+          <t>RD007AVT</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia Spectra (96-) 1.5-1.8 AT</t>
+          <t>Радиатор двигателя TOYOTA AURIS (E15) (07-) / (E18) (12-) 1.3-1.6i / AVENSIS (T27) (08-) 1.6-2.0i /</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -12598,7 +12598,7 @@
         </is>
       </c>
       <c r="D468" t="n">
-        <v>5772</v>
+        <v>5714</v>
       </c>
       <c r="E468" t="n">
         <v>10</v>
@@ -12610,12 +12610,12 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>RD020AVT</t>
+          <t>RD025AVT</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i AT</t>
+          <t>Радиатор двигателя TOYOTA CAMRY (11-16) 2.5-3.5i AT</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -12624,7 +12624,7 @@
         </is>
       </c>
       <c r="D469" t="n">
-        <v>6194</v>
+        <v>7470</v>
       </c>
       <c r="E469" t="n">
         <v>10</v>
@@ -12636,12 +12636,12 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>RD019AVT</t>
+          <t>RD050AVT</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i MT</t>
+          <t>Радиатор двигателя Toyota LC200 (08-) 4.5D</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -12650,10 +12650,10 @@
         </is>
       </c>
       <c r="D470" t="n">
-        <v>4888</v>
+        <v>12649</v>
       </c>
       <c r="E470" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F470" t="n">
         <v>1</v>
@@ -12662,12 +12662,12 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>RD028AVT</t>
+          <t>RD050AVT</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MB C (07-), E (-16), GLK (08-) 1.6-4.7i AT</t>
+          <t>Радиатор двигателя Toyota LC200 (08-) 4.5D</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -12676,10 +12676,10 @@
         </is>
       </c>
       <c r="D471" t="n">
-        <v>10615</v>
+        <v>12649</v>
       </c>
       <c r="E471" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F471" t="n">
         <v>1</v>
@@ -12688,12 +12688,12 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>RD029AVT</t>
+          <t>RD010AVT</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MB E (16-), GLC (15-), C (14-), S (13-) 2.0-4.0 MT / AT</t>
+          <t>Радиатор двигателя Toyota RAV 4 (06-&gt;)/RAV 4 (13-&gt;) 2.0i MT/AT (сборный)</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -12702,7 +12702,7 @@
         </is>
       </c>
       <c r="D472" t="n">
-        <v>12114</v>
+        <v>5429</v>
       </c>
       <c r="E472" t="n">
         <v>10</v>
@@ -12714,12 +12714,12 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>RD027AVT</t>
+          <t>RD006AVT</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MB ML (12-) GL, GLS, GLE (-18) 2.2-5.5i AT</t>
+          <t>Радиатор двигателя VW Polo Sedan (10-)/(20-)/Skoda Rapid (12-)/(20-) (сборный)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -12728,7 +12728,7 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>11959</v>
+        <v>3888</v>
       </c>
       <c r="E473" t="n">
         <v>10</v>
@@ -12740,12 +12740,12 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>RD005AVT</t>
+          <t>RD221AVT</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MITSUBISHI ASX (10-) 1.6-1.8i / OUTLANDER (07-) 2.0-2.4i / LANCER (07-) 1.5-2.0i</t>
+          <t>Радиатор двигателя паяный Audi A4/А6 (94-) 1.6i, 1.8i, 1.9TDi, 1.8T</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -12754,7 +12754,7 @@
         </is>
       </c>
       <c r="D474" t="n">
-        <v>4110</v>
+        <v>6386</v>
       </c>
       <c r="E474" t="n">
         <v>10</v>
@@ -12766,12 +12766,12 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>RD060AVT</t>
+          <t>RD302AVT</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MITSUBISHI OUTLANDER III (12-) 2.0-3.0i MT / AT</t>
+          <t>Радиатор двигателя паяный Ford Ranger (98-) 2.5TDi</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -12780,7 +12780,7 @@
         </is>
       </c>
       <c r="D475" t="n">
-        <v>7210</v>
+        <v>6724</v>
       </c>
       <c r="E475" t="n">
         <v>10</v>
@@ -12792,12 +12792,12 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>RD017AVT</t>
+          <t>RD220AVT</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Радиатор двигателя NISSAN QASHQAI (J10) (07-) 1.6-2.0i MT / AT</t>
+          <t>Радиатор двигателя паяный Honda CR-V III (06-) 2.0i</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -12806,7 +12806,7 @@
         </is>
       </c>
       <c r="D476" t="n">
-        <v>7289</v>
+        <v>6842</v>
       </c>
       <c r="E476" t="n">
         <v>10</v>
@@ -12818,12 +12818,12 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>RD063AVT</t>
+          <t>RD225AVT</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Nissan X-Trail (14-) 2.0-2.5</t>
+          <t>Радиатор двигателя паяный Hyundai Santa Fe II (06-) 2.2CRDi</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -12832,7 +12832,7 @@
         </is>
       </c>
       <c r="D477" t="n">
-        <v>5864</v>
+        <v>8759</v>
       </c>
       <c r="E477" t="n">
         <v>10</v>
@@ -12844,12 +12844,12 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>RD014AVT</t>
+          <t>RD274AVT</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Радиатор двигателя OPEL ZAFIRA / ASTRA H (05-) 1.6-1.8i MT / AT</t>
+          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i, 2.0i AT</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -12858,7 +12858,7 @@
         </is>
       </c>
       <c r="D478" t="n">
-        <v>5726</v>
+        <v>8366</v>
       </c>
       <c r="E478" t="n">
         <v>10</v>
@@ -12870,12 +12870,12 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>RD003AVT</t>
+          <t>RD207AVT</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Renault Logan (04-) 1.4i/1.6i А/С+ (сборный)</t>
+          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i, 2.0i MT</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -12884,7 +12884,7 @@
         </is>
       </c>
       <c r="D479" t="n">
-        <v>2794</v>
+        <v>7973</v>
       </c>
       <c r="E479" t="n">
         <v>10</v>
@@ -12896,12 +12896,12 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>RD058AVT</t>
+          <t>RD230AVT</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Радиатор двигателя RENAULT LOGAN / SANDERO / SYMBOL (04-) 1.4-1.6i / Lada LARGUS K7M 1.6i (12-) MT /</t>
+          <t>Радиатор двигателя паяный Mitsubishi Outlander I (03-) 2.0i, 2.4i</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -12910,7 +12910,7 @@
         </is>
       </c>
       <c r="D480" t="n">
-        <v>2893</v>
+        <v>6593</v>
       </c>
       <c r="E480" t="n">
         <v>10</v>
@@ -12922,12 +12922,12 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>RD013AVT</t>
+          <t>RD211AVT</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Skoda Octavia A5 (04-)/VW Golf V (03-) (сборный)</t>
+          <t>Радиатор двигателя паяный Nissan Almera Classic B10 (06-) 1.6i</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -12936,7 +12936,7 @@
         </is>
       </c>
       <c r="D481" t="n">
-        <v>4436</v>
+        <v>5980</v>
       </c>
       <c r="E481" t="n">
         <v>10</v>
@@ -12948,12 +12948,12 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>RD007AVT</t>
+          <t>RD264AVT</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Радиатор двигателя TOYOTA AURIS (E15) (07-) / (E18) (12-) 1.3-1.6i / AVENSIS (T27) (08-) 1.6-2.0i /</t>
+          <t>Радиатор двигателя паяный Nissan X-Trail T30 (01-) 2.0i, 2.5i</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -12962,7 +12962,7 @@
         </is>
       </c>
       <c r="D482" t="n">
-        <v>5714</v>
+        <v>5741</v>
       </c>
       <c r="E482" t="n">
         <v>10</v>
@@ -12974,12 +12974,12 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>RD025AVT</t>
+          <t>RD205AVT</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Радиатор двигателя TOYOTA CAMRY (11-16) 2.5-3.5i AT</t>
+          <t>Радиатор двигателя паяный Skoda Octavia/Kodiaq A7 (13-) 1.2TSi, 1.4TSi, 1.6TDi, 2.0TDi</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -12988,7 +12988,7 @@
         </is>
       </c>
       <c r="D483" t="n">
-        <v>7470</v>
+        <v>5630</v>
       </c>
       <c r="E483" t="n">
         <v>10</v>
@@ -13000,12 +13000,12 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>RD050AVT</t>
+          <t>RD217AVT</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota LC200 (08-) 4.5D</t>
+          <t>Радиатор двигателя паяный Suzuki SX4 I (06-) 1.6i</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -13014,7 +13014,7 @@
         </is>
       </c>
       <c r="D484" t="n">
-        <v>12649</v>
+        <v>7183</v>
       </c>
       <c r="E484" t="n">
         <v>10</v>
@@ -13026,12 +13026,12 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>RD050AVT</t>
+          <t>RD059AVT</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota LC200 (08-) 4.5D</t>
+          <t>Радиатор двигателя паяный VW PASSAT B6 / B7 JETTA III /IV / TIGUAN / TOURAN / SKODA OCTAVIA II / SUP</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -13040,7 +13040,7 @@
         </is>
       </c>
       <c r="D485" t="n">
-        <v>12649</v>
+        <v>6286</v>
       </c>
       <c r="E485" t="n">
         <v>10</v>
@@ -13052,12 +13052,12 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>RD010AVT</t>
+          <t>RD250AVT</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota RAV 4 (06-&gt;)/RAV 4 (13-&gt;) 2.0i MT/AT (сборный)</t>
+          <t>Радиатор двигателя сборный Chevrolet Rezzo (00-) 1.6i, 1.8i</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -13066,7 +13066,7 @@
         </is>
       </c>
       <c r="D486" t="n">
-        <v>5429</v>
+        <v>5549</v>
       </c>
       <c r="E486" t="n">
         <v>10</v>
@@ -13078,12 +13078,12 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>RD006AVT</t>
+          <t>RD012AVT</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Радиатор двигателя VW Polo Sedan (10-)/(20-)/Skoda Rapid (12-)/(20-) (сборный)</t>
+          <t>Радиатор двигателя сборный VW Jetta (05)/(11-)/Skoda Octavia A5 (04-)</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -13092,7 +13092,7 @@
         </is>
       </c>
       <c r="D487" t="n">
-        <v>3888</v>
+        <v>4106</v>
       </c>
       <c r="E487" t="n">
         <v>10</v>
@@ -13104,12 +13104,12 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>RD221AVT</t>
+          <t>735634AVT</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Audi A4/А6 (94-) 1.6i, 1.8i, 1.9TDi, 1.8T</t>
+          <t>Радиатор Рено Логан II</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -13118,7 +13118,7 @@
         </is>
       </c>
       <c r="D488" t="n">
-        <v>6386</v>
+        <v>3834</v>
       </c>
       <c r="E488" t="n">
         <v>10</v>
@@ -13130,12 +13130,12 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>RD302AVT</t>
+          <t>438544AVT</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Ford Ranger (98-) 2.5TDi</t>
+          <t>Стартер Renault Arkana</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -13144,7 +13144,7 @@
         </is>
       </c>
       <c r="D489" t="n">
-        <v>6724</v>
+        <v>6600</v>
       </c>
       <c r="E489" t="n">
         <v>10</v>
@@ -13156,12 +13156,12 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>RD220AVT</t>
+          <t>438545AVT</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Honda CR-V III (06-) 2.0i</t>
+          <t>Стартер Toyota Camry / Rav4</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -13170,7 +13170,7 @@
         </is>
       </c>
       <c r="D490" t="n">
-        <v>6842</v>
+        <v>6600</v>
       </c>
       <c r="E490" t="n">
         <v>10</v>
@@ -13182,12 +13182,12 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>RD225AVT</t>
+          <t>438286AVT</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Hyundai Santa Fe II (06-) 2.2CRDi</t>
+          <t>Стартер Гранта АКПП</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="D491" t="n">
-        <v>8759</v>
+        <v>5916</v>
       </c>
       <c r="E491" t="n">
         <v>10</v>
@@ -13208,12 +13208,12 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>RD274AVT</t>
+          <t>438286AVT</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i, 2.0i AT</t>
+          <t>Стартер Гранта АКПП</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -13222,7 +13222,7 @@
         </is>
       </c>
       <c r="D492" t="n">
-        <v>8366</v>
+        <v>5916</v>
       </c>
       <c r="E492" t="n">
         <v>10</v>
@@ -13234,12 +13234,12 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>RD207AVT</t>
+          <t>438285AVT</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i, 2.0i MT</t>
+          <t>Стартер Гранта МКПП</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -13248,7 +13248,7 @@
         </is>
       </c>
       <c r="D493" t="n">
-        <v>7973</v>
+        <v>5820</v>
       </c>
       <c r="E493" t="n">
         <v>10</v>
@@ -13260,12 +13260,12 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>RD230AVT</t>
+          <t>438327AVT</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Mitsubishi Outlander I (03-) 2.0i, 2.4i</t>
+          <t>Стартер Рено F4R</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -13274,7 +13274,7 @@
         </is>
       </c>
       <c r="D494" t="n">
-        <v>6593</v>
+        <v>8400</v>
       </c>
       <c r="E494" t="n">
         <v>10</v>
@@ -13286,12 +13286,12 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>RD211AVT</t>
+          <t>438324AVT</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Nissan Almera Classic B10 (06-) 1.6i</t>
+          <t>Стартер Рено H4M</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -13300,7 +13300,7 @@
         </is>
       </c>
       <c r="D495" t="n">
-        <v>5980</v>
+        <v>5964</v>
       </c>
       <c r="E495" t="n">
         <v>10</v>
@@ -13312,12 +13312,12 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>RD264AVT</t>
+          <t>438328AVT</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Nissan X-Trail T30 (01-) 2.0i, 2.5i</t>
+          <t>Стартер Рено K4M</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -13326,7 +13326,7 @@
         </is>
       </c>
       <c r="D496" t="n">
-        <v>5741</v>
+        <v>7200</v>
       </c>
       <c r="E496" t="n">
         <v>10</v>
@@ -13338,12 +13338,12 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>RD205AVT</t>
+          <t>438328AVT</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Skoda Octavia/Kodiaq A7 (13-) 1.2TSi, 1.4TSi, 1.6TDi, 2.0TDi</t>
+          <t>Стартер Рено K4M</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -13352,7 +13352,7 @@
         </is>
       </c>
       <c r="D497" t="n">
-        <v>5630</v>
+        <v>7200</v>
       </c>
       <c r="E497" t="n">
         <v>10</v>
@@ -13364,12 +13364,12 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>RD217AVT</t>
+          <t>FC001AVT</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Suzuki SX4 I (06-) 1.6i</t>
+          <t>Фильтр отопителя LADA VESTA</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -13378,7 +13378,7 @@
         </is>
       </c>
       <c r="D498" t="n">
-        <v>7183</v>
+        <v>420</v>
       </c>
       <c r="E498" t="n">
         <v>10</v>
@@ -13390,12 +13390,12 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>RD059AVT</t>
+          <t>252.5215900-14</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный VW PASSAT B6 / B7 JETTA III /IV / TIGUAN / TOURAN / SKODA OCTAVIA II / SUP</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 350 мм</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -13404,7 +13404,7 @@
         </is>
       </c>
       <c r="D499" t="n">
-        <v>6286</v>
+        <v>518</v>
       </c>
       <c r="E499" t="n">
         <v>10</v>
@@ -13416,12 +13416,12 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>RD250AVT</t>
+          <t>252.5215900-16</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Радиатор двигателя сборный Chevrolet Rezzo (00-) 1.6i, 1.8i</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 400 мм</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -13430,7 +13430,7 @@
         </is>
       </c>
       <c r="D500" t="n">
-        <v>5549</v>
+        <v>552</v>
       </c>
       <c r="E500" t="n">
         <v>10</v>
@@ -13442,12 +13442,12 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>RD012AVT</t>
+          <t>252.5215900-17</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Радиатор двигателя сборный VW Jetta (05)/(11-)/Skoda Octavia A5 (04-)</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 430 мм</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -13456,7 +13456,7 @@
         </is>
       </c>
       <c r="D501" t="n">
-        <v>4106</v>
+        <v>552</v>
       </c>
       <c r="E501" t="n">
         <v>10</v>
@@ -13468,12 +13468,12 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>735634AVT</t>
+          <t>252.5215900-18</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Радиатор Рено Логан II</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 450 мм</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -13482,7 +13482,7 @@
         </is>
       </c>
       <c r="D502" t="n">
-        <v>3834</v>
+        <v>552</v>
       </c>
       <c r="E502" t="n">
         <v>10</v>
@@ -13494,12 +13494,12 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>438544AVT</t>
+          <t>252.5215900-20</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Стартер Renault Arkana</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 500 мм</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -13508,7 +13508,7 @@
         </is>
       </c>
       <c r="D503" t="n">
-        <v>6600</v>
+        <v>582</v>
       </c>
       <c r="E503" t="n">
         <v>10</v>
@@ -13520,12 +13520,12 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>438545AVT</t>
+          <t>252.5215900-22</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Стартер Toyota Camry / Rav4</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 550 мм</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -13534,7 +13534,7 @@
         </is>
       </c>
       <c r="D504" t="n">
-        <v>6600</v>
+        <v>582</v>
       </c>
       <c r="E504" t="n">
         <v>10</v>
@@ -13546,12 +13546,12 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>438285AVT</t>
+          <t>252.5215900-24</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Стартер Гранта МКПП</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 600 мм</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -13560,7 +13560,7 @@
         </is>
       </c>
       <c r="D505" t="n">
-        <v>5820</v>
+        <v>641</v>
       </c>
       <c r="E505" t="n">
         <v>10</v>
@@ -13572,12 +13572,12 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>438327AVT</t>
+          <t>252.5215900-26</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Стартер Рено F4R</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 650 мм</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="D506" t="n">
-        <v>8400</v>
+        <v>672</v>
       </c>
       <c r="E506" t="n">
         <v>10</v>
@@ -13598,12 +13598,12 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>438324AVT</t>
+          <t>25.5215900-13</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Стартер Рено H4M</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 330 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -13612,7 +13612,7 @@
         </is>
       </c>
       <c r="D507" t="n">
-        <v>5964</v>
+        <v>299</v>
       </c>
       <c r="E507" t="n">
         <v>10</v>
@@ -13624,12 +13624,12 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>438328AVT</t>
+          <t>25.5215900-14</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Стартер Рено K4M</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 350 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -13638,7 +13638,7 @@
         </is>
       </c>
       <c r="D508" t="n">
-        <v>7200</v>
+        <v>299</v>
       </c>
       <c r="E508" t="n">
         <v>10</v>
@@ -13650,12 +13650,12 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>438328AVT</t>
+          <t>25.5215900-16</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Стартер Рено K4M</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 400 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -13664,7 +13664,7 @@
         </is>
       </c>
       <c r="D509" t="n">
-        <v>7200</v>
+        <v>334</v>
       </c>
       <c r="E509" t="n">
         <v>10</v>
@@ -13676,12 +13676,12 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>FC001AVT</t>
+          <t>25.5215900-17</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Фильтр отопителя LADA VESTA</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 430 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -13690,7 +13690,7 @@
         </is>
       </c>
       <c r="D510" t="n">
-        <v>420</v>
+        <v>334</v>
       </c>
       <c r="E510" t="n">
         <v>10</v>
@@ -13702,12 +13702,12 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>252.5215900-14</t>
+          <t>25.5215900-18</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 350 мм</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 450 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -13716,7 +13716,7 @@
         </is>
       </c>
       <c r="D511" t="n">
-        <v>518</v>
+        <v>334</v>
       </c>
       <c r="E511" t="n">
         <v>10</v>
@@ -13728,12 +13728,12 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>252.5215900-16</t>
+          <t>25.5215900-19</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 400 мм</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 480 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -13742,7 +13742,7 @@
         </is>
       </c>
       <c r="D512" t="n">
-        <v>552</v>
+        <v>334</v>
       </c>
       <c r="E512" t="n">
         <v>10</v>
@@ -13754,12 +13754,12 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>252.5215900-17</t>
+          <t>25.5215900-20</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 430 мм</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 500 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -13768,7 +13768,7 @@
         </is>
       </c>
       <c r="D513" t="n">
-        <v>552</v>
+        <v>352</v>
       </c>
       <c r="E513" t="n">
         <v>10</v>
@@ -13780,12 +13780,12 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>252.5215900-18</t>
+          <t>25.5215900-21</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 450 мм</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 530 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -13794,7 +13794,7 @@
         </is>
       </c>
       <c r="D514" t="n">
-        <v>552</v>
+        <v>352</v>
       </c>
       <c r="E514" t="n">
         <v>10</v>
@@ -13806,12 +13806,12 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>252.5215900-20</t>
+          <t>25.5215900-22</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 500 мм</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 550 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -13820,7 +13820,7 @@
         </is>
       </c>
       <c r="D515" t="n">
-        <v>582</v>
+        <v>352</v>
       </c>
       <c r="E515" t="n">
         <v>10</v>
@@ -13832,12 +13832,12 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>252.5215900-22</t>
+          <t>25.5215900-24</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 550 мм</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 600 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="D516" t="n">
-        <v>582</v>
+        <v>386</v>
       </c>
       <c r="E516" t="n">
         <v>10</v>
@@ -13858,12 +13858,12 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>252.5215900-24</t>
+          <t>25.5215900-26</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 600 мм</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 650 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -13872,7 +13872,7 @@
         </is>
       </c>
       <c r="D517" t="n">
-        <v>641</v>
+        <v>406</v>
       </c>
       <c r="E517" t="n">
         <v>10</v>
@@ -13884,12 +13884,12 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>252.5215900-26</t>
+          <t>25.5215900-28</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 650 мм</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 700 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -13898,7 +13898,7 @@
         </is>
       </c>
       <c r="D518" t="n">
-        <v>672</v>
+        <v>406</v>
       </c>
       <c r="E518" t="n">
         <v>10</v>
@@ -13910,12 +13910,12 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>25.5215900-13</t>
+          <t>СЛ136Е-5205900-01</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 330 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, каркасная, 410 мм, тип крепления "Hook" ("Крюк") и "Bayonet" ("Штыковой замо</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -13924,7 +13924,7 @@
         </is>
       </c>
       <c r="D519" t="n">
-        <v>299</v>
+        <v>144</v>
       </c>
       <c r="E519" t="n">
         <v>10</v>
@@ -13936,12 +13936,12 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>25.5215900-14</t>
+          <t>23.5215900-01</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 350 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, каркасная, 475 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -13950,7 +13950,7 @@
         </is>
       </c>
       <c r="D520" t="n">
-        <v>299</v>
+        <v>144</v>
       </c>
       <c r="E520" t="n">
         <v>10</v>
@@ -13962,12 +13962,12 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>25.5215900-16</t>
+          <t>49.5205900-01</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 400 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, каркасная, 500 мм, тип крепления "Hook" ("Крюк") и "Bayonet" ("Штыковой замо</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -13976,7 +13976,7 @@
         </is>
       </c>
       <c r="D521" t="n">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="E521" t="n">
         <v>10</v>
@@ -13988,12 +13988,12 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>25.5215900-17</t>
+          <t>731.5205900-01</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 430 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, каркасная, 525 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -14002,7 +14002,7 @@
         </is>
       </c>
       <c r="D522" t="n">
-        <v>334</v>
+        <v>287</v>
       </c>
       <c r="E522" t="n">
         <v>10</v>
@@ -14014,12 +14014,12 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>25.5215900-18</t>
+          <t>11.5215900-01</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 450 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, каркасная, 550 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -14028,7 +14028,7 @@
         </is>
       </c>
       <c r="D523" t="n">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="E523" t="n">
         <v>10</v>
@@ -14040,12 +14040,12 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>25.5215900-19</t>
+          <t>93.5205900-01</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 480 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, каркасная, 600 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -14054,7 +14054,7 @@
         </is>
       </c>
       <c r="D524" t="n">
-        <v>334</v>
+        <v>144</v>
       </c>
       <c r="E524" t="n">
         <v>10</v>
@@ -14066,12 +14066,12 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>25.5215900-20</t>
+          <t>251.5215900-15</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 500 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 380 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -14080,7 +14080,7 @@
         </is>
       </c>
       <c r="D525" t="n">
-        <v>352</v>
+        <v>426</v>
       </c>
       <c r="E525" t="n">
         <v>10</v>
@@ -14092,12 +14092,12 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>25.5215900-21</t>
+          <t>251.5215900-16</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 530 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 400 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -14106,7 +14106,7 @@
         </is>
       </c>
       <c r="D526" t="n">
-        <v>352</v>
+        <v>426</v>
       </c>
       <c r="E526" t="n">
         <v>10</v>
@@ -14118,12 +14118,12 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>25.5215900-22</t>
+          <t>251.5215900-17</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 550 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 430 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -14132,7 +14132,7 @@
         </is>
       </c>
       <c r="D527" t="n">
-        <v>352</v>
+        <v>426</v>
       </c>
       <c r="E527" t="n">
         <v>10</v>
@@ -14144,12 +14144,12 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>25.5215900-24</t>
+          <t>251.5215900-18</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 600 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 450 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -14158,7 +14158,7 @@
         </is>
       </c>
       <c r="D528" t="n">
-        <v>386</v>
+        <v>426</v>
       </c>
       <c r="E528" t="n">
         <v>10</v>
@@ -14170,12 +14170,12 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>25.5215900-26</t>
+          <t>251.5215900-19</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 650 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 480 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -14184,7 +14184,7 @@
         </is>
       </c>
       <c r="D529" t="n">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="E529" t="n">
         <v>10</v>
@@ -14196,12 +14196,12 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>25.5215900-28</t>
+          <t>251.5215900-20</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 700 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 500 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -14210,7 +14210,7 @@
         </is>
       </c>
       <c r="D530" t="n">
-        <v>406</v>
+        <v>448</v>
       </c>
       <c r="E530" t="n">
         <v>10</v>
@@ -14222,12 +14222,12 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>СЛ136Е-5205900-01</t>
+          <t>251.5215900-24</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 410 мм, тип крепления "Hook" ("Крюк") и "Bayonet" ("Штыковой замо</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 600 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -14236,7 +14236,7 @@
         </is>
       </c>
       <c r="D531" t="n">
-        <v>144</v>
+        <v>492</v>
       </c>
       <c r="E531" t="n">
         <v>10</v>
@@ -14248,12 +14248,12 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>23.5215900-01</t>
+          <t>251.5215900-26</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 475 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 650 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -14262,7 +14262,7 @@
         </is>
       </c>
       <c r="D532" t="n">
-        <v>144</v>
+        <v>518</v>
       </c>
       <c r="E532" t="n">
         <v>10</v>
@@ -14274,12 +14274,12 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>49.5205900-01</t>
+          <t>595842AVT</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 500 мм, тип крепления "Hook" ("Крюк") и "Bayonet" ("Штыковой замо</t>
+          <t>Якорь стартера</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -14288,428 +14288,12 @@
         </is>
       </c>
       <c r="D533" t="n">
-        <v>366</v>
+        <v>1416</v>
       </c>
       <c r="E533" t="n">
         <v>10</v>
       </c>
       <c r="F533" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" t="inlineStr">
-        <is>
-          <t>731.5205900-01</t>
-        </is>
-      </c>
-      <c r="B534" t="inlineStr">
-        <is>
-          <t>Щетка стеклоочистителя, каркасная, 525 мм, тип крепления "Hook" ("Крюк")</t>
-        </is>
-      </c>
-      <c r="C534" t="inlineStr">
-        <is>
-          <t>AVTOPRIBOR</t>
-        </is>
-      </c>
-      <c r="D534" t="n">
-        <v>287</v>
-      </c>
-      <c r="E534" t="n">
-        <v>10</v>
-      </c>
-      <c r="F534" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" t="inlineStr">
-        <is>
-          <t>11.5215900-01</t>
-        </is>
-      </c>
-      <c r="B535" t="inlineStr">
-        <is>
-          <t>Щетка стеклоочистителя, каркасная, 550 мм, тип крепления "Hook" ("Крюк")</t>
-        </is>
-      </c>
-      <c r="C535" t="inlineStr">
-        <is>
-          <t>AVTOPRIBOR</t>
-        </is>
-      </c>
-      <c r="D535" t="n">
-        <v>295</v>
-      </c>
-      <c r="E535" t="n">
-        <v>10</v>
-      </c>
-      <c r="F535" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" t="inlineStr">
-        <is>
-          <t>93.5205900-01</t>
-        </is>
-      </c>
-      <c r="B536" t="inlineStr">
-        <is>
-          <t>Щетка стеклоочистителя, каркасная, 600 мм, тип крепления "Hook" ("Крюк")</t>
-        </is>
-      </c>
-      <c r="C536" t="inlineStr">
-        <is>
-          <t>AVTOPRIBOR</t>
-        </is>
-      </c>
-      <c r="D536" t="n">
-        <v>144</v>
-      </c>
-      <c r="E536" t="n">
-        <v>10</v>
-      </c>
-      <c r="F536" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" t="inlineStr">
-        <is>
-          <t>251.5215900-15</t>
-        </is>
-      </c>
-      <c r="B537" t="inlineStr">
-        <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 380 мм, в комплекте 9 адаптеров</t>
-        </is>
-      </c>
-      <c r="C537" t="inlineStr">
-        <is>
-          <t>AVTOPRIBOR</t>
-        </is>
-      </c>
-      <c r="D537" t="n">
-        <v>426</v>
-      </c>
-      <c r="E537" t="n">
-        <v>10</v>
-      </c>
-      <c r="F537" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="inlineStr">
-        <is>
-          <t>251.5215900-16</t>
-        </is>
-      </c>
-      <c r="B538" t="inlineStr">
-        <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 400 мм, в комплекте 9 адаптеров</t>
-        </is>
-      </c>
-      <c r="C538" t="inlineStr">
-        <is>
-          <t>AVTOPRIBOR</t>
-        </is>
-      </c>
-      <c r="D538" t="n">
-        <v>426</v>
-      </c>
-      <c r="E538" t="n">
-        <v>10</v>
-      </c>
-      <c r="F538" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" t="inlineStr">
-        <is>
-          <t>251.5215900-17</t>
-        </is>
-      </c>
-      <c r="B539" t="inlineStr">
-        <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 430 мм, в комплекте 9 адаптеров</t>
-        </is>
-      </c>
-      <c r="C539" t="inlineStr">
-        <is>
-          <t>AVTOPRIBOR</t>
-        </is>
-      </c>
-      <c r="D539" t="n">
-        <v>426</v>
-      </c>
-      <c r="E539" t="n">
-        <v>10</v>
-      </c>
-      <c r="F539" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" t="inlineStr">
-        <is>
-          <t>251.5215900-18</t>
-        </is>
-      </c>
-      <c r="B540" t="inlineStr">
-        <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 450 мм, в комплекте 9 адаптеров</t>
-        </is>
-      </c>
-      <c r="C540" t="inlineStr">
-        <is>
-          <t>AVTOPRIBOR</t>
-        </is>
-      </c>
-      <c r="D540" t="n">
-        <v>426</v>
-      </c>
-      <c r="E540" t="n">
-        <v>10</v>
-      </c>
-      <c r="F540" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" t="inlineStr">
-        <is>
-          <t>251.5215900-19</t>
-        </is>
-      </c>
-      <c r="B541" t="inlineStr">
-        <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 480 мм, в комплекте 9 адаптеров</t>
-        </is>
-      </c>
-      <c r="C541" t="inlineStr">
-        <is>
-          <t>AVTOPRIBOR</t>
-        </is>
-      </c>
-      <c r="D541" t="n">
-        <v>426</v>
-      </c>
-      <c r="E541" t="n">
-        <v>10</v>
-      </c>
-      <c r="F541" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" t="inlineStr">
-        <is>
-          <t>251.5215900-20</t>
-        </is>
-      </c>
-      <c r="B542" t="inlineStr">
-        <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 500 мм, в комплекте 9 адаптеров</t>
-        </is>
-      </c>
-      <c r="C542" t="inlineStr">
-        <is>
-          <t>AVTOPRIBOR</t>
-        </is>
-      </c>
-      <c r="D542" t="n">
-        <v>448</v>
-      </c>
-      <c r="E542" t="n">
-        <v>10</v>
-      </c>
-      <c r="F542" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="inlineStr">
-        <is>
-          <t>251.5215900-24</t>
-        </is>
-      </c>
-      <c r="B543" t="inlineStr">
-        <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 600 мм, в комплекте 9 адаптеров</t>
-        </is>
-      </c>
-      <c r="C543" t="inlineStr">
-        <is>
-          <t>AVTOPRIBOR</t>
-        </is>
-      </c>
-      <c r="D543" t="n">
-        <v>492</v>
-      </c>
-      <c r="E543" t="n">
-        <v>10</v>
-      </c>
-      <c r="F543" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" t="inlineStr">
-        <is>
-          <t>251.5215900-26</t>
-        </is>
-      </c>
-      <c r="B544" t="inlineStr">
-        <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 650 мм, в комплекте 9 адаптеров</t>
-        </is>
-      </c>
-      <c r="C544" t="inlineStr">
-        <is>
-          <t>AVTOPRIBOR</t>
-        </is>
-      </c>
-      <c r="D544" t="n">
-        <v>518</v>
-      </c>
-      <c r="E544" t="n">
-        <v>10</v>
-      </c>
-      <c r="F544" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" t="inlineStr">
-        <is>
-          <t>595863AVT</t>
-        </is>
-      </c>
-      <c r="B545" t="inlineStr">
-        <is>
-          <t>Щеткодержатель стартера</t>
-        </is>
-      </c>
-      <c r="C545" t="inlineStr">
-        <is>
-          <t>AVTOPRIBOR</t>
-        </is>
-      </c>
-      <c r="D545" t="n">
-        <v>720</v>
-      </c>
-      <c r="E545" t="n">
-        <v>10</v>
-      </c>
-      <c r="F545" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" t="inlineStr">
-        <is>
-          <t>595863AVT</t>
-        </is>
-      </c>
-      <c r="B546" t="inlineStr">
-        <is>
-          <t>Щеткодержатель стартера</t>
-        </is>
-      </c>
-      <c r="C546" t="inlineStr">
-        <is>
-          <t>AVTOPRIBOR</t>
-        </is>
-      </c>
-      <c r="D546" t="n">
-        <v>720</v>
-      </c>
-      <c r="E546" t="n">
-        <v>10</v>
-      </c>
-      <c r="F546" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" t="inlineStr">
-        <is>
-          <t>595845AVT</t>
-        </is>
-      </c>
-      <c r="B547" t="inlineStr">
-        <is>
-          <t>Щеткодержатель стартера  LADA VESTA</t>
-        </is>
-      </c>
-      <c r="C547" t="inlineStr">
-        <is>
-          <t>AVTOPRIBOR</t>
-        </is>
-      </c>
-      <c r="D547" t="n">
-        <v>720</v>
-      </c>
-      <c r="E547" t="n">
-        <v>10</v>
-      </c>
-      <c r="F547" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" t="inlineStr">
-        <is>
-          <t>595845AVT</t>
-        </is>
-      </c>
-      <c r="B548" t="inlineStr">
-        <is>
-          <t>Щеткодержатель стартера  LADA VESTA</t>
-        </is>
-      </c>
-      <c r="C548" t="inlineStr">
-        <is>
-          <t>AVTOPRIBOR</t>
-        </is>
-      </c>
-      <c r="D548" t="n">
-        <v>720</v>
-      </c>
-      <c r="E548" t="n">
-        <v>10</v>
-      </c>
-      <c r="F548" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" t="inlineStr">
-        <is>
-          <t>595842AVT</t>
-        </is>
-      </c>
-      <c r="B549" t="inlineStr">
-        <is>
-          <t>Якорь стартера</t>
-        </is>
-      </c>
-      <c r="C549" t="inlineStr">
-        <is>
-          <t>AVTOPRIBOR</t>
-        </is>
-      </c>
-      <c r="D549" t="n">
-        <v>1416</v>
-      </c>
-      <c r="E549" t="n">
-        <v>10</v>
-      </c>
-      <c r="F549" t="n">
         <v>1</v>
       </c>
     </row>

--- a/price_for_emex.xlsx
+++ b/price_for_emex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F533"/>
+  <dimension ref="A1:F541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8164,12 +8164,12 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>595843AVT</t>
+          <t>595575AVT</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Бендикс (Шестерня привода ) LADA LARGUS</t>
+          <t>Бендикс (Шестерня привода )</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -8178,7 +8178,7 @@
         </is>
       </c>
       <c r="D298" t="n">
-        <v>900</v>
+        <v>1020</v>
       </c>
       <c r="E298" t="n">
         <v>10</v>
@@ -8190,12 +8190,12 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>RF004AVT</t>
+          <t>595575AVT</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Вентилятор системы охлаждения Nissan Qashqai</t>
+          <t>Бендикс (Шестерня привода )</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -8204,7 +8204,7 @@
         </is>
       </c>
       <c r="D299" t="n">
-        <v>6600</v>
+        <v>1020</v>
       </c>
       <c r="E299" t="n">
         <v>10</v>
@@ -8216,12 +8216,12 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>RF005AVT</t>
+          <t>595843AVT</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Вентилятор системы охлаждения Nissan X-Trail, Qashqai (Дизель)</t>
+          <t>Бендикс (Шестерня привода ) LADA LARGUS</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -8230,7 +8230,7 @@
         </is>
       </c>
       <c r="D300" t="n">
-        <v>6600</v>
+        <v>900</v>
       </c>
       <c r="E300" t="n">
         <v>10</v>
@@ -8242,12 +8242,12 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>595785AVT</t>
+          <t>595844AVT</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Втягивающее реле (для 438327 / 438328)</t>
+          <t>Бендикс (Шестерня привода ) RENAULT DUSTER</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -8256,7 +8256,7 @@
         </is>
       </c>
       <c r="D301" t="n">
-        <v>1800</v>
+        <v>1080</v>
       </c>
       <c r="E301" t="n">
         <v>10</v>
@@ -8268,12 +8268,12 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>AL200AVT</t>
+          <t>595844AVT</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Генератор LADA GRANTA 110А</t>
+          <t>Бендикс (Шестерня привода ) RENAULT DUSTER</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -8282,10 +8282,10 @@
         </is>
       </c>
       <c r="D302" t="n">
-        <v>9996</v>
+        <v>1080</v>
       </c>
       <c r="E302" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F302" t="n">
         <v>1</v>
@@ -8294,12 +8294,12 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>AL200AVT</t>
+          <t>RF004AVT</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Генератор LADA GRANTA 110А</t>
+          <t>Вентилятор системы охлаждения Nissan Qashqai</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -8308,10 +8308,10 @@
         </is>
       </c>
       <c r="D303" t="n">
-        <v>9996</v>
+        <v>6600</v>
       </c>
       <c r="E303" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F303" t="n">
         <v>1</v>
@@ -8320,12 +8320,12 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>BD050AVT</t>
+          <t>RF005AVT</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Диск тормозной Audi A4 / A6 (95-) передний</t>
+          <t>Вентилятор системы охлаждения Nissan X-Trail, Qashqai (Дизель)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -8334,24 +8334,24 @@
         </is>
       </c>
       <c r="D304" t="n">
-        <v>2020</v>
+        <v>6600</v>
       </c>
       <c r="E304" t="n">
         <v>10</v>
       </c>
       <c r="F304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>BD075AVT</t>
+          <t>595739AVT</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Диск тормозной Audi Q5 (08-) задний</t>
+          <t>Втягивающее реле</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -8360,24 +8360,24 @@
         </is>
       </c>
       <c r="D305" t="n">
-        <v>1718</v>
+        <v>1080</v>
       </c>
       <c r="E305" t="n">
         <v>10</v>
       </c>
       <c r="F305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>BD056AVT</t>
+          <t>595739AVT</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Диск тормозной Audi Q7 (06-) задний</t>
+          <t>Втягивающее реле</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -8386,24 +8386,24 @@
         </is>
       </c>
       <c r="D306" t="n">
-        <v>2719</v>
+        <v>1080</v>
       </c>
       <c r="E306" t="n">
         <v>10</v>
       </c>
       <c r="F306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>BD021AVT</t>
+          <t>595785AVT</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Диск тормозной Chevrolet Aveo (02-) / Spark (05-) передний</t>
+          <t>Втягивающее реле (для 438327 / 438328)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -8412,24 +8412,24 @@
         </is>
       </c>
       <c r="D307" t="n">
-        <v>1090</v>
+        <v>1800</v>
       </c>
       <c r="E307" t="n">
         <v>10</v>
       </c>
       <c r="F307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>BD022AVT</t>
+          <t>595776AVT</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Диск тормозной Chevrolet Cruze (09-) / Aveo (11-) задний</t>
+          <t>Втягивающее реле LADA VESTA / RENUALT LOGAN</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -8438,24 +8438,24 @@
         </is>
       </c>
       <c r="D308" t="n">
-        <v>1550</v>
+        <v>1440</v>
       </c>
       <c r="E308" t="n">
         <v>10</v>
       </c>
       <c r="F308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>BD018AVT</t>
+          <t>595776AVT</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Диск тормозной Chevrolet Cruze (09-) / Aveo (11-) передний</t>
+          <t>Втягивающее реле LADA VESTA / RENUALT LOGAN</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -8464,24 +8464,24 @@
         </is>
       </c>
       <c r="D309" t="n">
-        <v>2197</v>
+        <v>1440</v>
       </c>
       <c r="E309" t="n">
         <v>10</v>
       </c>
       <c r="F309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>BD049AVT</t>
+          <t>AL200AVT</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Диск тормозной Chevrolet Lacetti (04-) задний</t>
+          <t>Генератор LADA GRANTA 110А</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -8490,24 +8490,24 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>1400</v>
+        <v>9996</v>
       </c>
       <c r="E310" t="n">
         <v>10</v>
       </c>
       <c r="F310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>BD039AVT</t>
+          <t>AL200AVT</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Диск тормозной Daewoo Matiz (98-) передний</t>
+          <t>Генератор LADA GRANTA 110А</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -8516,24 +8516,24 @@
         </is>
       </c>
       <c r="D311" t="n">
-        <v>1043</v>
+        <v>9996</v>
       </c>
       <c r="E311" t="n">
         <v>10</v>
       </c>
       <c r="F311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>BD042AVT</t>
+          <t>BD050AVT</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Fiesta (02-) / Fusion (02-) передний</t>
+          <t>Диск тормозной Audi A4 / A6 (95-) передний</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -8542,7 +8542,7 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>1481</v>
+        <v>2020</v>
       </c>
       <c r="E312" t="n">
         <v>10</v>
@@ -8554,12 +8554,12 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>BD040AVT</t>
+          <t>BD075AVT</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Focus (04-) задний</t>
+          <t>Диск тормозной Audi Q5 (08-) задний</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -8568,10 +8568,10 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>1373</v>
+        <v>1718</v>
       </c>
       <c r="E313" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F313" t="n">
         <v>2</v>
@@ -8580,12 +8580,12 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>BD015AVT</t>
+          <t>BD056AVT</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Focus (04-) задний d.264,8</t>
+          <t>Диск тормозной Audi Q7 (06-) задний</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -8594,7 +8594,7 @@
         </is>
       </c>
       <c r="D314" t="n">
-        <v>1270</v>
+        <v>2719</v>
       </c>
       <c r="E314" t="n">
         <v>10</v>
@@ -8606,12 +8606,12 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>BD006AVT</t>
+          <t>BD021AVT</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Focus II (05-) / Ford Focus III (11-) передний</t>
+          <t>Диск тормозной Chevrolet Aveo (02-) / Spark (05-) передний</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -8620,7 +8620,7 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>2310</v>
+        <v>1090</v>
       </c>
       <c r="E315" t="n">
         <v>10</v>
@@ -8632,12 +8632,12 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>BD013AVT</t>
+          <t>BD022AVT</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Focus II (05-) / Ford Focus III (11-) передний d.278,1</t>
+          <t>Диск тормозной Chevrolet Cruze (09-) / Aveo (11-) задний</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="D316" t="n">
-        <v>1964</v>
+        <v>1550</v>
       </c>
       <c r="E316" t="n">
         <v>10</v>
@@ -8658,12 +8658,12 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>BD032AVT</t>
+          <t>BD018AVT</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Focus III (11-) задний</t>
+          <t>Диск тормозной Chevrolet Cruze (09-) / Aveo (11-) передний</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -8672,7 +8672,7 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>1494</v>
+        <v>2197</v>
       </c>
       <c r="E317" t="n">
         <v>10</v>
@@ -8684,12 +8684,12 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>BD076AVT</t>
+          <t>BD049AVT</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Mondeo IV (07-) задний</t>
+          <t>Диск тормозной Chevrolet Lacetti (04-) задний</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -8698,7 +8698,7 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>1741</v>
+        <v>1400</v>
       </c>
       <c r="E318" t="n">
         <v>10</v>
@@ -8710,12 +8710,12 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>BD033AVT</t>
+          <t>BD039AVT</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Accent (00-) передний</t>
+          <t>Диск тормозной Daewoo Matiz (98-) передний</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -8724,7 +8724,7 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>1333</v>
+        <v>1043</v>
       </c>
       <c r="E319" t="n">
         <v>10</v>
@@ -8736,12 +8736,12 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>BD037AVT</t>
+          <t>BD042AVT</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Creta (16-) задний 2WD</t>
+          <t>Диск тормозной Ford Fiesta (02-) / Fusion (02-) передний</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -8750,7 +8750,7 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>1270</v>
+        <v>1481</v>
       </c>
       <c r="E320" t="n">
         <v>10</v>
@@ -8762,12 +8762,12 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>BD041AVT</t>
+          <t>BD040AVT</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Getz (02-) задний</t>
+          <t>Диск тормозной Ford Focus (04-) задний</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -8776,10 +8776,10 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>1253</v>
+        <v>1373</v>
       </c>
       <c r="E321" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F321" t="n">
         <v>2</v>
@@ -8788,12 +8788,12 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>BD054AVT</t>
+          <t>BD015AVT</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Getz (02-) передний (ABS)</t>
+          <t>Диск тормозной Ford Focus (04-) задний d.264,8</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -8802,7 +8802,7 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>1343</v>
+        <v>1270</v>
       </c>
       <c r="E322" t="n">
         <v>10</v>
@@ -8814,12 +8814,12 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>BD055AVT</t>
+          <t>BD006AVT</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Getz (02-) передний (без ABS)</t>
+          <t>Диск тормозной Ford Focus II (05-) / Ford Focus III (11-) передний</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -8828,7 +8828,7 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>1309</v>
+        <v>2310</v>
       </c>
       <c r="E323" t="n">
         <v>10</v>
@@ -8840,12 +8840,12 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>BD002AVT</t>
+          <t>BD013AVT</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Solaris (10-) (17-) задний</t>
+          <t>Диск тормозной Ford Focus II (05-) / Ford Focus III (11-) передний d.278,1</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -8854,7 +8854,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>1230</v>
+        <v>1964</v>
       </c>
       <c r="E324" t="n">
         <v>10</v>
@@ -8866,12 +8866,12 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>BD001AVT</t>
+          <t>BD032AVT</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Solaris (10-) (17-) передний</t>
+          <t>Диск тормозной Ford Focus III (11-) задний</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -8880,7 +8880,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>1418</v>
+        <v>1494</v>
       </c>
       <c r="E325" t="n">
         <v>10</v>
@@ -8892,12 +8892,12 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>BD027AVT</t>
+          <t>BD076AVT</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Ceed (07-) / Cerato (09-) / Hyundai i30 (07-) передний</t>
+          <t>Диск тормозной Ford Mondeo IV (07-) задний</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -8906,7 +8906,7 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>1949</v>
+        <v>1741</v>
       </c>
       <c r="E326" t="n">
         <v>10</v>
@@ -8918,12 +8918,12 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>BD068AVT</t>
+          <t>BD033AVT</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Sorento II (09-) задний</t>
+          <t>Диск тормозной Hyundai Accent (00-) передний</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -8932,7 +8932,7 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>1909</v>
+        <v>1333</v>
       </c>
       <c r="E327" t="n">
         <v>10</v>
@@ -8944,12 +8944,12 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>BD028AVT</t>
+          <t>BD037AVT</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Sportage (10-) / Hyundai ix35 (10-) задний</t>
+          <t>Диск тормозной Hyundai Creta (16-) задний 2WD</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -8958,7 +8958,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>1324</v>
+        <v>1270</v>
       </c>
       <c r="E328" t="n">
         <v>10</v>
@@ -8970,12 +8970,12 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>BD045AVT</t>
+          <t>BD041AVT</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Sportage III (10-) / Hyundai iX 35 (09-) задний</t>
+          <t>Диск тормозной Hyundai Getz (02-) задний</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -8984,7 +8984,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>1459</v>
+        <v>1253</v>
       </c>
       <c r="E329" t="n">
         <v>10</v>
@@ -8996,12 +8996,12 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>BD031AVT</t>
+          <t>BD054AVT</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Sportage III (10-) / Hyundai ix35 (10-) / Creta (16-) передний</t>
+          <t>Диск тормозной Hyundai Getz (02-) передний (ABS)</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -9010,7 +9010,7 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>2431</v>
+        <v>1343</v>
       </c>
       <c r="E330" t="n">
         <v>10</v>
@@ -9022,12 +9022,12 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>BD031AVT</t>
+          <t>BD055AVT</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Sportage III (10-) / Hyundai ix35 (10-) / Creta (16-) передний</t>
+          <t>Диск тормозной Hyundai Getz (02-) передний (без ABS)</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -9036,7 +9036,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>2431</v>
+        <v>1309</v>
       </c>
       <c r="E331" t="n">
         <v>10</v>
@@ -9048,12 +9048,12 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>BD011AVT</t>
+          <t>BD002AVT</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Диск тормозной Lada Largus (12-) / Renault Logan (07-) передний (без ABS)</t>
+          <t>Диск тормозной Hyundai Solaris (10-) (17-) задний</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -9062,7 +9062,7 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>1451</v>
+        <v>1230</v>
       </c>
       <c r="E332" t="n">
         <v>10</v>
@@ -9074,12 +9074,12 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>BD060AVT</t>
+          <t>BD001AVT</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Диск тормозной Mazda 3 (03-) задний</t>
+          <t>Диск тормозной Hyundai Solaris (10-) (17-) передний</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -9088,7 +9088,7 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>1231</v>
+        <v>1418</v>
       </c>
       <c r="E333" t="n">
         <v>10</v>
@@ -9100,12 +9100,12 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>BD059AVT</t>
+          <t>BD027AVT</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Диск тормозной Mazda 3 (03-) передний</t>
+          <t>Диск тормозной Kia Ceed (07-) / Cerato (09-) / Hyundai i30 (07-) передний</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -9114,7 +9114,7 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>2041</v>
+        <v>1949</v>
       </c>
       <c r="E334" t="n">
         <v>10</v>
@@ -9126,12 +9126,12 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>BD081AVT</t>
+          <t>BD068AVT</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi ASX (10-) / Outlander III / Peugeot 4008 / Citroen C4 Aircross (12-) задни</t>
+          <t>Диск тормозной Kia Sorento II (09-) задний</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -9140,7 +9140,7 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>1757</v>
+        <v>1909</v>
       </c>
       <c r="E335" t="n">
         <v>10</v>
@@ -9152,12 +9152,12 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>BD051AVT</t>
+          <t>BD028AVT</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi Lancer (00-) задний</t>
+          <t>Диск тормозной Kia Sportage (10-) / Hyundai ix35 (10-) задний</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -9166,7 +9166,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>1262</v>
+        <v>1324</v>
       </c>
       <c r="E336" t="n">
         <v>10</v>
@@ -9178,12 +9178,12 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>BD053AVT</t>
+          <t>BD045AVT</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi Lancer (00-) передний</t>
+          <t>Диск тормозной Kia Sportage III (10-) / Hyundai iX 35 (09-) задний</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -9192,7 +9192,7 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>1860</v>
+        <v>1459</v>
       </c>
       <c r="E337" t="n">
         <v>10</v>
@@ -9204,12 +9204,12 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>BD074AVT</t>
+          <t>BD031AVT</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi Lancer (08-) задний</t>
+          <t>Диск тормозной Kia Sportage III (10-) / Hyundai ix35 (10-) / Creta (16-) передний</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -9218,7 +9218,7 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>1393</v>
+        <v>2431</v>
       </c>
       <c r="E338" t="n">
         <v>10</v>
@@ -9230,12 +9230,12 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>BD048AVT</t>
+          <t>BD031AVT</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi Outlander (06-) передний</t>
+          <t>Диск тормозной Kia Sportage III (10-) / Hyundai ix35 (10-) / Creta (16-) передний</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="D339" t="n">
-        <v>2027</v>
+        <v>2431</v>
       </c>
       <c r="E339" t="n">
         <v>10</v>
@@ -9256,12 +9256,12 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>BD026AVT</t>
+          <t>BD011AVT</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Диск тормозной Nexia (95-) / Lanos (05-) передний</t>
+          <t>Диск тормозной Lada Largus (12-) / Renault Logan (07-) передний (без ABS)</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -9270,7 +9270,7 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>1398</v>
+        <v>1451</v>
       </c>
       <c r="E340" t="n">
         <v>10</v>
@@ -9282,12 +9282,12 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>BD079AVT</t>
+          <t>BD060AVT</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Almera Classic (06-) передний</t>
+          <t>Диск тормозной Mazda 3 (03-) задний</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="D341" t="n">
-        <v>1254</v>
+        <v>1231</v>
       </c>
       <c r="E341" t="n">
         <v>10</v>
@@ -9308,12 +9308,12 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>BD038AVT</t>
+          <t>BD059AVT</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Juke (10-) задний</t>
+          <t>Диск тормозной Mazda 3 (03-) передний</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -9322,7 +9322,7 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>1578</v>
+        <v>2041</v>
       </c>
       <c r="E342" t="n">
         <v>10</v>
@@ -9334,12 +9334,12 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>BD020AVT</t>
+          <t>BD081AVT</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) задний</t>
+          <t>Диск тормозной Mitsubishi ASX (10-) / Outlander III / Peugeot 4008 / Citroen C4 Aircross (12-) задни</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -9348,7 +9348,7 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>1664</v>
+        <v>1757</v>
       </c>
       <c r="E343" t="n">
         <v>10</v>
@@ -9360,12 +9360,12 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>BD019AVT</t>
+          <t>BD051AVT</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) передний</t>
+          <t>Диск тормозной Mitsubishi Lancer (00-) задний</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -9374,10 +9374,10 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>2299</v>
+        <v>1262</v>
       </c>
       <c r="E344" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F344" t="n">
         <v>2</v>
@@ -9386,12 +9386,12 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>BD019AVT</t>
+          <t>BD053AVT</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) передний</t>
+          <t>Диск тормозной Mitsubishi Lancer (00-) передний</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -9400,10 +9400,10 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>2299</v>
+        <v>1860</v>
       </c>
       <c r="E345" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F345" t="n">
         <v>2</v>
@@ -9412,12 +9412,12 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>BD058AVT</t>
+          <t>BD074AVT</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Qashqai II (13-) / X-Trail (14-) передний</t>
+          <t>Диск тормозной Mitsubishi Lancer (08-) задний</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>2034</v>
+        <v>1393</v>
       </c>
       <c r="E346" t="n">
         <v>10</v>
@@ -9438,12 +9438,12 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>BD025AVT</t>
+          <t>BD048AVT</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Диск тормозной Opel Astra H (04-) передний</t>
+          <t>Диск тормозной Mitsubishi Outlander (06-) передний</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -9452,7 +9452,7 @@
         </is>
       </c>
       <c r="D347" t="n">
-        <v>1860</v>
+        <v>2027</v>
       </c>
       <c r="E347" t="n">
         <v>10</v>
@@ -9464,12 +9464,12 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>BD024AVT</t>
+          <t>BD026AVT</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Диск тормозной Opel Astra J (10-) / Chevrolet Cruze (09-) задний</t>
+          <t>Диск тормозной Nexia (95-) / Lanos (05-) передний</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -9478,7 +9478,7 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>1507</v>
+        <v>1398</v>
       </c>
       <c r="E348" t="n">
         <v>10</v>
@@ -9490,12 +9490,12 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>BD034AVT</t>
+          <t>BD079AVT</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Диск тормозной Peugeot 307 (00-) / 308 (07-) / Citroen C4 (04-) передний</t>
+          <t>Диск тормозной Nissan Almera Classic (06-) передний</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -9504,7 +9504,7 @@
         </is>
       </c>
       <c r="D349" t="n">
-        <v>1940</v>
+        <v>1254</v>
       </c>
       <c r="E349" t="n">
         <v>10</v>
@@ -9516,12 +9516,12 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>BD069AVT</t>
+          <t>BD038AVT</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Диск тормозной Peugeot Partner / Citroen Berlingo (96-) передний</t>
+          <t>Диск тормозной Nissan Juke (10-) задний</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -9530,7 +9530,7 @@
         </is>
       </c>
       <c r="D350" t="n">
-        <v>1325</v>
+        <v>1578</v>
       </c>
       <c r="E350" t="n">
         <v>10</v>
@@ -9542,12 +9542,12 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>BD023AVT</t>
+          <t>BD020AVT</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Duster (10-) / Arkana (19-)</t>
+          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) задний</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -9556,7 +9556,7 @@
         </is>
       </c>
       <c r="D351" t="n">
-        <v>2221</v>
+        <v>1664</v>
       </c>
       <c r="E351" t="n">
         <v>10</v>
@@ -9568,12 +9568,12 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>BD023AVT</t>
+          <t>BD019AVT</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Duster (10-) / Arkana (19-)</t>
+          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) передний</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -9582,7 +9582,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>2221</v>
+        <v>2299</v>
       </c>
       <c r="E352" t="n">
         <v>10</v>
@@ -9594,12 +9594,12 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>BD061AVT</t>
+          <t>BD019AVT</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Koleos (08-) передний</t>
+          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) передний</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -9608,7 +9608,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>2723</v>
+        <v>2299</v>
       </c>
       <c r="E353" t="n">
         <v>10</v>
@@ -9620,12 +9620,12 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>BD004AVT</t>
+          <t>BD058AVT</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Logan (04-) передний</t>
+          <t>Диск тормозной Nissan Qashqai II (13-) / X-Trail (14-) передний</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -9634,7 +9634,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>1370</v>
+        <v>2034</v>
       </c>
       <c r="E354" t="n">
         <v>10</v>
@@ -9646,12 +9646,12 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>BD004AVT</t>
+          <t>BD025AVT</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Logan (04-) передний</t>
+          <t>Диск тормозной Opel Astra H (04-) передний</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -9660,7 +9660,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>1370</v>
+        <v>1860</v>
       </c>
       <c r="E355" t="n">
         <v>10</v>
@@ -9672,12 +9672,12 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>BD010AVT</t>
+          <t>BD024AVT</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Logan (04-) передний (без ABS)</t>
+          <t>Диск тормозной Opel Astra J (10-) / Chevrolet Cruze (09-) задний</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -9686,7 +9686,7 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>997</v>
+        <v>1507</v>
       </c>
       <c r="E356" t="n">
         <v>10</v>
@@ -9698,12 +9698,12 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>BD012AVT</t>
+          <t>BD034AVT</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Octavia (04-) / VW Golf V (03-) задний</t>
+          <t>Диск тормозной Peugeot 307 (00-) / 308 (07-) / Citroen C4 (04-) передний</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -9712,7 +9712,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>1234</v>
+        <v>1940</v>
       </c>
       <c r="E357" t="n">
         <v>10</v>
@@ -9724,12 +9724,12 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>BD016AVT</t>
+          <t>BD069AVT</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Octavia (04-) / VW Golf V (03-) передний</t>
+          <t>Диск тормозной Peugeot Partner / Citroen Berlingo (96-) передний</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -9738,7 +9738,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>1789</v>
+        <v>1325</v>
       </c>
       <c r="E358" t="n">
         <v>10</v>
@@ -9750,12 +9750,12 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>BD008AVT</t>
+          <t>BD023AVT</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Octavia (13-) / VW Golf VII (12-) задний</t>
+          <t>Диск тормозной Renault Duster (10-) / Arkana (19-)</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -9764,7 +9764,7 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>1326</v>
+        <v>2221</v>
       </c>
       <c r="E359" t="n">
         <v>10</v>
@@ -9776,12 +9776,12 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>BD063AVT</t>
+          <t>BD023AVT</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Octavia (96-) / VW Golf IV (97-) передний</t>
+          <t>Диск тормозной Renault Duster (10-) / Arkana (19-)</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -9790,7 +9790,7 @@
         </is>
       </c>
       <c r="D360" t="n">
-        <v>1729</v>
+        <v>2221</v>
       </c>
       <c r="E360" t="n">
         <v>10</v>
@@ -9802,12 +9802,12 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>BD007AVT</t>
+          <t>BD061AVT</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Yeti (09-) передний</t>
+          <t>Диск тормозной Renault Koleos (08-) передний</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -9816,7 +9816,7 @@
         </is>
       </c>
       <c r="D361" t="n">
-        <v>2183</v>
+        <v>2723</v>
       </c>
       <c r="E361" t="n">
         <v>10</v>
@@ -9828,12 +9828,12 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>BD064AVT</t>
+          <t>BD004AVT</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Диск тормозной SsangYong Kyron (05-) задний</t>
+          <t>Диск тормозной Renault Logan (04-) передний</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -9842,7 +9842,7 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>1950</v>
+        <v>1370</v>
       </c>
       <c r="E362" t="n">
         <v>10</v>
@@ -9854,12 +9854,12 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>BD070AVT</t>
+          <t>BD004AVT</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Диск тормозной Suzuki Grand Vitara (05-) передний</t>
+          <t>Диск тормозной Renault Logan (04-) передний</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -9868,7 +9868,7 @@
         </is>
       </c>
       <c r="D363" t="n">
-        <v>1757</v>
+        <v>1370</v>
       </c>
       <c r="E363" t="n">
         <v>10</v>
@@ -9880,12 +9880,12 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>BD083AVT</t>
+          <t>BD010AVT</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Диск тормозной Tank 300 передний</t>
+          <t>Диск тормозной Renault Logan (04-) передний (без ABS)</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -9894,7 +9894,7 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>3834</v>
+        <v>997</v>
       </c>
       <c r="E364" t="n">
         <v>10</v>
@@ -9906,12 +9906,12 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>BD083AVT</t>
+          <t>BD012AVT</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Диск тормозной Tank 300 передний</t>
+          <t>Диск тормозной Skoda Octavia (04-) / VW Golf V (03-) задний</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -9920,7 +9920,7 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>3834</v>
+        <v>1234</v>
       </c>
       <c r="E365" t="n">
         <v>10</v>
@@ -9932,12 +9932,12 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>BD082AVT</t>
+          <t>BD016AVT</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Диск тормозной Tank 500 передний</t>
+          <t>Диск тормозной Skoda Octavia (04-) / VW Golf V (03-) передний</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>4511</v>
+        <v>1789</v>
       </c>
       <c r="E366" t="n">
         <v>10</v>
@@ -9958,12 +9958,12 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>BD017AVT</t>
+          <t>BD008AVT</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Camry (06-) / RAV 4 (06-) передний</t>
+          <t>Диск тормозной Skoda Octavia (13-) / VW Golf VII (12-) задний</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -9972,7 +9972,7 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>2334</v>
+        <v>1326</v>
       </c>
       <c r="E367" t="n">
         <v>10</v>
@@ -9984,12 +9984,12 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>BD017AVT</t>
+          <t>BD063AVT</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Camry (06-) / RAV 4 (06-) передний</t>
+          <t>Диск тормозной Skoda Octavia (96-) / VW Golf IV (97-) передний</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -9998,7 +9998,7 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>2334</v>
+        <v>1729</v>
       </c>
       <c r="E368" t="n">
         <v>10</v>
@@ -10010,12 +10010,12 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>BD044AVT</t>
+          <t>BD007AVT</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Camry (06-) задний</t>
+          <t>Диск тормозной Skoda Yeti (09-) передний</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -10024,7 +10024,7 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>1597</v>
+        <v>2183</v>
       </c>
       <c r="E369" t="n">
         <v>10</v>
@@ -10036,12 +10036,12 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>BD036AVT</t>
+          <t>BD064AVT</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Corolla (06-) / Auris (06-) задний</t>
+          <t>Диск тормозной SsangYong Kyron (05-) задний</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -10050,7 +10050,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>1127</v>
+        <v>1950</v>
       </c>
       <c r="E370" t="n">
         <v>10</v>
@@ -10062,12 +10062,12 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>BD035AVT</t>
+          <t>BD070AVT</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Corolla (06-) / Auris (06-) передний</t>
+          <t>Диск тормозной Suzuki Grand Vitara (05-) передний</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -10076,7 +10076,7 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>1699</v>
+        <v>1757</v>
       </c>
       <c r="E371" t="n">
         <v>10</v>
@@ -10088,12 +10088,12 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>BD071AVT</t>
+          <t>BD083AVT</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota LC 200 (07-) задний</t>
+          <t>Диск тормозной Tank 300 передний</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -10102,7 +10102,7 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>2298</v>
+        <v>3834</v>
       </c>
       <c r="E372" t="n">
         <v>10</v>
@@ -10114,12 +10114,12 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>BD052AVT</t>
+          <t>BD083AVT</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota LC 200 (07-) передний</t>
+          <t>Диск тормозной Tank 300 передний</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -10128,7 +10128,7 @@
         </is>
       </c>
       <c r="D373" t="n">
-        <v>2939</v>
+        <v>3834</v>
       </c>
       <c r="E373" t="n">
         <v>10</v>
@@ -10140,12 +10140,12 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>BD066AVT</t>
+          <t>BD082AVT</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota LC Prado (09-) передний</t>
+          <t>Диск тормозной Tank 500 передний</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -10154,7 +10154,7 @@
         </is>
       </c>
       <c r="D374" t="n">
-        <v>3275</v>
+        <v>4511</v>
       </c>
       <c r="E374" t="n">
         <v>10</v>
@@ -10166,12 +10166,12 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>BD029AVT</t>
+          <t>BD017AVT</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota RAV 4 (06-) / RAV 4 (13-) задний</t>
+          <t>Диск тормозной Toyota Camry (06-) / RAV 4 (06-) передний</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -10180,7 +10180,7 @@
         </is>
       </c>
       <c r="D375" t="n">
-        <v>1684</v>
+        <v>2334</v>
       </c>
       <c r="E375" t="n">
         <v>10</v>
@@ -10192,12 +10192,12 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>BD065AVT</t>
+          <t>BD017AVT</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Диск тормозной Volvo XC 70 (07-) / S60 (10-) / S80 (06-) передний</t>
+          <t>Диск тормозной Toyota Camry (06-) / RAV 4 (06-) передний</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -10206,7 +10206,7 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>2572</v>
+        <v>2334</v>
       </c>
       <c r="E376" t="n">
         <v>10</v>
@@ -10218,12 +10218,12 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>BD047AVT</t>
+          <t>BD044AVT</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Passat (96-) задний</t>
+          <t>Диск тормозной Toyota Camry (06-) задний</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -10232,7 +10232,7 @@
         </is>
       </c>
       <c r="D377" t="n">
-        <v>1218</v>
+        <v>1597</v>
       </c>
       <c r="E377" t="n">
         <v>10</v>
@@ -10244,12 +10244,12 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>BD072AVT</t>
+          <t>BD036AVT</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Passat (96-) передний</t>
+          <t>Диск тормозной Toyota Corolla (06-) / Auris (06-) задний</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -10258,7 +10258,7 @@
         </is>
       </c>
       <c r="D378" t="n">
-        <v>1788</v>
+        <v>1127</v>
       </c>
       <c r="E378" t="n">
         <v>10</v>
@@ -10270,12 +10270,12 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>BD009AVT</t>
+          <t>BD035AVT</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Polo Sedan (10-) передний d.286,8</t>
+          <t>Диск тормозной Toyota Corolla (06-) / Auris (06-) передний</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -10284,7 +10284,7 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>2159</v>
+        <v>1699</v>
       </c>
       <c r="E379" t="n">
         <v>10</v>
@@ -10296,12 +10296,12 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>BD014AVT</t>
+          <t>BD071AVT</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Tiguan (07-) задний</t>
+          <t>Диск тормозной Toyota LC 200 (07-) задний</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -10310,7 +10310,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>1496</v>
+        <v>2298</v>
       </c>
       <c r="E380" t="n">
         <v>10</v>
@@ -10322,12 +10322,12 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>BD003AVT</t>
+          <t>BD052AVT</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Tiguan (07-) передний</t>
+          <t>Диск тормозной Toyota LC 200 (07-) передний</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -10336,7 +10336,7 @@
         </is>
       </c>
       <c r="D381" t="n">
-        <v>2494</v>
+        <v>2939</v>
       </c>
       <c r="E381" t="n">
         <v>10</v>
@@ -10348,12 +10348,12 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>BD043AVT</t>
+          <t>BD066AVT</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Tiguan (16-) / Skoda Kodiaq (16-) задний</t>
+          <t>Диск тормозной Toyota LC Prado (09-) передний</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -10362,7 +10362,7 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>1879</v>
+        <v>3275</v>
       </c>
       <c r="E382" t="n">
         <v>10</v>
@@ -10374,12 +10374,12 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>BP023AVT</t>
+          <t>BD029AVT</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Lada Vesta Sport (18-) / Renault Duster (10-) / Renault Arkan</t>
+          <t>Диск тормозной Toyota RAV 4 (06-) / RAV 4 (13-) задний</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -10388,24 +10388,24 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>864</v>
+        <v>1684</v>
       </c>
       <c r="E383" t="n">
         <v>10</v>
       </c>
       <c r="F383" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>BP023AVT</t>
+          <t>BD065AVT</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Lada Vesta Sport (18-) / Renault Duster (10-) / Renault Arkan</t>
+          <t>Диск тормозной Volvo XC 70 (07-) / S60 (10-) / S80 (06-) передний</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -10414,24 +10414,24 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>864</v>
+        <v>2572</v>
       </c>
       <c r="E384" t="n">
         <v>10</v>
       </c>
       <c r="F384" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>BP096AVT</t>
+          <t>BD047AVT</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Renault Logan II (2012-)</t>
+          <t>Диск тормозной VW Passat (96-) задний</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -10440,24 +10440,24 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>680</v>
+        <v>1218</v>
       </c>
       <c r="E385" t="n">
         <v>10</v>
       </c>
       <c r="F385" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>BP096AVT</t>
+          <t>BD072AVT</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Renault Logan II (2012-)</t>
+          <t>Диск тормозной VW Passat (96-) передний</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -10466,24 +10466,24 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>680</v>
+        <v>1788</v>
       </c>
       <c r="E386" t="n">
         <v>10</v>
       </c>
       <c r="F386" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>832198AVT</t>
+          <t>BD009AVT</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Комплект сцепления LADA Largus (корзина+диск) для 21809</t>
+          <t>Диск тормозной VW Polo Sedan (10-) передний d.286,8</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -10492,24 +10492,24 @@
         </is>
       </c>
       <c r="D387" t="n">
-        <v>12000</v>
+        <v>2159</v>
       </c>
       <c r="E387" t="n">
         <v>10</v>
       </c>
       <c r="F387" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>832198AVT</t>
+          <t>BD014AVT</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Комплект сцепления LADA Largus (корзина+диск) для 21809</t>
+          <t>Диск тормозной VW Tiguan (07-) задний</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -10518,24 +10518,24 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>12000</v>
+        <v>1496</v>
       </c>
       <c r="E388" t="n">
         <v>10</v>
       </c>
       <c r="F388" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>826787AVT</t>
+          <t>BD003AVT</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Комплект сцепления без подшипника Chevrolet Lacetti (04-)</t>
+          <t>Диск тормозной VW Tiguan (07-) передний</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -10544,24 +10544,24 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>5111</v>
+        <v>2494</v>
       </c>
       <c r="E389" t="n">
         <v>10</v>
       </c>
       <c r="F389" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>826853AVT</t>
+          <t>BD043AVT</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Комплект сцепления без подшипника Renault Logan (08-)</t>
+          <t>Диск тормозной VW Tiguan (16-) / Skoda Kodiaq (16-) задний</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -10570,24 +10570,24 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>3703</v>
+        <v>1879</v>
       </c>
       <c r="E390" t="n">
         <v>10</v>
       </c>
       <c r="F390" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>3495AVT</t>
+          <t>832198AVT</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником 2107</t>
+          <t>Комплект сцепления LADA Largus (корзина+диск) для 21809</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>4656</v>
+        <v>12000</v>
       </c>
       <c r="E391" t="n">
         <v>10</v>
@@ -10608,12 +10608,12 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>826245AVT</t>
+          <t>832198AVT</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Citroen C3 (03-) 1.1-1.4 (05-)</t>
+          <t>Комплект сцепления LADA Largus (корзина+диск) для 21809</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -10622,10 +10622,10 @@
         </is>
       </c>
       <c r="D392" t="n">
-        <v>3112</v>
+        <v>12000</v>
       </c>
       <c r="E392" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F392" t="n">
         <v>1</v>
@@ -10634,12 +10634,12 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>826568AVT</t>
+          <t>826787AVT</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Daewoo Matiz (01-)</t>
+          <t>Комплект сцепления без подшипника Chevrolet Lacetti (04-)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -10648,7 +10648,7 @@
         </is>
       </c>
       <c r="D393" t="n">
-        <v>3259</v>
+        <v>5111</v>
       </c>
       <c r="E393" t="n">
         <v>10</v>
@@ -10660,12 +10660,12 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>821098AVT</t>
+          <t>826853AVT</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Daewoo Nexia (95-)</t>
+          <t>Комплект сцепления без подшипника Renault Logan (08-)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -10674,7 +10674,7 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>3667</v>
+        <v>3703</v>
       </c>
       <c r="E394" t="n">
         <v>10</v>
@@ -10686,12 +10686,12 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>826995AVT</t>
+          <t>3495AVT</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Hyundai Solaris I (10-)</t>
+          <t>Комплект сцепления с подшипником 2107</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -10700,7 +10700,7 @@
         </is>
       </c>
       <c r="D395" t="n">
-        <v>4223</v>
+        <v>4656</v>
       </c>
       <c r="E395" t="n">
         <v>10</v>
@@ -10712,12 +10712,12 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>826995AVT</t>
+          <t>826245AVT</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Hyundai Solaris I (10-)</t>
+          <t>Комплект сцепления с подшипником Citroen C3 (03-) 1.1-1.4 (05-)</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -10726,10 +10726,10 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>4223</v>
+        <v>3112</v>
       </c>
       <c r="E396" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F396" t="n">
         <v>1</v>
@@ -10738,12 +10738,12 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>826299AVT</t>
+          <t>826568AVT</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Hyundai Sonata IV (98-) 2.0</t>
+          <t>Комплект сцепления с подшипником Daewoo Matiz (01-)</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -10752,10 +10752,10 @@
         </is>
       </c>
       <c r="D397" t="n">
-        <v>8519</v>
+        <v>3259</v>
       </c>
       <c r="E397" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F397" t="n">
         <v>1</v>
@@ -10764,12 +10764,12 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>801515AVT</t>
+          <t>821098AVT</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Nissan Almera N16 (00-04) 1.5</t>
+          <t>Комплект сцепления с подшипником Daewoo Nexia (95-)</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -10778,7 +10778,7 @@
         </is>
       </c>
       <c r="D398" t="n">
-        <v>4482</v>
+        <v>3667</v>
       </c>
       <c r="E398" t="n">
         <v>10</v>
@@ -10790,12 +10790,12 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>826211AVT</t>
+          <t>826298AVT</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 306 (97-) / Partner (96-) 1.4-1.6</t>
+          <t>Комплект сцепления с подшипником GAZ 3110 / 3302 (ZMZ 402 / 406)</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -10804,10 +10804,10 @@
         </is>
       </c>
       <c r="D399" t="n">
-        <v>3830</v>
+        <v>4516</v>
       </c>
       <c r="E399" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F399" t="n">
         <v>1</v>
@@ -10816,12 +10816,12 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>821340AVT</t>
+          <t>826298AVT</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 307 (00-) 1.1-1.4</t>
+          <t>Комплект сцепления с подшипником GAZ 3110 / 3302 (ZMZ 402 / 406)</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -10830,7 +10830,7 @@
         </is>
       </c>
       <c r="D400" t="n">
-        <v>3912</v>
+        <v>4516</v>
       </c>
       <c r="E400" t="n">
         <v>10</v>
@@ -10842,12 +10842,12 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>826213AVT</t>
+          <t>826995AVT</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Peugeot 307 (00-)</t>
+          <t>Комплект сцепления с подшипником Hyundai Solaris I (10-)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -10856,7 +10856,7 @@
         </is>
       </c>
       <c r="D401" t="n">
-        <v>3749</v>
+        <v>4223</v>
       </c>
       <c r="E401" t="n">
         <v>10</v>
@@ -10868,12 +10868,12 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>821183AVT</t>
+          <t>826995AVT</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Renault Logan (04-)</t>
+          <t>Комплект сцепления с подшипником Hyundai Solaris I (10-)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -10882,7 +10882,7 @@
         </is>
       </c>
       <c r="D402" t="n">
-        <v>3830</v>
+        <v>4223</v>
       </c>
       <c r="E402" t="n">
         <v>10</v>
@@ -10894,12 +10894,12 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>826577AVT</t>
+          <t>826299AVT</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Renault Logan I 1.4 (04-)</t>
+          <t>Комплект сцепления с подшипником Hyundai Sonata IV (98-) 2.0</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -10908,10 +10908,10 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>4662</v>
+        <v>8519</v>
       </c>
       <c r="E403" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F403" t="n">
         <v>1</v>
@@ -10920,12 +10920,12 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>826326AVT</t>
+          <t>801515AVT</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником VW Polo Sedan (10-)</t>
+          <t>Комплект сцепления с подшипником Nissan Almera N16 (00-04) 1.5</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -10934,7 +10934,7 @@
         </is>
       </c>
       <c r="D404" t="n">
-        <v>5297</v>
+        <v>4482</v>
       </c>
       <c r="E404" t="n">
         <v>10</v>
@@ -10946,12 +10946,12 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>CD044AVT</t>
+          <t>826211AVT</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.0</t>
+          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 306 (97-) / Partner (96-) 1.4-1.6</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -10960,10 +10960,10 @@
         </is>
       </c>
       <c r="D405" t="n">
-        <v>5124</v>
+        <v>3830</v>
       </c>
       <c r="E405" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F405" t="n">
         <v>1</v>
@@ -10972,12 +10972,12 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>CD046AVT</t>
+          <t>821340AVT</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.2</t>
+          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 307 (00-) 1.1-1.4</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -10986,7 +10986,7 @@
         </is>
       </c>
       <c r="D406" t="n">
-        <v>5364</v>
+        <v>3912</v>
       </c>
       <c r="E406" t="n">
         <v>10</v>
@@ -10998,12 +10998,12 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>CD036AVT</t>
+          <t>826213AVT</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Конденсор Chevrolet Aveo T300 (11-) 1.2-1.6</t>
+          <t>Комплект сцепления с подшипником Peugeot 307 (00-)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -11012,7 +11012,7 @@
         </is>
       </c>
       <c r="D407" t="n">
-        <v>4404</v>
+        <v>3749</v>
       </c>
       <c r="E407" t="n">
         <v>10</v>
@@ -11024,12 +11024,12 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>CD047AVT</t>
+          <t>821183AVT</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Конденсор Chevrolet Captiva / Opel Antara (06-) 2.0-2.2D</t>
+          <t>Комплект сцепления с подшипником Renault Logan (04-)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -11038,7 +11038,7 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>4788</v>
+        <v>3830</v>
       </c>
       <c r="E408" t="n">
         <v>10</v>
@@ -11050,12 +11050,12 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>CD048AVT</t>
+          <t>826577AVT</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Конденсор Chevrolet Cruze / Opel Astra J (09-) 1.4-1.8</t>
+          <t>Комплект сцепления с подшипником Renault Logan I 1.4 (04-)</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -11064,7 +11064,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>3900</v>
+        <v>4662</v>
       </c>
       <c r="E409" t="n">
         <v>10</v>
@@ -11076,12 +11076,12 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>CD033AVT</t>
+          <t>828009AVT</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Конденсор Ford Focus II (05-) / Volvo S40 (04-) 1.4-2.0</t>
+          <t>Комплект сцепления с подшипником UAZ 3151 / 3160 (ZMZ 409)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -11090,7 +11090,7 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>4044</v>
+        <v>5112</v>
       </c>
       <c r="E410" t="n">
         <v>10</v>
@@ -11102,12 +11102,12 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>CD037AVT</t>
+          <t>828009AVT</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Конденсор Ford Mondeo (07-) / Volvo XC60 (08-) / XC70 (07-) / S80 (06-) 1.6-2.5</t>
+          <t>Комплект сцепления с подшипником UAZ 3151 / 3160 (ZMZ 409)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -11116,7 +11116,7 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>5388</v>
+        <v>5112</v>
       </c>
       <c r="E411" t="n">
         <v>10</v>
@@ -11128,12 +11128,12 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>CD038AVT</t>
+          <t>826326AVT</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Конденсор Hyundai Accent II (99-) MT 1.3-1.6</t>
+          <t>Комплект сцепления с подшипником VW Polo Sedan (10-)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -11142,7 +11142,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>3708</v>
+        <v>5297</v>
       </c>
       <c r="E412" t="n">
         <v>10</v>
@@ -11154,12 +11154,12 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>CD039AVT</t>
+          <t>CD044AVT</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Конденсор Hyundai Tucson (15-) / Kia Sportage (16-) 1.6-2.0</t>
+          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.0</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -11168,7 +11168,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>5856</v>
+        <v>5124</v>
       </c>
       <c r="E413" t="n">
         <v>10</v>
@@ -11180,12 +11180,12 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>CD045AVT</t>
+          <t>CD046AVT</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Конденсор Mazda 3 (09-) 1.6-2.5</t>
+          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.2</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -11194,7 +11194,7 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>5220</v>
+        <v>5364</v>
       </c>
       <c r="E414" t="n">
         <v>10</v>
@@ -11206,12 +11206,12 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>CD041AVT</t>
+          <t>CD036AVT</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Конденсор Mitsubishi Outlander (12-) 2.0-2.4</t>
+          <t>Конденсор Chevrolet Aveo T300 (11-) 1.2-1.6</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -11220,7 +11220,7 @@
         </is>
       </c>
       <c r="D415" t="n">
-        <v>4428</v>
+        <v>4404</v>
       </c>
       <c r="E415" t="n">
         <v>10</v>
@@ -11232,12 +11232,12 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>CD042AVT</t>
+          <t>CD047AVT</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Конденсор Nissan Note (06-) / Tiida (04-) / Juke (10-) 1.2-1.6</t>
+          <t>Конденсор Chevrolet Captiva / Opel Antara (06-) 2.0-2.2D</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="D416" t="n">
-        <v>4248</v>
+        <v>4788</v>
       </c>
       <c r="E416" t="n">
         <v>10</v>
@@ -11258,12 +11258,12 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>CD043AVT</t>
+          <t>CD048AVT</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Конденсор Opel Astra H (04-) 1.4-1.8</t>
+          <t>Конденсор Chevrolet Cruze / Opel Astra J (09-) 1.4-1.8</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -11272,7 +11272,7 @@
         </is>
       </c>
       <c r="D417" t="n">
-        <v>4692</v>
+        <v>3900</v>
       </c>
       <c r="E417" t="n">
         <v>10</v>
@@ -11284,12 +11284,12 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>CD034AVT</t>
+          <t>CD033AVT</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Конденсор Skoda Kodiaq (16-) / Skoda Octavia A7 (13-) / VW Tiguan (16-) 1.2-2.0</t>
+          <t>Конденсор Ford Focus II (05-) / Volvo S40 (04-) 1.4-2.0</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -11298,7 +11298,7 @@
         </is>
       </c>
       <c r="D418" t="n">
-        <v>5292</v>
+        <v>4044</v>
       </c>
       <c r="E418" t="n">
         <v>10</v>
@@ -11310,12 +11310,12 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>CD035AVT</t>
+          <t>CD037AVT</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Конденсор Skoda Octavia A5 (04-) / VW Golf V (03-) 1.6-2.0</t>
+          <t>Конденсор Ford Mondeo (07-) / Volvo XC60 (08-) / XC70 (07-) / S80 (06-) 1.6-2.5</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -11324,7 +11324,7 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>5136</v>
+        <v>5388</v>
       </c>
       <c r="E419" t="n">
         <v>10</v>
@@ -11336,12 +11336,12 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>836383AVT</t>
+          <t>CD038AVT</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Одномассовый маховик HYUNDAI SOLARIS 17-</t>
+          <t>Конденсор Hyundai Accent II (99-) MT 1.3-1.6</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -11350,10 +11350,10 @@
         </is>
       </c>
       <c r="D420" t="n">
-        <v>6000</v>
+        <v>3708</v>
       </c>
       <c r="E420" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F420" t="n">
         <v>1</v>
@@ -11362,12 +11362,12 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>836365AVT</t>
+          <t>CD039AVT</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
+          <t>Конденсор Hyundai Tucson (15-) / Kia Sportage (16-) 1.6-2.0</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -11376,10 +11376,10 @@
         </is>
       </c>
       <c r="D421" t="n">
-        <v>3300</v>
+        <v>5856</v>
       </c>
       <c r="E421" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F421" t="n">
         <v>1</v>
@@ -11388,12 +11388,12 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>836365AVT</t>
+          <t>CD045AVT</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
+          <t>Конденсор Mazda 3 (09-) 1.6-2.5</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -11402,10 +11402,10 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>3300</v>
+        <v>5220</v>
       </c>
       <c r="E422" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F422" t="n">
         <v>1</v>
@@ -11414,12 +11414,12 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>804295AVT</t>
+          <t>CD041AVT</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Подшипник выжимной 2101-2107</t>
+          <t>Конденсор Mitsubishi Outlander (12-) 2.0-2.4</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -11428,7 +11428,7 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>1070</v>
+        <v>4428</v>
       </c>
       <c r="E423" t="n">
         <v>10</v>
@@ -11440,12 +11440,12 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>804296AVT</t>
+          <t>CD042AVT</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Подшипник выжимной 2108-2112</t>
+          <t>Конденсор Nissan Note (06-) / Tiida (04-) / Juke (10-) 1.2-1.6</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -11454,7 +11454,7 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>811</v>
+        <v>4248</v>
       </c>
       <c r="E424" t="n">
         <v>10</v>
@@ -11466,12 +11466,12 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>804296AVT</t>
+          <t>CD043AVT</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Подшипник выжимной 2108-2112</t>
+          <t>Конденсор Opel Astra H (04-) 1.4-1.8</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -11480,7 +11480,7 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>811</v>
+        <v>4692</v>
       </c>
       <c r="E425" t="n">
         <v>10</v>
@@ -11492,12 +11492,12 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>804036AVT</t>
+          <t>CD034AVT</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Подшипник выжимной CITROEN/PEUGEOT</t>
+          <t>Конденсор Skoda Kodiaq (16-) / Skoda Octavia A7 (13-) / VW Tiguan (16-) 1.2-2.0</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>696</v>
+        <v>5292</v>
       </c>
       <c r="E426" t="n">
         <v>10</v>
@@ -11518,12 +11518,12 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>804299AVT</t>
+          <t>CD035AVT</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Подшипник выжимной PSA</t>
+          <t>Конденсор Skoda Octavia A5 (04-) / VW Golf V (03-) 1.6-2.0</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -11532,7 +11532,7 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>720</v>
+        <v>5136</v>
       </c>
       <c r="E427" t="n">
         <v>10</v>
@@ -11544,12 +11544,12 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>804587AVT</t>
+          <t>836383AVT</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Подшипник гидравлический RENAULT DUSTER 1.6</t>
+          <t>Одномассовый маховик HYUNDAI SOLARIS 17-</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -11558,10 +11558,10 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>7200</v>
+        <v>6000</v>
       </c>
       <c r="E428" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F428" t="n">
         <v>1</v>
@@ -11570,12 +11570,12 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>804544AVT</t>
+          <t>836365AVT</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Подшипник гидравлический RENAULT/NISSAN</t>
+          <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -11584,7 +11584,7 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>5640</v>
+        <v>3300</v>
       </c>
       <c r="E429" t="n">
         <v>10</v>
@@ -11596,12 +11596,12 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>804544AVT</t>
+          <t>836365AVT</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Подшипник гидравлический RENAULT/NISSAN</t>
+          <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -11610,7 +11610,7 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>5640</v>
+        <v>3300</v>
       </c>
       <c r="E430" t="n">
         <v>10</v>
@@ -11622,12 +11622,12 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>701514AVT</t>
+          <t>804295AVT</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Радиатор Веста / Икс-Рэй</t>
+          <t>Подшипник выжимной 2101-2107</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -11636,7 +11636,7 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>4212</v>
+        <v>1070</v>
       </c>
       <c r="E431" t="n">
         <v>10</v>
@@ -11648,12 +11648,12 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>RD204AVT</t>
+          <t>804036AVT</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Радиатор двигатель паяный Hyundai Solaris / KIA RIO II (17-) 1.4i / 1.6i</t>
+          <t>Подшипник выжимной CITROEN/PEUGEOT</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -11662,7 +11662,7 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>5585</v>
+        <v>696</v>
       </c>
       <c r="E432" t="n">
         <v>10</v>
@@ -11674,12 +11674,12 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>RD026AVT</t>
+          <t>804299AVT</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Радиатор двигателя BMW X5 (E70) (07-) 30d/3.0t AT (паяный)</t>
+          <t>Подшипник выжимной PSA</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -11688,7 +11688,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>12251</v>
+        <v>720</v>
       </c>
       <c r="E433" t="n">
         <v>10</v>
@@ -11700,12 +11700,12 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>RD008AVT</t>
+          <t>804587AVT</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Радиатор двигателя CHEVROLET CRUZE (09-) 1.6-1.8i / ORLANDO (10-) 1.8i MT</t>
+          <t>Подшипник гидравлический RENAULT DUSTER 1.6</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -11714,7 +11714,7 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>5634</v>
+        <v>7200</v>
       </c>
       <c r="E434" t="n">
         <v>10</v>
@@ -11726,12 +11726,12 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>RD018AVT</t>
+          <t>804544AVT</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i AT</t>
+          <t>Подшипник гидравлический RENAULT/NISSAN</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -11740,7 +11740,7 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>6371</v>
+        <v>5640</v>
       </c>
       <c r="E435" t="n">
         <v>10</v>
@@ -11752,12 +11752,12 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>RD009AVT</t>
+          <t>804544AVT</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i MT</t>
+          <t>Подшипник гидравлический RENAULT/NISSAN</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -11766,7 +11766,7 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>5555</v>
+        <v>5640</v>
       </c>
       <c r="E436" t="n">
         <v>10</v>
@@ -11778,12 +11778,12 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>RD011AVT</t>
+          <t>701514AVT</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Chevrolet Lacetti (04-) 1.4i/1.6i/1.8i MT (сборный)</t>
+          <t>Радиатор Веста / Икс-Рэй</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -11792,7 +11792,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>4973</v>
+        <v>4212</v>
       </c>
       <c r="E437" t="n">
         <v>10</v>
@@ -11804,12 +11804,12 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>RD016AVT</t>
+          <t>RD204AVT</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Daewoo Matiz (01-) 0.8i/1.0i MT (сборный)</t>
+          <t>Радиатор двигатель паяный Hyundai Solaris / KIA RIO II (17-) 1.4i / 1.6i</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -11818,7 +11818,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>2898</v>
+        <v>5585</v>
       </c>
       <c r="E438" t="n">
         <v>10</v>
@@ -11830,12 +11830,12 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>RD023AVT</t>
+          <t>RD026AVT</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Daewoo Matiz (1998-) 0.8 MT (сборный)</t>
+          <t>Радиатор двигателя BMW X5 (E70) (07-) 30d/3.0t AT (паяный)</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -11844,7 +11844,7 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>3323</v>
+        <v>12251</v>
       </c>
       <c r="E439" t="n">
         <v>10</v>
@@ -11856,12 +11856,12 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>RD024AVT</t>
+          <t>RD008AVT</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Радиатор двигателя DAEWOO MATIZ (98-) 0.8i AT</t>
+          <t>Радиатор двигателя CHEVROLET CRUZE (09-) 1.6-1.8i / ORLANDO (10-) 1.8i MT</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -11870,7 +11870,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>4207</v>
+        <v>5634</v>
       </c>
       <c r="E440" t="n">
         <v>10</v>
@@ -11882,12 +11882,12 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>RD015AVT</t>
+          <t>RD018AVT</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Daewoo Nexia (94-) 1.5/1.8 MT (сборный)</t>
+          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i AT</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>3204</v>
+        <v>6371</v>
       </c>
       <c r="E441" t="n">
         <v>10</v>
@@ -11908,12 +11908,12 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>RD040AVT</t>
+          <t>RD009AVT</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Радиатор двигателя FORD FIESTA / FUSION (01-) 1.2-1.6i MT / AT</t>
+          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i MT</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -11922,7 +11922,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>2821</v>
+        <v>5555</v>
       </c>
       <c r="E442" t="n">
         <v>10</v>
@@ -11934,12 +11934,12 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>RD004AVT</t>
+          <t>RD011AVT</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Ford Focus II (05-) A/C+ (сборный)</t>
+          <t>Радиатор двигателя Chevrolet Lacetti (04-) 1.4i/1.6i/1.8i MT (сборный)</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -11948,7 +11948,7 @@
         </is>
       </c>
       <c r="D443" t="n">
-        <v>4726</v>
+        <v>4973</v>
       </c>
       <c r="E443" t="n">
         <v>10</v>
@@ -11960,12 +11960,12 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>RD048AVT</t>
+          <t>RD016AVT</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Радиатор двигателя FORD FOCUS III / C-MAX (11-) 1.6-2.0i MT / AT</t>
+          <t>Радиатор двигателя Daewoo Matiz (01-) 0.8i/1.0i MT (сборный)</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -11974,7 +11974,7 @@
         </is>
       </c>
       <c r="D444" t="n">
-        <v>6349</v>
+        <v>2898</v>
       </c>
       <c r="E444" t="n">
         <v>10</v>
@@ -11986,12 +11986,12 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>RD055AVT</t>
+          <t>RD023AVT</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Радиатор двигателя HYUNDAI SOLARIS (10-) / KIA RIO (10-) 1.4-1.6i 6AT</t>
+          <t>Радиатор двигателя Daewoo Matiz (1998-) 0.8 MT (сборный)</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -12000,7 +12000,7 @@
         </is>
       </c>
       <c r="D445" t="n">
-        <v>4195</v>
+        <v>3323</v>
       </c>
       <c r="E445" t="n">
         <v>10</v>
@@ -12012,12 +12012,12 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>RD001AVT</t>
+          <t>RD024AVT</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Радиатор двигателя HYUNDAI SOLARIS (RB) / KIA RIO III (UB) (11-) 1.4-1.6i MT</t>
+          <t>Радиатор двигателя DAEWOO MATIZ (98-) 0.8i AT</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -12026,7 +12026,7 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>3139</v>
+        <v>4207</v>
       </c>
       <c r="E446" t="n">
         <v>10</v>
@@ -12038,12 +12038,12 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>RD002AVT</t>
+          <t>RD015AVT</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Hyundai Solaris / Kia Rio (10-&gt;) AT (сборный)</t>
+          <t>Радиатор двигателя Daewoo Nexia (94-) 1.5/1.8 MT (сборный)</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -12052,7 +12052,7 @@
         </is>
       </c>
       <c r="D447" t="n">
-        <v>3203</v>
+        <v>3204</v>
       </c>
       <c r="E447" t="n">
         <v>10</v>
@@ -12064,12 +12064,12 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>RD057AVT</t>
+          <t>RD040AVT</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Радиатор двигателя HYUNDAI SOLARIS / KIA RIO (17-) 1.4-1.6i MT</t>
+          <t>Радиатор двигателя FORD FIESTA / FUSION (01-) 1.2-1.6i MT / AT</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -12078,7 +12078,7 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>3556</v>
+        <v>2821</v>
       </c>
       <c r="E448" t="n">
         <v>10</v>
@@ -12090,12 +12090,12 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>RD021AVT</t>
+          <t>RD004AVT</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA CEED (ED) (07-) 1.4-2.0i / HYUNDAI ELANTRA (HD) (06-) 1.6-2.0i / HYUNDAI i30</t>
+          <t>Радиатор двигателя Ford Focus II (05-) A/C+ (сборный)</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -12104,7 +12104,7 @@
         </is>
       </c>
       <c r="D449" t="n">
-        <v>4904</v>
+        <v>4726</v>
       </c>
       <c r="E449" t="n">
         <v>10</v>
@@ -12116,12 +12116,12 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>RD056AVT</t>
+          <t>RD048AVT</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA CEED / HYUNDAI i30 / ELANTRA IV (06-) 1.4-2.0i AT</t>
+          <t>Радиатор двигателя FORD FOCUS III / C-MAX (11-) 1.6-2.0i MT / AT</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -12130,7 +12130,7 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>6533</v>
+        <v>6349</v>
       </c>
       <c r="E450" t="n">
         <v>10</v>
@@ -12142,12 +12142,12 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>RD056AVT</t>
+          <t>RD055AVT</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA CEED / HYUNDAI i30 / ELANTRA IV (06-) 1.4-2.0i AT</t>
+          <t>Радиатор двигателя HYUNDAI SOLARIS (10-) / KIA RIO (10-) 1.4-1.6i 6AT</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -12156,7 +12156,7 @@
         </is>
       </c>
       <c r="D451" t="n">
-        <v>6533</v>
+        <v>4195</v>
       </c>
       <c r="E451" t="n">
         <v>10</v>
@@ -12168,12 +12168,12 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>RD087AVT</t>
+          <t>RD001AVT</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
+          <t>Радиатор двигателя HYUNDAI SOLARIS (RB) / KIA RIO III (UB) (11-) 1.4-1.6i MT</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -12182,10 +12182,10 @@
         </is>
       </c>
       <c r="D452" t="n">
-        <v>7403</v>
+        <v>3139</v>
       </c>
       <c r="E452" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F452" t="n">
         <v>1</v>
@@ -12194,12 +12194,12 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>RD087AVT</t>
+          <t>RD002AVT</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
+          <t>Радиатор двигателя Hyundai Solaris / Kia Rio (10-&gt;) AT (сборный)</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -12208,10 +12208,10 @@
         </is>
       </c>
       <c r="D453" t="n">
-        <v>7403</v>
+        <v>3203</v>
       </c>
       <c r="E453" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F453" t="n">
         <v>1</v>
@@ -12220,12 +12220,12 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>RD062AVT</t>
+          <t>RD057AVT</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia Spectra (96-) 1.5-1.8 AT</t>
+          <t>Радиатор двигателя HYUNDAI SOLARIS / KIA RIO (17-) 1.4-1.6i MT</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -12234,7 +12234,7 @@
         </is>
       </c>
       <c r="D454" t="n">
-        <v>5772</v>
+        <v>3556</v>
       </c>
       <c r="E454" t="n">
         <v>10</v>
@@ -12246,12 +12246,12 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>RD020AVT</t>
+          <t>RD021AVT</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i AT</t>
+          <t>Радиатор двигателя KIA CEED (ED) (07-) 1.4-2.0i / HYUNDAI ELANTRA (HD) (06-) 1.6-2.0i / HYUNDAI i30</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -12260,7 +12260,7 @@
         </is>
       </c>
       <c r="D455" t="n">
-        <v>6194</v>
+        <v>4904</v>
       </c>
       <c r="E455" t="n">
         <v>10</v>
@@ -12272,12 +12272,12 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>RD019AVT</t>
+          <t>RD056AVT</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i MT</t>
+          <t>Радиатор двигателя KIA CEED / HYUNDAI i30 / ELANTRA IV (06-) 1.4-2.0i AT</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -12286,7 +12286,7 @@
         </is>
       </c>
       <c r="D456" t="n">
-        <v>4888</v>
+        <v>6533</v>
       </c>
       <c r="E456" t="n">
         <v>10</v>
@@ -12298,12 +12298,12 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>RD028AVT</t>
+          <t>RD056AVT</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MB C (07-), E (-16), GLK (08-) 1.6-4.7i AT</t>
+          <t>Радиатор двигателя KIA CEED / HYUNDAI i30 / ELANTRA IV (06-) 1.4-2.0i AT</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -12312,7 +12312,7 @@
         </is>
       </c>
       <c r="D457" t="n">
-        <v>10615</v>
+        <v>6533</v>
       </c>
       <c r="E457" t="n">
         <v>10</v>
@@ -12324,12 +12324,12 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>RD029AVT</t>
+          <t>RD087AVT</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MB E (16-), GLC (15-), C (14-), S (13-) 2.0-4.0 MT / AT</t>
+          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -12338,7 +12338,7 @@
         </is>
       </c>
       <c r="D458" t="n">
-        <v>12114</v>
+        <v>7403</v>
       </c>
       <c r="E458" t="n">
         <v>10</v>
@@ -12350,12 +12350,12 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>RD027AVT</t>
+          <t>RD087AVT</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MB ML (12-) GL, GLS, GLE (-18) 2.2-5.5i AT</t>
+          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -12364,7 +12364,7 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>11959</v>
+        <v>7403</v>
       </c>
       <c r="E459" t="n">
         <v>10</v>
@@ -12376,12 +12376,12 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>RD005AVT</t>
+          <t>RD062AVT</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MITSUBISHI ASX (10-) 1.6-1.8i / OUTLANDER (07-) 2.0-2.4i / LANCER (07-) 1.5-2.0i</t>
+          <t>Радиатор двигателя Kia Spectra (96-) 1.5-1.8 AT</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -12390,7 +12390,7 @@
         </is>
       </c>
       <c r="D460" t="n">
-        <v>4110</v>
+        <v>5772</v>
       </c>
       <c r="E460" t="n">
         <v>10</v>
@@ -12402,12 +12402,12 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>RD060AVT</t>
+          <t>RD020AVT</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MITSUBISHI OUTLANDER III (12-) 2.0-3.0i MT / AT</t>
+          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i AT</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -12416,7 +12416,7 @@
         </is>
       </c>
       <c r="D461" t="n">
-        <v>7210</v>
+        <v>6194</v>
       </c>
       <c r="E461" t="n">
         <v>10</v>
@@ -12428,12 +12428,12 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>RD017AVT</t>
+          <t>RD019AVT</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Радиатор двигателя NISSAN QASHQAI (J10) (07-) 1.6-2.0i MT / AT</t>
+          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i MT</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -12442,7 +12442,7 @@
         </is>
       </c>
       <c r="D462" t="n">
-        <v>7289</v>
+        <v>4888</v>
       </c>
       <c r="E462" t="n">
         <v>10</v>
@@ -12454,12 +12454,12 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>RD063AVT</t>
+          <t>RD028AVT</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Nissan X-Trail (14-) 2.0-2.5</t>
+          <t>Радиатор двигателя MB C (07-), E (-16), GLK (08-) 1.6-4.7i AT</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -12468,7 +12468,7 @@
         </is>
       </c>
       <c r="D463" t="n">
-        <v>5864</v>
+        <v>10615</v>
       </c>
       <c r="E463" t="n">
         <v>10</v>
@@ -12480,12 +12480,12 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>RD014AVT</t>
+          <t>RD029AVT</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Радиатор двигателя OPEL ZAFIRA / ASTRA H (05-) 1.6-1.8i MT / AT</t>
+          <t>Радиатор двигателя MB E (16-), GLC (15-), C (14-), S (13-) 2.0-4.0 MT / AT</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -12494,7 +12494,7 @@
         </is>
       </c>
       <c r="D464" t="n">
-        <v>5726</v>
+        <v>12114</v>
       </c>
       <c r="E464" t="n">
         <v>10</v>
@@ -12506,12 +12506,12 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>RD003AVT</t>
+          <t>RD027AVT</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Renault Logan (04-) 1.4i/1.6i А/С+ (сборный)</t>
+          <t>Радиатор двигателя MB ML (12-) GL, GLS, GLE (-18) 2.2-5.5i AT</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -12520,7 +12520,7 @@
         </is>
       </c>
       <c r="D465" t="n">
-        <v>2794</v>
+        <v>11959</v>
       </c>
       <c r="E465" t="n">
         <v>10</v>
@@ -12532,12 +12532,12 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>RD058AVT</t>
+          <t>RD005AVT</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Радиатор двигателя RENAULT LOGAN / SANDERO / SYMBOL (04-) 1.4-1.6i / Lada LARGUS K7M 1.6i (12-) MT /</t>
+          <t>Радиатор двигателя MITSUBISHI ASX (10-) 1.6-1.8i / OUTLANDER (07-) 2.0-2.4i / LANCER (07-) 1.5-2.0i</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="D466" t="n">
-        <v>2893</v>
+        <v>4110</v>
       </c>
       <c r="E466" t="n">
         <v>10</v>
@@ -12558,12 +12558,12 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>RD013AVT</t>
+          <t>RD060AVT</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Skoda Octavia A5 (04-)/VW Golf V (03-) (сборный)</t>
+          <t>Радиатор двигателя MITSUBISHI OUTLANDER III (12-) 2.0-3.0i MT / AT</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -12572,7 +12572,7 @@
         </is>
       </c>
       <c r="D467" t="n">
-        <v>4436</v>
+        <v>7210</v>
       </c>
       <c r="E467" t="n">
         <v>10</v>
@@ -12584,12 +12584,12 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>RD007AVT</t>
+          <t>RD017AVT</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Радиатор двигателя TOYOTA AURIS (E15) (07-) / (E18) (12-) 1.3-1.6i / AVENSIS (T27) (08-) 1.6-2.0i /</t>
+          <t>Радиатор двигателя NISSAN QASHQAI (J10) (07-) 1.6-2.0i MT / AT</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -12598,7 +12598,7 @@
         </is>
       </c>
       <c r="D468" t="n">
-        <v>5714</v>
+        <v>7289</v>
       </c>
       <c r="E468" t="n">
         <v>10</v>
@@ -12610,12 +12610,12 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>RD025AVT</t>
+          <t>RD063AVT</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Радиатор двигателя TOYOTA CAMRY (11-16) 2.5-3.5i AT</t>
+          <t>Радиатор двигателя Nissan X-Trail (14-) 2.0-2.5</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -12624,7 +12624,7 @@
         </is>
       </c>
       <c r="D469" t="n">
-        <v>7470</v>
+        <v>5864</v>
       </c>
       <c r="E469" t="n">
         <v>10</v>
@@ -12636,12 +12636,12 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>RD050AVT</t>
+          <t>RD014AVT</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota LC200 (08-) 4.5D</t>
+          <t>Радиатор двигателя OPEL ZAFIRA / ASTRA H (05-) 1.6-1.8i MT / AT</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -12650,10 +12650,10 @@
         </is>
       </c>
       <c r="D470" t="n">
-        <v>12649</v>
+        <v>5726</v>
       </c>
       <c r="E470" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F470" t="n">
         <v>1</v>
@@ -12662,12 +12662,12 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>RD050AVT</t>
+          <t>RD003AVT</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota LC200 (08-) 4.5D</t>
+          <t>Радиатор двигателя Renault Logan (04-) 1.4i/1.6i А/С+ (сборный)</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -12676,10 +12676,10 @@
         </is>
       </c>
       <c r="D471" t="n">
-        <v>12649</v>
+        <v>2794</v>
       </c>
       <c r="E471" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F471" t="n">
         <v>1</v>
@@ -12688,12 +12688,12 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>RD010AVT</t>
+          <t>RD058AVT</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota RAV 4 (06-&gt;)/RAV 4 (13-&gt;) 2.0i MT/AT (сборный)</t>
+          <t>Радиатор двигателя RENAULT LOGAN / SANDERO / SYMBOL (04-) 1.4-1.6i / Lada LARGUS K7M 1.6i (12-) MT /</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -12702,7 +12702,7 @@
         </is>
       </c>
       <c r="D472" t="n">
-        <v>5429</v>
+        <v>2893</v>
       </c>
       <c r="E472" t="n">
         <v>10</v>
@@ -12714,12 +12714,12 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>RD006AVT</t>
+          <t>RD013AVT</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Радиатор двигателя VW Polo Sedan (10-)/(20-)/Skoda Rapid (12-)/(20-) (сборный)</t>
+          <t>Радиатор двигателя Skoda Octavia A5 (04-)/VW Golf V (03-) (сборный)</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -12728,7 +12728,7 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>3888</v>
+        <v>4436</v>
       </c>
       <c r="E473" t="n">
         <v>10</v>
@@ -12740,12 +12740,12 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>RD221AVT</t>
+          <t>RD007AVT</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Audi A4/А6 (94-) 1.6i, 1.8i, 1.9TDi, 1.8T</t>
+          <t>Радиатор двигателя TOYOTA AURIS (E15) (07-) / (E18) (12-) 1.3-1.6i / AVENSIS (T27) (08-) 1.6-2.0i /</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -12754,7 +12754,7 @@
         </is>
       </c>
       <c r="D474" t="n">
-        <v>6386</v>
+        <v>5714</v>
       </c>
       <c r="E474" t="n">
         <v>10</v>
@@ -12766,12 +12766,12 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>RD302AVT</t>
+          <t>RD025AVT</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Ford Ranger (98-) 2.5TDi</t>
+          <t>Радиатор двигателя TOYOTA CAMRY (11-16) 2.5-3.5i AT</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -12780,7 +12780,7 @@
         </is>
       </c>
       <c r="D475" t="n">
-        <v>6724</v>
+        <v>7470</v>
       </c>
       <c r="E475" t="n">
         <v>10</v>
@@ -12792,12 +12792,12 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>RD220AVT</t>
+          <t>RD050AVT</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Honda CR-V III (06-) 2.0i</t>
+          <t>Радиатор двигателя Toyota LC200 (08-) 4.5D</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -12806,7 +12806,7 @@
         </is>
       </c>
       <c r="D476" t="n">
-        <v>6842</v>
+        <v>12649</v>
       </c>
       <c r="E476" t="n">
         <v>10</v>
@@ -12818,12 +12818,12 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>RD225AVT</t>
+          <t>RD050AVT</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Hyundai Santa Fe II (06-) 2.2CRDi</t>
+          <t>Радиатор двигателя Toyota LC200 (08-) 4.5D</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -12832,7 +12832,7 @@
         </is>
       </c>
       <c r="D477" t="n">
-        <v>8759</v>
+        <v>12649</v>
       </c>
       <c r="E477" t="n">
         <v>10</v>
@@ -12844,12 +12844,12 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>RD274AVT</t>
+          <t>RD010AVT</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i, 2.0i AT</t>
+          <t>Радиатор двигателя Toyota RAV 4 (06-&gt;)/RAV 4 (13-&gt;) 2.0i MT/AT (сборный)</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -12858,7 +12858,7 @@
         </is>
       </c>
       <c r="D478" t="n">
-        <v>8366</v>
+        <v>5429</v>
       </c>
       <c r="E478" t="n">
         <v>10</v>
@@ -12870,12 +12870,12 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>RD207AVT</t>
+          <t>RD006AVT</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i, 2.0i MT</t>
+          <t>Радиатор двигателя VW Polo Sedan (10-)/(20-)/Skoda Rapid (12-)/(20-) (сборный)</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -12884,7 +12884,7 @@
         </is>
       </c>
       <c r="D479" t="n">
-        <v>7973</v>
+        <v>3888</v>
       </c>
       <c r="E479" t="n">
         <v>10</v>
@@ -12896,12 +12896,12 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>RD230AVT</t>
+          <t>RD221AVT</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Mitsubishi Outlander I (03-) 2.0i, 2.4i</t>
+          <t>Радиатор двигателя паяный Audi A4/А6 (94-) 1.6i, 1.8i, 1.9TDi, 1.8T</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -12910,7 +12910,7 @@
         </is>
       </c>
       <c r="D480" t="n">
-        <v>6593</v>
+        <v>6386</v>
       </c>
       <c r="E480" t="n">
         <v>10</v>
@@ -12922,12 +12922,12 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>RD211AVT</t>
+          <t>RD302AVT</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Nissan Almera Classic B10 (06-) 1.6i</t>
+          <t>Радиатор двигателя паяный Ford Ranger (98-) 2.5TDi</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -12936,7 +12936,7 @@
         </is>
       </c>
       <c r="D481" t="n">
-        <v>5980</v>
+        <v>6724</v>
       </c>
       <c r="E481" t="n">
         <v>10</v>
@@ -12948,12 +12948,12 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>RD264AVT</t>
+          <t>RD220AVT</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Nissan X-Trail T30 (01-) 2.0i, 2.5i</t>
+          <t>Радиатор двигателя паяный Honda CR-V III (06-) 2.0i</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -12962,7 +12962,7 @@
         </is>
       </c>
       <c r="D482" t="n">
-        <v>5741</v>
+        <v>6842</v>
       </c>
       <c r="E482" t="n">
         <v>10</v>
@@ -12974,12 +12974,12 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>RD205AVT</t>
+          <t>RD225AVT</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Skoda Octavia/Kodiaq A7 (13-) 1.2TSi, 1.4TSi, 1.6TDi, 2.0TDi</t>
+          <t>Радиатор двигателя паяный Hyundai Santa Fe II (06-) 2.2CRDi</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -12988,7 +12988,7 @@
         </is>
       </c>
       <c r="D483" t="n">
-        <v>5630</v>
+        <v>8759</v>
       </c>
       <c r="E483" t="n">
         <v>10</v>
@@ -13000,12 +13000,12 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>RD217AVT</t>
+          <t>RD274AVT</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Suzuki SX4 I (06-) 1.6i</t>
+          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i, 2.0i AT</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -13014,7 +13014,7 @@
         </is>
       </c>
       <c r="D484" t="n">
-        <v>7183</v>
+        <v>8366</v>
       </c>
       <c r="E484" t="n">
         <v>10</v>
@@ -13026,12 +13026,12 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>RD059AVT</t>
+          <t>RD207AVT</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный VW PASSAT B6 / B7 JETTA III /IV / TIGUAN / TOURAN / SKODA OCTAVIA II / SUP</t>
+          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i, 2.0i MT</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -13040,7 +13040,7 @@
         </is>
       </c>
       <c r="D485" t="n">
-        <v>6286</v>
+        <v>7973</v>
       </c>
       <c r="E485" t="n">
         <v>10</v>
@@ -13052,12 +13052,12 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>RD250AVT</t>
+          <t>RD230AVT</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Радиатор двигателя сборный Chevrolet Rezzo (00-) 1.6i, 1.8i</t>
+          <t>Радиатор двигателя паяный Mitsubishi Outlander I (03-) 2.0i, 2.4i</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -13066,7 +13066,7 @@
         </is>
       </c>
       <c r="D486" t="n">
-        <v>5549</v>
+        <v>6593</v>
       </c>
       <c r="E486" t="n">
         <v>10</v>
@@ -13078,12 +13078,12 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>RD012AVT</t>
+          <t>RD211AVT</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Радиатор двигателя сборный VW Jetta (05)/(11-)/Skoda Octavia A5 (04-)</t>
+          <t>Радиатор двигателя паяный Nissan Almera Classic B10 (06-) 1.6i</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -13092,7 +13092,7 @@
         </is>
       </c>
       <c r="D487" t="n">
-        <v>4106</v>
+        <v>5980</v>
       </c>
       <c r="E487" t="n">
         <v>10</v>
@@ -13104,12 +13104,12 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>735634AVT</t>
+          <t>RD264AVT</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Радиатор Рено Логан II</t>
+          <t>Радиатор двигателя паяный Nissan X-Trail T30 (01-) 2.0i, 2.5i</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -13118,7 +13118,7 @@
         </is>
       </c>
       <c r="D488" t="n">
-        <v>3834</v>
+        <v>5741</v>
       </c>
       <c r="E488" t="n">
         <v>10</v>
@@ -13130,12 +13130,12 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>438544AVT</t>
+          <t>RD205AVT</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Стартер Renault Arkana</t>
+          <t>Радиатор двигателя паяный Skoda Octavia/Kodiaq A7 (13-) 1.2TSi, 1.4TSi, 1.6TDi, 2.0TDi</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -13144,7 +13144,7 @@
         </is>
       </c>
       <c r="D489" t="n">
-        <v>6600</v>
+        <v>5630</v>
       </c>
       <c r="E489" t="n">
         <v>10</v>
@@ -13156,12 +13156,12 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>438545AVT</t>
+          <t>RD217AVT</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Стартер Toyota Camry / Rav4</t>
+          <t>Радиатор двигателя паяный Suzuki SX4 I (06-) 1.6i</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -13170,7 +13170,7 @@
         </is>
       </c>
       <c r="D490" t="n">
-        <v>6600</v>
+        <v>7183</v>
       </c>
       <c r="E490" t="n">
         <v>10</v>
@@ -13182,12 +13182,12 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>438286AVT</t>
+          <t>RD059AVT</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Стартер Гранта АКПП</t>
+          <t>Радиатор двигателя паяный VW PASSAT B6 / B7 JETTA III /IV / TIGUAN / TOURAN / SKODA OCTAVIA II / SUP</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="D491" t="n">
-        <v>5916</v>
+        <v>6286</v>
       </c>
       <c r="E491" t="n">
         <v>10</v>
@@ -13208,12 +13208,12 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>438286AVT</t>
+          <t>RD250AVT</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Стартер Гранта АКПП</t>
+          <t>Радиатор двигателя сборный Chevrolet Rezzo (00-) 1.6i, 1.8i</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -13222,7 +13222,7 @@
         </is>
       </c>
       <c r="D492" t="n">
-        <v>5916</v>
+        <v>5549</v>
       </c>
       <c r="E492" t="n">
         <v>10</v>
@@ -13234,12 +13234,12 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>438285AVT</t>
+          <t>RD012AVT</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Стартер Гранта МКПП</t>
+          <t>Радиатор двигателя сборный VW Jetta (05)/(11-)/Skoda Octavia A5 (04-)</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -13248,7 +13248,7 @@
         </is>
       </c>
       <c r="D493" t="n">
-        <v>5820</v>
+        <v>4106</v>
       </c>
       <c r="E493" t="n">
         <v>10</v>
@@ -13260,12 +13260,12 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>438327AVT</t>
+          <t>735634AVT</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Стартер Рено F4R</t>
+          <t>Радиатор Рено Логан II</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -13274,7 +13274,7 @@
         </is>
       </c>
       <c r="D494" t="n">
-        <v>8400</v>
+        <v>3834</v>
       </c>
       <c r="E494" t="n">
         <v>10</v>
@@ -13286,12 +13286,12 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>438324AVT</t>
+          <t>438544AVT</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Стартер Рено H4M</t>
+          <t>Стартер Renault Arkana</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -13300,7 +13300,7 @@
         </is>
       </c>
       <c r="D495" t="n">
-        <v>5964</v>
+        <v>6600</v>
       </c>
       <c r="E495" t="n">
         <v>10</v>
@@ -13312,12 +13312,12 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>438328AVT</t>
+          <t>438545AVT</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Стартер Рено K4M</t>
+          <t>Стартер Toyota Camry / Rav4</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -13326,7 +13326,7 @@
         </is>
       </c>
       <c r="D496" t="n">
-        <v>7200</v>
+        <v>6600</v>
       </c>
       <c r="E496" t="n">
         <v>10</v>
@@ -13338,12 +13338,12 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>438328AVT</t>
+          <t>438285AVT</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Стартер Рено K4M</t>
+          <t>Стартер Гранта МКПП</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -13352,7 +13352,7 @@
         </is>
       </c>
       <c r="D497" t="n">
-        <v>7200</v>
+        <v>5820</v>
       </c>
       <c r="E497" t="n">
         <v>10</v>
@@ -13364,12 +13364,12 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>FC001AVT</t>
+          <t>438327AVT</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Фильтр отопителя LADA VESTA</t>
+          <t>Стартер Рено F4R</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -13378,7 +13378,7 @@
         </is>
       </c>
       <c r="D498" t="n">
-        <v>420</v>
+        <v>8400</v>
       </c>
       <c r="E498" t="n">
         <v>10</v>
@@ -13390,12 +13390,12 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>252.5215900-14</t>
+          <t>438324AVT</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 350 мм</t>
+          <t>Стартер Рено H4M</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -13404,7 +13404,7 @@
         </is>
       </c>
       <c r="D499" t="n">
-        <v>518</v>
+        <v>5964</v>
       </c>
       <c r="E499" t="n">
         <v>10</v>
@@ -13416,12 +13416,12 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>252.5215900-16</t>
+          <t>438328AVT</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 400 мм</t>
+          <t>Стартер Рено K4M</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -13430,7 +13430,7 @@
         </is>
       </c>
       <c r="D500" t="n">
-        <v>552</v>
+        <v>7200</v>
       </c>
       <c r="E500" t="n">
         <v>10</v>
@@ -13442,12 +13442,12 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>252.5215900-17</t>
+          <t>438328AVT</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 430 мм</t>
+          <t>Стартер Рено K4M</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -13456,7 +13456,7 @@
         </is>
       </c>
       <c r="D501" t="n">
-        <v>552</v>
+        <v>7200</v>
       </c>
       <c r="E501" t="n">
         <v>10</v>
@@ -13468,12 +13468,12 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>252.5215900-18</t>
+          <t>FC001AVT</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 450 мм</t>
+          <t>Фильтр отопителя LADA VESTA</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -13482,7 +13482,7 @@
         </is>
       </c>
       <c r="D502" t="n">
-        <v>552</v>
+        <v>420</v>
       </c>
       <c r="E502" t="n">
         <v>10</v>
@@ -13494,12 +13494,12 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>252.5215900-20</t>
+          <t>252.5215900-14</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 500 мм</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 350 мм</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -13508,7 +13508,7 @@
         </is>
       </c>
       <c r="D503" t="n">
-        <v>582</v>
+        <v>518</v>
       </c>
       <c r="E503" t="n">
         <v>10</v>
@@ -13520,12 +13520,12 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>252.5215900-22</t>
+          <t>252.5215900-16</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 550 мм</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 400 мм</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -13534,7 +13534,7 @@
         </is>
       </c>
       <c r="D504" t="n">
-        <v>582</v>
+        <v>552</v>
       </c>
       <c r="E504" t="n">
         <v>10</v>
@@ -13546,12 +13546,12 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>252.5215900-24</t>
+          <t>252.5215900-17</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 600 мм</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 430 мм</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -13560,7 +13560,7 @@
         </is>
       </c>
       <c r="D505" t="n">
-        <v>641</v>
+        <v>552</v>
       </c>
       <c r="E505" t="n">
         <v>10</v>
@@ -13572,12 +13572,12 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>252.5215900-26</t>
+          <t>252.5215900-18</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 650 мм</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 450 мм</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="D506" t="n">
-        <v>672</v>
+        <v>552</v>
       </c>
       <c r="E506" t="n">
         <v>10</v>
@@ -13598,12 +13598,12 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>25.5215900-13</t>
+          <t>252.5215900-20</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 330 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 500 мм</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -13612,7 +13612,7 @@
         </is>
       </c>
       <c r="D507" t="n">
-        <v>299</v>
+        <v>582</v>
       </c>
       <c r="E507" t="n">
         <v>10</v>
@@ -13624,12 +13624,12 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>25.5215900-14</t>
+          <t>252.5215900-22</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 350 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 550 мм</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -13638,7 +13638,7 @@
         </is>
       </c>
       <c r="D508" t="n">
-        <v>299</v>
+        <v>582</v>
       </c>
       <c r="E508" t="n">
         <v>10</v>
@@ -13650,12 +13650,12 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>25.5215900-16</t>
+          <t>252.5215900-24</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 400 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 600 мм</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -13664,7 +13664,7 @@
         </is>
       </c>
       <c r="D509" t="n">
-        <v>334</v>
+        <v>641</v>
       </c>
       <c r="E509" t="n">
         <v>10</v>
@@ -13676,12 +13676,12 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>25.5215900-17</t>
+          <t>252.5215900-26</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 430 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 650 мм</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -13690,7 +13690,7 @@
         </is>
       </c>
       <c r="D510" t="n">
-        <v>334</v>
+        <v>672</v>
       </c>
       <c r="E510" t="n">
         <v>10</v>
@@ -13702,12 +13702,12 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>25.5215900-18</t>
+          <t>25.5215900-13</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 450 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 330 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -13716,7 +13716,7 @@
         </is>
       </c>
       <c r="D511" t="n">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="E511" t="n">
         <v>10</v>
@@ -13728,12 +13728,12 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>25.5215900-19</t>
+          <t>25.5215900-14</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 480 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 350 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -13742,7 +13742,7 @@
         </is>
       </c>
       <c r="D512" t="n">
-        <v>334</v>
+        <v>299</v>
       </c>
       <c r="E512" t="n">
         <v>10</v>
@@ -13754,12 +13754,12 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>25.5215900-20</t>
+          <t>25.5215900-16</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 500 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 400 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -13768,7 +13768,7 @@
         </is>
       </c>
       <c r="D513" t="n">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="E513" t="n">
         <v>10</v>
@@ -13780,12 +13780,12 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>25.5215900-21</t>
+          <t>25.5215900-17</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 530 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 430 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -13794,7 +13794,7 @@
         </is>
       </c>
       <c r="D514" t="n">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="E514" t="n">
         <v>10</v>
@@ -13806,12 +13806,12 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>25.5215900-22</t>
+          <t>25.5215900-18</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 550 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 450 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -13820,7 +13820,7 @@
         </is>
       </c>
       <c r="D515" t="n">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="E515" t="n">
         <v>10</v>
@@ -13832,12 +13832,12 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>25.5215900-24</t>
+          <t>25.5215900-19</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 600 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 480 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="D516" t="n">
-        <v>386</v>
+        <v>334</v>
       </c>
       <c r="E516" t="n">
         <v>10</v>
@@ -13858,12 +13858,12 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>25.5215900-26</t>
+          <t>25.5215900-20</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 650 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 500 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -13872,7 +13872,7 @@
         </is>
       </c>
       <c r="D517" t="n">
-        <v>406</v>
+        <v>352</v>
       </c>
       <c r="E517" t="n">
         <v>10</v>
@@ -13884,12 +13884,12 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>25.5215900-28</t>
+          <t>25.5215900-21</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 700 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 530 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -13898,7 +13898,7 @@
         </is>
       </c>
       <c r="D518" t="n">
-        <v>406</v>
+        <v>352</v>
       </c>
       <c r="E518" t="n">
         <v>10</v>
@@ -13910,12 +13910,12 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>СЛ136Е-5205900-01</t>
+          <t>25.5215900-22</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 410 мм, тип крепления "Hook" ("Крюк") и "Bayonet" ("Штыковой замо</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 550 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -13924,7 +13924,7 @@
         </is>
       </c>
       <c r="D519" t="n">
-        <v>144</v>
+        <v>352</v>
       </c>
       <c r="E519" t="n">
         <v>10</v>
@@ -13936,12 +13936,12 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>23.5215900-01</t>
+          <t>25.5215900-24</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 475 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 600 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -13950,7 +13950,7 @@
         </is>
       </c>
       <c r="D520" t="n">
-        <v>144</v>
+        <v>386</v>
       </c>
       <c r="E520" t="n">
         <v>10</v>
@@ -13962,12 +13962,12 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>49.5205900-01</t>
+          <t>25.5215900-26</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 500 мм, тип крепления "Hook" ("Крюк") и "Bayonet" ("Штыковой замо</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 650 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -13976,7 +13976,7 @@
         </is>
       </c>
       <c r="D521" t="n">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="E521" t="n">
         <v>10</v>
@@ -13988,12 +13988,12 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>731.5205900-01</t>
+          <t>25.5215900-28</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 525 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 700 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -14002,7 +14002,7 @@
         </is>
       </c>
       <c r="D522" t="n">
-        <v>287</v>
+        <v>406</v>
       </c>
       <c r="E522" t="n">
         <v>10</v>
@@ -14014,12 +14014,12 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>11.5215900-01</t>
+          <t>СЛ136Е-5205900-01</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 550 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, каркасная, 410 мм, тип крепления "Hook" ("Крюк") и "Bayonet" ("Штыковой замо</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -14028,7 +14028,7 @@
         </is>
       </c>
       <c r="D523" t="n">
-        <v>295</v>
+        <v>144</v>
       </c>
       <c r="E523" t="n">
         <v>10</v>
@@ -14040,12 +14040,12 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>93.5205900-01</t>
+          <t>23.5215900-01</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 600 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, каркасная, 475 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -14066,12 +14066,12 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>251.5215900-15</t>
+          <t>49.5205900-01</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 380 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, каркасная, 500 мм, тип крепления "Hook" ("Крюк") и "Bayonet" ("Штыковой замо</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -14080,7 +14080,7 @@
         </is>
       </c>
       <c r="D525" t="n">
-        <v>426</v>
+        <v>366</v>
       </c>
       <c r="E525" t="n">
         <v>10</v>
@@ -14092,12 +14092,12 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>251.5215900-16</t>
+          <t>731.5205900-01</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 400 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, каркасная, 525 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -14106,7 +14106,7 @@
         </is>
       </c>
       <c r="D526" t="n">
-        <v>426</v>
+        <v>287</v>
       </c>
       <c r="E526" t="n">
         <v>10</v>
@@ -14118,12 +14118,12 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>251.5215900-17</t>
+          <t>11.5215900-01</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 430 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, каркасная, 550 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -14132,7 +14132,7 @@
         </is>
       </c>
       <c r="D527" t="n">
-        <v>426</v>
+        <v>295</v>
       </c>
       <c r="E527" t="n">
         <v>10</v>
@@ -14144,12 +14144,12 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>251.5215900-18</t>
+          <t>93.5205900-01</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 450 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, каркасная, 600 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -14158,7 +14158,7 @@
         </is>
       </c>
       <c r="D528" t="n">
-        <v>426</v>
+        <v>144</v>
       </c>
       <c r="E528" t="n">
         <v>10</v>
@@ -14170,12 +14170,12 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>251.5215900-19</t>
+          <t>251.5215900-15</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 480 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 380 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -14196,12 +14196,12 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>251.5215900-20</t>
+          <t>251.5215900-16</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 500 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 400 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -14210,7 +14210,7 @@
         </is>
       </c>
       <c r="D530" t="n">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="E530" t="n">
         <v>10</v>
@@ -14222,12 +14222,12 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>251.5215900-24</t>
+          <t>251.5215900-17</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 600 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 430 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -14236,7 +14236,7 @@
         </is>
       </c>
       <c r="D531" t="n">
-        <v>492</v>
+        <v>426</v>
       </c>
       <c r="E531" t="n">
         <v>10</v>
@@ -14248,12 +14248,12 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>251.5215900-26</t>
+          <t>251.5215900-18</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 650 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 450 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -14262,7 +14262,7 @@
         </is>
       </c>
       <c r="D532" t="n">
-        <v>518</v>
+        <v>426</v>
       </c>
       <c r="E532" t="n">
         <v>10</v>
@@ -14274,26 +14274,234 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
+          <t>251.5215900-19</t>
+        </is>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 480 мм, в комплекте 9 адаптеров</t>
+        </is>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D533" t="n">
+        <v>426</v>
+      </c>
+      <c r="E533" t="n">
+        <v>10</v>
+      </c>
+      <c r="F533" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>251.5215900-20</t>
+        </is>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 500 мм, в комплекте 9 адаптеров</t>
+        </is>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D534" t="n">
+        <v>448</v>
+      </c>
+      <c r="E534" t="n">
+        <v>10</v>
+      </c>
+      <c r="F534" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>251.5215900-24</t>
+        </is>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 600 мм, в комплекте 9 адаптеров</t>
+        </is>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D535" t="n">
+        <v>492</v>
+      </c>
+      <c r="E535" t="n">
+        <v>10</v>
+      </c>
+      <c r="F535" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>251.5215900-26</t>
+        </is>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 650 мм, в комплекте 9 адаптеров</t>
+        </is>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D536" t="n">
+        <v>518</v>
+      </c>
+      <c r="E536" t="n">
+        <v>10</v>
+      </c>
+      <c r="F536" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>595863AVT</t>
+        </is>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>Щеткодержатель стартера</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D537" t="n">
+        <v>720</v>
+      </c>
+      <c r="E537" t="n">
+        <v>10</v>
+      </c>
+      <c r="F537" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>595863AVT</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>Щеткодержатель стартера</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D538" t="n">
+        <v>720</v>
+      </c>
+      <c r="E538" t="n">
+        <v>10</v>
+      </c>
+      <c r="F538" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>595845AVT</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>Щеткодержатель стартера  LADA VESTA</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D539" t="n">
+        <v>720</v>
+      </c>
+      <c r="E539" t="n">
+        <v>10</v>
+      </c>
+      <c r="F539" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>595845AVT</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>Щеткодержатель стартера  LADA VESTA</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D540" t="n">
+        <v>720</v>
+      </c>
+      <c r="E540" t="n">
+        <v>10</v>
+      </c>
+      <c r="F540" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
           <t>595842AVT</t>
         </is>
       </c>
-      <c r="B533" t="inlineStr">
+      <c r="B541" t="inlineStr">
         <is>
           <t>Якорь стартера</t>
         </is>
       </c>
-      <c r="C533" t="inlineStr">
-        <is>
-          <t>AVTOPRIBOR</t>
-        </is>
-      </c>
-      <c r="D533" t="n">
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>AVTOPRIBOR</t>
+        </is>
+      </c>
+      <c r="D541" t="n">
         <v>1416</v>
       </c>
-      <c r="E533" t="n">
-        <v>10</v>
-      </c>
-      <c r="F533" t="n">
+      <c r="E541" t="n">
+        <v>10</v>
+      </c>
+      <c r="F541" t="n">
         <v>1</v>
       </c>
     </row>

--- a/price_for_emex.xlsx
+++ b/price_for_emex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F521"/>
+  <dimension ref="A1:F520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6231,7 +6231,7 @@
         <v>4667</v>
       </c>
       <c r="E223" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F223" t="n">
         <v>1</v>
@@ -10530,12 +10530,12 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>826299AVT</t>
+          <t>801515AVT</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Hyundai Sonata IV (98-) 2.0</t>
+          <t>Комплект сцепления с подшипником Nissan Almera N16 (00-04) 1.5</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -10544,10 +10544,10 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>8519</v>
+        <v>4482</v>
       </c>
       <c r="E389" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F389" t="n">
         <v>1</v>
@@ -10556,12 +10556,12 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>801515AVT</t>
+          <t>826211AVT</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Nissan Almera N16 (00-04) 1.5</t>
+          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 306 (97-) / Partner (96-) 1.4-1.6</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -10570,10 +10570,10 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>4482</v>
+        <v>3830</v>
       </c>
       <c r="E390" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F390" t="n">
         <v>1</v>
@@ -10582,12 +10582,12 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>826211AVT</t>
+          <t>821340AVT</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 306 (97-) / Partner (96-) 1.4-1.6</t>
+          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 307 (00-) 1.1-1.4</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -10596,10 +10596,10 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>3830</v>
+        <v>3912</v>
       </c>
       <c r="E391" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F391" t="n">
         <v>1</v>
@@ -10608,12 +10608,12 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>821340AVT</t>
+          <t>826213AVT</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 307 (00-) 1.1-1.4</t>
+          <t>Комплект сцепления с подшипником Peugeot 307 (00-)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -10622,7 +10622,7 @@
         </is>
       </c>
       <c r="D392" t="n">
-        <v>3912</v>
+        <v>3749</v>
       </c>
       <c r="E392" t="n">
         <v>10</v>
@@ -10634,12 +10634,12 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>826213AVT</t>
+          <t>821183AVT</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Peugeot 307 (00-)</t>
+          <t>Комплект сцепления с подшипником Renault Logan (04-)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -10648,7 +10648,7 @@
         </is>
       </c>
       <c r="D393" t="n">
-        <v>3749</v>
+        <v>3830</v>
       </c>
       <c r="E393" t="n">
         <v>10</v>
@@ -10660,12 +10660,12 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>821183AVT</t>
+          <t>826577AVT</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Renault Logan (04-)</t>
+          <t>Комплект сцепления с подшипником Renault Logan I 1.4 (04-)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -10674,7 +10674,7 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>3830</v>
+        <v>4662</v>
       </c>
       <c r="E394" t="n">
         <v>10</v>
@@ -10686,12 +10686,12 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>826577AVT</t>
+          <t>828009AVT</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Renault Logan I 1.4 (04-)</t>
+          <t>Комплект сцепления с подшипником UAZ 3151 / 3160 (ZMZ 409)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -10700,7 +10700,7 @@
         </is>
       </c>
       <c r="D395" t="n">
-        <v>4662</v>
+        <v>5112</v>
       </c>
       <c r="E395" t="n">
         <v>10</v>
@@ -10738,12 +10738,12 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>828009AVT</t>
+          <t>826326AVT</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником UAZ 3151 / 3160 (ZMZ 409)</t>
+          <t>Комплект сцепления с подшипником VW Polo Sedan (10-)</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -10752,7 +10752,7 @@
         </is>
       </c>
       <c r="D397" t="n">
-        <v>5112</v>
+        <v>5297</v>
       </c>
       <c r="E397" t="n">
         <v>10</v>
@@ -10764,12 +10764,12 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>826326AVT</t>
+          <t>CD044AVT</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником VW Polo Sedan (10-)</t>
+          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.0</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -10778,7 +10778,7 @@
         </is>
       </c>
       <c r="D398" t="n">
-        <v>5297</v>
+        <v>5124</v>
       </c>
       <c r="E398" t="n">
         <v>10</v>
@@ -10790,12 +10790,12 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>CD044AVT</t>
+          <t>CD046AVT</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.0</t>
+          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.2</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -10804,7 +10804,7 @@
         </is>
       </c>
       <c r="D399" t="n">
-        <v>5124</v>
+        <v>5364</v>
       </c>
       <c r="E399" t="n">
         <v>10</v>
@@ -10816,12 +10816,12 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>CD046AVT</t>
+          <t>CD036AVT</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.2</t>
+          <t>Конденсор Chevrolet Aveo T300 (11-) 1.2-1.6</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -10830,7 +10830,7 @@
         </is>
       </c>
       <c r="D400" t="n">
-        <v>5364</v>
+        <v>4404</v>
       </c>
       <c r="E400" t="n">
         <v>10</v>
@@ -10842,12 +10842,12 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>CD036AVT</t>
+          <t>CD047AVT</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Конденсор Chevrolet Aveo T300 (11-) 1.2-1.6</t>
+          <t>Конденсор Chevrolet Captiva / Opel Antara (06-) 2.0-2.2D</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -10856,7 +10856,7 @@
         </is>
       </c>
       <c r="D401" t="n">
-        <v>4404</v>
+        <v>4788</v>
       </c>
       <c r="E401" t="n">
         <v>10</v>
@@ -10868,12 +10868,12 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>CD047AVT</t>
+          <t>CD048AVT</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Конденсор Chevrolet Captiva / Opel Antara (06-) 2.0-2.2D</t>
+          <t>Конденсор Chevrolet Cruze / Opel Astra J (09-) 1.4-1.8</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -10882,7 +10882,7 @@
         </is>
       </c>
       <c r="D402" t="n">
-        <v>4788</v>
+        <v>3900</v>
       </c>
       <c r="E402" t="n">
         <v>10</v>
@@ -10894,12 +10894,12 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>CD048AVT</t>
+          <t>CD033AVT</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Конденсор Chevrolet Cruze / Opel Astra J (09-) 1.4-1.8</t>
+          <t>Конденсор Ford Focus II (05-) / Volvo S40 (04-) 1.4-2.0</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -10908,7 +10908,7 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>3900</v>
+        <v>4044</v>
       </c>
       <c r="E403" t="n">
         <v>10</v>
@@ -10920,12 +10920,12 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>CD033AVT</t>
+          <t>CD037AVT</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Конденсор Ford Focus II (05-) / Volvo S40 (04-) 1.4-2.0</t>
+          <t>Конденсор Ford Mondeo (07-) / Volvo XC60 (08-) / XC70 (07-) / S80 (06-) 1.6-2.5</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -10934,7 +10934,7 @@
         </is>
       </c>
       <c r="D404" t="n">
-        <v>4044</v>
+        <v>5388</v>
       </c>
       <c r="E404" t="n">
         <v>10</v>
@@ -10946,12 +10946,12 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>CD037AVT</t>
+          <t>CD038AVT</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Конденсор Ford Mondeo (07-) / Volvo XC60 (08-) / XC70 (07-) / S80 (06-) 1.6-2.5</t>
+          <t>Конденсор Hyundai Accent II (99-) MT 1.3-1.6</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -10960,7 +10960,7 @@
         </is>
       </c>
       <c r="D405" t="n">
-        <v>5388</v>
+        <v>3708</v>
       </c>
       <c r="E405" t="n">
         <v>10</v>
@@ -10972,12 +10972,12 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>CD038AVT</t>
+          <t>CD039AVT</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Конденсор Hyundai Accent II (99-) MT 1.3-1.6</t>
+          <t>Конденсор Hyundai Tucson (15-) / Kia Sportage (16-) 1.6-2.0</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -10986,7 +10986,7 @@
         </is>
       </c>
       <c r="D406" t="n">
-        <v>3708</v>
+        <v>5856</v>
       </c>
       <c r="E406" t="n">
         <v>10</v>
@@ -10998,12 +10998,12 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>CD039AVT</t>
+          <t>CD045AVT</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Конденсор Hyundai Tucson (15-) / Kia Sportage (16-) 1.6-2.0</t>
+          <t>Конденсор Mazda 3 (09-) 1.6-2.5</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -11012,7 +11012,7 @@
         </is>
       </c>
       <c r="D407" t="n">
-        <v>5856</v>
+        <v>5220</v>
       </c>
       <c r="E407" t="n">
         <v>10</v>
@@ -11024,12 +11024,12 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>CD045AVT</t>
+          <t>CD041AVT</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Конденсор Mazda 3 (09-) 1.6-2.5</t>
+          <t>Конденсор Mitsubishi Outlander (12-) 2.0-2.4</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -11038,7 +11038,7 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>5220</v>
+        <v>4428</v>
       </c>
       <c r="E408" t="n">
         <v>10</v>
@@ -11050,12 +11050,12 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>CD041AVT</t>
+          <t>CD042AVT</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Конденсор Mitsubishi Outlander (12-) 2.0-2.4</t>
+          <t>Конденсор Nissan Note (06-) / Tiida (04-) / Juke (10-) 1.2-1.6</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -11064,7 +11064,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>4428</v>
+        <v>4248</v>
       </c>
       <c r="E409" t="n">
         <v>10</v>
@@ -11076,12 +11076,12 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>CD042AVT</t>
+          <t>CD043AVT</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Конденсор Nissan Note (06-) / Tiida (04-) / Juke (10-) 1.2-1.6</t>
+          <t>Конденсор Opel Astra H (04-) 1.4-1.8</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -11090,7 +11090,7 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>4248</v>
+        <v>4692</v>
       </c>
       <c r="E410" t="n">
         <v>10</v>
@@ -11102,12 +11102,12 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>CD043AVT</t>
+          <t>CD034AVT</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Конденсор Opel Astra H (04-) 1.4-1.8</t>
+          <t>Конденсор Skoda Kodiaq (16-) / Skoda Octavia A7 (13-) / VW Tiguan (16-) 1.2-2.0</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -11116,7 +11116,7 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>4692</v>
+        <v>5292</v>
       </c>
       <c r="E411" t="n">
         <v>10</v>
@@ -11128,12 +11128,12 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>CD034AVT</t>
+          <t>CD035AVT</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Конденсор Skoda Kodiaq (16-) / Skoda Octavia A7 (13-) / VW Tiguan (16-) 1.2-2.0</t>
+          <t>Конденсор Skoda Octavia A5 (04-) / VW Golf V (03-) 1.6-2.0</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -11142,7 +11142,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>5292</v>
+        <v>5136</v>
       </c>
       <c r="E412" t="n">
         <v>10</v>
@@ -11154,12 +11154,12 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>CD035AVT</t>
+          <t>836383AVT</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Конденсор Skoda Octavia A5 (04-) / VW Golf V (03-) 1.6-2.0</t>
+          <t>Одномассовый маховик HYUNDAI SOLARIS 17-</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -11168,10 +11168,10 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>5136</v>
+        <v>6000</v>
       </c>
       <c r="E413" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F413" t="n">
         <v>1</v>
@@ -11180,12 +11180,12 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>836383AVT</t>
+          <t>836365AVT</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Одномассовый маховик HYUNDAI SOLARIS 17-</t>
+          <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -11194,10 +11194,10 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>6000</v>
+        <v>3300</v>
       </c>
       <c r="E414" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F414" t="n">
         <v>1</v>
@@ -11232,12 +11232,12 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>836365AVT</t>
+          <t>804295AVT</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
+          <t>Подшипник выжимной 2101-2107</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="D416" t="n">
-        <v>3300</v>
+        <v>1070</v>
       </c>
       <c r="E416" t="n">
         <v>10</v>
@@ -11258,12 +11258,12 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>804295AVT</t>
+          <t>804036AVT</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Подшипник выжимной 2101-2107</t>
+          <t>Подшипник выжимной CITROEN/PEUGEOT</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -11272,7 +11272,7 @@
         </is>
       </c>
       <c r="D417" t="n">
-        <v>1070</v>
+        <v>696</v>
       </c>
       <c r="E417" t="n">
         <v>10</v>
@@ -11284,12 +11284,12 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>804036AVT</t>
+          <t>804299AVT</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Подшипник выжимной CITROEN/PEUGEOT</t>
+          <t>Подшипник выжимной PSA</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -11298,7 +11298,7 @@
         </is>
       </c>
       <c r="D418" t="n">
-        <v>696</v>
+        <v>720</v>
       </c>
       <c r="E418" t="n">
         <v>10</v>
@@ -11310,12 +11310,12 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>804299AVT</t>
+          <t>804587AVT</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Подшипник выжимной PSA</t>
+          <t>Подшипник гидравлический RENAULT DUSTER 1.6</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -11324,7 +11324,7 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>720</v>
+        <v>7200</v>
       </c>
       <c r="E419" t="n">
         <v>10</v>
@@ -11336,12 +11336,12 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>804587AVT</t>
+          <t>701514AVT</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Подшипник гидравлический RENAULT DUSTER 1.6</t>
+          <t>Радиатор Веста / Икс-Рэй</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -11350,7 +11350,7 @@
         </is>
       </c>
       <c r="D420" t="n">
-        <v>7200</v>
+        <v>4212</v>
       </c>
       <c r="E420" t="n">
         <v>10</v>
@@ -11362,12 +11362,12 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>701514AVT</t>
+          <t>RD204AVT</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Радиатор Веста / Икс-Рэй</t>
+          <t>Радиатор двигатель паяный Hyundai Solaris / KIA RIO II (17-) 1.4i / 1.6i</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -11376,7 +11376,7 @@
         </is>
       </c>
       <c r="D421" t="n">
-        <v>4212</v>
+        <v>5585</v>
       </c>
       <c r="E421" t="n">
         <v>10</v>
@@ -11388,12 +11388,12 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>RD204AVT</t>
+          <t>RD026AVT</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Радиатор двигатель паяный Hyundai Solaris / KIA RIO II (17-) 1.4i / 1.6i</t>
+          <t>Радиатор двигателя BMW X5 (E70) (07-) 30d/3.0t AT (паяный)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -11402,7 +11402,7 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>5585</v>
+        <v>12251</v>
       </c>
       <c r="E422" t="n">
         <v>10</v>
@@ -11414,12 +11414,12 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>RD026AVT</t>
+          <t>RD008AVT</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Радиатор двигателя BMW X5 (E70) (07-) 30d/3.0t AT (паяный)</t>
+          <t>Радиатор двигателя CHEVROLET CRUZE (09-) 1.6-1.8i / ORLANDO (10-) 1.8i MT</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -11428,7 +11428,7 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>12251</v>
+        <v>5634</v>
       </c>
       <c r="E423" t="n">
         <v>10</v>
@@ -11440,12 +11440,12 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>RD008AVT</t>
+          <t>RD018AVT</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Радиатор двигателя CHEVROLET CRUZE (09-) 1.6-1.8i / ORLANDO (10-) 1.8i MT</t>
+          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i AT</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -11454,7 +11454,7 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>5634</v>
+        <v>6371</v>
       </c>
       <c r="E424" t="n">
         <v>10</v>
@@ -11466,12 +11466,12 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>RD018AVT</t>
+          <t>RD009AVT</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i AT</t>
+          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i MT</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -11480,7 +11480,7 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>6371</v>
+        <v>5555</v>
       </c>
       <c r="E425" t="n">
         <v>10</v>
@@ -11492,12 +11492,12 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>RD009AVT</t>
+          <t>RD011AVT</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i MT</t>
+          <t>Радиатор двигателя Chevrolet Lacetti (04-) 1.4i/1.6i/1.8i MT (сборный)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>5555</v>
+        <v>4973</v>
       </c>
       <c r="E426" t="n">
         <v>10</v>
@@ -11518,12 +11518,12 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>RD011AVT</t>
+          <t>RD016AVT</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Chevrolet Lacetti (04-) 1.4i/1.6i/1.8i MT (сборный)</t>
+          <t>Радиатор двигателя Daewoo Matiz (01-) 0.8i/1.0i MT (сборный)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -11532,7 +11532,7 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>4973</v>
+        <v>2898</v>
       </c>
       <c r="E427" t="n">
         <v>10</v>
@@ -11544,12 +11544,12 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>RD016AVT</t>
+          <t>RD023AVT</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Daewoo Matiz (01-) 0.8i/1.0i MT (сборный)</t>
+          <t>Радиатор двигателя Daewoo Matiz (1998-) 0.8 MT (сборный)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -11558,7 +11558,7 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>2898</v>
+        <v>3323</v>
       </c>
       <c r="E428" t="n">
         <v>10</v>
@@ -11570,12 +11570,12 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>RD023AVT</t>
+          <t>RD024AVT</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Daewoo Matiz (1998-) 0.8 MT (сборный)</t>
+          <t>Радиатор двигателя DAEWOO MATIZ (98-) 0.8i AT</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -11584,7 +11584,7 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>3323</v>
+        <v>4207</v>
       </c>
       <c r="E429" t="n">
         <v>10</v>
@@ -11596,12 +11596,12 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>RD024AVT</t>
+          <t>RD015AVT</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Радиатор двигателя DAEWOO MATIZ (98-) 0.8i AT</t>
+          <t>Радиатор двигателя Daewoo Nexia (94-) 1.5/1.8 MT (сборный)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -11610,7 +11610,7 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>4207</v>
+        <v>3204</v>
       </c>
       <c r="E430" t="n">
         <v>10</v>
@@ -11622,12 +11622,12 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>RD015AVT</t>
+          <t>RD040AVT</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Daewoo Nexia (94-) 1.5/1.8 MT (сборный)</t>
+          <t>Радиатор двигателя FORD FIESTA / FUSION (01-) 1.2-1.6i MT / AT</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -11636,7 +11636,7 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>3204</v>
+        <v>2821</v>
       </c>
       <c r="E431" t="n">
         <v>10</v>
@@ -11648,12 +11648,12 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>RD040AVT</t>
+          <t>RD004AVT</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Радиатор двигателя FORD FIESTA / FUSION (01-) 1.2-1.6i MT / AT</t>
+          <t>Радиатор двигателя Ford Focus II (05-) A/C+ (сборный)</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -11662,7 +11662,7 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>2821</v>
+        <v>4726</v>
       </c>
       <c r="E432" t="n">
         <v>10</v>
@@ -11674,12 +11674,12 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>RD004AVT</t>
+          <t>RD048AVT</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Ford Focus II (05-) A/C+ (сборный)</t>
+          <t>Радиатор двигателя FORD FOCUS III / C-MAX (11-) 1.6-2.0i MT / AT</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -11688,7 +11688,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>4726</v>
+        <v>6349</v>
       </c>
       <c r="E433" t="n">
         <v>10</v>
@@ -11700,12 +11700,12 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>RD048AVT</t>
+          <t>RD055AVT</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Радиатор двигателя FORD FOCUS III / C-MAX (11-) 1.6-2.0i MT / AT</t>
+          <t>Радиатор двигателя HYUNDAI SOLARIS (10-) / KIA RIO (10-) 1.4-1.6i 6AT</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -11714,7 +11714,7 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>6349</v>
+        <v>4195</v>
       </c>
       <c r="E434" t="n">
         <v>10</v>
@@ -11726,12 +11726,12 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>RD055AVT</t>
+          <t>RD001AVT</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Радиатор двигателя HYUNDAI SOLARIS (10-) / KIA RIO (10-) 1.4-1.6i 6AT</t>
+          <t>Радиатор двигателя HYUNDAI SOLARIS (RB) / KIA RIO III (UB) (11-) 1.4-1.6i MT</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -11740,7 +11740,7 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>4195</v>
+        <v>3139</v>
       </c>
       <c r="E435" t="n">
         <v>10</v>
@@ -11752,12 +11752,12 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>RD001AVT</t>
+          <t>RD002AVT</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Радиатор двигателя HYUNDAI SOLARIS (RB) / KIA RIO III (UB) (11-) 1.4-1.6i MT</t>
+          <t>Радиатор двигателя Hyundai Solaris / Kia Rio (10-&gt;) AT (сборный)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -11766,7 +11766,7 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>3139</v>
+        <v>3203</v>
       </c>
       <c r="E436" t="n">
         <v>10</v>
@@ -11778,12 +11778,12 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>RD002AVT</t>
+          <t>RD057AVT</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Hyundai Solaris / Kia Rio (10-&gt;) AT (сборный)</t>
+          <t>Радиатор двигателя HYUNDAI SOLARIS / KIA RIO (17-) 1.4-1.6i MT</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -11792,7 +11792,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>3203</v>
+        <v>3556</v>
       </c>
       <c r="E437" t="n">
         <v>10</v>
@@ -11804,12 +11804,12 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>RD057AVT</t>
+          <t>RD021AVT</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Радиатор двигателя HYUNDAI SOLARIS / KIA RIO (17-) 1.4-1.6i MT</t>
+          <t>Радиатор двигателя KIA CEED (ED) (07-) 1.4-2.0i / HYUNDAI ELANTRA (HD) (06-) 1.6-2.0i / HYUNDAI i30</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -11818,7 +11818,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>3556</v>
+        <v>4904</v>
       </c>
       <c r="E438" t="n">
         <v>10</v>
@@ -11830,12 +11830,12 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>RD021AVT</t>
+          <t>RD087AVT</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA CEED (ED) (07-) 1.4-2.0i / HYUNDAI ELANTRA (HD) (06-) 1.6-2.0i / HYUNDAI i30</t>
+          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -11844,7 +11844,7 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>4904</v>
+        <v>7403</v>
       </c>
       <c r="E439" t="n">
         <v>10</v>
@@ -11882,12 +11882,12 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>RD087AVT</t>
+          <t>RD062AVT</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
+          <t>Радиатор двигателя Kia Spectra (96-) 1.5-1.8 AT</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>7403</v>
+        <v>5772</v>
       </c>
       <c r="E441" t="n">
         <v>10</v>
@@ -11908,12 +11908,12 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>RD062AVT</t>
+          <t>RD020AVT</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia Spectra (96-) 1.5-1.8 AT</t>
+          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i AT</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -11922,7 +11922,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>5772</v>
+        <v>6194</v>
       </c>
       <c r="E442" t="n">
         <v>10</v>
@@ -11934,12 +11934,12 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>RD020AVT</t>
+          <t>RD019AVT</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i AT</t>
+          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i MT</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -11948,7 +11948,7 @@
         </is>
       </c>
       <c r="D443" t="n">
-        <v>6194</v>
+        <v>4888</v>
       </c>
       <c r="E443" t="n">
         <v>10</v>
@@ -11960,12 +11960,12 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>RD019AVT</t>
+          <t>RD028AVT</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i MT</t>
+          <t>Радиатор двигателя MB C (07-), E (-16), GLK (08-) 1.6-4.7i AT</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -11974,7 +11974,7 @@
         </is>
       </c>
       <c r="D444" t="n">
-        <v>4888</v>
+        <v>10615</v>
       </c>
       <c r="E444" t="n">
         <v>10</v>
@@ -11986,12 +11986,12 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>RD028AVT</t>
+          <t>RD029AVT</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MB C (07-), E (-16), GLK (08-) 1.6-4.7i AT</t>
+          <t>Радиатор двигателя MB E (16-), GLC (15-), C (14-), S (13-) 2.0-4.0 MT / AT</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -12000,7 +12000,7 @@
         </is>
       </c>
       <c r="D445" t="n">
-        <v>10615</v>
+        <v>12114</v>
       </c>
       <c r="E445" t="n">
         <v>10</v>
@@ -12012,12 +12012,12 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>RD029AVT</t>
+          <t>RD027AVT</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MB E (16-), GLC (15-), C (14-), S (13-) 2.0-4.0 MT / AT</t>
+          <t>Радиатор двигателя MB ML (12-) GL, GLS, GLE (-18) 2.2-5.5i AT</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -12026,7 +12026,7 @@
         </is>
       </c>
       <c r="D446" t="n">
-        <v>12114</v>
+        <v>11959</v>
       </c>
       <c r="E446" t="n">
         <v>10</v>
@@ -12038,12 +12038,12 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>RD027AVT</t>
+          <t>RD005AVT</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MB ML (12-) GL, GLS, GLE (-18) 2.2-5.5i AT</t>
+          <t>Радиатор двигателя MITSUBISHI ASX (10-) 1.6-1.8i / OUTLANDER (07-) 2.0-2.4i / LANCER (07-) 1.5-2.0i</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -12052,7 +12052,7 @@
         </is>
       </c>
       <c r="D447" t="n">
-        <v>11959</v>
+        <v>4110</v>
       </c>
       <c r="E447" t="n">
         <v>10</v>
@@ -12064,12 +12064,12 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>RD005AVT</t>
+          <t>RD060AVT</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MITSUBISHI ASX (10-) 1.6-1.8i / OUTLANDER (07-) 2.0-2.4i / LANCER (07-) 1.5-2.0i</t>
+          <t>Радиатор двигателя MITSUBISHI OUTLANDER III (12-) 2.0-3.0i MT / AT</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -12078,7 +12078,7 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>4110</v>
+        <v>7210</v>
       </c>
       <c r="E448" t="n">
         <v>10</v>
@@ -12090,12 +12090,12 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>RD060AVT</t>
+          <t>RD017AVT</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MITSUBISHI OUTLANDER III (12-) 2.0-3.0i MT / AT</t>
+          <t>Радиатор двигателя NISSAN QASHQAI (J10) (07-) 1.6-2.0i MT / AT</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -12104,7 +12104,7 @@
         </is>
       </c>
       <c r="D449" t="n">
-        <v>7210</v>
+        <v>7289</v>
       </c>
       <c r="E449" t="n">
         <v>10</v>
@@ -12116,12 +12116,12 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>RD017AVT</t>
+          <t>RD063AVT</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Радиатор двигателя NISSAN QASHQAI (J10) (07-) 1.6-2.0i MT / AT</t>
+          <t>Радиатор двигателя Nissan X-Trail (14-) 2.0-2.5</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -12130,7 +12130,7 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>7289</v>
+        <v>5864</v>
       </c>
       <c r="E450" t="n">
         <v>10</v>
@@ -12142,12 +12142,12 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>RD063AVT</t>
+          <t>RD014AVT</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Nissan X-Trail (14-) 2.0-2.5</t>
+          <t>Радиатор двигателя OPEL ZAFIRA / ASTRA H (05-) 1.6-1.8i MT / AT</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -12156,7 +12156,7 @@
         </is>
       </c>
       <c r="D451" t="n">
-        <v>5864</v>
+        <v>5726</v>
       </c>
       <c r="E451" t="n">
         <v>10</v>
@@ -12168,12 +12168,12 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>RD014AVT</t>
+          <t>RD003AVT</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Радиатор двигателя OPEL ZAFIRA / ASTRA H (05-) 1.6-1.8i MT / AT</t>
+          <t>Радиатор двигателя Renault Logan (04-) 1.4i/1.6i А/С+ (сборный)</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -12182,7 +12182,7 @@
         </is>
       </c>
       <c r="D452" t="n">
-        <v>5726</v>
+        <v>2794</v>
       </c>
       <c r="E452" t="n">
         <v>10</v>
@@ -12194,12 +12194,12 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>RD003AVT</t>
+          <t>RD058AVT</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Renault Logan (04-) 1.4i/1.6i А/С+ (сборный)</t>
+          <t>Радиатор двигателя RENAULT LOGAN / SANDERO / SYMBOL (04-) 1.4-1.6i / Lada LARGUS K7M 1.6i (12-) MT /</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -12208,7 +12208,7 @@
         </is>
       </c>
       <c r="D453" t="n">
-        <v>2794</v>
+        <v>2893</v>
       </c>
       <c r="E453" t="n">
         <v>10</v>
@@ -12220,12 +12220,12 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>RD058AVT</t>
+          <t>RD013AVT</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Радиатор двигателя RENAULT LOGAN / SANDERO / SYMBOL (04-) 1.4-1.6i / Lada LARGUS K7M 1.6i (12-) MT /</t>
+          <t>Радиатор двигателя Skoda Octavia A5 (04-)/VW Golf V (03-) (сборный)</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -12234,7 +12234,7 @@
         </is>
       </c>
       <c r="D454" t="n">
-        <v>2893</v>
+        <v>4436</v>
       </c>
       <c r="E454" t="n">
         <v>10</v>
@@ -12246,12 +12246,12 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>RD013AVT</t>
+          <t>RD007AVT</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Skoda Octavia A5 (04-)/VW Golf V (03-) (сборный)</t>
+          <t>Радиатор двигателя TOYOTA AURIS (E15) (07-) / (E18) (12-) 1.3-1.6i / AVENSIS (T27) (08-) 1.6-2.0i /</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -12260,7 +12260,7 @@
         </is>
       </c>
       <c r="D455" t="n">
-        <v>4436</v>
+        <v>5714</v>
       </c>
       <c r="E455" t="n">
         <v>10</v>
@@ -12272,12 +12272,12 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>RD007AVT</t>
+          <t>RD025AVT</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Радиатор двигателя TOYOTA AURIS (E15) (07-) / (E18) (12-) 1.3-1.6i / AVENSIS (T27) (08-) 1.6-2.0i /</t>
+          <t>Радиатор двигателя TOYOTA CAMRY (11-16) 2.5-3.5i AT</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -12286,7 +12286,7 @@
         </is>
       </c>
       <c r="D456" t="n">
-        <v>5714</v>
+        <v>7470</v>
       </c>
       <c r="E456" t="n">
         <v>10</v>
@@ -12298,12 +12298,12 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>RD025AVT</t>
+          <t>RD050AVT</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Радиатор двигателя TOYOTA CAMRY (11-16) 2.5-3.5i AT</t>
+          <t>Радиатор двигателя Toyota LC200 (08-) 4.5D</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -12312,7 +12312,7 @@
         </is>
       </c>
       <c r="D457" t="n">
-        <v>7470</v>
+        <v>12649</v>
       </c>
       <c r="E457" t="n">
         <v>10</v>
@@ -12350,12 +12350,12 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>RD050AVT</t>
+          <t>RD010AVT</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota LC200 (08-) 4.5D</t>
+          <t>Радиатор двигателя Toyota RAV 4 (06-&gt;)/RAV 4 (13-&gt;) 2.0i MT/AT (сборный)</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -12364,7 +12364,7 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>12649</v>
+        <v>5429</v>
       </c>
       <c r="E459" t="n">
         <v>10</v>
@@ -12376,12 +12376,12 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>RD010AVT</t>
+          <t>RD006AVT</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota RAV 4 (06-&gt;)/RAV 4 (13-&gt;) 2.0i MT/AT (сборный)</t>
+          <t>Радиатор двигателя VW Polo Sedan (10-)/(20-)/Skoda Rapid (12-)/(20-) (сборный)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -12390,7 +12390,7 @@
         </is>
       </c>
       <c r="D460" t="n">
-        <v>5429</v>
+        <v>3888</v>
       </c>
       <c r="E460" t="n">
         <v>10</v>
@@ -12402,12 +12402,12 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>RD006AVT</t>
+          <t>RD221AVT</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Радиатор двигателя VW Polo Sedan (10-)/(20-)/Skoda Rapid (12-)/(20-) (сборный)</t>
+          <t>Радиатор двигателя паяный Audi A4/А6 (94-) 1.6i, 1.8i, 1.9TDi, 1.8T</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -12416,7 +12416,7 @@
         </is>
       </c>
       <c r="D461" t="n">
-        <v>3888</v>
+        <v>6386</v>
       </c>
       <c r="E461" t="n">
         <v>10</v>
@@ -12428,12 +12428,12 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>RD221AVT</t>
+          <t>RD302AVT</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Audi A4/А6 (94-) 1.6i, 1.8i, 1.9TDi, 1.8T</t>
+          <t>Радиатор двигателя паяный Ford Ranger (98-) 2.5TDi</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -12442,7 +12442,7 @@
         </is>
       </c>
       <c r="D462" t="n">
-        <v>6386</v>
+        <v>6724</v>
       </c>
       <c r="E462" t="n">
         <v>10</v>
@@ -12454,12 +12454,12 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>RD302AVT</t>
+          <t>RD220AVT</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Ford Ranger (98-) 2.5TDi</t>
+          <t>Радиатор двигателя паяный Honda CR-V III (06-) 2.0i</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -12468,7 +12468,7 @@
         </is>
       </c>
       <c r="D463" t="n">
-        <v>6724</v>
+        <v>6842</v>
       </c>
       <c r="E463" t="n">
         <v>10</v>
@@ -12480,12 +12480,12 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>RD220AVT</t>
+          <t>RD225AVT</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Honda CR-V III (06-) 2.0i</t>
+          <t>Радиатор двигателя паяный Hyundai Santa Fe II (06-) 2.2CRDi</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -12494,7 +12494,7 @@
         </is>
       </c>
       <c r="D464" t="n">
-        <v>6842</v>
+        <v>8759</v>
       </c>
       <c r="E464" t="n">
         <v>10</v>
@@ -12506,12 +12506,12 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>RD225AVT</t>
+          <t>RD274AVT</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Hyundai Santa Fe II (06-) 2.2CRDi</t>
+          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i, 2.0i AT</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -12520,7 +12520,7 @@
         </is>
       </c>
       <c r="D465" t="n">
-        <v>8759</v>
+        <v>8366</v>
       </c>
       <c r="E465" t="n">
         <v>10</v>
@@ -12532,12 +12532,12 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>RD274AVT</t>
+          <t>RD207AVT</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i, 2.0i AT</t>
+          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i, 2.0i MT</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="D466" t="n">
-        <v>8366</v>
+        <v>7973</v>
       </c>
       <c r="E466" t="n">
         <v>10</v>
@@ -12558,12 +12558,12 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>RD207AVT</t>
+          <t>RD230AVT</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i, 2.0i MT</t>
+          <t>Радиатор двигателя паяный Mitsubishi Outlander I (03-) 2.0i, 2.4i</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -12572,7 +12572,7 @@
         </is>
       </c>
       <c r="D467" t="n">
-        <v>7973</v>
+        <v>6593</v>
       </c>
       <c r="E467" t="n">
         <v>10</v>
@@ -12584,12 +12584,12 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>RD230AVT</t>
+          <t>RD211AVT</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Mitsubishi Outlander I (03-) 2.0i, 2.4i</t>
+          <t>Радиатор двигателя паяный Nissan Almera Classic B10 (06-) 1.6i</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -12598,7 +12598,7 @@
         </is>
       </c>
       <c r="D468" t="n">
-        <v>6593</v>
+        <v>5980</v>
       </c>
       <c r="E468" t="n">
         <v>10</v>
@@ -12610,12 +12610,12 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>RD211AVT</t>
+          <t>RD264AVT</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Nissan Almera Classic B10 (06-) 1.6i</t>
+          <t>Радиатор двигателя паяный Nissan X-Trail T30 (01-) 2.0i, 2.5i</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -12624,7 +12624,7 @@
         </is>
       </c>
       <c r="D469" t="n">
-        <v>5980</v>
+        <v>5741</v>
       </c>
       <c r="E469" t="n">
         <v>10</v>
@@ -12636,12 +12636,12 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>RD264AVT</t>
+          <t>RD205AVT</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Nissan X-Trail T30 (01-) 2.0i, 2.5i</t>
+          <t>Радиатор двигателя паяный Skoda Octavia/Kodiaq A7 (13-) 1.2TSi, 1.4TSi, 1.6TDi, 2.0TDi</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -12650,7 +12650,7 @@
         </is>
       </c>
       <c r="D470" t="n">
-        <v>5741</v>
+        <v>5630</v>
       </c>
       <c r="E470" t="n">
         <v>10</v>
@@ -12662,12 +12662,12 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>RD205AVT</t>
+          <t>RD217AVT</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Skoda Octavia/Kodiaq A7 (13-) 1.2TSi, 1.4TSi, 1.6TDi, 2.0TDi</t>
+          <t>Радиатор двигателя паяный Suzuki SX4 I (06-) 1.6i</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -12676,7 +12676,7 @@
         </is>
       </c>
       <c r="D471" t="n">
-        <v>5630</v>
+        <v>7183</v>
       </c>
       <c r="E471" t="n">
         <v>10</v>
@@ -12688,12 +12688,12 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>RD217AVT</t>
+          <t>RD059AVT</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Suzuki SX4 I (06-) 1.6i</t>
+          <t>Радиатор двигателя паяный VW PASSAT B6 / B7 JETTA III /IV / TIGUAN / TOURAN / SKODA OCTAVIA II / SUP</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -12702,7 +12702,7 @@
         </is>
       </c>
       <c r="D472" t="n">
-        <v>7183</v>
+        <v>6286</v>
       </c>
       <c r="E472" t="n">
         <v>10</v>
@@ -12714,12 +12714,12 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>RD059AVT</t>
+          <t>RD250AVT</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный VW PASSAT B6 / B7 JETTA III /IV / TIGUAN / TOURAN / SKODA OCTAVIA II / SUP</t>
+          <t>Радиатор двигателя сборный Chevrolet Rezzo (00-) 1.6i, 1.8i</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -12728,7 +12728,7 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>6286</v>
+        <v>5549</v>
       </c>
       <c r="E473" t="n">
         <v>10</v>
@@ -12740,12 +12740,12 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>RD250AVT</t>
+          <t>RD012AVT</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Радиатор двигателя сборный Chevrolet Rezzo (00-) 1.6i, 1.8i</t>
+          <t>Радиатор двигателя сборный VW Jetta (05)/(11-)/Skoda Octavia A5 (04-)</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -12754,7 +12754,7 @@
         </is>
       </c>
       <c r="D474" t="n">
-        <v>5549</v>
+        <v>4106</v>
       </c>
       <c r="E474" t="n">
         <v>10</v>
@@ -12766,12 +12766,12 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>RD012AVT</t>
+          <t>735634AVT</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Радиатор двигателя сборный VW Jetta (05)/(11-)/Skoda Octavia A5 (04-)</t>
+          <t>Радиатор Рено Логан II</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -12780,7 +12780,7 @@
         </is>
       </c>
       <c r="D475" t="n">
-        <v>4106</v>
+        <v>3834</v>
       </c>
       <c r="E475" t="n">
         <v>10</v>
@@ -12792,12 +12792,12 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>735634AVT</t>
+          <t>438544AVT</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Радиатор Рено Логан II</t>
+          <t>Стартер Renault Arkana</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -12806,7 +12806,7 @@
         </is>
       </c>
       <c r="D476" t="n">
-        <v>3834</v>
+        <v>6600</v>
       </c>
       <c r="E476" t="n">
         <v>10</v>
@@ -12818,12 +12818,12 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>438544AVT</t>
+          <t>438545AVT</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Стартер Renault Arkana</t>
+          <t>Стартер Toyota Camry / Rav4</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -12844,12 +12844,12 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>438545AVT</t>
+          <t>438285AVT</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Стартер Toyota Camry / Rav4</t>
+          <t>Стартер Гранта МКПП</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -12858,7 +12858,7 @@
         </is>
       </c>
       <c r="D478" t="n">
-        <v>6600</v>
+        <v>5820</v>
       </c>
       <c r="E478" t="n">
         <v>10</v>
@@ -12870,12 +12870,12 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>438285AVT</t>
+          <t>438327AVT</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Стартер Гранта МКПП</t>
+          <t>Стартер Рено F4R</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -12884,7 +12884,7 @@
         </is>
       </c>
       <c r="D479" t="n">
-        <v>5820</v>
+        <v>8400</v>
       </c>
       <c r="E479" t="n">
         <v>10</v>
@@ -12896,12 +12896,12 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>438327AVT</t>
+          <t>438324AVT</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Стартер Рено F4R</t>
+          <t>Стартер Рено H4M</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -12910,7 +12910,7 @@
         </is>
       </c>
       <c r="D480" t="n">
-        <v>8400</v>
+        <v>5964</v>
       </c>
       <c r="E480" t="n">
         <v>10</v>
@@ -12922,12 +12922,12 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>438324AVT</t>
+          <t>FC001AVT</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Стартер Рено H4M</t>
+          <t>Фильтр отопителя LADA VESTA</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -12936,7 +12936,7 @@
         </is>
       </c>
       <c r="D481" t="n">
-        <v>5964</v>
+        <v>420</v>
       </c>
       <c r="E481" t="n">
         <v>10</v>
@@ -12948,12 +12948,12 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>FC001AVT</t>
+          <t>252.5215900-14</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Фильтр отопителя LADA VESTA</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 350 мм</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -12962,7 +12962,7 @@
         </is>
       </c>
       <c r="D482" t="n">
-        <v>420</v>
+        <v>518</v>
       </c>
       <c r="E482" t="n">
         <v>10</v>
@@ -12974,12 +12974,12 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>252.5215900-14</t>
+          <t>252.5215900-16</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 350 мм</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 400 мм</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -12988,7 +12988,7 @@
         </is>
       </c>
       <c r="D483" t="n">
-        <v>518</v>
+        <v>552</v>
       </c>
       <c r="E483" t="n">
         <v>10</v>
@@ -13000,12 +13000,12 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>252.5215900-16</t>
+          <t>252.5215900-17</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 400 мм</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 430 мм</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -13026,12 +13026,12 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>252.5215900-17</t>
+          <t>252.5215900-18</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 430 мм</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 450 мм</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -13052,12 +13052,12 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>252.5215900-18</t>
+          <t>252.5215900-20</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 450 мм</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 500 мм</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -13066,7 +13066,7 @@
         </is>
       </c>
       <c r="D486" t="n">
-        <v>552</v>
+        <v>582</v>
       </c>
       <c r="E486" t="n">
         <v>10</v>
@@ -13078,12 +13078,12 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>252.5215900-20</t>
+          <t>252.5215900-22</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 500 мм</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 550 мм</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -13104,12 +13104,12 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>252.5215900-22</t>
+          <t>252.5215900-24</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 550 мм</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 600 мм</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -13118,7 +13118,7 @@
         </is>
       </c>
       <c r="D488" t="n">
-        <v>582</v>
+        <v>641</v>
       </c>
       <c r="E488" t="n">
         <v>10</v>
@@ -13130,12 +13130,12 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>252.5215900-24</t>
+          <t>252.5215900-26</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 600 мм</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 650 мм</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -13144,7 +13144,7 @@
         </is>
       </c>
       <c r="D489" t="n">
-        <v>641</v>
+        <v>672</v>
       </c>
       <c r="E489" t="n">
         <v>10</v>
@@ -13156,12 +13156,12 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>252.5215900-26</t>
+          <t>25.5215900-13</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 650 мм</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 330 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -13170,7 +13170,7 @@
         </is>
       </c>
       <c r="D490" t="n">
-        <v>672</v>
+        <v>299</v>
       </c>
       <c r="E490" t="n">
         <v>10</v>
@@ -13182,12 +13182,12 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>25.5215900-13</t>
+          <t>25.5215900-14</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 330 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 350 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -13208,12 +13208,12 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>25.5215900-14</t>
+          <t>25.5215900-16</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 350 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 400 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -13222,7 +13222,7 @@
         </is>
       </c>
       <c r="D492" t="n">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="E492" t="n">
         <v>10</v>
@@ -13234,12 +13234,12 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>25.5215900-16</t>
+          <t>25.5215900-17</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 400 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 430 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -13260,12 +13260,12 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>25.5215900-17</t>
+          <t>25.5215900-18</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 430 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 450 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -13286,12 +13286,12 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>25.5215900-18</t>
+          <t>25.5215900-19</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 450 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 480 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -13312,12 +13312,12 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>25.5215900-19</t>
+          <t>25.5215900-20</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 480 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 500 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -13326,7 +13326,7 @@
         </is>
       </c>
       <c r="D496" t="n">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="E496" t="n">
         <v>10</v>
@@ -13338,12 +13338,12 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>25.5215900-20</t>
+          <t>25.5215900-21</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 500 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 530 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -13364,12 +13364,12 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>25.5215900-21</t>
+          <t>25.5215900-22</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 530 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 550 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -13390,12 +13390,12 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>25.5215900-22</t>
+          <t>25.5215900-24</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 550 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 600 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -13404,7 +13404,7 @@
         </is>
       </c>
       <c r="D499" t="n">
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="E499" t="n">
         <v>10</v>
@@ -13416,12 +13416,12 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>25.5215900-24</t>
+          <t>25.5215900-26</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 600 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 650 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -13430,7 +13430,7 @@
         </is>
       </c>
       <c r="D500" t="n">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="E500" t="n">
         <v>10</v>
@@ -13442,12 +13442,12 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>25.5215900-26</t>
+          <t>25.5215900-28</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 650 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 700 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -13468,12 +13468,12 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>25.5215900-28</t>
+          <t>СЛ136Е-5205900-01</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 700 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, каркасная, 410 мм, тип крепления "Hook" ("Крюк") и "Bayonet" ("Штыковой замо</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -13482,7 +13482,7 @@
         </is>
       </c>
       <c r="D502" t="n">
-        <v>406</v>
+        <v>144</v>
       </c>
       <c r="E502" t="n">
         <v>10</v>
@@ -13494,12 +13494,12 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>СЛ136Е-5205900-01</t>
+          <t>23.5215900-01</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 410 мм, тип крепления "Hook" ("Крюк") и "Bayonet" ("Штыковой замо</t>
+          <t>Щетка стеклоочистителя, каркасная, 475 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -13520,12 +13520,12 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>23.5215900-01</t>
+          <t>49.5205900-01</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 475 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, каркасная, 500 мм, тип крепления "Hook" ("Крюк") и "Bayonet" ("Штыковой замо</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -13534,7 +13534,7 @@
         </is>
       </c>
       <c r="D504" t="n">
-        <v>144</v>
+        <v>366</v>
       </c>
       <c r="E504" t="n">
         <v>10</v>
@@ -13546,12 +13546,12 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>49.5205900-01</t>
+          <t>731.5205900-01</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 500 мм, тип крепления "Hook" ("Крюк") и "Bayonet" ("Штыковой замо</t>
+          <t>Щетка стеклоочистителя, каркасная, 525 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -13560,7 +13560,7 @@
         </is>
       </c>
       <c r="D505" t="n">
-        <v>366</v>
+        <v>287</v>
       </c>
       <c r="E505" t="n">
         <v>10</v>
@@ -13572,12 +13572,12 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>731.5205900-01</t>
+          <t>11.5215900-01</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 525 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, каркасная, 550 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="D506" t="n">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="E506" t="n">
         <v>10</v>
@@ -13598,12 +13598,12 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>11.5215900-01</t>
+          <t>93.5205900-01</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 550 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, каркасная, 600 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -13612,7 +13612,7 @@
         </is>
       </c>
       <c r="D507" t="n">
-        <v>295</v>
+        <v>144</v>
       </c>
       <c r="E507" t="n">
         <v>10</v>
@@ -13624,12 +13624,12 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>93.5205900-01</t>
+          <t>251.5215900-15</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 600 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 380 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -13638,7 +13638,7 @@
         </is>
       </c>
       <c r="D508" t="n">
-        <v>144</v>
+        <v>426</v>
       </c>
       <c r="E508" t="n">
         <v>10</v>
@@ -13650,12 +13650,12 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>251.5215900-15</t>
+          <t>251.5215900-16</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 380 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 400 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -13676,12 +13676,12 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>251.5215900-16</t>
+          <t>251.5215900-17</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 400 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 430 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -13702,12 +13702,12 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>251.5215900-17</t>
+          <t>251.5215900-18</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 430 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 450 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -13728,12 +13728,12 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>251.5215900-18</t>
+          <t>251.5215900-19</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 450 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 480 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -13754,12 +13754,12 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>251.5215900-19</t>
+          <t>251.5215900-20</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 480 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 500 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -13768,7 +13768,7 @@
         </is>
       </c>
       <c r="D513" t="n">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="E513" t="n">
         <v>10</v>
@@ -13780,12 +13780,12 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>251.5215900-20</t>
+          <t>251.5215900-24</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 500 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 600 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -13794,7 +13794,7 @@
         </is>
       </c>
       <c r="D514" t="n">
-        <v>448</v>
+        <v>492</v>
       </c>
       <c r="E514" t="n">
         <v>10</v>
@@ -13806,12 +13806,12 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>251.5215900-24</t>
+          <t>251.5215900-26</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 600 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 650 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -13820,7 +13820,7 @@
         </is>
       </c>
       <c r="D515" t="n">
-        <v>492</v>
+        <v>518</v>
       </c>
       <c r="E515" t="n">
         <v>10</v>
@@ -13832,12 +13832,12 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>251.5215900-26</t>
+          <t>595863AVT</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 650 мм, в комплекте 9 адаптеров</t>
+          <t>Щеткодержатель стартера</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="D516" t="n">
-        <v>518</v>
+        <v>720</v>
       </c>
       <c r="E516" t="n">
         <v>10</v>
@@ -13884,12 +13884,12 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>595863AVT</t>
+          <t>595845AVT</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Щеткодержатель стартера</t>
+          <t>Щеткодержатель стартера  LADA VESTA</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -13936,12 +13936,12 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>595845AVT</t>
+          <t>595842AVT</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Щеткодержатель стартера  LADA VESTA</t>
+          <t>Якорь стартера</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -13950,38 +13950,12 @@
         </is>
       </c>
       <c r="D520" t="n">
-        <v>720</v>
+        <v>1416</v>
       </c>
       <c r="E520" t="n">
         <v>10</v>
       </c>
       <c r="F520" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="inlineStr">
-        <is>
-          <t>595842AVT</t>
-        </is>
-      </c>
-      <c r="B521" t="inlineStr">
-        <is>
-          <t>Якорь стартера</t>
-        </is>
-      </c>
-      <c r="C521" t="inlineStr">
-        <is>
-          <t>AVTOPRIBOR</t>
-        </is>
-      </c>
-      <c r="D521" t="n">
-        <v>1416</v>
-      </c>
-      <c r="E521" t="n">
-        <v>10</v>
-      </c>
-      <c r="F521" t="n">
         <v>1</v>
       </c>
     </row>

--- a/price_for_emex.xlsx
+++ b/price_for_emex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F527"/>
+  <dimension ref="A1:F526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8476,12 +8476,12 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>RF002AVT</t>
+          <t>595739AVT</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Вентилятор системы охлаждения Vesta, Xray, Logan</t>
+          <t>Втягивающее реле</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -8490,7 +8490,7 @@
         </is>
       </c>
       <c r="D310" t="n">
-        <v>6000</v>
+        <v>1080</v>
       </c>
       <c r="E310" t="n">
         <v>10</v>
@@ -8528,12 +8528,12 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>595739AVT</t>
+          <t>595785AVT</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Втягивающее реле</t>
+          <t>Втягивающее реле (для 438327 / 438328)</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -8542,7 +8542,7 @@
         </is>
       </c>
       <c r="D312" t="n">
-        <v>1080</v>
+        <v>1800</v>
       </c>
       <c r="E312" t="n">
         <v>10</v>
@@ -8554,12 +8554,12 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>595785AVT</t>
+          <t>595776AVT</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Втягивающее реле (для 438327 / 438328)</t>
+          <t>Втягивающее реле LADA VESTA / RENUALT LOGAN</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -8568,7 +8568,7 @@
         </is>
       </c>
       <c r="D313" t="n">
-        <v>1800</v>
+        <v>1440</v>
       </c>
       <c r="E313" t="n">
         <v>10</v>
@@ -8606,12 +8606,12 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>595776AVT</t>
+          <t>AL200AVT</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Втягивающее реле LADA VESTA / RENUALT LOGAN</t>
+          <t>Генератор LADA GRANTA 110А</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -8620,7 +8620,7 @@
         </is>
       </c>
       <c r="D315" t="n">
-        <v>1440</v>
+        <v>9996</v>
       </c>
       <c r="E315" t="n">
         <v>10</v>
@@ -8658,12 +8658,12 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>AL200AVT</t>
+          <t>BD050AVT</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Генератор LADA GRANTA 110А</t>
+          <t>Диск тормозной Audi A4 / A6 (95-) передний</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -8672,24 +8672,24 @@
         </is>
       </c>
       <c r="D317" t="n">
-        <v>9996</v>
+        <v>2020</v>
       </c>
       <c r="E317" t="n">
         <v>10</v>
       </c>
       <c r="F317" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>BD050AVT</t>
+          <t>BD075AVT</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Диск тормозной Audi A4 / A6 (95-) передний</t>
+          <t>Диск тормозной Audi Q5 (08-) задний</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -8698,7 +8698,7 @@
         </is>
       </c>
       <c r="D318" t="n">
-        <v>2020</v>
+        <v>1718</v>
       </c>
       <c r="E318" t="n">
         <v>10</v>
@@ -8710,12 +8710,12 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>BD075AVT</t>
+          <t>BD056AVT</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Диск тормозной Audi Q5 (08-) задний</t>
+          <t>Диск тормозной Audi Q7 (06-) задний</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -8724,7 +8724,7 @@
         </is>
       </c>
       <c r="D319" t="n">
-        <v>1718</v>
+        <v>2719</v>
       </c>
       <c r="E319" t="n">
         <v>10</v>
@@ -8736,12 +8736,12 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>BD056AVT</t>
+          <t>BD021AVT</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Диск тормозной Audi Q7 (06-) задний</t>
+          <t>Диск тормозной Chevrolet Aveo (02-) / Spark (05-) передний</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -8750,7 +8750,7 @@
         </is>
       </c>
       <c r="D320" t="n">
-        <v>2719</v>
+        <v>1090</v>
       </c>
       <c r="E320" t="n">
         <v>10</v>
@@ -8762,12 +8762,12 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>BD021AVT</t>
+          <t>BD022AVT</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Диск тормозной Chevrolet Aveo (02-) / Spark (05-) передний</t>
+          <t>Диск тормозной Chevrolet Cruze (09-) / Aveo (11-) задний</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -8776,7 +8776,7 @@
         </is>
       </c>
       <c r="D321" t="n">
-        <v>1090</v>
+        <v>1550</v>
       </c>
       <c r="E321" t="n">
         <v>10</v>
@@ -8788,12 +8788,12 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>BD022AVT</t>
+          <t>BD018AVT</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Диск тормозной Chevrolet Cruze (09-) / Aveo (11-) задний</t>
+          <t>Диск тормозной Chevrolet Cruze (09-) / Aveo (11-) передний</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -8802,7 +8802,7 @@
         </is>
       </c>
       <c r="D322" t="n">
-        <v>1550</v>
+        <v>2197</v>
       </c>
       <c r="E322" t="n">
         <v>10</v>
@@ -8814,12 +8814,12 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>BD018AVT</t>
+          <t>BD049AVT</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Диск тормозной Chevrolet Cruze (09-) / Aveo (11-) передний</t>
+          <t>Диск тормозной Chevrolet Lacetti (04-) задний</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -8828,7 +8828,7 @@
         </is>
       </c>
       <c r="D323" t="n">
-        <v>2197</v>
+        <v>1400</v>
       </c>
       <c r="E323" t="n">
         <v>10</v>
@@ -8840,12 +8840,12 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>BD049AVT</t>
+          <t>BD039AVT</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Диск тормозной Chevrolet Lacetti (04-) задний</t>
+          <t>Диск тормозной Daewoo Matiz (98-) передний</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -8854,7 +8854,7 @@
         </is>
       </c>
       <c r="D324" t="n">
-        <v>1400</v>
+        <v>1043</v>
       </c>
       <c r="E324" t="n">
         <v>10</v>
@@ -8866,12 +8866,12 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>BD039AVT</t>
+          <t>BD042AVT</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Диск тормозной Daewoo Matiz (98-) передний</t>
+          <t>Диск тормозной Ford Fiesta (02-) / Fusion (02-) передний</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -8880,7 +8880,7 @@
         </is>
       </c>
       <c r="D325" t="n">
-        <v>1043</v>
+        <v>1481</v>
       </c>
       <c r="E325" t="n">
         <v>10</v>
@@ -8892,12 +8892,12 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>BD042AVT</t>
+          <t>BD040AVT</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Fiesta (02-) / Fusion (02-) передний</t>
+          <t>Диск тормозной Ford Focus (04-) задний</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -8906,10 +8906,10 @@
         </is>
       </c>
       <c r="D326" t="n">
-        <v>1481</v>
+        <v>1373</v>
       </c>
       <c r="E326" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F326" t="n">
         <v>2</v>
@@ -8918,12 +8918,12 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>BD040AVT</t>
+          <t>BD015AVT</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Focus (04-) задний</t>
+          <t>Диск тормозной Ford Focus (04-) задний d.264,8</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -8932,10 +8932,10 @@
         </is>
       </c>
       <c r="D327" t="n">
-        <v>1373</v>
+        <v>1270</v>
       </c>
       <c r="E327" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F327" t="n">
         <v>2</v>
@@ -8944,12 +8944,12 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>BD015AVT</t>
+          <t>BD006AVT</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Focus (04-) задний d.264,8</t>
+          <t>Диск тормозной Ford Focus II (05-) / Ford Focus III (11-) передний</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -8958,7 +8958,7 @@
         </is>
       </c>
       <c r="D328" t="n">
-        <v>1270</v>
+        <v>2310</v>
       </c>
       <c r="E328" t="n">
         <v>10</v>
@@ -8970,12 +8970,12 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>BD006AVT</t>
+          <t>BD013AVT</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Focus II (05-) / Ford Focus III (11-) передний</t>
+          <t>Диск тормозной Ford Focus II (05-) / Ford Focus III (11-) передний d.278,1</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -8984,7 +8984,7 @@
         </is>
       </c>
       <c r="D329" t="n">
-        <v>2310</v>
+        <v>1964</v>
       </c>
       <c r="E329" t="n">
         <v>10</v>
@@ -8996,12 +8996,12 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>BD013AVT</t>
+          <t>BD032AVT</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Focus II (05-) / Ford Focus III (11-) передний d.278,1</t>
+          <t>Диск тормозной Ford Focus III (11-) задний</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -9010,7 +9010,7 @@
         </is>
       </c>
       <c r="D330" t="n">
-        <v>1964</v>
+        <v>1494</v>
       </c>
       <c r="E330" t="n">
         <v>10</v>
@@ -9022,12 +9022,12 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>BD032AVT</t>
+          <t>BD076AVT</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Focus III (11-) задний</t>
+          <t>Диск тормозной Ford Mondeo IV (07-) задний</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -9036,7 +9036,7 @@
         </is>
       </c>
       <c r="D331" t="n">
-        <v>1494</v>
+        <v>1741</v>
       </c>
       <c r="E331" t="n">
         <v>10</v>
@@ -9048,12 +9048,12 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>BD076AVT</t>
+          <t>BD033AVT</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Диск тормозной Ford Mondeo IV (07-) задний</t>
+          <t>Диск тормозной Hyundai Accent (00-) передний</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -9062,7 +9062,7 @@
         </is>
       </c>
       <c r="D332" t="n">
-        <v>1741</v>
+        <v>1333</v>
       </c>
       <c r="E332" t="n">
         <v>10</v>
@@ -9074,12 +9074,12 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>BD033AVT</t>
+          <t>BD037AVT</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Accent (00-) передний</t>
+          <t>Диск тормозной Hyundai Creta (16-) задний 2WD</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -9088,7 +9088,7 @@
         </is>
       </c>
       <c r="D333" t="n">
-        <v>1333</v>
+        <v>1270</v>
       </c>
       <c r="E333" t="n">
         <v>10</v>
@@ -9100,12 +9100,12 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>BD037AVT</t>
+          <t>BD041AVT</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Creta (16-) задний 2WD</t>
+          <t>Диск тормозной Hyundai Getz (02-) задний</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -9114,7 +9114,7 @@
         </is>
       </c>
       <c r="D334" t="n">
-        <v>1270</v>
+        <v>1253</v>
       </c>
       <c r="E334" t="n">
         <v>10</v>
@@ -9126,12 +9126,12 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>BD041AVT</t>
+          <t>BD054AVT</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Getz (02-) задний</t>
+          <t>Диск тормозной Hyundai Getz (02-) передний (ABS)</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -9140,7 +9140,7 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>1253</v>
+        <v>1343</v>
       </c>
       <c r="E335" t="n">
         <v>10</v>
@@ -9152,12 +9152,12 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>BD054AVT</t>
+          <t>BD055AVT</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Getz (02-) передний (ABS)</t>
+          <t>Диск тормозной Hyundai Getz (02-) передний (без ABS)</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -9166,7 +9166,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>1343</v>
+        <v>1309</v>
       </c>
       <c r="E336" t="n">
         <v>10</v>
@@ -9178,12 +9178,12 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>BD055AVT</t>
+          <t>BD002AVT</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Getz (02-) передний (без ABS)</t>
+          <t>Диск тормозной Hyundai Solaris (10-) (17-) задний</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -9192,7 +9192,7 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>1309</v>
+        <v>1230</v>
       </c>
       <c r="E337" t="n">
         <v>10</v>
@@ -9204,12 +9204,12 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>BD002AVT</t>
+          <t>BD001AVT</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Solaris (10-) (17-) задний</t>
+          <t>Диск тормозной Hyundai Solaris (10-) (17-) передний</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -9218,7 +9218,7 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>1230</v>
+        <v>1418</v>
       </c>
       <c r="E338" t="n">
         <v>10</v>
@@ -9230,12 +9230,12 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>BD001AVT</t>
+          <t>BD027AVT</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Диск тормозной Hyundai Solaris (10-) (17-) передний</t>
+          <t>Диск тормозной Kia Ceed (07-) / Cerato (09-) / Hyundai i30 (07-) передний</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -9244,7 +9244,7 @@
         </is>
       </c>
       <c r="D339" t="n">
-        <v>1418</v>
+        <v>1949</v>
       </c>
       <c r="E339" t="n">
         <v>10</v>
@@ -9256,12 +9256,12 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>BD027AVT</t>
+          <t>BD068AVT</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Ceed (07-) / Cerato (09-) / Hyundai i30 (07-) передний</t>
+          <t>Диск тормозной Kia Sorento II (09-) задний</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -9270,7 +9270,7 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>1949</v>
+        <v>1909</v>
       </c>
       <c r="E340" t="n">
         <v>10</v>
@@ -9282,12 +9282,12 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>BD068AVT</t>
+          <t>BD028AVT</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Sorento II (09-) задний</t>
+          <t>Диск тормозной Kia Sportage (10-) / Hyundai ix35 (10-) задний</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="D341" t="n">
-        <v>1909</v>
+        <v>1324</v>
       </c>
       <c r="E341" t="n">
         <v>10</v>
@@ -9308,12 +9308,12 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>BD028AVT</t>
+          <t>BD045AVT</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Sportage (10-) / Hyundai ix35 (10-) задний</t>
+          <t>Диск тормозной Kia Sportage III (10-) / Hyundai iX 35 (09-) задний</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -9322,7 +9322,7 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>1324</v>
+        <v>1459</v>
       </c>
       <c r="E342" t="n">
         <v>10</v>
@@ -9334,12 +9334,12 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>BD045AVT</t>
+          <t>BD011AVT</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Диск тормозной Kia Sportage III (10-) / Hyundai iX 35 (09-) задний</t>
+          <t>Диск тормозной Lada Largus (12-) / Renault Logan (07-) передний (без ABS)</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -9348,7 +9348,7 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>1459</v>
+        <v>1451</v>
       </c>
       <c r="E343" t="n">
         <v>10</v>
@@ -9360,12 +9360,12 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>BD011AVT</t>
+          <t>BD060AVT</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Диск тормозной Lada Largus (12-) / Renault Logan (07-) передний (без ABS)</t>
+          <t>Диск тормозной Mazda 3 (03-) задний</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -9374,7 +9374,7 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>1451</v>
+        <v>1231</v>
       </c>
       <c r="E344" t="n">
         <v>10</v>
@@ -9386,12 +9386,12 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>BD060AVT</t>
+          <t>BD059AVT</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Диск тормозной Mazda 3 (03-) задний</t>
+          <t>Диск тормозной Mazda 3 (03-) передний</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -9400,7 +9400,7 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>1231</v>
+        <v>2041</v>
       </c>
       <c r="E345" t="n">
         <v>10</v>
@@ -9412,12 +9412,12 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>BD059AVT</t>
+          <t>BD081AVT</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Диск тормозной Mazda 3 (03-) передний</t>
+          <t>Диск тормозной Mitsubishi ASX (10-) / Outlander III / Peugeot 4008 / Citroen C4 Aircross (12-) задни</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -9426,7 +9426,7 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>2041</v>
+        <v>1757</v>
       </c>
       <c r="E346" t="n">
         <v>10</v>
@@ -9438,12 +9438,12 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>BD081AVT</t>
+          <t>BD051AVT</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi ASX (10-) / Outlander III / Peugeot 4008 / Citroen C4 Aircross (12-) задни</t>
+          <t>Диск тормозной Mitsubishi Lancer (00-) задний</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -9452,7 +9452,7 @@
         </is>
       </c>
       <c r="D347" t="n">
-        <v>1757</v>
+        <v>1262</v>
       </c>
       <c r="E347" t="n">
         <v>10</v>
@@ -9464,12 +9464,12 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>BD051AVT</t>
+          <t>BD053AVT</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi Lancer (00-) задний</t>
+          <t>Диск тормозной Mitsubishi Lancer (00-) передний</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -9478,7 +9478,7 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>1262</v>
+        <v>1860</v>
       </c>
       <c r="E348" t="n">
         <v>10</v>
@@ -9490,12 +9490,12 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>BD053AVT</t>
+          <t>BD074AVT</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi Lancer (00-) передний</t>
+          <t>Диск тормозной Mitsubishi Lancer (08-) задний</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -9504,7 +9504,7 @@
         </is>
       </c>
       <c r="D349" t="n">
-        <v>1860</v>
+        <v>1393</v>
       </c>
       <c r="E349" t="n">
         <v>10</v>
@@ -9516,12 +9516,12 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>BD074AVT</t>
+          <t>BD048AVT</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi Lancer (08-) задний</t>
+          <t>Диск тормозной Mitsubishi Outlander (06-) передний</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -9530,7 +9530,7 @@
         </is>
       </c>
       <c r="D350" t="n">
-        <v>1393</v>
+        <v>2027</v>
       </c>
       <c r="E350" t="n">
         <v>10</v>
@@ -9542,12 +9542,12 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>BD048AVT</t>
+          <t>BD026AVT</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Диск тормозной Mitsubishi Outlander (06-) передний</t>
+          <t>Диск тормозной Nexia (95-) / Lanos (05-) передний</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -9556,7 +9556,7 @@
         </is>
       </c>
       <c r="D351" t="n">
-        <v>2027</v>
+        <v>1398</v>
       </c>
       <c r="E351" t="n">
         <v>10</v>
@@ -9568,12 +9568,12 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>BD026AVT</t>
+          <t>BD079AVT</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Диск тормозной Nexia (95-) / Lanos (05-) передний</t>
+          <t>Диск тормозной Nissan Almera Classic (06-) передний</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -9582,7 +9582,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>1398</v>
+        <v>1254</v>
       </c>
       <c r="E352" t="n">
         <v>10</v>
@@ -9594,12 +9594,12 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>BD079AVT</t>
+          <t>BD038AVT</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Almera Classic (06-) передний</t>
+          <t>Диск тормозной Nissan Juke (10-) задний</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -9608,7 +9608,7 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>1254</v>
+        <v>1578</v>
       </c>
       <c r="E353" t="n">
         <v>10</v>
@@ -9620,12 +9620,12 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>BD038AVT</t>
+          <t>BD020AVT</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Juke (10-) задний</t>
+          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) задний</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -9634,7 +9634,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>1578</v>
+        <v>1664</v>
       </c>
       <c r="E354" t="n">
         <v>10</v>
@@ -9646,12 +9646,12 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>BD020AVT</t>
+          <t>BD019AVT</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) задний</t>
+          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) передний</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -9660,7 +9660,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>1664</v>
+        <v>2299</v>
       </c>
       <c r="E355" t="n">
         <v>10</v>
@@ -9698,12 +9698,12 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>BD019AVT</t>
+          <t>BD058AVT</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Qashqai (06-) / X-Trail (07-) передний</t>
+          <t>Диск тормозной Nissan Qashqai II (13-) / X-Trail (14-) передний</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -9712,7 +9712,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>2299</v>
+        <v>2034</v>
       </c>
       <c r="E357" t="n">
         <v>10</v>
@@ -9724,12 +9724,12 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>BD058AVT</t>
+          <t>BD025AVT</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Диск тормозной Nissan Qashqai II (13-) / X-Trail (14-) передний</t>
+          <t>Диск тормозной Opel Astra H (04-) передний</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -9738,7 +9738,7 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>2034</v>
+        <v>1860</v>
       </c>
       <c r="E358" t="n">
         <v>10</v>
@@ -9750,12 +9750,12 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>BD025AVT</t>
+          <t>BD024AVT</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Диск тормозной Opel Astra H (04-) передний</t>
+          <t>Диск тормозной Opel Astra J (10-) / Chevrolet Cruze (09-) задний</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -9764,7 +9764,7 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>1860</v>
+        <v>1507</v>
       </c>
       <c r="E359" t="n">
         <v>10</v>
@@ -9776,12 +9776,12 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>BD024AVT</t>
+          <t>BD034AVT</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Диск тормозной Opel Astra J (10-) / Chevrolet Cruze (09-) задний</t>
+          <t>Диск тормозной Peugeot 307 (00-) / 308 (07-) / Citroen C4 (04-) передний</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -9790,7 +9790,7 @@
         </is>
       </c>
       <c r="D360" t="n">
-        <v>1507</v>
+        <v>1940</v>
       </c>
       <c r="E360" t="n">
         <v>10</v>
@@ -9802,12 +9802,12 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>BD034AVT</t>
+          <t>BD069AVT</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Диск тормозной Peugeot 307 (00-) / 308 (07-) / Citroen C4 (04-) передний</t>
+          <t>Диск тормозной Peugeot Partner / Citroen Berlingo (96-) передний</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -9816,7 +9816,7 @@
         </is>
       </c>
       <c r="D361" t="n">
-        <v>1940</v>
+        <v>1325</v>
       </c>
       <c r="E361" t="n">
         <v>10</v>
@@ -9828,12 +9828,12 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>BD069AVT</t>
+          <t>BD061AVT</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Диск тормозной Peugeot Partner / Citroen Berlingo (96-) передний</t>
+          <t>Диск тормозной Renault Koleos (08-) передний</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -9842,7 +9842,7 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>1325</v>
+        <v>2723</v>
       </c>
       <c r="E362" t="n">
         <v>10</v>
@@ -9854,12 +9854,12 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>BD061AVT</t>
+          <t>BD010AVT</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Koleos (08-) передний</t>
+          <t>Диск тормозной Renault Logan (04-) передний (без ABS)</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -9868,7 +9868,7 @@
         </is>
       </c>
       <c r="D363" t="n">
-        <v>2723</v>
+        <v>997</v>
       </c>
       <c r="E363" t="n">
         <v>10</v>
@@ -9880,12 +9880,12 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>BD010AVT</t>
+          <t>BD012AVT</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Диск тормозной Renault Logan (04-) передний (без ABS)</t>
+          <t>Диск тормозной Skoda Octavia (04-) / VW Golf V (03-) задний</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -9894,7 +9894,7 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>997</v>
+        <v>1234</v>
       </c>
       <c r="E364" t="n">
         <v>10</v>
@@ -9906,12 +9906,12 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>BD012AVT</t>
+          <t>BD016AVT</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Octavia (04-) / VW Golf V (03-) задний</t>
+          <t>Диск тормозной Skoda Octavia (04-) / VW Golf V (03-) передний</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -9920,7 +9920,7 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>1234</v>
+        <v>1789</v>
       </c>
       <c r="E365" t="n">
         <v>10</v>
@@ -9932,12 +9932,12 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>BD016AVT</t>
+          <t>BD008AVT</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Octavia (04-) / VW Golf V (03-) передний</t>
+          <t>Диск тормозной Skoda Octavia (13-) / VW Golf VII (12-) задний</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>1789</v>
+        <v>1326</v>
       </c>
       <c r="E366" t="n">
         <v>10</v>
@@ -9958,12 +9958,12 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>BD008AVT</t>
+          <t>BD063AVT</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Octavia (13-) / VW Golf VII (12-) задний</t>
+          <t>Диск тормозной Skoda Octavia (96-) / VW Golf IV (97-) передний</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -9972,7 +9972,7 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>1326</v>
+        <v>1729</v>
       </c>
       <c r="E367" t="n">
         <v>10</v>
@@ -9984,12 +9984,12 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>BD063AVT</t>
+          <t>BD007AVT</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Octavia (96-) / VW Golf IV (97-) передний</t>
+          <t>Диск тормозной Skoda Yeti (09-) передний</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -9998,7 +9998,7 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>1729</v>
+        <v>2183</v>
       </c>
       <c r="E368" t="n">
         <v>10</v>
@@ -10010,12 +10010,12 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>BD007AVT</t>
+          <t>BD064AVT</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Диск тормозной Skoda Yeti (09-) передний</t>
+          <t>Диск тормозной SsangYong Kyron (05-) задний</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -10024,7 +10024,7 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>2183</v>
+        <v>1950</v>
       </c>
       <c r="E369" t="n">
         <v>10</v>
@@ -10036,12 +10036,12 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>BD064AVT</t>
+          <t>BD070AVT</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Диск тормозной SsangYong Kyron (05-) задний</t>
+          <t>Диск тормозной Suzuki Grand Vitara (05-) передний</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -10050,7 +10050,7 @@
         </is>
       </c>
       <c r="D370" t="n">
-        <v>1950</v>
+        <v>1757</v>
       </c>
       <c r="E370" t="n">
         <v>10</v>
@@ -10062,12 +10062,12 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>BD070AVT</t>
+          <t>BD082AVT</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Диск тормозной Suzuki Grand Vitara (05-) передний</t>
+          <t>Диск тормозной Tank 500 передний</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -10076,7 +10076,7 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>1757</v>
+        <v>4511</v>
       </c>
       <c r="E371" t="n">
         <v>10</v>
@@ -10088,12 +10088,12 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>BD082AVT</t>
+          <t>BD044AVT</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Диск тормозной Tank 500 передний</t>
+          <t>Диск тормозной Toyota Camry (06-) задний</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -10102,7 +10102,7 @@
         </is>
       </c>
       <c r="D372" t="n">
-        <v>4511</v>
+        <v>1597</v>
       </c>
       <c r="E372" t="n">
         <v>10</v>
@@ -10114,12 +10114,12 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>BD044AVT</t>
+          <t>BD036AVT</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Camry (06-) задний</t>
+          <t>Диск тормозной Toyota Corolla (06-) / Auris (06-) задний</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -10128,7 +10128,7 @@
         </is>
       </c>
       <c r="D373" t="n">
-        <v>1597</v>
+        <v>1127</v>
       </c>
       <c r="E373" t="n">
         <v>10</v>
@@ -10140,12 +10140,12 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>BD036AVT</t>
+          <t>BD035AVT</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Corolla (06-) / Auris (06-) задний</t>
+          <t>Диск тормозной Toyota Corolla (06-) / Auris (06-) передний</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -10154,7 +10154,7 @@
         </is>
       </c>
       <c r="D374" t="n">
-        <v>1127</v>
+        <v>1699</v>
       </c>
       <c r="E374" t="n">
         <v>10</v>
@@ -10166,12 +10166,12 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>BD035AVT</t>
+          <t>BD071AVT</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota Corolla (06-) / Auris (06-) передний</t>
+          <t>Диск тормозной Toyota LC 200 (07-) задний</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -10180,7 +10180,7 @@
         </is>
       </c>
       <c r="D375" t="n">
-        <v>1699</v>
+        <v>2298</v>
       </c>
       <c r="E375" t="n">
         <v>10</v>
@@ -10192,12 +10192,12 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>BD071AVT</t>
+          <t>BD052AVT</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota LC 200 (07-) задний</t>
+          <t>Диск тормозной Toyota LC 200 (07-) передний</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -10206,7 +10206,7 @@
         </is>
       </c>
       <c r="D376" t="n">
-        <v>2298</v>
+        <v>2939</v>
       </c>
       <c r="E376" t="n">
         <v>10</v>
@@ -10218,12 +10218,12 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>BD052AVT</t>
+          <t>BD066AVT</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota LC 200 (07-) передний</t>
+          <t>Диск тормозной Toyota LC Prado (09-) передний</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -10232,7 +10232,7 @@
         </is>
       </c>
       <c r="D377" t="n">
-        <v>2939</v>
+        <v>3275</v>
       </c>
       <c r="E377" t="n">
         <v>10</v>
@@ -10244,12 +10244,12 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>BD066AVT</t>
+          <t>BD029AVT</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota LC Prado (09-) передний</t>
+          <t>Диск тормозной Toyota RAV 4 (06-) / RAV 4 (13-) задний</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -10258,7 +10258,7 @@
         </is>
       </c>
       <c r="D378" t="n">
-        <v>3275</v>
+        <v>1684</v>
       </c>
       <c r="E378" t="n">
         <v>10</v>
@@ -10270,12 +10270,12 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>BD029AVT</t>
+          <t>BD065AVT</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Диск тормозной Toyota RAV 4 (06-) / RAV 4 (13-) задний</t>
+          <t>Диск тормозной Volvo XC 70 (07-) / S60 (10-) / S80 (06-) передний</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -10284,7 +10284,7 @@
         </is>
       </c>
       <c r="D379" t="n">
-        <v>1684</v>
+        <v>2572</v>
       </c>
       <c r="E379" t="n">
         <v>10</v>
@@ -10296,12 +10296,12 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>BD065AVT</t>
+          <t>BD047AVT</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Диск тормозной Volvo XC 70 (07-) / S60 (10-) / S80 (06-) передний</t>
+          <t>Диск тормозной VW Passat (96-) задний</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -10310,7 +10310,7 @@
         </is>
       </c>
       <c r="D380" t="n">
-        <v>2572</v>
+        <v>1218</v>
       </c>
       <c r="E380" t="n">
         <v>10</v>
@@ -10322,12 +10322,12 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>BD047AVT</t>
+          <t>BD072AVT</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Passat (96-) задний</t>
+          <t>Диск тормозной VW Passat (96-) передний</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -10336,7 +10336,7 @@
         </is>
       </c>
       <c r="D381" t="n">
-        <v>1218</v>
+        <v>1788</v>
       </c>
       <c r="E381" t="n">
         <v>10</v>
@@ -10348,12 +10348,12 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>BD072AVT</t>
+          <t>BD009AVT</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Passat (96-) передний</t>
+          <t>Диск тормозной VW Polo Sedan (10-) передний d.286,8</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -10362,7 +10362,7 @@
         </is>
       </c>
       <c r="D382" t="n">
-        <v>1788</v>
+        <v>2159</v>
       </c>
       <c r="E382" t="n">
         <v>10</v>
@@ -10374,12 +10374,12 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>BD009AVT</t>
+          <t>BD014AVT</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Polo Sedan (10-) передний d.286,8</t>
+          <t>Диск тормозной VW Tiguan (07-) задний</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -10388,7 +10388,7 @@
         </is>
       </c>
       <c r="D383" t="n">
-        <v>2159</v>
+        <v>1496</v>
       </c>
       <c r="E383" t="n">
         <v>10</v>
@@ -10400,12 +10400,12 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>BD014AVT</t>
+          <t>BD003AVT</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Tiguan (07-) задний</t>
+          <t>Диск тормозной VW Tiguan (07-) передний</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -10414,7 +10414,7 @@
         </is>
       </c>
       <c r="D384" t="n">
-        <v>1496</v>
+        <v>2494</v>
       </c>
       <c r="E384" t="n">
         <v>10</v>
@@ -10426,12 +10426,12 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>BD003AVT</t>
+          <t>BD043AVT</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Tiguan (07-) передний</t>
+          <t>Диск тормозной VW Tiguan (16-) / Skoda Kodiaq (16-) задний</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -10440,7 +10440,7 @@
         </is>
       </c>
       <c r="D385" t="n">
-        <v>2494</v>
+        <v>1879</v>
       </c>
       <c r="E385" t="n">
         <v>10</v>
@@ -10452,12 +10452,12 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>BD043AVT</t>
+          <t>826787AVT</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Диск тормозной VW Tiguan (16-) / Skoda Kodiaq (16-) задний</t>
+          <t>Комплект сцепления без подшипника Chevrolet Lacetti (04-)</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -10466,24 +10466,24 @@
         </is>
       </c>
       <c r="D386" t="n">
-        <v>1879</v>
+        <v>5111</v>
       </c>
       <c r="E386" t="n">
         <v>10</v>
       </c>
       <c r="F386" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>826787AVT</t>
+          <t>826853AVT</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Комплект сцепления без подшипника Chevrolet Lacetti (04-)</t>
+          <t>Комплект сцепления без подшипника Renault Logan (08-)</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -10492,7 +10492,7 @@
         </is>
       </c>
       <c r="D387" t="n">
-        <v>5111</v>
+        <v>3703</v>
       </c>
       <c r="E387" t="n">
         <v>10</v>
@@ -10504,12 +10504,12 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>826853AVT</t>
+          <t>3495AVT</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Комплект сцепления без подшипника Renault Logan (08-)</t>
+          <t>Комплект сцепления с подшипником 2107</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -10518,7 +10518,7 @@
         </is>
       </c>
       <c r="D388" t="n">
-        <v>3703</v>
+        <v>4656</v>
       </c>
       <c r="E388" t="n">
         <v>10</v>
@@ -10530,12 +10530,12 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>3495AVT</t>
+          <t>826245AVT</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником 2107</t>
+          <t>Комплект сцепления с подшипником Citroen C3 (03-) 1.1-1.4 (05-)</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -10544,10 +10544,10 @@
         </is>
       </c>
       <c r="D389" t="n">
-        <v>4656</v>
+        <v>3112</v>
       </c>
       <c r="E389" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F389" t="n">
         <v>1</v>
@@ -10556,12 +10556,12 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>826245AVT</t>
+          <t>826568AVT</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Citroen C3 (03-) 1.1-1.4 (05-)</t>
+          <t>Комплект сцепления с подшипником Daewoo Matiz (01-)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -10570,10 +10570,10 @@
         </is>
       </c>
       <c r="D390" t="n">
-        <v>3112</v>
+        <v>3259</v>
       </c>
       <c r="E390" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F390" t="n">
         <v>1</v>
@@ -10582,12 +10582,12 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>826568AVT</t>
+          <t>821098AVT</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Daewoo Matiz (01-)</t>
+          <t>Комплект сцепления с подшипником Daewoo Nexia (95-)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="D391" t="n">
-        <v>3259</v>
+        <v>3667</v>
       </c>
       <c r="E391" t="n">
         <v>10</v>
@@ -10608,12 +10608,12 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>821098AVT</t>
+          <t>826298AVT</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Daewoo Nexia (95-)</t>
+          <t>Комплект сцепления с подшипником GAZ 3110 / 3302 (ZMZ 402 / 406)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -10622,7 +10622,7 @@
         </is>
       </c>
       <c r="D392" t="n">
-        <v>3667</v>
+        <v>4516</v>
       </c>
       <c r="E392" t="n">
         <v>10</v>
@@ -10660,12 +10660,12 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>826298AVT</t>
+          <t>801515AVT</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником GAZ 3110 / 3302 (ZMZ 402 / 406)</t>
+          <t>Комплект сцепления с подшипником Nissan Almera N16 (00-04) 1.5</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -10674,7 +10674,7 @@
         </is>
       </c>
       <c r="D394" t="n">
-        <v>4516</v>
+        <v>4482</v>
       </c>
       <c r="E394" t="n">
         <v>10</v>
@@ -10686,12 +10686,12 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>801515AVT</t>
+          <t>826211AVT</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Nissan Almera N16 (00-04) 1.5</t>
+          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 306 (97-) / Partner (96-) 1.4-1.6</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -10700,10 +10700,10 @@
         </is>
       </c>
       <c r="D395" t="n">
-        <v>4482</v>
+        <v>3830</v>
       </c>
       <c r="E395" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F395" t="n">
         <v>1</v>
@@ -10712,12 +10712,12 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>826211AVT</t>
+          <t>821340AVT</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 306 (97-) / Partner (96-) 1.4-1.6</t>
+          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 307 (00-) 1.1-1.4</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -10726,10 +10726,10 @@
         </is>
       </c>
       <c r="D396" t="n">
-        <v>3830</v>
+        <v>3912</v>
       </c>
       <c r="E396" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F396" t="n">
         <v>1</v>
@@ -10738,12 +10738,12 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>821340AVT</t>
+          <t>826213AVT</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Peugeot 206 (98-) / 307 (00-) 1.1-1.4</t>
+          <t>Комплект сцепления с подшипником Peugeot 307 (00-)</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -10752,7 +10752,7 @@
         </is>
       </c>
       <c r="D397" t="n">
-        <v>3912</v>
+        <v>3749</v>
       </c>
       <c r="E397" t="n">
         <v>10</v>
@@ -10764,12 +10764,12 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>826213AVT</t>
+          <t>821183AVT</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Peugeot 307 (00-)</t>
+          <t>Комплект сцепления с подшипником Renault Logan (04-)</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -10778,7 +10778,7 @@
         </is>
       </c>
       <c r="D398" t="n">
-        <v>3749</v>
+        <v>3830</v>
       </c>
       <c r="E398" t="n">
         <v>10</v>
@@ -10790,12 +10790,12 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>821183AVT</t>
+          <t>826577AVT</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Renault Logan (04-)</t>
+          <t>Комплект сцепления с подшипником Renault Logan I 1.4 (04-)</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -10804,7 +10804,7 @@
         </is>
       </c>
       <c r="D399" t="n">
-        <v>3830</v>
+        <v>4662</v>
       </c>
       <c r="E399" t="n">
         <v>10</v>
@@ -10816,12 +10816,12 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>826577AVT</t>
+          <t>828009AVT</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Renault Logan I 1.4 (04-)</t>
+          <t>Комплект сцепления с подшипником UAZ 3151 / 3160 (ZMZ 409)</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -10830,7 +10830,7 @@
         </is>
       </c>
       <c r="D400" t="n">
-        <v>4662</v>
+        <v>5112</v>
       </c>
       <c r="E400" t="n">
         <v>10</v>
@@ -10868,12 +10868,12 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>828009AVT</t>
+          <t>826326AVT</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником UAZ 3151 / 3160 (ZMZ 409)</t>
+          <t>Комплект сцепления с подшипником VW Polo Sedan (10-)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -10882,7 +10882,7 @@
         </is>
       </c>
       <c r="D402" t="n">
-        <v>5112</v>
+        <v>5297</v>
       </c>
       <c r="E402" t="n">
         <v>10</v>
@@ -10894,12 +10894,12 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>826326AVT</t>
+          <t>826474AVT</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником VW Polo Sedan (10-)</t>
+          <t>Комплект сцепления с подшипником Нива</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -10908,7 +10908,7 @@
         </is>
       </c>
       <c r="D403" t="n">
-        <v>5297</v>
+        <v>7272</v>
       </c>
       <c r="E403" t="n">
         <v>10</v>
@@ -10920,12 +10920,12 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>826474AVT</t>
+          <t>CD044AVT</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Нива</t>
+          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.0</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -10934,7 +10934,7 @@
         </is>
       </c>
       <c r="D404" t="n">
-        <v>7272</v>
+        <v>5124</v>
       </c>
       <c r="E404" t="n">
         <v>10</v>
@@ -10946,12 +10946,12 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>CD044AVT</t>
+          <t>CD046AVT</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.0</t>
+          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.2</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -10960,7 +10960,7 @@
         </is>
       </c>
       <c r="D405" t="n">
-        <v>5124</v>
+        <v>5364</v>
       </c>
       <c r="E405" t="n">
         <v>10</v>
@@ -10972,12 +10972,12 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>CD046AVT</t>
+          <t>CD036AVT</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Конденсор Audi A4 (07-) / A6 (11-) / Q5 (08-) 1.8-3.2</t>
+          <t>Конденсор Chevrolet Aveo T300 (11-) 1.2-1.6</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -10986,7 +10986,7 @@
         </is>
       </c>
       <c r="D406" t="n">
-        <v>5364</v>
+        <v>4404</v>
       </c>
       <c r="E406" t="n">
         <v>10</v>
@@ -10998,12 +10998,12 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>CD036AVT</t>
+          <t>CD047AVT</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Конденсор Chevrolet Aveo T300 (11-) 1.2-1.6</t>
+          <t>Конденсор Chevrolet Captiva / Opel Antara (06-) 2.0-2.2D</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -11012,7 +11012,7 @@
         </is>
       </c>
       <c r="D407" t="n">
-        <v>4404</v>
+        <v>4788</v>
       </c>
       <c r="E407" t="n">
         <v>10</v>
@@ -11024,12 +11024,12 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>CD047AVT</t>
+          <t>CD048AVT</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Конденсор Chevrolet Captiva / Opel Antara (06-) 2.0-2.2D</t>
+          <t>Конденсор Chevrolet Cruze / Opel Astra J (09-) 1.4-1.8</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -11038,7 +11038,7 @@
         </is>
       </c>
       <c r="D408" t="n">
-        <v>4788</v>
+        <v>3900</v>
       </c>
       <c r="E408" t="n">
         <v>10</v>
@@ -11050,12 +11050,12 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>CD048AVT</t>
+          <t>CD033AVT</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Конденсор Chevrolet Cruze / Opel Astra J (09-) 1.4-1.8</t>
+          <t>Конденсор Ford Focus II (05-) / Volvo S40 (04-) 1.4-2.0</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -11064,7 +11064,7 @@
         </is>
       </c>
       <c r="D409" t="n">
-        <v>3900</v>
+        <v>4044</v>
       </c>
       <c r="E409" t="n">
         <v>10</v>
@@ -11076,12 +11076,12 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>CD033AVT</t>
+          <t>CD037AVT</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Конденсор Ford Focus II (05-) / Volvo S40 (04-) 1.4-2.0</t>
+          <t>Конденсор Ford Mondeo (07-) / Volvo XC60 (08-) / XC70 (07-) / S80 (06-) 1.6-2.5</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -11090,7 +11090,7 @@
         </is>
       </c>
       <c r="D410" t="n">
-        <v>4044</v>
+        <v>5388</v>
       </c>
       <c r="E410" t="n">
         <v>10</v>
@@ -11102,12 +11102,12 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>CD037AVT</t>
+          <t>CD038AVT</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Конденсор Ford Mondeo (07-) / Volvo XC60 (08-) / XC70 (07-) / S80 (06-) 1.6-2.5</t>
+          <t>Конденсор Hyundai Accent II (99-) MT 1.3-1.6</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -11116,7 +11116,7 @@
         </is>
       </c>
       <c r="D411" t="n">
-        <v>5388</v>
+        <v>3708</v>
       </c>
       <c r="E411" t="n">
         <v>10</v>
@@ -11128,12 +11128,12 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>CD038AVT</t>
+          <t>CD039AVT</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Конденсор Hyundai Accent II (99-) MT 1.3-1.6</t>
+          <t>Конденсор Hyundai Tucson (15-) / Kia Sportage (16-) 1.6-2.0</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -11142,7 +11142,7 @@
         </is>
       </c>
       <c r="D412" t="n">
-        <v>3708</v>
+        <v>5856</v>
       </c>
       <c r="E412" t="n">
         <v>10</v>
@@ -11154,12 +11154,12 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>CD039AVT</t>
+          <t>CD045AVT</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Конденсор Hyundai Tucson (15-) / Kia Sportage (16-) 1.6-2.0</t>
+          <t>Конденсор Mazda 3 (09-) 1.6-2.5</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -11168,7 +11168,7 @@
         </is>
       </c>
       <c r="D413" t="n">
-        <v>5856</v>
+        <v>5220</v>
       </c>
       <c r="E413" t="n">
         <v>10</v>
@@ -11180,12 +11180,12 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>CD045AVT</t>
+          <t>CD041AVT</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Конденсор Mazda 3 (09-) 1.6-2.5</t>
+          <t>Конденсор Mitsubishi Outlander (12-) 2.0-2.4</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -11194,7 +11194,7 @@
         </is>
       </c>
       <c r="D414" t="n">
-        <v>5220</v>
+        <v>4428</v>
       </c>
       <c r="E414" t="n">
         <v>10</v>
@@ -11206,12 +11206,12 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>CD041AVT</t>
+          <t>CD042AVT</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Конденсор Mitsubishi Outlander (12-) 2.0-2.4</t>
+          <t>Конденсор Nissan Note (06-) / Tiida (04-) / Juke (10-) 1.2-1.6</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -11220,7 +11220,7 @@
         </is>
       </c>
       <c r="D415" t="n">
-        <v>4428</v>
+        <v>4248</v>
       </c>
       <c r="E415" t="n">
         <v>10</v>
@@ -11232,12 +11232,12 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>CD042AVT</t>
+          <t>CD043AVT</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Конденсор Nissan Note (06-) / Tiida (04-) / Juke (10-) 1.2-1.6</t>
+          <t>Конденсор Opel Astra H (04-) 1.4-1.8</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="D416" t="n">
-        <v>4248</v>
+        <v>4692</v>
       </c>
       <c r="E416" t="n">
         <v>10</v>
@@ -11258,12 +11258,12 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>CD043AVT</t>
+          <t>CD034AVT</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Конденсор Opel Astra H (04-) 1.4-1.8</t>
+          <t>Конденсор Skoda Kodiaq (16-) / Skoda Octavia A7 (13-) / VW Tiguan (16-) 1.2-2.0</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -11272,7 +11272,7 @@
         </is>
       </c>
       <c r="D417" t="n">
-        <v>4692</v>
+        <v>5292</v>
       </c>
       <c r="E417" t="n">
         <v>10</v>
@@ -11284,12 +11284,12 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>CD034AVT</t>
+          <t>CD035AVT</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Конденсор Skoda Kodiaq (16-) / Skoda Octavia A7 (13-) / VW Tiguan (16-) 1.2-2.0</t>
+          <t>Конденсор Skoda Octavia A5 (04-) / VW Golf V (03-) 1.6-2.0</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -11298,7 +11298,7 @@
         </is>
       </c>
       <c r="D418" t="n">
-        <v>5292</v>
+        <v>5136</v>
       </c>
       <c r="E418" t="n">
         <v>10</v>
@@ -11310,12 +11310,12 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>CD035AVT</t>
+          <t>836383AVT</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Конденсор Skoda Octavia A5 (04-) / VW Golf V (03-) 1.6-2.0</t>
+          <t>Одномассовый маховик HYUNDAI SOLARIS 17-</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -11324,10 +11324,10 @@
         </is>
       </c>
       <c r="D419" t="n">
-        <v>5136</v>
+        <v>6000</v>
       </c>
       <c r="E419" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F419" t="n">
         <v>1</v>
@@ -11336,12 +11336,12 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>836383AVT</t>
+          <t>836365AVT</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Одномассовый маховик HYUNDAI SOLARIS 17-</t>
+          <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -11350,10 +11350,10 @@
         </is>
       </c>
       <c r="D420" t="n">
-        <v>6000</v>
+        <v>3300</v>
       </c>
       <c r="E420" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F420" t="n">
         <v>1</v>
@@ -11388,12 +11388,12 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>836365AVT</t>
+          <t>804295AVT</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
+          <t>Подшипник выжимной 2101-2107</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -11402,7 +11402,7 @@
         </is>
       </c>
       <c r="D422" t="n">
-        <v>3300</v>
+        <v>1070</v>
       </c>
       <c r="E422" t="n">
         <v>10</v>
@@ -11414,12 +11414,12 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>804295AVT</t>
+          <t>804036AVT</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Подшипник выжимной 2101-2107</t>
+          <t>Подшипник выжимной CITROEN/PEUGEOT</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -11428,7 +11428,7 @@
         </is>
       </c>
       <c r="D423" t="n">
-        <v>1070</v>
+        <v>696</v>
       </c>
       <c r="E423" t="n">
         <v>10</v>
@@ -11440,12 +11440,12 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>804036AVT</t>
+          <t>804299AVT</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Подшипник выжимной CITROEN/PEUGEOT</t>
+          <t>Подшипник выжимной PSA</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -11454,7 +11454,7 @@
         </is>
       </c>
       <c r="D424" t="n">
-        <v>696</v>
+        <v>720</v>
       </c>
       <c r="E424" t="n">
         <v>10</v>
@@ -11466,12 +11466,12 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>804299AVT</t>
+          <t>804587AVT</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Подшипник выжимной PSA</t>
+          <t>Подшипник гидравлический RENAULT DUSTER 1.6</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -11480,7 +11480,7 @@
         </is>
       </c>
       <c r="D425" t="n">
-        <v>720</v>
+        <v>7200</v>
       </c>
       <c r="E425" t="n">
         <v>10</v>
@@ -11492,12 +11492,12 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>804587AVT</t>
+          <t>701514AVT</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Подшипник гидравлический RENAULT DUSTER 1.6</t>
+          <t>Радиатор Веста / Икс-Рэй</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -11506,7 +11506,7 @@
         </is>
       </c>
       <c r="D426" t="n">
-        <v>7200</v>
+        <v>4212</v>
       </c>
       <c r="E426" t="n">
         <v>10</v>
@@ -11518,12 +11518,12 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>701514AVT</t>
+          <t>RD204AVT</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Радиатор Веста / Икс-Рэй</t>
+          <t>Радиатор двигатель паяный Hyundai Solaris / KIA RIO II (17-) 1.4i / 1.6i</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -11532,7 +11532,7 @@
         </is>
       </c>
       <c r="D427" t="n">
-        <v>4212</v>
+        <v>5585</v>
       </c>
       <c r="E427" t="n">
         <v>10</v>
@@ -11544,12 +11544,12 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>RD204AVT</t>
+          <t>RD026AVT</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Радиатор двигатель паяный Hyundai Solaris / KIA RIO II (17-) 1.4i / 1.6i</t>
+          <t>Радиатор двигателя BMW X5 (E70) (07-) 30d/3.0t AT (паяный)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -11558,7 +11558,7 @@
         </is>
       </c>
       <c r="D428" t="n">
-        <v>5585</v>
+        <v>12251</v>
       </c>
       <c r="E428" t="n">
         <v>10</v>
@@ -11570,12 +11570,12 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>RD026AVT</t>
+          <t>RD008AVT</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Радиатор двигателя BMW X5 (E70) (07-) 30d/3.0t AT (паяный)</t>
+          <t>Радиатор двигателя CHEVROLET CRUZE (09-) 1.6-1.8i / ORLANDO (10-) 1.8i MT</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -11584,7 +11584,7 @@
         </is>
       </c>
       <c r="D429" t="n">
-        <v>12251</v>
+        <v>5634</v>
       </c>
       <c r="E429" t="n">
         <v>10</v>
@@ -11596,12 +11596,12 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>RD008AVT</t>
+          <t>RD018AVT</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Радиатор двигателя CHEVROLET CRUZE (09-) 1.6-1.8i / ORLANDO (10-) 1.8i MT</t>
+          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i AT</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -11610,7 +11610,7 @@
         </is>
       </c>
       <c r="D430" t="n">
-        <v>5634</v>
+        <v>6371</v>
       </c>
       <c r="E430" t="n">
         <v>10</v>
@@ -11622,12 +11622,12 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>RD018AVT</t>
+          <t>RD009AVT</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i AT</t>
+          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i MT</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -11636,7 +11636,7 @@
         </is>
       </c>
       <c r="D431" t="n">
-        <v>6371</v>
+        <v>5555</v>
       </c>
       <c r="E431" t="n">
         <v>10</v>
@@ -11648,12 +11648,12 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>RD009AVT</t>
+          <t>RD011AVT</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Радиатор двигателя CHEVROLET CRUZE (10-) 1.6-1.8i MT</t>
+          <t>Радиатор двигателя Chevrolet Lacetti (04-) 1.4i/1.6i/1.8i MT (сборный)</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -11662,7 +11662,7 @@
         </is>
       </c>
       <c r="D432" t="n">
-        <v>5555</v>
+        <v>4973</v>
       </c>
       <c r="E432" t="n">
         <v>10</v>
@@ -11674,12 +11674,12 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>RD011AVT</t>
+          <t>RD016AVT</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Chevrolet Lacetti (04-) 1.4i/1.6i/1.8i MT (сборный)</t>
+          <t>Радиатор двигателя Daewoo Matiz (01-) 0.8i/1.0i MT (сборный)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -11688,7 +11688,7 @@
         </is>
       </c>
       <c r="D433" t="n">
-        <v>4973</v>
+        <v>2898</v>
       </c>
       <c r="E433" t="n">
         <v>10</v>
@@ -11700,12 +11700,12 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>RD016AVT</t>
+          <t>RD023AVT</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Daewoo Matiz (01-) 0.8i/1.0i MT (сборный)</t>
+          <t>Радиатор двигателя Daewoo Matiz (1998-) 0.8 MT (сборный)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -11714,7 +11714,7 @@
         </is>
       </c>
       <c r="D434" t="n">
-        <v>2898</v>
+        <v>3323</v>
       </c>
       <c r="E434" t="n">
         <v>10</v>
@@ -11726,12 +11726,12 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>RD023AVT</t>
+          <t>RD024AVT</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Daewoo Matiz (1998-) 0.8 MT (сборный)</t>
+          <t>Радиатор двигателя DAEWOO MATIZ (98-) 0.8i AT</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -11740,7 +11740,7 @@
         </is>
       </c>
       <c r="D435" t="n">
-        <v>3323</v>
+        <v>4207</v>
       </c>
       <c r="E435" t="n">
         <v>10</v>
@@ -11752,12 +11752,12 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>RD024AVT</t>
+          <t>RD015AVT</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Радиатор двигателя DAEWOO MATIZ (98-) 0.8i AT</t>
+          <t>Радиатор двигателя Daewoo Nexia (94-) 1.5/1.8 MT (сборный)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -11766,7 +11766,7 @@
         </is>
       </c>
       <c r="D436" t="n">
-        <v>4207</v>
+        <v>3204</v>
       </c>
       <c r="E436" t="n">
         <v>10</v>
@@ -11778,12 +11778,12 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>RD015AVT</t>
+          <t>RD040AVT</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Daewoo Nexia (94-) 1.5/1.8 MT (сборный)</t>
+          <t>Радиатор двигателя FORD FIESTA / FUSION (01-) 1.2-1.6i MT / AT</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -11792,7 +11792,7 @@
         </is>
       </c>
       <c r="D437" t="n">
-        <v>3204</v>
+        <v>2821</v>
       </c>
       <c r="E437" t="n">
         <v>10</v>
@@ -11804,12 +11804,12 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>RD040AVT</t>
+          <t>RD004AVT</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Радиатор двигателя FORD FIESTA / FUSION (01-) 1.2-1.6i MT / AT</t>
+          <t>Радиатор двигателя Ford Focus II (05-) A/C+ (сборный)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -11818,7 +11818,7 @@
         </is>
       </c>
       <c r="D438" t="n">
-        <v>2821</v>
+        <v>4726</v>
       </c>
       <c r="E438" t="n">
         <v>10</v>
@@ -11830,12 +11830,12 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>RD004AVT</t>
+          <t>RD048AVT</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Ford Focus II (05-) A/C+ (сборный)</t>
+          <t>Радиатор двигателя FORD FOCUS III / C-MAX (11-) 1.6-2.0i MT / AT</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -11844,7 +11844,7 @@
         </is>
       </c>
       <c r="D439" t="n">
-        <v>4726</v>
+        <v>6349</v>
       </c>
       <c r="E439" t="n">
         <v>10</v>
@@ -11856,12 +11856,12 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>RD048AVT</t>
+          <t>RD055AVT</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Радиатор двигателя FORD FOCUS III / C-MAX (11-) 1.6-2.0i MT / AT</t>
+          <t>Радиатор двигателя HYUNDAI SOLARIS (10-) / KIA RIO (10-) 1.4-1.6i 6AT</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -11870,7 +11870,7 @@
         </is>
       </c>
       <c r="D440" t="n">
-        <v>6349</v>
+        <v>4195</v>
       </c>
       <c r="E440" t="n">
         <v>10</v>
@@ -11882,12 +11882,12 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>RD055AVT</t>
+          <t>RD001AVT</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Радиатор двигателя HYUNDAI SOLARIS (10-) / KIA RIO (10-) 1.4-1.6i 6AT</t>
+          <t>Радиатор двигателя HYUNDAI SOLARIS (RB) / KIA RIO III (UB) (11-) 1.4-1.6i MT</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="D441" t="n">
-        <v>4195</v>
+        <v>3139</v>
       </c>
       <c r="E441" t="n">
         <v>10</v>
@@ -11908,12 +11908,12 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>RD001AVT</t>
+          <t>RD002AVT</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Радиатор двигателя HYUNDAI SOLARIS (RB) / KIA RIO III (UB) (11-) 1.4-1.6i MT</t>
+          <t>Радиатор двигателя Hyundai Solaris / Kia Rio (10-&gt;) AT (сборный)</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -11922,7 +11922,7 @@
         </is>
       </c>
       <c r="D442" t="n">
-        <v>3139</v>
+        <v>3203</v>
       </c>
       <c r="E442" t="n">
         <v>10</v>
@@ -11934,12 +11934,12 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>RD002AVT</t>
+          <t>RD057AVT</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Hyundai Solaris / Kia Rio (10-&gt;) AT (сборный)</t>
+          <t>Радиатор двигателя HYUNDAI SOLARIS / KIA RIO (17-) 1.4-1.6i MT</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
@@ -11948,7 +11948,7 @@
         </is>
       </c>
       <c r="D443" t="n">
-        <v>3203</v>
+        <v>3556</v>
       </c>
       <c r="E443" t="n">
         <v>10</v>
@@ -11960,12 +11960,12 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>RD057AVT</t>
+          <t>RD021AVT</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Радиатор двигателя HYUNDAI SOLARIS / KIA RIO (17-) 1.4-1.6i MT</t>
+          <t>Радиатор двигателя KIA CEED (ED) (07-) 1.4-2.0i / HYUNDAI ELANTRA (HD) (06-) 1.6-2.0i / HYUNDAI i30</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -11974,7 +11974,7 @@
         </is>
       </c>
       <c r="D444" t="n">
-        <v>3556</v>
+        <v>4904</v>
       </c>
       <c r="E444" t="n">
         <v>10</v>
@@ -11986,12 +11986,12 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>RD021AVT</t>
+          <t>RD087AVT</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA CEED (ED) (07-) 1.4-2.0i / HYUNDAI ELANTRA (HD) (06-) 1.6-2.0i / HYUNDAI i30</t>
+          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -12000,7 +12000,7 @@
         </is>
       </c>
       <c r="D445" t="n">
-        <v>4904</v>
+        <v>7403</v>
       </c>
       <c r="E445" t="n">
         <v>10</v>
@@ -12038,12 +12038,12 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>RD087AVT</t>
+          <t>RD062AVT</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
+          <t>Радиатор двигателя Kia Spectra (96-) 1.5-1.8 AT</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -12052,7 +12052,7 @@
         </is>
       </c>
       <c r="D447" t="n">
-        <v>7403</v>
+        <v>5772</v>
       </c>
       <c r="E447" t="n">
         <v>10</v>
@@ -12064,12 +12064,12 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>RD062AVT</t>
+          <t>RD020AVT</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia Spectra (96-) 1.5-1.8 AT</t>
+          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i AT</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -12078,7 +12078,7 @@
         </is>
       </c>
       <c r="D448" t="n">
-        <v>5772</v>
+        <v>6194</v>
       </c>
       <c r="E448" t="n">
         <v>10</v>
@@ -12090,12 +12090,12 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>RD020AVT</t>
+          <t>RD019AVT</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i AT</t>
+          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i MT</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -12104,7 +12104,7 @@
         </is>
       </c>
       <c r="D449" t="n">
-        <v>6194</v>
+        <v>4888</v>
       </c>
       <c r="E449" t="n">
         <v>10</v>
@@ -12116,12 +12116,12 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>RD019AVT</t>
+          <t>RD028AVT</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA SPORTAGE III (SL) (09-) / HYUNDAI ix35 (LM) (09-) 2.0-2.4i MT</t>
+          <t>Радиатор двигателя MB C (07-), E (-16), GLK (08-) 1.6-4.7i AT</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -12130,7 +12130,7 @@
         </is>
       </c>
       <c r="D450" t="n">
-        <v>4888</v>
+        <v>10615</v>
       </c>
       <c r="E450" t="n">
         <v>10</v>
@@ -12142,12 +12142,12 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>RD028AVT</t>
+          <t>RD029AVT</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MB C (07-), E (-16), GLK (08-) 1.6-4.7i AT</t>
+          <t>Радиатор двигателя MB E (16-), GLC (15-), C (14-), S (13-) 2.0-4.0 MT / AT</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
@@ -12156,7 +12156,7 @@
         </is>
       </c>
       <c r="D451" t="n">
-        <v>10615</v>
+        <v>12114</v>
       </c>
       <c r="E451" t="n">
         <v>10</v>
@@ -12168,12 +12168,12 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>RD029AVT</t>
+          <t>RD027AVT</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MB E (16-), GLC (15-), C (14-), S (13-) 2.0-4.0 MT / AT</t>
+          <t>Радиатор двигателя MB ML (12-) GL, GLS, GLE (-18) 2.2-5.5i AT</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -12182,7 +12182,7 @@
         </is>
       </c>
       <c r="D452" t="n">
-        <v>12114</v>
+        <v>11959</v>
       </c>
       <c r="E452" t="n">
         <v>10</v>
@@ -12194,12 +12194,12 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>RD027AVT</t>
+          <t>RD005AVT</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MB ML (12-) GL, GLS, GLE (-18) 2.2-5.5i AT</t>
+          <t>Радиатор двигателя MITSUBISHI ASX (10-) 1.6-1.8i / OUTLANDER (07-) 2.0-2.4i / LANCER (07-) 1.5-2.0i</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -12208,7 +12208,7 @@
         </is>
       </c>
       <c r="D453" t="n">
-        <v>11959</v>
+        <v>4110</v>
       </c>
       <c r="E453" t="n">
         <v>10</v>
@@ -12220,12 +12220,12 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>RD005AVT</t>
+          <t>RD060AVT</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MITSUBISHI ASX (10-) 1.6-1.8i / OUTLANDER (07-) 2.0-2.4i / LANCER (07-) 1.5-2.0i</t>
+          <t>Радиатор двигателя MITSUBISHI OUTLANDER III (12-) 2.0-3.0i MT / AT</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -12234,7 +12234,7 @@
         </is>
       </c>
       <c r="D454" t="n">
-        <v>4110</v>
+        <v>7210</v>
       </c>
       <c r="E454" t="n">
         <v>10</v>
@@ -12246,12 +12246,12 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>RD060AVT</t>
+          <t>RD017AVT</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MITSUBISHI OUTLANDER III (12-) 2.0-3.0i MT / AT</t>
+          <t>Радиатор двигателя NISSAN QASHQAI (J10) (07-) 1.6-2.0i MT / AT</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -12260,7 +12260,7 @@
         </is>
       </c>
       <c r="D455" t="n">
-        <v>7210</v>
+        <v>7289</v>
       </c>
       <c r="E455" t="n">
         <v>10</v>
@@ -12272,12 +12272,12 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>RD017AVT</t>
+          <t>RD063AVT</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Радиатор двигателя NISSAN QASHQAI (J10) (07-) 1.6-2.0i MT / AT</t>
+          <t>Радиатор двигателя Nissan X-Trail (14-) 2.0-2.5</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -12286,7 +12286,7 @@
         </is>
       </c>
       <c r="D456" t="n">
-        <v>7289</v>
+        <v>5864</v>
       </c>
       <c r="E456" t="n">
         <v>10</v>
@@ -12298,12 +12298,12 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>RD063AVT</t>
+          <t>RD014AVT</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Nissan X-Trail (14-) 2.0-2.5</t>
+          <t>Радиатор двигателя OPEL ZAFIRA / ASTRA H (05-) 1.6-1.8i MT / AT</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -12312,7 +12312,7 @@
         </is>
       </c>
       <c r="D457" t="n">
-        <v>5864</v>
+        <v>5726</v>
       </c>
       <c r="E457" t="n">
         <v>10</v>
@@ -12324,12 +12324,12 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>RD014AVT</t>
+          <t>RD003AVT</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Радиатор двигателя OPEL ZAFIRA / ASTRA H (05-) 1.6-1.8i MT / AT</t>
+          <t>Радиатор двигателя Renault Logan (04-) 1.4i/1.6i А/С+ (сборный)</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
@@ -12338,7 +12338,7 @@
         </is>
       </c>
       <c r="D458" t="n">
-        <v>5726</v>
+        <v>2794</v>
       </c>
       <c r="E458" t="n">
         <v>10</v>
@@ -12350,12 +12350,12 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>RD003AVT</t>
+          <t>RD058AVT</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Renault Logan (04-) 1.4i/1.6i А/С+ (сборный)</t>
+          <t>Радиатор двигателя RENAULT LOGAN / SANDERO / SYMBOL (04-) 1.4-1.6i / Lada LARGUS K7M 1.6i (12-) MT /</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
@@ -12364,7 +12364,7 @@
         </is>
       </c>
       <c r="D459" t="n">
-        <v>2794</v>
+        <v>2893</v>
       </c>
       <c r="E459" t="n">
         <v>10</v>
@@ -12376,12 +12376,12 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>RD058AVT</t>
+          <t>RD013AVT</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Радиатор двигателя RENAULT LOGAN / SANDERO / SYMBOL (04-) 1.4-1.6i / Lada LARGUS K7M 1.6i (12-) MT /</t>
+          <t>Радиатор двигателя Skoda Octavia A5 (04-)/VW Golf V (03-) (сборный)</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -12390,7 +12390,7 @@
         </is>
       </c>
       <c r="D460" t="n">
-        <v>2893</v>
+        <v>4436</v>
       </c>
       <c r="E460" t="n">
         <v>10</v>
@@ -12402,12 +12402,12 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>RD013AVT</t>
+          <t>RD007AVT</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Skoda Octavia A5 (04-)/VW Golf V (03-) (сборный)</t>
+          <t>Радиатор двигателя TOYOTA AURIS (E15) (07-) / (E18) (12-) 1.3-1.6i / AVENSIS (T27) (08-) 1.6-2.0i /</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -12416,7 +12416,7 @@
         </is>
       </c>
       <c r="D461" t="n">
-        <v>4436</v>
+        <v>5714</v>
       </c>
       <c r="E461" t="n">
         <v>10</v>
@@ -12428,12 +12428,12 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>RD007AVT</t>
+          <t>RD025AVT</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Радиатор двигателя TOYOTA AURIS (E15) (07-) / (E18) (12-) 1.3-1.6i / AVENSIS (T27) (08-) 1.6-2.0i /</t>
+          <t>Радиатор двигателя TOYOTA CAMRY (11-16) 2.5-3.5i AT</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -12442,7 +12442,7 @@
         </is>
       </c>
       <c r="D462" t="n">
-        <v>5714</v>
+        <v>7470</v>
       </c>
       <c r="E462" t="n">
         <v>10</v>
@@ -12454,12 +12454,12 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>RD025AVT</t>
+          <t>RD050AVT</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Радиатор двигателя TOYOTA CAMRY (11-16) 2.5-3.5i AT</t>
+          <t>Радиатор двигателя Toyota LC200 (08-) 4.5D</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -12468,7 +12468,7 @@
         </is>
       </c>
       <c r="D463" t="n">
-        <v>7470</v>
+        <v>12649</v>
       </c>
       <c r="E463" t="n">
         <v>10</v>
@@ -12506,12 +12506,12 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>RD050AVT</t>
+          <t>RD010AVT</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota LC200 (08-) 4.5D</t>
+          <t>Радиатор двигателя Toyota RAV 4 (06-&gt;)/RAV 4 (13-&gt;) 2.0i MT/AT (сборный)</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -12520,7 +12520,7 @@
         </is>
       </c>
       <c r="D465" t="n">
-        <v>12649</v>
+        <v>5429</v>
       </c>
       <c r="E465" t="n">
         <v>10</v>
@@ -12532,12 +12532,12 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>RD010AVT</t>
+          <t>RD006AVT</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Toyota RAV 4 (06-&gt;)/RAV 4 (13-&gt;) 2.0i MT/AT (сборный)</t>
+          <t>Радиатор двигателя VW Polo Sedan (10-)/(20-)/Skoda Rapid (12-)/(20-) (сборный)</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="D466" t="n">
-        <v>5429</v>
+        <v>3888</v>
       </c>
       <c r="E466" t="n">
         <v>10</v>
@@ -12558,12 +12558,12 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>RD006AVT</t>
+          <t>RD221AVT</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Радиатор двигателя VW Polo Sedan (10-)/(20-)/Skoda Rapid (12-)/(20-) (сборный)</t>
+          <t>Радиатор двигателя паяный Audi A4/А6 (94-) 1.6i, 1.8i, 1.9TDi, 1.8T</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -12572,7 +12572,7 @@
         </is>
       </c>
       <c r="D467" t="n">
-        <v>3888</v>
+        <v>6386</v>
       </c>
       <c r="E467" t="n">
         <v>10</v>
@@ -12584,12 +12584,12 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>RD221AVT</t>
+          <t>RD302AVT</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Audi A4/А6 (94-) 1.6i, 1.8i, 1.9TDi, 1.8T</t>
+          <t>Радиатор двигателя паяный Ford Ranger (98-) 2.5TDi</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -12598,7 +12598,7 @@
         </is>
       </c>
       <c r="D468" t="n">
-        <v>6386</v>
+        <v>6724</v>
       </c>
       <c r="E468" t="n">
         <v>10</v>
@@ -12610,12 +12610,12 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>RD302AVT</t>
+          <t>RD220AVT</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Ford Ranger (98-) 2.5TDi</t>
+          <t>Радиатор двигателя паяный Honda CR-V III (06-) 2.0i</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -12624,7 +12624,7 @@
         </is>
       </c>
       <c r="D469" t="n">
-        <v>6724</v>
+        <v>6842</v>
       </c>
       <c r="E469" t="n">
         <v>10</v>
@@ -12636,12 +12636,12 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>RD220AVT</t>
+          <t>RD225AVT</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Honda CR-V III (06-) 2.0i</t>
+          <t>Радиатор двигателя паяный Hyundai Santa Fe II (06-) 2.2CRDi</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -12650,7 +12650,7 @@
         </is>
       </c>
       <c r="D470" t="n">
-        <v>6842</v>
+        <v>8759</v>
       </c>
       <c r="E470" t="n">
         <v>10</v>
@@ -12662,12 +12662,12 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>RD225AVT</t>
+          <t>RD274AVT</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Hyundai Santa Fe II (06-) 2.2CRDi</t>
+          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i, 2.0i AT</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -12676,7 +12676,7 @@
         </is>
       </c>
       <c r="D471" t="n">
-        <v>8759</v>
+        <v>8366</v>
       </c>
       <c r="E471" t="n">
         <v>10</v>
@@ -12688,12 +12688,12 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>RD274AVT</t>
+          <t>RD207AVT</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i, 2.0i AT</t>
+          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i, 2.0i MT</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
@@ -12702,7 +12702,7 @@
         </is>
       </c>
       <c r="D472" t="n">
-        <v>8366</v>
+        <v>7973</v>
       </c>
       <c r="E472" t="n">
         <v>10</v>
@@ -12714,12 +12714,12 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>RD207AVT</t>
+          <t>RD230AVT</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Hyundai Tucson / KIA Sportage III (15-) 1.6i, 2.0i MT</t>
+          <t>Радиатор двигателя паяный Mitsubishi Outlander I (03-) 2.0i, 2.4i</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
@@ -12728,7 +12728,7 @@
         </is>
       </c>
       <c r="D473" t="n">
-        <v>7973</v>
+        <v>6593</v>
       </c>
       <c r="E473" t="n">
         <v>10</v>
@@ -12740,12 +12740,12 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>RD230AVT</t>
+          <t>RD211AVT</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Mitsubishi Outlander I (03-) 2.0i, 2.4i</t>
+          <t>Радиатор двигателя паяный Nissan Almera Classic B10 (06-) 1.6i</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
@@ -12754,7 +12754,7 @@
         </is>
       </c>
       <c r="D474" t="n">
-        <v>6593</v>
+        <v>5980</v>
       </c>
       <c r="E474" t="n">
         <v>10</v>
@@ -12766,12 +12766,12 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>RD211AVT</t>
+          <t>RD264AVT</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Nissan Almera Classic B10 (06-) 1.6i</t>
+          <t>Радиатор двигателя паяный Nissan X-Trail T30 (01-) 2.0i, 2.5i</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -12780,7 +12780,7 @@
         </is>
       </c>
       <c r="D475" t="n">
-        <v>5980</v>
+        <v>5741</v>
       </c>
       <c r="E475" t="n">
         <v>10</v>
@@ -12792,12 +12792,12 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>RD264AVT</t>
+          <t>RD205AVT</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Nissan X-Trail T30 (01-) 2.0i, 2.5i</t>
+          <t>Радиатор двигателя паяный Skoda Octavia/Kodiaq A7 (13-) 1.2TSi, 1.4TSi, 1.6TDi, 2.0TDi</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -12806,7 +12806,7 @@
         </is>
       </c>
       <c r="D476" t="n">
-        <v>5741</v>
+        <v>5630</v>
       </c>
       <c r="E476" t="n">
         <v>10</v>
@@ -12818,12 +12818,12 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>RD205AVT</t>
+          <t>RD217AVT</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Skoda Octavia/Kodiaq A7 (13-) 1.2TSi, 1.4TSi, 1.6TDi, 2.0TDi</t>
+          <t>Радиатор двигателя паяный Suzuki SX4 I (06-) 1.6i</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -12832,7 +12832,7 @@
         </is>
       </c>
       <c r="D477" t="n">
-        <v>5630</v>
+        <v>7183</v>
       </c>
       <c r="E477" t="n">
         <v>10</v>
@@ -12844,12 +12844,12 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>RD217AVT</t>
+          <t>RD059AVT</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный Suzuki SX4 I (06-) 1.6i</t>
+          <t>Радиатор двигателя паяный VW PASSAT B6 / B7 JETTA III /IV / TIGUAN / TOURAN / SKODA OCTAVIA II / SUP</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
@@ -12858,7 +12858,7 @@
         </is>
       </c>
       <c r="D478" t="n">
-        <v>7183</v>
+        <v>6286</v>
       </c>
       <c r="E478" t="n">
         <v>10</v>
@@ -12870,12 +12870,12 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>RD059AVT</t>
+          <t>RD250AVT</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Радиатор двигателя паяный VW PASSAT B6 / B7 JETTA III /IV / TIGUAN / TOURAN / SKODA OCTAVIA II / SUP</t>
+          <t>Радиатор двигателя сборный Chevrolet Rezzo (00-) 1.6i, 1.8i</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -12884,7 +12884,7 @@
         </is>
       </c>
       <c r="D479" t="n">
-        <v>6286</v>
+        <v>5549</v>
       </c>
       <c r="E479" t="n">
         <v>10</v>
@@ -12896,12 +12896,12 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>RD250AVT</t>
+          <t>RD012AVT</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Радиатор двигателя сборный Chevrolet Rezzo (00-) 1.6i, 1.8i</t>
+          <t>Радиатор двигателя сборный VW Jetta (05)/(11-)/Skoda Octavia A5 (04-)</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -12910,7 +12910,7 @@
         </is>
       </c>
       <c r="D480" t="n">
-        <v>5549</v>
+        <v>4106</v>
       </c>
       <c r="E480" t="n">
         <v>10</v>
@@ -12922,12 +12922,12 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>RD012AVT</t>
+          <t>735634AVT</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Радиатор двигателя сборный VW Jetta (05)/(11-)/Skoda Octavia A5 (04-)</t>
+          <t>Радиатор Рено Логан II</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -12936,7 +12936,7 @@
         </is>
       </c>
       <c r="D481" t="n">
-        <v>4106</v>
+        <v>3834</v>
       </c>
       <c r="E481" t="n">
         <v>10</v>
@@ -12948,12 +12948,12 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>735634AVT</t>
+          <t>438544AVT</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Радиатор Рено Логан II</t>
+          <t>Стартер Renault Arkana</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -12962,7 +12962,7 @@
         </is>
       </c>
       <c r="D482" t="n">
-        <v>3834</v>
+        <v>6600</v>
       </c>
       <c r="E482" t="n">
         <v>10</v>
@@ -12974,12 +12974,12 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>438544AVT</t>
+          <t>438545AVT</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Стартер Renault Arkana</t>
+          <t>Стартер Toyota Camry / Rav4</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -13000,12 +13000,12 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>438545AVT</t>
+          <t>438285AVT</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Стартер Toyota Camry / Rav4</t>
+          <t>Стартер Гранта МКПП</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -13014,7 +13014,7 @@
         </is>
       </c>
       <c r="D484" t="n">
-        <v>6600</v>
+        <v>5820</v>
       </c>
       <c r="E484" t="n">
         <v>10</v>
@@ -13026,12 +13026,12 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>438285AVT</t>
+          <t>438327AVT</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Стартер Гранта МКПП</t>
+          <t>Стартер Рено F4R</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -13040,7 +13040,7 @@
         </is>
       </c>
       <c r="D485" t="n">
-        <v>5820</v>
+        <v>8400</v>
       </c>
       <c r="E485" t="n">
         <v>10</v>
@@ -13052,12 +13052,12 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>438327AVT</t>
+          <t>438324AVT</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Стартер Рено F4R</t>
+          <t>Стартер Рено H4M</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
@@ -13066,7 +13066,7 @@
         </is>
       </c>
       <c r="D486" t="n">
-        <v>8400</v>
+        <v>5964</v>
       </c>
       <c r="E486" t="n">
         <v>10</v>
@@ -13078,12 +13078,12 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>438324AVT</t>
+          <t>FC001AVT</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Стартер Рено H4M</t>
+          <t>Фильтр отопителя LADA VESTA</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -13092,7 +13092,7 @@
         </is>
       </c>
       <c r="D487" t="n">
-        <v>5964</v>
+        <v>420</v>
       </c>
       <c r="E487" t="n">
         <v>10</v>
@@ -13104,12 +13104,12 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>FC001AVT</t>
+          <t>252.5215900-14</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Фильтр отопителя LADA VESTA</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 350 мм</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -13118,7 +13118,7 @@
         </is>
       </c>
       <c r="D488" t="n">
-        <v>420</v>
+        <v>518</v>
       </c>
       <c r="E488" t="n">
         <v>10</v>
@@ -13130,12 +13130,12 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>252.5215900-14</t>
+          <t>252.5215900-16</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 350 мм</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 400 мм</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -13144,7 +13144,7 @@
         </is>
       </c>
       <c r="D489" t="n">
-        <v>518</v>
+        <v>552</v>
       </c>
       <c r="E489" t="n">
         <v>10</v>
@@ -13156,12 +13156,12 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>252.5215900-16</t>
+          <t>252.5215900-17</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 400 мм</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 430 мм</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -13182,12 +13182,12 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>252.5215900-17</t>
+          <t>252.5215900-18</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 430 мм</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 450 мм</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -13208,12 +13208,12 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>252.5215900-18</t>
+          <t>252.5215900-20</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 450 мм</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 500 мм</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -13222,7 +13222,7 @@
         </is>
       </c>
       <c r="D492" t="n">
-        <v>552</v>
+        <v>582</v>
       </c>
       <c r="E492" t="n">
         <v>10</v>
@@ -13234,12 +13234,12 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>252.5215900-20</t>
+          <t>252.5215900-22</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 500 мм</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 550 мм</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -13260,12 +13260,12 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>252.5215900-22</t>
+          <t>252.5215900-24</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 550 мм</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 600 мм</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -13274,7 +13274,7 @@
         </is>
       </c>
       <c r="D494" t="n">
-        <v>582</v>
+        <v>641</v>
       </c>
       <c r="E494" t="n">
         <v>10</v>
@@ -13286,12 +13286,12 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>252.5215900-24</t>
+          <t>252.5215900-26</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 600 мм</t>
+          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 650 мм</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -13300,7 +13300,7 @@
         </is>
       </c>
       <c r="D495" t="n">
-        <v>641</v>
+        <v>672</v>
       </c>
       <c r="E495" t="n">
         <v>10</v>
@@ -13312,12 +13312,12 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>252.5215900-26</t>
+          <t>25.5215900-13</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя бескаркасная гибридная (мульти 10 в 1) 650 мм</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 330 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -13326,7 +13326,7 @@
         </is>
       </c>
       <c r="D496" t="n">
-        <v>672</v>
+        <v>299</v>
       </c>
       <c r="E496" t="n">
         <v>10</v>
@@ -13338,12 +13338,12 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>25.5215900-13</t>
+          <t>25.5215900-14</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 330 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 350 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -13364,12 +13364,12 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>25.5215900-14</t>
+          <t>25.5215900-16</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 350 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 400 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -13378,7 +13378,7 @@
         </is>
       </c>
       <c r="D498" t="n">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="E498" t="n">
         <v>10</v>
@@ -13390,12 +13390,12 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>25.5215900-16</t>
+          <t>25.5215900-17</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 400 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 430 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -13416,12 +13416,12 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>25.5215900-17</t>
+          <t>25.5215900-18</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 430 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 450 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -13442,12 +13442,12 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>25.5215900-18</t>
+          <t>25.5215900-19</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 450 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 480 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -13468,12 +13468,12 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>25.5215900-19</t>
+          <t>25.5215900-20</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 480 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 500 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
@@ -13482,7 +13482,7 @@
         </is>
       </c>
       <c r="D502" t="n">
-        <v>334</v>
+        <v>352</v>
       </c>
       <c r="E502" t="n">
         <v>10</v>
@@ -13494,12 +13494,12 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>25.5215900-20</t>
+          <t>25.5215900-21</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 500 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 530 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -13520,12 +13520,12 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>25.5215900-21</t>
+          <t>25.5215900-22</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 530 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 550 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -13546,12 +13546,12 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>25.5215900-22</t>
+          <t>25.5215900-24</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 550 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 600 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -13560,7 +13560,7 @@
         </is>
       </c>
       <c r="D505" t="n">
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="E505" t="n">
         <v>10</v>
@@ -13572,12 +13572,12 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>25.5215900-24</t>
+          <t>25.5215900-26</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 600 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 650 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -13586,7 +13586,7 @@
         </is>
       </c>
       <c r="D506" t="n">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="E506" t="n">
         <v>10</v>
@@ -13598,12 +13598,12 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>25.5215900-26</t>
+          <t>25.5215900-28</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 650 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, бескаркасная, 700 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -13624,12 +13624,12 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>25.5215900-28</t>
+          <t>СЛ136Е-5205900-01</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, бескаркасная, 700 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, каркасная, 410 мм, тип крепления "Hook" ("Крюк") и "Bayonet" ("Штыковой замо</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -13638,7 +13638,7 @@
         </is>
       </c>
       <c r="D508" t="n">
-        <v>406</v>
+        <v>144</v>
       </c>
       <c r="E508" t="n">
         <v>10</v>
@@ -13650,12 +13650,12 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>СЛ136Е-5205900-01</t>
+          <t>23.5215900-01</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 410 мм, тип крепления "Hook" ("Крюк") и "Bayonet" ("Штыковой замо</t>
+          <t>Щетка стеклоочистителя, каркасная, 475 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -13676,12 +13676,12 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>23.5215900-01</t>
+          <t>49.5205900-01</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 475 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, каркасная, 500 мм, тип крепления "Hook" ("Крюк") и "Bayonet" ("Штыковой замо</t>
         </is>
       </c>
       <c r="C510" t="inlineStr">
@@ -13690,7 +13690,7 @@
         </is>
       </c>
       <c r="D510" t="n">
-        <v>144</v>
+        <v>366</v>
       </c>
       <c r="E510" t="n">
         <v>10</v>
@@ -13702,12 +13702,12 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>49.5205900-01</t>
+          <t>731.5205900-01</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 500 мм, тип крепления "Hook" ("Крюк") и "Bayonet" ("Штыковой замо</t>
+          <t>Щетка стеклоочистителя, каркасная, 525 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -13716,7 +13716,7 @@
         </is>
       </c>
       <c r="D511" t="n">
-        <v>366</v>
+        <v>287</v>
       </c>
       <c r="E511" t="n">
         <v>10</v>
@@ -13728,12 +13728,12 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>731.5205900-01</t>
+          <t>11.5215900-01</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 525 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, каркасная, 550 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -13742,7 +13742,7 @@
         </is>
       </c>
       <c r="D512" t="n">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="E512" t="n">
         <v>10</v>
@@ -13754,12 +13754,12 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>11.5215900-01</t>
+          <t>93.5205900-01</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 550 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, каркасная, 600 мм, тип крепления "Hook" ("Крюк")</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -13768,7 +13768,7 @@
         </is>
       </c>
       <c r="D513" t="n">
-        <v>295</v>
+        <v>144</v>
       </c>
       <c r="E513" t="n">
         <v>10</v>
@@ -13780,12 +13780,12 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>93.5205900-01</t>
+          <t>251.5215900-15</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, каркасная, 600 мм, тип крепления "Hook" ("Крюк")</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 380 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -13794,7 +13794,7 @@
         </is>
       </c>
       <c r="D514" t="n">
-        <v>144</v>
+        <v>426</v>
       </c>
       <c r="E514" t="n">
         <v>10</v>
@@ -13806,12 +13806,12 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>251.5215900-15</t>
+          <t>251.5215900-16</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 380 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 400 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -13832,12 +13832,12 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>251.5215900-16</t>
+          <t>251.5215900-17</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 400 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 430 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -13858,12 +13858,12 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>251.5215900-17</t>
+          <t>251.5215900-18</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 430 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 450 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -13884,12 +13884,12 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>251.5215900-18</t>
+          <t>251.5215900-19</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 450 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 480 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -13910,12 +13910,12 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>251.5215900-19</t>
+          <t>251.5215900-20</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 480 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 500 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -13924,7 +13924,7 @@
         </is>
       </c>
       <c r="D519" t="n">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="E519" t="n">
         <v>10</v>
@@ -13936,12 +13936,12 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>251.5215900-20</t>
+          <t>251.5215900-24</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 500 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 600 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -13950,7 +13950,7 @@
         </is>
       </c>
       <c r="D520" t="n">
-        <v>448</v>
+        <v>492</v>
       </c>
       <c r="E520" t="n">
         <v>10</v>
@@ -13962,12 +13962,12 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>251.5215900-24</t>
+          <t>251.5215900-26</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 600 мм, в комплекте 9 адаптеров</t>
+          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 650 мм, в комплекте 9 адаптеров</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -13976,7 +13976,7 @@
         </is>
       </c>
       <c r="D521" t="n">
-        <v>492</v>
+        <v>518</v>
       </c>
       <c r="E521" t="n">
         <v>10</v>
@@ -13988,12 +13988,12 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>251.5215900-26</t>
+          <t>595863AVT</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Щетка стеклоочистителя, универсальная, бескаркасная, Regular, 650 мм, в комплекте 9 адаптеров</t>
+          <t>Щеткодержатель стартера</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -14002,7 +14002,7 @@
         </is>
       </c>
       <c r="D522" t="n">
-        <v>518</v>
+        <v>720</v>
       </c>
       <c r="E522" t="n">
         <v>10</v>
@@ -14040,12 +14040,12 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>595863AVT</t>
+          <t>595845AVT</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>Щеткодержатель стартера</t>
+          <t>Щеткодержатель стартера  LADA VESTA</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -14092,12 +14092,12 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>595845AVT</t>
+          <t>595842AVT</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Щеткодержатель стартера  LADA VESTA</t>
+          <t>Якорь стартера</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -14106,38 +14106,12 @@
         </is>
       </c>
       <c r="D526" t="n">
-        <v>720</v>
+        <v>1416</v>
       </c>
       <c r="E526" t="n">
         <v>10</v>
       </c>
       <c r="F526" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="inlineStr">
-        <is>
-          <t>595842AVT</t>
-        </is>
-      </c>
-      <c r="B527" t="inlineStr">
-        <is>
-          <t>Якорь стартера</t>
-        </is>
-      </c>
-      <c r="C527" t="inlineStr">
-        <is>
-          <t>AVTOPRIBOR</t>
-        </is>
-      </c>
-      <c r="D527" t="n">
-        <v>1416</v>
-      </c>
-      <c r="E527" t="n">
-        <v>10</v>
-      </c>
-      <c r="F527" t="n">
         <v>1</v>
       </c>
     </row>

--- a/price_for_emex.xlsx
+++ b/price_for_emex.xlsx
@@ -6751,7 +6751,7 @@
         <v>7627</v>
       </c>
       <c r="E243" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F243" t="n">
         <v>1</v>

--- a/price_for_emex.xlsx
+++ b/price_for_emex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F542"/>
+  <dimension ref="A1:F545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3770,12 +3770,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BP069AVT</t>
+          <t>BP018AVT</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Chevrolet Aveo (02-)/Aveo T255 (08-)</t>
+          <t>Колодки тормозные передние без датчика Chevrolet Cruze (09-) / Opel Astra J (10-)</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3784,7 +3784,7 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>581</v>
+        <v>874</v>
       </c>
       <c r="E129" t="n">
         <v>10</v>
@@ -3796,12 +3796,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BP069AVT</t>
+          <t>BP072AVT</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Chevrolet Aveo (02-)/Aveo T255 (08-)</t>
+          <t>Колодки тормозные передние без датчика Chevrolet Lacetti (04-)</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -3810,7 +3810,7 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>581</v>
+        <v>601</v>
       </c>
       <c r="E130" t="n">
         <v>10</v>
@@ -3822,12 +3822,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BP018AVT</t>
+          <t>BP072AVT</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Chevrolet Cruze (09-) / Opel Astra J (10-)</t>
+          <t>Колодки тормозные передние без датчика Chevrolet Lacetti (04-)</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3836,7 +3836,7 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>874</v>
+        <v>601</v>
       </c>
       <c r="E131" t="n">
         <v>10</v>
@@ -3848,12 +3848,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BP072AVT</t>
+          <t>BP017AVT</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Chevrolet Lacetti (04-)</t>
+          <t>Колодки тормозные передние без датчика Daewoo Matiz (98-)</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>601</v>
+        <v>516</v>
       </c>
       <c r="E132" t="n">
         <v>10</v>
@@ -3874,12 +3874,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BP072AVT</t>
+          <t>BP010AVT</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Chevrolet Lacetti (04-)</t>
+          <t>Колодки тормозные передние без датчика Daewoo Nexia (95-) / Chevrolet Lanos (97-)</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -3888,7 +3888,7 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="E133" t="n">
         <v>10</v>
@@ -3900,12 +3900,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BP017AVT</t>
+          <t>BP011AVT</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Daewoo Matiz (98-)</t>
+          <t>Колодки тормозные передние без датчика Daewoo Nexia (95-) / Chevrolet Lanos (97-) 14"</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -3914,7 +3914,7 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>516</v>
+        <v>643</v>
       </c>
       <c r="E134" t="n">
         <v>10</v>
@@ -3926,12 +3926,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BP010AVT</t>
+          <t>BP005AVT</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Daewoo Nexia (95-) / Chevrolet Lanos (97-)</t>
+          <t>Колодки тормозные передние без датчика Ford Focus (04-) / Kuga (08-) / Mazda 3 (03-)</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -3940,7 +3940,7 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>602</v>
+        <v>876</v>
       </c>
       <c r="E135" t="n">
         <v>10</v>
@@ -3952,12 +3952,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BP011AVT</t>
+          <t>BP031AVT</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Daewoo Nexia (95-) / Chevrolet Lanos (97-) 14"</t>
+          <t>Колодки тормозные передние без датчика Ford Focus III (11-) / Kuga (13-)</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -3966,7 +3966,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>643</v>
+        <v>1372</v>
       </c>
       <c r="E136" t="n">
         <v>10</v>
@@ -3978,12 +3978,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>BP005AVT</t>
+          <t>BP050AVT</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Ford Focus (04-) / Kuga (08-) / Mazda 3 (03-)</t>
+          <t>Колодки тормозные передние без датчика Ford Fusion (02-) / Fiesta (02-)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>876</v>
+        <v>889</v>
       </c>
       <c r="E137" t="n">
         <v>10</v>
@@ -4004,12 +4004,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BP031AVT</t>
+          <t>BP078AVT</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Ford Focus III (11-) / Kuga (13-)</t>
+          <t>Колодки тормозные передние без датчика Ford Mondeo IV (07-)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>1372</v>
+        <v>1123</v>
       </c>
       <c r="E138" t="n">
         <v>10</v>
@@ -4030,12 +4030,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BP050AVT</t>
+          <t>BP022AVT</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Ford Fusion (02-) / Fiesta (02-)</t>
+          <t>Колодки тормозные передние без датчика GAZ 3302</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -4044,7 +4044,7 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>889</v>
+        <v>710</v>
       </c>
       <c r="E139" t="n">
         <v>10</v>
@@ -4056,12 +4056,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BP078AVT</t>
+          <t>BP085AVT</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Ford Mondeo IV (07-)</t>
+          <t>Колодки тормозные передние без датчика Geely Coolray (18-)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4070,7 +4070,7 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>1123</v>
+        <v>726</v>
       </c>
       <c r="E140" t="n">
         <v>10</v>
@@ -4082,12 +4082,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BP022AVT</t>
+          <t>BP122AVT</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика GAZ 3302</t>
+          <t>Колодки тормозные передние без датчика Honda Civic VIII (06-)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>710</v>
+        <v>809</v>
       </c>
       <c r="E141" t="n">
         <v>10</v>
@@ -4108,12 +4108,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BP085AVT</t>
+          <t>BP074AVT</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Geely Coolray (18-)</t>
+          <t>Колодки тормозные передние без датчика Honda CR-V (06-) / Element (03-)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>726</v>
+        <v>926</v>
       </c>
       <c r="E142" t="n">
         <v>10</v>
@@ -4134,12 +4134,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BP122AVT</t>
+          <t>BP021AVT</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Honda Civic VIII (06-)</t>
+          <t>Колодки тормозные передние без датчика Hyundai Accent (99-) / Getz (02-) (MANDO)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -4148,7 +4148,7 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>809</v>
+        <v>545</v>
       </c>
       <c r="E143" t="n">
         <v>10</v>
@@ -4160,12 +4160,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>BP074AVT</t>
+          <t>BP043AVT</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Honda CR-V (06-) / Element (03-)</t>
+          <t>Колодки тормозные передние без датчика Hyundai Santa Fe (00-)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4174,7 +4174,7 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>926</v>
+        <v>786</v>
       </c>
       <c r="E144" t="n">
         <v>10</v>
@@ -4186,12 +4186,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>BP021AVT</t>
+          <t>BP049AVT</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Hyundai Accent (99-) / Getz (02-) (MANDO)</t>
+          <t>Колодки тормозные передние без датчика Hyundai Santa Fe (06-)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4200,7 +4200,7 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>545</v>
+        <v>875</v>
       </c>
       <c r="E145" t="n">
         <v>10</v>
@@ -4212,12 +4212,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>BP124AVT</t>
+          <t>BP004AVT</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Hyundai Accent III (05-) / Kia Rio II (05-)</t>
+          <t>Колодки тормозные передние без датчика Hyundai Solaris (10-) / Kia Rio (10-)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>674</v>
+        <v>692</v>
       </c>
       <c r="E146" t="n">
         <v>10</v>
@@ -4238,12 +4238,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>BP124AVT</t>
+          <t>BP127AVT</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Hyundai Accent III (05-) / Kia Rio II (05-)</t>
+          <t>Колодки тормозные передние без датчика Jac J7 (20-)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>674</v>
+        <v>1166</v>
       </c>
       <c r="E147" t="n">
         <v>10</v>
@@ -4264,12 +4264,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>BP043AVT</t>
+          <t>BP111AVT</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Hyundai Santa Fe (00-)</t>
+          <t>Колодки тормозные передние без датчика Kia Ceed (12-)</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -4278,7 +4278,7 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>786</v>
+        <v>726</v>
       </c>
       <c r="E148" t="n">
         <v>10</v>
@@ -4290,12 +4290,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>BP049AVT</t>
+          <t>BP111AVT</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Hyundai Santa Fe (06-)</t>
+          <t>Колодки тормозные передние без датчика Kia Ceed (12-)</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>875</v>
+        <v>726</v>
       </c>
       <c r="E149" t="n">
         <v>10</v>
@@ -4316,12 +4316,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>BP004AVT</t>
+          <t>BP129AVT</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Hyundai Solaris (10-) / Kia Rio (10-)</t>
+          <t>Колодки тормозные передние без датчика Kia K5 (20-)/Hyundai Sonata VIII (20-)</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -4330,7 +4330,7 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>692</v>
+        <v>1132</v>
       </c>
       <c r="E150" t="n">
         <v>10</v>
@@ -4342,12 +4342,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>BP127AVT</t>
+          <t>BP118AVT</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Jac J7 (20-)</t>
+          <t>Колодки тормозные передние без датчика Kia Soul III (19-)</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -4356,7 +4356,7 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1166</v>
+        <v>938</v>
       </c>
       <c r="E151" t="n">
         <v>10</v>
@@ -4368,12 +4368,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>BP111AVT</t>
+          <t>BP087AVT</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Kia Ceed (12-)</t>
+          <t>Колодки тормозные передние без датчика Kia Spectra, Rio (00-) / Shuma (97-)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -4382,7 +4382,7 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>726</v>
+        <v>619</v>
       </c>
       <c r="E152" t="n">
         <v>10</v>
@@ -4394,12 +4394,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>BP111AVT</t>
+          <t>BP034AVT</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Kia Ceed (12-)</t>
+          <t>Колодки тормозные передние без датчика Kia Sportage II (04-) / Hyundai Tucson (04-)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -4408,7 +4408,7 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>726</v>
+        <v>676</v>
       </c>
       <c r="E153" t="n">
         <v>10</v>
@@ -4420,12 +4420,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>BP129AVT</t>
+          <t>BP040AVT</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Kia K5 (20-)/Hyundai Sonata VIII (20-)</t>
+          <t>Колодки тормозные передние без датчика Kia Sportage III (10-) / Hyundai ix35 (10-)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -4434,7 +4434,7 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1132</v>
+        <v>868</v>
       </c>
       <c r="E154" t="n">
         <v>10</v>
@@ -4446,12 +4446,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>BP118AVT</t>
+          <t>BP002AVT</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Kia Soul III (19-)</t>
+          <t>Колодки тормозные передние без датчика Lada Largus (12-) 16V / Vesta (15-)</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -4460,7 +4460,7 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>938</v>
+        <v>658</v>
       </c>
       <c r="E155" t="n">
         <v>10</v>
@@ -4472,12 +4472,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>BP087AVT</t>
+          <t>BP023AVT</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Kia Spectra, Rio (00-) / Shuma (97-)</t>
+          <t>Колодки тормозные передние без датчика Lada Vesta Sport (18-) / Renault Duster (10-) / Renault Arkan</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -4486,7 +4486,7 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>619</v>
+        <v>864</v>
       </c>
       <c r="E156" t="n">
         <v>10</v>
@@ -4498,12 +4498,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>BP034AVT</t>
+          <t>BP136AVT</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Kia Sportage II (04-) / Hyundai Tucson (04-)</t>
+          <t>Колодки тормозные передние без датчика Mazda CX-5 (11-)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -4512,7 +4512,7 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>676</v>
+        <v>872</v>
       </c>
       <c r="E157" t="n">
         <v>10</v>
@@ -4524,12 +4524,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>BP040AVT</t>
+          <t>BP137AVT</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Kia Sportage III (10-) / Hyundai ix35 (10-)</t>
+          <t>Колодки тормозные передние без датчика Mazda CX-7 (09-)/CX-9 (07-)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -4538,7 +4538,7 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>868</v>
+        <v>905</v>
       </c>
       <c r="E158" t="n">
         <v>10</v>
@@ -4550,12 +4550,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>BP002AVT</t>
+          <t>BP144AVT</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Lada Largus (12-) 16V / Vesta (15-)</t>
+          <t>Колодки тормозные передние без датчика Mercedes-Benz Vito/Viano (W638) (96-)</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -4564,7 +4564,7 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>658</v>
+        <v>814</v>
       </c>
       <c r="E159" t="n">
         <v>10</v>
@@ -4576,12 +4576,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>BP023AVT</t>
+          <t>BP054AVT</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Lada Vesta Sport (18-) / Renault Duster (10-) / Renault Arkan</t>
+          <t>Колодки тормозные передние без датчика Mitsubishi Lancer X (07-) / ASX (10-)</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -4590,7 +4590,7 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>864</v>
+        <v>668</v>
       </c>
       <c r="E160" t="n">
         <v>10</v>
@@ -4602,12 +4602,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>BP136AVT</t>
+          <t>BP147AVT</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Mazda CX-5 (11-)</t>
+          <t>Колодки тормозные передние без датчика Mitsubishi Outlander (06-)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -4616,7 +4616,7 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>872</v>
+        <v>778</v>
       </c>
       <c r="E161" t="n">
         <v>10</v>
@@ -4628,12 +4628,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>BP137AVT</t>
+          <t>BP041AVT</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Mazda CX-7 (09-)/CX-9 (07-)</t>
+          <t>Колодки тормозные передние без датчика Mitsubishi Outlander (2006-)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -4642,7 +4642,7 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>905</v>
+        <v>818</v>
       </c>
       <c r="E162" t="n">
         <v>10</v>
@@ -4654,12 +4654,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>BP144AVT</t>
+          <t>BP149AVT</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Mercedes-Benz Vito/Viano (W638) (96-)</t>
+          <t>Колодки тормозные передние без датчика Mitsubishi Pajero (00-) / (06-)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -4668,7 +4668,7 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>814</v>
+        <v>854</v>
       </c>
       <c r="E163" t="n">
         <v>10</v>
@@ -4680,12 +4680,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>BP054AVT</t>
+          <t>BP153AVT</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Mitsubishi Lancer X (07-) / ASX (10-)</t>
+          <t>Колодки тормозные передние без датчика Nissan Almera (00-)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -4694,7 +4694,7 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>668</v>
+        <v>779</v>
       </c>
       <c r="E164" t="n">
         <v>10</v>
@@ -4706,12 +4706,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>BP147AVT</t>
+          <t>BP157AVT</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Mitsubishi Outlander (06-)</t>
+          <t>Колодки тормозные передние без датчика Nissan Almera (05-) / Note (06-)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -4720,7 +4720,7 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>778</v>
+        <v>619</v>
       </c>
       <c r="E165" t="n">
         <v>10</v>
@@ -4732,12 +4732,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>BP041AVT</t>
+          <t>BP035AVT</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Mitsubishi Outlander (2006-)</t>
+          <t>Колодки тормозные передние без датчика Nissan Murano (08-) / Pathfinder (05-) / Navara (05-)</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>818</v>
+        <v>852</v>
       </c>
       <c r="E166" t="n">
         <v>10</v>
@@ -4758,12 +4758,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>BP149AVT</t>
+          <t>BP155AVT</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Mitsubishi Pajero (00-) / (06-)</t>
+          <t>Колодки тормозные передние без датчика Nissan Primera (02-)</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4772,7 +4772,7 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>854</v>
+        <v>743</v>
       </c>
       <c r="E167" t="n">
         <v>10</v>
@@ -4784,12 +4784,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>BP153AVT</t>
+          <t>BP154AVT</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Nissan Almera (00-)</t>
+          <t>Колодки тормозные передние без датчика Nissan Primera (96-)</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -4798,7 +4798,7 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>779</v>
+        <v>654</v>
       </c>
       <c r="E168" t="n">
         <v>10</v>
@@ -4810,12 +4810,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>BP157AVT</t>
+          <t>BP027AVT</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Nissan Almera (05-) / Note (06-)</t>
+          <t>Колодки тормозные передние без датчика Nissan Qashqai (07-) / X-Trail (07-)</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -4824,7 +4824,7 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>619</v>
+        <v>852</v>
       </c>
       <c r="E169" t="n">
         <v>10</v>
@@ -4836,12 +4836,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>BP035AVT</t>
+          <t>BP095AVT</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Nissan Murano (08-) / Pathfinder (05-) / Navara (05-)</t>
+          <t>Колодки тормозные передние без датчика Nissan Qashqai (13-) / X-Trail T32 (14-)</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -4850,7 +4850,7 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>852</v>
+        <v>805</v>
       </c>
       <c r="E170" t="n">
         <v>10</v>
@@ -4862,12 +4862,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>BP155AVT</t>
+          <t>BP151AVT</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Nissan Primera (02-)</t>
+          <t>Колодки тормозные передние без датчика Nissan Sunny (98-) /Almera Classic (06-)</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -4876,7 +4876,7 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>743</v>
+        <v>650</v>
       </c>
       <c r="E171" t="n">
         <v>10</v>
@@ -4888,12 +4888,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>BP154AVT</t>
+          <t>BP063AVT</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Nissan Primera (96-)</t>
+          <t>Колодки тормозные передние без датчика Nissan Teana (08-) / Tiida / Juke / Cube (10-)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -4902,7 +4902,7 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>654</v>
+        <v>770</v>
       </c>
       <c r="E172" t="n">
         <v>10</v>
@@ -4914,12 +4914,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>BP027AVT</t>
+          <t>BP030AVT</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Nissan Qashqai (07-) / X-Trail (07-)</t>
+          <t>Колодки тормозные передние без датчика Opel Astra H (04-) / Zafira B (05-)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>852</v>
+        <v>991</v>
       </c>
       <c r="E173" t="n">
         <v>10</v>
@@ -4940,12 +4940,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>BP095AVT</t>
+          <t>BP053AVT</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Nissan Qashqai (13-) / X-Trail T32 (14-)</t>
+          <t>Колодки тормозные передние без датчика Opel Astra J (10-) / Insignia (08-) / Zafira C (11-)</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -4954,7 +4954,7 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>805</v>
+        <v>1006</v>
       </c>
       <c r="E174" t="n">
         <v>10</v>
@@ -4966,12 +4966,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>BP151AVT</t>
+          <t>BP019AVT</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Nissan Sunny (98-) /Almera Classic (06-)</t>
+          <t>Колодки тормозные передние без датчика Opel Astra J (10-) / Mokka (13-) / Chevrolet Cruze (09-)</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -4980,7 +4980,7 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>650</v>
+        <v>796</v>
       </c>
       <c r="E175" t="n">
         <v>10</v>
@@ -4992,12 +4992,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>BP063AVT</t>
+          <t>BP036AVT</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Nissan Teana (08-) / Tiida / Juke / Cube (10-)</t>
+          <t>Колодки тормозные передние без датчика Opel Vectra C (02-) / Zafira B (06-) / SAAB 9-3 (02-)</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -5006,7 +5006,7 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>770</v>
+        <v>1066</v>
       </c>
       <c r="E176" t="n">
         <v>10</v>
@@ -5018,12 +5018,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>BP030AVT</t>
+          <t>BP162AVT</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Opel Astra H (04-) / Zafira B (05-)</t>
+          <t>Колодки тормозные передние без датчика Peugeot 107 (05-) / Citroen C1 (05-)</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -5032,7 +5032,7 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>991</v>
+        <v>599</v>
       </c>
       <c r="E177" t="n">
         <v>10</v>
@@ -5044,12 +5044,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>BP053AVT</t>
+          <t>BP070AVT</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Opel Astra J (10-) / Insignia (08-) / Zafira C (11-)</t>
+          <t>Колодки тормозные передние без датчика Peugeot 206 (98-)</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -5058,7 +5058,7 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>1006</v>
+        <v>679</v>
       </c>
       <c r="E178" t="n">
         <v>10</v>
@@ -5070,12 +5070,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>BP019AVT</t>
+          <t>BP164AVT</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Opel Astra J (10-) / Mokka (13-) / Chevrolet Cruze (09-)</t>
+          <t>Колодки тормозные передние без датчика Peugeot 206 (98-) / 306 (97-)</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -5084,7 +5084,7 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>796</v>
+        <v>682</v>
       </c>
       <c r="E179" t="n">
         <v>10</v>
@@ -5096,12 +5096,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>BP036AVT</t>
+          <t>BP096AVT</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Opel Vectra C (02-) / Zafira B (06-) / SAAB 9-3 (02-)</t>
+          <t>Колодки тормозные передние без датчика Renault Logan II (2012-)</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -5110,7 +5110,7 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>1066</v>
+        <v>680</v>
       </c>
       <c r="E180" t="n">
         <v>10</v>
@@ -5122,12 +5122,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>BP162AVT</t>
+          <t>BP158AVT</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Peugeot 107 (05-) / Citroen C1 (05-)</t>
+          <t>Колодки тормозные передние без датчика Renault Megane II (02-)</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E181" t="n">
         <v>10</v>
@@ -5148,12 +5148,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>BP070AVT</t>
+          <t>BP077AVT</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Peugeot 206 (98-)</t>
+          <t>Колодки тормозные передние без датчика Skoda Octavia (97-) / Yeti (09-) / Audi A4 (01-) /A6 (97-)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -5162,7 +5162,7 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>679</v>
+        <v>1066</v>
       </c>
       <c r="E182" t="n">
         <v>10</v>
@@ -5174,12 +5174,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>BP164AVT</t>
+          <t>BP171AVT</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Peugeot 206 (98-) / 306 (97-)</t>
+          <t>Колодки тормозные передние без датчика Subaru Forester (10-) / (13-)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -5188,7 +5188,7 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="E183" t="n">
         <v>10</v>
@@ -5200,12 +5200,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>BP096AVT</t>
+          <t>BP076AVT</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Renault Logan II (2012-)</t>
+          <t>Колодки тормозные передние без датчика Suzuki Grand Vitara (98-) / Jimny (03-)</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -5214,7 +5214,7 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>680</v>
+        <v>601</v>
       </c>
       <c r="E184" t="n">
         <v>10</v>
@@ -5226,12 +5226,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>BP158AVT</t>
+          <t>BP172AVT</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Renault Megane II (02-)</t>
+          <t>Колодки тормозные передние без датчика Suzuki SX4 (13-) / Vitara (15-)</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -5240,7 +5240,7 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>598</v>
+        <v>1068</v>
       </c>
       <c r="E185" t="n">
         <v>10</v>
@@ -5252,12 +5252,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>BP077AVT</t>
+          <t>BP029AVT</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Skoda Octavia (97-) / Yeti (09-) / Audi A4 (01-) /A6 (97-)</t>
+          <t>Колодки тормозные передние без датчика Toyota Camry (06-)</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1066</v>
+        <v>888</v>
       </c>
       <c r="E186" t="n">
         <v>10</v>
@@ -5278,12 +5278,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>BP171AVT</t>
+          <t>BP052AVT</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Subaru Forester (10-) / (13-)</t>
+          <t>Колодки тормозные передние без датчика Toyota Camry 2.4 / 3.5 (06-)</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -5292,7 +5292,7 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>691</v>
+        <v>756</v>
       </c>
       <c r="E187" t="n">
         <v>10</v>
@@ -5304,12 +5304,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>BP076AVT</t>
+          <t>BP174AVT</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Suzuki Grand Vitara (98-) / Jimny (03-)</t>
+          <t>Колодки тормозные передние без датчика Toyota Corolla (01-)</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -5318,7 +5318,7 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>601</v>
+        <v>726</v>
       </c>
       <c r="E188" t="n">
         <v>10</v>
@@ -5330,12 +5330,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>BP172AVT</t>
+          <t>BP032AVT</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Suzuki SX4 (13-) / Vitara (15-)</t>
+          <t>Колодки тормозные передние без датчика Toyota Corolla (06-)</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -5344,7 +5344,7 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>1068</v>
+        <v>689</v>
       </c>
       <c r="E189" t="n">
         <v>10</v>
@@ -5356,12 +5356,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>BP029AVT</t>
+          <t>BP039AVT</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Toyota Camry (06-)</t>
+          <t>Колодки тормозные передние без датчика Toyota Land Cruiser 200 (07-)</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -5370,7 +5370,7 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>888</v>
+        <v>1026</v>
       </c>
       <c r="E190" t="n">
         <v>10</v>
@@ -5382,12 +5382,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>BP052AVT</t>
+          <t>BP033AVT</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Toyota Camry 2.4 / 3.5 (06-)</t>
+          <t>Колодки тормозные передние без датчика Toyota Land Cruiser Prado (02-) / (09-)</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>756</v>
+        <v>780</v>
       </c>
       <c r="E191" t="n">
         <v>10</v>
@@ -5408,12 +5408,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>BP174AVT</t>
+          <t>BP046AVT</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Toyota Corolla (01-)</t>
+          <t>Колодки тормозные передние без датчика Toyota RAV 4 (06-)</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -5422,7 +5422,7 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>726</v>
+        <v>788</v>
       </c>
       <c r="E192" t="n">
         <v>10</v>
@@ -5434,12 +5434,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>BP032AVT</t>
+          <t>BP175AVT</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Toyota Corolla (06-)</t>
+          <t>Колодки тормозные передние без датчика Toyota Vitz (99-) / FunCargo (99-) / Platz (00-)</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -5448,7 +5448,7 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>689</v>
+        <v>574</v>
       </c>
       <c r="E193" t="n">
         <v>10</v>
@@ -5460,12 +5460,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>BP039AVT</t>
+          <t>BP132AVT</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Toyota Land Cruiser 200 (07-)</t>
+          <t>Колодки тормозные передние без датчика Toyota Yaris (06-)</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -5474,7 +5474,7 @@
         </is>
       </c>
       <c r="D194" t="n">
-        <v>1026</v>
+        <v>704</v>
       </c>
       <c r="E194" t="n">
         <v>10</v>
@@ -5486,12 +5486,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>BP033AVT</t>
+          <t>BP044AVT</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Toyota Land Cruiser Prado (02-) / (09-)</t>
+          <t>Колодки тормозные передние без датчика VW Golf III (91-) / Vento (91-)</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -5500,7 +5500,7 @@
         </is>
       </c>
       <c r="D195" t="n">
-        <v>780</v>
+        <v>755</v>
       </c>
       <c r="E195" t="n">
         <v>10</v>
@@ -5512,12 +5512,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>BP046AVT</t>
+          <t>BP099AVT</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Toyota RAV 4 (06-)</t>
+          <t>Колодки тормозные передние без датчика VW Polo Sedan (10-)</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -5526,7 +5526,7 @@
         </is>
       </c>
       <c r="D196" t="n">
-        <v>788</v>
+        <v>824</v>
       </c>
       <c r="E196" t="n">
         <v>10</v>
@@ -5538,12 +5538,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>BP175AVT</t>
+          <t>BP008AVT</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Toyota Vitz (99-) / FunCargo (99-) / Platz (00-)</t>
+          <t>Колодки тормозные передние без датчика VW Polo Sedan (2010-)</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -5552,7 +5552,7 @@
         </is>
       </c>
       <c r="D197" t="n">
-        <v>574</v>
+        <v>820</v>
       </c>
       <c r="E197" t="n">
         <v>10</v>
@@ -5564,12 +5564,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>BP132AVT</t>
+          <t>BP003AVT</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика Toyota Yaris (06-)</t>
+          <t>Колодки тормозные передние с датчиками VW Polo Sedan (10-)</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -5578,7 +5578,7 @@
         </is>
       </c>
       <c r="D198" t="n">
-        <v>704</v>
+        <v>942</v>
       </c>
       <c r="E198" t="n">
         <v>10</v>
@@ -5590,12 +5590,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>BP044AVT</t>
+          <t>BP102AVT</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика VW Golf III (91-) / Vento (91-)</t>
+          <t>Колодки тормозные передние с датчиком Audi A4 (07-) / A6 (11-) / A7 (10-) / Porsche Macan (14-)</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -5604,7 +5604,7 @@
         </is>
       </c>
       <c r="D199" t="n">
-        <v>755</v>
+        <v>839</v>
       </c>
       <c r="E199" t="n">
         <v>10</v>
@@ -5616,12 +5616,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>BP099AVT</t>
+          <t>BP037AVT</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика VW Polo Sedan (10-)</t>
+          <t>Колодки тормозные передние с датчиком Audi A6 (04-)</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -5630,7 +5630,7 @@
         </is>
       </c>
       <c r="D200" t="n">
-        <v>824</v>
+        <v>988</v>
       </c>
       <c r="E200" t="n">
         <v>10</v>
@@ -5642,12 +5642,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>BP008AVT</t>
+          <t>BP051AVT</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние без датчика VW Polo Sedan (2010-)</t>
+          <t>Колодки тормозные передние с датчиком Audi A6 (97-) / Allroad (00-)</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -5656,7 +5656,7 @@
         </is>
       </c>
       <c r="D201" t="n">
-        <v>820</v>
+        <v>1306</v>
       </c>
       <c r="E201" t="n">
         <v>10</v>
@@ -5668,12 +5668,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>BP003AVT</t>
+          <t>BP001AVT</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние с датчиками VW Polo Sedan (10-)</t>
+          <t>Колодки тормозные передние с датчиком Lada Largus (12-) 8V / Renault Logan (04-)</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -5682,7 +5682,7 @@
         </is>
       </c>
       <c r="D202" t="n">
-        <v>942</v>
+        <v>605</v>
       </c>
       <c r="E202" t="n">
         <v>10</v>
@@ -5694,12 +5694,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>BP102AVT</t>
+          <t>BP009AVT</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние с датчиком Audi A4 (07-) / A6 (11-) / A7 (10-) / Porsche Macan (14-)</t>
+          <t>Колодки тормозные передние с датчиком Skoda Octavia A5 (04-)</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -5708,7 +5708,7 @@
         </is>
       </c>
       <c r="D203" t="n">
-        <v>839</v>
+        <v>1004</v>
       </c>
       <c r="E203" t="n">
         <v>10</v>
@@ -5720,12 +5720,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>BP037AVT</t>
+          <t>BP047AVT</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние с датчиком Audi A6 (04-)</t>
+          <t>Колодки тормозные передние с датчиком Skoda Octavia A7 (13-) / Volkswagen Golf VII (12-)</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -5734,7 +5734,7 @@
         </is>
       </c>
       <c r="D204" t="n">
-        <v>988</v>
+        <v>992</v>
       </c>
       <c r="E204" t="n">
         <v>10</v>
@@ -5746,12 +5746,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>BP051AVT</t>
+          <t>BP038AVT</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние с датчиком Audi A6 (97-) / Allroad (00-)</t>
+          <t>Колодки тормозные передние с датчиком Skoda Rapid (12-) / Octavia A7 (13-) / A8 (20-)</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -5760,7 +5760,7 @@
         </is>
       </c>
       <c r="D205" t="n">
-        <v>1306</v>
+        <v>1140</v>
       </c>
       <c r="E205" t="n">
         <v>10</v>
@@ -5772,12 +5772,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>BP001AVT</t>
+          <t>BP045AVT</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние с датчиком Lada Largus (12-) 8V / Renault Logan (04-)</t>
+          <t>Колодки тормозные передние с датчиком VW Tiguan (08-)</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -5786,7 +5786,7 @@
         </is>
       </c>
       <c r="D206" t="n">
-        <v>605</v>
+        <v>1163</v>
       </c>
       <c r="E206" t="n">
         <v>10</v>
@@ -5798,12 +5798,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>BP009AVT</t>
+          <t>832198AVT</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние с датчиком Skoda Octavia A5 (04-)</t>
+          <t>Комплект сцепления LADA Largus (корзина+диск) для 21809</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -5812,7 +5812,7 @@
         </is>
       </c>
       <c r="D207" t="n">
-        <v>1004</v>
+        <v>12000</v>
       </c>
       <c r="E207" t="n">
         <v>10</v>
@@ -5824,12 +5824,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>BP047AVT</t>
+          <t>832198AVT</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние с датчиком Skoda Octavia A7 (13-) / Volkswagen Golf VII (12-)</t>
+          <t>Комплект сцепления LADA Largus (корзина+диск) для 21809</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -5838,7 +5838,7 @@
         </is>
       </c>
       <c r="D208" t="n">
-        <v>992</v>
+        <v>12000</v>
       </c>
       <c r="E208" t="n">
         <v>10</v>
@@ -5850,12 +5850,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>BP038AVT</t>
+          <t>832290AVT</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние с датчиком Skoda Rapid (12-) / Octavia A7 (13-) / A8 (20-)</t>
+          <t>Комплект сцепления LADA Largus с подшипником для LADA Vesta / X-RAY 1.8 (коробка робот)</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -5864,7 +5864,7 @@
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1140</v>
+        <v>6120</v>
       </c>
       <c r="E209" t="n">
         <v>10</v>
@@ -5876,12 +5876,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>BP045AVT</t>
+          <t>832290AVT</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Колодки тормозные передние с датчиком VW Tiguan (08-)</t>
+          <t>Комплект сцепления LADA Largus с подшипником для LADA Vesta / X-RAY 1.8 (коробка робот)</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -5890,7 +5890,7 @@
         </is>
       </c>
       <c r="D210" t="n">
-        <v>1163</v>
+        <v>6120</v>
       </c>
       <c r="E210" t="n">
         <v>10</v>
@@ -5902,12 +5902,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>832198AVT</t>
+          <t>826743AVT</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Комплект сцепления LADA Largus (корзина+диск) для 21809</t>
+          <t>Комплект сцепления без подшипника Ford Focus II / C-Max (05-) 1.8</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -5916,7 +5916,7 @@
         </is>
       </c>
       <c r="D211" t="n">
-        <v>12000</v>
+        <v>5185</v>
       </c>
       <c r="E211" t="n">
         <v>10</v>
@@ -5928,12 +5928,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>832198AVT</t>
+          <t>826816AVT</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Комплект сцепления LADA Largus (корзина+диск) для 21809</t>
+          <t>Комплект сцепления без подшипника Renault Trafic II (98-) 2.5</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -5942,7 +5942,7 @@
         </is>
       </c>
       <c r="D212" t="n">
-        <v>12000</v>
+        <v>5926</v>
       </c>
       <c r="E212" t="n">
         <v>10</v>
@@ -5954,12 +5954,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>832290AVT</t>
+          <t>826222AVT</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Комплект сцепления LADA Largus с подшипником для LADA Vesta / X-RAY 1.8 (коробка робот)</t>
+          <t>Комплект сцепления с подшипником 2110</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -5968,7 +5968,7 @@
         </is>
       </c>
       <c r="D213" t="n">
-        <v>6120</v>
+        <v>5172</v>
       </c>
       <c r="E213" t="n">
         <v>10</v>
@@ -5980,12 +5980,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>832290AVT</t>
+          <t>826222AVT</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Комплект сцепления LADA Largus с подшипником для LADA Vesta / X-RAY 1.8 (коробка робот)</t>
+          <t>Комплект сцепления с подшипником 2110</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -5994,7 +5994,7 @@
         </is>
       </c>
       <c r="D214" t="n">
-        <v>6120</v>
+        <v>5172</v>
       </c>
       <c r="E214" t="n">
         <v>10</v>
@@ -6006,12 +6006,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>826743AVT</t>
+          <t>821412AVT</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Комплект сцепления без подшипника Ford Focus II / C-Max (05-) 1.8</t>
+          <t>Комплект сцепления с подшипником Daewoo Matiz (98-) 0.8</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -6020,7 +6020,7 @@
         </is>
       </c>
       <c r="D215" t="n">
-        <v>5185</v>
+        <v>3037</v>
       </c>
       <c r="E215" t="n">
         <v>10</v>
@@ -6032,12 +6032,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>826816AVT</t>
+          <t>821412AVT</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Комплект сцепления без подшипника Renault Trafic II (98-) 2.5</t>
+          <t>Комплект сцепления с подшипником Daewoo Matiz (98-) 0.8</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="D216" t="n">
-        <v>5926</v>
+        <v>3037</v>
       </c>
       <c r="E216" t="n">
         <v>10</v>
@@ -6058,12 +6058,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>826222AVT</t>
+          <t>821099AVT</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником 2110</t>
+          <t>Комплект сцепления с подшипником Daewoo Nexia (95-) 1.5</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -6072,7 +6072,7 @@
         </is>
       </c>
       <c r="D217" t="n">
-        <v>5172</v>
+        <v>4592</v>
       </c>
       <c r="E217" t="n">
         <v>10</v>
@@ -6084,12 +6084,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>826222AVT</t>
+          <t>826696AVT</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником 2110</t>
+          <t>Комплект сцепления с подшипником Fiat Punto / Albeo / Doblo (05-) 1.4</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -6098,7 +6098,7 @@
         </is>
       </c>
       <c r="D218" t="n">
-        <v>5172</v>
+        <v>4445</v>
       </c>
       <c r="E218" t="n">
         <v>10</v>
@@ -6110,12 +6110,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>821412AVT</t>
+          <t>826417AVT</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Daewoo Matiz (98-) 0.8</t>
+          <t>Комплект сцепления с подшипником Hyundai Accent / Getz (02-) 1.6</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -6124,7 +6124,7 @@
         </is>
       </c>
       <c r="D219" t="n">
-        <v>3037</v>
+        <v>4814</v>
       </c>
       <c r="E219" t="n">
         <v>10</v>
@@ -6136,12 +6136,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>821412AVT</t>
+          <t>826417AVT</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Daewoo Matiz (98-) 0.8</t>
+          <t>Комплект сцепления с подшипником Hyundai Accent / Getz (02-) 1.6</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -6150,7 +6150,7 @@
         </is>
       </c>
       <c r="D220" t="n">
-        <v>3037</v>
+        <v>4814</v>
       </c>
       <c r="E220" t="n">
         <v>10</v>
@@ -6162,12 +6162,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>821099AVT</t>
+          <t>828005AVT</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Daewoo Nexia (95-) 1.5</t>
+          <t>Комплект сцепления с подшипником Hyundai Porter H-100 (96-) 2.5D</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -6176,7 +6176,7 @@
         </is>
       </c>
       <c r="D221" t="n">
-        <v>4592</v>
+        <v>5926</v>
       </c>
       <c r="E221" t="n">
         <v>10</v>
@@ -6188,12 +6188,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>826696AVT</t>
+          <t>828005AVT</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Fiat Punto / Albeo / Doblo (05-) 1.4</t>
+          <t>Комплект сцепления с подшипником Hyundai Porter H-100 (96-) 2.5D</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="D222" t="n">
-        <v>4445</v>
+        <v>5926</v>
       </c>
       <c r="E222" t="n">
         <v>10</v>
@@ -6214,12 +6214,12 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>826417AVT</t>
+          <t>826995AVT</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Hyundai Accent / Getz (02-) 1.6</t>
+          <t>Комплект сцепления с подшипником Hyundai Solaris I (10-)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -6228,7 +6228,7 @@
         </is>
       </c>
       <c r="D223" t="n">
-        <v>4814</v>
+        <v>4223</v>
       </c>
       <c r="E223" t="n">
         <v>10</v>
@@ -6240,12 +6240,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>826417AVT</t>
+          <t>826995AVT</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Hyundai Accent / Getz (02-) 1.6</t>
+          <t>Комплект сцепления с подшипником Hyundai Solaris I (10-)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -6254,7 +6254,7 @@
         </is>
       </c>
       <c r="D224" t="n">
-        <v>4814</v>
+        <v>4223</v>
       </c>
       <c r="E224" t="n">
         <v>10</v>
@@ -6266,12 +6266,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>826742AVT</t>
+          <t>801930AVT</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Hyundai Accent ТаГАЗ / Getz (05-) 1.4-1.5</t>
+          <t>Комплект сцепления с подшипником Mazda 323 / 626 / MPV II (91-) 1.8-2.0</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -6280,10 +6280,10 @@
         </is>
       </c>
       <c r="D225" t="n">
-        <v>5556</v>
+        <v>5185</v>
       </c>
       <c r="E225" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F225" t="n">
         <v>1</v>
@@ -6292,12 +6292,12 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>826742AVT</t>
+          <t>801930AVT</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Hyundai Accent ТаГАЗ / Getz (05-) 1.4-1.5</t>
+          <t>Комплект сцепления с подшипником Mazda 323 / 626 / MPV II (91-) 1.8-2.0</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -6306,10 +6306,10 @@
         </is>
       </c>
       <c r="D226" t="n">
-        <v>5556</v>
+        <v>5185</v>
       </c>
       <c r="E226" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F226" t="n">
         <v>1</v>
@@ -6318,12 +6318,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>826418AVT</t>
+          <t>828807AVT</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Hyundai Elantra (00-) 1.6</t>
+          <t>Комплект сцепления с подшипником Mitsubishi L200 / Pajero Sport (06-) 2.5</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -6332,10 +6332,10 @@
         </is>
       </c>
       <c r="D227" t="n">
-        <v>4445</v>
+        <v>7408</v>
       </c>
       <c r="E227" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F227" t="n">
         <v>1</v>
@@ -6344,12 +6344,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>826418AVT</t>
+          <t>826426AVT</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Hyundai Elantra (00-) 1.6</t>
+          <t>Комплект сцепления с подшипником Mitsubishi L200 / Pajero Sport (96-) 2.5D</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="D228" t="n">
-        <v>4445</v>
+        <v>7037</v>
       </c>
       <c r="E228" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F228" t="n">
         <v>1</v>
@@ -6370,12 +6370,12 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>828005AVT</t>
+          <t>826426AVT</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Hyundai Porter H-100 (96-) 2.5D</t>
+          <t>Комплект сцепления с подшипником Mitsubishi L200 / Pajero Sport (96-) 2.5D</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -6384,7 +6384,7 @@
         </is>
       </c>
       <c r="D229" t="n">
-        <v>5926</v>
+        <v>7037</v>
       </c>
       <c r="E229" t="n">
         <v>10</v>
@@ -6396,12 +6396,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>828005AVT</t>
+          <t>828600AVT</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Hyundai Porter H-100 (96-) 2.5D</t>
+          <t>Комплект сцепления с подшипником Mitsubishi Lancer (03-) 1.3-1.6</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -6410,7 +6410,7 @@
         </is>
       </c>
       <c r="D230" t="n">
-        <v>5926</v>
+        <v>4445</v>
       </c>
       <c r="E230" t="n">
         <v>10</v>
@@ -6422,12 +6422,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>826995AVT</t>
+          <t>828600AVT</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Hyundai Solaris I (10-)</t>
+          <t>Комплект сцепления с подшипником Mitsubishi Lancer (03-) 1.3-1.6</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -6436,7 +6436,7 @@
         </is>
       </c>
       <c r="D231" t="n">
-        <v>4223</v>
+        <v>4445</v>
       </c>
       <c r="E231" t="n">
         <v>10</v>
@@ -6448,12 +6448,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>826995AVT</t>
+          <t>801502AVT</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Hyundai Solaris I (10-)</t>
+          <t>Комплект сцепления с подшипником Toyota Carina / Corolla (87-) 1.3-1.8</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -6462,7 +6462,7 @@
         </is>
       </c>
       <c r="D232" t="n">
-        <v>4223</v>
+        <v>4445</v>
       </c>
       <c r="E232" t="n">
         <v>10</v>
@@ -6474,12 +6474,12 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>801930AVT</t>
+          <t>801502AVT</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Mazda 323 / 626 / MPV II (91-) 1.8-2.0</t>
+          <t>Комплект сцепления с подшипником Toyota Carina / Corolla (87-) 1.3-1.8</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -6488,7 +6488,7 @@
         </is>
       </c>
       <c r="D233" t="n">
-        <v>5185</v>
+        <v>4445</v>
       </c>
       <c r="E233" t="n">
         <v>10</v>
@@ -6500,12 +6500,12 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>801930AVT</t>
+          <t>801358AVT</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Mazda 323 / 626 / MPV II (91-) 1.8-2.0</t>
+          <t>Комплект сцепления с подшипником VW Transporter T4 (90-) 1.9</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -6517,7 +6517,7 @@
         <v>5185</v>
       </c>
       <c r="E234" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F234" t="n">
         <v>1</v>
@@ -6526,12 +6526,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>828807AVT</t>
+          <t>826729AVT</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Mitsubishi L200 / Pajero Sport (06-) 2.5</t>
+          <t>Комплект сцепления с подшипником VW Transporter T5 (03-) 1.9</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -6540,7 +6540,7 @@
         </is>
       </c>
       <c r="D235" t="n">
-        <v>7408</v>
+        <v>8888</v>
       </c>
       <c r="E235" t="n">
         <v>10</v>
@@ -6552,12 +6552,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>826426AVT</t>
+          <t>832460AVT</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Mitsubishi L200 / Pajero Sport (96-) 2.5D</t>
+          <t>Комплект сцепления с подшипником Гранта</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -6566,7 +6566,7 @@
         </is>
       </c>
       <c r="D236" t="n">
-        <v>7037</v>
+        <v>5544</v>
       </c>
       <c r="E236" t="n">
         <v>10</v>
@@ -6578,12 +6578,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>826426AVT</t>
+          <t>832460AVT</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Mitsubishi L200 / Pajero Sport (96-) 2.5D</t>
+          <t>Комплект сцепления с подшипником Гранта</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -6592,7 +6592,7 @@
         </is>
       </c>
       <c r="D237" t="n">
-        <v>7037</v>
+        <v>5544</v>
       </c>
       <c r="E237" t="n">
         <v>10</v>
@@ -6604,12 +6604,12 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>828600AVT</t>
+          <t>828003AVT</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Mitsubishi Lancer (03-) 1.3-1.6</t>
+          <t>Комплект сцепления с подшипником Приора</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -6618,7 +6618,7 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>4445</v>
+        <v>5544</v>
       </c>
       <c r="E238" t="n">
         <v>10</v>
@@ -6630,12 +6630,12 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>828600AVT</t>
+          <t>828003AVT</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Mitsubishi Lancer (03-) 1.3-1.6</t>
+          <t>Комплект сцепления с подшипником Приора</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -6644,7 +6644,7 @@
         </is>
       </c>
       <c r="D239" t="n">
-        <v>4445</v>
+        <v>5544</v>
       </c>
       <c r="E239" t="n">
         <v>10</v>
@@ -6656,12 +6656,12 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>801502AVT</t>
+          <t>CD049AVT</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Toyota Carina / Corolla (87-) 1.3-1.8</t>
+          <t>Конденсор Lada Vesta</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -6670,7 +6670,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>4445</v>
+        <v>5077</v>
       </c>
       <c r="E240" t="n">
         <v>10</v>
@@ -6682,12 +6682,12 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>801502AVT</t>
+          <t>836365AVT</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником Toyota Carina / Corolla (87-) 1.3-1.8</t>
+          <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -6696,10 +6696,10 @@
         </is>
       </c>
       <c r="D241" t="n">
-        <v>4445</v>
+        <v>3300</v>
       </c>
       <c r="E241" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F241" t="n">
         <v>1</v>
@@ -6708,12 +6708,12 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>801358AVT</t>
+          <t>836365AVT</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником VW Transporter T4 (90-) 1.9</t>
+          <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -6722,10 +6722,10 @@
         </is>
       </c>
       <c r="D242" t="n">
-        <v>5185</v>
+        <v>3300</v>
       </c>
       <c r="E242" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F242" t="n">
         <v>1</v>
@@ -6734,12 +6734,12 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>826729AVT</t>
+          <t>804296AVT</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Комплект сцепления с подшипником VW Transporter T5 (03-) 1.9</t>
+          <t>Подшипник выжимной 2108-2112</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -6748,7 +6748,7 @@
         </is>
       </c>
       <c r="D243" t="n">
-        <v>8888</v>
+        <v>811</v>
       </c>
       <c r="E243" t="n">
         <v>10</v>
@@ -6760,12 +6760,12 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>CD049AVT</t>
+          <t>804296AVT</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Конденсор Lada Vesta</t>
+          <t>Подшипник выжимной 2108-2112</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -6774,7 +6774,7 @@
         </is>
       </c>
       <c r="D244" t="n">
-        <v>5077</v>
+        <v>811</v>
       </c>
       <c r="E244" t="n">
         <v>10</v>
@@ -6786,12 +6786,12 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>836365AVT</t>
+          <t>804297AVT</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
+          <t>Подшипник выжимной NIVA</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -6800,10 +6800,10 @@
         </is>
       </c>
       <c r="D245" t="n">
-        <v>3300</v>
+        <v>1087</v>
       </c>
       <c r="E245" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F245" t="n">
         <v>1</v>
@@ -6812,12 +6812,12 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>836365AVT</t>
+          <t>804297AVT</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Одномассовый маховик Renault Logan/Duster 1.6</t>
+          <t>Подшипник выжимной NIVA</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -6826,10 +6826,10 @@
         </is>
       </c>
       <c r="D246" t="n">
-        <v>3300</v>
+        <v>1087</v>
       </c>
       <c r="E246" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F246" t="n">
         <v>1</v>
@@ -6838,12 +6838,12 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>804296AVT</t>
+          <t>804544AVT</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Подшипник выжимной 2108-2112</t>
+          <t>Подшипник гидравлический RENAULT/NISSAN</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -6852,7 +6852,7 @@
         </is>
       </c>
       <c r="D247" t="n">
-        <v>811</v>
+        <v>5640</v>
       </c>
       <c r="E247" t="n">
         <v>10</v>
@@ -6864,12 +6864,12 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>804296AVT</t>
+          <t>804544AVT</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Подшипник выжимной 2108-2112</t>
+          <t>Подшипник гидравлический RENAULT/NISSAN</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -6878,7 +6878,7 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>811</v>
+        <v>5640</v>
       </c>
       <c r="E248" t="n">
         <v>10</v>
@@ -6890,12 +6890,12 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>804297AVT</t>
+          <t>RD039AVT</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Подшипник выжимной NIVA</t>
+          <t>Радиатор двигателя Audi A4 (-15) / A5 (-17) / Q5 (08-) / Porsche Macan (14-) 2.7-3.2</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -6904,7 +6904,7 @@
         </is>
       </c>
       <c r="D249" t="n">
-        <v>1087</v>
+        <v>8958</v>
       </c>
       <c r="E249" t="n">
         <v>10</v>
@@ -6916,12 +6916,12 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>804297AVT</t>
+          <t>RD104AVT</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Подшипник выжимной NIVA</t>
+          <t>Радиатор двигателя BMW 1 (04-) 1.6-3.0 / 3 (05-) 1.8-3.0 / X1 (09-) 2.0-3.0</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -6930,7 +6930,7 @@
         </is>
       </c>
       <c r="D250" t="n">
-        <v>1087</v>
+        <v>4925</v>
       </c>
       <c r="E250" t="n">
         <v>10</v>
@@ -6942,12 +6942,12 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>804544AVT</t>
+          <t>RD038AVT</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Подшипник гидравлический RENAULT/NISSAN</t>
+          <t>Радиатор двигателя BMW 1 (12-) 2 (13-), 3 (11-), 4 (13-) 1.5-3.0</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -6956,10 +6956,10 @@
         </is>
       </c>
       <c r="D251" t="n">
-        <v>5640</v>
+        <v>5251</v>
       </c>
       <c r="E251" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F251" t="n">
         <v>1</v>
@@ -6968,12 +6968,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>804544AVT</t>
+          <t>RD084AVT</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Подшипник гидравлический RENAULT/NISSAN</t>
+          <t>Радиатор двигателя BMW 5 (95-) 2.0-4.4</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -6982,7 +6982,7 @@
         </is>
       </c>
       <c r="D252" t="n">
-        <v>5640</v>
+        <v>4745</v>
       </c>
       <c r="E252" t="n">
         <v>10</v>
@@ -6994,12 +6994,12 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>RD039AVT</t>
+          <t>RD085AVT</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Audi A4 (-15) / A5 (-17) / Q5 (08-) / Porsche Macan (14-) 2.7-3.2</t>
+          <t>Радиатор двигателя BMW X3 (10-) / X4 (14-) 2.0-3.0</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -7008,7 +7008,7 @@
         </is>
       </c>
       <c r="D253" t="n">
-        <v>8958</v>
+        <v>4108</v>
       </c>
       <c r="E253" t="n">
         <v>10</v>
@@ -7020,12 +7020,12 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>RD104AVT</t>
+          <t>RD034AVT</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Радиатор двигателя BMW 1 (04-) 1.6-3.0 / 3 (05-) 1.8-3.0 / X1 (09-) 2.0-3.0</t>
+          <t>Радиатор двигателя BMW X5 (-13) 3.0-4.8</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -7034,7 +7034,7 @@
         </is>
       </c>
       <c r="D254" t="n">
-        <v>4925</v>
+        <v>11434</v>
       </c>
       <c r="E254" t="n">
         <v>10</v>
@@ -7046,12 +7046,12 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>RD038AVT</t>
+          <t>RD105AVT</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Радиатор двигателя BMW 1 (12-) 2 (13-), 3 (11-), 4 (13-) 1.5-3.0</t>
+          <t>Радиатор двигателя Chevrolet Aveo T300 (11-) 1.6 AT</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -7060,10 +7060,10 @@
         </is>
       </c>
       <c r="D255" t="n">
-        <v>5251</v>
+        <v>6307</v>
       </c>
       <c r="E255" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F255" t="n">
         <v>1</v>
@@ -7072,12 +7072,12 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>RD084AVT</t>
+          <t>RD106AVT</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Радиатор двигателя BMW 5 (95-) 2.0-4.4</t>
+          <t>Радиатор двигателя Chevrolet Aveo T300 (11-) 1.6 MT</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -7086,10 +7086,10 @@
         </is>
       </c>
       <c r="D256" t="n">
-        <v>4745</v>
+        <v>5243</v>
       </c>
       <c r="E256" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F256" t="n">
         <v>1</v>
@@ -7098,12 +7098,12 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>RD085AVT</t>
+          <t>RD086AVT</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Радиатор двигателя BMW X3 (10-) / X4 (14-) 2.0-3.0</t>
+          <t>Радиатор двигателя Honda CR-V (06-) 2.4</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -7112,7 +7112,7 @@
         </is>
       </c>
       <c r="D257" t="n">
-        <v>4108</v>
+        <v>5723</v>
       </c>
       <c r="E257" t="n">
         <v>10</v>
@@ -7124,12 +7124,12 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>RD034AVT</t>
+          <t>RD056AVT</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Радиатор двигателя BMW X5 (-13) 3.0-4.8</t>
+          <t>Радиатор двигателя KIA CEED / HYUNDAI i30 / ELANTRA IV (06-) 1.4-2.0i AT</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -7138,7 +7138,7 @@
         </is>
       </c>
       <c r="D258" t="n">
-        <v>11434</v>
+        <v>6533</v>
       </c>
       <c r="E258" t="n">
         <v>10</v>
@@ -7150,12 +7150,12 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>RD105AVT</t>
+          <t>RD056AVT</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Chevrolet Aveo T300 (11-) 1.6 AT</t>
+          <t>Радиатор двигателя KIA CEED / HYUNDAI i30 / ELANTRA IV (06-) 1.4-2.0i AT</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -7164,7 +7164,7 @@
         </is>
       </c>
       <c r="D259" t="n">
-        <v>6307</v>
+        <v>6533</v>
       </c>
       <c r="E259" t="n">
         <v>10</v>
@@ -7176,12 +7176,12 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>RD106AVT</t>
+          <t>RD087AVT</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Chevrolet Aveo T300 (11-) 1.6 MT</t>
+          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -7190,10 +7190,10 @@
         </is>
       </c>
       <c r="D260" t="n">
-        <v>5243</v>
+        <v>7403</v>
       </c>
       <c r="E260" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F260" t="n">
         <v>1</v>
@@ -7202,12 +7202,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>RD086AVT</t>
+          <t>RD087AVT</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Honda CR-V (06-) 2.4</t>
+          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -7216,10 +7216,10 @@
         </is>
       </c>
       <c r="D261" t="n">
-        <v>5723</v>
+        <v>7403</v>
       </c>
       <c r="E261" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F261" t="n">
         <v>1</v>
@@ -7228,12 +7228,12 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>RD056AVT</t>
+          <t>RD065AVT</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA CEED / HYUNDAI i30 / ELANTRA IV (06-) 1.4-2.0i AT</t>
+          <t>Радиатор двигателя Kia Optima (15-) 2.0-2.4</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -7242,10 +7242,10 @@
         </is>
       </c>
       <c r="D262" t="n">
-        <v>6533</v>
+        <v>5503</v>
       </c>
       <c r="E262" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F262" t="n">
         <v>1</v>
@@ -7254,12 +7254,12 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>RD056AVT</t>
+          <t>RD088AVT</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Радиатор двигателя KIA CEED / HYUNDAI i30 / ELANTRA IV (06-) 1.4-2.0i AT</t>
+          <t>Радиатор двигателя Kia Rio (05-) 1.4-1.6</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -7268,7 +7268,7 @@
         </is>
       </c>
       <c r="D263" t="n">
-        <v>6533</v>
+        <v>5900</v>
       </c>
       <c r="E263" t="n">
         <v>10</v>
@@ -7280,12 +7280,12 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>RD087AVT</t>
+          <t>RD089AVT</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
+          <t>Радиатор двигателя Kia Soul III (19-) / Seltos (19-) 1.6-2.0</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -7294,7 +7294,7 @@
         </is>
       </c>
       <c r="D264" t="n">
-        <v>7403</v>
+        <v>5623</v>
       </c>
       <c r="E264" t="n">
         <v>2</v>
@@ -7306,12 +7306,12 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>RD087AVT</t>
+          <t>RD047AVT</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia K5 (20-) 2.0-2.5</t>
+          <t>Радиатор двигателя Land Rover Discovery (17-) / Range Rover (13-) 3.0-5.0</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -7320,10 +7320,10 @@
         </is>
       </c>
       <c r="D265" t="n">
-        <v>7403</v>
+        <v>7120</v>
       </c>
       <c r="E265" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F265" t="n">
         <v>1</v>
@@ -7332,12 +7332,12 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>RD065AVT</t>
+          <t>RD090AVT</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia Optima (15-) 2.0-2.4</t>
+          <t>Радиатор двигателя Lexus RX 350 / 450h (09-) 3.5</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -7346,10 +7346,10 @@
         </is>
       </c>
       <c r="D266" t="n">
-        <v>5503</v>
+        <v>6131</v>
       </c>
       <c r="E266" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F266" t="n">
         <v>1</v>
@@ -7358,12 +7358,12 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>RD088AVT</t>
+          <t>RD091AVT</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia Rio (05-) 1.4-1.6</t>
+          <t>Радиатор двигателя Mazda CX-7 (07-) 2.2-2.5</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -7372,10 +7372,10 @@
         </is>
       </c>
       <c r="D267" t="n">
-        <v>5900</v>
+        <v>7627</v>
       </c>
       <c r="E267" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F267" t="n">
         <v>1</v>
@@ -7384,12 +7384,12 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>RD089AVT</t>
+          <t>RD036AVT</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Kia Soul III (19-) / Seltos (19-) 1.6-2.0</t>
+          <t>Радиатор двигателя MB A (-14) / B (11-) / CLA (-19) / GLA (13-) 1.5-2.2</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -7398,10 +7398,10 @@
         </is>
       </c>
       <c r="D268" t="n">
-        <v>5623</v>
+        <v>5425</v>
       </c>
       <c r="E268" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F268" t="n">
         <v>1</v>
@@ -7410,12 +7410,12 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>RD047AVT</t>
+          <t>RD032AVT</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Land Rover Discovery (17-) / Range Rover (13-) 3.0-5.0</t>
+          <t>Радиатор двигателя MB C (07-) / E (-16) / GLK (08-) 1.6-3.5</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -7424,7 +7424,7 @@
         </is>
       </c>
       <c r="D269" t="n">
-        <v>7120</v>
+        <v>6668</v>
       </c>
       <c r="E269" t="n">
         <v>10</v>
@@ -7436,12 +7436,12 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>RD090AVT</t>
+          <t>RD037AVT</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Lexus RX 350 / 450h (09-) 3.5</t>
+          <t>Радиатор двигателя MB C (14-) / E (16-) / GLC (15-) 1.6-3.0</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -7450,7 +7450,7 @@
         </is>
       </c>
       <c r="D270" t="n">
-        <v>6131</v>
+        <v>4728</v>
       </c>
       <c r="E270" t="n">
         <v>10</v>
@@ -7462,12 +7462,12 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>RD091AVT</t>
+          <t>RD092AVT</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Mazda CX-7 (07-) 2.2-2.5</t>
+          <t>Радиатор двигателя Mitsubishi ASX (10-) 1.8</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -7476,10 +7476,10 @@
         </is>
       </c>
       <c r="D271" t="n">
-        <v>7627</v>
+        <v>4736</v>
       </c>
       <c r="E271" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F271" t="n">
         <v>1</v>
@@ -7488,12 +7488,12 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>RD036AVT</t>
+          <t>RD102AVT</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MB A (-14) / B (11-) / CLA (-19) / GLA (13-) 1.5-2.2</t>
+          <t>Радиатор двигателя Mitsubishi Carisma (95-) / Space Star (98-) 1.3-1.8 MT</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -7502,10 +7502,10 @@
         </is>
       </c>
       <c r="D272" t="n">
-        <v>5425</v>
+        <v>5130</v>
       </c>
       <c r="E272" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F272" t="n">
         <v>1</v>
@@ -7514,12 +7514,12 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>RD032AVT</t>
+          <t>RD066AVT</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MB C (07-) / E (-16) / GLK (08-) 1.6-3.5</t>
+          <t>Радиатор двигателя Mitsubishi Lancer IX (00-) MT 1.3-2.0</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -7528,7 +7528,7 @@
         </is>
       </c>
       <c r="D273" t="n">
-        <v>6668</v>
+        <v>4772</v>
       </c>
       <c r="E273" t="n">
         <v>10</v>
@@ -7540,12 +7540,12 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>RD037AVT</t>
+          <t>RD093AVT</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Радиатор двигателя MB C (14-) / E (16-) / GLC (15-) 1.6-3.0</t>
+          <t>Радиатор двигателя Mitsubishi Pajero III (98-) / Pajero IV (06-) 3.0-3.8</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -7554,7 +7554,7 @@
         </is>
       </c>
       <c r="D274" t="n">
-        <v>4728</v>
+        <v>6186</v>
       </c>
       <c r="E274" t="n">
         <v>10</v>
@@ -7566,12 +7566,12 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>RD092AVT</t>
+          <t>RD068AVT</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Mitsubishi ASX (10-) 1.8</t>
+          <t>Радиатор двигателя Nissan Almera / Primera (00-) MT 1.5-1.8</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -7580,10 +7580,10 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>4736</v>
+        <v>4579</v>
       </c>
       <c r="E275" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F275" t="n">
         <v>1</v>
@@ -7592,12 +7592,12 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>RD102AVT</t>
+          <t>RD067AVT</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Mitsubishi Carisma (95-) / Space Star (98-) 1.3-1.8 MT</t>
+          <t>Радиатор двигателя Nissan Almera Classic (05-)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -7606,7 +7606,7 @@
         </is>
       </c>
       <c r="D276" t="n">
-        <v>5130</v>
+        <v>6370</v>
       </c>
       <c r="E276" t="n">
         <v>10</v>
@@ -7618,12 +7618,12 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>RD066AVT</t>
+          <t>RD069AVT</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Mitsubishi Lancer IX (00-) MT 1.3-2.0</t>
+          <t>Радиатор двигателя Nissan Micra (02-) / Note (06-) 1.0-1.6</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -7632,7 +7632,7 @@
         </is>
       </c>
       <c r="D277" t="n">
-        <v>4772</v>
+        <v>4592</v>
       </c>
       <c r="E277" t="n">
         <v>10</v>
@@ -7644,12 +7644,12 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>RD093AVT</t>
+          <t>RD070AVT</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Mitsubishi Pajero III (98-) / Pajero IV (06-) 3.0-3.8</t>
+          <t>Радиатор двигателя Opel Astra J (10-) / Сhevrolet Cruze (09-) 1.4-1.8</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -7658,10 +7658,10 @@
         </is>
       </c>
       <c r="D278" t="n">
-        <v>6186</v>
+        <v>5116</v>
       </c>
       <c r="E278" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F278" t="n">
         <v>1</v>
@@ -7670,12 +7670,12 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>RD068AVT</t>
+          <t>RD071AVT</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Nissan Almera / Primera (00-) MT 1.5-1.8</t>
+          <t>Радиатор двигателя Opel Corsa D (06-) 1.0-1.4</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -7684,7 +7684,7 @@
         </is>
       </c>
       <c r="D279" t="n">
-        <v>4579</v>
+        <v>3202</v>
       </c>
       <c r="E279" t="n">
         <v>10</v>
@@ -7696,12 +7696,12 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>RD067AVT</t>
+          <t>RD103AVT</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Nissan Almera Classic (05-)</t>
+          <t>Радиатор двигателя Peugeot 206 (98-) 1.4-2.0 / Citroen C4 (04-) 1.6 / Xsara Picasso 2.0 AT</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -7710,7 +7710,7 @@
         </is>
       </c>
       <c r="D280" t="n">
-        <v>6370</v>
+        <v>3456</v>
       </c>
       <c r="E280" t="n">
         <v>10</v>
@@ -7722,12 +7722,12 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>RD069AVT</t>
+          <t>RD072AVT</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Nissan Micra (02-) / Note (06-) 1.0-1.6</t>
+          <t>Радиатор двигателя Peugeot 308 / Citroen C4 (07-)</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -7736,7 +7736,7 @@
         </is>
       </c>
       <c r="D281" t="n">
-        <v>4592</v>
+        <v>3569</v>
       </c>
       <c r="E281" t="n">
         <v>10</v>
@@ -7748,12 +7748,12 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>RD070AVT</t>
+          <t>RD073AVT</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Радиатор двигателя Opel Astra J (10-) / Сhevrolet Cruze (09-) 1.4-1.8</t>
+          <t>Радиатор двигателя Renault Megane / Scenic II (02-) 1.4-2.0</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -7762,10 +7762,10 @@
         </is>
       </c>
       <c r="D282" t="n">
-        <v>5116</v>
+        <v>4400</v>
       </c>
       <c r="E282" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F282" t="n">
         <v>1</v>
@@ -7774,12 +7774,12 @@
     <row r="283">
       <c r="A283